--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -570,6 +570,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -607,61 +608,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
@@ -670,13 +671,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyAlignment="1">
@@ -688,10 +689,10 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
@@ -700,58 +701,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11321,49 +11322,49 @@
           <t>基金</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr"/>
+      <c r="E1" s="0" t="inlineStr"/>
       <c r="F1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr"/>
+      <c r="G1" s="0" t="inlineStr"/>
       <c r="H1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr"/>
+      <c r="I1" s="0" t="inlineStr"/>
       <c r="J1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr"/>
+      <c r="K1" s="0" t="inlineStr"/>
       <c r="L1" s="0" t="inlineStr">
         <is>
           <t>指数</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr"/>
+      <c r="M1" s="0" t="inlineStr"/>
       <c r="N1" s="0" t="inlineStr">
         <is>
           <t>指数</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr"/>
+      <c r="O1" s="0" t="inlineStr"/>
       <c r="P1" s="0" t="inlineStr">
         <is>
           <t>指数</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr"/>
+      <c r="Q1" s="0" t="inlineStr"/>
       <c r="R1" s="0" t="inlineStr">
         <is>
           <t>指数</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr"/>
+      <c r="S1" s="0" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -11374,7 +11375,7 @@
           <t>总投资</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="0" t="inlineStr"/>
       <c r="D2" s="0" t="n">
         <v>501016</v>
       </c>
@@ -11388,7 +11389,7 @@
           <t>004070</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="0" t="inlineStr">
         <is>
           <t>南方中证全指证券ETF联接C</t>
         </is>
@@ -11398,7 +11399,7 @@
           <t>003096</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>中欧医疗健康混合C</t>
         </is>
@@ -11408,7 +11409,7 @@
           <t>040046</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="0" t="inlineStr">
         <is>
           <t>华安纳斯达克100指数</t>
         </is>
@@ -11458,50 +11459,50 @@
       <c r="A3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="0" t="n">
         <v>64308</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="C3" s="0" t="inlineStr"/>
+      <c r="D3" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>1.0227</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="0" t="n">
         <v>12000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="0" t="n">
         <v>0.9508</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="0" t="n">
         <v>1.764</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="0" t="n">
         <v>2.647</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="0" t="n">
         <v>19308</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="0" t="n">
         <v>27687.76</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="0" t="n">
         <v>14000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="0" t="n">
         <v>4306.338</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="P3" s="0" t="inlineStr"/>
+      <c r="Q3" s="0" t="inlineStr"/>
+      <c r="R3" s="0" t="inlineStr"/>
+      <c r="S3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -11549,10 +11550,10 @@
       <c r="O4" s="12" t="n">
         <v>2.825644699140395</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="P4" s="0" t="inlineStr"/>
+      <c r="Q4" s="0" t="inlineStr"/>
+      <c r="R4" s="0" t="inlineStr"/>
+      <c r="S4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -11566,14 +11567,14 @@
           <t>已赎回</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr"/>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr"/>
+      <c r="I5" s="0" t="inlineStr"/>
+      <c r="J5" s="0" t="inlineStr"/>
+      <c r="K5" s="0" t="inlineStr"/>
       <c r="L5" s="0" t="n">
         <v>20000</v>
       </c>
@@ -11603,16 +11604,16 @@
       <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="B6" s="0" t="inlineStr"/>
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr"/>
+      <c r="I6" s="0" t="inlineStr"/>
+      <c r="J6" s="0" t="inlineStr"/>
+      <c r="K6" s="0" t="inlineStr"/>
       <c r="L6" s="64" t="n">
         <v>754.844271204228</v>
       </c>
@@ -11650,14 +11651,14 @@
           <t>已赎回</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr"/>
+      <c r="I7" s="0" t="inlineStr"/>
+      <c r="J7" s="0" t="inlineStr"/>
+      <c r="K7" s="0" t="inlineStr"/>
       <c r="L7" s="0" t="n">
         <v>10000</v>
       </c>
@@ -11670,25 +11671,25 @@
       <c r="O7" s="0" t="n">
         <v>4225</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="P7" s="0" t="inlineStr"/>
+      <c r="Q7" s="0" t="inlineStr"/>
+      <c r="R7" s="0" t="inlineStr"/>
+      <c r="S7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="B8" s="0" t="inlineStr"/>
+      <c r="C8" s="0" t="inlineStr"/>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr"/>
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="G8" s="0" t="inlineStr"/>
+      <c r="H8" s="0" t="inlineStr"/>
+      <c r="I8" s="0" t="inlineStr"/>
+      <c r="J8" s="0" t="inlineStr"/>
+      <c r="K8" s="0" t="inlineStr"/>
       <c r="L8" s="64" t="n">
         <v>693.237554551423</v>
       </c>
@@ -11701,10 +11702,10 @@
       <c r="O8" s="64" t="n">
         <v>1.06508875739645</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="P8" s="0" t="inlineStr"/>
+      <c r="Q8" s="0" t="inlineStr"/>
+      <c r="R8" s="0" t="inlineStr"/>
+      <c r="S8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -11720,14 +11721,14 @@
           <t>赎回</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="inlineStr"/>
+      <c r="H9" s="0" t="inlineStr"/>
+      <c r="I9" s="0" t="inlineStr"/>
+      <c r="J9" s="0" t="inlineStr"/>
+      <c r="K9" s="0" t="inlineStr"/>
       <c r="L9" s="0" t="n">
         <v>-31575.22</v>
       </c>
@@ -11757,16 +11758,16 @@
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="B10" s="0" t="inlineStr"/>
+      <c r="C10" s="0" t="inlineStr"/>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr"/>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr"/>
+      <c r="I10" s="0" t="inlineStr"/>
+      <c r="J10" s="0" t="inlineStr"/>
+      <c r="K10" s="0" t="inlineStr"/>
       <c r="L10" s="67" t="n">
         <v>1448.08</v>
       </c>
@@ -11806,14 +11807,14 @@
           <t>投资</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr"/>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr"/>
+      <c r="I11" s="0" t="inlineStr"/>
+      <c r="J11" s="0" t="inlineStr"/>
+      <c r="K11" s="0" t="inlineStr"/>
       <c r="L11" s="0" t="n">
         <v>14298</v>
       </c>
@@ -11826,25 +11827,25 @@
       <c r="O11" s="0" t="n">
         <v>4188</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="P11" s="0" t="inlineStr"/>
+      <c r="Q11" s="0" t="inlineStr"/>
+      <c r="R11" s="0" t="inlineStr"/>
+      <c r="S11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="B12" s="0" t="inlineStr"/>
+      <c r="C12" s="0" t="inlineStr"/>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr"/>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="inlineStr"/>
+      <c r="H12" s="0" t="inlineStr"/>
+      <c r="I12" s="0" t="inlineStr"/>
+      <c r="J12" s="0" t="inlineStr"/>
+      <c r="K12" s="0" t="inlineStr"/>
       <c r="L12" s="11" t="n">
         <v>539.5095566133194</v>
       </c>
@@ -11857,10 +11858,10 @@
       <c r="O12" s="11" t="n">
         <v>2.825644699140395</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="P12" s="0" t="inlineStr"/>
+      <c r="Q12" s="0" t="inlineStr"/>
+      <c r="R12" s="0" t="inlineStr"/>
+      <c r="S12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -11879,34 +11880,34 @@
       <c r="D13" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="0" t="n">
         <v>0.9656</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12000</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="0" t="n">
         <v>0.8983</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="H13" s="0" t="inlineStr"/>
+      <c r="I13" s="0" t="inlineStr"/>
+      <c r="J13" s="0" t="inlineStr"/>
+      <c r="K13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="inlineStr"/>
+      <c r="M13" s="0" t="inlineStr"/>
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr"/>
+      <c r="P13" s="0" t="inlineStr"/>
+      <c r="Q13" s="0" t="inlineStr"/>
+      <c r="R13" s="0" t="inlineStr"/>
+      <c r="S13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" s="0" t="inlineStr"/>
+      <c r="C14" s="0" t="inlineStr"/>
       <c r="D14" s="11" t="n">
         <v>768.7448218724099</v>
       </c>
@@ -11919,18 +11920,18 @@
       <c r="G14" s="11" t="n">
         <v>5.844372703996436</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="H14" s="0" t="inlineStr"/>
+      <c r="I14" s="0" t="inlineStr"/>
+      <c r="J14" s="0" t="inlineStr"/>
+      <c r="K14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="inlineStr"/>
+      <c r="M14" s="0" t="inlineStr"/>
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr"/>
+      <c r="P14" s="0" t="inlineStr"/>
+      <c r="Q14" s="0" t="inlineStr"/>
+      <c r="R14" s="0" t="inlineStr"/>
+      <c r="S14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -11946,53 +11947,53 @@
           <t>投资</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr"/>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="inlineStr"/>
       <c r="H15" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="0" t="n">
         <v>1.718</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="J15" s="0" t="inlineStr"/>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr"/>
+      <c r="M15" s="0" t="inlineStr"/>
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="inlineStr"/>
+      <c r="P15" s="0" t="inlineStr"/>
+      <c r="Q15" s="0" t="inlineStr"/>
+      <c r="R15" s="0" t="inlineStr"/>
+      <c r="S15" s="0" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="B16" s="0" t="inlineStr"/>
+      <c r="C16" s="0" t="inlineStr"/>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr"/>
+      <c r="F16" s="0" t="inlineStr"/>
+      <c r="G16" s="0" t="inlineStr"/>
       <c r="H16" s="12" t="n">
         <v>80.32596041909204</v>
       </c>
       <c r="I16" s="12" t="n">
         <v>2.677532013969735</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="J16" s="0" t="inlineStr"/>
+      <c r="K16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr"/>
+      <c r="M16" s="0" t="inlineStr"/>
+      <c r="N16" s="0" t="inlineStr"/>
+      <c r="O16" s="0" t="inlineStr"/>
+      <c r="P16" s="0" t="inlineStr"/>
+      <c r="Q16" s="0" t="inlineStr"/>
+      <c r="R16" s="0" t="inlineStr"/>
+      <c r="S16" s="0" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -12008,16 +12009,16 @@
           <t>投资</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr"/>
+      <c r="F17" s="0" t="inlineStr"/>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr"/>
+      <c r="I17" s="0" t="inlineStr"/>
       <c r="J17" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="0" t="n">
         <v>2.61</v>
       </c>
       <c r="L17" s="0" t="n">
@@ -12026,25 +12027,25 @@
       <c r="M17" s="0" t="n">
         <v>26217</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="N17" s="0" t="inlineStr"/>
+      <c r="O17" s="0" t="inlineStr"/>
+      <c r="P17" s="0" t="inlineStr"/>
+      <c r="Q17" s="0" t="inlineStr"/>
+      <c r="R17" s="0" t="inlineStr"/>
+      <c r="S17" s="0" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="B18" s="0" t="inlineStr"/>
+      <c r="C18" s="0" t="inlineStr"/>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr"/>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr"/>
+      <c r="I18" s="0" t="inlineStr"/>
       <c r="J18" s="12" t="n">
         <v>42.52873563218382</v>
       </c>
@@ -12057,33 +12058,33 @@
       <c r="M18" s="11" t="n">
         <v>5.609947743830333</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="N18" s="0" t="inlineStr"/>
+      <c r="O18" s="0" t="inlineStr"/>
+      <c r="P18" s="0" t="inlineStr"/>
+      <c r="Q18" s="0" t="inlineStr"/>
+      <c r="R18" s="0" t="inlineStr"/>
+      <c r="S18" s="0" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+      <c r="A19" s="0" t="inlineStr"/>
+      <c r="B19" s="0" t="inlineStr"/>
+      <c r="C19" s="0" t="inlineStr"/>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr"/>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" s="0" t="inlineStr"/>
+      <c r="I19" s="0" t="inlineStr"/>
+      <c r="J19" s="0" t="inlineStr"/>
+      <c r="K19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="inlineStr"/>
+      <c r="M19" s="0" t="inlineStr"/>
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="inlineStr"/>
+      <c r="P19" s="0" t="inlineStr"/>
+      <c r="Q19" s="0" t="inlineStr"/>
+      <c r="R19" s="0" t="inlineStr"/>
+      <c r="S19" s="0" t="inlineStr"/>
     </row>
     <row r="20"/>
     <row r="21">
@@ -12806,13 +12807,16 @@
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>美国认为经济好于预期，暂停降息刺激。好消息。</t>
+          <t>美国认为经济好于预期，
+暂停降息刺激。好消息。</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
           <t>美国三次降息后暂停降息。持利率在1.50%-1.75%不变。
-美国近日公布的经济数据也为美联储近期不再进一步降息提供了支撑。GDP数据显示，美国第三季度GDP同比增长1.9%，略低于第二季度的2.0%，但强于市场预测的1.6%。</t>
+美国近日公布的经济数据也为美联储近期不再进一步降息提供了支撑。
+GDP数据显示，美国第三季度GDP同比增长1.9%，
+略低于第二季度的2.0%，但强于市场预测的1.6%。</t>
         </is>
       </c>
     </row>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -12655,7 +12655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -12817,6 +12817,49 @@
 美国近日公布的经济数据也为美联储近期不再进一步降息提供了支撑。
 GDP数据显示，美国第三季度GDP同比增长1.9%，
 略低于第二季度的2.0%，但强于市场预测的1.6%。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20191213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中美关系</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>新闻</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>所有</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>大家认为经济会好转，
+股票涨了很多。</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>中美第一阶段协议达成</t>
         </is>
       </c>
     </row>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -418,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -614,6 +614,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
@@ -621,61 +628,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
@@ -684,13 +691,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyAlignment="1">
@@ -702,10 +709,10 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
@@ -714,62 +721,62 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="15" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="16" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +943,18 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1773,17 +1792,21 @@
       <c r="H2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="76" t="n">
-        <v>2.1752</v>
-      </c>
-      <c r="J2" s="77" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K2" s="78" t="inlineStr"/>
-      <c r="L2" s="78" t="n"/>
-      <c r="M2" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I2" s="84" t="n">
+        <v>2.1756</v>
+      </c>
+      <c r="J2" s="85" t="n">
+        <v>0.7642073086008142</v>
+      </c>
+      <c r="K2" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="86" t="n">
+        <v>2.1756</v>
+      </c>
+      <c r="M2" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N2" s="30">
@@ -1808,86 +1831,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T2" s="77" t="n"/>
-      <c r="U2" s="78" t="n"/>
-      <c r="V2" s="79" t="n"/>
-      <c r="W2" s="77" t="n"/>
-      <c r="X2" s="78" t="n"/>
-      <c r="Y2" s="79" t="n"/>
-      <c r="Z2" s="77" t="n"/>
-      <c r="AA2" s="78" t="n"/>
-      <c r="AB2" s="79" t="n"/>
-      <c r="AC2" s="77" t="n"/>
-      <c r="AD2" s="76" t="n"/>
-      <c r="AE2" s="79" t="n"/>
-      <c r="AF2" s="77" t="n"/>
-      <c r="AG2" s="76" t="n"/>
-      <c r="AH2" s="79" t="n"/>
-      <c r="AI2" s="77" t="n"/>
-      <c r="AJ2" s="76" t="n"/>
-      <c r="AK2" s="79" t="n"/>
-      <c r="AL2" s="77" t="n"/>
-      <c r="AM2" s="76" t="n"/>
-      <c r="AN2" s="79" t="n"/>
-      <c r="AO2" s="77" t="n"/>
-      <c r="AP2" s="76" t="n"/>
-      <c r="AQ2" s="79" t="n"/>
-      <c r="AR2" s="77" t="n"/>
-      <c r="AS2" s="76" t="n"/>
-      <c r="AT2" s="79" t="n"/>
-      <c r="AU2" s="77" t="n"/>
-      <c r="AV2" s="76" t="n"/>
-      <c r="AW2" s="79" t="n"/>
-      <c r="AX2" s="77" t="n"/>
-      <c r="AY2" s="76" t="n"/>
-      <c r="AZ2" s="79" t="n"/>
-      <c r="BA2" s="77" t="n"/>
-      <c r="BB2" s="76" t="n"/>
-      <c r="BC2" s="79" t="n"/>
-      <c r="BD2" s="80" t="n"/>
-      <c r="BE2" s="76" t="n"/>
-      <c r="BF2" s="79" t="n"/>
-      <c r="BG2" s="81" t="n"/>
-      <c r="BH2" s="76" t="n"/>
-      <c r="BI2" s="76" t="n"/>
-      <c r="BJ2" s="81" t="n"/>
-      <c r="BK2" s="76" t="n"/>
-      <c r="BL2" s="76" t="n"/>
-      <c r="BM2" s="76" t="n"/>
-      <c r="BN2" s="76" t="n"/>
-      <c r="BO2" s="76" t="n"/>
-      <c r="BP2" s="76" t="n"/>
-      <c r="BQ2" s="76" t="n"/>
-      <c r="BR2" s="76" t="n"/>
-      <c r="BS2" s="76" t="n"/>
-      <c r="BT2" s="76" t="n"/>
-      <c r="BU2" s="76" t="n"/>
-      <c r="BV2" s="76" t="n"/>
-      <c r="BW2" s="76" t="n"/>
-      <c r="BX2" s="76" t="n"/>
-      <c r="BY2" s="76" t="n"/>
-      <c r="BZ2" s="76" t="n"/>
-      <c r="CA2" s="76" t="n"/>
-      <c r="CB2" s="76" t="n"/>
-      <c r="CC2" s="76" t="n"/>
-      <c r="CD2" s="76" t="n"/>
-      <c r="CE2" s="76" t="n"/>
-      <c r="CF2" s="76" t="n"/>
-      <c r="CG2" s="76" t="n"/>
-      <c r="CH2" s="76" t="n"/>
-      <c r="CI2" s="76" t="n"/>
-      <c r="CJ2" s="76" t="n"/>
-      <c r="CK2" s="82" t="n"/>
-      <c r="CL2" s="82" t="n"/>
-      <c r="CM2" s="82" t="n"/>
-      <c r="CN2" s="82" t="n"/>
-      <c r="CO2" s="82" t="n"/>
-      <c r="CP2" s="82" t="n"/>
-      <c r="CQ2" s="82" t="n"/>
-      <c r="CR2" s="82" t="n"/>
-      <c r="CS2" s="82" t="n"/>
-      <c r="CT2" s="82" t="n"/>
-      <c r="CU2" s="82" t="n"/>
+      <c r="T2" s="85" t="n"/>
+      <c r="U2" s="86" t="n"/>
+      <c r="V2" s="87" t="n"/>
+      <c r="W2" s="85" t="n"/>
+      <c r="X2" s="86" t="n"/>
+      <c r="Y2" s="87" t="n"/>
+      <c r="Z2" s="85" t="n"/>
+      <c r="AA2" s="86" t="n"/>
+      <c r="AB2" s="87" t="n"/>
+      <c r="AC2" s="85" t="n"/>
+      <c r="AD2" s="84" t="n"/>
+      <c r="AE2" s="87" t="n"/>
+      <c r="AF2" s="85" t="n"/>
+      <c r="AG2" s="84" t="n"/>
+      <c r="AH2" s="87" t="n"/>
+      <c r="AI2" s="85" t="n"/>
+      <c r="AJ2" s="84" t="n"/>
+      <c r="AK2" s="87" t="n"/>
+      <c r="AL2" s="85" t="n"/>
+      <c r="AM2" s="84" t="n"/>
+      <c r="AN2" s="87" t="n"/>
+      <c r="AO2" s="85" t="n"/>
+      <c r="AP2" s="84" t="n"/>
+      <c r="AQ2" s="87" t="n"/>
+      <c r="AR2" s="85" t="n"/>
+      <c r="AS2" s="84" t="n"/>
+      <c r="AT2" s="87" t="n"/>
+      <c r="AU2" s="85" t="n"/>
+      <c r="AV2" s="84" t="n"/>
+      <c r="AW2" s="87" t="n"/>
+      <c r="AX2" s="85" t="n"/>
+      <c r="AY2" s="84" t="n"/>
+      <c r="AZ2" s="87" t="n"/>
+      <c r="BA2" s="85" t="n"/>
+      <c r="BB2" s="84" t="n"/>
+      <c r="BC2" s="87" t="n"/>
+      <c r="BD2" s="88" t="n"/>
+      <c r="BE2" s="84" t="n"/>
+      <c r="BF2" s="87" t="n"/>
+      <c r="BG2" s="89" t="n"/>
+      <c r="BH2" s="84" t="n"/>
+      <c r="BI2" s="84" t="n"/>
+      <c r="BJ2" s="89" t="n"/>
+      <c r="BK2" s="84" t="n"/>
+      <c r="BL2" s="84" t="n"/>
+      <c r="BM2" s="84" t="n"/>
+      <c r="BN2" s="84" t="n"/>
+      <c r="BO2" s="84" t="n"/>
+      <c r="BP2" s="84" t="n"/>
+      <c r="BQ2" s="84" t="n"/>
+      <c r="BR2" s="84" t="n"/>
+      <c r="BS2" s="84" t="n"/>
+      <c r="BT2" s="84" t="n"/>
+      <c r="BU2" s="84" t="n"/>
+      <c r="BV2" s="84" t="n"/>
+      <c r="BW2" s="84" t="n"/>
+      <c r="BX2" s="84" t="n"/>
+      <c r="BY2" s="84" t="n"/>
+      <c r="BZ2" s="84" t="n"/>
+      <c r="CA2" s="84" t="n"/>
+      <c r="CB2" s="84" t="n"/>
+      <c r="CC2" s="84" t="n"/>
+      <c r="CD2" s="84" t="n"/>
+      <c r="CE2" s="84" t="n"/>
+      <c r="CF2" s="84" t="n"/>
+      <c r="CG2" s="84" t="n"/>
+      <c r="CH2" s="84" t="n"/>
+      <c r="CI2" s="84" t="n"/>
+      <c r="CJ2" s="84" t="n"/>
+      <c r="CK2" s="90" t="n"/>
+      <c r="CL2" s="90" t="n"/>
+      <c r="CM2" s="90" t="n"/>
+      <c r="CN2" s="90" t="n"/>
+      <c r="CO2" s="90" t="n"/>
+      <c r="CP2" s="90" t="n"/>
+      <c r="CQ2" s="90" t="n"/>
+      <c r="CR2" s="90" t="n"/>
+      <c r="CS2" s="90" t="n"/>
+      <c r="CT2" s="90" t="n"/>
+      <c r="CU2" s="90" t="n"/>
     </row>
     <row r="3" ht="15.15" customHeight="1" s="9">
       <c r="A3" s="10" t="n">
@@ -1901,17 +1924,21 @@
       <c r="H3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="76" t="n">
-        <v>1.2931</v>
-      </c>
-      <c r="J3" s="77" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K3" s="78" t="inlineStr"/>
-      <c r="L3" s="78" t="n"/>
-      <c r="M3" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I3" s="84" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="J3" s="85" t="n">
+        <v>0.07751937984495269</v>
+      </c>
+      <c r="K3" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" s="86" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="M3" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N3" s="30">
@@ -1938,86 +1965,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T3" s="77" t="n"/>
-      <c r="U3" s="78" t="n"/>
-      <c r="V3" s="79" t="n"/>
-      <c r="W3" s="77" t="n"/>
-      <c r="X3" s="78" t="n"/>
-      <c r="Y3" s="79" t="n"/>
-      <c r="Z3" s="77" t="n"/>
-      <c r="AA3" s="78" t="n"/>
-      <c r="AB3" s="79" t="n"/>
-      <c r="AC3" s="77" t="n"/>
-      <c r="AD3" s="76" t="n"/>
-      <c r="AE3" s="79" t="n"/>
-      <c r="AF3" s="77" t="n"/>
-      <c r="AG3" s="76" t="n"/>
-      <c r="AH3" s="79" t="n"/>
-      <c r="AI3" s="77" t="n"/>
-      <c r="AJ3" s="76" t="n"/>
-      <c r="AK3" s="79" t="n"/>
-      <c r="AL3" s="77" t="n"/>
-      <c r="AM3" s="76" t="n"/>
-      <c r="AN3" s="79" t="n"/>
-      <c r="AO3" s="77" t="n"/>
-      <c r="AP3" s="76" t="n"/>
-      <c r="AQ3" s="79" t="n"/>
-      <c r="AR3" s="77" t="n"/>
-      <c r="AS3" s="76" t="n"/>
-      <c r="AT3" s="79" t="n"/>
-      <c r="AU3" s="77" t="n"/>
-      <c r="AV3" s="76" t="n"/>
-      <c r="AW3" s="79" t="n"/>
-      <c r="AX3" s="77" t="n"/>
-      <c r="AY3" s="76" t="n"/>
-      <c r="AZ3" s="79" t="n"/>
-      <c r="BA3" s="77" t="n"/>
-      <c r="BB3" s="76" t="n"/>
-      <c r="BC3" s="79" t="n"/>
-      <c r="BD3" s="80" t="n"/>
-      <c r="BE3" s="76" t="n"/>
-      <c r="BF3" s="79" t="n"/>
-      <c r="BG3" s="81" t="n"/>
-      <c r="BH3" s="76" t="n"/>
-      <c r="BI3" s="76" t="n"/>
-      <c r="BJ3" s="81" t="n"/>
-      <c r="BK3" s="76" t="n"/>
-      <c r="BL3" s="76" t="n"/>
-      <c r="BM3" s="76" t="n"/>
-      <c r="BN3" s="76" t="n"/>
-      <c r="BO3" s="76" t="n"/>
-      <c r="BP3" s="76" t="n"/>
-      <c r="BQ3" s="76" t="n"/>
-      <c r="BR3" s="76" t="n"/>
-      <c r="BS3" s="76" t="n"/>
-      <c r="BT3" s="76" t="n"/>
-      <c r="BU3" s="76" t="n"/>
-      <c r="BV3" s="76" t="n"/>
-      <c r="BW3" s="76" t="n"/>
-      <c r="BX3" s="76" t="n"/>
-      <c r="BY3" s="76" t="n"/>
-      <c r="BZ3" s="76" t="n"/>
-      <c r="CA3" s="76" t="n"/>
-      <c r="CB3" s="76" t="n"/>
-      <c r="CC3" s="76" t="n"/>
-      <c r="CD3" s="76" t="n"/>
-      <c r="CE3" s="76" t="n"/>
-      <c r="CF3" s="76" t="n"/>
-      <c r="CG3" s="76" t="n"/>
-      <c r="CH3" s="76" t="n"/>
-      <c r="CI3" s="76" t="n"/>
-      <c r="CJ3" s="76" t="n"/>
-      <c r="CK3" s="82" t="n"/>
-      <c r="CL3" s="82" t="n"/>
-      <c r="CM3" s="82" t="n"/>
-      <c r="CN3" s="82" t="n"/>
-      <c r="CO3" s="82" t="n"/>
-      <c r="CP3" s="82" t="n"/>
-      <c r="CQ3" s="82" t="n"/>
-      <c r="CR3" s="82" t="n"/>
-      <c r="CS3" s="82" t="n"/>
-      <c r="CT3" s="82" t="n"/>
-      <c r="CU3" s="82" t="n"/>
+      <c r="T3" s="85" t="n"/>
+      <c r="U3" s="86" t="n"/>
+      <c r="V3" s="87" t="n"/>
+      <c r="W3" s="85" t="n"/>
+      <c r="X3" s="86" t="n"/>
+      <c r="Y3" s="87" t="n"/>
+      <c r="Z3" s="85" t="n"/>
+      <c r="AA3" s="86" t="n"/>
+      <c r="AB3" s="87" t="n"/>
+      <c r="AC3" s="85" t="n"/>
+      <c r="AD3" s="84" t="n"/>
+      <c r="AE3" s="87" t="n"/>
+      <c r="AF3" s="85" t="n"/>
+      <c r="AG3" s="84" t="n"/>
+      <c r="AH3" s="87" t="n"/>
+      <c r="AI3" s="85" t="n"/>
+      <c r="AJ3" s="84" t="n"/>
+      <c r="AK3" s="87" t="n"/>
+      <c r="AL3" s="85" t="n"/>
+      <c r="AM3" s="84" t="n"/>
+      <c r="AN3" s="87" t="n"/>
+      <c r="AO3" s="85" t="n"/>
+      <c r="AP3" s="84" t="n"/>
+      <c r="AQ3" s="87" t="n"/>
+      <c r="AR3" s="85" t="n"/>
+      <c r="AS3" s="84" t="n"/>
+      <c r="AT3" s="87" t="n"/>
+      <c r="AU3" s="85" t="n"/>
+      <c r="AV3" s="84" t="n"/>
+      <c r="AW3" s="87" t="n"/>
+      <c r="AX3" s="85" t="n"/>
+      <c r="AY3" s="84" t="n"/>
+      <c r="AZ3" s="87" t="n"/>
+      <c r="BA3" s="85" t="n"/>
+      <c r="BB3" s="84" t="n"/>
+      <c r="BC3" s="87" t="n"/>
+      <c r="BD3" s="88" t="n"/>
+      <c r="BE3" s="84" t="n"/>
+      <c r="BF3" s="87" t="n"/>
+      <c r="BG3" s="89" t="n"/>
+      <c r="BH3" s="84" t="n"/>
+      <c r="BI3" s="84" t="n"/>
+      <c r="BJ3" s="89" t="n"/>
+      <c r="BK3" s="84" t="n"/>
+      <c r="BL3" s="84" t="n"/>
+      <c r="BM3" s="84" t="n"/>
+      <c r="BN3" s="84" t="n"/>
+      <c r="BO3" s="84" t="n"/>
+      <c r="BP3" s="84" t="n"/>
+      <c r="BQ3" s="84" t="n"/>
+      <c r="BR3" s="84" t="n"/>
+      <c r="BS3" s="84" t="n"/>
+      <c r="BT3" s="84" t="n"/>
+      <c r="BU3" s="84" t="n"/>
+      <c r="BV3" s="84" t="n"/>
+      <c r="BW3" s="84" t="n"/>
+      <c r="BX3" s="84" t="n"/>
+      <c r="BY3" s="84" t="n"/>
+      <c r="BZ3" s="84" t="n"/>
+      <c r="CA3" s="84" t="n"/>
+      <c r="CB3" s="84" t="n"/>
+      <c r="CC3" s="84" t="n"/>
+      <c r="CD3" s="84" t="n"/>
+      <c r="CE3" s="84" t="n"/>
+      <c r="CF3" s="84" t="n"/>
+      <c r="CG3" s="84" t="n"/>
+      <c r="CH3" s="84" t="n"/>
+      <c r="CI3" s="84" t="n"/>
+      <c r="CJ3" s="84" t="n"/>
+      <c r="CK3" s="90" t="n"/>
+      <c r="CL3" s="90" t="n"/>
+      <c r="CM3" s="90" t="n"/>
+      <c r="CN3" s="90" t="n"/>
+      <c r="CO3" s="90" t="n"/>
+      <c r="CP3" s="90" t="n"/>
+      <c r="CQ3" s="90" t="n"/>
+      <c r="CR3" s="90" t="n"/>
+      <c r="CS3" s="90" t="n"/>
+      <c r="CT3" s="90" t="n"/>
+      <c r="CU3" s="90" t="n"/>
     </row>
     <row r="4" ht="15.15" customHeight="1" s="9">
       <c r="A4" s="10" t="n">
@@ -2031,17 +2058,21 @@
       <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="76" t="n">
-        <v>4.109</v>
-      </c>
-      <c r="J4" s="77" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="78" t="inlineStr"/>
-      <c r="L4" s="78" t="n"/>
-      <c r="M4" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I4" s="84" t="n">
+        <v>4.1019</v>
+      </c>
+      <c r="J4" s="85" t="n">
+        <v>1.029531292332686</v>
+      </c>
+      <c r="K4" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="86" t="n">
+        <v>4.1019</v>
+      </c>
+      <c r="M4" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N4" s="30">
@@ -2068,86 +2099,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T4" s="77" t="n"/>
-      <c r="U4" s="78" t="n"/>
-      <c r="V4" s="78" t="n"/>
-      <c r="W4" s="77" t="n"/>
-      <c r="X4" s="78" t="n"/>
-      <c r="Y4" s="76" t="n"/>
-      <c r="Z4" s="77" t="n"/>
-      <c r="AA4" s="78" t="n"/>
-      <c r="AB4" s="76" t="n"/>
-      <c r="AC4" s="77" t="n"/>
-      <c r="AD4" s="76" t="n"/>
-      <c r="AE4" s="76" t="n"/>
-      <c r="AF4" s="77" t="n"/>
-      <c r="AG4" s="76" t="n"/>
-      <c r="AH4" s="76" t="n"/>
-      <c r="AI4" s="77" t="n"/>
-      <c r="AJ4" s="76" t="n"/>
-      <c r="AK4" s="76" t="n"/>
-      <c r="AL4" s="77" t="n"/>
-      <c r="AM4" s="76" t="n"/>
-      <c r="AN4" s="76" t="n"/>
-      <c r="AO4" s="77" t="n"/>
-      <c r="AP4" s="76" t="n"/>
-      <c r="AQ4" s="76" t="n"/>
-      <c r="AR4" s="77" t="n"/>
-      <c r="AS4" s="76" t="n"/>
-      <c r="AT4" s="76" t="n"/>
-      <c r="AU4" s="77" t="n"/>
-      <c r="AV4" s="76" t="n"/>
-      <c r="AW4" s="76" t="n"/>
-      <c r="AX4" s="77" t="n"/>
-      <c r="AY4" s="76" t="n"/>
-      <c r="AZ4" s="76" t="n"/>
-      <c r="BA4" s="77" t="n"/>
-      <c r="BB4" s="76" t="n"/>
-      <c r="BC4" s="76" t="n"/>
-      <c r="BD4" s="81" t="n"/>
-      <c r="BE4" s="76" t="n"/>
-      <c r="BF4" s="76" t="n"/>
-      <c r="BG4" s="81" t="n"/>
-      <c r="BH4" s="76" t="n"/>
-      <c r="BI4" s="76" t="n"/>
-      <c r="BJ4" s="81" t="n"/>
-      <c r="BK4" s="76" t="n"/>
-      <c r="BL4" s="76" t="n"/>
-      <c r="BM4" s="76" t="n"/>
-      <c r="BN4" s="76" t="n"/>
-      <c r="BO4" s="76" t="n"/>
-      <c r="BP4" s="76" t="n"/>
-      <c r="BQ4" s="76" t="n"/>
-      <c r="BR4" s="76" t="n"/>
-      <c r="BS4" s="76" t="n"/>
-      <c r="BT4" s="76" t="n"/>
-      <c r="BU4" s="76" t="n"/>
-      <c r="BV4" s="76" t="n"/>
-      <c r="BW4" s="76" t="n"/>
-      <c r="BX4" s="76" t="n"/>
-      <c r="BY4" s="76" t="n"/>
-      <c r="BZ4" s="76" t="n"/>
-      <c r="CA4" s="76" t="n"/>
-      <c r="CB4" s="76" t="n"/>
-      <c r="CC4" s="76" t="n"/>
-      <c r="CD4" s="76" t="n"/>
-      <c r="CE4" s="76" t="n"/>
-      <c r="CF4" s="76" t="n"/>
-      <c r="CG4" s="76" t="n"/>
-      <c r="CH4" s="76" t="n"/>
-      <c r="CI4" s="76" t="n"/>
-      <c r="CJ4" s="76" t="n"/>
-      <c r="CK4" s="82" t="n"/>
-      <c r="CL4" s="82" t="n"/>
-      <c r="CM4" s="82" t="n"/>
-      <c r="CN4" s="82" t="n"/>
-      <c r="CO4" s="82" t="n"/>
-      <c r="CP4" s="82" t="n"/>
-      <c r="CQ4" s="82" t="n"/>
-      <c r="CR4" s="82" t="n"/>
-      <c r="CS4" s="82" t="n"/>
-      <c r="CT4" s="82" t="n"/>
-      <c r="CU4" s="82" t="n"/>
+      <c r="T4" s="85" t="n"/>
+      <c r="U4" s="86" t="n"/>
+      <c r="V4" s="86" t="n"/>
+      <c r="W4" s="85" t="n"/>
+      <c r="X4" s="86" t="n"/>
+      <c r="Y4" s="84" t="n"/>
+      <c r="Z4" s="85" t="n"/>
+      <c r="AA4" s="86" t="n"/>
+      <c r="AB4" s="84" t="n"/>
+      <c r="AC4" s="85" t="n"/>
+      <c r="AD4" s="84" t="n"/>
+      <c r="AE4" s="84" t="n"/>
+      <c r="AF4" s="85" t="n"/>
+      <c r="AG4" s="84" t="n"/>
+      <c r="AH4" s="84" t="n"/>
+      <c r="AI4" s="85" t="n"/>
+      <c r="AJ4" s="84" t="n"/>
+      <c r="AK4" s="84" t="n"/>
+      <c r="AL4" s="85" t="n"/>
+      <c r="AM4" s="84" t="n"/>
+      <c r="AN4" s="84" t="n"/>
+      <c r="AO4" s="85" t="n"/>
+      <c r="AP4" s="84" t="n"/>
+      <c r="AQ4" s="84" t="n"/>
+      <c r="AR4" s="85" t="n"/>
+      <c r="AS4" s="84" t="n"/>
+      <c r="AT4" s="84" t="n"/>
+      <c r="AU4" s="85" t="n"/>
+      <c r="AV4" s="84" t="n"/>
+      <c r="AW4" s="84" t="n"/>
+      <c r="AX4" s="85" t="n"/>
+      <c r="AY4" s="84" t="n"/>
+      <c r="AZ4" s="84" t="n"/>
+      <c r="BA4" s="85" t="n"/>
+      <c r="BB4" s="84" t="n"/>
+      <c r="BC4" s="84" t="n"/>
+      <c r="BD4" s="89" t="n"/>
+      <c r="BE4" s="84" t="n"/>
+      <c r="BF4" s="84" t="n"/>
+      <c r="BG4" s="89" t="n"/>
+      <c r="BH4" s="84" t="n"/>
+      <c r="BI4" s="84" t="n"/>
+      <c r="BJ4" s="89" t="n"/>
+      <c r="BK4" s="84" t="n"/>
+      <c r="BL4" s="84" t="n"/>
+      <c r="BM4" s="84" t="n"/>
+      <c r="BN4" s="84" t="n"/>
+      <c r="BO4" s="84" t="n"/>
+      <c r="BP4" s="84" t="n"/>
+      <c r="BQ4" s="84" t="n"/>
+      <c r="BR4" s="84" t="n"/>
+      <c r="BS4" s="84" t="n"/>
+      <c r="BT4" s="84" t="n"/>
+      <c r="BU4" s="84" t="n"/>
+      <c r="BV4" s="84" t="n"/>
+      <c r="BW4" s="84" t="n"/>
+      <c r="BX4" s="84" t="n"/>
+      <c r="BY4" s="84" t="n"/>
+      <c r="BZ4" s="84" t="n"/>
+      <c r="CA4" s="84" t="n"/>
+      <c r="CB4" s="84" t="n"/>
+      <c r="CC4" s="84" t="n"/>
+      <c r="CD4" s="84" t="n"/>
+      <c r="CE4" s="84" t="n"/>
+      <c r="CF4" s="84" t="n"/>
+      <c r="CG4" s="84" t="n"/>
+      <c r="CH4" s="84" t="n"/>
+      <c r="CI4" s="84" t="n"/>
+      <c r="CJ4" s="84" t="n"/>
+      <c r="CK4" s="90" t="n"/>
+      <c r="CL4" s="90" t="n"/>
+      <c r="CM4" s="90" t="n"/>
+      <c r="CN4" s="90" t="n"/>
+      <c r="CO4" s="90" t="n"/>
+      <c r="CP4" s="90" t="n"/>
+      <c r="CQ4" s="90" t="n"/>
+      <c r="CR4" s="90" t="n"/>
+      <c r="CS4" s="90" t="n"/>
+      <c r="CT4" s="90" t="n"/>
+      <c r="CU4" s="90" t="n"/>
     </row>
     <row r="5" ht="15.15" customHeight="1" s="9">
       <c r="A5" s="40" t="inlineStr">
@@ -2163,17 +2194,21 @@
       <c r="H5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I5" s="76" t="n">
-        <v>1.5732</v>
-      </c>
-      <c r="J5" s="77" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K5" s="78" t="inlineStr"/>
-      <c r="L5" s="78" t="n"/>
-      <c r="M5" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I5" s="84" t="n">
+        <v>1.5604</v>
+      </c>
+      <c r="J5" s="85" t="n">
+        <v>0.8857567724833546</v>
+      </c>
+      <c r="K5" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" s="86" t="n">
+        <v>1.5604</v>
+      </c>
+      <c r="M5" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N5" s="30">
@@ -2200,86 +2235,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T5" s="77" t="n"/>
-      <c r="U5" s="78" t="n"/>
-      <c r="V5" s="78" t="n"/>
-      <c r="W5" s="77" t="n"/>
-      <c r="X5" s="78" t="n"/>
-      <c r="Y5" s="76" t="n"/>
-      <c r="Z5" s="77" t="n"/>
-      <c r="AA5" s="78" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="77" t="n"/>
-      <c r="AD5" s="76" t="n"/>
-      <c r="AE5" s="76" t="n"/>
-      <c r="AF5" s="77" t="n"/>
-      <c r="AG5" s="76" t="n"/>
-      <c r="AH5" s="76" t="n"/>
-      <c r="AI5" s="77" t="n"/>
-      <c r="AJ5" s="76" t="n"/>
-      <c r="AK5" s="76" t="n"/>
-      <c r="AL5" s="77" t="n"/>
-      <c r="AM5" s="76" t="n"/>
-      <c r="AN5" s="76" t="n"/>
-      <c r="AO5" s="77" t="n"/>
-      <c r="AP5" s="76" t="n"/>
-      <c r="AQ5" s="76" t="n"/>
-      <c r="AR5" s="77" t="n"/>
-      <c r="AS5" s="76" t="n"/>
-      <c r="AT5" s="76" t="n"/>
-      <c r="AU5" s="77" t="n"/>
-      <c r="AV5" s="76" t="n"/>
-      <c r="AW5" s="76" t="n"/>
-      <c r="AX5" s="77" t="n"/>
-      <c r="AY5" s="76" t="n"/>
-      <c r="AZ5" s="76" t="n"/>
-      <c r="BA5" s="77" t="n"/>
-      <c r="BB5" s="76" t="n"/>
-      <c r="BC5" s="76" t="n"/>
-      <c r="BD5" s="81" t="n"/>
-      <c r="BE5" s="76" t="n"/>
-      <c r="BF5" s="76" t="n"/>
-      <c r="BG5" s="81" t="n"/>
-      <c r="BH5" s="76" t="n"/>
-      <c r="BI5" s="76" t="n"/>
-      <c r="BJ5" s="81" t="n"/>
-      <c r="BK5" s="76" t="n"/>
-      <c r="BL5" s="76" t="n"/>
-      <c r="BM5" s="76" t="n"/>
-      <c r="BN5" s="76" t="n"/>
-      <c r="BO5" s="76" t="n"/>
-      <c r="BP5" s="76" t="n"/>
-      <c r="BQ5" s="76" t="n"/>
-      <c r="BR5" s="76" t="n"/>
-      <c r="BS5" s="76" t="n"/>
-      <c r="BT5" s="76" t="n"/>
-      <c r="BU5" s="76" t="n"/>
-      <c r="BV5" s="76" t="n"/>
-      <c r="BW5" s="76" t="n"/>
-      <c r="BX5" s="76" t="n"/>
-      <c r="BY5" s="76" t="n"/>
-      <c r="BZ5" s="76" t="n"/>
-      <c r="CA5" s="76" t="n"/>
-      <c r="CB5" s="76" t="n"/>
-      <c r="CC5" s="76" t="n"/>
-      <c r="CD5" s="76" t="n"/>
-      <c r="CE5" s="76" t="n"/>
-      <c r="CF5" s="76" t="n"/>
-      <c r="CG5" s="76" t="n"/>
-      <c r="CH5" s="76" t="n"/>
-      <c r="CI5" s="76" t="n"/>
-      <c r="CJ5" s="76" t="n"/>
-      <c r="CK5" s="82" t="n"/>
-      <c r="CL5" s="82" t="n"/>
-      <c r="CM5" s="82" t="n"/>
-      <c r="CN5" s="82" t="n"/>
-      <c r="CO5" s="82" t="n"/>
-      <c r="CP5" s="82" t="n"/>
-      <c r="CQ5" s="82" t="n"/>
-      <c r="CR5" s="82" t="n"/>
-      <c r="CS5" s="82" t="n"/>
-      <c r="CT5" s="82" t="n"/>
-      <c r="CU5" s="82" t="n"/>
+      <c r="T5" s="85" t="n"/>
+      <c r="U5" s="86" t="n"/>
+      <c r="V5" s="86" t="n"/>
+      <c r="W5" s="85" t="n"/>
+      <c r="X5" s="86" t="n"/>
+      <c r="Y5" s="84" t="n"/>
+      <c r="Z5" s="85" t="n"/>
+      <c r="AA5" s="86" t="n"/>
+      <c r="AB5" s="84" t="n"/>
+      <c r="AC5" s="85" t="n"/>
+      <c r="AD5" s="84" t="n"/>
+      <c r="AE5" s="84" t="n"/>
+      <c r="AF5" s="85" t="n"/>
+      <c r="AG5" s="84" t="n"/>
+      <c r="AH5" s="84" t="n"/>
+      <c r="AI5" s="85" t="n"/>
+      <c r="AJ5" s="84" t="n"/>
+      <c r="AK5" s="84" t="n"/>
+      <c r="AL5" s="85" t="n"/>
+      <c r="AM5" s="84" t="n"/>
+      <c r="AN5" s="84" t="n"/>
+      <c r="AO5" s="85" t="n"/>
+      <c r="AP5" s="84" t="n"/>
+      <c r="AQ5" s="84" t="n"/>
+      <c r="AR5" s="85" t="n"/>
+      <c r="AS5" s="84" t="n"/>
+      <c r="AT5" s="84" t="n"/>
+      <c r="AU5" s="85" t="n"/>
+      <c r="AV5" s="84" t="n"/>
+      <c r="AW5" s="84" t="n"/>
+      <c r="AX5" s="85" t="n"/>
+      <c r="AY5" s="84" t="n"/>
+      <c r="AZ5" s="84" t="n"/>
+      <c r="BA5" s="85" t="n"/>
+      <c r="BB5" s="84" t="n"/>
+      <c r="BC5" s="84" t="n"/>
+      <c r="BD5" s="89" t="n"/>
+      <c r="BE5" s="84" t="n"/>
+      <c r="BF5" s="84" t="n"/>
+      <c r="BG5" s="89" t="n"/>
+      <c r="BH5" s="84" t="n"/>
+      <c r="BI5" s="84" t="n"/>
+      <c r="BJ5" s="89" t="n"/>
+      <c r="BK5" s="84" t="n"/>
+      <c r="BL5" s="84" t="n"/>
+      <c r="BM5" s="84" t="n"/>
+      <c r="BN5" s="84" t="n"/>
+      <c r="BO5" s="84" t="n"/>
+      <c r="BP5" s="84" t="n"/>
+      <c r="BQ5" s="84" t="n"/>
+      <c r="BR5" s="84" t="n"/>
+      <c r="BS5" s="84" t="n"/>
+      <c r="BT5" s="84" t="n"/>
+      <c r="BU5" s="84" t="n"/>
+      <c r="BV5" s="84" t="n"/>
+      <c r="BW5" s="84" t="n"/>
+      <c r="BX5" s="84" t="n"/>
+      <c r="BY5" s="84" t="n"/>
+      <c r="BZ5" s="84" t="n"/>
+      <c r="CA5" s="84" t="n"/>
+      <c r="CB5" s="84" t="n"/>
+      <c r="CC5" s="84" t="n"/>
+      <c r="CD5" s="84" t="n"/>
+      <c r="CE5" s="84" t="n"/>
+      <c r="CF5" s="84" t="n"/>
+      <c r="CG5" s="84" t="n"/>
+      <c r="CH5" s="84" t="n"/>
+      <c r="CI5" s="84" t="n"/>
+      <c r="CJ5" s="84" t="n"/>
+      <c r="CK5" s="90" t="n"/>
+      <c r="CL5" s="90" t="n"/>
+      <c r="CM5" s="90" t="n"/>
+      <c r="CN5" s="90" t="n"/>
+      <c r="CO5" s="90" t="n"/>
+      <c r="CP5" s="90" t="n"/>
+      <c r="CQ5" s="90" t="n"/>
+      <c r="CR5" s="90" t="n"/>
+      <c r="CS5" s="90" t="n"/>
+      <c r="CT5" s="90" t="n"/>
+      <c r="CU5" s="90" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1" s="9">
       <c r="A6" s="10" t="n">
@@ -2298,17 +2333,21 @@
       <c r="H6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I6" s="76" t="n">
-        <v>2.1488</v>
-      </c>
-      <c r="J6" s="77" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="K6" s="78" t="inlineStr"/>
-      <c r="L6" s="78" t="n"/>
-      <c r="M6" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I6" s="84" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="J6" s="85" t="n">
+        <v>0.1406469760900194</v>
+      </c>
+      <c r="K6" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="86" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="M6" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N6" s="30">
@@ -2335,86 +2374,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T6" s="77" t="n"/>
-      <c r="U6" s="78" t="n"/>
-      <c r="V6" s="78" t="n"/>
-      <c r="W6" s="77" t="n"/>
-      <c r="X6" s="78" t="n"/>
-      <c r="Y6" s="76" t="n"/>
-      <c r="Z6" s="77" t="n"/>
-      <c r="AA6" s="78" t="n"/>
-      <c r="AB6" s="76" t="n"/>
-      <c r="AC6" s="77" t="n"/>
-      <c r="AD6" s="76" t="n"/>
-      <c r="AE6" s="76" t="n"/>
-      <c r="AF6" s="77" t="n"/>
-      <c r="AG6" s="76" t="n"/>
-      <c r="AH6" s="76" t="n"/>
-      <c r="AI6" s="77" t="n"/>
-      <c r="AJ6" s="76" t="n"/>
-      <c r="AK6" s="76" t="n"/>
-      <c r="AL6" s="77" t="n"/>
-      <c r="AM6" s="76" t="n"/>
-      <c r="AN6" s="76" t="n"/>
-      <c r="AO6" s="77" t="n"/>
-      <c r="AP6" s="76" t="n"/>
-      <c r="AQ6" s="76" t="n"/>
-      <c r="AR6" s="80" t="n"/>
-      <c r="AS6" s="76" t="n"/>
-      <c r="AT6" s="76" t="n"/>
-      <c r="AU6" s="80" t="n"/>
-      <c r="AV6" s="76" t="n"/>
-      <c r="AW6" s="76" t="n"/>
-      <c r="AX6" s="81" t="n"/>
-      <c r="AY6" s="76" t="n"/>
-      <c r="AZ6" s="76" t="n"/>
-      <c r="BA6" s="81" t="n"/>
-      <c r="BB6" s="76" t="n"/>
-      <c r="BC6" s="76" t="n"/>
-      <c r="BD6" s="81" t="n"/>
-      <c r="BE6" s="76" t="n"/>
-      <c r="BF6" s="76" t="n"/>
-      <c r="BG6" s="81" t="n"/>
-      <c r="BH6" s="76" t="n"/>
-      <c r="BI6" s="76" t="n"/>
-      <c r="BJ6" s="76" t="n"/>
-      <c r="BK6" s="76" t="n"/>
-      <c r="BL6" s="76" t="n"/>
-      <c r="BM6" s="76" t="n"/>
-      <c r="BN6" s="76" t="n"/>
-      <c r="BO6" s="76" t="n"/>
-      <c r="BP6" s="76" t="n"/>
-      <c r="BQ6" s="76" t="n"/>
-      <c r="BR6" s="76" t="n"/>
-      <c r="BS6" s="76" t="n"/>
-      <c r="BT6" s="76" t="n"/>
-      <c r="BU6" s="76" t="n"/>
-      <c r="BV6" s="76" t="n"/>
-      <c r="BW6" s="76" t="n"/>
-      <c r="BX6" s="76" t="n"/>
-      <c r="BY6" s="76" t="n"/>
-      <c r="BZ6" s="76" t="n"/>
-      <c r="CA6" s="76" t="n"/>
-      <c r="CB6" s="76" t="n"/>
-      <c r="CC6" s="76" t="n"/>
-      <c r="CD6" s="76" t="n"/>
-      <c r="CE6" s="76" t="n"/>
-      <c r="CF6" s="76" t="n"/>
-      <c r="CG6" s="76" t="n"/>
-      <c r="CH6" s="76" t="n"/>
-      <c r="CI6" s="76" t="n"/>
-      <c r="CJ6" s="76" t="n"/>
-      <c r="CK6" s="82" t="n"/>
-      <c r="CL6" s="82" t="n"/>
-      <c r="CM6" s="82" t="n"/>
-      <c r="CN6" s="82" t="n"/>
-      <c r="CO6" s="82" t="n"/>
-      <c r="CP6" s="82" t="n"/>
-      <c r="CQ6" s="82" t="n"/>
-      <c r="CR6" s="82" t="n"/>
-      <c r="CS6" s="82" t="n"/>
-      <c r="CT6" s="82" t="n"/>
-      <c r="CU6" s="82" t="n"/>
+      <c r="T6" s="85" t="n"/>
+      <c r="U6" s="86" t="n"/>
+      <c r="V6" s="86" t="n"/>
+      <c r="W6" s="85" t="n"/>
+      <c r="X6" s="86" t="n"/>
+      <c r="Y6" s="84" t="n"/>
+      <c r="Z6" s="85" t="n"/>
+      <c r="AA6" s="86" t="n"/>
+      <c r="AB6" s="84" t="n"/>
+      <c r="AC6" s="85" t="n"/>
+      <c r="AD6" s="84" t="n"/>
+      <c r="AE6" s="84" t="n"/>
+      <c r="AF6" s="85" t="n"/>
+      <c r="AG6" s="84" t="n"/>
+      <c r="AH6" s="84" t="n"/>
+      <c r="AI6" s="85" t="n"/>
+      <c r="AJ6" s="84" t="n"/>
+      <c r="AK6" s="84" t="n"/>
+      <c r="AL6" s="85" t="n"/>
+      <c r="AM6" s="84" t="n"/>
+      <c r="AN6" s="84" t="n"/>
+      <c r="AO6" s="85" t="n"/>
+      <c r="AP6" s="84" t="n"/>
+      <c r="AQ6" s="84" t="n"/>
+      <c r="AR6" s="88" t="n"/>
+      <c r="AS6" s="84" t="n"/>
+      <c r="AT6" s="84" t="n"/>
+      <c r="AU6" s="88" t="n"/>
+      <c r="AV6" s="84" t="n"/>
+      <c r="AW6" s="84" t="n"/>
+      <c r="AX6" s="89" t="n"/>
+      <c r="AY6" s="84" t="n"/>
+      <c r="AZ6" s="84" t="n"/>
+      <c r="BA6" s="89" t="n"/>
+      <c r="BB6" s="84" t="n"/>
+      <c r="BC6" s="84" t="n"/>
+      <c r="BD6" s="89" t="n"/>
+      <c r="BE6" s="84" t="n"/>
+      <c r="BF6" s="84" t="n"/>
+      <c r="BG6" s="89" t="n"/>
+      <c r="BH6" s="84" t="n"/>
+      <c r="BI6" s="84" t="n"/>
+      <c r="BJ6" s="84" t="n"/>
+      <c r="BK6" s="84" t="n"/>
+      <c r="BL6" s="84" t="n"/>
+      <c r="BM6" s="84" t="n"/>
+      <c r="BN6" s="84" t="n"/>
+      <c r="BO6" s="84" t="n"/>
+      <c r="BP6" s="84" t="n"/>
+      <c r="BQ6" s="84" t="n"/>
+      <c r="BR6" s="84" t="n"/>
+      <c r="BS6" s="84" t="n"/>
+      <c r="BT6" s="84" t="n"/>
+      <c r="BU6" s="84" t="n"/>
+      <c r="BV6" s="84" t="n"/>
+      <c r="BW6" s="84" t="n"/>
+      <c r="BX6" s="84" t="n"/>
+      <c r="BY6" s="84" t="n"/>
+      <c r="BZ6" s="84" t="n"/>
+      <c r="CA6" s="84" t="n"/>
+      <c r="CB6" s="84" t="n"/>
+      <c r="CC6" s="84" t="n"/>
+      <c r="CD6" s="84" t="n"/>
+      <c r="CE6" s="84" t="n"/>
+      <c r="CF6" s="84" t="n"/>
+      <c r="CG6" s="84" t="n"/>
+      <c r="CH6" s="84" t="n"/>
+      <c r="CI6" s="84" t="n"/>
+      <c r="CJ6" s="84" t="n"/>
+      <c r="CK6" s="90" t="n"/>
+      <c r="CL6" s="90" t="n"/>
+      <c r="CM6" s="90" t="n"/>
+      <c r="CN6" s="90" t="n"/>
+      <c r="CO6" s="90" t="n"/>
+      <c r="CP6" s="90" t="n"/>
+      <c r="CQ6" s="90" t="n"/>
+      <c r="CR6" s="90" t="n"/>
+      <c r="CS6" s="90" t="n"/>
+      <c r="CT6" s="90" t="n"/>
+      <c r="CU6" s="90" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1" s="9">
       <c r="A7" s="24" t="n">
@@ -2443,17 +2482,21 @@
       <c r="H7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="76" t="n">
-        <v>1.1321</v>
-      </c>
-      <c r="J7" s="77" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K7" s="78" t="inlineStr"/>
-      <c r="L7" s="78" t="n"/>
-      <c r="M7" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I7" s="84" t="n">
+        <v>1.1062</v>
+      </c>
+      <c r="J7" s="85" t="n">
+        <v>-0.6555904804669836</v>
+      </c>
+      <c r="K7" s="86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="86" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="M7" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N7" s="30">
@@ -2480,86 +2523,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T7" s="77" t="n"/>
-      <c r="U7" s="78" t="n"/>
-      <c r="V7" s="78" t="n"/>
-      <c r="W7" s="77" t="n"/>
-      <c r="X7" s="78" t="n"/>
-      <c r="Y7" s="76" t="n"/>
-      <c r="Z7" s="77" t="n"/>
-      <c r="AA7" s="78" t="n"/>
-      <c r="AB7" s="76" t="n"/>
-      <c r="AC7" s="77" t="n"/>
-      <c r="AD7" s="76" t="n"/>
-      <c r="AE7" s="76" t="n"/>
-      <c r="AF7" s="77" t="n"/>
-      <c r="AG7" s="76" t="n"/>
-      <c r="AH7" s="76" t="n"/>
-      <c r="AI7" s="77" t="n"/>
-      <c r="AJ7" s="76" t="n"/>
-      <c r="AK7" s="76" t="n"/>
-      <c r="AL7" s="77" t="n"/>
-      <c r="AM7" s="76" t="n"/>
-      <c r="AN7" s="76" t="n"/>
-      <c r="AO7" s="77" t="n"/>
-      <c r="AP7" s="76" t="n"/>
-      <c r="AQ7" s="76" t="n"/>
-      <c r="AR7" s="77" t="n"/>
-      <c r="AS7" s="76" t="n"/>
-      <c r="AT7" s="76" t="n"/>
-      <c r="AU7" s="77" t="n"/>
-      <c r="AV7" s="76" t="n"/>
-      <c r="AW7" s="76" t="n"/>
-      <c r="AX7" s="77" t="n"/>
-      <c r="AY7" s="76" t="n"/>
-      <c r="AZ7" s="76" t="n"/>
-      <c r="BA7" s="77" t="n"/>
-      <c r="BB7" s="76" t="n"/>
-      <c r="BC7" s="76" t="n"/>
-      <c r="BD7" s="77" t="n"/>
-      <c r="BE7" s="76" t="n"/>
-      <c r="BF7" s="76" t="n"/>
-      <c r="BG7" s="81" t="n"/>
-      <c r="BH7" s="76" t="n"/>
-      <c r="BI7" s="76" t="n"/>
-      <c r="BJ7" s="81" t="n"/>
-      <c r="BK7" s="76" t="n"/>
-      <c r="BL7" s="76" t="n"/>
-      <c r="BM7" s="76" t="n"/>
-      <c r="BN7" s="76" t="n"/>
-      <c r="BO7" s="76" t="n"/>
-      <c r="BP7" s="76" t="n"/>
-      <c r="BQ7" s="76" t="n"/>
-      <c r="BR7" s="76" t="n"/>
-      <c r="BS7" s="76" t="n"/>
-      <c r="BT7" s="76" t="n"/>
-      <c r="BU7" s="76" t="n"/>
-      <c r="BV7" s="76" t="n"/>
-      <c r="BW7" s="76" t="n"/>
-      <c r="BX7" s="76" t="n"/>
-      <c r="BY7" s="76" t="n"/>
-      <c r="BZ7" s="76" t="n"/>
-      <c r="CA7" s="76" t="n"/>
-      <c r="CB7" s="76" t="n"/>
-      <c r="CC7" s="76" t="n"/>
-      <c r="CD7" s="76" t="n"/>
-      <c r="CE7" s="76" t="n"/>
-      <c r="CF7" s="76" t="n"/>
-      <c r="CG7" s="76" t="n"/>
-      <c r="CH7" s="76" t="n"/>
-      <c r="CI7" s="76" t="n"/>
-      <c r="CJ7" s="76" t="n"/>
-      <c r="CK7" s="82" t="n"/>
-      <c r="CL7" s="82" t="n"/>
-      <c r="CM7" s="82" t="n"/>
-      <c r="CN7" s="82" t="n"/>
-      <c r="CO7" s="82" t="n"/>
-      <c r="CP7" s="82" t="n"/>
-      <c r="CQ7" s="82" t="n"/>
-      <c r="CR7" s="82" t="n"/>
-      <c r="CS7" s="82" t="n"/>
-      <c r="CT7" s="82" t="n"/>
-      <c r="CU7" s="82" t="n"/>
+      <c r="T7" s="85" t="n"/>
+      <c r="U7" s="86" t="n"/>
+      <c r="V7" s="86" t="n"/>
+      <c r="W7" s="85" t="n"/>
+      <c r="X7" s="86" t="n"/>
+      <c r="Y7" s="84" t="n"/>
+      <c r="Z7" s="85" t="n"/>
+      <c r="AA7" s="86" t="n"/>
+      <c r="AB7" s="84" t="n"/>
+      <c r="AC7" s="85" t="n"/>
+      <c r="AD7" s="84" t="n"/>
+      <c r="AE7" s="84" t="n"/>
+      <c r="AF7" s="85" t="n"/>
+      <c r="AG7" s="84" t="n"/>
+      <c r="AH7" s="84" t="n"/>
+      <c r="AI7" s="85" t="n"/>
+      <c r="AJ7" s="84" t="n"/>
+      <c r="AK7" s="84" t="n"/>
+      <c r="AL7" s="85" t="n"/>
+      <c r="AM7" s="84" t="n"/>
+      <c r="AN7" s="84" t="n"/>
+      <c r="AO7" s="85" t="n"/>
+      <c r="AP7" s="84" t="n"/>
+      <c r="AQ7" s="84" t="n"/>
+      <c r="AR7" s="85" t="n"/>
+      <c r="AS7" s="84" t="n"/>
+      <c r="AT7" s="84" t="n"/>
+      <c r="AU7" s="85" t="n"/>
+      <c r="AV7" s="84" t="n"/>
+      <c r="AW7" s="84" t="n"/>
+      <c r="AX7" s="85" t="n"/>
+      <c r="AY7" s="84" t="n"/>
+      <c r="AZ7" s="84" t="n"/>
+      <c r="BA7" s="85" t="n"/>
+      <c r="BB7" s="84" t="n"/>
+      <c r="BC7" s="84" t="n"/>
+      <c r="BD7" s="85" t="n"/>
+      <c r="BE7" s="84" t="n"/>
+      <c r="BF7" s="84" t="n"/>
+      <c r="BG7" s="89" t="n"/>
+      <c r="BH7" s="84" t="n"/>
+      <c r="BI7" s="84" t="n"/>
+      <c r="BJ7" s="89" t="n"/>
+      <c r="BK7" s="84" t="n"/>
+      <c r="BL7" s="84" t="n"/>
+      <c r="BM7" s="84" t="n"/>
+      <c r="BN7" s="84" t="n"/>
+      <c r="BO7" s="84" t="n"/>
+      <c r="BP7" s="84" t="n"/>
+      <c r="BQ7" s="84" t="n"/>
+      <c r="BR7" s="84" t="n"/>
+      <c r="BS7" s="84" t="n"/>
+      <c r="BT7" s="84" t="n"/>
+      <c r="BU7" s="84" t="n"/>
+      <c r="BV7" s="84" t="n"/>
+      <c r="BW7" s="84" t="n"/>
+      <c r="BX7" s="84" t="n"/>
+      <c r="BY7" s="84" t="n"/>
+      <c r="BZ7" s="84" t="n"/>
+      <c r="CA7" s="84" t="n"/>
+      <c r="CB7" s="84" t="n"/>
+      <c r="CC7" s="84" t="n"/>
+      <c r="CD7" s="84" t="n"/>
+      <c r="CE7" s="84" t="n"/>
+      <c r="CF7" s="84" t="n"/>
+      <c r="CG7" s="84" t="n"/>
+      <c r="CH7" s="84" t="n"/>
+      <c r="CI7" s="84" t="n"/>
+      <c r="CJ7" s="84" t="n"/>
+      <c r="CK7" s="90" t="n"/>
+      <c r="CL7" s="90" t="n"/>
+      <c r="CM7" s="90" t="n"/>
+      <c r="CN7" s="90" t="n"/>
+      <c r="CO7" s="90" t="n"/>
+      <c r="CP7" s="90" t="n"/>
+      <c r="CQ7" s="90" t="n"/>
+      <c r="CR7" s="90" t="n"/>
+      <c r="CS7" s="90" t="n"/>
+      <c r="CT7" s="90" t="n"/>
+      <c r="CU7" s="90" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1" s="9">
       <c r="A8" s="40" t="inlineStr">
@@ -2580,17 +2623,21 @@
       <c r="H8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="76" t="n">
-        <v>1.6094</v>
-      </c>
-      <c r="J8" s="77" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K8" s="78" t="inlineStr"/>
-      <c r="L8" s="78" t="n"/>
-      <c r="M8" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I8" s="84" t="n">
+        <v>1.6122</v>
+      </c>
+      <c r="J8" s="85" t="n">
+        <v>1.696839714880473</v>
+      </c>
+      <c r="K8" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" s="86" t="n">
+        <v>1.6122</v>
+      </c>
+      <c r="M8" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N8" s="30">
@@ -2617,86 +2664,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T8" s="77" t="n"/>
-      <c r="U8" s="78" t="n"/>
-      <c r="V8" s="78" t="n"/>
-      <c r="W8" s="77" t="n"/>
-      <c r="X8" s="78" t="n"/>
-      <c r="Y8" s="76" t="n"/>
-      <c r="Z8" s="77" t="n"/>
-      <c r="AA8" s="78" t="n"/>
-      <c r="AB8" s="76" t="n"/>
-      <c r="AC8" s="77" t="n"/>
-      <c r="AD8" s="76" t="n"/>
-      <c r="AE8" s="76" t="n"/>
-      <c r="AF8" s="77" t="n"/>
-      <c r="AG8" s="76" t="n"/>
-      <c r="AH8" s="76" t="n"/>
-      <c r="AI8" s="77" t="n"/>
-      <c r="AJ8" s="76" t="n"/>
-      <c r="AK8" s="76" t="n"/>
-      <c r="AL8" s="77" t="n"/>
-      <c r="AM8" s="76" t="n"/>
-      <c r="AN8" s="76" t="n"/>
-      <c r="AO8" s="77" t="n"/>
-      <c r="AP8" s="76" t="n"/>
-      <c r="AQ8" s="76" t="n"/>
-      <c r="AR8" s="77" t="n"/>
-      <c r="AS8" s="76" t="n"/>
-      <c r="AT8" s="76" t="n"/>
-      <c r="AU8" s="77" t="n"/>
-      <c r="AV8" s="76" t="n"/>
-      <c r="AW8" s="76" t="n"/>
-      <c r="AX8" s="77" t="n"/>
-      <c r="AY8" s="76" t="n"/>
-      <c r="AZ8" s="76" t="n"/>
-      <c r="BA8" s="77" t="n"/>
-      <c r="BB8" s="76" t="n"/>
-      <c r="BC8" s="76" t="n"/>
-      <c r="BD8" s="80" t="n"/>
-      <c r="BE8" s="76" t="n"/>
-      <c r="BF8" s="76" t="n"/>
-      <c r="BG8" s="81" t="n"/>
-      <c r="BH8" s="76" t="n"/>
-      <c r="BI8" s="76" t="n"/>
-      <c r="BJ8" s="76" t="n"/>
-      <c r="BK8" s="76" t="n"/>
-      <c r="BL8" s="76" t="n"/>
-      <c r="BM8" s="76" t="n"/>
-      <c r="BN8" s="76" t="n"/>
-      <c r="BO8" s="76" t="n"/>
-      <c r="BP8" s="76" t="n"/>
-      <c r="BQ8" s="76" t="n"/>
-      <c r="BR8" s="76" t="n"/>
-      <c r="BS8" s="76" t="n"/>
-      <c r="BT8" s="76" t="n"/>
-      <c r="BU8" s="76" t="n"/>
-      <c r="BV8" s="76" t="n"/>
-      <c r="BW8" s="76" t="n"/>
-      <c r="BX8" s="76" t="n"/>
-      <c r="BY8" s="76" t="n"/>
-      <c r="BZ8" s="76" t="n"/>
-      <c r="CA8" s="76" t="n"/>
-      <c r="CB8" s="76" t="n"/>
-      <c r="CC8" s="76" t="n"/>
-      <c r="CD8" s="76" t="n"/>
-      <c r="CE8" s="76" t="n"/>
-      <c r="CF8" s="76" t="n"/>
-      <c r="CG8" s="76" t="n"/>
-      <c r="CH8" s="76" t="n"/>
-      <c r="CI8" s="76" t="n"/>
-      <c r="CJ8" s="76" t="n"/>
-      <c r="CK8" s="82" t="n"/>
-      <c r="CL8" s="82" t="n"/>
-      <c r="CM8" s="82" t="n"/>
-      <c r="CN8" s="82" t="n"/>
-      <c r="CO8" s="82" t="n"/>
-      <c r="CP8" s="82" t="n"/>
-      <c r="CQ8" s="82" t="n"/>
-      <c r="CR8" s="82" t="n"/>
-      <c r="CS8" s="82" t="n"/>
-      <c r="CT8" s="82" t="n"/>
-      <c r="CU8" s="82" t="n"/>
+      <c r="T8" s="85" t="n"/>
+      <c r="U8" s="86" t="n"/>
+      <c r="V8" s="86" t="n"/>
+      <c r="W8" s="85" t="n"/>
+      <c r="X8" s="86" t="n"/>
+      <c r="Y8" s="84" t="n"/>
+      <c r="Z8" s="85" t="n"/>
+      <c r="AA8" s="86" t="n"/>
+      <c r="AB8" s="84" t="n"/>
+      <c r="AC8" s="85" t="n"/>
+      <c r="AD8" s="84" t="n"/>
+      <c r="AE8" s="84" t="n"/>
+      <c r="AF8" s="85" t="n"/>
+      <c r="AG8" s="84" t="n"/>
+      <c r="AH8" s="84" t="n"/>
+      <c r="AI8" s="85" t="n"/>
+      <c r="AJ8" s="84" t="n"/>
+      <c r="AK8" s="84" t="n"/>
+      <c r="AL8" s="85" t="n"/>
+      <c r="AM8" s="84" t="n"/>
+      <c r="AN8" s="84" t="n"/>
+      <c r="AO8" s="85" t="n"/>
+      <c r="AP8" s="84" t="n"/>
+      <c r="AQ8" s="84" t="n"/>
+      <c r="AR8" s="85" t="n"/>
+      <c r="AS8" s="84" t="n"/>
+      <c r="AT8" s="84" t="n"/>
+      <c r="AU8" s="85" t="n"/>
+      <c r="AV8" s="84" t="n"/>
+      <c r="AW8" s="84" t="n"/>
+      <c r="AX8" s="85" t="n"/>
+      <c r="AY8" s="84" t="n"/>
+      <c r="AZ8" s="84" t="n"/>
+      <c r="BA8" s="85" t="n"/>
+      <c r="BB8" s="84" t="n"/>
+      <c r="BC8" s="84" t="n"/>
+      <c r="BD8" s="88" t="n"/>
+      <c r="BE8" s="84" t="n"/>
+      <c r="BF8" s="84" t="n"/>
+      <c r="BG8" s="89" t="n"/>
+      <c r="BH8" s="84" t="n"/>
+      <c r="BI8" s="84" t="n"/>
+      <c r="BJ8" s="84" t="n"/>
+      <c r="BK8" s="84" t="n"/>
+      <c r="BL8" s="84" t="n"/>
+      <c r="BM8" s="84" t="n"/>
+      <c r="BN8" s="84" t="n"/>
+      <c r="BO8" s="84" t="n"/>
+      <c r="BP8" s="84" t="n"/>
+      <c r="BQ8" s="84" t="n"/>
+      <c r="BR8" s="84" t="n"/>
+      <c r="BS8" s="84" t="n"/>
+      <c r="BT8" s="84" t="n"/>
+      <c r="BU8" s="84" t="n"/>
+      <c r="BV8" s="84" t="n"/>
+      <c r="BW8" s="84" t="n"/>
+      <c r="BX8" s="84" t="n"/>
+      <c r="BY8" s="84" t="n"/>
+      <c r="BZ8" s="84" t="n"/>
+      <c r="CA8" s="84" t="n"/>
+      <c r="CB8" s="84" t="n"/>
+      <c r="CC8" s="84" t="n"/>
+      <c r="CD8" s="84" t="n"/>
+      <c r="CE8" s="84" t="n"/>
+      <c r="CF8" s="84" t="n"/>
+      <c r="CG8" s="84" t="n"/>
+      <c r="CH8" s="84" t="n"/>
+      <c r="CI8" s="84" t="n"/>
+      <c r="CJ8" s="84" t="n"/>
+      <c r="CK8" s="90" t="n"/>
+      <c r="CL8" s="90" t="n"/>
+      <c r="CM8" s="90" t="n"/>
+      <c r="CN8" s="90" t="n"/>
+      <c r="CO8" s="90" t="n"/>
+      <c r="CP8" s="90" t="n"/>
+      <c r="CQ8" s="90" t="n"/>
+      <c r="CR8" s="90" t="n"/>
+      <c r="CS8" s="90" t="n"/>
+      <c r="CT8" s="90" t="n"/>
+      <c r="CU8" s="90" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1" s="9">
       <c r="A9" s="41" t="inlineStr">
@@ -2717,17 +2764,21 @@
       <c r="H9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="76" t="n">
-        <v>1.2773</v>
-      </c>
-      <c r="J9" s="77" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K9" s="78" t="inlineStr"/>
-      <c r="L9" s="78" t="n"/>
-      <c r="M9" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I9" s="84" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="J9" s="85" t="n">
+        <v>1.029295328582749</v>
+      </c>
+      <c r="K9" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" s="86" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="M9" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N9" s="30">
@@ -2754,86 +2805,86 @@
           <t>20191114</t>
         </is>
       </c>
-      <c r="T9" s="77" t="n"/>
-      <c r="U9" s="78" t="n"/>
-      <c r="V9" s="78" t="n"/>
-      <c r="W9" s="77" t="n"/>
-      <c r="X9" s="78" t="n"/>
-      <c r="Y9" s="76" t="n"/>
-      <c r="Z9" s="77" t="n"/>
-      <c r="AA9" s="78" t="n"/>
-      <c r="AB9" s="76" t="n"/>
-      <c r="AC9" s="77" t="n"/>
-      <c r="AD9" s="76" t="n"/>
-      <c r="AE9" s="76" t="n"/>
-      <c r="AF9" s="77" t="n"/>
-      <c r="AG9" s="76" t="n"/>
-      <c r="AH9" s="76" t="n"/>
-      <c r="AI9" s="77" t="n"/>
-      <c r="AJ9" s="76" t="n"/>
-      <c r="AK9" s="76" t="n"/>
-      <c r="AL9" s="77" t="n"/>
-      <c r="AM9" s="76" t="n"/>
-      <c r="AN9" s="76" t="n"/>
-      <c r="AO9" s="77" t="n"/>
-      <c r="AP9" s="76" t="n"/>
-      <c r="AQ9" s="76" t="n"/>
-      <c r="AR9" s="77" t="n"/>
-      <c r="AS9" s="76" t="n"/>
-      <c r="AT9" s="76" t="n"/>
-      <c r="AU9" s="77" t="n"/>
-      <c r="AV9" s="76" t="n"/>
-      <c r="AW9" s="76" t="n"/>
-      <c r="AX9" s="77" t="n"/>
-      <c r="AY9" s="76" t="n"/>
-      <c r="AZ9" s="76" t="n"/>
-      <c r="BA9" s="81" t="n"/>
-      <c r="BB9" s="76" t="n"/>
-      <c r="BC9" s="76" t="n"/>
-      <c r="BD9" s="81" t="n"/>
-      <c r="BE9" s="76" t="n"/>
-      <c r="BF9" s="76" t="n"/>
-      <c r="BG9" s="76" t="n"/>
-      <c r="BH9" s="76" t="n"/>
-      <c r="BI9" s="76" t="n"/>
-      <c r="BJ9" s="76" t="n"/>
-      <c r="BK9" s="76" t="n"/>
-      <c r="BL9" s="76" t="n"/>
-      <c r="BM9" s="76" t="n"/>
-      <c r="BN9" s="76" t="n"/>
-      <c r="BO9" s="76" t="n"/>
-      <c r="BP9" s="76" t="n"/>
-      <c r="BQ9" s="76" t="n"/>
-      <c r="BR9" s="76" t="n"/>
-      <c r="BS9" s="76" t="n"/>
-      <c r="BT9" s="76" t="n"/>
-      <c r="BU9" s="76" t="n"/>
-      <c r="BV9" s="76" t="n"/>
-      <c r="BW9" s="76" t="n"/>
-      <c r="BX9" s="76" t="n"/>
-      <c r="BY9" s="76" t="n"/>
-      <c r="BZ9" s="76" t="n"/>
-      <c r="CA9" s="76" t="n"/>
-      <c r="CB9" s="76" t="n"/>
-      <c r="CC9" s="76" t="n"/>
-      <c r="CD9" s="76" t="n"/>
-      <c r="CE9" s="76" t="n"/>
-      <c r="CF9" s="76" t="n"/>
-      <c r="CG9" s="76" t="n"/>
-      <c r="CH9" s="76" t="n"/>
-      <c r="CI9" s="76" t="n"/>
-      <c r="CJ9" s="76" t="n"/>
-      <c r="CK9" s="82" t="n"/>
-      <c r="CL9" s="82" t="n"/>
-      <c r="CM9" s="82" t="n"/>
-      <c r="CN9" s="82" t="n"/>
-      <c r="CO9" s="82" t="n"/>
-      <c r="CP9" s="82" t="n"/>
-      <c r="CQ9" s="82" t="n"/>
-      <c r="CR9" s="82" t="n"/>
-      <c r="CS9" s="82" t="n"/>
-      <c r="CT9" s="82" t="n"/>
-      <c r="CU9" s="82" t="n"/>
+      <c r="T9" s="85" t="n"/>
+      <c r="U9" s="86" t="n"/>
+      <c r="V9" s="86" t="n"/>
+      <c r="W9" s="85" t="n"/>
+      <c r="X9" s="86" t="n"/>
+      <c r="Y9" s="84" t="n"/>
+      <c r="Z9" s="85" t="n"/>
+      <c r="AA9" s="86" t="n"/>
+      <c r="AB9" s="84" t="n"/>
+      <c r="AC9" s="85" t="n"/>
+      <c r="AD9" s="84" t="n"/>
+      <c r="AE9" s="84" t="n"/>
+      <c r="AF9" s="85" t="n"/>
+      <c r="AG9" s="84" t="n"/>
+      <c r="AH9" s="84" t="n"/>
+      <c r="AI9" s="85" t="n"/>
+      <c r="AJ9" s="84" t="n"/>
+      <c r="AK9" s="84" t="n"/>
+      <c r="AL9" s="85" t="n"/>
+      <c r="AM9" s="84" t="n"/>
+      <c r="AN9" s="84" t="n"/>
+      <c r="AO9" s="85" t="n"/>
+      <c r="AP9" s="84" t="n"/>
+      <c r="AQ9" s="84" t="n"/>
+      <c r="AR9" s="85" t="n"/>
+      <c r="AS9" s="84" t="n"/>
+      <c r="AT9" s="84" t="n"/>
+      <c r="AU9" s="85" t="n"/>
+      <c r="AV9" s="84" t="n"/>
+      <c r="AW9" s="84" t="n"/>
+      <c r="AX9" s="85" t="n"/>
+      <c r="AY9" s="84" t="n"/>
+      <c r="AZ9" s="84" t="n"/>
+      <c r="BA9" s="89" t="n"/>
+      <c r="BB9" s="84" t="n"/>
+      <c r="BC9" s="84" t="n"/>
+      <c r="BD9" s="89" t="n"/>
+      <c r="BE9" s="84" t="n"/>
+      <c r="BF9" s="84" t="n"/>
+      <c r="BG9" s="84" t="n"/>
+      <c r="BH9" s="84" t="n"/>
+      <c r="BI9" s="84" t="n"/>
+      <c r="BJ9" s="84" t="n"/>
+      <c r="BK9" s="84" t="n"/>
+      <c r="BL9" s="84" t="n"/>
+      <c r="BM9" s="84" t="n"/>
+      <c r="BN9" s="84" t="n"/>
+      <c r="BO9" s="84" t="n"/>
+      <c r="BP9" s="84" t="n"/>
+      <c r="BQ9" s="84" t="n"/>
+      <c r="BR9" s="84" t="n"/>
+      <c r="BS9" s="84" t="n"/>
+      <c r="BT9" s="84" t="n"/>
+      <c r="BU9" s="84" t="n"/>
+      <c r="BV9" s="84" t="n"/>
+      <c r="BW9" s="84" t="n"/>
+      <c r="BX9" s="84" t="n"/>
+      <c r="BY9" s="84" t="n"/>
+      <c r="BZ9" s="84" t="n"/>
+      <c r="CA9" s="84" t="n"/>
+      <c r="CB9" s="84" t="n"/>
+      <c r="CC9" s="84" t="n"/>
+      <c r="CD9" s="84" t="n"/>
+      <c r="CE9" s="84" t="n"/>
+      <c r="CF9" s="84" t="n"/>
+      <c r="CG9" s="84" t="n"/>
+      <c r="CH9" s="84" t="n"/>
+      <c r="CI9" s="84" t="n"/>
+      <c r="CJ9" s="84" t="n"/>
+      <c r="CK9" s="90" t="n"/>
+      <c r="CL9" s="90" t="n"/>
+      <c r="CM9" s="90" t="n"/>
+      <c r="CN9" s="90" t="n"/>
+      <c r="CO9" s="90" t="n"/>
+      <c r="CP9" s="90" t="n"/>
+      <c r="CQ9" s="90" t="n"/>
+      <c r="CR9" s="90" t="n"/>
+      <c r="CS9" s="90" t="n"/>
+      <c r="CT9" s="90" t="n"/>
+      <c r="CU9" s="90" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1" s="9">
       <c r="A10" s="40" t="inlineStr">
@@ -2859,17 +2910,21 @@
       <c r="H10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="76" t="n">
-        <v>1.5454</v>
-      </c>
-      <c r="J10" s="77" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K10" s="78" t="inlineStr"/>
-      <c r="L10" s="78" t="n"/>
-      <c r="M10" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I10" s="84" t="n">
+        <v>1.5364</v>
+      </c>
+      <c r="J10" s="85" t="n">
+        <v>1.392463538573213</v>
+      </c>
+      <c r="K10" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="86" t="n">
+        <v>1.5364</v>
+      </c>
+      <c r="M10" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N10" s="30">
@@ -2896,86 +2951,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T10" s="77" t="n"/>
-      <c r="U10" s="78" t="n"/>
-      <c r="V10" s="78" t="n"/>
-      <c r="W10" s="77" t="n"/>
-      <c r="X10" s="78" t="n"/>
-      <c r="Y10" s="76" t="n"/>
-      <c r="Z10" s="77" t="n"/>
-      <c r="AA10" s="78" t="n"/>
-      <c r="AB10" s="76" t="n"/>
-      <c r="AC10" s="77" t="n"/>
-      <c r="AD10" s="76" t="n"/>
-      <c r="AE10" s="76" t="n"/>
-      <c r="AF10" s="77" t="n"/>
-      <c r="AG10" s="76" t="n"/>
-      <c r="AH10" s="76" t="n"/>
-      <c r="AI10" s="77" t="n"/>
-      <c r="AJ10" s="76" t="n"/>
-      <c r="AK10" s="76" t="n"/>
-      <c r="AL10" s="77" t="n"/>
-      <c r="AM10" s="76" t="n"/>
-      <c r="AN10" s="76" t="n"/>
-      <c r="AO10" s="77" t="n"/>
-      <c r="AP10" s="76" t="n"/>
-      <c r="AQ10" s="76" t="n"/>
-      <c r="AR10" s="77" t="n"/>
-      <c r="AS10" s="76" t="n"/>
-      <c r="AT10" s="76" t="n"/>
-      <c r="AU10" s="77" t="n"/>
-      <c r="AV10" s="76" t="n"/>
-      <c r="AW10" s="76" t="n"/>
-      <c r="AX10" s="77" t="n"/>
-      <c r="AY10" s="76" t="n"/>
-      <c r="AZ10" s="76" t="n"/>
-      <c r="BA10" s="81" t="n"/>
-      <c r="BB10" s="76" t="n"/>
-      <c r="BC10" s="76" t="n"/>
-      <c r="BD10" s="81" t="n"/>
-      <c r="BE10" s="76" t="n"/>
-      <c r="BF10" s="76" t="n"/>
-      <c r="BG10" s="81" t="n"/>
-      <c r="BH10" s="76" t="n"/>
-      <c r="BI10" s="76" t="n"/>
-      <c r="BJ10" s="81" t="n"/>
-      <c r="BK10" s="76" t="n"/>
-      <c r="BL10" s="76" t="n"/>
-      <c r="BM10" s="76" t="n"/>
-      <c r="BN10" s="76" t="n"/>
-      <c r="BO10" s="76" t="n"/>
-      <c r="BP10" s="76" t="n"/>
-      <c r="BQ10" s="76" t="n"/>
-      <c r="BR10" s="76" t="n"/>
-      <c r="BS10" s="76" t="n"/>
-      <c r="BT10" s="76" t="n"/>
-      <c r="BU10" s="76" t="n"/>
-      <c r="BV10" s="76" t="n"/>
-      <c r="BW10" s="76" t="n"/>
-      <c r="BX10" s="76" t="n"/>
-      <c r="BY10" s="76" t="n"/>
-      <c r="BZ10" s="76" t="n"/>
-      <c r="CA10" s="76" t="n"/>
-      <c r="CB10" s="76" t="n"/>
-      <c r="CC10" s="76" t="n"/>
-      <c r="CD10" s="76" t="n"/>
-      <c r="CE10" s="76" t="n"/>
-      <c r="CF10" s="76" t="n"/>
-      <c r="CG10" s="76" t="n"/>
-      <c r="CH10" s="76" t="n"/>
-      <c r="CI10" s="76" t="n"/>
-      <c r="CJ10" s="76" t="n"/>
-      <c r="CK10" s="82" t="n"/>
-      <c r="CL10" s="82" t="n"/>
-      <c r="CM10" s="82" t="n"/>
-      <c r="CN10" s="82" t="n"/>
-      <c r="CO10" s="82" t="n"/>
-      <c r="CP10" s="82" t="n"/>
-      <c r="CQ10" s="82" t="n"/>
-      <c r="CR10" s="82" t="n"/>
-      <c r="CS10" s="82" t="n"/>
-      <c r="CT10" s="82" t="n"/>
-      <c r="CU10" s="82" t="n"/>
+      <c r="T10" s="85" t="n"/>
+      <c r="U10" s="86" t="n"/>
+      <c r="V10" s="86" t="n"/>
+      <c r="W10" s="85" t="n"/>
+      <c r="X10" s="86" t="n"/>
+      <c r="Y10" s="84" t="n"/>
+      <c r="Z10" s="85" t="n"/>
+      <c r="AA10" s="86" t="n"/>
+      <c r="AB10" s="84" t="n"/>
+      <c r="AC10" s="85" t="n"/>
+      <c r="AD10" s="84" t="n"/>
+      <c r="AE10" s="84" t="n"/>
+      <c r="AF10" s="85" t="n"/>
+      <c r="AG10" s="84" t="n"/>
+      <c r="AH10" s="84" t="n"/>
+      <c r="AI10" s="85" t="n"/>
+      <c r="AJ10" s="84" t="n"/>
+      <c r="AK10" s="84" t="n"/>
+      <c r="AL10" s="85" t="n"/>
+      <c r="AM10" s="84" t="n"/>
+      <c r="AN10" s="84" t="n"/>
+      <c r="AO10" s="85" t="n"/>
+      <c r="AP10" s="84" t="n"/>
+      <c r="AQ10" s="84" t="n"/>
+      <c r="AR10" s="85" t="n"/>
+      <c r="AS10" s="84" t="n"/>
+      <c r="AT10" s="84" t="n"/>
+      <c r="AU10" s="85" t="n"/>
+      <c r="AV10" s="84" t="n"/>
+      <c r="AW10" s="84" t="n"/>
+      <c r="AX10" s="85" t="n"/>
+      <c r="AY10" s="84" t="n"/>
+      <c r="AZ10" s="84" t="n"/>
+      <c r="BA10" s="89" t="n"/>
+      <c r="BB10" s="84" t="n"/>
+      <c r="BC10" s="84" t="n"/>
+      <c r="BD10" s="89" t="n"/>
+      <c r="BE10" s="84" t="n"/>
+      <c r="BF10" s="84" t="n"/>
+      <c r="BG10" s="89" t="n"/>
+      <c r="BH10" s="84" t="n"/>
+      <c r="BI10" s="84" t="n"/>
+      <c r="BJ10" s="89" t="n"/>
+      <c r="BK10" s="84" t="n"/>
+      <c r="BL10" s="84" t="n"/>
+      <c r="BM10" s="84" t="n"/>
+      <c r="BN10" s="84" t="n"/>
+      <c r="BO10" s="84" t="n"/>
+      <c r="BP10" s="84" t="n"/>
+      <c r="BQ10" s="84" t="n"/>
+      <c r="BR10" s="84" t="n"/>
+      <c r="BS10" s="84" t="n"/>
+      <c r="BT10" s="84" t="n"/>
+      <c r="BU10" s="84" t="n"/>
+      <c r="BV10" s="84" t="n"/>
+      <c r="BW10" s="84" t="n"/>
+      <c r="BX10" s="84" t="n"/>
+      <c r="BY10" s="84" t="n"/>
+      <c r="BZ10" s="84" t="n"/>
+      <c r="CA10" s="84" t="n"/>
+      <c r="CB10" s="84" t="n"/>
+      <c r="CC10" s="84" t="n"/>
+      <c r="CD10" s="84" t="n"/>
+      <c r="CE10" s="84" t="n"/>
+      <c r="CF10" s="84" t="n"/>
+      <c r="CG10" s="84" t="n"/>
+      <c r="CH10" s="84" t="n"/>
+      <c r="CI10" s="84" t="n"/>
+      <c r="CJ10" s="84" t="n"/>
+      <c r="CK10" s="90" t="n"/>
+      <c r="CL10" s="90" t="n"/>
+      <c r="CM10" s="90" t="n"/>
+      <c r="CN10" s="90" t="n"/>
+      <c r="CO10" s="90" t="n"/>
+      <c r="CP10" s="90" t="n"/>
+      <c r="CQ10" s="90" t="n"/>
+      <c r="CR10" s="90" t="n"/>
+      <c r="CS10" s="90" t="n"/>
+      <c r="CT10" s="90" t="n"/>
+      <c r="CU10" s="90" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1" s="9">
       <c r="A11" s="40" t="inlineStr">
@@ -2996,17 +3051,21 @@
       <c r="H11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="76" t="n">
-        <v>1.0929</v>
-      </c>
-      <c r="J11" s="77" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K11" s="78" t="inlineStr"/>
-      <c r="L11" s="78" t="n"/>
-      <c r="M11" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I11" s="84" t="n">
+        <v>1.0914</v>
+      </c>
+      <c r="J11" s="85" t="n">
+        <v>1.70533967011462</v>
+      </c>
+      <c r="K11" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="86" t="n">
+        <v>1.0914</v>
+      </c>
+      <c r="M11" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N11" s="30">
@@ -3033,86 +3092,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T11" s="77" t="n"/>
-      <c r="U11" s="78" t="n"/>
-      <c r="V11" s="78" t="n"/>
-      <c r="W11" s="77" t="n"/>
-      <c r="X11" s="78" t="n"/>
-      <c r="Y11" s="76" t="n"/>
-      <c r="Z11" s="77" t="n"/>
-      <c r="AA11" s="78" t="n"/>
-      <c r="AB11" s="76" t="n"/>
-      <c r="AC11" s="77" t="n"/>
-      <c r="AD11" s="76" t="n"/>
-      <c r="AE11" s="76" t="n"/>
-      <c r="AF11" s="77" t="n"/>
-      <c r="AG11" s="76" t="n"/>
-      <c r="AH11" s="76" t="n"/>
-      <c r="AI11" s="77" t="n"/>
-      <c r="AJ11" s="76" t="n"/>
-      <c r="AK11" s="76" t="n"/>
-      <c r="AL11" s="81" t="n"/>
-      <c r="AM11" s="76" t="n"/>
-      <c r="AN11" s="76" t="n"/>
-      <c r="AO11" s="81" t="n"/>
-      <c r="AP11" s="76" t="n"/>
-      <c r="AQ11" s="76" t="n"/>
-      <c r="AR11" s="81" t="n"/>
-      <c r="AS11" s="76" t="n"/>
-      <c r="AT11" s="76" t="n"/>
-      <c r="AU11" s="81" t="n"/>
-      <c r="AV11" s="76" t="n"/>
-      <c r="AW11" s="76" t="n"/>
-      <c r="AX11" s="76" t="n"/>
-      <c r="AY11" s="76" t="n"/>
-      <c r="AZ11" s="76" t="n"/>
-      <c r="BA11" s="83" t="n"/>
-      <c r="BB11" s="76" t="n"/>
-      <c r="BC11" s="76" t="n"/>
-      <c r="BD11" s="83" t="n"/>
-      <c r="BE11" s="76" t="n"/>
-      <c r="BF11" s="76" t="n"/>
-      <c r="BG11" s="76" t="n"/>
-      <c r="BH11" s="76" t="n"/>
-      <c r="BI11" s="76" t="n"/>
-      <c r="BJ11" s="76" t="n"/>
-      <c r="BK11" s="76" t="n"/>
-      <c r="BL11" s="76" t="n"/>
-      <c r="BM11" s="76" t="n"/>
-      <c r="BN11" s="76" t="n"/>
-      <c r="BO11" s="76" t="n"/>
-      <c r="BP11" s="76" t="n"/>
-      <c r="BQ11" s="76" t="n"/>
-      <c r="BR11" s="76" t="n"/>
-      <c r="BS11" s="76" t="n"/>
-      <c r="BT11" s="76" t="n"/>
-      <c r="BU11" s="76" t="n"/>
-      <c r="BV11" s="76" t="n"/>
-      <c r="BW11" s="76" t="n"/>
-      <c r="BX11" s="76" t="n"/>
-      <c r="BY11" s="76" t="n"/>
-      <c r="BZ11" s="76" t="n"/>
-      <c r="CA11" s="76" t="n"/>
-      <c r="CB11" s="76" t="n"/>
-      <c r="CC11" s="76" t="n"/>
-      <c r="CD11" s="76" t="n"/>
-      <c r="CE11" s="76" t="n"/>
-      <c r="CF11" s="76" t="n"/>
-      <c r="CG11" s="76" t="n"/>
-      <c r="CH11" s="76" t="n"/>
-      <c r="CI11" s="76" t="n"/>
-      <c r="CJ11" s="76" t="n"/>
-      <c r="CK11" s="82" t="n"/>
-      <c r="CL11" s="82" t="n"/>
-      <c r="CM11" s="82" t="n"/>
-      <c r="CN11" s="82" t="n"/>
-      <c r="CO11" s="82" t="n"/>
-      <c r="CP11" s="82" t="n"/>
-      <c r="CQ11" s="82" t="n"/>
-      <c r="CR11" s="82" t="n"/>
-      <c r="CS11" s="82" t="n"/>
-      <c r="CT11" s="82" t="n"/>
-      <c r="CU11" s="82" t="n"/>
+      <c r="T11" s="85" t="n"/>
+      <c r="U11" s="86" t="n"/>
+      <c r="V11" s="86" t="n"/>
+      <c r="W11" s="85" t="n"/>
+      <c r="X11" s="86" t="n"/>
+      <c r="Y11" s="84" t="n"/>
+      <c r="Z11" s="85" t="n"/>
+      <c r="AA11" s="86" t="n"/>
+      <c r="AB11" s="84" t="n"/>
+      <c r="AC11" s="85" t="n"/>
+      <c r="AD11" s="84" t="n"/>
+      <c r="AE11" s="84" t="n"/>
+      <c r="AF11" s="85" t="n"/>
+      <c r="AG11" s="84" t="n"/>
+      <c r="AH11" s="84" t="n"/>
+      <c r="AI11" s="85" t="n"/>
+      <c r="AJ11" s="84" t="n"/>
+      <c r="AK11" s="84" t="n"/>
+      <c r="AL11" s="89" t="n"/>
+      <c r="AM11" s="84" t="n"/>
+      <c r="AN11" s="84" t="n"/>
+      <c r="AO11" s="89" t="n"/>
+      <c r="AP11" s="84" t="n"/>
+      <c r="AQ11" s="84" t="n"/>
+      <c r="AR11" s="89" t="n"/>
+      <c r="AS11" s="84" t="n"/>
+      <c r="AT11" s="84" t="n"/>
+      <c r="AU11" s="89" t="n"/>
+      <c r="AV11" s="84" t="n"/>
+      <c r="AW11" s="84" t="n"/>
+      <c r="AX11" s="84" t="n"/>
+      <c r="AY11" s="84" t="n"/>
+      <c r="AZ11" s="84" t="n"/>
+      <c r="BA11" s="91" t="n"/>
+      <c r="BB11" s="84" t="n"/>
+      <c r="BC11" s="84" t="n"/>
+      <c r="BD11" s="91" t="n"/>
+      <c r="BE11" s="84" t="n"/>
+      <c r="BF11" s="84" t="n"/>
+      <c r="BG11" s="84" t="n"/>
+      <c r="BH11" s="84" t="n"/>
+      <c r="BI11" s="84" t="n"/>
+      <c r="BJ11" s="84" t="n"/>
+      <c r="BK11" s="84" t="n"/>
+      <c r="BL11" s="84" t="n"/>
+      <c r="BM11" s="84" t="n"/>
+      <c r="BN11" s="84" t="n"/>
+      <c r="BO11" s="84" t="n"/>
+      <c r="BP11" s="84" t="n"/>
+      <c r="BQ11" s="84" t="n"/>
+      <c r="BR11" s="84" t="n"/>
+      <c r="BS11" s="84" t="n"/>
+      <c r="BT11" s="84" t="n"/>
+      <c r="BU11" s="84" t="n"/>
+      <c r="BV11" s="84" t="n"/>
+      <c r="BW11" s="84" t="n"/>
+      <c r="BX11" s="84" t="n"/>
+      <c r="BY11" s="84" t="n"/>
+      <c r="BZ11" s="84" t="n"/>
+      <c r="CA11" s="84" t="n"/>
+      <c r="CB11" s="84" t="n"/>
+      <c r="CC11" s="84" t="n"/>
+      <c r="CD11" s="84" t="n"/>
+      <c r="CE11" s="84" t="n"/>
+      <c r="CF11" s="84" t="n"/>
+      <c r="CG11" s="84" t="n"/>
+      <c r="CH11" s="84" t="n"/>
+      <c r="CI11" s="84" t="n"/>
+      <c r="CJ11" s="84" t="n"/>
+      <c r="CK11" s="90" t="n"/>
+      <c r="CL11" s="90" t="n"/>
+      <c r="CM11" s="90" t="n"/>
+      <c r="CN11" s="90" t="n"/>
+      <c r="CO11" s="90" t="n"/>
+      <c r="CP11" s="90" t="n"/>
+      <c r="CQ11" s="90" t="n"/>
+      <c r="CR11" s="90" t="n"/>
+      <c r="CS11" s="90" t="n"/>
+      <c r="CT11" s="90" t="n"/>
+      <c r="CU11" s="90" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="9">
       <c r="A12" s="40" t="inlineStr">
@@ -3133,17 +3192,21 @@
       <c r="H12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="76" t="n">
-        <v>1.4712</v>
-      </c>
-      <c r="J12" s="77" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K12" s="78" t="inlineStr"/>
-      <c r="L12" s="78" t="n"/>
-      <c r="M12" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I12" s="84" t="n">
+        <v>1.4564</v>
+      </c>
+      <c r="J12" s="85" t="n">
+        <v>0.4206026339378056</v>
+      </c>
+      <c r="K12" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" s="86" t="n">
+        <v>1.4564</v>
+      </c>
+      <c r="M12" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N12" s="30">
@@ -3170,86 +3233,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T12" s="77" t="n"/>
-      <c r="U12" s="78" t="n"/>
-      <c r="V12" s="78" t="n"/>
-      <c r="W12" s="77" t="n"/>
-      <c r="X12" s="78" t="n"/>
-      <c r="Y12" s="76" t="n"/>
-      <c r="Z12" s="77" t="n"/>
-      <c r="AA12" s="78" t="n"/>
-      <c r="AB12" s="76" t="n"/>
-      <c r="AC12" s="77" t="n"/>
-      <c r="AD12" s="76" t="n"/>
-      <c r="AE12" s="76" t="n"/>
-      <c r="AF12" s="77" t="n"/>
-      <c r="AG12" s="76" t="n"/>
-      <c r="AH12" s="76" t="n"/>
-      <c r="AI12" s="77" t="n"/>
-      <c r="AJ12" s="76" t="n"/>
-      <c r="AK12" s="76" t="n"/>
-      <c r="AL12" s="77" t="n"/>
-      <c r="AM12" s="76" t="n"/>
-      <c r="AN12" s="76" t="n"/>
-      <c r="AO12" s="77" t="n"/>
-      <c r="AP12" s="76" t="n"/>
-      <c r="AQ12" s="76" t="n"/>
-      <c r="AR12" s="77" t="n"/>
-      <c r="AS12" s="76" t="n"/>
-      <c r="AT12" s="76" t="n"/>
-      <c r="AU12" s="77" t="n"/>
-      <c r="AV12" s="76" t="n"/>
-      <c r="AW12" s="76" t="n"/>
-      <c r="AX12" s="77" t="n"/>
-      <c r="AY12" s="76" t="n"/>
-      <c r="AZ12" s="76" t="n"/>
-      <c r="BA12" s="77" t="n"/>
-      <c r="BB12" s="76" t="n"/>
-      <c r="BC12" s="76" t="n"/>
-      <c r="BD12" s="80" t="n"/>
-      <c r="BE12" s="76" t="n"/>
-      <c r="BF12" s="76" t="n"/>
-      <c r="BG12" s="81" t="n"/>
-      <c r="BH12" s="76" t="n"/>
-      <c r="BI12" s="76" t="n"/>
-      <c r="BJ12" s="81" t="n"/>
-      <c r="BK12" s="76" t="n"/>
-      <c r="BL12" s="76" t="n"/>
-      <c r="BM12" s="76" t="n"/>
-      <c r="BN12" s="76" t="n"/>
-      <c r="BO12" s="76" t="n"/>
-      <c r="BP12" s="76" t="n"/>
-      <c r="BQ12" s="76" t="n"/>
-      <c r="BR12" s="76" t="n"/>
-      <c r="BS12" s="76" t="n"/>
-      <c r="BT12" s="76" t="n"/>
-      <c r="BU12" s="76" t="n"/>
-      <c r="BV12" s="76" t="n"/>
-      <c r="BW12" s="76" t="n"/>
-      <c r="BX12" s="76" t="n"/>
-      <c r="BY12" s="76" t="n"/>
-      <c r="BZ12" s="76" t="n"/>
-      <c r="CA12" s="76" t="n"/>
-      <c r="CB12" s="76" t="n"/>
-      <c r="CC12" s="76" t="n"/>
-      <c r="CD12" s="76" t="n"/>
-      <c r="CE12" s="76" t="n"/>
-      <c r="CF12" s="76" t="n"/>
-      <c r="CG12" s="76" t="n"/>
-      <c r="CH12" s="76" t="n"/>
-      <c r="CI12" s="76" t="n"/>
-      <c r="CJ12" s="76" t="n"/>
-      <c r="CK12" s="82" t="n"/>
-      <c r="CL12" s="82" t="n"/>
-      <c r="CM12" s="82" t="n"/>
-      <c r="CN12" s="82" t="n"/>
-      <c r="CO12" s="82" t="n"/>
-      <c r="CP12" s="82" t="n"/>
-      <c r="CQ12" s="82" t="n"/>
-      <c r="CR12" s="82" t="n"/>
-      <c r="CS12" s="82" t="n"/>
-      <c r="CT12" s="82" t="n"/>
-      <c r="CU12" s="82" t="n"/>
+      <c r="T12" s="85" t="n"/>
+      <c r="U12" s="86" t="n"/>
+      <c r="V12" s="86" t="n"/>
+      <c r="W12" s="85" t="n"/>
+      <c r="X12" s="86" t="n"/>
+      <c r="Y12" s="84" t="n"/>
+      <c r="Z12" s="85" t="n"/>
+      <c r="AA12" s="86" t="n"/>
+      <c r="AB12" s="84" t="n"/>
+      <c r="AC12" s="85" t="n"/>
+      <c r="AD12" s="84" t="n"/>
+      <c r="AE12" s="84" t="n"/>
+      <c r="AF12" s="85" t="n"/>
+      <c r="AG12" s="84" t="n"/>
+      <c r="AH12" s="84" t="n"/>
+      <c r="AI12" s="85" t="n"/>
+      <c r="AJ12" s="84" t="n"/>
+      <c r="AK12" s="84" t="n"/>
+      <c r="AL12" s="85" t="n"/>
+      <c r="AM12" s="84" t="n"/>
+      <c r="AN12" s="84" t="n"/>
+      <c r="AO12" s="85" t="n"/>
+      <c r="AP12" s="84" t="n"/>
+      <c r="AQ12" s="84" t="n"/>
+      <c r="AR12" s="85" t="n"/>
+      <c r="AS12" s="84" t="n"/>
+      <c r="AT12" s="84" t="n"/>
+      <c r="AU12" s="85" t="n"/>
+      <c r="AV12" s="84" t="n"/>
+      <c r="AW12" s="84" t="n"/>
+      <c r="AX12" s="85" t="n"/>
+      <c r="AY12" s="84" t="n"/>
+      <c r="AZ12" s="84" t="n"/>
+      <c r="BA12" s="85" t="n"/>
+      <c r="BB12" s="84" t="n"/>
+      <c r="BC12" s="84" t="n"/>
+      <c r="BD12" s="88" t="n"/>
+      <c r="BE12" s="84" t="n"/>
+      <c r="BF12" s="84" t="n"/>
+      <c r="BG12" s="89" t="n"/>
+      <c r="BH12" s="84" t="n"/>
+      <c r="BI12" s="84" t="n"/>
+      <c r="BJ12" s="89" t="n"/>
+      <c r="BK12" s="84" t="n"/>
+      <c r="BL12" s="84" t="n"/>
+      <c r="BM12" s="84" t="n"/>
+      <c r="BN12" s="84" t="n"/>
+      <c r="BO12" s="84" t="n"/>
+      <c r="BP12" s="84" t="n"/>
+      <c r="BQ12" s="84" t="n"/>
+      <c r="BR12" s="84" t="n"/>
+      <c r="BS12" s="84" t="n"/>
+      <c r="BT12" s="84" t="n"/>
+      <c r="BU12" s="84" t="n"/>
+      <c r="BV12" s="84" t="n"/>
+      <c r="BW12" s="84" t="n"/>
+      <c r="BX12" s="84" t="n"/>
+      <c r="BY12" s="84" t="n"/>
+      <c r="BZ12" s="84" t="n"/>
+      <c r="CA12" s="84" t="n"/>
+      <c r="CB12" s="84" t="n"/>
+      <c r="CC12" s="84" t="n"/>
+      <c r="CD12" s="84" t="n"/>
+      <c r="CE12" s="84" t="n"/>
+      <c r="CF12" s="84" t="n"/>
+      <c r="CG12" s="84" t="n"/>
+      <c r="CH12" s="84" t="n"/>
+      <c r="CI12" s="84" t="n"/>
+      <c r="CJ12" s="84" t="n"/>
+      <c r="CK12" s="90" t="n"/>
+      <c r="CL12" s="90" t="n"/>
+      <c r="CM12" s="90" t="n"/>
+      <c r="CN12" s="90" t="n"/>
+      <c r="CO12" s="90" t="n"/>
+      <c r="CP12" s="90" t="n"/>
+      <c r="CQ12" s="90" t="n"/>
+      <c r="CR12" s="90" t="n"/>
+      <c r="CS12" s="90" t="n"/>
+      <c r="CT12" s="90" t="n"/>
+      <c r="CU12" s="90" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1" s="9">
       <c r="A13" s="41" t="inlineStr">
@@ -3265,17 +3328,21 @@
       <c r="H13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="76" t="n">
-        <v>2.293</v>
-      </c>
-      <c r="J13" s="77" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K13" s="78" t="inlineStr"/>
-      <c r="L13" s="78" t="n"/>
-      <c r="M13" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I13" s="84" t="n">
+        <v>2.298</v>
+      </c>
+      <c r="J13" s="85" t="n">
+        <v>1.952085181898848</v>
+      </c>
+      <c r="K13" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" s="86" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="M13" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N13" s="30">
@@ -3302,86 +3369,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T13" s="77" t="n"/>
-      <c r="U13" s="78" t="n"/>
-      <c r="V13" s="78" t="n"/>
-      <c r="W13" s="77" t="n"/>
-      <c r="X13" s="78" t="n"/>
-      <c r="Y13" s="76" t="n"/>
-      <c r="Z13" s="77" t="n"/>
-      <c r="AA13" s="78" t="n"/>
-      <c r="AB13" s="76" t="n"/>
-      <c r="AC13" s="77" t="n"/>
-      <c r="AD13" s="76" t="n"/>
-      <c r="AE13" s="76" t="n"/>
-      <c r="AF13" s="77" t="n"/>
-      <c r="AG13" s="76" t="n"/>
-      <c r="AH13" s="76" t="n"/>
-      <c r="AI13" s="77" t="n"/>
-      <c r="AJ13" s="76" t="n"/>
-      <c r="AK13" s="76" t="n"/>
-      <c r="AL13" s="77" t="n"/>
-      <c r="AM13" s="76" t="n"/>
-      <c r="AN13" s="76" t="n"/>
-      <c r="AO13" s="77" t="n"/>
-      <c r="AP13" s="76" t="n"/>
-      <c r="AQ13" s="76" t="n"/>
-      <c r="AR13" s="81" t="n"/>
-      <c r="AS13" s="76" t="n"/>
-      <c r="AT13" s="76" t="n"/>
-      <c r="AU13" s="81" t="n"/>
-      <c r="AV13" s="76" t="n"/>
-      <c r="AW13" s="76" t="n"/>
-      <c r="AX13" s="76" t="n"/>
-      <c r="AY13" s="76" t="n"/>
-      <c r="AZ13" s="76" t="n"/>
-      <c r="BA13" s="83" t="n"/>
-      <c r="BB13" s="76" t="n"/>
-      <c r="BC13" s="76" t="n"/>
-      <c r="BD13" s="83" t="n"/>
-      <c r="BE13" s="76" t="n"/>
-      <c r="BF13" s="76" t="n"/>
-      <c r="BG13" s="76" t="n"/>
-      <c r="BH13" s="76" t="n"/>
-      <c r="BI13" s="76" t="n"/>
-      <c r="BJ13" s="76" t="n"/>
-      <c r="BK13" s="76" t="n"/>
-      <c r="BL13" s="76" t="n"/>
-      <c r="BM13" s="76" t="n"/>
-      <c r="BN13" s="76" t="n"/>
-      <c r="BO13" s="76" t="n"/>
-      <c r="BP13" s="76" t="n"/>
-      <c r="BQ13" s="76" t="n"/>
-      <c r="BR13" s="76" t="n"/>
-      <c r="BS13" s="76" t="n"/>
-      <c r="BT13" s="76" t="n"/>
-      <c r="BU13" s="76" t="n"/>
-      <c r="BV13" s="76" t="n"/>
-      <c r="BW13" s="76" t="n"/>
-      <c r="BX13" s="76" t="n"/>
-      <c r="BY13" s="76" t="n"/>
-      <c r="BZ13" s="76" t="n"/>
-      <c r="CA13" s="76" t="n"/>
-      <c r="CB13" s="76" t="n"/>
-      <c r="CC13" s="76" t="n"/>
-      <c r="CD13" s="76" t="n"/>
-      <c r="CE13" s="76" t="n"/>
-      <c r="CF13" s="76" t="n"/>
-      <c r="CG13" s="76" t="n"/>
-      <c r="CH13" s="76" t="n"/>
-      <c r="CI13" s="76" t="n"/>
-      <c r="CJ13" s="76" t="n"/>
-      <c r="CK13" s="82" t="n"/>
-      <c r="CL13" s="82" t="n"/>
-      <c r="CM13" s="82" t="n"/>
-      <c r="CN13" s="82" t="n"/>
-      <c r="CO13" s="82" t="n"/>
-      <c r="CP13" s="82" t="n"/>
-      <c r="CQ13" s="82" t="n"/>
-      <c r="CR13" s="82" t="n"/>
-      <c r="CS13" s="82" t="n"/>
-      <c r="CT13" s="82" t="n"/>
-      <c r="CU13" s="82" t="n"/>
+      <c r="T13" s="85" t="n"/>
+      <c r="U13" s="86" t="n"/>
+      <c r="V13" s="86" t="n"/>
+      <c r="W13" s="85" t="n"/>
+      <c r="X13" s="86" t="n"/>
+      <c r="Y13" s="84" t="n"/>
+      <c r="Z13" s="85" t="n"/>
+      <c r="AA13" s="86" t="n"/>
+      <c r="AB13" s="84" t="n"/>
+      <c r="AC13" s="85" t="n"/>
+      <c r="AD13" s="84" t="n"/>
+      <c r="AE13" s="84" t="n"/>
+      <c r="AF13" s="85" t="n"/>
+      <c r="AG13" s="84" t="n"/>
+      <c r="AH13" s="84" t="n"/>
+      <c r="AI13" s="85" t="n"/>
+      <c r="AJ13" s="84" t="n"/>
+      <c r="AK13" s="84" t="n"/>
+      <c r="AL13" s="85" t="n"/>
+      <c r="AM13" s="84" t="n"/>
+      <c r="AN13" s="84" t="n"/>
+      <c r="AO13" s="85" t="n"/>
+      <c r="AP13" s="84" t="n"/>
+      <c r="AQ13" s="84" t="n"/>
+      <c r="AR13" s="89" t="n"/>
+      <c r="AS13" s="84" t="n"/>
+      <c r="AT13" s="84" t="n"/>
+      <c r="AU13" s="89" t="n"/>
+      <c r="AV13" s="84" t="n"/>
+      <c r="AW13" s="84" t="n"/>
+      <c r="AX13" s="84" t="n"/>
+      <c r="AY13" s="84" t="n"/>
+      <c r="AZ13" s="84" t="n"/>
+      <c r="BA13" s="91" t="n"/>
+      <c r="BB13" s="84" t="n"/>
+      <c r="BC13" s="84" t="n"/>
+      <c r="BD13" s="91" t="n"/>
+      <c r="BE13" s="84" t="n"/>
+      <c r="BF13" s="84" t="n"/>
+      <c r="BG13" s="84" t="n"/>
+      <c r="BH13" s="84" t="n"/>
+      <c r="BI13" s="84" t="n"/>
+      <c r="BJ13" s="84" t="n"/>
+      <c r="BK13" s="84" t="n"/>
+      <c r="BL13" s="84" t="n"/>
+      <c r="BM13" s="84" t="n"/>
+      <c r="BN13" s="84" t="n"/>
+      <c r="BO13" s="84" t="n"/>
+      <c r="BP13" s="84" t="n"/>
+      <c r="BQ13" s="84" t="n"/>
+      <c r="BR13" s="84" t="n"/>
+      <c r="BS13" s="84" t="n"/>
+      <c r="BT13" s="84" t="n"/>
+      <c r="BU13" s="84" t="n"/>
+      <c r="BV13" s="84" t="n"/>
+      <c r="BW13" s="84" t="n"/>
+      <c r="BX13" s="84" t="n"/>
+      <c r="BY13" s="84" t="n"/>
+      <c r="BZ13" s="84" t="n"/>
+      <c r="CA13" s="84" t="n"/>
+      <c r="CB13" s="84" t="n"/>
+      <c r="CC13" s="84" t="n"/>
+      <c r="CD13" s="84" t="n"/>
+      <c r="CE13" s="84" t="n"/>
+      <c r="CF13" s="84" t="n"/>
+      <c r="CG13" s="84" t="n"/>
+      <c r="CH13" s="84" t="n"/>
+      <c r="CI13" s="84" t="n"/>
+      <c r="CJ13" s="84" t="n"/>
+      <c r="CK13" s="90" t="n"/>
+      <c r="CL13" s="90" t="n"/>
+      <c r="CM13" s="90" t="n"/>
+      <c r="CN13" s="90" t="n"/>
+      <c r="CO13" s="90" t="n"/>
+      <c r="CP13" s="90" t="n"/>
+      <c r="CQ13" s="90" t="n"/>
+      <c r="CR13" s="90" t="n"/>
+      <c r="CS13" s="90" t="n"/>
+      <c r="CT13" s="90" t="n"/>
+      <c r="CU13" s="90" t="n"/>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="9">
       <c r="A14" s="10" t="n">
@@ -3400,17 +3467,21 @@
       <c r="H14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I14" s="76" t="n">
-        <v>4.8673</v>
-      </c>
-      <c r="J14" s="77" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K14" s="78" t="inlineStr"/>
-      <c r="L14" s="78" t="n"/>
-      <c r="M14" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I14" s="84" t="n">
+        <v>4.8731</v>
+      </c>
+      <c r="J14" s="85" t="n">
+        <v>2.013858360024275</v>
+      </c>
+      <c r="K14" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="86" t="n">
+        <v>5.7631</v>
+      </c>
+      <c r="M14" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N14" s="30">
@@ -3437,86 +3508,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T14" s="77" t="n"/>
-      <c r="U14" s="78" t="n"/>
-      <c r="V14" s="78" t="n"/>
-      <c r="W14" s="77" t="n"/>
-      <c r="X14" s="78" t="n"/>
-      <c r="Y14" s="76" t="n"/>
-      <c r="Z14" s="77" t="n"/>
-      <c r="AA14" s="78" t="n"/>
-      <c r="AB14" s="76" t="n"/>
-      <c r="AC14" s="77" t="n"/>
-      <c r="AD14" s="76" t="n"/>
-      <c r="AE14" s="76" t="n"/>
-      <c r="AF14" s="77" t="n"/>
-      <c r="AG14" s="76" t="n"/>
-      <c r="AH14" s="76" t="n"/>
-      <c r="AI14" s="77" t="n"/>
-      <c r="AJ14" s="76" t="n"/>
-      <c r="AK14" s="76" t="n"/>
-      <c r="AL14" s="77" t="n"/>
-      <c r="AM14" s="76" t="n"/>
-      <c r="AN14" s="76" t="n"/>
-      <c r="AO14" s="77" t="n"/>
-      <c r="AP14" s="76" t="n"/>
-      <c r="AQ14" s="76" t="n"/>
-      <c r="AR14" s="77" t="n"/>
-      <c r="AS14" s="76" t="n"/>
-      <c r="AT14" s="76" t="n"/>
-      <c r="AU14" s="81" t="n"/>
-      <c r="AV14" s="76" t="n"/>
-      <c r="AW14" s="76" t="n"/>
-      <c r="AX14" s="81" t="n"/>
-      <c r="AY14" s="76" t="n"/>
-      <c r="AZ14" s="76" t="n"/>
-      <c r="BA14" s="81" t="n"/>
-      <c r="BB14" s="76" t="n"/>
-      <c r="BC14" s="76" t="n"/>
-      <c r="BD14" s="83" t="n"/>
-      <c r="BE14" s="76" t="n"/>
-      <c r="BF14" s="76" t="n"/>
-      <c r="BG14" s="76" t="n"/>
-      <c r="BH14" s="76" t="n"/>
-      <c r="BI14" s="76" t="n"/>
-      <c r="BJ14" s="76" t="n"/>
-      <c r="BK14" s="76" t="n"/>
-      <c r="BL14" s="76" t="n"/>
-      <c r="BM14" s="76" t="n"/>
-      <c r="BN14" s="76" t="n"/>
-      <c r="BO14" s="76" t="n"/>
-      <c r="BP14" s="76" t="n"/>
-      <c r="BQ14" s="76" t="n"/>
-      <c r="BR14" s="76" t="n"/>
-      <c r="BS14" s="76" t="n"/>
-      <c r="BT14" s="76" t="n"/>
-      <c r="BU14" s="76" t="n"/>
-      <c r="BV14" s="76" t="n"/>
-      <c r="BW14" s="76" t="n"/>
-      <c r="BX14" s="76" t="n"/>
-      <c r="BY14" s="76" t="n"/>
-      <c r="BZ14" s="76" t="n"/>
-      <c r="CA14" s="76" t="n"/>
-      <c r="CB14" s="76" t="n"/>
-      <c r="CC14" s="76" t="n"/>
-      <c r="CD14" s="76" t="n"/>
-      <c r="CE14" s="76" t="n"/>
-      <c r="CF14" s="76" t="n"/>
-      <c r="CG14" s="76" t="n"/>
-      <c r="CH14" s="76" t="n"/>
-      <c r="CI14" s="76" t="n"/>
-      <c r="CJ14" s="76" t="n"/>
-      <c r="CK14" s="82" t="n"/>
-      <c r="CL14" s="82" t="n"/>
-      <c r="CM14" s="82" t="n"/>
-      <c r="CN14" s="82" t="n"/>
-      <c r="CO14" s="82" t="n"/>
-      <c r="CP14" s="82" t="n"/>
-      <c r="CQ14" s="82" t="n"/>
-      <c r="CR14" s="82" t="n"/>
-      <c r="CS14" s="82" t="n"/>
-      <c r="CT14" s="82" t="n"/>
-      <c r="CU14" s="82" t="n"/>
+      <c r="T14" s="85" t="n"/>
+      <c r="U14" s="86" t="n"/>
+      <c r="V14" s="86" t="n"/>
+      <c r="W14" s="85" t="n"/>
+      <c r="X14" s="86" t="n"/>
+      <c r="Y14" s="84" t="n"/>
+      <c r="Z14" s="85" t="n"/>
+      <c r="AA14" s="86" t="n"/>
+      <c r="AB14" s="84" t="n"/>
+      <c r="AC14" s="85" t="n"/>
+      <c r="AD14" s="84" t="n"/>
+      <c r="AE14" s="84" t="n"/>
+      <c r="AF14" s="85" t="n"/>
+      <c r="AG14" s="84" t="n"/>
+      <c r="AH14" s="84" t="n"/>
+      <c r="AI14" s="85" t="n"/>
+      <c r="AJ14" s="84" t="n"/>
+      <c r="AK14" s="84" t="n"/>
+      <c r="AL14" s="85" t="n"/>
+      <c r="AM14" s="84" t="n"/>
+      <c r="AN14" s="84" t="n"/>
+      <c r="AO14" s="85" t="n"/>
+      <c r="AP14" s="84" t="n"/>
+      <c r="AQ14" s="84" t="n"/>
+      <c r="AR14" s="85" t="n"/>
+      <c r="AS14" s="84" t="n"/>
+      <c r="AT14" s="84" t="n"/>
+      <c r="AU14" s="89" t="n"/>
+      <c r="AV14" s="84" t="n"/>
+      <c r="AW14" s="84" t="n"/>
+      <c r="AX14" s="89" t="n"/>
+      <c r="AY14" s="84" t="n"/>
+      <c r="AZ14" s="84" t="n"/>
+      <c r="BA14" s="89" t="n"/>
+      <c r="BB14" s="84" t="n"/>
+      <c r="BC14" s="84" t="n"/>
+      <c r="BD14" s="91" t="n"/>
+      <c r="BE14" s="84" t="n"/>
+      <c r="BF14" s="84" t="n"/>
+      <c r="BG14" s="84" t="n"/>
+      <c r="BH14" s="84" t="n"/>
+      <c r="BI14" s="84" t="n"/>
+      <c r="BJ14" s="84" t="n"/>
+      <c r="BK14" s="84" t="n"/>
+      <c r="BL14" s="84" t="n"/>
+      <c r="BM14" s="84" t="n"/>
+      <c r="BN14" s="84" t="n"/>
+      <c r="BO14" s="84" t="n"/>
+      <c r="BP14" s="84" t="n"/>
+      <c r="BQ14" s="84" t="n"/>
+      <c r="BR14" s="84" t="n"/>
+      <c r="BS14" s="84" t="n"/>
+      <c r="BT14" s="84" t="n"/>
+      <c r="BU14" s="84" t="n"/>
+      <c r="BV14" s="84" t="n"/>
+      <c r="BW14" s="84" t="n"/>
+      <c r="BX14" s="84" t="n"/>
+      <c r="BY14" s="84" t="n"/>
+      <c r="BZ14" s="84" t="n"/>
+      <c r="CA14" s="84" t="n"/>
+      <c r="CB14" s="84" t="n"/>
+      <c r="CC14" s="84" t="n"/>
+      <c r="CD14" s="84" t="n"/>
+      <c r="CE14" s="84" t="n"/>
+      <c r="CF14" s="84" t="n"/>
+      <c r="CG14" s="84" t="n"/>
+      <c r="CH14" s="84" t="n"/>
+      <c r="CI14" s="84" t="n"/>
+      <c r="CJ14" s="84" t="n"/>
+      <c r="CK14" s="90" t="n"/>
+      <c r="CL14" s="90" t="n"/>
+      <c r="CM14" s="90" t="n"/>
+      <c r="CN14" s="90" t="n"/>
+      <c r="CO14" s="90" t="n"/>
+      <c r="CP14" s="90" t="n"/>
+      <c r="CQ14" s="90" t="n"/>
+      <c r="CR14" s="90" t="n"/>
+      <c r="CS14" s="90" t="n"/>
+      <c r="CT14" s="90" t="n"/>
+      <c r="CU14" s="90" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1" s="9">
       <c r="A15" s="10" t="n">
@@ -3540,17 +3611,21 @@
       <c r="H15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I15" s="76" t="n">
-        <v>0.9805</v>
-      </c>
-      <c r="J15" s="77" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K15" s="78" t="inlineStr"/>
-      <c r="L15" s="78" t="n"/>
-      <c r="M15" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I15" s="84" t="n">
+        <v>0.9802999999999999</v>
+      </c>
+      <c r="J15" s="85" t="n">
+        <v>1.5434016987777</v>
+      </c>
+      <c r="K15" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="86" t="n">
+        <v>2.0961</v>
+      </c>
+      <c r="M15" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N15" s="30">
@@ -3577,86 +3652,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T15" s="77" t="n"/>
-      <c r="U15" s="78" t="n"/>
-      <c r="V15" s="78" t="n"/>
-      <c r="W15" s="77" t="n"/>
-      <c r="X15" s="78" t="n"/>
-      <c r="Y15" s="76" t="n"/>
-      <c r="Z15" s="77" t="n"/>
-      <c r="AA15" s="78" t="n"/>
-      <c r="AB15" s="76" t="n"/>
-      <c r="AC15" s="77" t="n"/>
-      <c r="AD15" s="76" t="n"/>
-      <c r="AE15" s="76" t="n"/>
-      <c r="AF15" s="81" t="n"/>
-      <c r="AG15" s="76" t="n"/>
-      <c r="AH15" s="76" t="n"/>
-      <c r="AI15" s="81" t="n"/>
-      <c r="AJ15" s="76" t="n"/>
-      <c r="AK15" s="76" t="n"/>
-      <c r="AL15" s="83" t="n"/>
-      <c r="AM15" s="76" t="n"/>
-      <c r="AN15" s="76" t="n"/>
-      <c r="AO15" s="76" t="n"/>
-      <c r="AP15" s="76" t="n"/>
-      <c r="AQ15" s="76" t="n"/>
-      <c r="AR15" s="76" t="n"/>
-      <c r="AS15" s="76" t="n"/>
-      <c r="AT15" s="76" t="n"/>
-      <c r="AU15" s="76" t="n"/>
-      <c r="AV15" s="76" t="n"/>
-      <c r="AW15" s="76" t="n"/>
-      <c r="AX15" s="76" t="n"/>
-      <c r="AY15" s="76" t="n"/>
-      <c r="AZ15" s="76" t="n"/>
-      <c r="BA15" s="83" t="n"/>
-      <c r="BB15" s="76" t="n"/>
-      <c r="BC15" s="76" t="n"/>
-      <c r="BD15" s="83" t="n"/>
-      <c r="BE15" s="76" t="n"/>
-      <c r="BF15" s="76" t="n"/>
-      <c r="BG15" s="76" t="n"/>
-      <c r="BH15" s="76" t="n"/>
-      <c r="BI15" s="76" t="n"/>
-      <c r="BJ15" s="76" t="n"/>
-      <c r="BK15" s="76" t="n"/>
-      <c r="BL15" s="76" t="n"/>
-      <c r="BM15" s="76" t="n"/>
-      <c r="BN15" s="76" t="n"/>
-      <c r="BO15" s="76" t="n"/>
-      <c r="BP15" s="76" t="n"/>
-      <c r="BQ15" s="76" t="n"/>
-      <c r="BR15" s="76" t="n"/>
-      <c r="BS15" s="76" t="n"/>
-      <c r="BT15" s="76" t="n"/>
-      <c r="BU15" s="76" t="n"/>
-      <c r="BV15" s="76" t="n"/>
-      <c r="BW15" s="76" t="n"/>
-      <c r="BX15" s="76" t="n"/>
-      <c r="BY15" s="76" t="n"/>
-      <c r="BZ15" s="76" t="n"/>
-      <c r="CA15" s="76" t="n"/>
-      <c r="CB15" s="76" t="n"/>
-      <c r="CC15" s="76" t="n"/>
-      <c r="CD15" s="76" t="n"/>
-      <c r="CE15" s="76" t="n"/>
-      <c r="CF15" s="76" t="n"/>
-      <c r="CG15" s="76" t="n"/>
-      <c r="CH15" s="76" t="n"/>
-      <c r="CI15" s="76" t="n"/>
-      <c r="CJ15" s="76" t="n"/>
-      <c r="CK15" s="82" t="n"/>
-      <c r="CL15" s="82" t="n"/>
-      <c r="CM15" s="82" t="n"/>
-      <c r="CN15" s="82" t="n"/>
-      <c r="CO15" s="82" t="n"/>
-      <c r="CP15" s="82" t="n"/>
-      <c r="CQ15" s="82" t="n"/>
-      <c r="CR15" s="82" t="n"/>
-      <c r="CS15" s="82" t="n"/>
-      <c r="CT15" s="82" t="n"/>
-      <c r="CU15" s="82" t="n"/>
+      <c r="T15" s="85" t="n"/>
+      <c r="U15" s="86" t="n"/>
+      <c r="V15" s="86" t="n"/>
+      <c r="W15" s="85" t="n"/>
+      <c r="X15" s="86" t="n"/>
+      <c r="Y15" s="84" t="n"/>
+      <c r="Z15" s="85" t="n"/>
+      <c r="AA15" s="86" t="n"/>
+      <c r="AB15" s="84" t="n"/>
+      <c r="AC15" s="85" t="n"/>
+      <c r="AD15" s="84" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AF15" s="89" t="n"/>
+      <c r="AG15" s="84" t="n"/>
+      <c r="AH15" s="84" t="n"/>
+      <c r="AI15" s="89" t="n"/>
+      <c r="AJ15" s="84" t="n"/>
+      <c r="AK15" s="84" t="n"/>
+      <c r="AL15" s="91" t="n"/>
+      <c r="AM15" s="84" t="n"/>
+      <c r="AN15" s="84" t="n"/>
+      <c r="AO15" s="84" t="n"/>
+      <c r="AP15" s="84" t="n"/>
+      <c r="AQ15" s="84" t="n"/>
+      <c r="AR15" s="84" t="n"/>
+      <c r="AS15" s="84" t="n"/>
+      <c r="AT15" s="84" t="n"/>
+      <c r="AU15" s="84" t="n"/>
+      <c r="AV15" s="84" t="n"/>
+      <c r="AW15" s="84" t="n"/>
+      <c r="AX15" s="84" t="n"/>
+      <c r="AY15" s="84" t="n"/>
+      <c r="AZ15" s="84" t="n"/>
+      <c r="BA15" s="91" t="n"/>
+      <c r="BB15" s="84" t="n"/>
+      <c r="BC15" s="84" t="n"/>
+      <c r="BD15" s="91" t="n"/>
+      <c r="BE15" s="84" t="n"/>
+      <c r="BF15" s="84" t="n"/>
+      <c r="BG15" s="84" t="n"/>
+      <c r="BH15" s="84" t="n"/>
+      <c r="BI15" s="84" t="n"/>
+      <c r="BJ15" s="84" t="n"/>
+      <c r="BK15" s="84" t="n"/>
+      <c r="BL15" s="84" t="n"/>
+      <c r="BM15" s="84" t="n"/>
+      <c r="BN15" s="84" t="n"/>
+      <c r="BO15" s="84" t="n"/>
+      <c r="BP15" s="84" t="n"/>
+      <c r="BQ15" s="84" t="n"/>
+      <c r="BR15" s="84" t="n"/>
+      <c r="BS15" s="84" t="n"/>
+      <c r="BT15" s="84" t="n"/>
+      <c r="BU15" s="84" t="n"/>
+      <c r="BV15" s="84" t="n"/>
+      <c r="BW15" s="84" t="n"/>
+      <c r="BX15" s="84" t="n"/>
+      <c r="BY15" s="84" t="n"/>
+      <c r="BZ15" s="84" t="n"/>
+      <c r="CA15" s="84" t="n"/>
+      <c r="CB15" s="84" t="n"/>
+      <c r="CC15" s="84" t="n"/>
+      <c r="CD15" s="84" t="n"/>
+      <c r="CE15" s="84" t="n"/>
+      <c r="CF15" s="84" t="n"/>
+      <c r="CG15" s="84" t="n"/>
+      <c r="CH15" s="84" t="n"/>
+      <c r="CI15" s="84" t="n"/>
+      <c r="CJ15" s="84" t="n"/>
+      <c r="CK15" s="90" t="n"/>
+      <c r="CL15" s="90" t="n"/>
+      <c r="CM15" s="90" t="n"/>
+      <c r="CN15" s="90" t="n"/>
+      <c r="CO15" s="90" t="n"/>
+      <c r="CP15" s="90" t="n"/>
+      <c r="CQ15" s="90" t="n"/>
+      <c r="CR15" s="90" t="n"/>
+      <c r="CS15" s="90" t="n"/>
+      <c r="CT15" s="90" t="n"/>
+      <c r="CU15" s="90" t="n"/>
     </row>
     <row r="16" ht="15.15" customHeight="1" s="9">
       <c r="A16" s="42" t="inlineStr">
@@ -3682,17 +3757,21 @@
       <c r="H16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="76" t="n">
-        <v>1.7559</v>
-      </c>
-      <c r="J16" s="77" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K16" s="78" t="inlineStr"/>
-      <c r="L16" s="78" t="n"/>
-      <c r="M16" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I16" s="84" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="J16" s="85" t="n">
+        <v>2.201622247972192</v>
+      </c>
+      <c r="K16" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="86" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="M16" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N16" s="30">
@@ -3719,86 +3798,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T16" s="77" t="n"/>
-      <c r="U16" s="78" t="n"/>
-      <c r="V16" s="78" t="n"/>
-      <c r="W16" s="77" t="n"/>
-      <c r="X16" s="78" t="n"/>
-      <c r="Y16" s="76" t="n"/>
-      <c r="Z16" s="77" t="n"/>
-      <c r="AA16" s="78" t="n"/>
-      <c r="AB16" s="76" t="n"/>
-      <c r="AC16" s="77" t="n"/>
-      <c r="AD16" s="76" t="n"/>
-      <c r="AE16" s="76" t="n"/>
-      <c r="AF16" s="77" t="n"/>
-      <c r="AG16" s="76" t="n"/>
-      <c r="AH16" s="76" t="n"/>
-      <c r="AI16" s="77" t="n"/>
-      <c r="AJ16" s="76" t="n"/>
-      <c r="AK16" s="76" t="n"/>
-      <c r="AL16" s="77" t="n"/>
-      <c r="AM16" s="76" t="n"/>
-      <c r="AN16" s="76" t="n"/>
-      <c r="AO16" s="77" t="n"/>
-      <c r="AP16" s="76" t="n"/>
-      <c r="AQ16" s="76" t="n"/>
-      <c r="AR16" s="77" t="n"/>
-      <c r="AS16" s="76" t="n"/>
-      <c r="AT16" s="76" t="n"/>
-      <c r="AU16" s="77" t="n"/>
-      <c r="AV16" s="76" t="n"/>
-      <c r="AW16" s="76" t="n"/>
-      <c r="AX16" s="77" t="n"/>
-      <c r="AY16" s="76" t="n"/>
-      <c r="AZ16" s="76" t="n"/>
-      <c r="BA16" s="77" t="n"/>
-      <c r="BB16" s="76" t="n"/>
-      <c r="BC16" s="76" t="n"/>
-      <c r="BD16" s="77" t="n"/>
-      <c r="BE16" s="76" t="n"/>
-      <c r="BF16" s="76" t="n"/>
-      <c r="BG16" s="81" t="n"/>
-      <c r="BH16" s="76" t="n"/>
-      <c r="BI16" s="76" t="n"/>
-      <c r="BJ16" s="81" t="n"/>
-      <c r="BK16" s="76" t="n"/>
-      <c r="BL16" s="76" t="n"/>
-      <c r="BM16" s="76" t="n"/>
-      <c r="BN16" s="76" t="n"/>
-      <c r="BO16" s="76" t="n"/>
-      <c r="BP16" s="76" t="n"/>
-      <c r="BQ16" s="76" t="n"/>
-      <c r="BR16" s="76" t="n"/>
-      <c r="BS16" s="76" t="n"/>
-      <c r="BT16" s="76" t="n"/>
-      <c r="BU16" s="76" t="n"/>
-      <c r="BV16" s="76" t="n"/>
-      <c r="BW16" s="76" t="n"/>
-      <c r="BX16" s="76" t="n"/>
-      <c r="BY16" s="76" t="n"/>
-      <c r="BZ16" s="76" t="n"/>
-      <c r="CA16" s="76" t="n"/>
-      <c r="CB16" s="76" t="n"/>
-      <c r="CC16" s="76" t="n"/>
-      <c r="CD16" s="76" t="n"/>
-      <c r="CE16" s="76" t="n"/>
-      <c r="CF16" s="76" t="n"/>
-      <c r="CG16" s="76" t="n"/>
-      <c r="CH16" s="76" t="n"/>
-      <c r="CI16" s="76" t="n"/>
-      <c r="CJ16" s="76" t="n"/>
-      <c r="CK16" s="82" t="n"/>
-      <c r="CL16" s="82" t="n"/>
-      <c r="CM16" s="82" t="n"/>
-      <c r="CN16" s="82" t="n"/>
-      <c r="CO16" s="82" t="n"/>
-      <c r="CP16" s="82" t="n"/>
-      <c r="CQ16" s="82" t="n"/>
-      <c r="CR16" s="82" t="n"/>
-      <c r="CS16" s="82" t="n"/>
-      <c r="CT16" s="82" t="n"/>
-      <c r="CU16" s="82" t="n"/>
+      <c r="T16" s="85" t="n"/>
+      <c r="U16" s="86" t="n"/>
+      <c r="V16" s="86" t="n"/>
+      <c r="W16" s="85" t="n"/>
+      <c r="X16" s="86" t="n"/>
+      <c r="Y16" s="84" t="n"/>
+      <c r="Z16" s="85" t="n"/>
+      <c r="AA16" s="86" t="n"/>
+      <c r="AB16" s="84" t="n"/>
+      <c r="AC16" s="85" t="n"/>
+      <c r="AD16" s="84" t="n"/>
+      <c r="AE16" s="84" t="n"/>
+      <c r="AF16" s="85" t="n"/>
+      <c r="AG16" s="84" t="n"/>
+      <c r="AH16" s="84" t="n"/>
+      <c r="AI16" s="85" t="n"/>
+      <c r="AJ16" s="84" t="n"/>
+      <c r="AK16" s="84" t="n"/>
+      <c r="AL16" s="85" t="n"/>
+      <c r="AM16" s="84" t="n"/>
+      <c r="AN16" s="84" t="n"/>
+      <c r="AO16" s="85" t="n"/>
+      <c r="AP16" s="84" t="n"/>
+      <c r="AQ16" s="84" t="n"/>
+      <c r="AR16" s="85" t="n"/>
+      <c r="AS16" s="84" t="n"/>
+      <c r="AT16" s="84" t="n"/>
+      <c r="AU16" s="85" t="n"/>
+      <c r="AV16" s="84" t="n"/>
+      <c r="AW16" s="84" t="n"/>
+      <c r="AX16" s="85" t="n"/>
+      <c r="AY16" s="84" t="n"/>
+      <c r="AZ16" s="84" t="n"/>
+      <c r="BA16" s="85" t="n"/>
+      <c r="BB16" s="84" t="n"/>
+      <c r="BC16" s="84" t="n"/>
+      <c r="BD16" s="85" t="n"/>
+      <c r="BE16" s="84" t="n"/>
+      <c r="BF16" s="84" t="n"/>
+      <c r="BG16" s="89" t="n"/>
+      <c r="BH16" s="84" t="n"/>
+      <c r="BI16" s="84" t="n"/>
+      <c r="BJ16" s="89" t="n"/>
+      <c r="BK16" s="84" t="n"/>
+      <c r="BL16" s="84" t="n"/>
+      <c r="BM16" s="84" t="n"/>
+      <c r="BN16" s="84" t="n"/>
+      <c r="BO16" s="84" t="n"/>
+      <c r="BP16" s="84" t="n"/>
+      <c r="BQ16" s="84" t="n"/>
+      <c r="BR16" s="84" t="n"/>
+      <c r="BS16" s="84" t="n"/>
+      <c r="BT16" s="84" t="n"/>
+      <c r="BU16" s="84" t="n"/>
+      <c r="BV16" s="84" t="n"/>
+      <c r="BW16" s="84" t="n"/>
+      <c r="BX16" s="84" t="n"/>
+      <c r="BY16" s="84" t="n"/>
+      <c r="BZ16" s="84" t="n"/>
+      <c r="CA16" s="84" t="n"/>
+      <c r="CB16" s="84" t="n"/>
+      <c r="CC16" s="84" t="n"/>
+      <c r="CD16" s="84" t="n"/>
+      <c r="CE16" s="84" t="n"/>
+      <c r="CF16" s="84" t="n"/>
+      <c r="CG16" s="84" t="n"/>
+      <c r="CH16" s="84" t="n"/>
+      <c r="CI16" s="84" t="n"/>
+      <c r="CJ16" s="84" t="n"/>
+      <c r="CK16" s="90" t="n"/>
+      <c r="CL16" s="90" t="n"/>
+      <c r="CM16" s="90" t="n"/>
+      <c r="CN16" s="90" t="n"/>
+      <c r="CO16" s="90" t="n"/>
+      <c r="CP16" s="90" t="n"/>
+      <c r="CQ16" s="90" t="n"/>
+      <c r="CR16" s="90" t="n"/>
+      <c r="CS16" s="90" t="n"/>
+      <c r="CT16" s="90" t="n"/>
+      <c r="CU16" s="90" t="n"/>
     </row>
     <row r="17" ht="15.15" customHeight="1" s="9">
       <c r="A17" s="42" t="inlineStr">
@@ -3824,17 +3903,21 @@
       <c r="H17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="76" t="n">
-        <v>1.7214</v>
-      </c>
-      <c r="J17" s="77" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="K17" s="78" t="inlineStr"/>
-      <c r="L17" s="78" t="n"/>
-      <c r="M17" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I17" s="84" t="n">
+        <v>1.7286</v>
+      </c>
+      <c r="J17" s="85" t="n">
+        <v>2.018413597733712</v>
+      </c>
+      <c r="K17" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="86" t="n">
+        <v>1.7286</v>
+      </c>
+      <c r="M17" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N17" s="30">
@@ -3861,86 +3944,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T17" s="77" t="n"/>
-      <c r="U17" s="78" t="n"/>
-      <c r="V17" s="78" t="n"/>
-      <c r="W17" s="77" t="n"/>
-      <c r="X17" s="78" t="n"/>
-      <c r="Y17" s="76" t="n"/>
-      <c r="Z17" s="77" t="n"/>
-      <c r="AA17" s="78" t="n"/>
-      <c r="AB17" s="76" t="n"/>
-      <c r="AC17" s="77" t="n"/>
-      <c r="AD17" s="76" t="n"/>
-      <c r="AE17" s="76" t="n"/>
-      <c r="AF17" s="77" t="n"/>
-      <c r="AG17" s="76" t="n"/>
-      <c r="AH17" s="76" t="n"/>
-      <c r="AI17" s="77" t="n"/>
-      <c r="AJ17" s="76" t="n"/>
-      <c r="AK17" s="76" t="n"/>
-      <c r="AL17" s="77" t="n"/>
-      <c r="AM17" s="76" t="n"/>
-      <c r="AN17" s="76" t="n"/>
-      <c r="AO17" s="77" t="n"/>
-      <c r="AP17" s="76" t="n"/>
-      <c r="AQ17" s="76" t="n"/>
-      <c r="AR17" s="77" t="n"/>
-      <c r="AS17" s="76" t="n"/>
-      <c r="AT17" s="76" t="n"/>
-      <c r="AU17" s="77" t="n"/>
-      <c r="AV17" s="76" t="n"/>
-      <c r="AW17" s="76" t="n"/>
-      <c r="AX17" s="77" t="n"/>
-      <c r="AY17" s="76" t="n"/>
-      <c r="AZ17" s="76" t="n"/>
-      <c r="BA17" s="77" t="n"/>
-      <c r="BB17" s="76" t="n"/>
-      <c r="BC17" s="76" t="n"/>
-      <c r="BD17" s="77" t="n"/>
-      <c r="BE17" s="76" t="n"/>
-      <c r="BF17" s="76" t="n"/>
-      <c r="BG17" s="81" t="n"/>
-      <c r="BH17" s="76" t="n"/>
-      <c r="BI17" s="76" t="n"/>
-      <c r="BJ17" s="81" t="n"/>
-      <c r="BK17" s="76" t="n"/>
-      <c r="BL17" s="76" t="n"/>
-      <c r="BM17" s="76" t="n"/>
-      <c r="BN17" s="76" t="n"/>
-      <c r="BO17" s="76" t="n"/>
-      <c r="BP17" s="76" t="n"/>
-      <c r="BQ17" s="76" t="n"/>
-      <c r="BR17" s="76" t="n"/>
-      <c r="BS17" s="76" t="n"/>
-      <c r="BT17" s="76" t="n"/>
-      <c r="BU17" s="76" t="n"/>
-      <c r="BV17" s="76" t="n"/>
-      <c r="BW17" s="76" t="n"/>
-      <c r="BX17" s="76" t="n"/>
-      <c r="BY17" s="76" t="n"/>
-      <c r="BZ17" s="76" t="n"/>
-      <c r="CA17" s="76" t="n"/>
-      <c r="CB17" s="76" t="n"/>
-      <c r="CC17" s="76" t="n"/>
-      <c r="CD17" s="76" t="n"/>
-      <c r="CE17" s="76" t="n"/>
-      <c r="CF17" s="76" t="n"/>
-      <c r="CG17" s="76" t="n"/>
-      <c r="CH17" s="76" t="n"/>
-      <c r="CI17" s="76" t="n"/>
-      <c r="CJ17" s="76" t="n"/>
-      <c r="CK17" s="82" t="n"/>
-      <c r="CL17" s="82" t="n"/>
-      <c r="CM17" s="82" t="n"/>
-      <c r="CN17" s="82" t="n"/>
-      <c r="CO17" s="82" t="n"/>
-      <c r="CP17" s="82" t="n"/>
-      <c r="CQ17" s="82" t="n"/>
-      <c r="CR17" s="82" t="n"/>
-      <c r="CS17" s="82" t="n"/>
-      <c r="CT17" s="82" t="n"/>
-      <c r="CU17" s="82" t="n"/>
+      <c r="T17" s="85" t="n"/>
+      <c r="U17" s="86" t="n"/>
+      <c r="V17" s="86" t="n"/>
+      <c r="W17" s="85" t="n"/>
+      <c r="X17" s="86" t="n"/>
+      <c r="Y17" s="84" t="n"/>
+      <c r="Z17" s="85" t="n"/>
+      <c r="AA17" s="86" t="n"/>
+      <c r="AB17" s="84" t="n"/>
+      <c r="AC17" s="85" t="n"/>
+      <c r="AD17" s="84" t="n"/>
+      <c r="AE17" s="84" t="n"/>
+      <c r="AF17" s="85" t="n"/>
+      <c r="AG17" s="84" t="n"/>
+      <c r="AH17" s="84" t="n"/>
+      <c r="AI17" s="85" t="n"/>
+      <c r="AJ17" s="84" t="n"/>
+      <c r="AK17" s="84" t="n"/>
+      <c r="AL17" s="85" t="n"/>
+      <c r="AM17" s="84" t="n"/>
+      <c r="AN17" s="84" t="n"/>
+      <c r="AO17" s="85" t="n"/>
+      <c r="AP17" s="84" t="n"/>
+      <c r="AQ17" s="84" t="n"/>
+      <c r="AR17" s="85" t="n"/>
+      <c r="AS17" s="84" t="n"/>
+      <c r="AT17" s="84" t="n"/>
+      <c r="AU17" s="85" t="n"/>
+      <c r="AV17" s="84" t="n"/>
+      <c r="AW17" s="84" t="n"/>
+      <c r="AX17" s="85" t="n"/>
+      <c r="AY17" s="84" t="n"/>
+      <c r="AZ17" s="84" t="n"/>
+      <c r="BA17" s="85" t="n"/>
+      <c r="BB17" s="84" t="n"/>
+      <c r="BC17" s="84" t="n"/>
+      <c r="BD17" s="85" t="n"/>
+      <c r="BE17" s="84" t="n"/>
+      <c r="BF17" s="84" t="n"/>
+      <c r="BG17" s="89" t="n"/>
+      <c r="BH17" s="84" t="n"/>
+      <c r="BI17" s="84" t="n"/>
+      <c r="BJ17" s="89" t="n"/>
+      <c r="BK17" s="84" t="n"/>
+      <c r="BL17" s="84" t="n"/>
+      <c r="BM17" s="84" t="n"/>
+      <c r="BN17" s="84" t="n"/>
+      <c r="BO17" s="84" t="n"/>
+      <c r="BP17" s="84" t="n"/>
+      <c r="BQ17" s="84" t="n"/>
+      <c r="BR17" s="84" t="n"/>
+      <c r="BS17" s="84" t="n"/>
+      <c r="BT17" s="84" t="n"/>
+      <c r="BU17" s="84" t="n"/>
+      <c r="BV17" s="84" t="n"/>
+      <c r="BW17" s="84" t="n"/>
+      <c r="BX17" s="84" t="n"/>
+      <c r="BY17" s="84" t="n"/>
+      <c r="BZ17" s="84" t="n"/>
+      <c r="CA17" s="84" t="n"/>
+      <c r="CB17" s="84" t="n"/>
+      <c r="CC17" s="84" t="n"/>
+      <c r="CD17" s="84" t="n"/>
+      <c r="CE17" s="84" t="n"/>
+      <c r="CF17" s="84" t="n"/>
+      <c r="CG17" s="84" t="n"/>
+      <c r="CH17" s="84" t="n"/>
+      <c r="CI17" s="84" t="n"/>
+      <c r="CJ17" s="84" t="n"/>
+      <c r="CK17" s="90" t="n"/>
+      <c r="CL17" s="90" t="n"/>
+      <c r="CM17" s="90" t="n"/>
+      <c r="CN17" s="90" t="n"/>
+      <c r="CO17" s="90" t="n"/>
+      <c r="CP17" s="90" t="n"/>
+      <c r="CQ17" s="90" t="n"/>
+      <c r="CR17" s="90" t="n"/>
+      <c r="CS17" s="90" t="n"/>
+      <c r="CT17" s="90" t="n"/>
+      <c r="CU17" s="90" t="n"/>
     </row>
     <row r="18" ht="15.15" customHeight="1" s="9">
       <c r="A18" s="41" t="inlineStr">
@@ -3966,17 +4049,21 @@
       <c r="H18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="76" t="n">
-        <v>1.6028</v>
-      </c>
-      <c r="J18" s="77" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K18" s="78" t="inlineStr"/>
-      <c r="L18" s="78" t="n"/>
-      <c r="M18" s="79" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I18" s="84" t="n">
+        <v>1.6094</v>
+      </c>
+      <c r="J18" s="85" t="n">
+        <v>2.333566478031408</v>
+      </c>
+      <c r="K18" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="86" t="n">
+        <v>1.6094</v>
+      </c>
+      <c r="M18" s="87" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N18" s="30">
@@ -4003,86 +4090,86 @@
           <t>20191120</t>
         </is>
       </c>
-      <c r="T18" s="77" t="n"/>
-      <c r="U18" s="78" t="n"/>
-      <c r="V18" s="78" t="n"/>
-      <c r="W18" s="77" t="n"/>
-      <c r="X18" s="78" t="n"/>
-      <c r="Y18" s="76" t="n"/>
-      <c r="Z18" s="77" t="n"/>
-      <c r="AA18" s="78" t="n"/>
-      <c r="AB18" s="76" t="n"/>
-      <c r="AC18" s="77" t="n"/>
-      <c r="AD18" s="76" t="n"/>
-      <c r="AE18" s="76" t="n"/>
-      <c r="AF18" s="77" t="n"/>
-      <c r="AG18" s="76" t="n"/>
-      <c r="AH18" s="76" t="n"/>
-      <c r="AI18" s="77" t="n"/>
-      <c r="AJ18" s="76" t="n"/>
-      <c r="AK18" s="76" t="n"/>
-      <c r="AL18" s="77" t="n"/>
-      <c r="AM18" s="76" t="n"/>
-      <c r="AN18" s="76" t="n"/>
-      <c r="AO18" s="77" t="n"/>
-      <c r="AP18" s="76" t="n"/>
-      <c r="AQ18" s="76" t="n"/>
-      <c r="AR18" s="77" t="n"/>
-      <c r="AS18" s="76" t="n"/>
-      <c r="AT18" s="76" t="n"/>
-      <c r="AU18" s="77" t="n"/>
-      <c r="AV18" s="76" t="n"/>
-      <c r="AW18" s="76" t="n"/>
-      <c r="AX18" s="77" t="n"/>
-      <c r="AY18" s="76" t="n"/>
-      <c r="AZ18" s="76" t="n"/>
-      <c r="BA18" s="77" t="n"/>
-      <c r="BB18" s="76" t="n"/>
-      <c r="BC18" s="76" t="n"/>
-      <c r="BD18" s="80" t="n"/>
-      <c r="BE18" s="76" t="n"/>
-      <c r="BF18" s="76" t="n"/>
-      <c r="BG18" s="81" t="n"/>
-      <c r="BH18" s="76" t="n"/>
-      <c r="BI18" s="76" t="n"/>
-      <c r="BJ18" s="81" t="n"/>
-      <c r="BK18" s="76" t="n"/>
-      <c r="BL18" s="76" t="n"/>
-      <c r="BM18" s="76" t="n"/>
-      <c r="BN18" s="76" t="n"/>
-      <c r="BO18" s="76" t="n"/>
-      <c r="BP18" s="76" t="n"/>
-      <c r="BQ18" s="76" t="n"/>
-      <c r="BR18" s="76" t="n"/>
-      <c r="BS18" s="76" t="n"/>
-      <c r="BT18" s="76" t="n"/>
-      <c r="BU18" s="76" t="n"/>
-      <c r="BV18" s="76" t="n"/>
-      <c r="BW18" s="76" t="n"/>
-      <c r="BX18" s="76" t="n"/>
-      <c r="BY18" s="76" t="n"/>
-      <c r="BZ18" s="76" t="n"/>
-      <c r="CA18" s="76" t="n"/>
-      <c r="CB18" s="76" t="n"/>
-      <c r="CC18" s="76" t="n"/>
-      <c r="CD18" s="76" t="n"/>
-      <c r="CE18" s="76" t="n"/>
-      <c r="CF18" s="76" t="n"/>
-      <c r="CG18" s="76" t="n"/>
-      <c r="CH18" s="76" t="n"/>
-      <c r="CI18" s="76" t="n"/>
-      <c r="CJ18" s="76" t="n"/>
-      <c r="CK18" s="82" t="n"/>
-      <c r="CL18" s="82" t="n"/>
-      <c r="CM18" s="82" t="n"/>
-      <c r="CN18" s="82" t="n"/>
-      <c r="CO18" s="82" t="n"/>
-      <c r="CP18" s="82" t="n"/>
-      <c r="CQ18" s="82" t="n"/>
-      <c r="CR18" s="82" t="n"/>
-      <c r="CS18" s="82" t="n"/>
-      <c r="CT18" s="82" t="n"/>
-      <c r="CU18" s="82" t="n"/>
+      <c r="T18" s="85" t="n"/>
+      <c r="U18" s="86" t="n"/>
+      <c r="V18" s="86" t="n"/>
+      <c r="W18" s="85" t="n"/>
+      <c r="X18" s="86" t="n"/>
+      <c r="Y18" s="84" t="n"/>
+      <c r="Z18" s="85" t="n"/>
+      <c r="AA18" s="86" t="n"/>
+      <c r="AB18" s="84" t="n"/>
+      <c r="AC18" s="85" t="n"/>
+      <c r="AD18" s="84" t="n"/>
+      <c r="AE18" s="84" t="n"/>
+      <c r="AF18" s="85" t="n"/>
+      <c r="AG18" s="84" t="n"/>
+      <c r="AH18" s="84" t="n"/>
+      <c r="AI18" s="85" t="n"/>
+      <c r="AJ18" s="84" t="n"/>
+      <c r="AK18" s="84" t="n"/>
+      <c r="AL18" s="85" t="n"/>
+      <c r="AM18" s="84" t="n"/>
+      <c r="AN18" s="84" t="n"/>
+      <c r="AO18" s="85" t="n"/>
+      <c r="AP18" s="84" t="n"/>
+      <c r="AQ18" s="84" t="n"/>
+      <c r="AR18" s="85" t="n"/>
+      <c r="AS18" s="84" t="n"/>
+      <c r="AT18" s="84" t="n"/>
+      <c r="AU18" s="85" t="n"/>
+      <c r="AV18" s="84" t="n"/>
+      <c r="AW18" s="84" t="n"/>
+      <c r="AX18" s="85" t="n"/>
+      <c r="AY18" s="84" t="n"/>
+      <c r="AZ18" s="84" t="n"/>
+      <c r="BA18" s="85" t="n"/>
+      <c r="BB18" s="84" t="n"/>
+      <c r="BC18" s="84" t="n"/>
+      <c r="BD18" s="88" t="n"/>
+      <c r="BE18" s="84" t="n"/>
+      <c r="BF18" s="84" t="n"/>
+      <c r="BG18" s="89" t="n"/>
+      <c r="BH18" s="84" t="n"/>
+      <c r="BI18" s="84" t="n"/>
+      <c r="BJ18" s="89" t="n"/>
+      <c r="BK18" s="84" t="n"/>
+      <c r="BL18" s="84" t="n"/>
+      <c r="BM18" s="84" t="n"/>
+      <c r="BN18" s="84" t="n"/>
+      <c r="BO18" s="84" t="n"/>
+      <c r="BP18" s="84" t="n"/>
+      <c r="BQ18" s="84" t="n"/>
+      <c r="BR18" s="84" t="n"/>
+      <c r="BS18" s="84" t="n"/>
+      <c r="BT18" s="84" t="n"/>
+      <c r="BU18" s="84" t="n"/>
+      <c r="BV18" s="84" t="n"/>
+      <c r="BW18" s="84" t="n"/>
+      <c r="BX18" s="84" t="n"/>
+      <c r="BY18" s="84" t="n"/>
+      <c r="BZ18" s="84" t="n"/>
+      <c r="CA18" s="84" t="n"/>
+      <c r="CB18" s="84" t="n"/>
+      <c r="CC18" s="84" t="n"/>
+      <c r="CD18" s="84" t="n"/>
+      <c r="CE18" s="84" t="n"/>
+      <c r="CF18" s="84" t="n"/>
+      <c r="CG18" s="84" t="n"/>
+      <c r="CH18" s="84" t="n"/>
+      <c r="CI18" s="84" t="n"/>
+      <c r="CJ18" s="84" t="n"/>
+      <c r="CK18" s="90" t="n"/>
+      <c r="CL18" s="90" t="n"/>
+      <c r="CM18" s="90" t="n"/>
+      <c r="CN18" s="90" t="n"/>
+      <c r="CO18" s="90" t="n"/>
+      <c r="CP18" s="90" t="n"/>
+      <c r="CQ18" s="90" t="n"/>
+      <c r="CR18" s="90" t="n"/>
+      <c r="CS18" s="90" t="n"/>
+      <c r="CT18" s="90" t="n"/>
+      <c r="CU18" s="90" t="n"/>
     </row>
     <row r="19" ht="15.15" customHeight="1" s="9">
       <c r="A19" s="10" t="n">
@@ -4101,17 +4188,21 @@
       <c r="H19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="78" t="n">
-        <v>1.1357</v>
-      </c>
-      <c r="J19" s="80" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K19" s="78" t="inlineStr"/>
-      <c r="L19" s="78" t="n"/>
-      <c r="M19" s="78" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I19" s="86" t="n">
+        <v>1.1351</v>
+      </c>
+      <c r="J19" s="88" t="n">
+        <v>1.811821688043771</v>
+      </c>
+      <c r="K19" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="86" t="n">
+        <v>1.2179</v>
+      </c>
+      <c r="M19" s="86" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N19" s="30">
@@ -4138,86 +4229,86 @@
           <t>20191106</t>
         </is>
       </c>
-      <c r="T19" s="80" t="n"/>
-      <c r="U19" s="78" t="n"/>
-      <c r="V19" s="78" t="n"/>
-      <c r="W19" s="80" t="n"/>
-      <c r="X19" s="78" t="n"/>
-      <c r="Y19" s="78" t="n"/>
-      <c r="Z19" s="80" t="n"/>
-      <c r="AA19" s="78" t="n"/>
-      <c r="AB19" s="78" t="n"/>
-      <c r="AC19" s="80" t="n"/>
-      <c r="AD19" s="78" t="n"/>
-      <c r="AE19" s="78" t="n"/>
-      <c r="AF19" s="80" t="n"/>
-      <c r="AG19" s="78" t="n"/>
-      <c r="AH19" s="78" t="n"/>
-      <c r="AI19" s="80" t="n"/>
-      <c r="AJ19" s="78" t="n"/>
-      <c r="AK19" s="78" t="n"/>
-      <c r="AL19" s="80" t="n"/>
-      <c r="AM19" s="78" t="n"/>
-      <c r="AN19" s="78" t="n"/>
-      <c r="AO19" s="80" t="n"/>
-      <c r="AP19" s="78" t="n"/>
-      <c r="AQ19" s="78" t="n"/>
-      <c r="AR19" s="80" t="n"/>
-      <c r="AS19" s="78" t="n"/>
-      <c r="AT19" s="78" t="n"/>
-      <c r="AU19" s="80" t="n"/>
-      <c r="AV19" s="78" t="n"/>
-      <c r="AW19" s="78" t="n"/>
-      <c r="AX19" s="82" t="n"/>
-      <c r="AY19" s="82" t="n"/>
-      <c r="AZ19" s="82" t="n"/>
-      <c r="BA19" s="82" t="n"/>
-      <c r="BB19" s="82" t="n"/>
-      <c r="BC19" s="82" t="n"/>
-      <c r="BD19" s="82" t="n"/>
-      <c r="BE19" s="82" t="n"/>
-      <c r="BF19" s="82" t="n"/>
-      <c r="BG19" s="82" t="n"/>
-      <c r="BH19" s="82" t="n"/>
-      <c r="BI19" s="82" t="n"/>
-      <c r="BJ19" s="82" t="n"/>
-      <c r="BK19" s="82" t="n"/>
-      <c r="BL19" s="82" t="n"/>
-      <c r="BM19" s="82" t="n"/>
-      <c r="BN19" s="82" t="n"/>
-      <c r="BO19" s="82" t="n"/>
-      <c r="BP19" s="82" t="n"/>
-      <c r="BQ19" s="82" t="n"/>
-      <c r="BR19" s="82" t="n"/>
-      <c r="BS19" s="82" t="n"/>
-      <c r="BT19" s="82" t="n"/>
-      <c r="BU19" s="82" t="n"/>
-      <c r="BV19" s="82" t="n"/>
-      <c r="BW19" s="82" t="n"/>
-      <c r="BX19" s="82" t="n"/>
-      <c r="BY19" s="82" t="n"/>
-      <c r="BZ19" s="82" t="n"/>
-      <c r="CA19" s="82" t="n"/>
-      <c r="CB19" s="82" t="n"/>
-      <c r="CC19" s="82" t="n"/>
-      <c r="CD19" s="82" t="n"/>
-      <c r="CE19" s="82" t="n"/>
-      <c r="CF19" s="82" t="n"/>
-      <c r="CG19" s="82" t="n"/>
-      <c r="CH19" s="82" t="n"/>
-      <c r="CI19" s="82" t="n"/>
-      <c r="CJ19" s="82" t="n"/>
-      <c r="CK19" s="82" t="n"/>
-      <c r="CL19" s="82" t="n"/>
-      <c r="CM19" s="82" t="n"/>
-      <c r="CN19" s="82" t="n"/>
-      <c r="CO19" s="82" t="n"/>
-      <c r="CP19" s="82" t="n"/>
-      <c r="CQ19" s="82" t="n"/>
-      <c r="CR19" s="82" t="n"/>
-      <c r="CS19" s="82" t="n"/>
-      <c r="CT19" s="82" t="n"/>
-      <c r="CU19" s="82" t="n"/>
+      <c r="T19" s="88" t="n"/>
+      <c r="U19" s="86" t="n"/>
+      <c r="V19" s="86" t="n"/>
+      <c r="W19" s="88" t="n"/>
+      <c r="X19" s="86" t="n"/>
+      <c r="Y19" s="86" t="n"/>
+      <c r="Z19" s="88" t="n"/>
+      <c r="AA19" s="86" t="n"/>
+      <c r="AB19" s="86" t="n"/>
+      <c r="AC19" s="88" t="n"/>
+      <c r="AD19" s="86" t="n"/>
+      <c r="AE19" s="86" t="n"/>
+      <c r="AF19" s="88" t="n"/>
+      <c r="AG19" s="86" t="n"/>
+      <c r="AH19" s="86" t="n"/>
+      <c r="AI19" s="88" t="n"/>
+      <c r="AJ19" s="86" t="n"/>
+      <c r="AK19" s="86" t="n"/>
+      <c r="AL19" s="88" t="n"/>
+      <c r="AM19" s="86" t="n"/>
+      <c r="AN19" s="86" t="n"/>
+      <c r="AO19" s="88" t="n"/>
+      <c r="AP19" s="86" t="n"/>
+      <c r="AQ19" s="86" t="n"/>
+      <c r="AR19" s="88" t="n"/>
+      <c r="AS19" s="86" t="n"/>
+      <c r="AT19" s="86" t="n"/>
+      <c r="AU19" s="88" t="n"/>
+      <c r="AV19" s="86" t="n"/>
+      <c r="AW19" s="86" t="n"/>
+      <c r="AX19" s="90" t="n"/>
+      <c r="AY19" s="90" t="n"/>
+      <c r="AZ19" s="90" t="n"/>
+      <c r="BA19" s="90" t="n"/>
+      <c r="BB19" s="90" t="n"/>
+      <c r="BC19" s="90" t="n"/>
+      <c r="BD19" s="90" t="n"/>
+      <c r="BE19" s="90" t="n"/>
+      <c r="BF19" s="90" t="n"/>
+      <c r="BG19" s="90" t="n"/>
+      <c r="BH19" s="90" t="n"/>
+      <c r="BI19" s="90" t="n"/>
+      <c r="BJ19" s="90" t="n"/>
+      <c r="BK19" s="90" t="n"/>
+      <c r="BL19" s="90" t="n"/>
+      <c r="BM19" s="90" t="n"/>
+      <c r="BN19" s="90" t="n"/>
+      <c r="BO19" s="90" t="n"/>
+      <c r="BP19" s="90" t="n"/>
+      <c r="BQ19" s="90" t="n"/>
+      <c r="BR19" s="90" t="n"/>
+      <c r="BS19" s="90" t="n"/>
+      <c r="BT19" s="90" t="n"/>
+      <c r="BU19" s="90" t="n"/>
+      <c r="BV19" s="90" t="n"/>
+      <c r="BW19" s="90" t="n"/>
+      <c r="BX19" s="90" t="n"/>
+      <c r="BY19" s="90" t="n"/>
+      <c r="BZ19" s="90" t="n"/>
+      <c r="CA19" s="90" t="n"/>
+      <c r="CB19" s="90" t="n"/>
+      <c r="CC19" s="90" t="n"/>
+      <c r="CD19" s="90" t="n"/>
+      <c r="CE19" s="90" t="n"/>
+      <c r="CF19" s="90" t="n"/>
+      <c r="CG19" s="90" t="n"/>
+      <c r="CH19" s="90" t="n"/>
+      <c r="CI19" s="90" t="n"/>
+      <c r="CJ19" s="90" t="n"/>
+      <c r="CK19" s="90" t="n"/>
+      <c r="CL19" s="90" t="n"/>
+      <c r="CM19" s="90" t="n"/>
+      <c r="CN19" s="90" t="n"/>
+      <c r="CO19" s="90" t="n"/>
+      <c r="CP19" s="90" t="n"/>
+      <c r="CQ19" s="90" t="n"/>
+      <c r="CR19" s="90" t="n"/>
+      <c r="CS19" s="90" t="n"/>
+      <c r="CT19" s="90" t="n"/>
+      <c r="CU19" s="90" t="n"/>
     </row>
     <row r="20" ht="15.15" customHeight="1" s="9">
       <c r="A20" s="43" t="inlineStr">
@@ -4238,17 +4329,21 @@
       <c r="H20" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="78" t="n">
-        <v>1.9131</v>
-      </c>
-      <c r="J20" s="80" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K20" s="78" t="inlineStr"/>
-      <c r="L20" s="78" t="n"/>
-      <c r="M20" s="78" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I20" s="86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J20" s="88" t="n">
+        <v>1.380042462845012</v>
+      </c>
+      <c r="K20" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M20" s="86" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N20" s="30">
@@ -4275,86 +4370,86 @@
           <t>20191119</t>
         </is>
       </c>
-      <c r="T20" s="80" t="n"/>
-      <c r="U20" s="78" t="n"/>
-      <c r="V20" s="78" t="n"/>
-      <c r="W20" s="80" t="n"/>
-      <c r="X20" s="78" t="n"/>
-      <c r="Y20" s="78" t="n"/>
-      <c r="Z20" s="80" t="n"/>
-      <c r="AA20" s="78" t="n"/>
-      <c r="AB20" s="78" t="n"/>
-      <c r="AC20" s="80" t="n"/>
-      <c r="AD20" s="78" t="n"/>
-      <c r="AE20" s="78" t="n"/>
-      <c r="AF20" s="80" t="n"/>
-      <c r="AG20" s="78" t="n"/>
-      <c r="AH20" s="78" t="n"/>
-      <c r="AI20" s="80" t="n"/>
-      <c r="AJ20" s="78" t="n"/>
-      <c r="AK20" s="78" t="n"/>
-      <c r="AL20" s="80" t="n"/>
-      <c r="AM20" s="78" t="n"/>
-      <c r="AN20" s="78" t="n"/>
-      <c r="AO20" s="80" t="n"/>
-      <c r="AP20" s="78" t="n"/>
-      <c r="AQ20" s="78" t="n"/>
-      <c r="AR20" s="80" t="n"/>
-      <c r="AS20" s="78" t="n"/>
-      <c r="AT20" s="78" t="n"/>
-      <c r="AU20" s="80" t="n"/>
-      <c r="AV20" s="78" t="n"/>
-      <c r="AW20" s="78" t="n"/>
-      <c r="AX20" s="80" t="n"/>
-      <c r="AY20" s="78" t="n"/>
-      <c r="AZ20" s="78" t="n"/>
-      <c r="BA20" s="80" t="n"/>
-      <c r="BB20" s="78" t="n"/>
-      <c r="BC20" s="78" t="n"/>
-      <c r="BD20" s="80" t="n"/>
-      <c r="BE20" s="82" t="n"/>
-      <c r="BF20" s="82" t="n"/>
-      <c r="BG20" s="80" t="n"/>
-      <c r="BH20" s="82" t="n"/>
-      <c r="BI20" s="82" t="n"/>
-      <c r="BJ20" s="82" t="n"/>
-      <c r="BK20" s="82" t="n"/>
-      <c r="BL20" s="82" t="n"/>
-      <c r="BM20" s="82" t="n"/>
-      <c r="BN20" s="82" t="n"/>
-      <c r="BO20" s="82" t="n"/>
-      <c r="BP20" s="82" t="n"/>
-      <c r="BQ20" s="82" t="n"/>
-      <c r="BR20" s="82" t="n"/>
-      <c r="BS20" s="82" t="n"/>
-      <c r="BT20" s="82" t="n"/>
-      <c r="BU20" s="82" t="n"/>
-      <c r="BV20" s="82" t="n"/>
-      <c r="BW20" s="82" t="n"/>
-      <c r="BX20" s="82" t="n"/>
-      <c r="BY20" s="82" t="n"/>
-      <c r="BZ20" s="82" t="n"/>
-      <c r="CA20" s="82" t="n"/>
-      <c r="CB20" s="82" t="n"/>
-      <c r="CC20" s="82" t="n"/>
-      <c r="CD20" s="82" t="n"/>
-      <c r="CE20" s="82" t="n"/>
-      <c r="CF20" s="82" t="n"/>
-      <c r="CG20" s="82" t="n"/>
-      <c r="CH20" s="82" t="n"/>
-      <c r="CI20" s="82" t="n"/>
-      <c r="CJ20" s="82" t="n"/>
-      <c r="CK20" s="82" t="n"/>
-      <c r="CL20" s="82" t="n"/>
-      <c r="CM20" s="82" t="n"/>
-      <c r="CN20" s="82" t="n"/>
-      <c r="CO20" s="82" t="n"/>
-      <c r="CP20" s="82" t="n"/>
-      <c r="CQ20" s="82" t="n"/>
-      <c r="CR20" s="82" t="n"/>
-      <c r="CS20" s="82" t="n"/>
-      <c r="CT20" s="82" t="n"/>
-      <c r="CU20" s="82" t="n"/>
+      <c r="T20" s="88" t="n"/>
+      <c r="U20" s="86" t="n"/>
+      <c r="V20" s="86" t="n"/>
+      <c r="W20" s="88" t="n"/>
+      <c r="X20" s="86" t="n"/>
+      <c r="Y20" s="86" t="n"/>
+      <c r="Z20" s="88" t="n"/>
+      <c r="AA20" s="86" t="n"/>
+      <c r="AB20" s="86" t="n"/>
+      <c r="AC20" s="88" t="n"/>
+      <c r="AD20" s="86" t="n"/>
+      <c r="AE20" s="86" t="n"/>
+      <c r="AF20" s="88" t="n"/>
+      <c r="AG20" s="86" t="n"/>
+      <c r="AH20" s="86" t="n"/>
+      <c r="AI20" s="88" t="n"/>
+      <c r="AJ20" s="86" t="n"/>
+      <c r="AK20" s="86" t="n"/>
+      <c r="AL20" s="88" t="n"/>
+      <c r="AM20" s="86" t="n"/>
+      <c r="AN20" s="86" t="n"/>
+      <c r="AO20" s="88" t="n"/>
+      <c r="AP20" s="86" t="n"/>
+      <c r="AQ20" s="86" t="n"/>
+      <c r="AR20" s="88" t="n"/>
+      <c r="AS20" s="86" t="n"/>
+      <c r="AT20" s="86" t="n"/>
+      <c r="AU20" s="88" t="n"/>
+      <c r="AV20" s="86" t="n"/>
+      <c r="AW20" s="86" t="n"/>
+      <c r="AX20" s="88" t="n"/>
+      <c r="AY20" s="86" t="n"/>
+      <c r="AZ20" s="86" t="n"/>
+      <c r="BA20" s="88" t="n"/>
+      <c r="BB20" s="86" t="n"/>
+      <c r="BC20" s="86" t="n"/>
+      <c r="BD20" s="88" t="n"/>
+      <c r="BE20" s="90" t="n"/>
+      <c r="BF20" s="90" t="n"/>
+      <c r="BG20" s="88" t="n"/>
+      <c r="BH20" s="90" t="n"/>
+      <c r="BI20" s="90" t="n"/>
+      <c r="BJ20" s="90" t="n"/>
+      <c r="BK20" s="90" t="n"/>
+      <c r="BL20" s="90" t="n"/>
+      <c r="BM20" s="90" t="n"/>
+      <c r="BN20" s="90" t="n"/>
+      <c r="BO20" s="90" t="n"/>
+      <c r="BP20" s="90" t="n"/>
+      <c r="BQ20" s="90" t="n"/>
+      <c r="BR20" s="90" t="n"/>
+      <c r="BS20" s="90" t="n"/>
+      <c r="BT20" s="90" t="n"/>
+      <c r="BU20" s="90" t="n"/>
+      <c r="BV20" s="90" t="n"/>
+      <c r="BW20" s="90" t="n"/>
+      <c r="BX20" s="90" t="n"/>
+      <c r="BY20" s="90" t="n"/>
+      <c r="BZ20" s="90" t="n"/>
+      <c r="CA20" s="90" t="n"/>
+      <c r="CB20" s="90" t="n"/>
+      <c r="CC20" s="90" t="n"/>
+      <c r="CD20" s="90" t="n"/>
+      <c r="CE20" s="90" t="n"/>
+      <c r="CF20" s="90" t="n"/>
+      <c r="CG20" s="90" t="n"/>
+      <c r="CH20" s="90" t="n"/>
+      <c r="CI20" s="90" t="n"/>
+      <c r="CJ20" s="90" t="n"/>
+      <c r="CK20" s="90" t="n"/>
+      <c r="CL20" s="90" t="n"/>
+      <c r="CM20" s="90" t="n"/>
+      <c r="CN20" s="90" t="n"/>
+      <c r="CO20" s="90" t="n"/>
+      <c r="CP20" s="90" t="n"/>
+      <c r="CQ20" s="90" t="n"/>
+      <c r="CR20" s="90" t="n"/>
+      <c r="CS20" s="90" t="n"/>
+      <c r="CT20" s="90" t="n"/>
+      <c r="CU20" s="90" t="n"/>
     </row>
     <row r="21" ht="15.15" customHeight="1" s="9">
       <c r="A21" s="44" t="inlineStr">
@@ -4370,17 +4465,21 @@
       <c r="H21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="78" t="n">
-        <v>0.9507</v>
-      </c>
-      <c r="J21" s="80" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="K21" s="78" t="inlineStr"/>
-      <c r="L21" s="78" t="n"/>
-      <c r="M21" s="78" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I21" s="86" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="J21" s="88" t="n">
+        <v>3.584268438827751</v>
+      </c>
+      <c r="K21" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="86" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="M21" s="86" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N21" s="30">
@@ -4407,86 +4506,86 @@
           <t>20190911</t>
         </is>
       </c>
-      <c r="T21" s="80" t="n"/>
-      <c r="U21" s="78" t="n"/>
-      <c r="V21" s="78" t="n"/>
-      <c r="W21" s="80" t="n"/>
-      <c r="X21" s="78" t="n"/>
-      <c r="Y21" s="78" t="n"/>
-      <c r="Z21" s="80" t="n"/>
-      <c r="AA21" s="78" t="n"/>
-      <c r="AB21" s="78" t="n"/>
-      <c r="AC21" s="80" t="n"/>
-      <c r="AD21" s="78" t="n"/>
-      <c r="AE21" s="78" t="n"/>
-      <c r="AF21" s="80" t="n"/>
-      <c r="AG21" s="78" t="n"/>
-      <c r="AH21" s="78" t="n"/>
-      <c r="AI21" s="80" t="n"/>
-      <c r="AJ21" s="78" t="n"/>
-      <c r="AK21" s="78" t="n"/>
-      <c r="AL21" s="80" t="n"/>
-      <c r="AM21" s="78" t="n"/>
-      <c r="AN21" s="78" t="n"/>
-      <c r="AO21" s="80" t="n"/>
-      <c r="AP21" s="78" t="n"/>
-      <c r="AQ21" s="78" t="n"/>
-      <c r="AR21" s="80" t="n"/>
-      <c r="AS21" s="78" t="n"/>
-      <c r="AT21" s="78" t="n"/>
-      <c r="AU21" s="80" t="n"/>
-      <c r="AV21" s="78" t="n"/>
-      <c r="AW21" s="78" t="n"/>
-      <c r="AX21" s="80" t="n"/>
-      <c r="AY21" s="78" t="n"/>
-      <c r="AZ21" s="78" t="n"/>
-      <c r="BA21" s="80" t="n"/>
-      <c r="BB21" s="78" t="n"/>
-      <c r="BC21" s="78" t="n"/>
-      <c r="BD21" s="80" t="n"/>
-      <c r="BE21" s="78" t="n"/>
-      <c r="BF21" s="78" t="n"/>
-      <c r="BG21" s="80" t="n"/>
-      <c r="BH21" s="78" t="n"/>
-      <c r="BI21" s="78" t="n"/>
-      <c r="BJ21" s="82" t="n"/>
-      <c r="BK21" s="82" t="n"/>
-      <c r="BL21" s="82" t="n"/>
-      <c r="BM21" s="82" t="n"/>
-      <c r="BN21" s="82" t="n"/>
-      <c r="BO21" s="82" t="n"/>
-      <c r="BP21" s="82" t="n"/>
-      <c r="BQ21" s="82" t="n"/>
-      <c r="BR21" s="82" t="n"/>
-      <c r="BS21" s="82" t="n"/>
-      <c r="BT21" s="82" t="n"/>
-      <c r="BU21" s="82" t="n"/>
-      <c r="BV21" s="82" t="n"/>
-      <c r="BW21" s="82" t="n"/>
-      <c r="BX21" s="82" t="n"/>
-      <c r="BY21" s="82" t="n"/>
-      <c r="BZ21" s="82" t="n"/>
-      <c r="CA21" s="82" t="n"/>
-      <c r="CB21" s="82" t="n"/>
-      <c r="CC21" s="82" t="n"/>
-      <c r="CD21" s="82" t="n"/>
-      <c r="CE21" s="82" t="n"/>
-      <c r="CF21" s="82" t="n"/>
-      <c r="CG21" s="82" t="n"/>
-      <c r="CH21" s="82" t="n"/>
-      <c r="CI21" s="82" t="n"/>
-      <c r="CJ21" s="82" t="n"/>
-      <c r="CK21" s="82" t="n"/>
-      <c r="CL21" s="82" t="n"/>
-      <c r="CM21" s="82" t="n"/>
-      <c r="CN21" s="82" t="n"/>
-      <c r="CO21" s="82" t="n"/>
-      <c r="CP21" s="82" t="n"/>
-      <c r="CQ21" s="82" t="n"/>
-      <c r="CR21" s="82" t="n"/>
-      <c r="CS21" s="82" t="n"/>
-      <c r="CT21" s="82" t="n"/>
-      <c r="CU21" s="82" t="n"/>
+      <c r="T21" s="88" t="n"/>
+      <c r="U21" s="86" t="n"/>
+      <c r="V21" s="86" t="n"/>
+      <c r="W21" s="88" t="n"/>
+      <c r="X21" s="86" t="n"/>
+      <c r="Y21" s="86" t="n"/>
+      <c r="Z21" s="88" t="n"/>
+      <c r="AA21" s="86" t="n"/>
+      <c r="AB21" s="86" t="n"/>
+      <c r="AC21" s="88" t="n"/>
+      <c r="AD21" s="86" t="n"/>
+      <c r="AE21" s="86" t="n"/>
+      <c r="AF21" s="88" t="n"/>
+      <c r="AG21" s="86" t="n"/>
+      <c r="AH21" s="86" t="n"/>
+      <c r="AI21" s="88" t="n"/>
+      <c r="AJ21" s="86" t="n"/>
+      <c r="AK21" s="86" t="n"/>
+      <c r="AL21" s="88" t="n"/>
+      <c r="AM21" s="86" t="n"/>
+      <c r="AN21" s="86" t="n"/>
+      <c r="AO21" s="88" t="n"/>
+      <c r="AP21" s="86" t="n"/>
+      <c r="AQ21" s="86" t="n"/>
+      <c r="AR21" s="88" t="n"/>
+      <c r="AS21" s="86" t="n"/>
+      <c r="AT21" s="86" t="n"/>
+      <c r="AU21" s="88" t="n"/>
+      <c r="AV21" s="86" t="n"/>
+      <c r="AW21" s="86" t="n"/>
+      <c r="AX21" s="88" t="n"/>
+      <c r="AY21" s="86" t="n"/>
+      <c r="AZ21" s="86" t="n"/>
+      <c r="BA21" s="88" t="n"/>
+      <c r="BB21" s="86" t="n"/>
+      <c r="BC21" s="86" t="n"/>
+      <c r="BD21" s="88" t="n"/>
+      <c r="BE21" s="86" t="n"/>
+      <c r="BF21" s="86" t="n"/>
+      <c r="BG21" s="88" t="n"/>
+      <c r="BH21" s="86" t="n"/>
+      <c r="BI21" s="86" t="n"/>
+      <c r="BJ21" s="90" t="n"/>
+      <c r="BK21" s="90" t="n"/>
+      <c r="BL21" s="90" t="n"/>
+      <c r="BM21" s="90" t="n"/>
+      <c r="BN21" s="90" t="n"/>
+      <c r="BO21" s="90" t="n"/>
+      <c r="BP21" s="90" t="n"/>
+      <c r="BQ21" s="90" t="n"/>
+      <c r="BR21" s="90" t="n"/>
+      <c r="BS21" s="90" t="n"/>
+      <c r="BT21" s="90" t="n"/>
+      <c r="BU21" s="90" t="n"/>
+      <c r="BV21" s="90" t="n"/>
+      <c r="BW21" s="90" t="n"/>
+      <c r="BX21" s="90" t="n"/>
+      <c r="BY21" s="90" t="n"/>
+      <c r="BZ21" s="90" t="n"/>
+      <c r="CA21" s="90" t="n"/>
+      <c r="CB21" s="90" t="n"/>
+      <c r="CC21" s="90" t="n"/>
+      <c r="CD21" s="90" t="n"/>
+      <c r="CE21" s="90" t="n"/>
+      <c r="CF21" s="90" t="n"/>
+      <c r="CG21" s="90" t="n"/>
+      <c r="CH21" s="90" t="n"/>
+      <c r="CI21" s="90" t="n"/>
+      <c r="CJ21" s="90" t="n"/>
+      <c r="CK21" s="90" t="n"/>
+      <c r="CL21" s="90" t="n"/>
+      <c r="CM21" s="90" t="n"/>
+      <c r="CN21" s="90" t="n"/>
+      <c r="CO21" s="90" t="n"/>
+      <c r="CP21" s="90" t="n"/>
+      <c r="CQ21" s="90" t="n"/>
+      <c r="CR21" s="90" t="n"/>
+      <c r="CS21" s="90" t="n"/>
+      <c r="CT21" s="90" t="n"/>
+      <c r="CU21" s="90" t="n"/>
     </row>
     <row r="22" ht="15.15" customHeight="1" s="9">
       <c r="A22" s="43" t="inlineStr">
@@ -4507,17 +4606,21 @@
       <c r="H22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="78" t="n">
-        <v>2.6521</v>
-      </c>
-      <c r="J22" s="80" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K22" s="78" t="inlineStr"/>
-      <c r="L22" s="78" t="n"/>
-      <c r="M22" s="78" t="inlineStr">
-        <is>
-          <t>2019-12-14 05:00</t>
+      <c r="I22" s="86" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="J22" s="88" t="n">
+        <v>0.5317128750474664</v>
+      </c>
+      <c r="K22" s="86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="86" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="M22" s="86" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="N22" s="30">
@@ -4544,86 +4647,86 @@
           <t>20191128</t>
         </is>
       </c>
-      <c r="T22" s="80" t="n"/>
-      <c r="U22" s="78" t="n"/>
-      <c r="V22" s="78" t="n"/>
-      <c r="W22" s="80" t="n"/>
-      <c r="X22" s="78" t="n"/>
-      <c r="Y22" s="78" t="n"/>
-      <c r="Z22" s="80" t="n"/>
-      <c r="AA22" s="78" t="n"/>
-      <c r="AB22" s="78" t="n"/>
-      <c r="AC22" s="80" t="n"/>
-      <c r="AD22" s="78" t="n"/>
-      <c r="AE22" s="78" t="n"/>
-      <c r="AF22" s="80" t="n"/>
-      <c r="AG22" s="78" t="n"/>
-      <c r="AH22" s="78" t="n"/>
-      <c r="AI22" s="80" t="n"/>
-      <c r="AJ22" s="78" t="n"/>
-      <c r="AK22" s="78" t="n"/>
-      <c r="AL22" s="80" t="n"/>
-      <c r="AM22" s="78" t="n"/>
-      <c r="AN22" s="78" t="n"/>
-      <c r="AO22" s="80" t="n"/>
-      <c r="AP22" s="78" t="n"/>
-      <c r="AQ22" s="78" t="n"/>
-      <c r="AR22" s="80" t="n"/>
-      <c r="AS22" s="78" t="n"/>
-      <c r="AT22" s="78" t="n"/>
-      <c r="AU22" s="80" t="n"/>
-      <c r="AV22" s="78" t="n"/>
-      <c r="AW22" s="78" t="n"/>
-      <c r="AX22" s="80" t="n"/>
-      <c r="AY22" s="78" t="n"/>
-      <c r="AZ22" s="78" t="n"/>
-      <c r="BA22" s="80" t="n"/>
-      <c r="BB22" s="78" t="n"/>
-      <c r="BC22" s="78" t="n"/>
-      <c r="BD22" s="82" t="n"/>
-      <c r="BE22" s="82" t="n"/>
-      <c r="BF22" s="82" t="n"/>
-      <c r="BG22" s="82" t="n"/>
-      <c r="BH22" s="82" t="n"/>
-      <c r="BI22" s="82" t="n"/>
-      <c r="BJ22" s="82" t="n"/>
-      <c r="BK22" s="82" t="n"/>
-      <c r="BL22" s="82" t="n"/>
-      <c r="BM22" s="82" t="n"/>
-      <c r="BN22" s="82" t="n"/>
-      <c r="BO22" s="82" t="n"/>
-      <c r="BP22" s="82" t="n"/>
-      <c r="BQ22" s="82" t="n"/>
-      <c r="BR22" s="82" t="n"/>
-      <c r="BS22" s="82" t="n"/>
-      <c r="BT22" s="82" t="n"/>
-      <c r="BU22" s="82" t="n"/>
-      <c r="BV22" s="82" t="n"/>
-      <c r="BW22" s="82" t="n"/>
-      <c r="BX22" s="82" t="n"/>
-      <c r="BY22" s="82" t="n"/>
-      <c r="BZ22" s="82" t="n"/>
-      <c r="CA22" s="82" t="n"/>
-      <c r="CB22" s="82" t="n"/>
-      <c r="CC22" s="82" t="n"/>
-      <c r="CD22" s="82" t="n"/>
-      <c r="CE22" s="82" t="n"/>
-      <c r="CF22" s="82" t="n"/>
-      <c r="CG22" s="82" t="n"/>
-      <c r="CH22" s="82" t="n"/>
-      <c r="CI22" s="82" t="n"/>
-      <c r="CJ22" s="82" t="n"/>
-      <c r="CK22" s="82" t="n"/>
-      <c r="CL22" s="82" t="n"/>
-      <c r="CM22" s="82" t="n"/>
-      <c r="CN22" s="82" t="n"/>
-      <c r="CO22" s="82" t="n"/>
-      <c r="CP22" s="82" t="n"/>
-      <c r="CQ22" s="82" t="n"/>
-      <c r="CR22" s="82" t="n"/>
-      <c r="CS22" s="82" t="n"/>
-      <c r="CT22" s="82" t="n"/>
-      <c r="CU22" s="82" t="n"/>
+      <c r="T22" s="88" t="n"/>
+      <c r="U22" s="86" t="n"/>
+      <c r="V22" s="86" t="n"/>
+      <c r="W22" s="88" t="n"/>
+      <c r="X22" s="86" t="n"/>
+      <c r="Y22" s="86" t="n"/>
+      <c r="Z22" s="88" t="n"/>
+      <c r="AA22" s="86" t="n"/>
+      <c r="AB22" s="86" t="n"/>
+      <c r="AC22" s="88" t="n"/>
+      <c r="AD22" s="86" t="n"/>
+      <c r="AE22" s="86" t="n"/>
+      <c r="AF22" s="88" t="n"/>
+      <c r="AG22" s="86" t="n"/>
+      <c r="AH22" s="86" t="n"/>
+      <c r="AI22" s="88" t="n"/>
+      <c r="AJ22" s="86" t="n"/>
+      <c r="AK22" s="86" t="n"/>
+      <c r="AL22" s="88" t="n"/>
+      <c r="AM22" s="86" t="n"/>
+      <c r="AN22" s="86" t="n"/>
+      <c r="AO22" s="88" t="n"/>
+      <c r="AP22" s="86" t="n"/>
+      <c r="AQ22" s="86" t="n"/>
+      <c r="AR22" s="88" t="n"/>
+      <c r="AS22" s="86" t="n"/>
+      <c r="AT22" s="86" t="n"/>
+      <c r="AU22" s="88" t="n"/>
+      <c r="AV22" s="86" t="n"/>
+      <c r="AW22" s="86" t="n"/>
+      <c r="AX22" s="88" t="n"/>
+      <c r="AY22" s="86" t="n"/>
+      <c r="AZ22" s="86" t="n"/>
+      <c r="BA22" s="88" t="n"/>
+      <c r="BB22" s="86" t="n"/>
+      <c r="BC22" s="86" t="n"/>
+      <c r="BD22" s="90" t="n"/>
+      <c r="BE22" s="90" t="n"/>
+      <c r="BF22" s="90" t="n"/>
+      <c r="BG22" s="90" t="n"/>
+      <c r="BH22" s="90" t="n"/>
+      <c r="BI22" s="90" t="n"/>
+      <c r="BJ22" s="90" t="n"/>
+      <c r="BK22" s="90" t="n"/>
+      <c r="BL22" s="90" t="n"/>
+      <c r="BM22" s="90" t="n"/>
+      <c r="BN22" s="90" t="n"/>
+      <c r="BO22" s="90" t="n"/>
+      <c r="BP22" s="90" t="n"/>
+      <c r="BQ22" s="90" t="n"/>
+      <c r="BR22" s="90" t="n"/>
+      <c r="BS22" s="90" t="n"/>
+      <c r="BT22" s="90" t="n"/>
+      <c r="BU22" s="90" t="n"/>
+      <c r="BV22" s="90" t="n"/>
+      <c r="BW22" s="90" t="n"/>
+      <c r="BX22" s="90" t="n"/>
+      <c r="BY22" s="90" t="n"/>
+      <c r="BZ22" s="90" t="n"/>
+      <c r="CA22" s="90" t="n"/>
+      <c r="CB22" s="90" t="n"/>
+      <c r="CC22" s="90" t="n"/>
+      <c r="CD22" s="90" t="n"/>
+      <c r="CE22" s="90" t="n"/>
+      <c r="CF22" s="90" t="n"/>
+      <c r="CG22" s="90" t="n"/>
+      <c r="CH22" s="90" t="n"/>
+      <c r="CI22" s="90" t="n"/>
+      <c r="CJ22" s="90" t="n"/>
+      <c r="CK22" s="90" t="n"/>
+      <c r="CL22" s="90" t="n"/>
+      <c r="CM22" s="90" t="n"/>
+      <c r="CN22" s="90" t="n"/>
+      <c r="CO22" s="90" t="n"/>
+      <c r="CP22" s="90" t="n"/>
+      <c r="CQ22" s="90" t="n"/>
+      <c r="CR22" s="90" t="n"/>
+      <c r="CS22" s="90" t="n"/>
+      <c r="CT22" s="90" t="n"/>
+      <c r="CU22" s="90" t="n"/>
     </row>
     <row r="23" ht="15.15" customHeight="1" s="9">
       <c r="A23" s="10" t="n">
@@ -4637,17 +4740,21 @@
       <c r="H23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I23" s="78" t="n">
-        <v>1.0225</v>
-      </c>
-      <c r="J23" s="80" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K23" s="78" t="inlineStr"/>
-      <c r="L23" s="78" t="n"/>
-      <c r="M23" s="78" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I23" s="86" t="n">
+        <v>1.0227</v>
+      </c>
+      <c r="J23" s="88" t="n">
+        <v>3.543586109142444</v>
+      </c>
+      <c r="K23" s="86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="86" t="n">
+        <v>1.0227</v>
+      </c>
+      <c r="M23" s="86" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N23" s="30">
@@ -4674,86 +4781,86 @@
           <t>20190912</t>
         </is>
       </c>
-      <c r="T23" s="80" t="n"/>
-      <c r="U23" s="78" t="n"/>
-      <c r="V23" s="78" t="n"/>
-      <c r="W23" s="80" t="n"/>
-      <c r="X23" s="78" t="n"/>
-      <c r="Y23" s="78" t="n"/>
-      <c r="Z23" s="80" t="n"/>
-      <c r="AA23" s="78" t="n"/>
-      <c r="AB23" s="78" t="n"/>
-      <c r="AC23" s="80" t="n"/>
-      <c r="AD23" s="78" t="n"/>
-      <c r="AE23" s="78" t="n"/>
-      <c r="AF23" s="80" t="n"/>
-      <c r="AG23" s="78" t="n"/>
-      <c r="AH23" s="78" t="n"/>
-      <c r="AI23" s="80" t="n"/>
-      <c r="AJ23" s="78" t="n"/>
-      <c r="AK23" s="78" t="n"/>
-      <c r="AL23" s="80" t="n"/>
-      <c r="AM23" s="78" t="n"/>
-      <c r="AN23" s="78" t="n"/>
-      <c r="AO23" s="80" t="n"/>
-      <c r="AP23" s="78" t="n"/>
-      <c r="AQ23" s="78" t="n"/>
-      <c r="AR23" s="80" t="n"/>
-      <c r="AS23" s="78" t="n"/>
-      <c r="AT23" s="78" t="n"/>
-      <c r="AU23" s="80" t="n"/>
-      <c r="AV23" s="78" t="n"/>
-      <c r="AW23" s="78" t="n"/>
-      <c r="AX23" s="80" t="n"/>
-      <c r="AY23" s="78" t="n"/>
-      <c r="AZ23" s="78" t="n"/>
-      <c r="BA23" s="80" t="n"/>
-      <c r="BB23" s="78" t="n"/>
-      <c r="BC23" s="78" t="n"/>
-      <c r="BD23" s="80" t="n"/>
-      <c r="BE23" s="78" t="n"/>
-      <c r="BF23" s="78" t="n"/>
-      <c r="BG23" s="80" t="n"/>
-      <c r="BH23" s="78" t="n"/>
-      <c r="BI23" s="78" t="n"/>
-      <c r="BJ23" s="82" t="n"/>
-      <c r="BK23" s="82" t="n"/>
-      <c r="BL23" s="82" t="n"/>
-      <c r="BM23" s="82" t="n"/>
-      <c r="BN23" s="82" t="n"/>
-      <c r="BO23" s="82" t="n"/>
-      <c r="BP23" s="82" t="n"/>
-      <c r="BQ23" s="82" t="n"/>
-      <c r="BR23" s="82" t="n"/>
-      <c r="BS23" s="82" t="n"/>
-      <c r="BT23" s="82" t="n"/>
-      <c r="BU23" s="82" t="n"/>
-      <c r="BV23" s="82" t="n"/>
-      <c r="BW23" s="82" t="n"/>
-      <c r="BX23" s="82" t="n"/>
-      <c r="BY23" s="82" t="n"/>
-      <c r="BZ23" s="82" t="n"/>
-      <c r="CA23" s="82" t="n"/>
-      <c r="CB23" s="82" t="n"/>
-      <c r="CC23" s="82" t="n"/>
-      <c r="CD23" s="82" t="n"/>
-      <c r="CE23" s="82" t="n"/>
-      <c r="CF23" s="82" t="n"/>
-      <c r="CG23" s="82" t="n"/>
-      <c r="CH23" s="82" t="n"/>
-      <c r="CI23" s="82" t="n"/>
-      <c r="CJ23" s="82" t="n"/>
-      <c r="CK23" s="82" t="n"/>
-      <c r="CL23" s="82" t="n"/>
-      <c r="CM23" s="82" t="n"/>
-      <c r="CN23" s="82" t="n"/>
-      <c r="CO23" s="82" t="n"/>
-      <c r="CP23" s="82" t="n"/>
-      <c r="CQ23" s="82" t="n"/>
-      <c r="CR23" s="82" t="n"/>
-      <c r="CS23" s="82" t="n"/>
-      <c r="CT23" s="82" t="n"/>
-      <c r="CU23" s="82" t="n"/>
+      <c r="T23" s="88" t="n"/>
+      <c r="U23" s="86" t="n"/>
+      <c r="V23" s="86" t="n"/>
+      <c r="W23" s="88" t="n"/>
+      <c r="X23" s="86" t="n"/>
+      <c r="Y23" s="86" t="n"/>
+      <c r="Z23" s="88" t="n"/>
+      <c r="AA23" s="86" t="n"/>
+      <c r="AB23" s="86" t="n"/>
+      <c r="AC23" s="88" t="n"/>
+      <c r="AD23" s="86" t="n"/>
+      <c r="AE23" s="86" t="n"/>
+      <c r="AF23" s="88" t="n"/>
+      <c r="AG23" s="86" t="n"/>
+      <c r="AH23" s="86" t="n"/>
+      <c r="AI23" s="88" t="n"/>
+      <c r="AJ23" s="86" t="n"/>
+      <c r="AK23" s="86" t="n"/>
+      <c r="AL23" s="88" t="n"/>
+      <c r="AM23" s="86" t="n"/>
+      <c r="AN23" s="86" t="n"/>
+      <c r="AO23" s="88" t="n"/>
+      <c r="AP23" s="86" t="n"/>
+      <c r="AQ23" s="86" t="n"/>
+      <c r="AR23" s="88" t="n"/>
+      <c r="AS23" s="86" t="n"/>
+      <c r="AT23" s="86" t="n"/>
+      <c r="AU23" s="88" t="n"/>
+      <c r="AV23" s="86" t="n"/>
+      <c r="AW23" s="86" t="n"/>
+      <c r="AX23" s="88" t="n"/>
+      <c r="AY23" s="86" t="n"/>
+      <c r="AZ23" s="86" t="n"/>
+      <c r="BA23" s="88" t="n"/>
+      <c r="BB23" s="86" t="n"/>
+      <c r="BC23" s="86" t="n"/>
+      <c r="BD23" s="88" t="n"/>
+      <c r="BE23" s="86" t="n"/>
+      <c r="BF23" s="86" t="n"/>
+      <c r="BG23" s="88" t="n"/>
+      <c r="BH23" s="86" t="n"/>
+      <c r="BI23" s="86" t="n"/>
+      <c r="BJ23" s="90" t="n"/>
+      <c r="BK23" s="90" t="n"/>
+      <c r="BL23" s="90" t="n"/>
+      <c r="BM23" s="90" t="n"/>
+      <c r="BN23" s="90" t="n"/>
+      <c r="BO23" s="90" t="n"/>
+      <c r="BP23" s="90" t="n"/>
+      <c r="BQ23" s="90" t="n"/>
+      <c r="BR23" s="90" t="n"/>
+      <c r="BS23" s="90" t="n"/>
+      <c r="BT23" s="90" t="n"/>
+      <c r="BU23" s="90" t="n"/>
+      <c r="BV23" s="90" t="n"/>
+      <c r="BW23" s="90" t="n"/>
+      <c r="BX23" s="90" t="n"/>
+      <c r="BY23" s="90" t="n"/>
+      <c r="BZ23" s="90" t="n"/>
+      <c r="CA23" s="90" t="n"/>
+      <c r="CB23" s="90" t="n"/>
+      <c r="CC23" s="90" t="n"/>
+      <c r="CD23" s="90" t="n"/>
+      <c r="CE23" s="90" t="n"/>
+      <c r="CF23" s="90" t="n"/>
+      <c r="CG23" s="90" t="n"/>
+      <c r="CH23" s="90" t="n"/>
+      <c r="CI23" s="90" t="n"/>
+      <c r="CJ23" s="90" t="n"/>
+      <c r="CK23" s="90" t="n"/>
+      <c r="CL23" s="90" t="n"/>
+      <c r="CM23" s="90" t="n"/>
+      <c r="CN23" s="90" t="n"/>
+      <c r="CO23" s="90" t="n"/>
+      <c r="CP23" s="90" t="n"/>
+      <c r="CQ23" s="90" t="n"/>
+      <c r="CR23" s="90" t="n"/>
+      <c r="CS23" s="90" t="n"/>
+      <c r="CT23" s="90" t="n"/>
+      <c r="CU23" s="90" t="n"/>
     </row>
     <row r="24" ht="15.15" customHeight="1" s="9">
       <c r="A24" s="0" t="inlineStr">
@@ -4767,17 +4874,21 @@
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr"/>
-      <c r="I24" s="82" t="n">
-        <v>1.6053</v>
-      </c>
-      <c r="J24" s="80" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K24" s="82" t="inlineStr"/>
-      <c r="L24" s="82" t="n"/>
-      <c r="M24" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I24" s="90" t="n">
+        <v>1.626</v>
+      </c>
+      <c r="J24" s="88" t="n">
+        <v>2.846299810246675</v>
+      </c>
+      <c r="K24" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="90" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="M24" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N24" s="0">
@@ -4790,86 +4901,86 @@
         <v/>
       </c>
       <c r="S24" s="0" t="inlineStr"/>
-      <c r="T24" s="82" t="n"/>
-      <c r="U24" s="82" t="n"/>
-      <c r="V24" s="82" t="n"/>
-      <c r="W24" s="82" t="n"/>
-      <c r="X24" s="82" t="n"/>
-      <c r="Y24" s="82" t="n"/>
-      <c r="Z24" s="82" t="n"/>
-      <c r="AA24" s="82" t="n"/>
-      <c r="AB24" s="82" t="n"/>
-      <c r="AC24" s="82" t="n"/>
-      <c r="AD24" s="82" t="n"/>
-      <c r="AE24" s="82" t="n"/>
-      <c r="AF24" s="82" t="n"/>
-      <c r="AG24" s="82" t="n"/>
-      <c r="AH24" s="82" t="n"/>
-      <c r="AI24" s="82" t="n"/>
-      <c r="AJ24" s="82" t="n"/>
-      <c r="AK24" s="82" t="n"/>
-      <c r="AL24" s="82" t="n"/>
-      <c r="AM24" s="82" t="n"/>
-      <c r="AN24" s="82" t="n"/>
-      <c r="AO24" s="82" t="n"/>
-      <c r="AP24" s="82" t="n"/>
-      <c r="AQ24" s="82" t="n"/>
-      <c r="AR24" s="82" t="n"/>
-      <c r="AS24" s="82" t="n"/>
-      <c r="AT24" s="82" t="n"/>
-      <c r="AU24" s="82" t="n"/>
-      <c r="AV24" s="82" t="n"/>
-      <c r="AW24" s="82" t="n"/>
-      <c r="AX24" s="82" t="n"/>
-      <c r="AY24" s="82" t="n"/>
-      <c r="AZ24" s="82" t="n"/>
-      <c r="BA24" s="82" t="n"/>
-      <c r="BB24" s="82" t="n"/>
-      <c r="BC24" s="82" t="n"/>
-      <c r="BD24" s="82" t="n"/>
-      <c r="BE24" s="82" t="n"/>
-      <c r="BF24" s="82" t="n"/>
-      <c r="BG24" s="82" t="n"/>
-      <c r="BH24" s="82" t="n"/>
-      <c r="BI24" s="82" t="n"/>
-      <c r="BJ24" s="82" t="n"/>
-      <c r="BK24" s="82" t="n"/>
-      <c r="BL24" s="82" t="n"/>
-      <c r="BM24" s="82" t="n"/>
-      <c r="BN24" s="82" t="n"/>
-      <c r="BO24" s="82" t="n"/>
-      <c r="BP24" s="82" t="n"/>
-      <c r="BQ24" s="82" t="n"/>
-      <c r="BR24" s="82" t="n"/>
-      <c r="BS24" s="82" t="n"/>
-      <c r="BT24" s="82" t="n"/>
-      <c r="BU24" s="82" t="n"/>
-      <c r="BV24" s="82" t="n"/>
-      <c r="BW24" s="82" t="n"/>
-      <c r="BX24" s="82" t="n"/>
-      <c r="BY24" s="82" t="n"/>
-      <c r="BZ24" s="82" t="n"/>
-      <c r="CA24" s="82" t="n"/>
-      <c r="CB24" s="82" t="n"/>
-      <c r="CC24" s="82" t="n"/>
-      <c r="CD24" s="82" t="n"/>
-      <c r="CE24" s="82" t="n"/>
-      <c r="CF24" s="82" t="n"/>
-      <c r="CG24" s="82" t="n"/>
-      <c r="CH24" s="82" t="n"/>
-      <c r="CI24" s="82" t="n"/>
-      <c r="CJ24" s="82" t="n"/>
-      <c r="CK24" s="82" t="n"/>
-      <c r="CL24" s="82" t="n"/>
-      <c r="CM24" s="82" t="n"/>
-      <c r="CN24" s="82" t="n"/>
-      <c r="CO24" s="82" t="n"/>
-      <c r="CP24" s="82" t="n"/>
-      <c r="CQ24" s="82" t="n"/>
-      <c r="CR24" s="82" t="n"/>
-      <c r="CS24" s="82" t="n"/>
-      <c r="CT24" s="82" t="n"/>
-      <c r="CU24" s="82" t="n"/>
+      <c r="T24" s="90" t="n"/>
+      <c r="U24" s="90" t="n"/>
+      <c r="V24" s="90" t="n"/>
+      <c r="W24" s="90" t="n"/>
+      <c r="X24" s="90" t="n"/>
+      <c r="Y24" s="90" t="n"/>
+      <c r="Z24" s="90" t="n"/>
+      <c r="AA24" s="90" t="n"/>
+      <c r="AB24" s="90" t="n"/>
+      <c r="AC24" s="90" t="n"/>
+      <c r="AD24" s="90" t="n"/>
+      <c r="AE24" s="90" t="n"/>
+      <c r="AF24" s="90" t="n"/>
+      <c r="AG24" s="90" t="n"/>
+      <c r="AH24" s="90" t="n"/>
+      <c r="AI24" s="90" t="n"/>
+      <c r="AJ24" s="90" t="n"/>
+      <c r="AK24" s="90" t="n"/>
+      <c r="AL24" s="90" t="n"/>
+      <c r="AM24" s="90" t="n"/>
+      <c r="AN24" s="90" t="n"/>
+      <c r="AO24" s="90" t="n"/>
+      <c r="AP24" s="90" t="n"/>
+      <c r="AQ24" s="90" t="n"/>
+      <c r="AR24" s="90" t="n"/>
+      <c r="AS24" s="90" t="n"/>
+      <c r="AT24" s="90" t="n"/>
+      <c r="AU24" s="90" t="n"/>
+      <c r="AV24" s="90" t="n"/>
+      <c r="AW24" s="90" t="n"/>
+      <c r="AX24" s="90" t="n"/>
+      <c r="AY24" s="90" t="n"/>
+      <c r="AZ24" s="90" t="n"/>
+      <c r="BA24" s="90" t="n"/>
+      <c r="BB24" s="90" t="n"/>
+      <c r="BC24" s="90" t="n"/>
+      <c r="BD24" s="90" t="n"/>
+      <c r="BE24" s="90" t="n"/>
+      <c r="BF24" s="90" t="n"/>
+      <c r="BG24" s="90" t="n"/>
+      <c r="BH24" s="90" t="n"/>
+      <c r="BI24" s="90" t="n"/>
+      <c r="BJ24" s="90" t="n"/>
+      <c r="BK24" s="90" t="n"/>
+      <c r="BL24" s="90" t="n"/>
+      <c r="BM24" s="90" t="n"/>
+      <c r="BN24" s="90" t="n"/>
+      <c r="BO24" s="90" t="n"/>
+      <c r="BP24" s="90" t="n"/>
+      <c r="BQ24" s="90" t="n"/>
+      <c r="BR24" s="90" t="n"/>
+      <c r="BS24" s="90" t="n"/>
+      <c r="BT24" s="90" t="n"/>
+      <c r="BU24" s="90" t="n"/>
+      <c r="BV24" s="90" t="n"/>
+      <c r="BW24" s="90" t="n"/>
+      <c r="BX24" s="90" t="n"/>
+      <c r="BY24" s="90" t="n"/>
+      <c r="BZ24" s="90" t="n"/>
+      <c r="CA24" s="90" t="n"/>
+      <c r="CB24" s="90" t="n"/>
+      <c r="CC24" s="90" t="n"/>
+      <c r="CD24" s="90" t="n"/>
+      <c r="CE24" s="90" t="n"/>
+      <c r="CF24" s="90" t="n"/>
+      <c r="CG24" s="90" t="n"/>
+      <c r="CH24" s="90" t="n"/>
+      <c r="CI24" s="90" t="n"/>
+      <c r="CJ24" s="90" t="n"/>
+      <c r="CK24" s="90" t="n"/>
+      <c r="CL24" s="90" t="n"/>
+      <c r="CM24" s="90" t="n"/>
+      <c r="CN24" s="90" t="n"/>
+      <c r="CO24" s="90" t="n"/>
+      <c r="CP24" s="90" t="n"/>
+      <c r="CQ24" s="90" t="n"/>
+      <c r="CR24" s="90" t="n"/>
+      <c r="CS24" s="90" t="n"/>
+      <c r="CT24" s="90" t="n"/>
+      <c r="CU24" s="90" t="n"/>
     </row>
     <row r="25" ht="15.15" customHeight="1" s="9">
       <c r="A25" s="0" t="inlineStr">
@@ -4883,17 +4994,21 @@
         </is>
       </c>
       <c r="H25" s="0" t="inlineStr"/>
-      <c r="I25" s="82" t="n">
-        <v>1.8532</v>
-      </c>
-      <c r="J25" s="80" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="K25" s="82" t="inlineStr"/>
-      <c r="L25" s="82" t="n"/>
-      <c r="M25" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I25" s="90" t="n">
+        <v>1.8497</v>
+      </c>
+      <c r="J25" s="88" t="n">
+        <v>1.026817412201646</v>
+      </c>
+      <c r="K25" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" s="90" t="n">
+        <v>1.8947</v>
+      </c>
+      <c r="M25" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N25" s="0">
@@ -4906,86 +5021,86 @@
         <v/>
       </c>
       <c r="S25" s="0" t="inlineStr"/>
-      <c r="T25" s="82" t="n"/>
-      <c r="U25" s="82" t="n"/>
-      <c r="V25" s="82" t="n"/>
-      <c r="W25" s="82" t="n"/>
-      <c r="X25" s="82" t="n"/>
-      <c r="Y25" s="82" t="n"/>
-      <c r="Z25" s="82" t="n"/>
-      <c r="AA25" s="82" t="n"/>
-      <c r="AB25" s="82" t="n"/>
-      <c r="AC25" s="82" t="n"/>
-      <c r="AD25" s="82" t="n"/>
-      <c r="AE25" s="82" t="n"/>
-      <c r="AF25" s="82" t="n"/>
-      <c r="AG25" s="82" t="n"/>
-      <c r="AH25" s="82" t="n"/>
-      <c r="AI25" s="82" t="n"/>
-      <c r="AJ25" s="82" t="n"/>
-      <c r="AK25" s="82" t="n"/>
-      <c r="AL25" s="82" t="n"/>
-      <c r="AM25" s="82" t="n"/>
-      <c r="AN25" s="82" t="n"/>
-      <c r="AO25" s="82" t="n"/>
-      <c r="AP25" s="82" t="n"/>
-      <c r="AQ25" s="82" t="n"/>
-      <c r="AR25" s="82" t="n"/>
-      <c r="AS25" s="82" t="n"/>
-      <c r="AT25" s="82" t="n"/>
-      <c r="AU25" s="82" t="n"/>
-      <c r="AV25" s="82" t="n"/>
-      <c r="AW25" s="82" t="n"/>
-      <c r="AX25" s="82" t="n"/>
-      <c r="AY25" s="82" t="n"/>
-      <c r="AZ25" s="82" t="n"/>
-      <c r="BA25" s="82" t="n"/>
-      <c r="BB25" s="82" t="n"/>
-      <c r="BC25" s="82" t="n"/>
-      <c r="BD25" s="82" t="n"/>
-      <c r="BE25" s="82" t="n"/>
-      <c r="BF25" s="82" t="n"/>
-      <c r="BG25" s="82" t="n"/>
-      <c r="BH25" s="82" t="n"/>
-      <c r="BI25" s="82" t="n"/>
-      <c r="BJ25" s="82" t="n"/>
-      <c r="BK25" s="82" t="n"/>
-      <c r="BL25" s="82" t="n"/>
-      <c r="BM25" s="82" t="n"/>
-      <c r="BN25" s="82" t="n"/>
-      <c r="BO25" s="82" t="n"/>
-      <c r="BP25" s="82" t="n"/>
-      <c r="BQ25" s="82" t="n"/>
-      <c r="BR25" s="82" t="n"/>
-      <c r="BS25" s="82" t="n"/>
-      <c r="BT25" s="82" t="n"/>
-      <c r="BU25" s="82" t="n"/>
-      <c r="BV25" s="82" t="n"/>
-      <c r="BW25" s="82" t="n"/>
-      <c r="BX25" s="82" t="n"/>
-      <c r="BY25" s="82" t="n"/>
-      <c r="BZ25" s="82" t="n"/>
-      <c r="CA25" s="82" t="n"/>
-      <c r="CB25" s="82" t="n"/>
-      <c r="CC25" s="82" t="n"/>
-      <c r="CD25" s="82" t="n"/>
-      <c r="CE25" s="82" t="n"/>
-      <c r="CF25" s="82" t="n"/>
-      <c r="CG25" s="82" t="n"/>
-      <c r="CH25" s="82" t="n"/>
-      <c r="CI25" s="82" t="n"/>
-      <c r="CJ25" s="82" t="n"/>
-      <c r="CK25" s="82" t="n"/>
-      <c r="CL25" s="82" t="n"/>
-      <c r="CM25" s="82" t="n"/>
-      <c r="CN25" s="82" t="n"/>
-      <c r="CO25" s="82" t="n"/>
-      <c r="CP25" s="82" t="n"/>
-      <c r="CQ25" s="82" t="n"/>
-      <c r="CR25" s="82" t="n"/>
-      <c r="CS25" s="82" t="n"/>
-      <c r="CT25" s="82" t="n"/>
-      <c r="CU25" s="82" t="n"/>
+      <c r="T25" s="90" t="n"/>
+      <c r="U25" s="90" t="n"/>
+      <c r="V25" s="90" t="n"/>
+      <c r="W25" s="90" t="n"/>
+      <c r="X25" s="90" t="n"/>
+      <c r="Y25" s="90" t="n"/>
+      <c r="Z25" s="90" t="n"/>
+      <c r="AA25" s="90" t="n"/>
+      <c r="AB25" s="90" t="n"/>
+      <c r="AC25" s="90" t="n"/>
+      <c r="AD25" s="90" t="n"/>
+      <c r="AE25" s="90" t="n"/>
+      <c r="AF25" s="90" t="n"/>
+      <c r="AG25" s="90" t="n"/>
+      <c r="AH25" s="90" t="n"/>
+      <c r="AI25" s="90" t="n"/>
+      <c r="AJ25" s="90" t="n"/>
+      <c r="AK25" s="90" t="n"/>
+      <c r="AL25" s="90" t="n"/>
+      <c r="AM25" s="90" t="n"/>
+      <c r="AN25" s="90" t="n"/>
+      <c r="AO25" s="90" t="n"/>
+      <c r="AP25" s="90" t="n"/>
+      <c r="AQ25" s="90" t="n"/>
+      <c r="AR25" s="90" t="n"/>
+      <c r="AS25" s="90" t="n"/>
+      <c r="AT25" s="90" t="n"/>
+      <c r="AU25" s="90" t="n"/>
+      <c r="AV25" s="90" t="n"/>
+      <c r="AW25" s="90" t="n"/>
+      <c r="AX25" s="90" t="n"/>
+      <c r="AY25" s="90" t="n"/>
+      <c r="AZ25" s="90" t="n"/>
+      <c r="BA25" s="90" t="n"/>
+      <c r="BB25" s="90" t="n"/>
+      <c r="BC25" s="90" t="n"/>
+      <c r="BD25" s="90" t="n"/>
+      <c r="BE25" s="90" t="n"/>
+      <c r="BF25" s="90" t="n"/>
+      <c r="BG25" s="90" t="n"/>
+      <c r="BH25" s="90" t="n"/>
+      <c r="BI25" s="90" t="n"/>
+      <c r="BJ25" s="90" t="n"/>
+      <c r="BK25" s="90" t="n"/>
+      <c r="BL25" s="90" t="n"/>
+      <c r="BM25" s="90" t="n"/>
+      <c r="BN25" s="90" t="n"/>
+      <c r="BO25" s="90" t="n"/>
+      <c r="BP25" s="90" t="n"/>
+      <c r="BQ25" s="90" t="n"/>
+      <c r="BR25" s="90" t="n"/>
+      <c r="BS25" s="90" t="n"/>
+      <c r="BT25" s="90" t="n"/>
+      <c r="BU25" s="90" t="n"/>
+      <c r="BV25" s="90" t="n"/>
+      <c r="BW25" s="90" t="n"/>
+      <c r="BX25" s="90" t="n"/>
+      <c r="BY25" s="90" t="n"/>
+      <c r="BZ25" s="90" t="n"/>
+      <c r="CA25" s="90" t="n"/>
+      <c r="CB25" s="90" t="n"/>
+      <c r="CC25" s="90" t="n"/>
+      <c r="CD25" s="90" t="n"/>
+      <c r="CE25" s="90" t="n"/>
+      <c r="CF25" s="90" t="n"/>
+      <c r="CG25" s="90" t="n"/>
+      <c r="CH25" s="90" t="n"/>
+      <c r="CI25" s="90" t="n"/>
+      <c r="CJ25" s="90" t="n"/>
+      <c r="CK25" s="90" t="n"/>
+      <c r="CL25" s="90" t="n"/>
+      <c r="CM25" s="90" t="n"/>
+      <c r="CN25" s="90" t="n"/>
+      <c r="CO25" s="90" t="n"/>
+      <c r="CP25" s="90" t="n"/>
+      <c r="CQ25" s="90" t="n"/>
+      <c r="CR25" s="90" t="n"/>
+      <c r="CS25" s="90" t="n"/>
+      <c r="CT25" s="90" t="n"/>
+      <c r="CU25" s="90" t="n"/>
     </row>
     <row r="26" ht="15.15" customHeight="1" s="9">
       <c r="A26" s="0" t="inlineStr">
@@ -4999,17 +5114,21 @@
         </is>
       </c>
       <c r="H26" s="0" t="inlineStr"/>
-      <c r="I26" s="82" t="n">
-        <v>2.2526</v>
-      </c>
-      <c r="J26" s="80" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K26" s="82" t="inlineStr"/>
-      <c r="L26" s="82" t="n"/>
-      <c r="M26" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="I26" s="90" t="n">
+        <v>2.262</v>
+      </c>
+      <c r="J26" s="88" t="n">
+        <v>1.434977578475338</v>
+      </c>
+      <c r="K26" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" s="90" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="M26" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N26" s="0">
@@ -5022,86 +5141,86 @@
         <v/>
       </c>
       <c r="S26" s="0" t="inlineStr"/>
-      <c r="T26" s="82" t="n"/>
-      <c r="U26" s="82" t="n"/>
-      <c r="V26" s="82" t="n"/>
-      <c r="W26" s="82" t="n"/>
-      <c r="X26" s="82" t="n"/>
-      <c r="Y26" s="82" t="n"/>
-      <c r="Z26" s="82" t="n"/>
-      <c r="AA26" s="82" t="n"/>
-      <c r="AB26" s="82" t="n"/>
-      <c r="AC26" s="82" t="n"/>
-      <c r="AD26" s="82" t="n"/>
-      <c r="AE26" s="82" t="n"/>
-      <c r="AF26" s="82" t="n"/>
-      <c r="AG26" s="82" t="n"/>
-      <c r="AH26" s="82" t="n"/>
-      <c r="AI26" s="82" t="n"/>
-      <c r="AJ26" s="82" t="n"/>
-      <c r="AK26" s="82" t="n"/>
-      <c r="AL26" s="82" t="n"/>
-      <c r="AM26" s="82" t="n"/>
-      <c r="AN26" s="82" t="n"/>
-      <c r="AO26" s="82" t="n"/>
-      <c r="AP26" s="82" t="n"/>
-      <c r="AQ26" s="82" t="n"/>
-      <c r="AR26" s="82" t="n"/>
-      <c r="AS26" s="82" t="n"/>
-      <c r="AT26" s="82" t="n"/>
-      <c r="AU26" s="82" t="n"/>
-      <c r="AV26" s="82" t="n"/>
-      <c r="AW26" s="82" t="n"/>
-      <c r="AX26" s="82" t="n"/>
-      <c r="AY26" s="82" t="n"/>
-      <c r="AZ26" s="82" t="n"/>
-      <c r="BA26" s="82" t="n"/>
-      <c r="BB26" s="82" t="n"/>
-      <c r="BC26" s="82" t="n"/>
-      <c r="BD26" s="82" t="n"/>
-      <c r="BE26" s="82" t="n"/>
-      <c r="BF26" s="82" t="n"/>
-      <c r="BG26" s="82" t="n"/>
-      <c r="BH26" s="82" t="n"/>
-      <c r="BI26" s="82" t="n"/>
-      <c r="BJ26" s="82" t="n"/>
-      <c r="BK26" s="82" t="n"/>
-      <c r="BL26" s="82" t="n"/>
-      <c r="BM26" s="82" t="n"/>
-      <c r="BN26" s="82" t="n"/>
-      <c r="BO26" s="82" t="n"/>
-      <c r="BP26" s="82" t="n"/>
-      <c r="BQ26" s="82" t="n"/>
-      <c r="BR26" s="82" t="n"/>
-      <c r="BS26" s="82" t="n"/>
-      <c r="BT26" s="82" t="n"/>
-      <c r="BU26" s="82" t="n"/>
-      <c r="BV26" s="82" t="n"/>
-      <c r="BW26" s="82" t="n"/>
-      <c r="BX26" s="82" t="n"/>
-      <c r="BY26" s="82" t="n"/>
-      <c r="BZ26" s="82" t="n"/>
-      <c r="CA26" s="82" t="n"/>
-      <c r="CB26" s="82" t="n"/>
-      <c r="CC26" s="82" t="n"/>
-      <c r="CD26" s="82" t="n"/>
-      <c r="CE26" s="82" t="n"/>
-      <c r="CF26" s="82" t="n"/>
-      <c r="CG26" s="82" t="n"/>
-      <c r="CH26" s="82" t="n"/>
-      <c r="CI26" s="82" t="n"/>
-      <c r="CJ26" s="82" t="n"/>
-      <c r="CK26" s="82" t="n"/>
-      <c r="CL26" s="82" t="n"/>
-      <c r="CM26" s="82" t="n"/>
-      <c r="CN26" s="82" t="n"/>
-      <c r="CO26" s="82" t="n"/>
-      <c r="CP26" s="82" t="n"/>
-      <c r="CQ26" s="82" t="n"/>
-      <c r="CR26" s="82" t="n"/>
-      <c r="CS26" s="82" t="n"/>
-      <c r="CT26" s="82" t="n"/>
-      <c r="CU26" s="82" t="n"/>
+      <c r="T26" s="90" t="n"/>
+      <c r="U26" s="90" t="n"/>
+      <c r="V26" s="90" t="n"/>
+      <c r="W26" s="90" t="n"/>
+      <c r="X26" s="90" t="n"/>
+      <c r="Y26" s="90" t="n"/>
+      <c r="Z26" s="90" t="n"/>
+      <c r="AA26" s="90" t="n"/>
+      <c r="AB26" s="90" t="n"/>
+      <c r="AC26" s="90" t="n"/>
+      <c r="AD26" s="90" t="n"/>
+      <c r="AE26" s="90" t="n"/>
+      <c r="AF26" s="90" t="n"/>
+      <c r="AG26" s="90" t="n"/>
+      <c r="AH26" s="90" t="n"/>
+      <c r="AI26" s="90" t="n"/>
+      <c r="AJ26" s="90" t="n"/>
+      <c r="AK26" s="90" t="n"/>
+      <c r="AL26" s="90" t="n"/>
+      <c r="AM26" s="90" t="n"/>
+      <c r="AN26" s="90" t="n"/>
+      <c r="AO26" s="90" t="n"/>
+      <c r="AP26" s="90" t="n"/>
+      <c r="AQ26" s="90" t="n"/>
+      <c r="AR26" s="90" t="n"/>
+      <c r="AS26" s="90" t="n"/>
+      <c r="AT26" s="90" t="n"/>
+      <c r="AU26" s="90" t="n"/>
+      <c r="AV26" s="90" t="n"/>
+      <c r="AW26" s="90" t="n"/>
+      <c r="AX26" s="90" t="n"/>
+      <c r="AY26" s="90" t="n"/>
+      <c r="AZ26" s="90" t="n"/>
+      <c r="BA26" s="90" t="n"/>
+      <c r="BB26" s="90" t="n"/>
+      <c r="BC26" s="90" t="n"/>
+      <c r="BD26" s="90" t="n"/>
+      <c r="BE26" s="90" t="n"/>
+      <c r="BF26" s="90" t="n"/>
+      <c r="BG26" s="90" t="n"/>
+      <c r="BH26" s="90" t="n"/>
+      <c r="BI26" s="90" t="n"/>
+      <c r="BJ26" s="90" t="n"/>
+      <c r="BK26" s="90" t="n"/>
+      <c r="BL26" s="90" t="n"/>
+      <c r="BM26" s="90" t="n"/>
+      <c r="BN26" s="90" t="n"/>
+      <c r="BO26" s="90" t="n"/>
+      <c r="BP26" s="90" t="n"/>
+      <c r="BQ26" s="90" t="n"/>
+      <c r="BR26" s="90" t="n"/>
+      <c r="BS26" s="90" t="n"/>
+      <c r="BT26" s="90" t="n"/>
+      <c r="BU26" s="90" t="n"/>
+      <c r="BV26" s="90" t="n"/>
+      <c r="BW26" s="90" t="n"/>
+      <c r="BX26" s="90" t="n"/>
+      <c r="BY26" s="90" t="n"/>
+      <c r="BZ26" s="90" t="n"/>
+      <c r="CA26" s="90" t="n"/>
+      <c r="CB26" s="90" t="n"/>
+      <c r="CC26" s="90" t="n"/>
+      <c r="CD26" s="90" t="n"/>
+      <c r="CE26" s="90" t="n"/>
+      <c r="CF26" s="90" t="n"/>
+      <c r="CG26" s="90" t="n"/>
+      <c r="CH26" s="90" t="n"/>
+      <c r="CI26" s="90" t="n"/>
+      <c r="CJ26" s="90" t="n"/>
+      <c r="CK26" s="90" t="n"/>
+      <c r="CL26" s="90" t="n"/>
+      <c r="CM26" s="90" t="n"/>
+      <c r="CN26" s="90" t="n"/>
+      <c r="CO26" s="90" t="n"/>
+      <c r="CP26" s="90" t="n"/>
+      <c r="CQ26" s="90" t="n"/>
+      <c r="CR26" s="90" t="n"/>
+      <c r="CS26" s="90" t="n"/>
+      <c r="CT26" s="90" t="n"/>
+      <c r="CU26" s="90" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -5109,115 +5228,119 @@
           <t>005461</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>南方希元转债</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" s="82" t="n">
-        <v>1.1675</v>
-      </c>
-      <c r="J27" s="80" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K27" s="82" t="inlineStr"/>
-      <c r="L27" s="82" t="n"/>
-      <c r="M27" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="H27" s="0" t="inlineStr"/>
+      <c r="I27" s="90" t="n">
+        <v>1.1643</v>
+      </c>
+      <c r="J27" s="88" t="n">
+        <v>1.137943015983312</v>
+      </c>
+      <c r="K27" s="90" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="90" t="n">
+        <v>1.1643</v>
+      </c>
+      <c r="M27" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N27" s="0">
         <f>(O27-I27)/I27*100</f>
         <v/>
       </c>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" s="0" t="inlineStr"/>
       <c r="Q27" s="0">
         <f>(R27-I27)/I27*100</f>
         <v/>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" s="82" t="n"/>
-      <c r="U27" s="82" t="n"/>
-      <c r="V27" s="82" t="n"/>
-      <c r="W27" s="82" t="n"/>
-      <c r="X27" s="82" t="n"/>
-      <c r="Y27" s="82" t="n"/>
-      <c r="Z27" s="82" t="n"/>
-      <c r="AA27" s="82" t="n"/>
-      <c r="AB27" s="82" t="n"/>
-      <c r="AC27" s="82" t="n"/>
-      <c r="AD27" s="82" t="n"/>
-      <c r="AE27" s="82" t="n"/>
-      <c r="AF27" s="82" t="n"/>
-      <c r="AG27" s="82" t="n"/>
-      <c r="AH27" s="82" t="n"/>
-      <c r="AI27" s="82" t="n"/>
-      <c r="AJ27" s="82" t="n"/>
-      <c r="AK27" s="82" t="n"/>
-      <c r="AL27" s="82" t="n"/>
-      <c r="AM27" s="82" t="n"/>
-      <c r="AN27" s="82" t="n"/>
-      <c r="AO27" s="82" t="n"/>
-      <c r="AP27" s="82" t="n"/>
-      <c r="AQ27" s="82" t="n"/>
-      <c r="AR27" s="82" t="n"/>
-      <c r="AS27" s="82" t="n"/>
-      <c r="AT27" s="82" t="n"/>
-      <c r="AU27" s="82" t="n"/>
-      <c r="AV27" s="82" t="n"/>
-      <c r="AW27" s="82" t="n"/>
-      <c r="AX27" s="82" t="n"/>
-      <c r="AY27" s="82" t="n"/>
-      <c r="AZ27" s="82" t="n"/>
-      <c r="BA27" s="82" t="n"/>
-      <c r="BB27" s="82" t="n"/>
-      <c r="BC27" s="82" t="n"/>
-      <c r="BD27" s="82" t="n"/>
-      <c r="BE27" s="82" t="n"/>
-      <c r="BF27" s="82" t="n"/>
-      <c r="BG27" s="82" t="n"/>
-      <c r="BH27" s="82" t="n"/>
-      <c r="BI27" s="82" t="n"/>
-      <c r="BJ27" s="82" t="n"/>
-      <c r="BK27" s="82" t="n"/>
-      <c r="BL27" s="82" t="n"/>
-      <c r="BM27" s="82" t="n"/>
-      <c r="BN27" s="82" t="n"/>
-      <c r="BO27" s="82" t="n"/>
-      <c r="BP27" s="82" t="n"/>
-      <c r="BQ27" s="82" t="n"/>
-      <c r="BR27" s="82" t="n"/>
-      <c r="BS27" s="82" t="n"/>
-      <c r="BT27" s="82" t="n"/>
-      <c r="BU27" s="82" t="n"/>
-      <c r="BV27" s="82" t="n"/>
-      <c r="BW27" s="82" t="n"/>
-      <c r="BX27" s="82" t="n"/>
-      <c r="BY27" s="82" t="n"/>
-      <c r="BZ27" s="82" t="n"/>
-      <c r="CA27" s="82" t="n"/>
-      <c r="CB27" s="82" t="n"/>
-      <c r="CC27" s="82" t="n"/>
-      <c r="CD27" s="82" t="n"/>
-      <c r="CE27" s="82" t="n"/>
-      <c r="CF27" s="82" t="n"/>
-      <c r="CG27" s="82" t="n"/>
-      <c r="CH27" s="82" t="n"/>
-      <c r="CI27" s="82" t="n"/>
-      <c r="CJ27" s="82" t="n"/>
-      <c r="CK27" s="82" t="n"/>
-      <c r="CL27" s="82" t="n"/>
-      <c r="CM27" s="82" t="n"/>
-      <c r="CN27" s="82" t="n"/>
-      <c r="CO27" s="82" t="n"/>
-      <c r="CP27" s="82" t="n"/>
-      <c r="CQ27" s="82" t="n"/>
-      <c r="CR27" s="82" t="n"/>
-      <c r="CS27" s="82" t="n"/>
-      <c r="CT27" s="82" t="n"/>
-      <c r="CU27" s="82" t="n"/>
+      <c r="S27" s="0" t="inlineStr"/>
+      <c r="T27" s="90" t="n"/>
+      <c r="U27" s="90" t="n"/>
+      <c r="V27" s="90" t="n"/>
+      <c r="W27" s="90" t="n"/>
+      <c r="X27" s="90" t="n"/>
+      <c r="Y27" s="90" t="n"/>
+      <c r="Z27" s="90" t="n"/>
+      <c r="AA27" s="90" t="n"/>
+      <c r="AB27" s="90" t="n"/>
+      <c r="AC27" s="90" t="n"/>
+      <c r="AD27" s="90" t="n"/>
+      <c r="AE27" s="90" t="n"/>
+      <c r="AF27" s="90" t="n"/>
+      <c r="AG27" s="90" t="n"/>
+      <c r="AH27" s="90" t="n"/>
+      <c r="AI27" s="90" t="n"/>
+      <c r="AJ27" s="90" t="n"/>
+      <c r="AK27" s="90" t="n"/>
+      <c r="AL27" s="90" t="n"/>
+      <c r="AM27" s="90" t="n"/>
+      <c r="AN27" s="90" t="n"/>
+      <c r="AO27" s="90" t="n"/>
+      <c r="AP27" s="90" t="n"/>
+      <c r="AQ27" s="90" t="n"/>
+      <c r="AR27" s="90" t="n"/>
+      <c r="AS27" s="90" t="n"/>
+      <c r="AT27" s="90" t="n"/>
+      <c r="AU27" s="90" t="n"/>
+      <c r="AV27" s="90" t="n"/>
+      <c r="AW27" s="90" t="n"/>
+      <c r="AX27" s="90" t="n"/>
+      <c r="AY27" s="90" t="n"/>
+      <c r="AZ27" s="90" t="n"/>
+      <c r="BA27" s="90" t="n"/>
+      <c r="BB27" s="90" t="n"/>
+      <c r="BC27" s="90" t="n"/>
+      <c r="BD27" s="90" t="n"/>
+      <c r="BE27" s="90" t="n"/>
+      <c r="BF27" s="90" t="n"/>
+      <c r="BG27" s="90" t="n"/>
+      <c r="BH27" s="90" t="n"/>
+      <c r="BI27" s="90" t="n"/>
+      <c r="BJ27" s="90" t="n"/>
+      <c r="BK27" s="90" t="n"/>
+      <c r="BL27" s="90" t="n"/>
+      <c r="BM27" s="90" t="n"/>
+      <c r="BN27" s="90" t="n"/>
+      <c r="BO27" s="90" t="n"/>
+      <c r="BP27" s="90" t="n"/>
+      <c r="BQ27" s="90" t="n"/>
+      <c r="BR27" s="90" t="n"/>
+      <c r="BS27" s="90" t="n"/>
+      <c r="BT27" s="90" t="n"/>
+      <c r="BU27" s="90" t="n"/>
+      <c r="BV27" s="90" t="n"/>
+      <c r="BW27" s="90" t="n"/>
+      <c r="BX27" s="90" t="n"/>
+      <c r="BY27" s="90" t="n"/>
+      <c r="BZ27" s="90" t="n"/>
+      <c r="CA27" s="90" t="n"/>
+      <c r="CB27" s="90" t="n"/>
+      <c r="CC27" s="90" t="n"/>
+      <c r="CD27" s="90" t="n"/>
+      <c r="CE27" s="90" t="n"/>
+      <c r="CF27" s="90" t="n"/>
+      <c r="CG27" s="90" t="n"/>
+      <c r="CH27" s="90" t="n"/>
+      <c r="CI27" s="90" t="n"/>
+      <c r="CJ27" s="90" t="n"/>
+      <c r="CK27" s="90" t="n"/>
+      <c r="CL27" s="90" t="n"/>
+      <c r="CM27" s="90" t="n"/>
+      <c r="CN27" s="90" t="n"/>
+      <c r="CO27" s="90" t="n"/>
+      <c r="CP27" s="90" t="n"/>
+      <c r="CQ27" s="90" t="n"/>
+      <c r="CR27" s="90" t="n"/>
+      <c r="CS27" s="90" t="n"/>
+      <c r="CT27" s="90" t="n"/>
+      <c r="CU27" s="90" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -5225,115 +5348,119 @@
           <t>150201</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>招商中证全指证券公司分级B</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" s="82" t="n">
-        <v>1.0467</v>
-      </c>
-      <c r="J28" s="80" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K28" s="82" t="inlineStr"/>
-      <c r="L28" s="82" t="n"/>
-      <c r="M28" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="H28" s="0" t="inlineStr"/>
+      <c r="I28" s="90" t="n">
+        <v>1.0475</v>
+      </c>
+      <c r="J28" s="88" t="n">
+        <v>7.479991791504215</v>
+      </c>
+      <c r="K28" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="90" t="n">
+        <v>0.1315</v>
+      </c>
+      <c r="M28" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N28" s="0">
         <f>(O28-I28)/I28*100</f>
         <v/>
       </c>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" s="0" t="inlineStr"/>
       <c r="Q28" s="0">
         <f>(R28-I28)/I28*100</f>
         <v/>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" s="82" t="n"/>
-      <c r="U28" s="82" t="n"/>
-      <c r="V28" s="82" t="n"/>
-      <c r="W28" s="82" t="n"/>
-      <c r="X28" s="82" t="n"/>
-      <c r="Y28" s="82" t="n"/>
-      <c r="Z28" s="82" t="n"/>
-      <c r="AA28" s="82" t="n"/>
-      <c r="AB28" s="82" t="n"/>
-      <c r="AC28" s="82" t="n"/>
-      <c r="AD28" s="82" t="n"/>
-      <c r="AE28" s="82" t="n"/>
-      <c r="AF28" s="82" t="n"/>
-      <c r="AG28" s="82" t="n"/>
-      <c r="AH28" s="82" t="n"/>
-      <c r="AI28" s="82" t="n"/>
-      <c r="AJ28" s="82" t="n"/>
-      <c r="AK28" s="82" t="n"/>
-      <c r="AL28" s="82" t="n"/>
-      <c r="AM28" s="82" t="n"/>
-      <c r="AN28" s="82" t="n"/>
-      <c r="AO28" s="82" t="n"/>
-      <c r="AP28" s="82" t="n"/>
-      <c r="AQ28" s="82" t="n"/>
-      <c r="AR28" s="82" t="n"/>
-      <c r="AS28" s="82" t="n"/>
-      <c r="AT28" s="82" t="n"/>
-      <c r="AU28" s="82" t="n"/>
-      <c r="AV28" s="82" t="n"/>
-      <c r="AW28" s="82" t="n"/>
-      <c r="AX28" s="82" t="n"/>
-      <c r="AY28" s="82" t="n"/>
-      <c r="AZ28" s="82" t="n"/>
-      <c r="BA28" s="82" t="n"/>
-      <c r="BB28" s="82" t="n"/>
-      <c r="BC28" s="82" t="n"/>
-      <c r="BD28" s="82" t="n"/>
-      <c r="BE28" s="82" t="n"/>
-      <c r="BF28" s="82" t="n"/>
-      <c r="BG28" s="82" t="n"/>
-      <c r="BH28" s="82" t="n"/>
-      <c r="BI28" s="82" t="n"/>
-      <c r="BJ28" s="82" t="n"/>
-      <c r="BK28" s="82" t="n"/>
-      <c r="BL28" s="82" t="n"/>
-      <c r="BM28" s="82" t="n"/>
-      <c r="BN28" s="82" t="n"/>
-      <c r="BO28" s="82" t="n"/>
-      <c r="BP28" s="82" t="n"/>
-      <c r="BQ28" s="82" t="n"/>
-      <c r="BR28" s="82" t="n"/>
-      <c r="BS28" s="82" t="n"/>
-      <c r="BT28" s="82" t="n"/>
-      <c r="BU28" s="82" t="n"/>
-      <c r="BV28" s="82" t="n"/>
-      <c r="BW28" s="82" t="n"/>
-      <c r="BX28" s="82" t="n"/>
-      <c r="BY28" s="82" t="n"/>
-      <c r="BZ28" s="82" t="n"/>
-      <c r="CA28" s="82" t="n"/>
-      <c r="CB28" s="82" t="n"/>
-      <c r="CC28" s="82" t="n"/>
-      <c r="CD28" s="82" t="n"/>
-      <c r="CE28" s="82" t="n"/>
-      <c r="CF28" s="82" t="n"/>
-      <c r="CG28" s="82" t="n"/>
-      <c r="CH28" s="82" t="n"/>
-      <c r="CI28" s="82" t="n"/>
-      <c r="CJ28" s="82" t="n"/>
-      <c r="CK28" s="82" t="n"/>
-      <c r="CL28" s="82" t="n"/>
-      <c r="CM28" s="82" t="n"/>
-      <c r="CN28" s="82" t="n"/>
-      <c r="CO28" s="82" t="n"/>
-      <c r="CP28" s="82" t="n"/>
-      <c r="CQ28" s="82" t="n"/>
-      <c r="CR28" s="82" t="n"/>
-      <c r="CS28" s="82" t="n"/>
-      <c r="CT28" s="82" t="n"/>
-      <c r="CU28" s="82" t="n"/>
+      <c r="S28" s="0" t="inlineStr"/>
+      <c r="T28" s="90" t="n"/>
+      <c r="U28" s="90" t="n"/>
+      <c r="V28" s="90" t="n"/>
+      <c r="W28" s="90" t="n"/>
+      <c r="X28" s="90" t="n"/>
+      <c r="Y28" s="90" t="n"/>
+      <c r="Z28" s="90" t="n"/>
+      <c r="AA28" s="90" t="n"/>
+      <c r="AB28" s="90" t="n"/>
+      <c r="AC28" s="90" t="n"/>
+      <c r="AD28" s="90" t="n"/>
+      <c r="AE28" s="90" t="n"/>
+      <c r="AF28" s="90" t="n"/>
+      <c r="AG28" s="90" t="n"/>
+      <c r="AH28" s="90" t="n"/>
+      <c r="AI28" s="90" t="n"/>
+      <c r="AJ28" s="90" t="n"/>
+      <c r="AK28" s="90" t="n"/>
+      <c r="AL28" s="90" t="n"/>
+      <c r="AM28" s="90" t="n"/>
+      <c r="AN28" s="90" t="n"/>
+      <c r="AO28" s="90" t="n"/>
+      <c r="AP28" s="90" t="n"/>
+      <c r="AQ28" s="90" t="n"/>
+      <c r="AR28" s="90" t="n"/>
+      <c r="AS28" s="90" t="n"/>
+      <c r="AT28" s="90" t="n"/>
+      <c r="AU28" s="90" t="n"/>
+      <c r="AV28" s="90" t="n"/>
+      <c r="AW28" s="90" t="n"/>
+      <c r="AX28" s="90" t="n"/>
+      <c r="AY28" s="90" t="n"/>
+      <c r="AZ28" s="90" t="n"/>
+      <c r="BA28" s="90" t="n"/>
+      <c r="BB28" s="90" t="n"/>
+      <c r="BC28" s="90" t="n"/>
+      <c r="BD28" s="90" t="n"/>
+      <c r="BE28" s="90" t="n"/>
+      <c r="BF28" s="90" t="n"/>
+      <c r="BG28" s="90" t="n"/>
+      <c r="BH28" s="90" t="n"/>
+      <c r="BI28" s="90" t="n"/>
+      <c r="BJ28" s="90" t="n"/>
+      <c r="BK28" s="90" t="n"/>
+      <c r="BL28" s="90" t="n"/>
+      <c r="BM28" s="90" t="n"/>
+      <c r="BN28" s="90" t="n"/>
+      <c r="BO28" s="90" t="n"/>
+      <c r="BP28" s="90" t="n"/>
+      <c r="BQ28" s="90" t="n"/>
+      <c r="BR28" s="90" t="n"/>
+      <c r="BS28" s="90" t="n"/>
+      <c r="BT28" s="90" t="n"/>
+      <c r="BU28" s="90" t="n"/>
+      <c r="BV28" s="90" t="n"/>
+      <c r="BW28" s="90" t="n"/>
+      <c r="BX28" s="90" t="n"/>
+      <c r="BY28" s="90" t="n"/>
+      <c r="BZ28" s="90" t="n"/>
+      <c r="CA28" s="90" t="n"/>
+      <c r="CB28" s="90" t="n"/>
+      <c r="CC28" s="90" t="n"/>
+      <c r="CD28" s="90" t="n"/>
+      <c r="CE28" s="90" t="n"/>
+      <c r="CF28" s="90" t="n"/>
+      <c r="CG28" s="90" t="n"/>
+      <c r="CH28" s="90" t="n"/>
+      <c r="CI28" s="90" t="n"/>
+      <c r="CJ28" s="90" t="n"/>
+      <c r="CK28" s="90" t="n"/>
+      <c r="CL28" s="90" t="n"/>
+      <c r="CM28" s="90" t="n"/>
+      <c r="CN28" s="90" t="n"/>
+      <c r="CO28" s="90" t="n"/>
+      <c r="CP28" s="90" t="n"/>
+      <c r="CQ28" s="90" t="n"/>
+      <c r="CR28" s="90" t="n"/>
+      <c r="CS28" s="90" t="n"/>
+      <c r="CT28" s="90" t="n"/>
+      <c r="CU28" s="90" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -5341,115 +5468,119 @@
           <t>161028</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="0" t="inlineStr">
         <is>
           <t>富国中证新能源汽车指数分级</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" s="82" t="n">
-        <v>1.1147</v>
-      </c>
-      <c r="J29" s="80" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K29" s="82" t="inlineStr"/>
-      <c r="L29" s="82" t="n"/>
-      <c r="M29" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="H29" s="0" t="inlineStr"/>
+      <c r="I29" s="90" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="J29" s="88" t="n">
+        <v>0.8364312267657896</v>
+      </c>
+      <c r="K29" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="90" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="M29" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N29" s="0">
         <f>(O29-I29)/I29*100</f>
         <v/>
       </c>
-      <c r="P29" t="inlineStr"/>
+      <c r="P29" s="0" t="inlineStr"/>
       <c r="Q29" s="0">
         <f>(R29-I29)/I29*100</f>
         <v/>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" s="82" t="n"/>
-      <c r="U29" s="82" t="n"/>
-      <c r="V29" s="82" t="n"/>
-      <c r="W29" s="82" t="n"/>
-      <c r="X29" s="82" t="n"/>
-      <c r="Y29" s="82" t="n"/>
-      <c r="Z29" s="82" t="n"/>
-      <c r="AA29" s="82" t="n"/>
-      <c r="AB29" s="82" t="n"/>
-      <c r="AC29" s="82" t="n"/>
-      <c r="AD29" s="82" t="n"/>
-      <c r="AE29" s="82" t="n"/>
-      <c r="AF29" s="82" t="n"/>
-      <c r="AG29" s="82" t="n"/>
-      <c r="AH29" s="82" t="n"/>
-      <c r="AI29" s="82" t="n"/>
-      <c r="AJ29" s="82" t="n"/>
-      <c r="AK29" s="82" t="n"/>
-      <c r="AL29" s="82" t="n"/>
-      <c r="AM29" s="82" t="n"/>
-      <c r="AN29" s="82" t="n"/>
-      <c r="AO29" s="82" t="n"/>
-      <c r="AP29" s="82" t="n"/>
-      <c r="AQ29" s="82" t="n"/>
-      <c r="AR29" s="82" t="n"/>
-      <c r="AS29" s="82" t="n"/>
-      <c r="AT29" s="82" t="n"/>
-      <c r="AU29" s="82" t="n"/>
-      <c r="AV29" s="82" t="n"/>
-      <c r="AW29" s="82" t="n"/>
-      <c r="AX29" s="82" t="n"/>
-      <c r="AY29" s="82" t="n"/>
-      <c r="AZ29" s="82" t="n"/>
-      <c r="BA29" s="82" t="n"/>
-      <c r="BB29" s="82" t="n"/>
-      <c r="BC29" s="82" t="n"/>
-      <c r="BD29" s="82" t="n"/>
-      <c r="BE29" s="82" t="n"/>
-      <c r="BF29" s="82" t="n"/>
-      <c r="BG29" s="82" t="n"/>
-      <c r="BH29" s="82" t="n"/>
-      <c r="BI29" s="82" t="n"/>
-      <c r="BJ29" s="82" t="n"/>
-      <c r="BK29" s="82" t="n"/>
-      <c r="BL29" s="82" t="n"/>
-      <c r="BM29" s="82" t="n"/>
-      <c r="BN29" s="82" t="n"/>
-      <c r="BO29" s="82" t="n"/>
-      <c r="BP29" s="82" t="n"/>
-      <c r="BQ29" s="82" t="n"/>
-      <c r="BR29" s="82" t="n"/>
-      <c r="BS29" s="82" t="n"/>
-      <c r="BT29" s="82" t="n"/>
-      <c r="BU29" s="82" t="n"/>
-      <c r="BV29" s="82" t="n"/>
-      <c r="BW29" s="82" t="n"/>
-      <c r="BX29" s="82" t="n"/>
-      <c r="BY29" s="82" t="n"/>
-      <c r="BZ29" s="82" t="n"/>
-      <c r="CA29" s="82" t="n"/>
-      <c r="CB29" s="82" t="n"/>
-      <c r="CC29" s="82" t="n"/>
-      <c r="CD29" s="82" t="n"/>
-      <c r="CE29" s="82" t="n"/>
-      <c r="CF29" s="82" t="n"/>
-      <c r="CG29" s="82" t="n"/>
-      <c r="CH29" s="82" t="n"/>
-      <c r="CI29" s="82" t="n"/>
-      <c r="CJ29" s="82" t="n"/>
-      <c r="CK29" s="82" t="n"/>
-      <c r="CL29" s="82" t="n"/>
-      <c r="CM29" s="82" t="n"/>
-      <c r="CN29" s="82" t="n"/>
-      <c r="CO29" s="82" t="n"/>
-      <c r="CP29" s="82" t="n"/>
-      <c r="CQ29" s="82" t="n"/>
-      <c r="CR29" s="82" t="n"/>
-      <c r="CS29" s="82" t="n"/>
-      <c r="CT29" s="82" t="n"/>
-      <c r="CU29" s="82" t="n"/>
+      <c r="S29" s="0" t="inlineStr"/>
+      <c r="T29" s="90" t="n"/>
+      <c r="U29" s="90" t="n"/>
+      <c r="V29" s="90" t="n"/>
+      <c r="W29" s="90" t="n"/>
+      <c r="X29" s="90" t="n"/>
+      <c r="Y29" s="90" t="n"/>
+      <c r="Z29" s="90" t="n"/>
+      <c r="AA29" s="90" t="n"/>
+      <c r="AB29" s="90" t="n"/>
+      <c r="AC29" s="90" t="n"/>
+      <c r="AD29" s="90" t="n"/>
+      <c r="AE29" s="90" t="n"/>
+      <c r="AF29" s="90" t="n"/>
+      <c r="AG29" s="90" t="n"/>
+      <c r="AH29" s="90" t="n"/>
+      <c r="AI29" s="90" t="n"/>
+      <c r="AJ29" s="90" t="n"/>
+      <c r="AK29" s="90" t="n"/>
+      <c r="AL29" s="90" t="n"/>
+      <c r="AM29" s="90" t="n"/>
+      <c r="AN29" s="90" t="n"/>
+      <c r="AO29" s="90" t="n"/>
+      <c r="AP29" s="90" t="n"/>
+      <c r="AQ29" s="90" t="n"/>
+      <c r="AR29" s="90" t="n"/>
+      <c r="AS29" s="90" t="n"/>
+      <c r="AT29" s="90" t="n"/>
+      <c r="AU29" s="90" t="n"/>
+      <c r="AV29" s="90" t="n"/>
+      <c r="AW29" s="90" t="n"/>
+      <c r="AX29" s="90" t="n"/>
+      <c r="AY29" s="90" t="n"/>
+      <c r="AZ29" s="90" t="n"/>
+      <c r="BA29" s="90" t="n"/>
+      <c r="BB29" s="90" t="n"/>
+      <c r="BC29" s="90" t="n"/>
+      <c r="BD29" s="90" t="n"/>
+      <c r="BE29" s="90" t="n"/>
+      <c r="BF29" s="90" t="n"/>
+      <c r="BG29" s="90" t="n"/>
+      <c r="BH29" s="90" t="n"/>
+      <c r="BI29" s="90" t="n"/>
+      <c r="BJ29" s="90" t="n"/>
+      <c r="BK29" s="90" t="n"/>
+      <c r="BL29" s="90" t="n"/>
+      <c r="BM29" s="90" t="n"/>
+      <c r="BN29" s="90" t="n"/>
+      <c r="BO29" s="90" t="n"/>
+      <c r="BP29" s="90" t="n"/>
+      <c r="BQ29" s="90" t="n"/>
+      <c r="BR29" s="90" t="n"/>
+      <c r="BS29" s="90" t="n"/>
+      <c r="BT29" s="90" t="n"/>
+      <c r="BU29" s="90" t="n"/>
+      <c r="BV29" s="90" t="n"/>
+      <c r="BW29" s="90" t="n"/>
+      <c r="BX29" s="90" t="n"/>
+      <c r="BY29" s="90" t="n"/>
+      <c r="BZ29" s="90" t="n"/>
+      <c r="CA29" s="90" t="n"/>
+      <c r="CB29" s="90" t="n"/>
+      <c r="CC29" s="90" t="n"/>
+      <c r="CD29" s="90" t="n"/>
+      <c r="CE29" s="90" t="n"/>
+      <c r="CF29" s="90" t="n"/>
+      <c r="CG29" s="90" t="n"/>
+      <c r="CH29" s="90" t="n"/>
+      <c r="CI29" s="90" t="n"/>
+      <c r="CJ29" s="90" t="n"/>
+      <c r="CK29" s="90" t="n"/>
+      <c r="CL29" s="90" t="n"/>
+      <c r="CM29" s="90" t="n"/>
+      <c r="CN29" s="90" t="n"/>
+      <c r="CO29" s="90" t="n"/>
+      <c r="CP29" s="90" t="n"/>
+      <c r="CQ29" s="90" t="n"/>
+      <c r="CR29" s="90" t="n"/>
+      <c r="CS29" s="90" t="n"/>
+      <c r="CT29" s="90" t="n"/>
+      <c r="CU29" s="90" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -5457,115 +5588,119 @@
           <t>110003</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>易方达上证50指数A</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" s="82" t="n">
-        <v>1.8166</v>
-      </c>
-      <c r="J30" s="80" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K30" s="82" t="inlineStr"/>
-      <c r="L30" s="82" t="n"/>
-      <c r="M30" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-13 15:00</t>
+      <c r="H30" s="0" t="inlineStr"/>
+      <c r="I30" s="90" t="n">
+        <v>1.8144</v>
+      </c>
+      <c r="J30" s="88" t="n">
+        <v>2.081692359626416</v>
+      </c>
+      <c r="K30" s="90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="90" t="n">
+        <v>3.6844</v>
+      </c>
+      <c r="M30" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="N30" s="0">
         <f>(O30-I30)/I30*100</f>
         <v/>
       </c>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" s="0" t="inlineStr"/>
       <c r="Q30" s="0">
         <f>(R30-I30)/I30*100</f>
         <v/>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" s="82" t="n"/>
-      <c r="U30" s="82" t="n"/>
-      <c r="V30" s="82" t="n"/>
-      <c r="W30" s="82" t="n"/>
-      <c r="X30" s="82" t="n"/>
-      <c r="Y30" s="82" t="n"/>
-      <c r="Z30" s="82" t="n"/>
-      <c r="AA30" s="82" t="n"/>
-      <c r="AB30" s="82" t="n"/>
-      <c r="AC30" s="82" t="n"/>
-      <c r="AD30" s="82" t="n"/>
-      <c r="AE30" s="82" t="n"/>
-      <c r="AF30" s="82" t="n"/>
-      <c r="AG30" s="82" t="n"/>
-      <c r="AH30" s="82" t="n"/>
-      <c r="AI30" s="82" t="n"/>
-      <c r="AJ30" s="82" t="n"/>
-      <c r="AK30" s="82" t="n"/>
-      <c r="AL30" s="82" t="n"/>
-      <c r="AM30" s="82" t="n"/>
-      <c r="AN30" s="82" t="n"/>
-      <c r="AO30" s="82" t="n"/>
-      <c r="AP30" s="82" t="n"/>
-      <c r="AQ30" s="82" t="n"/>
-      <c r="AR30" s="82" t="n"/>
-      <c r="AS30" s="82" t="n"/>
-      <c r="AT30" s="82" t="n"/>
-      <c r="AU30" s="82" t="n"/>
-      <c r="AV30" s="82" t="n"/>
-      <c r="AW30" s="82" t="n"/>
-      <c r="AX30" s="82" t="n"/>
-      <c r="AY30" s="82" t="n"/>
-      <c r="AZ30" s="82" t="n"/>
-      <c r="BA30" s="82" t="n"/>
-      <c r="BB30" s="82" t="n"/>
-      <c r="BC30" s="82" t="n"/>
-      <c r="BD30" s="82" t="n"/>
-      <c r="BE30" s="82" t="n"/>
-      <c r="BF30" s="82" t="n"/>
-      <c r="BG30" s="82" t="n"/>
-      <c r="BH30" s="82" t="n"/>
-      <c r="BI30" s="82" t="n"/>
-      <c r="BJ30" s="82" t="n"/>
-      <c r="BK30" s="82" t="n"/>
-      <c r="BL30" s="82" t="n"/>
-      <c r="BM30" s="82" t="n"/>
-      <c r="BN30" s="82" t="n"/>
-      <c r="BO30" s="82" t="n"/>
-      <c r="BP30" s="82" t="n"/>
-      <c r="BQ30" s="82" t="n"/>
-      <c r="BR30" s="82" t="n"/>
-      <c r="BS30" s="82" t="n"/>
-      <c r="BT30" s="82" t="n"/>
-      <c r="BU30" s="82" t="n"/>
-      <c r="BV30" s="82" t="n"/>
-      <c r="BW30" s="82" t="n"/>
-      <c r="BX30" s="82" t="n"/>
-      <c r="BY30" s="82" t="n"/>
-      <c r="BZ30" s="82" t="n"/>
-      <c r="CA30" s="82" t="n"/>
-      <c r="CB30" s="82" t="n"/>
-      <c r="CC30" s="82" t="n"/>
-      <c r="CD30" s="82" t="n"/>
-      <c r="CE30" s="82" t="n"/>
-      <c r="CF30" s="82" t="n"/>
-      <c r="CG30" s="82" t="n"/>
-      <c r="CH30" s="82" t="n"/>
-      <c r="CI30" s="82" t="n"/>
-      <c r="CJ30" s="82" t="n"/>
-      <c r="CK30" s="82" t="n"/>
-      <c r="CL30" s="82" t="n"/>
-      <c r="CM30" s="82" t="n"/>
-      <c r="CN30" s="82" t="n"/>
-      <c r="CO30" s="82" t="n"/>
-      <c r="CP30" s="82" t="n"/>
-      <c r="CQ30" s="82" t="n"/>
-      <c r="CR30" s="82" t="n"/>
-      <c r="CS30" s="82" t="n"/>
-      <c r="CT30" s="82" t="n"/>
-      <c r="CU30" s="82" t="n"/>
+      <c r="S30" s="0" t="inlineStr"/>
+      <c r="T30" s="90" t="n"/>
+      <c r="U30" s="90" t="n"/>
+      <c r="V30" s="90" t="n"/>
+      <c r="W30" s="90" t="n"/>
+      <c r="X30" s="90" t="n"/>
+      <c r="Y30" s="90" t="n"/>
+      <c r="Z30" s="90" t="n"/>
+      <c r="AA30" s="90" t="n"/>
+      <c r="AB30" s="90" t="n"/>
+      <c r="AC30" s="90" t="n"/>
+      <c r="AD30" s="90" t="n"/>
+      <c r="AE30" s="90" t="n"/>
+      <c r="AF30" s="90" t="n"/>
+      <c r="AG30" s="90" t="n"/>
+      <c r="AH30" s="90" t="n"/>
+      <c r="AI30" s="90" t="n"/>
+      <c r="AJ30" s="90" t="n"/>
+      <c r="AK30" s="90" t="n"/>
+      <c r="AL30" s="90" t="n"/>
+      <c r="AM30" s="90" t="n"/>
+      <c r="AN30" s="90" t="n"/>
+      <c r="AO30" s="90" t="n"/>
+      <c r="AP30" s="90" t="n"/>
+      <c r="AQ30" s="90" t="n"/>
+      <c r="AR30" s="90" t="n"/>
+      <c r="AS30" s="90" t="n"/>
+      <c r="AT30" s="90" t="n"/>
+      <c r="AU30" s="90" t="n"/>
+      <c r="AV30" s="90" t="n"/>
+      <c r="AW30" s="90" t="n"/>
+      <c r="AX30" s="90" t="n"/>
+      <c r="AY30" s="90" t="n"/>
+      <c r="AZ30" s="90" t="n"/>
+      <c r="BA30" s="90" t="n"/>
+      <c r="BB30" s="90" t="n"/>
+      <c r="BC30" s="90" t="n"/>
+      <c r="BD30" s="90" t="n"/>
+      <c r="BE30" s="90" t="n"/>
+      <c r="BF30" s="90" t="n"/>
+      <c r="BG30" s="90" t="n"/>
+      <c r="BH30" s="90" t="n"/>
+      <c r="BI30" s="90" t="n"/>
+      <c r="BJ30" s="90" t="n"/>
+      <c r="BK30" s="90" t="n"/>
+      <c r="BL30" s="90" t="n"/>
+      <c r="BM30" s="90" t="n"/>
+      <c r="BN30" s="90" t="n"/>
+      <c r="BO30" s="90" t="n"/>
+      <c r="BP30" s="90" t="n"/>
+      <c r="BQ30" s="90" t="n"/>
+      <c r="BR30" s="90" t="n"/>
+      <c r="BS30" s="90" t="n"/>
+      <c r="BT30" s="90" t="n"/>
+      <c r="BU30" s="90" t="n"/>
+      <c r="BV30" s="90" t="n"/>
+      <c r="BW30" s="90" t="n"/>
+      <c r="BX30" s="90" t="n"/>
+      <c r="BY30" s="90" t="n"/>
+      <c r="BZ30" s="90" t="n"/>
+      <c r="CA30" s="90" t="n"/>
+      <c r="CB30" s="90" t="n"/>
+      <c r="CC30" s="90" t="n"/>
+      <c r="CD30" s="90" t="n"/>
+      <c r="CE30" s="90" t="n"/>
+      <c r="CF30" s="90" t="n"/>
+      <c r="CG30" s="90" t="n"/>
+      <c r="CH30" s="90" t="n"/>
+      <c r="CI30" s="90" t="n"/>
+      <c r="CJ30" s="90" t="n"/>
+      <c r="CK30" s="90" t="n"/>
+      <c r="CL30" s="90" t="n"/>
+      <c r="CM30" s="90" t="n"/>
+      <c r="CN30" s="90" t="n"/>
+      <c r="CO30" s="90" t="n"/>
+      <c r="CP30" s="90" t="n"/>
+      <c r="CQ30" s="90" t="n"/>
+      <c r="CR30" s="90" t="n"/>
+      <c r="CS30" s="90" t="n"/>
+      <c r="CT30" s="90" t="n"/>
+      <c r="CU30" s="90" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -5573,115 +5708,119 @@
           <t>270042</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="0" t="inlineStr">
         <is>
           <t>广发纳斯达克100指数A</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" s="82" t="n">
-        <v>2.6913</v>
-      </c>
-      <c r="J31" s="80" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K31" s="82" t="inlineStr"/>
-      <c r="L31" s="82" t="n"/>
-      <c r="M31" s="82" t="inlineStr">
-        <is>
-          <t>2019-12-14 05:00</t>
+      <c r="H31" s="0" t="inlineStr"/>
+      <c r="I31" s="90" t="n">
+        <v>2.6862</v>
+      </c>
+      <c r="J31" s="88" t="n">
+        <v>0.5502526670409857</v>
+      </c>
+      <c r="K31" s="90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="90" t="n">
+        <v>2.9562</v>
+      </c>
+      <c r="M31" s="90" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="N31" s="0">
         <f>(O31-I31)/I31*100</f>
         <v/>
       </c>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" s="0" t="inlineStr"/>
       <c r="Q31" s="0">
         <f>(R31-I31)/I31*100</f>
         <v/>
       </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" s="82" t="n"/>
-      <c r="U31" s="82" t="n"/>
-      <c r="V31" s="82" t="n"/>
-      <c r="W31" s="82" t="n"/>
-      <c r="X31" s="82" t="n"/>
-      <c r="Y31" s="82" t="n"/>
-      <c r="Z31" s="82" t="n"/>
-      <c r="AA31" s="82" t="n"/>
-      <c r="AB31" s="82" t="n"/>
-      <c r="AC31" s="82" t="n"/>
-      <c r="AD31" s="82" t="n"/>
-      <c r="AE31" s="82" t="n"/>
-      <c r="AF31" s="82" t="n"/>
-      <c r="AG31" s="82" t="n"/>
-      <c r="AH31" s="82" t="n"/>
-      <c r="AI31" s="82" t="n"/>
-      <c r="AJ31" s="82" t="n"/>
-      <c r="AK31" s="82" t="n"/>
-      <c r="AL31" s="82" t="n"/>
-      <c r="AM31" s="82" t="n"/>
-      <c r="AN31" s="82" t="n"/>
-      <c r="AO31" s="82" t="n"/>
-      <c r="AP31" s="82" t="n"/>
-      <c r="AQ31" s="82" t="n"/>
-      <c r="AR31" s="82" t="n"/>
-      <c r="AS31" s="82" t="n"/>
-      <c r="AT31" s="82" t="n"/>
-      <c r="AU31" s="82" t="n"/>
-      <c r="AV31" s="82" t="n"/>
-      <c r="AW31" s="82" t="n"/>
-      <c r="AX31" s="82" t="n"/>
-      <c r="AY31" s="82" t="n"/>
-      <c r="AZ31" s="82" t="n"/>
-      <c r="BA31" s="82" t="n"/>
-      <c r="BB31" s="82" t="n"/>
-      <c r="BC31" s="82" t="n"/>
-      <c r="BD31" s="82" t="n"/>
-      <c r="BE31" s="82" t="n"/>
-      <c r="BF31" s="82" t="n"/>
-      <c r="BG31" s="82" t="n"/>
-      <c r="BH31" s="82" t="n"/>
-      <c r="BI31" s="82" t="n"/>
-      <c r="BJ31" s="82" t="n"/>
-      <c r="BK31" s="82" t="n"/>
-      <c r="BL31" s="82" t="n"/>
-      <c r="BM31" s="82" t="n"/>
-      <c r="BN31" s="82" t="n"/>
-      <c r="BO31" s="82" t="n"/>
-      <c r="BP31" s="82" t="n"/>
-      <c r="BQ31" s="82" t="n"/>
-      <c r="BR31" s="82" t="n"/>
-      <c r="BS31" s="82" t="n"/>
-      <c r="BT31" s="82" t="n"/>
-      <c r="BU31" s="82" t="n"/>
-      <c r="BV31" s="82" t="n"/>
-      <c r="BW31" s="82" t="n"/>
-      <c r="BX31" s="82" t="n"/>
-      <c r="BY31" s="82" t="n"/>
-      <c r="BZ31" s="82" t="n"/>
-      <c r="CA31" s="82" t="n"/>
-      <c r="CB31" s="82" t="n"/>
-      <c r="CC31" s="82" t="n"/>
-      <c r="CD31" s="82" t="n"/>
-      <c r="CE31" s="82" t="n"/>
-      <c r="CF31" s="82" t="n"/>
-      <c r="CG31" s="82" t="n"/>
-      <c r="CH31" s="82" t="n"/>
-      <c r="CI31" s="82" t="n"/>
-      <c r="CJ31" s="82" t="n"/>
-      <c r="CK31" s="82" t="n"/>
-      <c r="CL31" s="82" t="n"/>
-      <c r="CM31" s="82" t="n"/>
-      <c r="CN31" s="82" t="n"/>
-      <c r="CO31" s="82" t="n"/>
-      <c r="CP31" s="82" t="n"/>
-      <c r="CQ31" s="82" t="n"/>
-      <c r="CR31" s="82" t="n"/>
-      <c r="CS31" s="82" t="n"/>
-      <c r="CT31" s="82" t="n"/>
-      <c r="CU31" s="82" t="n"/>
+      <c r="S31" s="0" t="inlineStr"/>
+      <c r="T31" s="90" t="n"/>
+      <c r="U31" s="90" t="n"/>
+      <c r="V31" s="90" t="n"/>
+      <c r="W31" s="90" t="n"/>
+      <c r="X31" s="90" t="n"/>
+      <c r="Y31" s="90" t="n"/>
+      <c r="Z31" s="90" t="n"/>
+      <c r="AA31" s="90" t="n"/>
+      <c r="AB31" s="90" t="n"/>
+      <c r="AC31" s="90" t="n"/>
+      <c r="AD31" s="90" t="n"/>
+      <c r="AE31" s="90" t="n"/>
+      <c r="AF31" s="90" t="n"/>
+      <c r="AG31" s="90" t="n"/>
+      <c r="AH31" s="90" t="n"/>
+      <c r="AI31" s="90" t="n"/>
+      <c r="AJ31" s="90" t="n"/>
+      <c r="AK31" s="90" t="n"/>
+      <c r="AL31" s="90" t="n"/>
+      <c r="AM31" s="90" t="n"/>
+      <c r="AN31" s="90" t="n"/>
+      <c r="AO31" s="90" t="n"/>
+      <c r="AP31" s="90" t="n"/>
+      <c r="AQ31" s="90" t="n"/>
+      <c r="AR31" s="90" t="n"/>
+      <c r="AS31" s="90" t="n"/>
+      <c r="AT31" s="90" t="n"/>
+      <c r="AU31" s="90" t="n"/>
+      <c r="AV31" s="90" t="n"/>
+      <c r="AW31" s="90" t="n"/>
+      <c r="AX31" s="90" t="n"/>
+      <c r="AY31" s="90" t="n"/>
+      <c r="AZ31" s="90" t="n"/>
+      <c r="BA31" s="90" t="n"/>
+      <c r="BB31" s="90" t="n"/>
+      <c r="BC31" s="90" t="n"/>
+      <c r="BD31" s="90" t="n"/>
+      <c r="BE31" s="90" t="n"/>
+      <c r="BF31" s="90" t="n"/>
+      <c r="BG31" s="90" t="n"/>
+      <c r="BH31" s="90" t="n"/>
+      <c r="BI31" s="90" t="n"/>
+      <c r="BJ31" s="90" t="n"/>
+      <c r="BK31" s="90" t="n"/>
+      <c r="BL31" s="90" t="n"/>
+      <c r="BM31" s="90" t="n"/>
+      <c r="BN31" s="90" t="n"/>
+      <c r="BO31" s="90" t="n"/>
+      <c r="BP31" s="90" t="n"/>
+      <c r="BQ31" s="90" t="n"/>
+      <c r="BR31" s="90" t="n"/>
+      <c r="BS31" s="90" t="n"/>
+      <c r="BT31" s="90" t="n"/>
+      <c r="BU31" s="90" t="n"/>
+      <c r="BV31" s="90" t="n"/>
+      <c r="BW31" s="90" t="n"/>
+      <c r="BX31" s="90" t="n"/>
+      <c r="BY31" s="90" t="n"/>
+      <c r="BZ31" s="90" t="n"/>
+      <c r="CA31" s="90" t="n"/>
+      <c r="CB31" s="90" t="n"/>
+      <c r="CC31" s="90" t="n"/>
+      <c r="CD31" s="90" t="n"/>
+      <c r="CE31" s="90" t="n"/>
+      <c r="CF31" s="90" t="n"/>
+      <c r="CG31" s="90" t="n"/>
+      <c r="CH31" s="90" t="n"/>
+      <c r="CI31" s="90" t="n"/>
+      <c r="CJ31" s="90" t="n"/>
+      <c r="CK31" s="90" t="n"/>
+      <c r="CL31" s="90" t="n"/>
+      <c r="CM31" s="90" t="n"/>
+      <c r="CN31" s="90" t="n"/>
+      <c r="CO31" s="90" t="n"/>
+      <c r="CP31" s="90" t="n"/>
+      <c r="CQ31" s="90" t="n"/>
+      <c r="CR31" s="90" t="n"/>
+      <c r="CS31" s="90" t="n"/>
+      <c r="CT31" s="90" t="n"/>
+      <c r="CU31" s="90" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
@@ -6207,7 +6346,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:35</t>
+          <t>20191215 16:20:30</t>
         </is>
       </c>
       <c r="L2" s="64">
@@ -6224,86 +6363,86 @@
       <c r="P2" s="0" t="n">
         <v>3263</v>
       </c>
-      <c r="R2" s="83" t="n"/>
-      <c r="S2" s="76" t="n"/>
-      <c r="T2" s="76" t="n"/>
-      <c r="U2" s="83" t="n"/>
-      <c r="V2" s="76" t="n"/>
-      <c r="W2" s="76" t="n"/>
-      <c r="X2" s="83" t="n"/>
-      <c r="Y2" s="76" t="n"/>
-      <c r="Z2" s="76" t="n"/>
-      <c r="AA2" s="83" t="n"/>
-      <c r="AB2" s="76" t="n"/>
-      <c r="AC2" s="76" t="n"/>
-      <c r="AD2" s="83" t="n"/>
-      <c r="AE2" s="76" t="n"/>
-      <c r="AF2" s="76" t="n"/>
-      <c r="AG2" s="83" t="n"/>
-      <c r="AH2" s="76" t="n"/>
-      <c r="AI2" s="76" t="n"/>
-      <c r="AJ2" s="83" t="n"/>
-      <c r="AK2" s="76" t="n"/>
-      <c r="AL2" s="76" t="n"/>
-      <c r="AM2" s="83" t="n"/>
-      <c r="AN2" s="76" t="n"/>
-      <c r="AO2" s="76" t="n"/>
-      <c r="AP2" s="83" t="n"/>
-      <c r="AQ2" s="76" t="n"/>
-      <c r="AR2" s="76" t="n"/>
-      <c r="AS2" s="83" t="n"/>
-      <c r="AT2" s="76" t="n"/>
-      <c r="AU2" s="76" t="n"/>
-      <c r="AV2" s="83" t="n"/>
-      <c r="AW2" s="76" t="n"/>
-      <c r="AX2" s="76" t="n"/>
-      <c r="AY2" s="83" t="n"/>
-      <c r="AZ2" s="76" t="n"/>
-      <c r="BA2" s="76" t="n"/>
-      <c r="BB2" s="83" t="n"/>
-      <c r="BC2" s="76" t="n"/>
-      <c r="BD2" s="76" t="n"/>
-      <c r="BE2" s="83" t="n"/>
-      <c r="BF2" s="76" t="n"/>
-      <c r="BG2" s="76" t="n"/>
-      <c r="BH2" s="83" t="n"/>
-      <c r="BI2" s="76" t="n"/>
-      <c r="BJ2" s="76" t="n"/>
-      <c r="BK2" s="76" t="n"/>
-      <c r="BL2" s="76" t="n"/>
-      <c r="BM2" s="76" t="n"/>
-      <c r="BN2" s="76" t="n"/>
-      <c r="BO2" s="76" t="n"/>
-      <c r="BP2" s="76" t="n"/>
-      <c r="BQ2" s="76" t="n"/>
-      <c r="BR2" s="76" t="n"/>
-      <c r="BS2" s="76" t="n"/>
-      <c r="BT2" s="76" t="n"/>
-      <c r="BU2" s="76" t="n"/>
-      <c r="BV2" s="76" t="n"/>
-      <c r="BW2" s="76" t="n"/>
-      <c r="BX2" s="76" t="n"/>
-      <c r="BY2" s="76" t="n"/>
-      <c r="BZ2" s="76" t="n"/>
-      <c r="CA2" s="76" t="n"/>
-      <c r="CB2" s="76" t="n"/>
-      <c r="CC2" s="76" t="n"/>
-      <c r="CD2" s="76" t="n"/>
-      <c r="CE2" s="76" t="n"/>
-      <c r="CF2" s="76" t="n"/>
-      <c r="CG2" s="76" t="n"/>
-      <c r="CH2" s="76" t="n"/>
-      <c r="CI2" s="76" t="n"/>
-      <c r="CJ2" s="76" t="n"/>
-      <c r="CK2" s="76" t="n"/>
-      <c r="CL2" s="76" t="n"/>
-      <c r="CM2" s="76" t="n"/>
-      <c r="CN2" s="76" t="n"/>
-      <c r="CO2" s="76" t="n"/>
-      <c r="CP2" s="76" t="n"/>
-      <c r="CQ2" s="76" t="n"/>
-      <c r="CR2" s="76" t="n"/>
-      <c r="CS2" s="76" t="n"/>
+      <c r="R2" s="91" t="n"/>
+      <c r="S2" s="84" t="n"/>
+      <c r="T2" s="84" t="n"/>
+      <c r="U2" s="91" t="n"/>
+      <c r="V2" s="84" t="n"/>
+      <c r="W2" s="84" t="n"/>
+      <c r="X2" s="91" t="n"/>
+      <c r="Y2" s="84" t="n"/>
+      <c r="Z2" s="84" t="n"/>
+      <c r="AA2" s="91" t="n"/>
+      <c r="AB2" s="84" t="n"/>
+      <c r="AC2" s="84" t="n"/>
+      <c r="AD2" s="91" t="n"/>
+      <c r="AE2" s="84" t="n"/>
+      <c r="AF2" s="84" t="n"/>
+      <c r="AG2" s="91" t="n"/>
+      <c r="AH2" s="84" t="n"/>
+      <c r="AI2" s="84" t="n"/>
+      <c r="AJ2" s="91" t="n"/>
+      <c r="AK2" s="84" t="n"/>
+      <c r="AL2" s="84" t="n"/>
+      <c r="AM2" s="91" t="n"/>
+      <c r="AN2" s="84" t="n"/>
+      <c r="AO2" s="84" t="n"/>
+      <c r="AP2" s="91" t="n"/>
+      <c r="AQ2" s="84" t="n"/>
+      <c r="AR2" s="84" t="n"/>
+      <c r="AS2" s="91" t="n"/>
+      <c r="AT2" s="84" t="n"/>
+      <c r="AU2" s="84" t="n"/>
+      <c r="AV2" s="91" t="n"/>
+      <c r="AW2" s="84" t="n"/>
+      <c r="AX2" s="84" t="n"/>
+      <c r="AY2" s="91" t="n"/>
+      <c r="AZ2" s="84" t="n"/>
+      <c r="BA2" s="84" t="n"/>
+      <c r="BB2" s="91" t="n"/>
+      <c r="BC2" s="84" t="n"/>
+      <c r="BD2" s="84" t="n"/>
+      <c r="BE2" s="91" t="n"/>
+      <c r="BF2" s="84" t="n"/>
+      <c r="BG2" s="84" t="n"/>
+      <c r="BH2" s="91" t="n"/>
+      <c r="BI2" s="84" t="n"/>
+      <c r="BJ2" s="84" t="n"/>
+      <c r="BK2" s="84" t="n"/>
+      <c r="BL2" s="84" t="n"/>
+      <c r="BM2" s="84" t="n"/>
+      <c r="BN2" s="84" t="n"/>
+      <c r="BO2" s="84" t="n"/>
+      <c r="BP2" s="84" t="n"/>
+      <c r="BQ2" s="84" t="n"/>
+      <c r="BR2" s="84" t="n"/>
+      <c r="BS2" s="84" t="n"/>
+      <c r="BT2" s="84" t="n"/>
+      <c r="BU2" s="84" t="n"/>
+      <c r="BV2" s="84" t="n"/>
+      <c r="BW2" s="84" t="n"/>
+      <c r="BX2" s="84" t="n"/>
+      <c r="BY2" s="84" t="n"/>
+      <c r="BZ2" s="84" t="n"/>
+      <c r="CA2" s="84" t="n"/>
+      <c r="CB2" s="84" t="n"/>
+      <c r="CC2" s="84" t="n"/>
+      <c r="CD2" s="84" t="n"/>
+      <c r="CE2" s="84" t="n"/>
+      <c r="CF2" s="84" t="n"/>
+      <c r="CG2" s="84" t="n"/>
+      <c r="CH2" s="84" t="n"/>
+      <c r="CI2" s="84" t="n"/>
+      <c r="CJ2" s="84" t="n"/>
+      <c r="CK2" s="84" t="n"/>
+      <c r="CL2" s="84" t="n"/>
+      <c r="CM2" s="84" t="n"/>
+      <c r="CN2" s="84" t="n"/>
+      <c r="CO2" s="84" t="n"/>
+      <c r="CP2" s="84" t="n"/>
+      <c r="CQ2" s="84" t="n"/>
+      <c r="CR2" s="84" t="n"/>
+      <c r="CS2" s="84" t="n"/>
     </row>
     <row r="3" ht="15.15" customHeight="1" s="9">
       <c r="A3" s="0" t="inlineStr">
@@ -6333,7 +6472,7 @@
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:35</t>
+          <t>20191215 16:20:30</t>
         </is>
       </c>
       <c r="L3" s="64">
@@ -6350,86 +6489,86 @@
       <c r="P3" s="0" t="n">
         <v>3042</v>
       </c>
-      <c r="R3" s="83" t="n"/>
-      <c r="S3" s="76" t="n"/>
-      <c r="T3" s="76" t="n"/>
-      <c r="U3" s="83" t="n"/>
-      <c r="V3" s="76" t="n"/>
-      <c r="W3" s="76" t="n"/>
-      <c r="X3" s="83" t="n"/>
-      <c r="Y3" s="76" t="n"/>
-      <c r="Z3" s="76" t="n"/>
-      <c r="AA3" s="83" t="n"/>
-      <c r="AB3" s="76" t="n"/>
-      <c r="AC3" s="76" t="n"/>
-      <c r="AD3" s="83" t="n"/>
-      <c r="AE3" s="76" t="n"/>
-      <c r="AF3" s="76" t="n"/>
-      <c r="AG3" s="83" t="n"/>
-      <c r="AH3" s="76" t="n"/>
-      <c r="AI3" s="76" t="n"/>
-      <c r="AJ3" s="83" t="n"/>
-      <c r="AK3" s="76" t="n"/>
-      <c r="AL3" s="76" t="n"/>
-      <c r="AM3" s="83" t="n"/>
-      <c r="AN3" s="76" t="n"/>
-      <c r="AO3" s="76" t="n"/>
-      <c r="AP3" s="83" t="n"/>
-      <c r="AQ3" s="76" t="n"/>
-      <c r="AR3" s="76" t="n"/>
-      <c r="AS3" s="83" t="n"/>
-      <c r="AT3" s="76" t="n"/>
-      <c r="AU3" s="76" t="n"/>
-      <c r="AV3" s="83" t="n"/>
-      <c r="AW3" s="76" t="n"/>
-      <c r="AX3" s="76" t="n"/>
-      <c r="AY3" s="83" t="n"/>
-      <c r="AZ3" s="76" t="n"/>
-      <c r="BA3" s="76" t="n"/>
-      <c r="BB3" s="83" t="n"/>
-      <c r="BC3" s="76" t="n"/>
-      <c r="BD3" s="76" t="n"/>
-      <c r="BE3" s="83" t="n"/>
-      <c r="BF3" s="76" t="n"/>
-      <c r="BG3" s="76" t="n"/>
-      <c r="BH3" s="83" t="n"/>
-      <c r="BI3" s="76" t="n"/>
-      <c r="BJ3" s="76" t="n"/>
-      <c r="BK3" s="76" t="n"/>
-      <c r="BL3" s="76" t="n"/>
-      <c r="BM3" s="76" t="n"/>
-      <c r="BN3" s="76" t="n"/>
-      <c r="BO3" s="76" t="n"/>
-      <c r="BP3" s="76" t="n"/>
-      <c r="BQ3" s="76" t="n"/>
-      <c r="BR3" s="76" t="n"/>
-      <c r="BS3" s="76" t="n"/>
-      <c r="BT3" s="76" t="n"/>
-      <c r="BU3" s="76" t="n"/>
-      <c r="BV3" s="76" t="n"/>
-      <c r="BW3" s="76" t="n"/>
-      <c r="BX3" s="76" t="n"/>
-      <c r="BY3" s="76" t="n"/>
-      <c r="BZ3" s="76" t="n"/>
-      <c r="CA3" s="76" t="n"/>
-      <c r="CB3" s="76" t="n"/>
-      <c r="CC3" s="76" t="n"/>
-      <c r="CD3" s="76" t="n"/>
-      <c r="CE3" s="76" t="n"/>
-      <c r="CF3" s="76" t="n"/>
-      <c r="CG3" s="76" t="n"/>
-      <c r="CH3" s="76" t="n"/>
-      <c r="CI3" s="76" t="n"/>
-      <c r="CJ3" s="76" t="n"/>
-      <c r="CK3" s="76" t="n"/>
-      <c r="CL3" s="76" t="n"/>
-      <c r="CM3" s="76" t="n"/>
-      <c r="CN3" s="76" t="n"/>
-      <c r="CO3" s="76" t="n"/>
-      <c r="CP3" s="76" t="n"/>
-      <c r="CQ3" s="76" t="n"/>
-      <c r="CR3" s="76" t="n"/>
-      <c r="CS3" s="76" t="n"/>
+      <c r="R3" s="91" t="n"/>
+      <c r="S3" s="84" t="n"/>
+      <c r="T3" s="84" t="n"/>
+      <c r="U3" s="91" t="n"/>
+      <c r="V3" s="84" t="n"/>
+      <c r="W3" s="84" t="n"/>
+      <c r="X3" s="91" t="n"/>
+      <c r="Y3" s="84" t="n"/>
+      <c r="Z3" s="84" t="n"/>
+      <c r="AA3" s="91" t="n"/>
+      <c r="AB3" s="84" t="n"/>
+      <c r="AC3" s="84" t="n"/>
+      <c r="AD3" s="91" t="n"/>
+      <c r="AE3" s="84" t="n"/>
+      <c r="AF3" s="84" t="n"/>
+      <c r="AG3" s="91" t="n"/>
+      <c r="AH3" s="84" t="n"/>
+      <c r="AI3" s="84" t="n"/>
+      <c r="AJ3" s="91" t="n"/>
+      <c r="AK3" s="84" t="n"/>
+      <c r="AL3" s="84" t="n"/>
+      <c r="AM3" s="91" t="n"/>
+      <c r="AN3" s="84" t="n"/>
+      <c r="AO3" s="84" t="n"/>
+      <c r="AP3" s="91" t="n"/>
+      <c r="AQ3" s="84" t="n"/>
+      <c r="AR3" s="84" t="n"/>
+      <c r="AS3" s="91" t="n"/>
+      <c r="AT3" s="84" t="n"/>
+      <c r="AU3" s="84" t="n"/>
+      <c r="AV3" s="91" t="n"/>
+      <c r="AW3" s="84" t="n"/>
+      <c r="AX3" s="84" t="n"/>
+      <c r="AY3" s="91" t="n"/>
+      <c r="AZ3" s="84" t="n"/>
+      <c r="BA3" s="84" t="n"/>
+      <c r="BB3" s="91" t="n"/>
+      <c r="BC3" s="84" t="n"/>
+      <c r="BD3" s="84" t="n"/>
+      <c r="BE3" s="91" t="n"/>
+      <c r="BF3" s="84" t="n"/>
+      <c r="BG3" s="84" t="n"/>
+      <c r="BH3" s="91" t="n"/>
+      <c r="BI3" s="84" t="n"/>
+      <c r="BJ3" s="84" t="n"/>
+      <c r="BK3" s="84" t="n"/>
+      <c r="BL3" s="84" t="n"/>
+      <c r="BM3" s="84" t="n"/>
+      <c r="BN3" s="84" t="n"/>
+      <c r="BO3" s="84" t="n"/>
+      <c r="BP3" s="84" t="n"/>
+      <c r="BQ3" s="84" t="n"/>
+      <c r="BR3" s="84" t="n"/>
+      <c r="BS3" s="84" t="n"/>
+      <c r="BT3" s="84" t="n"/>
+      <c r="BU3" s="84" t="n"/>
+      <c r="BV3" s="84" t="n"/>
+      <c r="BW3" s="84" t="n"/>
+      <c r="BX3" s="84" t="n"/>
+      <c r="BY3" s="84" t="n"/>
+      <c r="BZ3" s="84" t="n"/>
+      <c r="CA3" s="84" t="n"/>
+      <c r="CB3" s="84" t="n"/>
+      <c r="CC3" s="84" t="n"/>
+      <c r="CD3" s="84" t="n"/>
+      <c r="CE3" s="84" t="n"/>
+      <c r="CF3" s="84" t="n"/>
+      <c r="CG3" s="84" t="n"/>
+      <c r="CH3" s="84" t="n"/>
+      <c r="CI3" s="84" t="n"/>
+      <c r="CJ3" s="84" t="n"/>
+      <c r="CK3" s="84" t="n"/>
+      <c r="CL3" s="84" t="n"/>
+      <c r="CM3" s="84" t="n"/>
+      <c r="CN3" s="84" t="n"/>
+      <c r="CO3" s="84" t="n"/>
+      <c r="CP3" s="84" t="n"/>
+      <c r="CQ3" s="84" t="n"/>
+      <c r="CR3" s="84" t="n"/>
+      <c r="CS3" s="84" t="n"/>
     </row>
     <row r="4" ht="15.15" customHeight="1" s="9">
       <c r="A4" s="0" t="inlineStr">
@@ -6459,7 +6598,7 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:35</t>
+          <t>20191215 16:20:30</t>
         </is>
       </c>
       <c r="L4" s="64">
@@ -6476,86 +6615,86 @@
       <c r="P4" s="0" t="n">
         <v>4120</v>
       </c>
-      <c r="R4" s="83" t="n"/>
-      <c r="S4" s="76" t="n"/>
-      <c r="T4" s="76" t="n"/>
-      <c r="U4" s="83" t="n"/>
-      <c r="V4" s="76" t="n"/>
-      <c r="W4" s="76" t="n"/>
-      <c r="X4" s="83" t="n"/>
-      <c r="Y4" s="76" t="n"/>
-      <c r="Z4" s="76" t="n"/>
-      <c r="AA4" s="83" t="n"/>
-      <c r="AB4" s="76" t="n"/>
-      <c r="AC4" s="76" t="n"/>
-      <c r="AD4" s="83" t="n"/>
-      <c r="AE4" s="76" t="n"/>
-      <c r="AF4" s="76" t="n"/>
-      <c r="AG4" s="83" t="n"/>
-      <c r="AH4" s="76" t="n"/>
-      <c r="AI4" s="76" t="n"/>
-      <c r="AJ4" s="83" t="n"/>
-      <c r="AK4" s="76" t="n"/>
-      <c r="AL4" s="76" t="n"/>
-      <c r="AM4" s="83" t="n"/>
-      <c r="AN4" s="76" t="n"/>
-      <c r="AO4" s="76" t="n"/>
-      <c r="AP4" s="83" t="n"/>
-      <c r="AQ4" s="76" t="n"/>
-      <c r="AR4" s="76" t="n"/>
-      <c r="AS4" s="83" t="n"/>
-      <c r="AT4" s="76" t="n"/>
-      <c r="AU4" s="76" t="n"/>
-      <c r="AV4" s="83" t="n"/>
-      <c r="AW4" s="76" t="n"/>
-      <c r="AX4" s="76" t="n"/>
-      <c r="AY4" s="83" t="n"/>
-      <c r="AZ4" s="76" t="n"/>
-      <c r="BA4" s="76" t="n"/>
-      <c r="BB4" s="83" t="n"/>
-      <c r="BC4" s="76" t="n"/>
-      <c r="BD4" s="76" t="n"/>
-      <c r="BE4" s="83" t="n"/>
-      <c r="BF4" s="76" t="n"/>
-      <c r="BG4" s="76" t="n"/>
-      <c r="BH4" s="83" t="n"/>
-      <c r="BI4" s="76" t="n"/>
-      <c r="BJ4" s="76" t="n"/>
-      <c r="BK4" s="76" t="n"/>
-      <c r="BL4" s="76" t="n"/>
-      <c r="BM4" s="76" t="n"/>
-      <c r="BN4" s="76" t="n"/>
-      <c r="BO4" s="76" t="n"/>
-      <c r="BP4" s="76" t="n"/>
-      <c r="BQ4" s="76" t="n"/>
-      <c r="BR4" s="76" t="n"/>
-      <c r="BS4" s="76" t="n"/>
-      <c r="BT4" s="76" t="n"/>
-      <c r="BU4" s="76" t="n"/>
-      <c r="BV4" s="76" t="n"/>
-      <c r="BW4" s="76" t="n"/>
-      <c r="BX4" s="76" t="n"/>
-      <c r="BY4" s="76" t="n"/>
-      <c r="BZ4" s="76" t="n"/>
-      <c r="CA4" s="76" t="n"/>
-      <c r="CB4" s="76" t="n"/>
-      <c r="CC4" s="76" t="n"/>
-      <c r="CD4" s="76" t="n"/>
-      <c r="CE4" s="76" t="n"/>
-      <c r="CF4" s="76" t="n"/>
-      <c r="CG4" s="76" t="n"/>
-      <c r="CH4" s="76" t="n"/>
-      <c r="CI4" s="76" t="n"/>
-      <c r="CJ4" s="76" t="n"/>
-      <c r="CK4" s="76" t="n"/>
-      <c r="CL4" s="76" t="n"/>
-      <c r="CM4" s="76" t="n"/>
-      <c r="CN4" s="76" t="n"/>
-      <c r="CO4" s="76" t="n"/>
-      <c r="CP4" s="76" t="n"/>
-      <c r="CQ4" s="76" t="n"/>
-      <c r="CR4" s="76" t="n"/>
-      <c r="CS4" s="76" t="n"/>
+      <c r="R4" s="91" t="n"/>
+      <c r="S4" s="84" t="n"/>
+      <c r="T4" s="84" t="n"/>
+      <c r="U4" s="91" t="n"/>
+      <c r="V4" s="84" t="n"/>
+      <c r="W4" s="84" t="n"/>
+      <c r="X4" s="91" t="n"/>
+      <c r="Y4" s="84" t="n"/>
+      <c r="Z4" s="84" t="n"/>
+      <c r="AA4" s="91" t="n"/>
+      <c r="AB4" s="84" t="n"/>
+      <c r="AC4" s="84" t="n"/>
+      <c r="AD4" s="91" t="n"/>
+      <c r="AE4" s="84" t="n"/>
+      <c r="AF4" s="84" t="n"/>
+      <c r="AG4" s="91" t="n"/>
+      <c r="AH4" s="84" t="n"/>
+      <c r="AI4" s="84" t="n"/>
+      <c r="AJ4" s="91" t="n"/>
+      <c r="AK4" s="84" t="n"/>
+      <c r="AL4" s="84" t="n"/>
+      <c r="AM4" s="91" t="n"/>
+      <c r="AN4" s="84" t="n"/>
+      <c r="AO4" s="84" t="n"/>
+      <c r="AP4" s="91" t="n"/>
+      <c r="AQ4" s="84" t="n"/>
+      <c r="AR4" s="84" t="n"/>
+      <c r="AS4" s="91" t="n"/>
+      <c r="AT4" s="84" t="n"/>
+      <c r="AU4" s="84" t="n"/>
+      <c r="AV4" s="91" t="n"/>
+      <c r="AW4" s="84" t="n"/>
+      <c r="AX4" s="84" t="n"/>
+      <c r="AY4" s="91" t="n"/>
+      <c r="AZ4" s="84" t="n"/>
+      <c r="BA4" s="84" t="n"/>
+      <c r="BB4" s="91" t="n"/>
+      <c r="BC4" s="84" t="n"/>
+      <c r="BD4" s="84" t="n"/>
+      <c r="BE4" s="91" t="n"/>
+      <c r="BF4" s="84" t="n"/>
+      <c r="BG4" s="84" t="n"/>
+      <c r="BH4" s="91" t="n"/>
+      <c r="BI4" s="84" t="n"/>
+      <c r="BJ4" s="84" t="n"/>
+      <c r="BK4" s="84" t="n"/>
+      <c r="BL4" s="84" t="n"/>
+      <c r="BM4" s="84" t="n"/>
+      <c r="BN4" s="84" t="n"/>
+      <c r="BO4" s="84" t="n"/>
+      <c r="BP4" s="84" t="n"/>
+      <c r="BQ4" s="84" t="n"/>
+      <c r="BR4" s="84" t="n"/>
+      <c r="BS4" s="84" t="n"/>
+      <c r="BT4" s="84" t="n"/>
+      <c r="BU4" s="84" t="n"/>
+      <c r="BV4" s="84" t="n"/>
+      <c r="BW4" s="84" t="n"/>
+      <c r="BX4" s="84" t="n"/>
+      <c r="BY4" s="84" t="n"/>
+      <c r="BZ4" s="84" t="n"/>
+      <c r="CA4" s="84" t="n"/>
+      <c r="CB4" s="84" t="n"/>
+      <c r="CC4" s="84" t="n"/>
+      <c r="CD4" s="84" t="n"/>
+      <c r="CE4" s="84" t="n"/>
+      <c r="CF4" s="84" t="n"/>
+      <c r="CG4" s="84" t="n"/>
+      <c r="CH4" s="84" t="n"/>
+      <c r="CI4" s="84" t="n"/>
+      <c r="CJ4" s="84" t="n"/>
+      <c r="CK4" s="84" t="n"/>
+      <c r="CL4" s="84" t="n"/>
+      <c r="CM4" s="84" t="n"/>
+      <c r="CN4" s="84" t="n"/>
+      <c r="CO4" s="84" t="n"/>
+      <c r="CP4" s="84" t="n"/>
+      <c r="CQ4" s="84" t="n"/>
+      <c r="CR4" s="84" t="n"/>
+      <c r="CS4" s="84" t="n"/>
     </row>
     <row r="5" ht="15.15" customHeight="1" s="9">
       <c r="A5" s="0" t="inlineStr">
@@ -6602,86 +6741,86 @@
       <c r="P5" s="0" t="n">
         <v>5080</v>
       </c>
-      <c r="R5" s="83" t="n"/>
-      <c r="S5" s="76" t="n"/>
-      <c r="T5" s="76" t="n"/>
-      <c r="U5" s="83" t="n"/>
-      <c r="V5" s="76" t="n"/>
-      <c r="W5" s="76" t="n"/>
-      <c r="X5" s="83" t="n"/>
-      <c r="Y5" s="76" t="n"/>
-      <c r="Z5" s="76" t="n"/>
-      <c r="AA5" s="83" t="n"/>
-      <c r="AB5" s="76" t="n"/>
-      <c r="AC5" s="76" t="n"/>
-      <c r="AD5" s="83" t="n"/>
-      <c r="AE5" s="76" t="n"/>
-      <c r="AF5" s="76" t="n"/>
-      <c r="AG5" s="83" t="n"/>
-      <c r="AH5" s="76" t="n"/>
-      <c r="AI5" s="76" t="n"/>
-      <c r="AJ5" s="83" t="n"/>
-      <c r="AK5" s="76" t="n"/>
-      <c r="AL5" s="76" t="n"/>
-      <c r="AM5" s="83" t="n"/>
-      <c r="AN5" s="76" t="n"/>
-      <c r="AO5" s="76" t="n"/>
-      <c r="AP5" s="83" t="n"/>
-      <c r="AQ5" s="76" t="n"/>
-      <c r="AR5" s="76" t="n"/>
-      <c r="AS5" s="83" t="n"/>
-      <c r="AT5" s="76" t="n"/>
-      <c r="AU5" s="76" t="n"/>
-      <c r="AV5" s="83" t="n"/>
-      <c r="AW5" s="76" t="n"/>
-      <c r="AX5" s="76" t="n"/>
-      <c r="AY5" s="83" t="n"/>
-      <c r="AZ5" s="76" t="n"/>
-      <c r="BA5" s="76" t="n"/>
-      <c r="BB5" s="83" t="n"/>
-      <c r="BC5" s="76" t="n"/>
-      <c r="BD5" s="76" t="n"/>
-      <c r="BE5" s="83" t="n"/>
-      <c r="BF5" s="76" t="n"/>
-      <c r="BG5" s="76" t="n"/>
-      <c r="BH5" s="83" t="n"/>
-      <c r="BI5" s="76" t="n"/>
-      <c r="BJ5" s="76" t="n"/>
-      <c r="BK5" s="76" t="n"/>
-      <c r="BL5" s="76" t="n"/>
-      <c r="BM5" s="76" t="n"/>
-      <c r="BN5" s="76" t="n"/>
-      <c r="BO5" s="76" t="n"/>
-      <c r="BP5" s="76" t="n"/>
-      <c r="BQ5" s="76" t="n"/>
-      <c r="BR5" s="76" t="n"/>
-      <c r="BS5" s="76" t="n"/>
-      <c r="BT5" s="76" t="n"/>
-      <c r="BU5" s="76" t="n"/>
-      <c r="BV5" s="76" t="n"/>
-      <c r="BW5" s="76" t="n"/>
-      <c r="BX5" s="76" t="n"/>
-      <c r="BY5" s="76" t="n"/>
-      <c r="BZ5" s="76" t="n"/>
-      <c r="CA5" s="76" t="n"/>
-      <c r="CB5" s="76" t="n"/>
-      <c r="CC5" s="76" t="n"/>
-      <c r="CD5" s="76" t="n"/>
-      <c r="CE5" s="76" t="n"/>
-      <c r="CF5" s="76" t="n"/>
-      <c r="CG5" s="76" t="n"/>
-      <c r="CH5" s="76" t="n"/>
-      <c r="CI5" s="76" t="n"/>
-      <c r="CJ5" s="76" t="n"/>
-      <c r="CK5" s="76" t="n"/>
-      <c r="CL5" s="76" t="n"/>
-      <c r="CM5" s="76" t="n"/>
-      <c r="CN5" s="76" t="n"/>
-      <c r="CO5" s="76" t="n"/>
-      <c r="CP5" s="76" t="n"/>
-      <c r="CQ5" s="76" t="n"/>
-      <c r="CR5" s="76" t="n"/>
-      <c r="CS5" s="76" t="n"/>
+      <c r="R5" s="91" t="n"/>
+      <c r="S5" s="84" t="n"/>
+      <c r="T5" s="84" t="n"/>
+      <c r="U5" s="91" t="n"/>
+      <c r="V5" s="84" t="n"/>
+      <c r="W5" s="84" t="n"/>
+      <c r="X5" s="91" t="n"/>
+      <c r="Y5" s="84" t="n"/>
+      <c r="Z5" s="84" t="n"/>
+      <c r="AA5" s="91" t="n"/>
+      <c r="AB5" s="84" t="n"/>
+      <c r="AC5" s="84" t="n"/>
+      <c r="AD5" s="91" t="n"/>
+      <c r="AE5" s="84" t="n"/>
+      <c r="AF5" s="84" t="n"/>
+      <c r="AG5" s="91" t="n"/>
+      <c r="AH5" s="84" t="n"/>
+      <c r="AI5" s="84" t="n"/>
+      <c r="AJ5" s="91" t="n"/>
+      <c r="AK5" s="84" t="n"/>
+      <c r="AL5" s="84" t="n"/>
+      <c r="AM5" s="91" t="n"/>
+      <c r="AN5" s="84" t="n"/>
+      <c r="AO5" s="84" t="n"/>
+      <c r="AP5" s="91" t="n"/>
+      <c r="AQ5" s="84" t="n"/>
+      <c r="AR5" s="84" t="n"/>
+      <c r="AS5" s="91" t="n"/>
+      <c r="AT5" s="84" t="n"/>
+      <c r="AU5" s="84" t="n"/>
+      <c r="AV5" s="91" t="n"/>
+      <c r="AW5" s="84" t="n"/>
+      <c r="AX5" s="84" t="n"/>
+      <c r="AY5" s="91" t="n"/>
+      <c r="AZ5" s="84" t="n"/>
+      <c r="BA5" s="84" t="n"/>
+      <c r="BB5" s="91" t="n"/>
+      <c r="BC5" s="84" t="n"/>
+      <c r="BD5" s="84" t="n"/>
+      <c r="BE5" s="91" t="n"/>
+      <c r="BF5" s="84" t="n"/>
+      <c r="BG5" s="84" t="n"/>
+      <c r="BH5" s="91" t="n"/>
+      <c r="BI5" s="84" t="n"/>
+      <c r="BJ5" s="84" t="n"/>
+      <c r="BK5" s="84" t="n"/>
+      <c r="BL5" s="84" t="n"/>
+      <c r="BM5" s="84" t="n"/>
+      <c r="BN5" s="84" t="n"/>
+      <c r="BO5" s="84" t="n"/>
+      <c r="BP5" s="84" t="n"/>
+      <c r="BQ5" s="84" t="n"/>
+      <c r="BR5" s="84" t="n"/>
+      <c r="BS5" s="84" t="n"/>
+      <c r="BT5" s="84" t="n"/>
+      <c r="BU5" s="84" t="n"/>
+      <c r="BV5" s="84" t="n"/>
+      <c r="BW5" s="84" t="n"/>
+      <c r="BX5" s="84" t="n"/>
+      <c r="BY5" s="84" t="n"/>
+      <c r="BZ5" s="84" t="n"/>
+      <c r="CA5" s="84" t="n"/>
+      <c r="CB5" s="84" t="n"/>
+      <c r="CC5" s="84" t="n"/>
+      <c r="CD5" s="84" t="n"/>
+      <c r="CE5" s="84" t="n"/>
+      <c r="CF5" s="84" t="n"/>
+      <c r="CG5" s="84" t="n"/>
+      <c r="CH5" s="84" t="n"/>
+      <c r="CI5" s="84" t="n"/>
+      <c r="CJ5" s="84" t="n"/>
+      <c r="CK5" s="84" t="n"/>
+      <c r="CL5" s="84" t="n"/>
+      <c r="CM5" s="84" t="n"/>
+      <c r="CN5" s="84" t="n"/>
+      <c r="CO5" s="84" t="n"/>
+      <c r="CP5" s="84" t="n"/>
+      <c r="CQ5" s="84" t="n"/>
+      <c r="CR5" s="84" t="n"/>
+      <c r="CS5" s="84" t="n"/>
     </row>
     <row r="6" ht="15.15" customHeight="1" s="9">
       <c r="A6" s="0" t="inlineStr">
@@ -6711,7 +6850,7 @@
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:30</t>
         </is>
       </c>
       <c r="L6" s="64">
@@ -6728,86 +6867,86 @@
       <c r="P6" s="0" t="n">
         <v>5850</v>
       </c>
-      <c r="R6" s="83" t="n"/>
-      <c r="S6" s="76" t="n"/>
-      <c r="T6" s="76" t="n"/>
-      <c r="U6" s="83" t="n"/>
-      <c r="V6" s="76" t="n"/>
-      <c r="W6" s="76" t="n"/>
-      <c r="X6" s="83" t="n"/>
-      <c r="Y6" s="76" t="n"/>
-      <c r="Z6" s="76" t="n"/>
-      <c r="AA6" s="83" t="n"/>
-      <c r="AB6" s="76" t="n"/>
-      <c r="AC6" s="76" t="n"/>
-      <c r="AD6" s="83" t="n"/>
-      <c r="AE6" s="76" t="n"/>
-      <c r="AF6" s="76" t="n"/>
-      <c r="AG6" s="83" t="n"/>
-      <c r="AH6" s="76" t="n"/>
-      <c r="AI6" s="76" t="n"/>
-      <c r="AJ6" s="83" t="n"/>
-      <c r="AK6" s="76" t="n"/>
-      <c r="AL6" s="76" t="n"/>
-      <c r="AM6" s="83" t="n"/>
-      <c r="AN6" s="76" t="n"/>
-      <c r="AO6" s="76" t="n"/>
-      <c r="AP6" s="83" t="n"/>
-      <c r="AQ6" s="76" t="n"/>
-      <c r="AR6" s="76" t="n"/>
-      <c r="AS6" s="83" t="n"/>
-      <c r="AT6" s="76" t="n"/>
-      <c r="AU6" s="76" t="n"/>
-      <c r="AV6" s="83" t="n"/>
-      <c r="AW6" s="76" t="n"/>
-      <c r="AX6" s="76" t="n"/>
-      <c r="AY6" s="83" t="n"/>
-      <c r="AZ6" s="76" t="n"/>
-      <c r="BA6" s="76" t="n"/>
-      <c r="BB6" s="83" t="n"/>
-      <c r="BC6" s="76" t="n"/>
-      <c r="BD6" s="76" t="n"/>
-      <c r="BE6" s="83" t="n"/>
-      <c r="BF6" s="76" t="n"/>
-      <c r="BG6" s="76" t="n"/>
-      <c r="BH6" s="83" t="n"/>
-      <c r="BI6" s="76" t="n"/>
-      <c r="BJ6" s="76" t="n"/>
-      <c r="BK6" s="76" t="n"/>
-      <c r="BL6" s="76" t="n"/>
-      <c r="BM6" s="76" t="n"/>
-      <c r="BN6" s="76" t="n"/>
-      <c r="BO6" s="76" t="n"/>
-      <c r="BP6" s="76" t="n"/>
-      <c r="BQ6" s="76" t="n"/>
-      <c r="BR6" s="76" t="n"/>
-      <c r="BS6" s="76" t="n"/>
-      <c r="BT6" s="76" t="n"/>
-      <c r="BU6" s="76" t="n"/>
-      <c r="BV6" s="76" t="n"/>
-      <c r="BW6" s="76" t="n"/>
-      <c r="BX6" s="76" t="n"/>
-      <c r="BY6" s="76" t="n"/>
-      <c r="BZ6" s="76" t="n"/>
-      <c r="CA6" s="76" t="n"/>
-      <c r="CB6" s="76" t="n"/>
-      <c r="CC6" s="76" t="n"/>
-      <c r="CD6" s="76" t="n"/>
-      <c r="CE6" s="76" t="n"/>
-      <c r="CF6" s="76" t="n"/>
-      <c r="CG6" s="76" t="n"/>
-      <c r="CH6" s="76" t="n"/>
-      <c r="CI6" s="76" t="n"/>
-      <c r="CJ6" s="76" t="n"/>
-      <c r="CK6" s="76" t="n"/>
-      <c r="CL6" s="76" t="n"/>
-      <c r="CM6" s="76" t="n"/>
-      <c r="CN6" s="76" t="n"/>
-      <c r="CO6" s="76" t="n"/>
-      <c r="CP6" s="76" t="n"/>
-      <c r="CQ6" s="76" t="n"/>
-      <c r="CR6" s="76" t="n"/>
-      <c r="CS6" s="76" t="n"/>
+      <c r="R6" s="91" t="n"/>
+      <c r="S6" s="84" t="n"/>
+      <c r="T6" s="84" t="n"/>
+      <c r="U6" s="91" t="n"/>
+      <c r="V6" s="84" t="n"/>
+      <c r="W6" s="84" t="n"/>
+      <c r="X6" s="91" t="n"/>
+      <c r="Y6" s="84" t="n"/>
+      <c r="Z6" s="84" t="n"/>
+      <c r="AA6" s="91" t="n"/>
+      <c r="AB6" s="84" t="n"/>
+      <c r="AC6" s="84" t="n"/>
+      <c r="AD6" s="91" t="n"/>
+      <c r="AE6" s="84" t="n"/>
+      <c r="AF6" s="84" t="n"/>
+      <c r="AG6" s="91" t="n"/>
+      <c r="AH6" s="84" t="n"/>
+      <c r="AI6" s="84" t="n"/>
+      <c r="AJ6" s="91" t="n"/>
+      <c r="AK6" s="84" t="n"/>
+      <c r="AL6" s="84" t="n"/>
+      <c r="AM6" s="91" t="n"/>
+      <c r="AN6" s="84" t="n"/>
+      <c r="AO6" s="84" t="n"/>
+      <c r="AP6" s="91" t="n"/>
+      <c r="AQ6" s="84" t="n"/>
+      <c r="AR6" s="84" t="n"/>
+      <c r="AS6" s="91" t="n"/>
+      <c r="AT6" s="84" t="n"/>
+      <c r="AU6" s="84" t="n"/>
+      <c r="AV6" s="91" t="n"/>
+      <c r="AW6" s="84" t="n"/>
+      <c r="AX6" s="84" t="n"/>
+      <c r="AY6" s="91" t="n"/>
+      <c r="AZ6" s="84" t="n"/>
+      <c r="BA6" s="84" t="n"/>
+      <c r="BB6" s="91" t="n"/>
+      <c r="BC6" s="84" t="n"/>
+      <c r="BD6" s="84" t="n"/>
+      <c r="BE6" s="91" t="n"/>
+      <c r="BF6" s="84" t="n"/>
+      <c r="BG6" s="84" t="n"/>
+      <c r="BH6" s="91" t="n"/>
+      <c r="BI6" s="84" t="n"/>
+      <c r="BJ6" s="84" t="n"/>
+      <c r="BK6" s="84" t="n"/>
+      <c r="BL6" s="84" t="n"/>
+      <c r="BM6" s="84" t="n"/>
+      <c r="BN6" s="84" t="n"/>
+      <c r="BO6" s="84" t="n"/>
+      <c r="BP6" s="84" t="n"/>
+      <c r="BQ6" s="84" t="n"/>
+      <c r="BR6" s="84" t="n"/>
+      <c r="BS6" s="84" t="n"/>
+      <c r="BT6" s="84" t="n"/>
+      <c r="BU6" s="84" t="n"/>
+      <c r="BV6" s="84" t="n"/>
+      <c r="BW6" s="84" t="n"/>
+      <c r="BX6" s="84" t="n"/>
+      <c r="BY6" s="84" t="n"/>
+      <c r="BZ6" s="84" t="n"/>
+      <c r="CA6" s="84" t="n"/>
+      <c r="CB6" s="84" t="n"/>
+      <c r="CC6" s="84" t="n"/>
+      <c r="CD6" s="84" t="n"/>
+      <c r="CE6" s="84" t="n"/>
+      <c r="CF6" s="84" t="n"/>
+      <c r="CG6" s="84" t="n"/>
+      <c r="CH6" s="84" t="n"/>
+      <c r="CI6" s="84" t="n"/>
+      <c r="CJ6" s="84" t="n"/>
+      <c r="CK6" s="84" t="n"/>
+      <c r="CL6" s="84" t="n"/>
+      <c r="CM6" s="84" t="n"/>
+      <c r="CN6" s="84" t="n"/>
+      <c r="CO6" s="84" t="n"/>
+      <c r="CP6" s="84" t="n"/>
+      <c r="CQ6" s="84" t="n"/>
+      <c r="CR6" s="84" t="n"/>
+      <c r="CS6" s="84" t="n"/>
     </row>
     <row r="7" ht="15.15" customHeight="1" s="9">
       <c r="A7" s="0" t="inlineStr">
@@ -6854,86 +6993,86 @@
       <c r="P7" s="0" t="n">
         <v>9472</v>
       </c>
-      <c r="R7" s="83" t="n"/>
-      <c r="S7" s="76" t="n"/>
-      <c r="T7" s="76" t="n"/>
-      <c r="U7" s="83" t="n"/>
-      <c r="V7" s="76" t="n"/>
-      <c r="W7" s="76" t="n"/>
-      <c r="X7" s="83" t="n"/>
-      <c r="Y7" s="76" t="n"/>
-      <c r="Z7" s="76" t="n"/>
-      <c r="AA7" s="83" t="n"/>
-      <c r="AB7" s="76" t="n"/>
-      <c r="AC7" s="76" t="n"/>
-      <c r="AD7" s="83" t="n"/>
-      <c r="AE7" s="76" t="n"/>
-      <c r="AF7" s="76" t="n"/>
-      <c r="AG7" s="83" t="n"/>
-      <c r="AH7" s="76" t="n"/>
-      <c r="AI7" s="76" t="n"/>
-      <c r="AJ7" s="83" t="n"/>
-      <c r="AK7" s="76" t="n"/>
-      <c r="AL7" s="76" t="n"/>
-      <c r="AM7" s="83" t="n"/>
-      <c r="AN7" s="76" t="n"/>
-      <c r="AO7" s="76" t="n"/>
-      <c r="AP7" s="83" t="n"/>
-      <c r="AQ7" s="76" t="n"/>
-      <c r="AR7" s="76" t="n"/>
-      <c r="AS7" s="83" t="n"/>
-      <c r="AT7" s="76" t="n"/>
-      <c r="AU7" s="76" t="n"/>
-      <c r="AV7" s="83" t="n"/>
-      <c r="AW7" s="76" t="n"/>
-      <c r="AX7" s="76" t="n"/>
-      <c r="AY7" s="83" t="n"/>
-      <c r="AZ7" s="76" t="n"/>
-      <c r="BA7" s="76" t="n"/>
-      <c r="BB7" s="83" t="n"/>
-      <c r="BC7" s="76" t="n"/>
-      <c r="BD7" s="76" t="n"/>
-      <c r="BE7" s="83" t="n"/>
-      <c r="BF7" s="76" t="n"/>
-      <c r="BG7" s="76" t="n"/>
-      <c r="BH7" s="83" t="n"/>
-      <c r="BI7" s="76" t="n"/>
-      <c r="BJ7" s="76" t="n"/>
-      <c r="BK7" s="76" t="n"/>
-      <c r="BL7" s="76" t="n"/>
-      <c r="BM7" s="76" t="n"/>
-      <c r="BN7" s="76" t="n"/>
-      <c r="BO7" s="76" t="n"/>
-      <c r="BP7" s="76" t="n"/>
-      <c r="BQ7" s="76" t="n"/>
-      <c r="BR7" s="76" t="n"/>
-      <c r="BS7" s="76" t="n"/>
-      <c r="BT7" s="76" t="n"/>
-      <c r="BU7" s="76" t="n"/>
-      <c r="BV7" s="76" t="n"/>
-      <c r="BW7" s="76" t="n"/>
-      <c r="BX7" s="76" t="n"/>
-      <c r="BY7" s="76" t="n"/>
-      <c r="BZ7" s="76" t="n"/>
-      <c r="CA7" s="76" t="n"/>
-      <c r="CB7" s="76" t="n"/>
-      <c r="CC7" s="76" t="n"/>
-      <c r="CD7" s="76" t="n"/>
-      <c r="CE7" s="76" t="n"/>
-      <c r="CF7" s="76" t="n"/>
-      <c r="CG7" s="76" t="n"/>
-      <c r="CH7" s="76" t="n"/>
-      <c r="CI7" s="76" t="n"/>
-      <c r="CJ7" s="76" t="n"/>
-      <c r="CK7" s="76" t="n"/>
-      <c r="CL7" s="76" t="n"/>
-      <c r="CM7" s="76" t="n"/>
-      <c r="CN7" s="76" t="n"/>
-      <c r="CO7" s="76" t="n"/>
-      <c r="CP7" s="76" t="n"/>
-      <c r="CQ7" s="76" t="n"/>
-      <c r="CR7" s="76" t="n"/>
-      <c r="CS7" s="76" t="n"/>
+      <c r="R7" s="91" t="n"/>
+      <c r="S7" s="84" t="n"/>
+      <c r="T7" s="84" t="n"/>
+      <c r="U7" s="91" t="n"/>
+      <c r="V7" s="84" t="n"/>
+      <c r="W7" s="84" t="n"/>
+      <c r="X7" s="91" t="n"/>
+      <c r="Y7" s="84" t="n"/>
+      <c r="Z7" s="84" t="n"/>
+      <c r="AA7" s="91" t="n"/>
+      <c r="AB7" s="84" t="n"/>
+      <c r="AC7" s="84" t="n"/>
+      <c r="AD7" s="91" t="n"/>
+      <c r="AE7" s="84" t="n"/>
+      <c r="AF7" s="84" t="n"/>
+      <c r="AG7" s="91" t="n"/>
+      <c r="AH7" s="84" t="n"/>
+      <c r="AI7" s="84" t="n"/>
+      <c r="AJ7" s="91" t="n"/>
+      <c r="AK7" s="84" t="n"/>
+      <c r="AL7" s="84" t="n"/>
+      <c r="AM7" s="91" t="n"/>
+      <c r="AN7" s="84" t="n"/>
+      <c r="AO7" s="84" t="n"/>
+      <c r="AP7" s="91" t="n"/>
+      <c r="AQ7" s="84" t="n"/>
+      <c r="AR7" s="84" t="n"/>
+      <c r="AS7" s="91" t="n"/>
+      <c r="AT7" s="84" t="n"/>
+      <c r="AU7" s="84" t="n"/>
+      <c r="AV7" s="91" t="n"/>
+      <c r="AW7" s="84" t="n"/>
+      <c r="AX7" s="84" t="n"/>
+      <c r="AY7" s="91" t="n"/>
+      <c r="AZ7" s="84" t="n"/>
+      <c r="BA7" s="84" t="n"/>
+      <c r="BB7" s="91" t="n"/>
+      <c r="BC7" s="84" t="n"/>
+      <c r="BD7" s="84" t="n"/>
+      <c r="BE7" s="91" t="n"/>
+      <c r="BF7" s="84" t="n"/>
+      <c r="BG7" s="84" t="n"/>
+      <c r="BH7" s="91" t="n"/>
+      <c r="BI7" s="84" t="n"/>
+      <c r="BJ7" s="84" t="n"/>
+      <c r="BK7" s="84" t="n"/>
+      <c r="BL7" s="84" t="n"/>
+      <c r="BM7" s="84" t="n"/>
+      <c r="BN7" s="84" t="n"/>
+      <c r="BO7" s="84" t="n"/>
+      <c r="BP7" s="84" t="n"/>
+      <c r="BQ7" s="84" t="n"/>
+      <c r="BR7" s="84" t="n"/>
+      <c r="BS7" s="84" t="n"/>
+      <c r="BT7" s="84" t="n"/>
+      <c r="BU7" s="84" t="n"/>
+      <c r="BV7" s="84" t="n"/>
+      <c r="BW7" s="84" t="n"/>
+      <c r="BX7" s="84" t="n"/>
+      <c r="BY7" s="84" t="n"/>
+      <c r="BZ7" s="84" t="n"/>
+      <c r="CA7" s="84" t="n"/>
+      <c r="CB7" s="84" t="n"/>
+      <c r="CC7" s="84" t="n"/>
+      <c r="CD7" s="84" t="n"/>
+      <c r="CE7" s="84" t="n"/>
+      <c r="CF7" s="84" t="n"/>
+      <c r="CG7" s="84" t="n"/>
+      <c r="CH7" s="84" t="n"/>
+      <c r="CI7" s="84" t="n"/>
+      <c r="CJ7" s="84" t="n"/>
+      <c r="CK7" s="84" t="n"/>
+      <c r="CL7" s="84" t="n"/>
+      <c r="CM7" s="84" t="n"/>
+      <c r="CN7" s="84" t="n"/>
+      <c r="CO7" s="84" t="n"/>
+      <c r="CP7" s="84" t="n"/>
+      <c r="CQ7" s="84" t="n"/>
+      <c r="CR7" s="84" t="n"/>
+      <c r="CS7" s="84" t="n"/>
     </row>
     <row r="8" ht="15.15" customHeight="1" s="9">
       <c r="A8" s="0" t="inlineStr">
@@ -6963,7 +7102,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:30</t>
         </is>
       </c>
       <c r="L8" s="64">
@@ -6986,86 +7125,86 @@
       <c r="Q8" s="0" t="n">
         <v>20191105</v>
       </c>
-      <c r="R8" s="83" t="n"/>
-      <c r="S8" s="76" t="n"/>
-      <c r="T8" s="76" t="n"/>
-      <c r="U8" s="83" t="n"/>
-      <c r="V8" s="76" t="n"/>
-      <c r="W8" s="76" t="n"/>
-      <c r="X8" s="83" t="n"/>
-      <c r="Y8" s="76" t="n"/>
-      <c r="Z8" s="76" t="n"/>
-      <c r="AA8" s="83" t="n"/>
-      <c r="AB8" s="76" t="n"/>
-      <c r="AC8" s="76" t="n"/>
-      <c r="AD8" s="83" t="n"/>
-      <c r="AE8" s="76" t="n"/>
-      <c r="AF8" s="76" t="n"/>
-      <c r="AG8" s="83" t="n"/>
-      <c r="AH8" s="76" t="n"/>
-      <c r="AI8" s="76" t="n"/>
-      <c r="AJ8" s="83" t="n"/>
-      <c r="AK8" s="76" t="n"/>
-      <c r="AL8" s="76" t="n"/>
-      <c r="AM8" s="83" t="n"/>
-      <c r="AN8" s="76" t="n"/>
-      <c r="AO8" s="76" t="n"/>
-      <c r="AP8" s="83" t="n"/>
-      <c r="AQ8" s="76" t="n"/>
-      <c r="AR8" s="76" t="n"/>
-      <c r="AS8" s="83" t="n"/>
-      <c r="AT8" s="76" t="n"/>
-      <c r="AU8" s="76" t="n"/>
-      <c r="AV8" s="83" t="n"/>
-      <c r="AW8" s="76" t="n"/>
-      <c r="AX8" s="76" t="n"/>
-      <c r="AY8" s="83" t="n"/>
-      <c r="AZ8" s="76" t="n"/>
-      <c r="BA8" s="76" t="n"/>
-      <c r="BB8" s="83" t="n"/>
-      <c r="BC8" s="76" t="n"/>
-      <c r="BD8" s="76" t="n"/>
-      <c r="BE8" s="83" t="n"/>
-      <c r="BF8" s="76" t="n"/>
-      <c r="BG8" s="76" t="n"/>
-      <c r="BH8" s="83" t="n"/>
-      <c r="BI8" s="76" t="n"/>
-      <c r="BJ8" s="76" t="n"/>
-      <c r="BK8" s="76" t="n"/>
-      <c r="BL8" s="76" t="n"/>
-      <c r="BM8" s="76" t="n"/>
-      <c r="BN8" s="76" t="n"/>
-      <c r="BO8" s="76" t="n"/>
-      <c r="BP8" s="76" t="n"/>
-      <c r="BQ8" s="76" t="n"/>
-      <c r="BR8" s="76" t="n"/>
-      <c r="BS8" s="76" t="n"/>
-      <c r="BT8" s="76" t="n"/>
-      <c r="BU8" s="76" t="n"/>
-      <c r="BV8" s="76" t="n"/>
-      <c r="BW8" s="76" t="n"/>
-      <c r="BX8" s="76" t="n"/>
-      <c r="BY8" s="76" t="n"/>
-      <c r="BZ8" s="76" t="n"/>
-      <c r="CA8" s="76" t="n"/>
-      <c r="CB8" s="76" t="n"/>
-      <c r="CC8" s="76" t="n"/>
-      <c r="CD8" s="76" t="n"/>
-      <c r="CE8" s="76" t="n"/>
-      <c r="CF8" s="76" t="n"/>
-      <c r="CG8" s="76" t="n"/>
-      <c r="CH8" s="76" t="n"/>
-      <c r="CI8" s="76" t="n"/>
-      <c r="CJ8" s="76" t="n"/>
-      <c r="CK8" s="76" t="n"/>
-      <c r="CL8" s="76" t="n"/>
-      <c r="CM8" s="76" t="n"/>
-      <c r="CN8" s="76" t="n"/>
-      <c r="CO8" s="76" t="n"/>
-      <c r="CP8" s="76" t="n"/>
-      <c r="CQ8" s="76" t="n"/>
-      <c r="CR8" s="76" t="n"/>
-      <c r="CS8" s="76" t="n"/>
+      <c r="R8" s="91" t="n"/>
+      <c r="S8" s="84" t="n"/>
+      <c r="T8" s="84" t="n"/>
+      <c r="U8" s="91" t="n"/>
+      <c r="V8" s="84" t="n"/>
+      <c r="W8" s="84" t="n"/>
+      <c r="X8" s="91" t="n"/>
+      <c r="Y8" s="84" t="n"/>
+      <c r="Z8" s="84" t="n"/>
+      <c r="AA8" s="91" t="n"/>
+      <c r="AB8" s="84" t="n"/>
+      <c r="AC8" s="84" t="n"/>
+      <c r="AD8" s="91" t="n"/>
+      <c r="AE8" s="84" t="n"/>
+      <c r="AF8" s="84" t="n"/>
+      <c r="AG8" s="91" t="n"/>
+      <c r="AH8" s="84" t="n"/>
+      <c r="AI8" s="84" t="n"/>
+      <c r="AJ8" s="91" t="n"/>
+      <c r="AK8" s="84" t="n"/>
+      <c r="AL8" s="84" t="n"/>
+      <c r="AM8" s="91" t="n"/>
+      <c r="AN8" s="84" t="n"/>
+      <c r="AO8" s="84" t="n"/>
+      <c r="AP8" s="91" t="n"/>
+      <c r="AQ8" s="84" t="n"/>
+      <c r="AR8" s="84" t="n"/>
+      <c r="AS8" s="91" t="n"/>
+      <c r="AT8" s="84" t="n"/>
+      <c r="AU8" s="84" t="n"/>
+      <c r="AV8" s="91" t="n"/>
+      <c r="AW8" s="84" t="n"/>
+      <c r="AX8" s="84" t="n"/>
+      <c r="AY8" s="91" t="n"/>
+      <c r="AZ8" s="84" t="n"/>
+      <c r="BA8" s="84" t="n"/>
+      <c r="BB8" s="91" t="n"/>
+      <c r="BC8" s="84" t="n"/>
+      <c r="BD8" s="84" t="n"/>
+      <c r="BE8" s="91" t="n"/>
+      <c r="BF8" s="84" t="n"/>
+      <c r="BG8" s="84" t="n"/>
+      <c r="BH8" s="91" t="n"/>
+      <c r="BI8" s="84" t="n"/>
+      <c r="BJ8" s="84" t="n"/>
+      <c r="BK8" s="84" t="n"/>
+      <c r="BL8" s="84" t="n"/>
+      <c r="BM8" s="84" t="n"/>
+      <c r="BN8" s="84" t="n"/>
+      <c r="BO8" s="84" t="n"/>
+      <c r="BP8" s="84" t="n"/>
+      <c r="BQ8" s="84" t="n"/>
+      <c r="BR8" s="84" t="n"/>
+      <c r="BS8" s="84" t="n"/>
+      <c r="BT8" s="84" t="n"/>
+      <c r="BU8" s="84" t="n"/>
+      <c r="BV8" s="84" t="n"/>
+      <c r="BW8" s="84" t="n"/>
+      <c r="BX8" s="84" t="n"/>
+      <c r="BY8" s="84" t="n"/>
+      <c r="BZ8" s="84" t="n"/>
+      <c r="CA8" s="84" t="n"/>
+      <c r="CB8" s="84" t="n"/>
+      <c r="CC8" s="84" t="n"/>
+      <c r="CD8" s="84" t="n"/>
+      <c r="CE8" s="84" t="n"/>
+      <c r="CF8" s="84" t="n"/>
+      <c r="CG8" s="84" t="n"/>
+      <c r="CH8" s="84" t="n"/>
+      <c r="CI8" s="84" t="n"/>
+      <c r="CJ8" s="84" t="n"/>
+      <c r="CK8" s="84" t="n"/>
+      <c r="CL8" s="84" t="n"/>
+      <c r="CM8" s="84" t="n"/>
+      <c r="CN8" s="84" t="n"/>
+      <c r="CO8" s="84" t="n"/>
+      <c r="CP8" s="84" t="n"/>
+      <c r="CQ8" s="84" t="n"/>
+      <c r="CR8" s="84" t="n"/>
+      <c r="CS8" s="84" t="n"/>
     </row>
     <row r="9" ht="15.15" customHeight="1" s="9">
       <c r="A9" s="0" t="inlineStr">
@@ -7095,7 +7234,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L9" s="64">
@@ -7118,86 +7257,86 @@
       <c r="Q9" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R9" s="83" t="n"/>
-      <c r="S9" s="76" t="n"/>
-      <c r="T9" s="76" t="n"/>
-      <c r="U9" s="83" t="n"/>
-      <c r="V9" s="76" t="n"/>
-      <c r="W9" s="76" t="n"/>
-      <c r="X9" s="83" t="n"/>
-      <c r="Y9" s="76" t="n"/>
-      <c r="Z9" s="76" t="n"/>
-      <c r="AA9" s="83" t="n"/>
-      <c r="AB9" s="76" t="n"/>
-      <c r="AC9" s="76" t="n"/>
-      <c r="AD9" s="83" t="n"/>
-      <c r="AE9" s="76" t="n"/>
-      <c r="AF9" s="76" t="n"/>
-      <c r="AG9" s="83" t="n"/>
-      <c r="AH9" s="76" t="n"/>
-      <c r="AI9" s="76" t="n"/>
-      <c r="AJ9" s="83" t="n"/>
-      <c r="AK9" s="76" t="n"/>
-      <c r="AL9" s="76" t="n"/>
-      <c r="AM9" s="83" t="n"/>
-      <c r="AN9" s="76" t="n"/>
-      <c r="AO9" s="76" t="n"/>
-      <c r="AP9" s="83" t="n"/>
-      <c r="AQ9" s="76" t="n"/>
-      <c r="AR9" s="76" t="n"/>
-      <c r="AS9" s="83" t="n"/>
-      <c r="AT9" s="76" t="n"/>
-      <c r="AU9" s="76" t="n"/>
-      <c r="AV9" s="83" t="n"/>
-      <c r="AW9" s="76" t="n"/>
-      <c r="AX9" s="76" t="n"/>
-      <c r="AY9" s="83" t="n"/>
-      <c r="AZ9" s="76" t="n"/>
-      <c r="BA9" s="76" t="n"/>
-      <c r="BB9" s="83" t="n"/>
-      <c r="BC9" s="76" t="n"/>
-      <c r="BD9" s="76" t="n"/>
-      <c r="BE9" s="83" t="n"/>
-      <c r="BF9" s="76" t="n"/>
-      <c r="BG9" s="76" t="n"/>
-      <c r="BH9" s="83" t="n"/>
-      <c r="BI9" s="76" t="n"/>
-      <c r="BJ9" s="76" t="n"/>
-      <c r="BK9" s="76" t="n"/>
-      <c r="BL9" s="76" t="n"/>
-      <c r="BM9" s="76" t="n"/>
-      <c r="BN9" s="76" t="n"/>
-      <c r="BO9" s="76" t="n"/>
-      <c r="BP9" s="76" t="n"/>
-      <c r="BQ9" s="76" t="n"/>
-      <c r="BR9" s="76" t="n"/>
-      <c r="BS9" s="76" t="n"/>
-      <c r="BT9" s="76" t="n"/>
-      <c r="BU9" s="76" t="n"/>
-      <c r="BV9" s="76" t="n"/>
-      <c r="BW9" s="76" t="n"/>
-      <c r="BX9" s="76" t="n"/>
-      <c r="BY9" s="76" t="n"/>
-      <c r="BZ9" s="76" t="n"/>
-      <c r="CA9" s="76" t="n"/>
-      <c r="CB9" s="76" t="n"/>
-      <c r="CC9" s="76" t="n"/>
-      <c r="CD9" s="76" t="n"/>
-      <c r="CE9" s="76" t="n"/>
-      <c r="CF9" s="76" t="n"/>
-      <c r="CG9" s="76" t="n"/>
-      <c r="CH9" s="76" t="n"/>
-      <c r="CI9" s="76" t="n"/>
-      <c r="CJ9" s="76" t="n"/>
-      <c r="CK9" s="76" t="n"/>
-      <c r="CL9" s="76" t="n"/>
-      <c r="CM9" s="76" t="n"/>
-      <c r="CN9" s="76" t="n"/>
-      <c r="CO9" s="76" t="n"/>
-      <c r="CP9" s="76" t="n"/>
-      <c r="CQ9" s="76" t="n"/>
-      <c r="CR9" s="76" t="n"/>
-      <c r="CS9" s="76" t="n"/>
+      <c r="R9" s="91" t="n"/>
+      <c r="S9" s="84" t="n"/>
+      <c r="T9" s="84" t="n"/>
+      <c r="U9" s="91" t="n"/>
+      <c r="V9" s="84" t="n"/>
+      <c r="W9" s="84" t="n"/>
+      <c r="X9" s="91" t="n"/>
+      <c r="Y9" s="84" t="n"/>
+      <c r="Z9" s="84" t="n"/>
+      <c r="AA9" s="91" t="n"/>
+      <c r="AB9" s="84" t="n"/>
+      <c r="AC9" s="84" t="n"/>
+      <c r="AD9" s="91" t="n"/>
+      <c r="AE9" s="84" t="n"/>
+      <c r="AF9" s="84" t="n"/>
+      <c r="AG9" s="91" t="n"/>
+      <c r="AH9" s="84" t="n"/>
+      <c r="AI9" s="84" t="n"/>
+      <c r="AJ9" s="91" t="n"/>
+      <c r="AK9" s="84" t="n"/>
+      <c r="AL9" s="84" t="n"/>
+      <c r="AM9" s="91" t="n"/>
+      <c r="AN9" s="84" t="n"/>
+      <c r="AO9" s="84" t="n"/>
+      <c r="AP9" s="91" t="n"/>
+      <c r="AQ9" s="84" t="n"/>
+      <c r="AR9" s="84" t="n"/>
+      <c r="AS9" s="91" t="n"/>
+      <c r="AT9" s="84" t="n"/>
+      <c r="AU9" s="84" t="n"/>
+      <c r="AV9" s="91" t="n"/>
+      <c r="AW9" s="84" t="n"/>
+      <c r="AX9" s="84" t="n"/>
+      <c r="AY9" s="91" t="n"/>
+      <c r="AZ9" s="84" t="n"/>
+      <c r="BA9" s="84" t="n"/>
+      <c r="BB9" s="91" t="n"/>
+      <c r="BC9" s="84" t="n"/>
+      <c r="BD9" s="84" t="n"/>
+      <c r="BE9" s="91" t="n"/>
+      <c r="BF9" s="84" t="n"/>
+      <c r="BG9" s="84" t="n"/>
+      <c r="BH9" s="91" t="n"/>
+      <c r="BI9" s="84" t="n"/>
+      <c r="BJ9" s="84" t="n"/>
+      <c r="BK9" s="84" t="n"/>
+      <c r="BL9" s="84" t="n"/>
+      <c r="BM9" s="84" t="n"/>
+      <c r="BN9" s="84" t="n"/>
+      <c r="BO9" s="84" t="n"/>
+      <c r="BP9" s="84" t="n"/>
+      <c r="BQ9" s="84" t="n"/>
+      <c r="BR9" s="84" t="n"/>
+      <c r="BS9" s="84" t="n"/>
+      <c r="BT9" s="84" t="n"/>
+      <c r="BU9" s="84" t="n"/>
+      <c r="BV9" s="84" t="n"/>
+      <c r="BW9" s="84" t="n"/>
+      <c r="BX9" s="84" t="n"/>
+      <c r="BY9" s="84" t="n"/>
+      <c r="BZ9" s="84" t="n"/>
+      <c r="CA9" s="84" t="n"/>
+      <c r="CB9" s="84" t="n"/>
+      <c r="CC9" s="84" t="n"/>
+      <c r="CD9" s="84" t="n"/>
+      <c r="CE9" s="84" t="n"/>
+      <c r="CF9" s="84" t="n"/>
+      <c r="CG9" s="84" t="n"/>
+      <c r="CH9" s="84" t="n"/>
+      <c r="CI9" s="84" t="n"/>
+      <c r="CJ9" s="84" t="n"/>
+      <c r="CK9" s="84" t="n"/>
+      <c r="CL9" s="84" t="n"/>
+      <c r="CM9" s="84" t="n"/>
+      <c r="CN9" s="84" t="n"/>
+      <c r="CO9" s="84" t="n"/>
+      <c r="CP9" s="84" t="n"/>
+      <c r="CQ9" s="84" t="n"/>
+      <c r="CR9" s="84" t="n"/>
+      <c r="CS9" s="84" t="n"/>
     </row>
     <row r="10" ht="15.15" customHeight="1" s="9">
       <c r="A10" s="45" t="inlineStr">
@@ -7232,7 +7371,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L10" s="64">
@@ -7255,86 +7394,86 @@
       <c r="Q10" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R10" s="83" t="n"/>
-      <c r="S10" s="76" t="n"/>
-      <c r="T10" s="76" t="n"/>
-      <c r="U10" s="83" t="n"/>
-      <c r="V10" s="76" t="n"/>
-      <c r="W10" s="76" t="n"/>
-      <c r="X10" s="83" t="n"/>
-      <c r="Y10" s="76" t="n"/>
-      <c r="Z10" s="76" t="n"/>
-      <c r="AA10" s="83" t="n"/>
-      <c r="AB10" s="76" t="n"/>
-      <c r="AC10" s="76" t="n"/>
-      <c r="AD10" s="83" t="n"/>
-      <c r="AE10" s="76" t="n"/>
-      <c r="AF10" s="76" t="n"/>
-      <c r="AG10" s="83" t="n"/>
-      <c r="AH10" s="76" t="n"/>
-      <c r="AI10" s="76" t="n"/>
-      <c r="AJ10" s="83" t="n"/>
-      <c r="AK10" s="76" t="n"/>
-      <c r="AL10" s="76" t="n"/>
-      <c r="AM10" s="83" t="n"/>
-      <c r="AN10" s="76" t="n"/>
-      <c r="AO10" s="76" t="n"/>
-      <c r="AP10" s="83" t="n"/>
-      <c r="AQ10" s="76" t="n"/>
-      <c r="AR10" s="76" t="n"/>
-      <c r="AS10" s="83" t="n"/>
-      <c r="AT10" s="76" t="n"/>
-      <c r="AU10" s="76" t="n"/>
-      <c r="AV10" s="83" t="n"/>
-      <c r="AW10" s="76" t="n"/>
-      <c r="AX10" s="76" t="n"/>
-      <c r="AY10" s="83" t="n"/>
-      <c r="AZ10" s="76" t="n"/>
-      <c r="BA10" s="76" t="n"/>
-      <c r="BB10" s="83" t="n"/>
-      <c r="BC10" s="76" t="n"/>
-      <c r="BD10" s="76" t="n"/>
-      <c r="BE10" s="83" t="n"/>
-      <c r="BF10" s="76" t="n"/>
-      <c r="BG10" s="76" t="n"/>
-      <c r="BH10" s="83" t="n"/>
-      <c r="BI10" s="76" t="n"/>
-      <c r="BJ10" s="76" t="n"/>
-      <c r="BK10" s="76" t="n"/>
-      <c r="BL10" s="76" t="n"/>
-      <c r="BM10" s="76" t="n"/>
-      <c r="BN10" s="76" t="n"/>
-      <c r="BO10" s="76" t="n"/>
-      <c r="BP10" s="76" t="n"/>
-      <c r="BQ10" s="76" t="n"/>
-      <c r="BR10" s="76" t="n"/>
-      <c r="BS10" s="76" t="n"/>
-      <c r="BT10" s="76" t="n"/>
-      <c r="BU10" s="76" t="n"/>
-      <c r="BV10" s="76" t="n"/>
-      <c r="BW10" s="76" t="n"/>
-      <c r="BX10" s="76" t="n"/>
-      <c r="BY10" s="76" t="n"/>
-      <c r="BZ10" s="76" t="n"/>
-      <c r="CA10" s="76" t="n"/>
-      <c r="CB10" s="76" t="n"/>
-      <c r="CC10" s="76" t="n"/>
-      <c r="CD10" s="76" t="n"/>
-      <c r="CE10" s="76" t="n"/>
-      <c r="CF10" s="76" t="n"/>
-      <c r="CG10" s="76" t="n"/>
-      <c r="CH10" s="76" t="n"/>
-      <c r="CI10" s="76" t="n"/>
-      <c r="CJ10" s="76" t="n"/>
-      <c r="CK10" s="76" t="n"/>
-      <c r="CL10" s="76" t="n"/>
-      <c r="CM10" s="76" t="n"/>
-      <c r="CN10" s="76" t="n"/>
-      <c r="CO10" s="76" t="n"/>
-      <c r="CP10" s="76" t="n"/>
-      <c r="CQ10" s="76" t="n"/>
-      <c r="CR10" s="76" t="n"/>
-      <c r="CS10" s="76" t="n"/>
+      <c r="R10" s="91" t="n"/>
+      <c r="S10" s="84" t="n"/>
+      <c r="T10" s="84" t="n"/>
+      <c r="U10" s="91" t="n"/>
+      <c r="V10" s="84" t="n"/>
+      <c r="W10" s="84" t="n"/>
+      <c r="X10" s="91" t="n"/>
+      <c r="Y10" s="84" t="n"/>
+      <c r="Z10" s="84" t="n"/>
+      <c r="AA10" s="91" t="n"/>
+      <c r="AB10" s="84" t="n"/>
+      <c r="AC10" s="84" t="n"/>
+      <c r="AD10" s="91" t="n"/>
+      <c r="AE10" s="84" t="n"/>
+      <c r="AF10" s="84" t="n"/>
+      <c r="AG10" s="91" t="n"/>
+      <c r="AH10" s="84" t="n"/>
+      <c r="AI10" s="84" t="n"/>
+      <c r="AJ10" s="91" t="n"/>
+      <c r="AK10" s="84" t="n"/>
+      <c r="AL10" s="84" t="n"/>
+      <c r="AM10" s="91" t="n"/>
+      <c r="AN10" s="84" t="n"/>
+      <c r="AO10" s="84" t="n"/>
+      <c r="AP10" s="91" t="n"/>
+      <c r="AQ10" s="84" t="n"/>
+      <c r="AR10" s="84" t="n"/>
+      <c r="AS10" s="91" t="n"/>
+      <c r="AT10" s="84" t="n"/>
+      <c r="AU10" s="84" t="n"/>
+      <c r="AV10" s="91" t="n"/>
+      <c r="AW10" s="84" t="n"/>
+      <c r="AX10" s="84" t="n"/>
+      <c r="AY10" s="91" t="n"/>
+      <c r="AZ10" s="84" t="n"/>
+      <c r="BA10" s="84" t="n"/>
+      <c r="BB10" s="91" t="n"/>
+      <c r="BC10" s="84" t="n"/>
+      <c r="BD10" s="84" t="n"/>
+      <c r="BE10" s="91" t="n"/>
+      <c r="BF10" s="84" t="n"/>
+      <c r="BG10" s="84" t="n"/>
+      <c r="BH10" s="91" t="n"/>
+      <c r="BI10" s="84" t="n"/>
+      <c r="BJ10" s="84" t="n"/>
+      <c r="BK10" s="84" t="n"/>
+      <c r="BL10" s="84" t="n"/>
+      <c r="BM10" s="84" t="n"/>
+      <c r="BN10" s="84" t="n"/>
+      <c r="BO10" s="84" t="n"/>
+      <c r="BP10" s="84" t="n"/>
+      <c r="BQ10" s="84" t="n"/>
+      <c r="BR10" s="84" t="n"/>
+      <c r="BS10" s="84" t="n"/>
+      <c r="BT10" s="84" t="n"/>
+      <c r="BU10" s="84" t="n"/>
+      <c r="BV10" s="84" t="n"/>
+      <c r="BW10" s="84" t="n"/>
+      <c r="BX10" s="84" t="n"/>
+      <c r="BY10" s="84" t="n"/>
+      <c r="BZ10" s="84" t="n"/>
+      <c r="CA10" s="84" t="n"/>
+      <c r="CB10" s="84" t="n"/>
+      <c r="CC10" s="84" t="n"/>
+      <c r="CD10" s="84" t="n"/>
+      <c r="CE10" s="84" t="n"/>
+      <c r="CF10" s="84" t="n"/>
+      <c r="CG10" s="84" t="n"/>
+      <c r="CH10" s="84" t="n"/>
+      <c r="CI10" s="84" t="n"/>
+      <c r="CJ10" s="84" t="n"/>
+      <c r="CK10" s="84" t="n"/>
+      <c r="CL10" s="84" t="n"/>
+      <c r="CM10" s="84" t="n"/>
+      <c r="CN10" s="84" t="n"/>
+      <c r="CO10" s="84" t="n"/>
+      <c r="CP10" s="84" t="n"/>
+      <c r="CQ10" s="84" t="n"/>
+      <c r="CR10" s="84" t="n"/>
+      <c r="CS10" s="84" t="n"/>
     </row>
     <row r="11" ht="15.15" customHeight="1" s="9">
       <c r="A11" s="16" t="inlineStr">
@@ -7369,7 +7508,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L11" s="64">
@@ -7392,86 +7531,86 @@
       <c r="Q11" s="0" t="n">
         <v>20190912</v>
       </c>
-      <c r="R11" s="83" t="n"/>
-      <c r="S11" s="76" t="n"/>
-      <c r="T11" s="76" t="n"/>
-      <c r="U11" s="83" t="n"/>
-      <c r="V11" s="76" t="n"/>
-      <c r="W11" s="76" t="n"/>
-      <c r="X11" s="83" t="n"/>
-      <c r="Y11" s="76" t="n"/>
-      <c r="Z11" s="76" t="n"/>
-      <c r="AA11" s="83" t="n"/>
-      <c r="AB11" s="76" t="n"/>
-      <c r="AC11" s="76" t="n"/>
-      <c r="AD11" s="83" t="n"/>
-      <c r="AE11" s="76" t="n"/>
-      <c r="AF11" s="76" t="n"/>
-      <c r="AG11" s="83" t="n"/>
-      <c r="AH11" s="76" t="n"/>
-      <c r="AI11" s="76" t="n"/>
-      <c r="AJ11" s="83" t="n"/>
-      <c r="AK11" s="76" t="n"/>
-      <c r="AL11" s="76" t="n"/>
-      <c r="AM11" s="83" t="n"/>
-      <c r="AN11" s="76" t="n"/>
-      <c r="AO11" s="76" t="n"/>
-      <c r="AP11" s="83" t="n"/>
-      <c r="AQ11" s="76" t="n"/>
-      <c r="AR11" s="76" t="n"/>
-      <c r="AS11" s="83" t="n"/>
-      <c r="AT11" s="76" t="n"/>
-      <c r="AU11" s="76" t="n"/>
-      <c r="AV11" s="83" t="n"/>
-      <c r="AW11" s="76" t="n"/>
-      <c r="AX11" s="76" t="n"/>
-      <c r="AY11" s="83" t="n"/>
-      <c r="AZ11" s="76" t="n"/>
-      <c r="BA11" s="76" t="n"/>
-      <c r="BB11" s="83" t="n"/>
-      <c r="BC11" s="76" t="n"/>
-      <c r="BD11" s="76" t="n"/>
-      <c r="BE11" s="83" t="n"/>
-      <c r="BF11" s="76" t="n"/>
-      <c r="BG11" s="76" t="n"/>
-      <c r="BH11" s="83" t="n"/>
-      <c r="BI11" s="76" t="n"/>
-      <c r="BJ11" s="76" t="n"/>
-      <c r="BK11" s="76" t="n"/>
-      <c r="BL11" s="76" t="n"/>
-      <c r="BM11" s="76" t="n"/>
-      <c r="BN11" s="76" t="n"/>
-      <c r="BO11" s="76" t="n"/>
-      <c r="BP11" s="76" t="n"/>
-      <c r="BQ11" s="76" t="n"/>
-      <c r="BR11" s="76" t="n"/>
-      <c r="BS11" s="76" t="n"/>
-      <c r="BT11" s="76" t="n"/>
-      <c r="BU11" s="76" t="n"/>
-      <c r="BV11" s="76" t="n"/>
-      <c r="BW11" s="76" t="n"/>
-      <c r="BX11" s="76" t="n"/>
-      <c r="BY11" s="76" t="n"/>
-      <c r="BZ11" s="76" t="n"/>
-      <c r="CA11" s="76" t="n"/>
-      <c r="CB11" s="76" t="n"/>
-      <c r="CC11" s="76" t="n"/>
-      <c r="CD11" s="76" t="n"/>
-      <c r="CE11" s="76" t="n"/>
-      <c r="CF11" s="76" t="n"/>
-      <c r="CG11" s="76" t="n"/>
-      <c r="CH11" s="76" t="n"/>
-      <c r="CI11" s="76" t="n"/>
-      <c r="CJ11" s="76" t="n"/>
-      <c r="CK11" s="76" t="n"/>
-      <c r="CL11" s="76" t="n"/>
-      <c r="CM11" s="76" t="n"/>
-      <c r="CN11" s="76" t="n"/>
-      <c r="CO11" s="76" t="n"/>
-      <c r="CP11" s="76" t="n"/>
-      <c r="CQ11" s="76" t="n"/>
-      <c r="CR11" s="76" t="n"/>
-      <c r="CS11" s="76" t="n"/>
+      <c r="R11" s="91" t="n"/>
+      <c r="S11" s="84" t="n"/>
+      <c r="T11" s="84" t="n"/>
+      <c r="U11" s="91" t="n"/>
+      <c r="V11" s="84" t="n"/>
+      <c r="W11" s="84" t="n"/>
+      <c r="X11" s="91" t="n"/>
+      <c r="Y11" s="84" t="n"/>
+      <c r="Z11" s="84" t="n"/>
+      <c r="AA11" s="91" t="n"/>
+      <c r="AB11" s="84" t="n"/>
+      <c r="AC11" s="84" t="n"/>
+      <c r="AD11" s="91" t="n"/>
+      <c r="AE11" s="84" t="n"/>
+      <c r="AF11" s="84" t="n"/>
+      <c r="AG11" s="91" t="n"/>
+      <c r="AH11" s="84" t="n"/>
+      <c r="AI11" s="84" t="n"/>
+      <c r="AJ11" s="91" t="n"/>
+      <c r="AK11" s="84" t="n"/>
+      <c r="AL11" s="84" t="n"/>
+      <c r="AM11" s="91" t="n"/>
+      <c r="AN11" s="84" t="n"/>
+      <c r="AO11" s="84" t="n"/>
+      <c r="AP11" s="91" t="n"/>
+      <c r="AQ11" s="84" t="n"/>
+      <c r="AR11" s="84" t="n"/>
+      <c r="AS11" s="91" t="n"/>
+      <c r="AT11" s="84" t="n"/>
+      <c r="AU11" s="84" t="n"/>
+      <c r="AV11" s="91" t="n"/>
+      <c r="AW11" s="84" t="n"/>
+      <c r="AX11" s="84" t="n"/>
+      <c r="AY11" s="91" t="n"/>
+      <c r="AZ11" s="84" t="n"/>
+      <c r="BA11" s="84" t="n"/>
+      <c r="BB11" s="91" t="n"/>
+      <c r="BC11" s="84" t="n"/>
+      <c r="BD11" s="84" t="n"/>
+      <c r="BE11" s="91" t="n"/>
+      <c r="BF11" s="84" t="n"/>
+      <c r="BG11" s="84" t="n"/>
+      <c r="BH11" s="91" t="n"/>
+      <c r="BI11" s="84" t="n"/>
+      <c r="BJ11" s="84" t="n"/>
+      <c r="BK11" s="84" t="n"/>
+      <c r="BL11" s="84" t="n"/>
+      <c r="BM11" s="84" t="n"/>
+      <c r="BN11" s="84" t="n"/>
+      <c r="BO11" s="84" t="n"/>
+      <c r="BP11" s="84" t="n"/>
+      <c r="BQ11" s="84" t="n"/>
+      <c r="BR11" s="84" t="n"/>
+      <c r="BS11" s="84" t="n"/>
+      <c r="BT11" s="84" t="n"/>
+      <c r="BU11" s="84" t="n"/>
+      <c r="BV11" s="84" t="n"/>
+      <c r="BW11" s="84" t="n"/>
+      <c r="BX11" s="84" t="n"/>
+      <c r="BY11" s="84" t="n"/>
+      <c r="BZ11" s="84" t="n"/>
+      <c r="CA11" s="84" t="n"/>
+      <c r="CB11" s="84" t="n"/>
+      <c r="CC11" s="84" t="n"/>
+      <c r="CD11" s="84" t="n"/>
+      <c r="CE11" s="84" t="n"/>
+      <c r="CF11" s="84" t="n"/>
+      <c r="CG11" s="84" t="n"/>
+      <c r="CH11" s="84" t="n"/>
+      <c r="CI11" s="84" t="n"/>
+      <c r="CJ11" s="84" t="n"/>
+      <c r="CK11" s="84" t="n"/>
+      <c r="CL11" s="84" t="n"/>
+      <c r="CM11" s="84" t="n"/>
+      <c r="CN11" s="84" t="n"/>
+      <c r="CO11" s="84" t="n"/>
+      <c r="CP11" s="84" t="n"/>
+      <c r="CQ11" s="84" t="n"/>
+      <c r="CR11" s="84" t="n"/>
+      <c r="CS11" s="84" t="n"/>
     </row>
     <row r="12" ht="15.15" customHeight="1" s="9">
       <c r="A12" s="0" t="inlineStr">
@@ -7501,7 +7640,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:36</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L12" s="64">
@@ -7518,86 +7657,86 @@
       <c r="P12" s="0" t="n">
         <v>1768</v>
       </c>
-      <c r="R12" s="83" t="n"/>
-      <c r="S12" s="76" t="n"/>
-      <c r="T12" s="76" t="n"/>
-      <c r="U12" s="83" t="n"/>
-      <c r="V12" s="76" t="n"/>
-      <c r="W12" s="76" t="n"/>
-      <c r="X12" s="83" t="n"/>
-      <c r="Y12" s="76" t="n"/>
-      <c r="Z12" s="76" t="n"/>
-      <c r="AA12" s="83" t="n"/>
-      <c r="AB12" s="76" t="n"/>
-      <c r="AC12" s="76" t="n"/>
-      <c r="AD12" s="83" t="n"/>
-      <c r="AE12" s="76" t="n"/>
-      <c r="AF12" s="76" t="n"/>
-      <c r="AG12" s="83" t="n"/>
-      <c r="AH12" s="76" t="n"/>
-      <c r="AI12" s="76" t="n"/>
-      <c r="AJ12" s="83" t="n"/>
-      <c r="AK12" s="76" t="n"/>
-      <c r="AL12" s="76" t="n"/>
-      <c r="AM12" s="83" t="n"/>
-      <c r="AN12" s="76" t="n"/>
-      <c r="AO12" s="76" t="n"/>
-      <c r="AP12" s="83" t="n"/>
-      <c r="AQ12" s="76" t="n"/>
-      <c r="AR12" s="76" t="n"/>
-      <c r="AS12" s="83" t="n"/>
-      <c r="AT12" s="76" t="n"/>
-      <c r="AU12" s="76" t="n"/>
-      <c r="AV12" s="83" t="n"/>
-      <c r="AW12" s="76" t="n"/>
-      <c r="AX12" s="76" t="n"/>
-      <c r="AY12" s="83" t="n"/>
-      <c r="AZ12" s="76" t="n"/>
-      <c r="BA12" s="76" t="n"/>
-      <c r="BB12" s="83" t="n"/>
-      <c r="BC12" s="76" t="n"/>
-      <c r="BD12" s="76" t="n"/>
-      <c r="BE12" s="83" t="n"/>
-      <c r="BF12" s="76" t="n"/>
-      <c r="BG12" s="76" t="n"/>
-      <c r="BH12" s="83" t="n"/>
-      <c r="BI12" s="76" t="n"/>
-      <c r="BJ12" s="76" t="n"/>
-      <c r="BK12" s="76" t="n"/>
-      <c r="BL12" s="76" t="n"/>
-      <c r="BM12" s="76" t="n"/>
-      <c r="BN12" s="76" t="n"/>
-      <c r="BO12" s="76" t="n"/>
-      <c r="BP12" s="76" t="n"/>
-      <c r="BQ12" s="76" t="n"/>
-      <c r="BR12" s="76" t="n"/>
-      <c r="BS12" s="76" t="n"/>
-      <c r="BT12" s="76" t="n"/>
-      <c r="BU12" s="76" t="n"/>
-      <c r="BV12" s="76" t="n"/>
-      <c r="BW12" s="76" t="n"/>
-      <c r="BX12" s="76" t="n"/>
-      <c r="BY12" s="76" t="n"/>
-      <c r="BZ12" s="76" t="n"/>
-      <c r="CA12" s="76" t="n"/>
-      <c r="CB12" s="76" t="n"/>
-      <c r="CC12" s="76" t="n"/>
-      <c r="CD12" s="76" t="n"/>
-      <c r="CE12" s="76" t="n"/>
-      <c r="CF12" s="76" t="n"/>
-      <c r="CG12" s="76" t="n"/>
-      <c r="CH12" s="76" t="n"/>
-      <c r="CI12" s="76" t="n"/>
-      <c r="CJ12" s="76" t="n"/>
-      <c r="CK12" s="76" t="n"/>
-      <c r="CL12" s="76" t="n"/>
-      <c r="CM12" s="76" t="n"/>
-      <c r="CN12" s="76" t="n"/>
-      <c r="CO12" s="76" t="n"/>
-      <c r="CP12" s="76" t="n"/>
-      <c r="CQ12" s="76" t="n"/>
-      <c r="CR12" s="76" t="n"/>
-      <c r="CS12" s="76" t="n"/>
+      <c r="R12" s="91" t="n"/>
+      <c r="S12" s="84" t="n"/>
+      <c r="T12" s="84" t="n"/>
+      <c r="U12" s="91" t="n"/>
+      <c r="V12" s="84" t="n"/>
+      <c r="W12" s="84" t="n"/>
+      <c r="X12" s="91" t="n"/>
+      <c r="Y12" s="84" t="n"/>
+      <c r="Z12" s="84" t="n"/>
+      <c r="AA12" s="91" t="n"/>
+      <c r="AB12" s="84" t="n"/>
+      <c r="AC12" s="84" t="n"/>
+      <c r="AD12" s="91" t="n"/>
+      <c r="AE12" s="84" t="n"/>
+      <c r="AF12" s="84" t="n"/>
+      <c r="AG12" s="91" t="n"/>
+      <c r="AH12" s="84" t="n"/>
+      <c r="AI12" s="84" t="n"/>
+      <c r="AJ12" s="91" t="n"/>
+      <c r="AK12" s="84" t="n"/>
+      <c r="AL12" s="84" t="n"/>
+      <c r="AM12" s="91" t="n"/>
+      <c r="AN12" s="84" t="n"/>
+      <c r="AO12" s="84" t="n"/>
+      <c r="AP12" s="91" t="n"/>
+      <c r="AQ12" s="84" t="n"/>
+      <c r="AR12" s="84" t="n"/>
+      <c r="AS12" s="91" t="n"/>
+      <c r="AT12" s="84" t="n"/>
+      <c r="AU12" s="84" t="n"/>
+      <c r="AV12" s="91" t="n"/>
+      <c r="AW12" s="84" t="n"/>
+      <c r="AX12" s="84" t="n"/>
+      <c r="AY12" s="91" t="n"/>
+      <c r="AZ12" s="84" t="n"/>
+      <c r="BA12" s="84" t="n"/>
+      <c r="BB12" s="91" t="n"/>
+      <c r="BC12" s="84" t="n"/>
+      <c r="BD12" s="84" t="n"/>
+      <c r="BE12" s="91" t="n"/>
+      <c r="BF12" s="84" t="n"/>
+      <c r="BG12" s="84" t="n"/>
+      <c r="BH12" s="91" t="n"/>
+      <c r="BI12" s="84" t="n"/>
+      <c r="BJ12" s="84" t="n"/>
+      <c r="BK12" s="84" t="n"/>
+      <c r="BL12" s="84" t="n"/>
+      <c r="BM12" s="84" t="n"/>
+      <c r="BN12" s="84" t="n"/>
+      <c r="BO12" s="84" t="n"/>
+      <c r="BP12" s="84" t="n"/>
+      <c r="BQ12" s="84" t="n"/>
+      <c r="BR12" s="84" t="n"/>
+      <c r="BS12" s="84" t="n"/>
+      <c r="BT12" s="84" t="n"/>
+      <c r="BU12" s="84" t="n"/>
+      <c r="BV12" s="84" t="n"/>
+      <c r="BW12" s="84" t="n"/>
+      <c r="BX12" s="84" t="n"/>
+      <c r="BY12" s="84" t="n"/>
+      <c r="BZ12" s="84" t="n"/>
+      <c r="CA12" s="84" t="n"/>
+      <c r="CB12" s="84" t="n"/>
+      <c r="CC12" s="84" t="n"/>
+      <c r="CD12" s="84" t="n"/>
+      <c r="CE12" s="84" t="n"/>
+      <c r="CF12" s="84" t="n"/>
+      <c r="CG12" s="84" t="n"/>
+      <c r="CH12" s="84" t="n"/>
+      <c r="CI12" s="84" t="n"/>
+      <c r="CJ12" s="84" t="n"/>
+      <c r="CK12" s="84" t="n"/>
+      <c r="CL12" s="84" t="n"/>
+      <c r="CM12" s="84" t="n"/>
+      <c r="CN12" s="84" t="n"/>
+      <c r="CO12" s="84" t="n"/>
+      <c r="CP12" s="84" t="n"/>
+      <c r="CQ12" s="84" t="n"/>
+      <c r="CR12" s="84" t="n"/>
+      <c r="CS12" s="84" t="n"/>
     </row>
     <row r="13" ht="15.15" customHeight="1" s="9">
       <c r="A13" s="0" t="inlineStr">
@@ -7627,7 +7766,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:37</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L13" s="64">
@@ -7650,86 +7789,86 @@
       <c r="Q13" s="0" t="n">
         <v>20191106</v>
       </c>
-      <c r="R13" s="83" t="n"/>
-      <c r="S13" s="76" t="n"/>
-      <c r="T13" s="76" t="n"/>
-      <c r="U13" s="83" t="n"/>
-      <c r="V13" s="76" t="n"/>
-      <c r="W13" s="76" t="n"/>
-      <c r="X13" s="83" t="n"/>
-      <c r="Y13" s="76" t="n"/>
-      <c r="Z13" s="76" t="n"/>
-      <c r="AA13" s="83" t="n"/>
-      <c r="AB13" s="76" t="n"/>
-      <c r="AC13" s="76" t="n"/>
-      <c r="AD13" s="83" t="n"/>
-      <c r="AE13" s="76" t="n"/>
-      <c r="AF13" s="76" t="n"/>
-      <c r="AG13" s="83" t="n"/>
-      <c r="AH13" s="76" t="n"/>
-      <c r="AI13" s="76" t="n"/>
-      <c r="AJ13" s="83" t="n"/>
-      <c r="AK13" s="76" t="n"/>
-      <c r="AL13" s="76" t="n"/>
-      <c r="AM13" s="83" t="n"/>
-      <c r="AN13" s="76" t="n"/>
-      <c r="AO13" s="76" t="n"/>
-      <c r="AP13" s="83" t="n"/>
-      <c r="AQ13" s="76" t="n"/>
-      <c r="AR13" s="76" t="n"/>
-      <c r="AS13" s="83" t="n"/>
-      <c r="AT13" s="76" t="n"/>
-      <c r="AU13" s="76" t="n"/>
-      <c r="AV13" s="83" t="n"/>
-      <c r="AW13" s="76" t="n"/>
-      <c r="AX13" s="76" t="n"/>
-      <c r="AY13" s="83" t="n"/>
-      <c r="AZ13" s="76" t="n"/>
-      <c r="BA13" s="76" t="n"/>
-      <c r="BB13" s="83" t="n"/>
-      <c r="BC13" s="76" t="n"/>
-      <c r="BD13" s="76" t="n"/>
-      <c r="BE13" s="83" t="n"/>
-      <c r="BF13" s="76" t="n"/>
-      <c r="BG13" s="76" t="n"/>
-      <c r="BH13" s="83" t="n"/>
-      <c r="BI13" s="76" t="n"/>
-      <c r="BJ13" s="76" t="n"/>
-      <c r="BK13" s="76" t="n"/>
-      <c r="BL13" s="76" t="n"/>
-      <c r="BM13" s="76" t="n"/>
-      <c r="BN13" s="76" t="n"/>
-      <c r="BO13" s="76" t="n"/>
-      <c r="BP13" s="76" t="n"/>
-      <c r="BQ13" s="76" t="n"/>
-      <c r="BR13" s="76" t="n"/>
-      <c r="BS13" s="76" t="n"/>
-      <c r="BT13" s="76" t="n"/>
-      <c r="BU13" s="76" t="n"/>
-      <c r="BV13" s="76" t="n"/>
-      <c r="BW13" s="76" t="n"/>
-      <c r="BX13" s="76" t="n"/>
-      <c r="BY13" s="76" t="n"/>
-      <c r="BZ13" s="76" t="n"/>
-      <c r="CA13" s="76" t="n"/>
-      <c r="CB13" s="76" t="n"/>
-      <c r="CC13" s="76" t="n"/>
-      <c r="CD13" s="76" t="n"/>
-      <c r="CE13" s="76" t="n"/>
-      <c r="CF13" s="76" t="n"/>
-      <c r="CG13" s="76" t="n"/>
-      <c r="CH13" s="76" t="n"/>
-      <c r="CI13" s="76" t="n"/>
-      <c r="CJ13" s="76" t="n"/>
-      <c r="CK13" s="76" t="n"/>
-      <c r="CL13" s="76" t="n"/>
-      <c r="CM13" s="76" t="n"/>
-      <c r="CN13" s="76" t="n"/>
-      <c r="CO13" s="76" t="n"/>
-      <c r="CP13" s="76" t="n"/>
-      <c r="CQ13" s="76" t="n"/>
-      <c r="CR13" s="76" t="n"/>
-      <c r="CS13" s="76" t="n"/>
+      <c r="R13" s="91" t="n"/>
+      <c r="S13" s="84" t="n"/>
+      <c r="T13" s="84" t="n"/>
+      <c r="U13" s="91" t="n"/>
+      <c r="V13" s="84" t="n"/>
+      <c r="W13" s="84" t="n"/>
+      <c r="X13" s="91" t="n"/>
+      <c r="Y13" s="84" t="n"/>
+      <c r="Z13" s="84" t="n"/>
+      <c r="AA13" s="91" t="n"/>
+      <c r="AB13" s="84" t="n"/>
+      <c r="AC13" s="84" t="n"/>
+      <c r="AD13" s="91" t="n"/>
+      <c r="AE13" s="84" t="n"/>
+      <c r="AF13" s="84" t="n"/>
+      <c r="AG13" s="91" t="n"/>
+      <c r="AH13" s="84" t="n"/>
+      <c r="AI13" s="84" t="n"/>
+      <c r="AJ13" s="91" t="n"/>
+      <c r="AK13" s="84" t="n"/>
+      <c r="AL13" s="84" t="n"/>
+      <c r="AM13" s="91" t="n"/>
+      <c r="AN13" s="84" t="n"/>
+      <c r="AO13" s="84" t="n"/>
+      <c r="AP13" s="91" t="n"/>
+      <c r="AQ13" s="84" t="n"/>
+      <c r="AR13" s="84" t="n"/>
+      <c r="AS13" s="91" t="n"/>
+      <c r="AT13" s="84" t="n"/>
+      <c r="AU13" s="84" t="n"/>
+      <c r="AV13" s="91" t="n"/>
+      <c r="AW13" s="84" t="n"/>
+      <c r="AX13" s="84" t="n"/>
+      <c r="AY13" s="91" t="n"/>
+      <c r="AZ13" s="84" t="n"/>
+      <c r="BA13" s="84" t="n"/>
+      <c r="BB13" s="91" t="n"/>
+      <c r="BC13" s="84" t="n"/>
+      <c r="BD13" s="84" t="n"/>
+      <c r="BE13" s="91" t="n"/>
+      <c r="BF13" s="84" t="n"/>
+      <c r="BG13" s="84" t="n"/>
+      <c r="BH13" s="91" t="n"/>
+      <c r="BI13" s="84" t="n"/>
+      <c r="BJ13" s="84" t="n"/>
+      <c r="BK13" s="84" t="n"/>
+      <c r="BL13" s="84" t="n"/>
+      <c r="BM13" s="84" t="n"/>
+      <c r="BN13" s="84" t="n"/>
+      <c r="BO13" s="84" t="n"/>
+      <c r="BP13" s="84" t="n"/>
+      <c r="BQ13" s="84" t="n"/>
+      <c r="BR13" s="84" t="n"/>
+      <c r="BS13" s="84" t="n"/>
+      <c r="BT13" s="84" t="n"/>
+      <c r="BU13" s="84" t="n"/>
+      <c r="BV13" s="84" t="n"/>
+      <c r="BW13" s="84" t="n"/>
+      <c r="BX13" s="84" t="n"/>
+      <c r="BY13" s="84" t="n"/>
+      <c r="BZ13" s="84" t="n"/>
+      <c r="CA13" s="84" t="n"/>
+      <c r="CB13" s="84" t="n"/>
+      <c r="CC13" s="84" t="n"/>
+      <c r="CD13" s="84" t="n"/>
+      <c r="CE13" s="84" t="n"/>
+      <c r="CF13" s="84" t="n"/>
+      <c r="CG13" s="84" t="n"/>
+      <c r="CH13" s="84" t="n"/>
+      <c r="CI13" s="84" t="n"/>
+      <c r="CJ13" s="84" t="n"/>
+      <c r="CK13" s="84" t="n"/>
+      <c r="CL13" s="84" t="n"/>
+      <c r="CM13" s="84" t="n"/>
+      <c r="CN13" s="84" t="n"/>
+      <c r="CO13" s="84" t="n"/>
+      <c r="CP13" s="84" t="n"/>
+      <c r="CQ13" s="84" t="n"/>
+      <c r="CR13" s="84" t="n"/>
+      <c r="CS13" s="84" t="n"/>
     </row>
     <row r="14" ht="15.15" customHeight="1" s="9">
       <c r="A14" s="16" t="inlineStr">
@@ -7787,86 +7926,86 @@
       <c r="Q14" s="0" t="n">
         <v>20191119</v>
       </c>
-      <c r="R14" s="83" t="n"/>
-      <c r="S14" s="76" t="n"/>
-      <c r="T14" s="76" t="n"/>
-      <c r="U14" s="83" t="n"/>
-      <c r="V14" s="76" t="n"/>
-      <c r="W14" s="76" t="n"/>
-      <c r="X14" s="83" t="n"/>
-      <c r="Y14" s="76" t="n"/>
-      <c r="Z14" s="76" t="n"/>
-      <c r="AA14" s="83" t="n"/>
-      <c r="AB14" s="76" t="n"/>
-      <c r="AC14" s="76" t="n"/>
-      <c r="AD14" s="83" t="n"/>
-      <c r="AE14" s="76" t="n"/>
-      <c r="AF14" s="76" t="n"/>
-      <c r="AG14" s="83" t="n"/>
-      <c r="AH14" s="76" t="n"/>
-      <c r="AI14" s="76" t="n"/>
-      <c r="AJ14" s="83" t="n"/>
-      <c r="AK14" s="76" t="n"/>
-      <c r="AL14" s="76" t="n"/>
-      <c r="AM14" s="83" t="n"/>
-      <c r="AN14" s="76" t="n"/>
-      <c r="AO14" s="76" t="n"/>
-      <c r="AP14" s="83" t="n"/>
-      <c r="AQ14" s="76" t="n"/>
-      <c r="AR14" s="76" t="n"/>
-      <c r="AS14" s="83" t="n"/>
-      <c r="AT14" s="76" t="n"/>
-      <c r="AU14" s="76" t="n"/>
-      <c r="AV14" s="83" t="n"/>
-      <c r="AW14" s="76" t="n"/>
-      <c r="AX14" s="76" t="n"/>
-      <c r="AY14" s="83" t="n"/>
-      <c r="AZ14" s="76" t="n"/>
-      <c r="BA14" s="76" t="n"/>
-      <c r="BB14" s="83" t="n"/>
-      <c r="BC14" s="76" t="n"/>
-      <c r="BD14" s="76" t="n"/>
-      <c r="BE14" s="83" t="n"/>
-      <c r="BF14" s="76" t="n"/>
-      <c r="BG14" s="76" t="n"/>
-      <c r="BH14" s="83" t="n"/>
-      <c r="BI14" s="76" t="n"/>
-      <c r="BJ14" s="76" t="n"/>
-      <c r="BK14" s="76" t="n"/>
-      <c r="BL14" s="76" t="n"/>
-      <c r="BM14" s="76" t="n"/>
-      <c r="BN14" s="76" t="n"/>
-      <c r="BO14" s="76" t="n"/>
-      <c r="BP14" s="76" t="n"/>
-      <c r="BQ14" s="76" t="n"/>
-      <c r="BR14" s="76" t="n"/>
-      <c r="BS14" s="76" t="n"/>
-      <c r="BT14" s="76" t="n"/>
-      <c r="BU14" s="76" t="n"/>
-      <c r="BV14" s="76" t="n"/>
-      <c r="BW14" s="76" t="n"/>
-      <c r="BX14" s="76" t="n"/>
-      <c r="BY14" s="76" t="n"/>
-      <c r="BZ14" s="76" t="n"/>
-      <c r="CA14" s="76" t="n"/>
-      <c r="CB14" s="76" t="n"/>
-      <c r="CC14" s="76" t="n"/>
-      <c r="CD14" s="76" t="n"/>
-      <c r="CE14" s="76" t="n"/>
-      <c r="CF14" s="76" t="n"/>
-      <c r="CG14" s="76" t="n"/>
-      <c r="CH14" s="76" t="n"/>
-      <c r="CI14" s="76" t="n"/>
-      <c r="CJ14" s="76" t="n"/>
-      <c r="CK14" s="76" t="n"/>
-      <c r="CL14" s="76" t="n"/>
-      <c r="CM14" s="76" t="n"/>
-      <c r="CN14" s="76" t="n"/>
-      <c r="CO14" s="76" t="n"/>
-      <c r="CP14" s="76" t="n"/>
-      <c r="CQ14" s="76" t="n"/>
-      <c r="CR14" s="76" t="n"/>
-      <c r="CS14" s="76" t="n"/>
+      <c r="R14" s="91" t="n"/>
+      <c r="S14" s="84" t="n"/>
+      <c r="T14" s="84" t="n"/>
+      <c r="U14" s="91" t="n"/>
+      <c r="V14" s="84" t="n"/>
+      <c r="W14" s="84" t="n"/>
+      <c r="X14" s="91" t="n"/>
+      <c r="Y14" s="84" t="n"/>
+      <c r="Z14" s="84" t="n"/>
+      <c r="AA14" s="91" t="n"/>
+      <c r="AB14" s="84" t="n"/>
+      <c r="AC14" s="84" t="n"/>
+      <c r="AD14" s="91" t="n"/>
+      <c r="AE14" s="84" t="n"/>
+      <c r="AF14" s="84" t="n"/>
+      <c r="AG14" s="91" t="n"/>
+      <c r="AH14" s="84" t="n"/>
+      <c r="AI14" s="84" t="n"/>
+      <c r="AJ14" s="91" t="n"/>
+      <c r="AK14" s="84" t="n"/>
+      <c r="AL14" s="84" t="n"/>
+      <c r="AM14" s="91" t="n"/>
+      <c r="AN14" s="84" t="n"/>
+      <c r="AO14" s="84" t="n"/>
+      <c r="AP14" s="91" t="n"/>
+      <c r="AQ14" s="84" t="n"/>
+      <c r="AR14" s="84" t="n"/>
+      <c r="AS14" s="91" t="n"/>
+      <c r="AT14" s="84" t="n"/>
+      <c r="AU14" s="84" t="n"/>
+      <c r="AV14" s="91" t="n"/>
+      <c r="AW14" s="84" t="n"/>
+      <c r="AX14" s="84" t="n"/>
+      <c r="AY14" s="91" t="n"/>
+      <c r="AZ14" s="84" t="n"/>
+      <c r="BA14" s="84" t="n"/>
+      <c r="BB14" s="91" t="n"/>
+      <c r="BC14" s="84" t="n"/>
+      <c r="BD14" s="84" t="n"/>
+      <c r="BE14" s="91" t="n"/>
+      <c r="BF14" s="84" t="n"/>
+      <c r="BG14" s="84" t="n"/>
+      <c r="BH14" s="91" t="n"/>
+      <c r="BI14" s="84" t="n"/>
+      <c r="BJ14" s="84" t="n"/>
+      <c r="BK14" s="84" t="n"/>
+      <c r="BL14" s="84" t="n"/>
+      <c r="BM14" s="84" t="n"/>
+      <c r="BN14" s="84" t="n"/>
+      <c r="BO14" s="84" t="n"/>
+      <c r="BP14" s="84" t="n"/>
+      <c r="BQ14" s="84" t="n"/>
+      <c r="BR14" s="84" t="n"/>
+      <c r="BS14" s="84" t="n"/>
+      <c r="BT14" s="84" t="n"/>
+      <c r="BU14" s="84" t="n"/>
+      <c r="BV14" s="84" t="n"/>
+      <c r="BW14" s="84" t="n"/>
+      <c r="BX14" s="84" t="n"/>
+      <c r="BY14" s="84" t="n"/>
+      <c r="BZ14" s="84" t="n"/>
+      <c r="CA14" s="84" t="n"/>
+      <c r="CB14" s="84" t="n"/>
+      <c r="CC14" s="84" t="n"/>
+      <c r="CD14" s="84" t="n"/>
+      <c r="CE14" s="84" t="n"/>
+      <c r="CF14" s="84" t="n"/>
+      <c r="CG14" s="84" t="n"/>
+      <c r="CH14" s="84" t="n"/>
+      <c r="CI14" s="84" t="n"/>
+      <c r="CJ14" s="84" t="n"/>
+      <c r="CK14" s="84" t="n"/>
+      <c r="CL14" s="84" t="n"/>
+      <c r="CM14" s="84" t="n"/>
+      <c r="CN14" s="84" t="n"/>
+      <c r="CO14" s="84" t="n"/>
+      <c r="CP14" s="84" t="n"/>
+      <c r="CQ14" s="84" t="n"/>
+      <c r="CR14" s="84" t="n"/>
+      <c r="CS14" s="84" t="n"/>
     </row>
     <row r="15" ht="15.15" customHeight="1" s="9">
       <c r="A15" s="0" t="inlineStr">
@@ -7896,7 +8035,7 @@
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:37</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L15" s="64">
@@ -7913,86 +8052,86 @@
       <c r="P15" s="0" t="n">
         <v>5623</v>
       </c>
-      <c r="R15" s="83" t="n"/>
-      <c r="S15" s="76" t="n"/>
-      <c r="T15" s="76" t="n"/>
-      <c r="U15" s="83" t="n"/>
-      <c r="V15" s="76" t="n"/>
-      <c r="W15" s="76" t="n"/>
-      <c r="X15" s="83" t="n"/>
-      <c r="Y15" s="76" t="n"/>
-      <c r="Z15" s="76" t="n"/>
-      <c r="AA15" s="83" t="n"/>
-      <c r="AB15" s="76" t="n"/>
-      <c r="AC15" s="76" t="n"/>
-      <c r="AD15" s="83" t="n"/>
-      <c r="AE15" s="76" t="n"/>
-      <c r="AF15" s="76" t="n"/>
-      <c r="AG15" s="83" t="n"/>
-      <c r="AH15" s="76" t="n"/>
-      <c r="AI15" s="76" t="n"/>
-      <c r="AJ15" s="83" t="n"/>
-      <c r="AK15" s="76" t="n"/>
-      <c r="AL15" s="76" t="n"/>
-      <c r="AM15" s="83" t="n"/>
-      <c r="AN15" s="76" t="n"/>
-      <c r="AO15" s="76" t="n"/>
-      <c r="AP15" s="83" t="n"/>
-      <c r="AQ15" s="76" t="n"/>
-      <c r="AR15" s="76" t="n"/>
-      <c r="AS15" s="83" t="n"/>
-      <c r="AT15" s="76" t="n"/>
-      <c r="AU15" s="76" t="n"/>
-      <c r="AV15" s="83" t="n"/>
-      <c r="AW15" s="76" t="n"/>
-      <c r="AX15" s="76" t="n"/>
-      <c r="AY15" s="83" t="n"/>
-      <c r="AZ15" s="76" t="n"/>
-      <c r="BA15" s="76" t="n"/>
-      <c r="BB15" s="83" t="n"/>
-      <c r="BC15" s="76" t="n"/>
-      <c r="BD15" s="76" t="n"/>
-      <c r="BE15" s="83" t="n"/>
-      <c r="BF15" s="76" t="n"/>
-      <c r="BG15" s="76" t="n"/>
-      <c r="BH15" s="83" t="n"/>
-      <c r="BI15" s="76" t="n"/>
-      <c r="BJ15" s="76" t="n"/>
-      <c r="BK15" s="76" t="n"/>
-      <c r="BL15" s="76" t="n"/>
-      <c r="BM15" s="76" t="n"/>
-      <c r="BN15" s="76" t="n"/>
-      <c r="BO15" s="76" t="n"/>
-      <c r="BP15" s="76" t="n"/>
-      <c r="BQ15" s="76" t="n"/>
-      <c r="BR15" s="76" t="n"/>
-      <c r="BS15" s="76" t="n"/>
-      <c r="BT15" s="76" t="n"/>
-      <c r="BU15" s="76" t="n"/>
-      <c r="BV15" s="76" t="n"/>
-      <c r="BW15" s="76" t="n"/>
-      <c r="BX15" s="76" t="n"/>
-      <c r="BY15" s="76" t="n"/>
-      <c r="BZ15" s="76" t="n"/>
-      <c r="CA15" s="76" t="n"/>
-      <c r="CB15" s="76" t="n"/>
-      <c r="CC15" s="76" t="n"/>
-      <c r="CD15" s="76" t="n"/>
-      <c r="CE15" s="76" t="n"/>
-      <c r="CF15" s="76" t="n"/>
-      <c r="CG15" s="76" t="n"/>
-      <c r="CH15" s="76" t="n"/>
-      <c r="CI15" s="76" t="n"/>
-      <c r="CJ15" s="76" t="n"/>
-      <c r="CK15" s="76" t="n"/>
-      <c r="CL15" s="76" t="n"/>
-      <c r="CM15" s="76" t="n"/>
-      <c r="CN15" s="76" t="n"/>
-      <c r="CO15" s="76" t="n"/>
-      <c r="CP15" s="76" t="n"/>
-      <c r="CQ15" s="76" t="n"/>
-      <c r="CR15" s="76" t="n"/>
-      <c r="CS15" s="76" t="n"/>
+      <c r="R15" s="91" t="n"/>
+      <c r="S15" s="84" t="n"/>
+      <c r="T15" s="84" t="n"/>
+      <c r="U15" s="91" t="n"/>
+      <c r="V15" s="84" t="n"/>
+      <c r="W15" s="84" t="n"/>
+      <c r="X15" s="91" t="n"/>
+      <c r="Y15" s="84" t="n"/>
+      <c r="Z15" s="84" t="n"/>
+      <c r="AA15" s="91" t="n"/>
+      <c r="AB15" s="84" t="n"/>
+      <c r="AC15" s="84" t="n"/>
+      <c r="AD15" s="91" t="n"/>
+      <c r="AE15" s="84" t="n"/>
+      <c r="AF15" s="84" t="n"/>
+      <c r="AG15" s="91" t="n"/>
+      <c r="AH15" s="84" t="n"/>
+      <c r="AI15" s="84" t="n"/>
+      <c r="AJ15" s="91" t="n"/>
+      <c r="AK15" s="84" t="n"/>
+      <c r="AL15" s="84" t="n"/>
+      <c r="AM15" s="91" t="n"/>
+      <c r="AN15" s="84" t="n"/>
+      <c r="AO15" s="84" t="n"/>
+      <c r="AP15" s="91" t="n"/>
+      <c r="AQ15" s="84" t="n"/>
+      <c r="AR15" s="84" t="n"/>
+      <c r="AS15" s="91" t="n"/>
+      <c r="AT15" s="84" t="n"/>
+      <c r="AU15" s="84" t="n"/>
+      <c r="AV15" s="91" t="n"/>
+      <c r="AW15" s="84" t="n"/>
+      <c r="AX15" s="84" t="n"/>
+      <c r="AY15" s="91" t="n"/>
+      <c r="AZ15" s="84" t="n"/>
+      <c r="BA15" s="84" t="n"/>
+      <c r="BB15" s="91" t="n"/>
+      <c r="BC15" s="84" t="n"/>
+      <c r="BD15" s="84" t="n"/>
+      <c r="BE15" s="91" t="n"/>
+      <c r="BF15" s="84" t="n"/>
+      <c r="BG15" s="84" t="n"/>
+      <c r="BH15" s="91" t="n"/>
+      <c r="BI15" s="84" t="n"/>
+      <c r="BJ15" s="84" t="n"/>
+      <c r="BK15" s="84" t="n"/>
+      <c r="BL15" s="84" t="n"/>
+      <c r="BM15" s="84" t="n"/>
+      <c r="BN15" s="84" t="n"/>
+      <c r="BO15" s="84" t="n"/>
+      <c r="BP15" s="84" t="n"/>
+      <c r="BQ15" s="84" t="n"/>
+      <c r="BR15" s="84" t="n"/>
+      <c r="BS15" s="84" t="n"/>
+      <c r="BT15" s="84" t="n"/>
+      <c r="BU15" s="84" t="n"/>
+      <c r="BV15" s="84" t="n"/>
+      <c r="BW15" s="84" t="n"/>
+      <c r="BX15" s="84" t="n"/>
+      <c r="BY15" s="84" t="n"/>
+      <c r="BZ15" s="84" t="n"/>
+      <c r="CA15" s="84" t="n"/>
+      <c r="CB15" s="84" t="n"/>
+      <c r="CC15" s="84" t="n"/>
+      <c r="CD15" s="84" t="n"/>
+      <c r="CE15" s="84" t="n"/>
+      <c r="CF15" s="84" t="n"/>
+      <c r="CG15" s="84" t="n"/>
+      <c r="CH15" s="84" t="n"/>
+      <c r="CI15" s="84" t="n"/>
+      <c r="CJ15" s="84" t="n"/>
+      <c r="CK15" s="84" t="n"/>
+      <c r="CL15" s="84" t="n"/>
+      <c r="CM15" s="84" t="n"/>
+      <c r="CN15" s="84" t="n"/>
+      <c r="CO15" s="84" t="n"/>
+      <c r="CP15" s="84" t="n"/>
+      <c r="CQ15" s="84" t="n"/>
+      <c r="CR15" s="84" t="n"/>
+      <c r="CS15" s="84" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -8015,7 +8154,7 @@
       <c r="J16" s="12" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:37</t>
+          <t>20191215 16:20:31</t>
         </is>
       </c>
       <c r="L16" s="64">
@@ -8032,86 +8171,86 @@
       <c r="P16" s="0" t="n">
         <v>30157</v>
       </c>
-      <c r="R16" s="83" t="n"/>
-      <c r="S16" s="76" t="n"/>
-      <c r="T16" s="76" t="n"/>
-      <c r="U16" s="83" t="n"/>
-      <c r="V16" s="76" t="n"/>
-      <c r="W16" s="76" t="n"/>
-      <c r="X16" s="83" t="n"/>
-      <c r="Y16" s="76" t="n"/>
-      <c r="Z16" s="76" t="n"/>
-      <c r="AA16" s="83" t="n"/>
-      <c r="AB16" s="76" t="n"/>
-      <c r="AC16" s="76" t="n"/>
-      <c r="AD16" s="83" t="n"/>
-      <c r="AE16" s="76" t="n"/>
-      <c r="AF16" s="76" t="n"/>
-      <c r="AG16" s="83" t="n"/>
-      <c r="AH16" s="76" t="n"/>
-      <c r="AI16" s="76" t="n"/>
-      <c r="AJ16" s="83" t="n"/>
-      <c r="AK16" s="76" t="n"/>
-      <c r="AL16" s="76" t="n"/>
-      <c r="AM16" s="83" t="n"/>
-      <c r="AN16" s="76" t="n"/>
-      <c r="AO16" s="76" t="n"/>
-      <c r="AP16" s="83" t="n"/>
-      <c r="AQ16" s="76" t="n"/>
-      <c r="AR16" s="76" t="n"/>
-      <c r="AS16" s="83" t="n"/>
-      <c r="AT16" s="76" t="n"/>
-      <c r="AU16" s="76" t="n"/>
-      <c r="AV16" s="83" t="n"/>
-      <c r="AW16" s="76" t="n"/>
-      <c r="AX16" s="76" t="n"/>
-      <c r="AY16" s="83" t="n"/>
-      <c r="AZ16" s="76" t="n"/>
-      <c r="BA16" s="76" t="n"/>
-      <c r="BB16" s="83" t="n"/>
-      <c r="BC16" s="76" t="n"/>
-      <c r="BD16" s="76" t="n"/>
-      <c r="BE16" s="83" t="n"/>
-      <c r="BF16" s="76" t="n"/>
-      <c r="BG16" s="76" t="n"/>
-      <c r="BH16" s="83" t="n"/>
-      <c r="BI16" s="76" t="n"/>
-      <c r="BJ16" s="76" t="n"/>
-      <c r="BK16" s="76" t="n"/>
-      <c r="BL16" s="76" t="n"/>
-      <c r="BM16" s="76" t="n"/>
-      <c r="BN16" s="76" t="n"/>
-      <c r="BO16" s="76" t="n"/>
-      <c r="BP16" s="76" t="n"/>
-      <c r="BQ16" s="76" t="n"/>
-      <c r="BR16" s="76" t="n"/>
-      <c r="BS16" s="76" t="n"/>
-      <c r="BT16" s="76" t="n"/>
-      <c r="BU16" s="76" t="n"/>
-      <c r="BV16" s="76" t="n"/>
-      <c r="BW16" s="76" t="n"/>
-      <c r="BX16" s="76" t="n"/>
-      <c r="BY16" s="76" t="n"/>
-      <c r="BZ16" s="76" t="n"/>
-      <c r="CA16" s="76" t="n"/>
-      <c r="CB16" s="76" t="n"/>
-      <c r="CC16" s="76" t="n"/>
-      <c r="CD16" s="76" t="n"/>
-      <c r="CE16" s="76" t="n"/>
-      <c r="CF16" s="76" t="n"/>
-      <c r="CG16" s="76" t="n"/>
-      <c r="CH16" s="76" t="n"/>
-      <c r="CI16" s="76" t="n"/>
-      <c r="CJ16" s="76" t="n"/>
-      <c r="CK16" s="76" t="n"/>
-      <c r="CL16" s="76" t="n"/>
-      <c r="CM16" s="76" t="n"/>
-      <c r="CN16" s="76" t="n"/>
-      <c r="CO16" s="76" t="n"/>
-      <c r="CP16" s="76" t="n"/>
-      <c r="CQ16" s="76" t="n"/>
-      <c r="CR16" s="76" t="n"/>
-      <c r="CS16" s="76" t="n"/>
+      <c r="R16" s="91" t="n"/>
+      <c r="S16" s="84" t="n"/>
+      <c r="T16" s="84" t="n"/>
+      <c r="U16" s="91" t="n"/>
+      <c r="V16" s="84" t="n"/>
+      <c r="W16" s="84" t="n"/>
+      <c r="X16" s="91" t="n"/>
+      <c r="Y16" s="84" t="n"/>
+      <c r="Z16" s="84" t="n"/>
+      <c r="AA16" s="91" t="n"/>
+      <c r="AB16" s="84" t="n"/>
+      <c r="AC16" s="84" t="n"/>
+      <c r="AD16" s="91" t="n"/>
+      <c r="AE16" s="84" t="n"/>
+      <c r="AF16" s="84" t="n"/>
+      <c r="AG16" s="91" t="n"/>
+      <c r="AH16" s="84" t="n"/>
+      <c r="AI16" s="84" t="n"/>
+      <c r="AJ16" s="91" t="n"/>
+      <c r="AK16" s="84" t="n"/>
+      <c r="AL16" s="84" t="n"/>
+      <c r="AM16" s="91" t="n"/>
+      <c r="AN16" s="84" t="n"/>
+      <c r="AO16" s="84" t="n"/>
+      <c r="AP16" s="91" t="n"/>
+      <c r="AQ16" s="84" t="n"/>
+      <c r="AR16" s="84" t="n"/>
+      <c r="AS16" s="91" t="n"/>
+      <c r="AT16" s="84" t="n"/>
+      <c r="AU16" s="84" t="n"/>
+      <c r="AV16" s="91" t="n"/>
+      <c r="AW16" s="84" t="n"/>
+      <c r="AX16" s="84" t="n"/>
+      <c r="AY16" s="91" t="n"/>
+      <c r="AZ16" s="84" t="n"/>
+      <c r="BA16" s="84" t="n"/>
+      <c r="BB16" s="91" t="n"/>
+      <c r="BC16" s="84" t="n"/>
+      <c r="BD16" s="84" t="n"/>
+      <c r="BE16" s="91" t="n"/>
+      <c r="BF16" s="84" t="n"/>
+      <c r="BG16" s="84" t="n"/>
+      <c r="BH16" s="91" t="n"/>
+      <c r="BI16" s="84" t="n"/>
+      <c r="BJ16" s="84" t="n"/>
+      <c r="BK16" s="84" t="n"/>
+      <c r="BL16" s="84" t="n"/>
+      <c r="BM16" s="84" t="n"/>
+      <c r="BN16" s="84" t="n"/>
+      <c r="BO16" s="84" t="n"/>
+      <c r="BP16" s="84" t="n"/>
+      <c r="BQ16" s="84" t="n"/>
+      <c r="BR16" s="84" t="n"/>
+      <c r="BS16" s="84" t="n"/>
+      <c r="BT16" s="84" t="n"/>
+      <c r="BU16" s="84" t="n"/>
+      <c r="BV16" s="84" t="n"/>
+      <c r="BW16" s="84" t="n"/>
+      <c r="BX16" s="84" t="n"/>
+      <c r="BY16" s="84" t="n"/>
+      <c r="BZ16" s="84" t="n"/>
+      <c r="CA16" s="84" t="n"/>
+      <c r="CB16" s="84" t="n"/>
+      <c r="CC16" s="84" t="n"/>
+      <c r="CD16" s="84" t="n"/>
+      <c r="CE16" s="84" t="n"/>
+      <c r="CF16" s="84" t="n"/>
+      <c r="CG16" s="84" t="n"/>
+      <c r="CH16" s="84" t="n"/>
+      <c r="CI16" s="84" t="n"/>
+      <c r="CJ16" s="84" t="n"/>
+      <c r="CK16" s="84" t="n"/>
+      <c r="CL16" s="84" t="n"/>
+      <c r="CM16" s="84" t="n"/>
+      <c r="CN16" s="84" t="n"/>
+      <c r="CO16" s="84" t="n"/>
+      <c r="CP16" s="84" t="n"/>
+      <c r="CQ16" s="84" t="n"/>
+      <c r="CR16" s="84" t="n"/>
+      <c r="CS16" s="84" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -8134,7 +8273,7 @@
       <c r="J17" s="12" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20191215 14:31:37</t>
+          <t>20191215 16:20:32</t>
         </is>
       </c>
       <c r="L17" s="64">
@@ -8151,86 +8290,86 @@
       <c r="P17" s="0" t="n">
         <v>8010</v>
       </c>
-      <c r="R17" s="83" t="n"/>
-      <c r="S17" s="76" t="n"/>
-      <c r="T17" s="76" t="n"/>
-      <c r="U17" s="83" t="n"/>
-      <c r="V17" s="76" t="n"/>
-      <c r="W17" s="76" t="n"/>
-      <c r="X17" s="83" t="n"/>
-      <c r="Y17" s="76" t="n"/>
-      <c r="Z17" s="76" t="n"/>
-      <c r="AA17" s="83" t="n"/>
-      <c r="AB17" s="76" t="n"/>
-      <c r="AC17" s="76" t="n"/>
-      <c r="AD17" s="83" t="n"/>
-      <c r="AE17" s="76" t="n"/>
-      <c r="AF17" s="76" t="n"/>
-      <c r="AG17" s="83" t="n"/>
-      <c r="AH17" s="76" t="n"/>
-      <c r="AI17" s="76" t="n"/>
-      <c r="AJ17" s="83" t="n"/>
-      <c r="AK17" s="76" t="n"/>
-      <c r="AL17" s="76" t="n"/>
-      <c r="AM17" s="83" t="n"/>
-      <c r="AN17" s="76" t="n"/>
-      <c r="AO17" s="76" t="n"/>
-      <c r="AP17" s="83" t="n"/>
-      <c r="AQ17" s="76" t="n"/>
-      <c r="AR17" s="76" t="n"/>
-      <c r="AS17" s="83" t="n"/>
-      <c r="AT17" s="76" t="n"/>
-      <c r="AU17" s="76" t="n"/>
-      <c r="AV17" s="83" t="n"/>
-      <c r="AW17" s="76" t="n"/>
-      <c r="AX17" s="76" t="n"/>
-      <c r="AY17" s="83" t="n"/>
-      <c r="AZ17" s="76" t="n"/>
-      <c r="BA17" s="76" t="n"/>
-      <c r="BB17" s="83" t="n"/>
-      <c r="BC17" s="76" t="n"/>
-      <c r="BD17" s="76" t="n"/>
-      <c r="BE17" s="83" t="n"/>
-      <c r="BF17" s="76" t="n"/>
-      <c r="BG17" s="76" t="n"/>
-      <c r="BH17" s="83" t="n"/>
-      <c r="BI17" s="76" t="n"/>
-      <c r="BJ17" s="76" t="n"/>
-      <c r="BK17" s="76" t="n"/>
-      <c r="BL17" s="76" t="n"/>
-      <c r="BM17" s="76" t="n"/>
-      <c r="BN17" s="76" t="n"/>
-      <c r="BO17" s="76" t="n"/>
-      <c r="BP17" s="76" t="n"/>
-      <c r="BQ17" s="76" t="n"/>
-      <c r="BR17" s="76" t="n"/>
-      <c r="BS17" s="76" t="n"/>
-      <c r="BT17" s="76" t="n"/>
-      <c r="BU17" s="76" t="n"/>
-      <c r="BV17" s="76" t="n"/>
-      <c r="BW17" s="76" t="n"/>
-      <c r="BX17" s="76" t="n"/>
-      <c r="BY17" s="76" t="n"/>
-      <c r="BZ17" s="76" t="n"/>
-      <c r="CA17" s="76" t="n"/>
-      <c r="CB17" s="76" t="n"/>
-      <c r="CC17" s="76" t="n"/>
-      <c r="CD17" s="76" t="n"/>
-      <c r="CE17" s="76" t="n"/>
-      <c r="CF17" s="76" t="n"/>
-      <c r="CG17" s="76" t="n"/>
-      <c r="CH17" s="76" t="n"/>
-      <c r="CI17" s="76" t="n"/>
-      <c r="CJ17" s="76" t="n"/>
-      <c r="CK17" s="76" t="n"/>
-      <c r="CL17" s="76" t="n"/>
-      <c r="CM17" s="76" t="n"/>
-      <c r="CN17" s="76" t="n"/>
-      <c r="CO17" s="76" t="n"/>
-      <c r="CP17" s="76" t="n"/>
-      <c r="CQ17" s="76" t="n"/>
-      <c r="CR17" s="76" t="n"/>
-      <c r="CS17" s="76" t="n"/>
+      <c r="R17" s="91" t="n"/>
+      <c r="S17" s="84" t="n"/>
+      <c r="T17" s="84" t="n"/>
+      <c r="U17" s="91" t="n"/>
+      <c r="V17" s="84" t="n"/>
+      <c r="W17" s="84" t="n"/>
+      <c r="X17" s="91" t="n"/>
+      <c r="Y17" s="84" t="n"/>
+      <c r="Z17" s="84" t="n"/>
+      <c r="AA17" s="91" t="n"/>
+      <c r="AB17" s="84" t="n"/>
+      <c r="AC17" s="84" t="n"/>
+      <c r="AD17" s="91" t="n"/>
+      <c r="AE17" s="84" t="n"/>
+      <c r="AF17" s="84" t="n"/>
+      <c r="AG17" s="91" t="n"/>
+      <c r="AH17" s="84" t="n"/>
+      <c r="AI17" s="84" t="n"/>
+      <c r="AJ17" s="91" t="n"/>
+      <c r="AK17" s="84" t="n"/>
+      <c r="AL17" s="84" t="n"/>
+      <c r="AM17" s="91" t="n"/>
+      <c r="AN17" s="84" t="n"/>
+      <c r="AO17" s="84" t="n"/>
+      <c r="AP17" s="91" t="n"/>
+      <c r="AQ17" s="84" t="n"/>
+      <c r="AR17" s="84" t="n"/>
+      <c r="AS17" s="91" t="n"/>
+      <c r="AT17" s="84" t="n"/>
+      <c r="AU17" s="84" t="n"/>
+      <c r="AV17" s="91" t="n"/>
+      <c r="AW17" s="84" t="n"/>
+      <c r="AX17" s="84" t="n"/>
+      <c r="AY17" s="91" t="n"/>
+      <c r="AZ17" s="84" t="n"/>
+      <c r="BA17" s="84" t="n"/>
+      <c r="BB17" s="91" t="n"/>
+      <c r="BC17" s="84" t="n"/>
+      <c r="BD17" s="84" t="n"/>
+      <c r="BE17" s="91" t="n"/>
+      <c r="BF17" s="84" t="n"/>
+      <c r="BG17" s="84" t="n"/>
+      <c r="BH17" s="91" t="n"/>
+      <c r="BI17" s="84" t="n"/>
+      <c r="BJ17" s="84" t="n"/>
+      <c r="BK17" s="84" t="n"/>
+      <c r="BL17" s="84" t="n"/>
+      <c r="BM17" s="84" t="n"/>
+      <c r="BN17" s="84" t="n"/>
+      <c r="BO17" s="84" t="n"/>
+      <c r="BP17" s="84" t="n"/>
+      <c r="BQ17" s="84" t="n"/>
+      <c r="BR17" s="84" t="n"/>
+      <c r="BS17" s="84" t="n"/>
+      <c r="BT17" s="84" t="n"/>
+      <c r="BU17" s="84" t="n"/>
+      <c r="BV17" s="84" t="n"/>
+      <c r="BW17" s="84" t="n"/>
+      <c r="BX17" s="84" t="n"/>
+      <c r="BY17" s="84" t="n"/>
+      <c r="BZ17" s="84" t="n"/>
+      <c r="CA17" s="84" t="n"/>
+      <c r="CB17" s="84" t="n"/>
+      <c r="CC17" s="84" t="n"/>
+      <c r="CD17" s="84" t="n"/>
+      <c r="CE17" s="84" t="n"/>
+      <c r="CF17" s="84" t="n"/>
+      <c r="CG17" s="84" t="n"/>
+      <c r="CH17" s="84" t="n"/>
+      <c r="CI17" s="84" t="n"/>
+      <c r="CJ17" s="84" t="n"/>
+      <c r="CK17" s="84" t="n"/>
+      <c r="CL17" s="84" t="n"/>
+      <c r="CM17" s="84" t="n"/>
+      <c r="CN17" s="84" t="n"/>
+      <c r="CO17" s="84" t="n"/>
+      <c r="CP17" s="84" t="n"/>
+      <c r="CQ17" s="84" t="n"/>
+      <c r="CR17" s="84" t="n"/>
+      <c r="CS17" s="84" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
@@ -8493,25 +8632,25 @@
         <v>13000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1.0225</v>
+        <v>1.0227</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9507</v>
+        <v>0.9508</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.7559</v>
+        <v>1.764</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.6521</v>
+        <v>2.647</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>19308</v>
@@ -8535,34 +8674,34 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="n">
-        <v>2796.771670963397</v>
+        <v>2809.082438862133</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>4.349026048024192</v>
+        <v>4.368169495027264</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>766.0521955260971</v>
+        <v>768.7448218724099</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>5.892709196354593</v>
+        <v>5.913421706710846</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>699.9888678615163</v>
+        <v>701.3247244795724</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>5.833240565512635</v>
+        <v>5.844372703996436</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>66.18160651920846</v>
+        <v>80.32596041909204</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>2.206053550640282</v>
+        <v>2.677532013969735</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>48.39080459770118</v>
+        <v>42.52873563218382</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>1.613026819923373</v>
+        <v>1.417624521072794</v>
       </c>
       <c r="L4" s="12" t="n">
         <v>820.5679385792191</v>
@@ -8935,16 +9074,16 @@
       <c r="B14" s="0" t="inlineStr"/>
       <c r="C14" s="0" t="inlineStr"/>
       <c r="D14" s="11" t="n">
-        <v>766.0521955260971</v>
+        <v>768.7448218724099</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>5.892709196354593</v>
+        <v>5.913421706710846</v>
       </c>
       <c r="F14" s="11" t="n">
-        <v>699.9888678615163</v>
+        <v>701.3247244795724</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>5.833240565512635</v>
+        <v>5.844372703996436</v>
       </c>
       <c r="H14" s="0" t="inlineStr"/>
       <c r="I14" s="0" t="inlineStr"/>
@@ -9005,10 +9144,10 @@
       <c r="F16" s="0" t="inlineStr"/>
       <c r="G16" s="0" t="inlineStr"/>
       <c r="H16" s="12" t="n">
-        <v>66.18160651920846</v>
+        <v>80.32596041909204</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>2.206053550640282</v>
+        <v>2.677532013969735</v>
       </c>
       <c r="J16" s="0" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr"/>
@@ -9073,10 +9212,10 @@
       <c r="H18" s="0" t="inlineStr"/>
       <c r="I18" s="0" t="inlineStr"/>
       <c r="J18" s="12" t="n">
-        <v>48.39080459770118</v>
+        <v>42.52873563218382</v>
       </c>
       <c r="K18" s="12" t="n">
-        <v>1.613026819923373</v>
+        <v>1.417624521072794</v>
       </c>
       <c r="L18" s="11" t="n">
         <v>281.0583819658997</v>
@@ -9235,6 +9374,12 @@
     <cfRule type="cellIs" priority="237" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="292" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="293" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:O12">
     <cfRule type="cellIs" priority="54" operator="lessThan" dxfId="2">
@@ -9275,6 +9420,12 @@
     <cfRule type="cellIs" priority="239" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="294" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="295" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
     <cfRule type="cellIs" priority="60" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9307,6 +9458,12 @@
     <cfRule type="cellIs" priority="249" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="304" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="305" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
     <cfRule type="cellIs" priority="62" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9339,6 +9496,12 @@
     <cfRule type="cellIs" priority="251" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="306" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="307" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9371,6 +9534,12 @@
     <cfRule type="cellIs" priority="205" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="260" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="261" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9403,6 +9572,12 @@
     <cfRule type="cellIs" priority="207" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="262" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="263" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
     <cfRule type="cellIs" priority="21" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9435,6 +9610,12 @@
     <cfRule type="cellIs" priority="213" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="268" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="269" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" priority="23" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9467,6 +9648,12 @@
     <cfRule type="cellIs" priority="215" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="270" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="271" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
     <cfRule type="cellIs" priority="17" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9493,6 +9680,12 @@
     <cfRule type="cellIs" priority="221" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="276" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="277" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
     <cfRule type="cellIs" priority="19" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9519,6 +9712,12 @@
     <cfRule type="cellIs" priority="223" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="278" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="279" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
     <cfRule type="cellIs" priority="13" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9545,6 +9744,12 @@
     <cfRule type="cellIs" priority="229" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="284" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="285" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
     <cfRule type="cellIs" priority="15" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9571,6 +9776,12 @@
     <cfRule type="cellIs" priority="231" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="286" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="287" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
     <cfRule type="cellIs" priority="5" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9603,6 +9814,12 @@
     <cfRule type="cellIs" priority="241" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="296" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="297" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:M18">
     <cfRule type="cellIs" priority="1" operator="lessThan" dxfId="2">
@@ -9649,6 +9866,12 @@
     <cfRule type="cellIs" priority="243" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="298" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="299" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="4" stopIfTrue="1">
@@ -9746,6 +9969,12 @@
     <cfRule type="cellIs" priority="209" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="264" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="265" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="98" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9766,6 +9995,12 @@
     <cfRule type="cellIs" priority="211" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="266" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="267" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="104" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9786,6 +10021,12 @@
     <cfRule type="cellIs" priority="217" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="272" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="273" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="106" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9806,6 +10047,12 @@
     <cfRule type="cellIs" priority="219" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="274" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="275" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="112" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9826,6 +10073,12 @@
     <cfRule type="cellIs" priority="225" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="280" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="281" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="114" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9846,6 +10099,12 @@
     <cfRule type="cellIs" priority="227" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="282" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="283" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="120" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9866,6 +10125,12 @@
     <cfRule type="cellIs" priority="233" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="288" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="289" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="122" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9886,6 +10151,12 @@
     <cfRule type="cellIs" priority="235" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="290" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="291" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="132" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9906,6 +10177,12 @@
     <cfRule type="cellIs" priority="245" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="300" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="301" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="134" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9926,6 +10203,12 @@
     <cfRule type="cellIs" priority="247" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="302" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="303" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="140" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9946,6 +10229,12 @@
     <cfRule type="cellIs" priority="253" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="308" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="309" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="142" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9966,6 +10255,12 @@
     <cfRule type="cellIs" priority="255" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="310" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="311" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="144" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -9986,6 +10281,12 @@
     <cfRule type="cellIs" priority="257" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="312" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="313" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="146" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -10004,6 +10305,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="259" operator="lessThan" dxfId="7" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="314" operator="greaterThan" dxfId="6" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="315" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -621,6 +621,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -628,61 +629,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
@@ -691,13 +692,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyAlignment="1">
@@ -709,10 +710,10 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
@@ -721,58 +722,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="16" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,7 +1388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU31"/>
+  <dimension ref="A1:CU36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -5821,6 +5822,81 @@
       <c r="CS31" s="90" t="n"/>
       <c r="CT31" s="90" t="n"/>
       <c r="CU31" s="90" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="N32">
+        <f>(O32-I32)/I32*100</f>
+        <v/>
+      </c>
+      <c r="Q32">
+        <f>(R32-I32)/I32*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="N33">
+        <f>(O33-I33)/I33*100</f>
+        <v/>
+      </c>
+      <c r="Q33">
+        <f>(R33-I33)/I33*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>007300</t>
+        </is>
+      </c>
+      <c r="N34">
+        <f>(O34-I34)/I34*100</f>
+        <v/>
+      </c>
+      <c r="Q34">
+        <f>(R34-I34)/I34*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>161613</t>
+        </is>
+      </c>
+      <c r="N35">
+        <f>(O35-I35)/I35*100</f>
+        <v/>
+      </c>
+      <c r="Q35">
+        <f>(R35-I35)/I35*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>161128</t>
+        </is>
+      </c>
+      <c r="N36">
+        <f>(O36-I36)/I36*100</f>
+        <v/>
+      </c>
+      <c r="Q36">
+        <f>(R36-I36)/I36*100</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -642,6 +642,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -649,61 +650,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
@@ -712,13 +713,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyAlignment="1">
@@ -730,10 +731,10 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1">
@@ -742,58 +743,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9179,25 +9180,25 @@
           <t>基金</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr"/>
+      <c r="M1" s="0" t="n"/>
       <c r="N1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="O1" s="0" t="inlineStr"/>
+      <c r="O1" s="0" t="n"/>
       <c r="P1" s="0" t="inlineStr">
         <is>
-          <t>指数</t>
-        </is>
-      </c>
-      <c r="Q1" s="0" t="inlineStr"/>
+          <t>基金</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="n"/>
       <c r="R1" s="0" t="inlineStr">
         <is>
-          <t>指数</t>
-        </is>
-      </c>
-      <c r="S1" s="0" t="inlineStr"/>
+          <t>基金</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -9241,44 +9242,28 @@
       <c r="K2" s="0" t="inlineStr"/>
       <c r="L2" s="10" t="inlineStr">
         <is>
-          <t>003096</t>
-        </is>
-      </c>
-      <c r="M2" s="0" t="inlineStr">
-        <is>
-          <t>中欧医疗健康混合C</t>
-        </is>
-      </c>
+          <t>161033</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="n"/>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>040046</t>
-        </is>
-      </c>
-      <c r="O2" s="0" t="inlineStr">
-        <is>
-          <t>华安纳斯达克100指数</t>
-        </is>
-      </c>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="n"/>
       <c r="P2" s="10" t="inlineStr">
         <is>
-          <t>100.HSI</t>
-        </is>
-      </c>
-      <c r="Q2" s="0" t="inlineStr">
-        <is>
-          <t>恒生指数组合</t>
-        </is>
-      </c>
+          <t>110003</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="n"/>
       <c r="R2" s="10" t="inlineStr">
         <is>
-          <t>000922.CSI</t>
-        </is>
-      </c>
-      <c r="S2" s="0" t="inlineStr">
-        <is>
-          <t>红利指数组合</t>
-        </is>
-      </c>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="S2" s="0" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -9304,30 +9289,14 @@
       <c r="I3" s="0" t="inlineStr"/>
       <c r="J3" s="0" t="inlineStr"/>
       <c r="K3" s="0" t="inlineStr"/>
-      <c r="L3" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>2.6521</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>19308</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>27508.09</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>14000</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>4338.628</v>
-      </c>
+      <c r="L3" s="0" t="n"/>
+      <c r="M3" s="0" t="n"/>
+      <c r="N3" s="0" t="n"/>
+      <c r="O3" s="0" t="n"/>
+      <c r="P3" s="0" t="n"/>
+      <c r="Q3" s="0" t="n"/>
+      <c r="R3" s="0" t="n"/>
+      <c r="S3" s="0" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -9355,30 +9324,14 @@
       <c r="I4" s="12" t="inlineStr"/>
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
-      <c r="L4" s="12" t="n">
-        <v>90.803259604191</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>3.0267753201397</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>48.39080459770118</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>1.613026819923373</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>689.9506621536617</v>
-      </c>
-      <c r="Q4" s="0" t="n">
-        <v>3.573392698123377</v>
-      </c>
-      <c r="R4" s="0" t="n">
-        <v>503.5319961795596</v>
-      </c>
-      <c r="S4" s="0" t="n">
-        <v>3.596657115568283</v>
-      </c>
+      <c r="L4" s="12" t="n"/>
+      <c r="M4" s="12" t="n"/>
+      <c r="N4" s="12" t="n"/>
+      <c r="O4" s="12" t="n"/>
+      <c r="P4" s="0" t="n"/>
+      <c r="Q4" s="0" t="n"/>
+      <c r="R4" s="0" t="n"/>
+      <c r="S4" s="0" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -9400,22 +9353,14 @@
       <c r="I5" s="0" t="inlineStr"/>
       <c r="J5" s="0" t="inlineStr"/>
       <c r="K5" s="0" t="inlineStr"/>
-      <c r="L5" s="0" t="inlineStr"/>
-      <c r="M5" s="0" t="inlineStr"/>
-      <c r="N5" s="0" t="inlineStr"/>
-      <c r="O5" s="0" t="inlineStr"/>
-      <c r="P5" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>26681</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>4401</v>
-      </c>
+      <c r="L5" s="0" t="n"/>
+      <c r="M5" s="0" t="n"/>
+      <c r="N5" s="0" t="n"/>
+      <c r="O5" s="0" t="n"/>
+      <c r="P5" s="0" t="n"/>
+      <c r="Q5" s="0" t="n"/>
+      <c r="R5" s="0" t="n"/>
+      <c r="S5" s="0" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -9431,22 +9376,14 @@
       <c r="I6" s="0" t="inlineStr"/>
       <c r="J6" s="0" t="inlineStr"/>
       <c r="K6" s="0" t="inlineStr"/>
-      <c r="L6" s="64" t="inlineStr"/>
-      <c r="M6" s="64" t="inlineStr"/>
-      <c r="N6" s="64" t="inlineStr"/>
-      <c r="O6" s="64" t="inlineStr"/>
-      <c r="P6" s="64" t="n">
-        <v>754.844271204228</v>
-      </c>
-      <c r="Q6" s="64" t="n">
-        <v>3.77422135602114</v>
-      </c>
-      <c r="R6" s="64" t="n">
-        <v>-595.319245625994</v>
-      </c>
-      <c r="S6" s="64" t="n">
-        <v>-2.97659622812997</v>
-      </c>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="64" t="n"/>
+      <c r="N6" s="64" t="n"/>
+      <c r="O6" s="64" t="n"/>
+      <c r="P6" s="64" t="n"/>
+      <c r="Q6" s="64" t="n"/>
+      <c r="R6" s="64" t="n"/>
+      <c r="S6" s="64" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
@@ -9468,22 +9405,14 @@
       <c r="I7" s="0" t="inlineStr"/>
       <c r="J7" s="0" t="inlineStr"/>
       <c r="K7" s="0" t="inlineStr"/>
-      <c r="L7" s="0" t="inlineStr"/>
-      <c r="M7" s="0" t="inlineStr"/>
-      <c r="N7" s="0" t="inlineStr"/>
-      <c r="O7" s="0" t="inlineStr"/>
-      <c r="P7" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>25893</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>6077</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>4225</v>
-      </c>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
+      <c r="N7" s="0" t="n"/>
+      <c r="O7" s="0" t="n"/>
+      <c r="P7" s="0" t="n"/>
+      <c r="Q7" s="0" t="n"/>
+      <c r="R7" s="0" t="n"/>
+      <c r="S7" s="0" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -9499,22 +9428,14 @@
       <c r="I8" s="0" t="inlineStr"/>
       <c r="J8" s="0" t="inlineStr"/>
       <c r="K8" s="0" t="inlineStr"/>
-      <c r="L8" s="64" t="inlineStr"/>
-      <c r="M8" s="64" t="inlineStr"/>
-      <c r="N8" s="64" t="inlineStr"/>
-      <c r="O8" s="64" t="inlineStr"/>
-      <c r="P8" s="0" t="n">
-        <v>693.237554551423</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>6.93237554551423</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>64.7254437869823</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>1.06508875739645</v>
-      </c>
+      <c r="L8" s="64" t="n"/>
+      <c r="M8" s="64" t="n"/>
+      <c r="N8" s="64" t="n"/>
+      <c r="O8" s="64" t="n"/>
+      <c r="P8" s="0" t="n"/>
+      <c r="Q8" s="0" t="n"/>
+      <c r="R8" s="0" t="n"/>
+      <c r="S8" s="0" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -9538,22 +9459,14 @@
       <c r="I9" s="0" t="inlineStr"/>
       <c r="J9" s="0" t="inlineStr"/>
       <c r="K9" s="0" t="inlineStr"/>
-      <c r="L9" s="0" t="inlineStr"/>
-      <c r="M9" s="0" t="inlineStr"/>
-      <c r="N9" s="0" t="inlineStr"/>
-      <c r="O9" s="0" t="inlineStr"/>
-      <c r="P9" s="0" t="n">
-        <v>-31575.22</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>27688</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>-26487.2</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>4270</v>
-      </c>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
+      <c r="N9" s="0" t="n"/>
+      <c r="O9" s="0" t="n"/>
+      <c r="P9" s="0" t="n"/>
+      <c r="Q9" s="0" t="n"/>
+      <c r="R9" s="0" t="n"/>
+      <c r="S9" s="0" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -9569,22 +9482,14 @@
       <c r="I10" s="0" t="inlineStr"/>
       <c r="J10" s="0" t="inlineStr"/>
       <c r="K10" s="0" t="inlineStr"/>
-      <c r="L10" s="67" t="inlineStr"/>
-      <c r="M10" s="64" t="inlineStr"/>
-      <c r="N10" s="67" t="inlineStr"/>
-      <c r="O10" s="64" t="inlineStr"/>
-      <c r="P10" s="64" t="n">
-        <v>1448.08</v>
-      </c>
-      <c r="Q10" s="64" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="R10" s="64" t="n">
-        <v>400</v>
-      </c>
-      <c r="S10" s="64" t="n">
-        <v>1.53</v>
-      </c>
+      <c r="L10" s="67" t="n"/>
+      <c r="M10" s="64" t="n"/>
+      <c r="N10" s="67" t="n"/>
+      <c r="O10" s="64" t="n"/>
+      <c r="P10" s="64" t="n"/>
+      <c r="Q10" s="64" t="n"/>
+      <c r="R10" s="64" t="n"/>
+      <c r="S10" s="64" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
@@ -9608,22 +9513,14 @@
       <c r="I11" s="0" t="inlineStr"/>
       <c r="J11" s="0" t="inlineStr"/>
       <c r="K11" s="0" t="inlineStr"/>
-      <c r="L11" s="0" t="inlineStr"/>
-      <c r="M11" s="0" t="inlineStr"/>
-      <c r="N11" s="0" t="inlineStr"/>
-      <c r="O11" s="0" t="inlineStr"/>
-      <c r="P11" s="0" t="n">
-        <v>14298</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>26681</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>14000</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>4188</v>
-      </c>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
+      <c r="N11" s="0" t="n"/>
+      <c r="O11" s="0" t="n"/>
+      <c r="P11" s="0" t="n"/>
+      <c r="Q11" s="0" t="n"/>
+      <c r="R11" s="0" t="n"/>
+      <c r="S11" s="0" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -9639,22 +9536,14 @@
       <c r="I12" s="0" t="inlineStr"/>
       <c r="J12" s="0" t="inlineStr"/>
       <c r="K12" s="0" t="inlineStr"/>
-      <c r="L12" s="11" t="inlineStr"/>
-      <c r="M12" s="11" t="inlineStr"/>
-      <c r="N12" s="11" t="inlineStr"/>
-      <c r="O12" s="11" t="inlineStr"/>
-      <c r="P12" s="0" t="n">
-        <v>443.2267463738241</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>3.099921292305386</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>503.5319961795596</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>3.596657115568283</v>
-      </c>
+      <c r="L12" s="11" t="n"/>
+      <c r="M12" s="11" t="n"/>
+      <c r="N12" s="11" t="n"/>
+      <c r="O12" s="11" t="n"/>
+      <c r="P12" s="0" t="n"/>
+      <c r="Q12" s="0" t="n"/>
+      <c r="R12" s="0" t="n"/>
+      <c r="S12" s="0" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -9686,14 +9575,14 @@
       <c r="I13" s="0" t="inlineStr"/>
       <c r="J13" s="0" t="inlineStr"/>
       <c r="K13" s="0" t="inlineStr"/>
-      <c r="L13" s="0" t="inlineStr"/>
-      <c r="M13" s="0" t="inlineStr"/>
-      <c r="N13" s="0" t="inlineStr"/>
-      <c r="O13" s="0" t="inlineStr"/>
-      <c r="P13" s="0" t="inlineStr"/>
-      <c r="Q13" s="0" t="inlineStr"/>
-      <c r="R13" s="0" t="inlineStr"/>
-      <c r="S13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="n"/>
+      <c r="M13" s="0" t="n"/>
+      <c r="N13" s="0" t="n"/>
+      <c r="O13" s="0" t="n"/>
+      <c r="P13" s="0" t="n"/>
+      <c r="Q13" s="0" t="n"/>
+      <c r="R13" s="0" t="n"/>
+      <c r="S13" s="0" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -9717,14 +9606,14 @@
       <c r="I14" s="0" t="inlineStr"/>
       <c r="J14" s="0" t="inlineStr"/>
       <c r="K14" s="0" t="inlineStr"/>
-      <c r="L14" s="0" t="inlineStr"/>
-      <c r="M14" s="0" t="inlineStr"/>
-      <c r="N14" s="0" t="inlineStr"/>
-      <c r="O14" s="0" t="inlineStr"/>
-      <c r="P14" s="0" t="inlineStr"/>
-      <c r="Q14" s="0" t="inlineStr"/>
-      <c r="R14" s="0" t="inlineStr"/>
-      <c r="S14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="n"/>
+      <c r="M14" s="0" t="n"/>
+      <c r="N14" s="0" t="n"/>
+      <c r="O14" s="0" t="n"/>
+      <c r="P14" s="0" t="n"/>
+      <c r="Q14" s="0" t="n"/>
+      <c r="R14" s="0" t="n"/>
+      <c r="S14" s="0" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -9748,18 +9637,14 @@
       <c r="I15" s="0" t="inlineStr"/>
       <c r="J15" s="0" t="inlineStr"/>
       <c r="K15" s="0" t="inlineStr"/>
-      <c r="L15" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>1.718</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr"/>
-      <c r="O15" s="0" t="inlineStr"/>
-      <c r="P15" s="0" t="inlineStr"/>
-      <c r="Q15" s="0" t="inlineStr"/>
-      <c r="R15" s="0" t="inlineStr"/>
-      <c r="S15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="n"/>
+      <c r="M15" s="0" t="n"/>
+      <c r="N15" s="0" t="n"/>
+      <c r="O15" s="0" t="n"/>
+      <c r="P15" s="0" t="n"/>
+      <c r="Q15" s="0" t="n"/>
+      <c r="R15" s="0" t="n"/>
+      <c r="S15" s="0" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -9775,18 +9660,14 @@
       <c r="I16" s="12" t="inlineStr"/>
       <c r="J16" s="0" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr"/>
-      <c r="L16" s="0" t="n">
-        <v>90.803259604191</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>3.0267753201397</v>
-      </c>
-      <c r="N16" s="0" t="inlineStr"/>
-      <c r="O16" s="0" t="inlineStr"/>
-      <c r="P16" s="0" t="inlineStr"/>
-      <c r="Q16" s="0" t="inlineStr"/>
-      <c r="R16" s="0" t="inlineStr"/>
-      <c r="S16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="n"/>
+      <c r="M16" s="0" t="n"/>
+      <c r="N16" s="0" t="n"/>
+      <c r="O16" s="0" t="n"/>
+      <c r="P16" s="0" t="n"/>
+      <c r="Q16" s="0" t="n"/>
+      <c r="R16" s="0" t="n"/>
+      <c r="S16" s="0" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -9810,22 +9691,14 @@
       <c r="I17" s="0" t="inlineStr"/>
       <c r="J17" s="0" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr"/>
-      <c r="L17" s="0" t="inlineStr"/>
-      <c r="M17" s="0" t="inlineStr"/>
-      <c r="N17" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>5010</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>26217</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr"/>
-      <c r="S17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="n"/>
+      <c r="M17" s="0" t="n"/>
+      <c r="N17" s="0" t="n"/>
+      <c r="O17" s="0" t="n"/>
+      <c r="P17" s="0" t="n"/>
+      <c r="Q17" s="0" t="n"/>
+      <c r="R17" s="0" t="n"/>
+      <c r="S17" s="0" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -9841,22 +9714,14 @@
       <c r="I18" s="0" t="inlineStr"/>
       <c r="J18" s="12" t="inlineStr"/>
       <c r="K18" s="12" t="inlineStr"/>
-      <c r="L18" s="11" t="inlineStr"/>
-      <c r="M18" s="11" t="inlineStr"/>
-      <c r="N18" s="0" t="n">
-        <v>48.39080459770118</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>1.613026819923373</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>246.7239157798375</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>4.924629057481787</v>
-      </c>
-      <c r="R18" s="0" t="inlineStr"/>
-      <c r="S18" s="0" t="inlineStr"/>
+      <c r="L18" s="11" t="n"/>
+      <c r="M18" s="11" t="n"/>
+      <c r="N18" s="0" t="n"/>
+      <c r="O18" s="0" t="n"/>
+      <c r="P18" s="0" t="n"/>
+      <c r="Q18" s="0" t="n"/>
+      <c r="R18" s="0" t="n"/>
+      <c r="S18" s="0" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -9890,14 +9755,14 @@
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr"/>
-      <c r="L19" s="0" t="inlineStr"/>
-      <c r="M19" s="0" t="inlineStr"/>
-      <c r="N19" s="0" t="inlineStr"/>
-      <c r="O19" s="0" t="inlineStr"/>
-      <c r="P19" s="0" t="inlineStr"/>
-      <c r="Q19" s="0" t="inlineStr"/>
-      <c r="R19" s="0" t="inlineStr"/>
-      <c r="S19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="n"/>
+      <c r="M19" s="0" t="n"/>
+      <c r="N19" s="0" t="n"/>
+      <c r="O19" s="0" t="n"/>
+      <c r="P19" s="0" t="n"/>
+      <c r="Q19" s="0" t="n"/>
+      <c r="R19" s="0" t="n"/>
+      <c r="S19" s="0" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -9915,19 +9780,31 @@
       <c r="I20" s="0" t="inlineStr"/>
       <c r="J20" s="0" t="inlineStr"/>
       <c r="K20" s="0" t="inlineStr"/>
-      <c r="L20" s="0" t="inlineStr"/>
-      <c r="M20" s="0" t="inlineStr"/>
-      <c r="N20" s="0" t="inlineStr"/>
-      <c r="O20" s="0" t="inlineStr"/>
-      <c r="P20" s="0" t="inlineStr"/>
-      <c r="Q20" s="0" t="inlineStr"/>
-      <c r="R20" s="0" t="inlineStr"/>
-      <c r="S20" s="0" t="inlineStr"/>
+      <c r="L20" s="0" t="n"/>
+      <c r="M20" s="0" t="n"/>
+      <c r="N20" s="0" t="n"/>
+      <c r="O20" s="0" t="n"/>
+      <c r="P20" s="0" t="n"/>
+      <c r="Q20" s="0" t="n"/>
+      <c r="R20" s="0" t="n"/>
+      <c r="S20" s="0" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr"/>
-      <c r="B21" s="0" t="inlineStr"/>
-      <c r="C21" s="0" t="inlineStr"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>20191218</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>投资</t>
+        </is>
+      </c>
       <c r="D21" s="11" t="inlineStr"/>
       <c r="E21" s="11" t="inlineStr"/>
       <c r="F21" s="0" t="inlineStr"/>
@@ -9936,24 +9813,60 @@
       <c r="I21" s="0" t="inlineStr"/>
       <c r="J21" s="0" t="inlineStr"/>
       <c r="K21" s="0" t="inlineStr"/>
-      <c r="L21" s="0" t="inlineStr"/>
-      <c r="M21" s="0" t="inlineStr"/>
-      <c r="N21" s="0" t="inlineStr"/>
-      <c r="O21" s="0" t="inlineStr"/>
-      <c r="P21" s="0" t="inlineStr"/>
-      <c r="Q21" s="0" t="inlineStr"/>
-      <c r="R21" s="0" t="inlineStr"/>
-      <c r="S21" s="0" t="inlineStr"/>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="n"/>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="O21" s="0" t="n"/>
+      <c r="P21" s="0" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="Q21" s="0" t="n"/>
+      <c r="R21" s="0" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="S21" s="0" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="0" t="n"/>
-      <c r="C22" s="0" t="n"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr"/>
+      <c r="C22" s="0" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="B23" s="64" t="n"/>
-      <c r="C23" s="64" t="n"/>
-      <c r="D23" s="11" t="n"/>
-      <c r="E23" s="11" t="n"/>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="64" t="inlineStr"/>
+      <c r="C23" s="64" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="B24" s="0" t="n"/>
@@ -11426,18 +11339,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>20191215</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>消费基大家在撤离。白酒在跌。医疗涨得慢 科技普遍看好。</t>
         </is>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -9186,19 +9186,19 @@
           <t>基金</t>
         </is>
       </c>
-      <c r="O1" s="0" t="n"/>
+      <c r="O1" s="0" t="inlineStr"/>
       <c r="P1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="Q1" s="0" t="n"/>
+      <c r="Q1" s="0" t="inlineStr"/>
       <c r="R1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
       </c>
-      <c r="S1" s="0" t="n"/>
+      <c r="S1" s="0" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -9248,22 +9248,22 @@
       <c r="M2" s="0" t="n"/>
       <c r="N2" s="10" t="inlineStr">
         <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr"/>
+      <c r="P2" s="10" t="inlineStr">
+        <is>
           <t>519005</t>
         </is>
       </c>
-      <c r="O2" s="0" t="n"/>
-      <c r="P2" s="10" t="inlineStr">
+      <c r="Q2" s="0" t="inlineStr"/>
+      <c r="R2" s="10" t="inlineStr">
         <is>
           <t>110003</t>
         </is>
       </c>
-      <c r="Q2" s="0" t="n"/>
-      <c r="R2" s="10" t="inlineStr">
-        <is>
-          <t>110011</t>
-        </is>
-      </c>
-      <c r="S2" s="0" t="n"/>
+      <c r="S2" s="0" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -9289,14 +9289,14 @@
       <c r="I3" s="0" t="inlineStr"/>
       <c r="J3" s="0" t="inlineStr"/>
       <c r="K3" s="0" t="inlineStr"/>
-      <c r="L3" s="0" t="n"/>
+      <c r="L3" s="0" t="inlineStr"/>
       <c r="M3" s="0" t="n"/>
       <c r="N3" s="0" t="n"/>
-      <c r="O3" s="0" t="n"/>
-      <c r="P3" s="0" t="n"/>
-      <c r="Q3" s="0" t="n"/>
-      <c r="R3" s="0" t="n"/>
-      <c r="S3" s="0" t="n"/>
+      <c r="O3" s="0" t="inlineStr"/>
+      <c r="P3" s="0" t="inlineStr"/>
+      <c r="Q3" s="0" t="inlineStr"/>
+      <c r="R3" s="0" t="inlineStr"/>
+      <c r="S3" s="0" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -9324,14 +9324,14 @@
       <c r="I4" s="12" t="inlineStr"/>
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
-      <c r="L4" s="12" t="n"/>
+      <c r="L4" s="12" t="inlineStr"/>
       <c r="M4" s="12" t="n"/>
       <c r="N4" s="12" t="n"/>
-      <c r="O4" s="12" t="n"/>
-      <c r="P4" s="0" t="n"/>
-      <c r="Q4" s="0" t="n"/>
-      <c r="R4" s="0" t="n"/>
-      <c r="S4" s="0" t="n"/>
+      <c r="O4" s="12" t="inlineStr"/>
+      <c r="P4" s="0" t="inlineStr"/>
+      <c r="Q4" s="0" t="inlineStr"/>
+      <c r="R4" s="0" t="inlineStr"/>
+      <c r="S4" s="0" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -9353,14 +9353,14 @@
       <c r="I5" s="0" t="inlineStr"/>
       <c r="J5" s="0" t="inlineStr"/>
       <c r="K5" s="0" t="inlineStr"/>
-      <c r="L5" s="0" t="n"/>
+      <c r="L5" s="0" t="inlineStr"/>
       <c r="M5" s="0" t="n"/>
       <c r="N5" s="0" t="n"/>
-      <c r="O5" s="0" t="n"/>
-      <c r="P5" s="0" t="n"/>
-      <c r="Q5" s="0" t="n"/>
-      <c r="R5" s="0" t="n"/>
-      <c r="S5" s="0" t="n"/>
+      <c r="O5" s="0" t="inlineStr"/>
+      <c r="P5" s="0" t="inlineStr"/>
+      <c r="Q5" s="0" t="inlineStr"/>
+      <c r="R5" s="0" t="inlineStr"/>
+      <c r="S5" s="0" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -9376,14 +9376,14 @@
       <c r="I6" s="0" t="inlineStr"/>
       <c r="J6" s="0" t="inlineStr"/>
       <c r="K6" s="0" t="inlineStr"/>
-      <c r="L6" s="64" t="n"/>
+      <c r="L6" s="64" t="inlineStr"/>
       <c r="M6" s="64" t="n"/>
       <c r="N6" s="64" t="n"/>
-      <c r="O6" s="64" t="n"/>
-      <c r="P6" s="64" t="n"/>
-      <c r="Q6" s="64" t="n"/>
-      <c r="R6" s="64" t="n"/>
-      <c r="S6" s="64" t="n"/>
+      <c r="O6" s="64" t="inlineStr"/>
+      <c r="P6" s="64" t="inlineStr"/>
+      <c r="Q6" s="64" t="inlineStr"/>
+      <c r="R6" s="64" t="inlineStr"/>
+      <c r="S6" s="64" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
@@ -9405,14 +9405,14 @@
       <c r="I7" s="0" t="inlineStr"/>
       <c r="J7" s="0" t="inlineStr"/>
       <c r="K7" s="0" t="inlineStr"/>
-      <c r="L7" s="0" t="n"/>
+      <c r="L7" s="0" t="inlineStr"/>
       <c r="M7" s="0" t="n"/>
       <c r="N7" s="0" t="n"/>
-      <c r="O7" s="0" t="n"/>
-      <c r="P7" s="0" t="n"/>
-      <c r="Q7" s="0" t="n"/>
-      <c r="R7" s="0" t="n"/>
-      <c r="S7" s="0" t="n"/>
+      <c r="O7" s="0" t="inlineStr"/>
+      <c r="P7" s="0" t="inlineStr"/>
+      <c r="Q7" s="0" t="inlineStr"/>
+      <c r="R7" s="0" t="inlineStr"/>
+      <c r="S7" s="0" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -9428,14 +9428,14 @@
       <c r="I8" s="0" t="inlineStr"/>
       <c r="J8" s="0" t="inlineStr"/>
       <c r="K8" s="0" t="inlineStr"/>
-      <c r="L8" s="64" t="n"/>
+      <c r="L8" s="64" t="inlineStr"/>
       <c r="M8" s="64" t="n"/>
       <c r="N8" s="64" t="n"/>
-      <c r="O8" s="64" t="n"/>
-      <c r="P8" s="0" t="n"/>
-      <c r="Q8" s="0" t="n"/>
-      <c r="R8" s="0" t="n"/>
-      <c r="S8" s="0" t="n"/>
+      <c r="O8" s="64" t="inlineStr"/>
+      <c r="P8" s="0" t="inlineStr"/>
+      <c r="Q8" s="0" t="inlineStr"/>
+      <c r="R8" s="0" t="inlineStr"/>
+      <c r="S8" s="0" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -9459,14 +9459,14 @@
       <c r="I9" s="0" t="inlineStr"/>
       <c r="J9" s="0" t="inlineStr"/>
       <c r="K9" s="0" t="inlineStr"/>
-      <c r="L9" s="0" t="n"/>
+      <c r="L9" s="0" t="inlineStr"/>
       <c r="M9" s="0" t="n"/>
       <c r="N9" s="0" t="n"/>
-      <c r="O9" s="0" t="n"/>
-      <c r="P9" s="0" t="n"/>
-      <c r="Q9" s="0" t="n"/>
-      <c r="R9" s="0" t="n"/>
-      <c r="S9" s="0" t="n"/>
+      <c r="O9" s="0" t="inlineStr"/>
+      <c r="P9" s="0" t="inlineStr"/>
+      <c r="Q9" s="0" t="inlineStr"/>
+      <c r="R9" s="0" t="inlineStr"/>
+      <c r="S9" s="0" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -9482,14 +9482,14 @@
       <c r="I10" s="0" t="inlineStr"/>
       <c r="J10" s="0" t="inlineStr"/>
       <c r="K10" s="0" t="inlineStr"/>
-      <c r="L10" s="67" t="n"/>
+      <c r="L10" s="67" t="inlineStr"/>
       <c r="M10" s="64" t="n"/>
       <c r="N10" s="67" t="n"/>
-      <c r="O10" s="64" t="n"/>
-      <c r="P10" s="64" t="n"/>
-      <c r="Q10" s="64" t="n"/>
-      <c r="R10" s="64" t="n"/>
-      <c r="S10" s="64" t="n"/>
+      <c r="O10" s="64" t="inlineStr"/>
+      <c r="P10" s="64" t="inlineStr"/>
+      <c r="Q10" s="64" t="inlineStr"/>
+      <c r="R10" s="64" t="inlineStr"/>
+      <c r="S10" s="64" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
@@ -9513,14 +9513,14 @@
       <c r="I11" s="0" t="inlineStr"/>
       <c r="J11" s="0" t="inlineStr"/>
       <c r="K11" s="0" t="inlineStr"/>
-      <c r="L11" s="0" t="n"/>
+      <c r="L11" s="0" t="inlineStr"/>
       <c r="M11" s="0" t="n"/>
       <c r="N11" s="0" t="n"/>
-      <c r="O11" s="0" t="n"/>
-      <c r="P11" s="0" t="n"/>
-      <c r="Q11" s="0" t="n"/>
-      <c r="R11" s="0" t="n"/>
-      <c r="S11" s="0" t="n"/>
+      <c r="O11" s="0" t="inlineStr"/>
+      <c r="P11" s="0" t="inlineStr"/>
+      <c r="Q11" s="0" t="inlineStr"/>
+      <c r="R11" s="0" t="inlineStr"/>
+      <c r="S11" s="0" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -9536,14 +9536,14 @@
       <c r="I12" s="0" t="inlineStr"/>
       <c r="J12" s="0" t="inlineStr"/>
       <c r="K12" s="0" t="inlineStr"/>
-      <c r="L12" s="11" t="n"/>
+      <c r="L12" s="11" t="inlineStr"/>
       <c r="M12" s="11" t="n"/>
       <c r="N12" s="11" t="n"/>
-      <c r="O12" s="11" t="n"/>
-      <c r="P12" s="0" t="n"/>
-      <c r="Q12" s="0" t="n"/>
-      <c r="R12" s="0" t="n"/>
-      <c r="S12" s="0" t="n"/>
+      <c r="O12" s="11" t="inlineStr"/>
+      <c r="P12" s="0" t="inlineStr"/>
+      <c r="Q12" s="0" t="inlineStr"/>
+      <c r="R12" s="0" t="inlineStr"/>
+      <c r="S12" s="0" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -9575,14 +9575,14 @@
       <c r="I13" s="0" t="inlineStr"/>
       <c r="J13" s="0" t="inlineStr"/>
       <c r="K13" s="0" t="inlineStr"/>
-      <c r="L13" s="0" t="n"/>
+      <c r="L13" s="0" t="inlineStr"/>
       <c r="M13" s="0" t="n"/>
       <c r="N13" s="0" t="n"/>
-      <c r="O13" s="0" t="n"/>
-      <c r="P13" s="0" t="n"/>
-      <c r="Q13" s="0" t="n"/>
-      <c r="R13" s="0" t="n"/>
-      <c r="S13" s="0" t="n"/>
+      <c r="O13" s="0" t="inlineStr"/>
+      <c r="P13" s="0" t="inlineStr"/>
+      <c r="Q13" s="0" t="inlineStr"/>
+      <c r="R13" s="0" t="inlineStr"/>
+      <c r="S13" s="0" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -9606,14 +9606,14 @@
       <c r="I14" s="0" t="inlineStr"/>
       <c r="J14" s="0" t="inlineStr"/>
       <c r="K14" s="0" t="inlineStr"/>
-      <c r="L14" s="0" t="n"/>
+      <c r="L14" s="0" t="inlineStr"/>
       <c r="M14" s="0" t="n"/>
       <c r="N14" s="0" t="n"/>
-      <c r="O14" s="0" t="n"/>
-      <c r="P14" s="0" t="n"/>
-      <c r="Q14" s="0" t="n"/>
-      <c r="R14" s="0" t="n"/>
-      <c r="S14" s="0" t="n"/>
+      <c r="O14" s="0" t="inlineStr"/>
+      <c r="P14" s="0" t="inlineStr"/>
+      <c r="Q14" s="0" t="inlineStr"/>
+      <c r="R14" s="0" t="inlineStr"/>
+      <c r="S14" s="0" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -9637,14 +9637,14 @@
       <c r="I15" s="0" t="inlineStr"/>
       <c r="J15" s="0" t="inlineStr"/>
       <c r="K15" s="0" t="inlineStr"/>
-      <c r="L15" s="0" t="n"/>
+      <c r="L15" s="0" t="inlineStr"/>
       <c r="M15" s="0" t="n"/>
       <c r="N15" s="0" t="n"/>
-      <c r="O15" s="0" t="n"/>
-      <c r="P15" s="0" t="n"/>
-      <c r="Q15" s="0" t="n"/>
-      <c r="R15" s="0" t="n"/>
-      <c r="S15" s="0" t="n"/>
+      <c r="O15" s="0" t="inlineStr"/>
+      <c r="P15" s="0" t="inlineStr"/>
+      <c r="Q15" s="0" t="inlineStr"/>
+      <c r="R15" s="0" t="inlineStr"/>
+      <c r="S15" s="0" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -9660,14 +9660,14 @@
       <c r="I16" s="12" t="inlineStr"/>
       <c r="J16" s="0" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr"/>
-      <c r="L16" s="0" t="n"/>
+      <c r="L16" s="0" t="inlineStr"/>
       <c r="M16" s="0" t="n"/>
       <c r="N16" s="0" t="n"/>
-      <c r="O16" s="0" t="n"/>
-      <c r="P16" s="0" t="n"/>
-      <c r="Q16" s="0" t="n"/>
-      <c r="R16" s="0" t="n"/>
-      <c r="S16" s="0" t="n"/>
+      <c r="O16" s="0" t="inlineStr"/>
+      <c r="P16" s="0" t="inlineStr"/>
+      <c r="Q16" s="0" t="inlineStr"/>
+      <c r="R16" s="0" t="inlineStr"/>
+      <c r="S16" s="0" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -9691,14 +9691,14 @@
       <c r="I17" s="0" t="inlineStr"/>
       <c r="J17" s="0" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr"/>
-      <c r="L17" s="0" t="n"/>
+      <c r="L17" s="0" t="inlineStr"/>
       <c r="M17" s="0" t="n"/>
       <c r="N17" s="0" t="n"/>
-      <c r="O17" s="0" t="n"/>
-      <c r="P17" s="0" t="n"/>
-      <c r="Q17" s="0" t="n"/>
-      <c r="R17" s="0" t="n"/>
-      <c r="S17" s="0" t="n"/>
+      <c r="O17" s="0" t="inlineStr"/>
+      <c r="P17" s="0" t="inlineStr"/>
+      <c r="Q17" s="0" t="inlineStr"/>
+      <c r="R17" s="0" t="inlineStr"/>
+      <c r="S17" s="0" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -9714,14 +9714,14 @@
       <c r="I18" s="0" t="inlineStr"/>
       <c r="J18" s="12" t="inlineStr"/>
       <c r="K18" s="12" t="inlineStr"/>
-      <c r="L18" s="11" t="n"/>
+      <c r="L18" s="11" t="inlineStr"/>
       <c r="M18" s="11" t="n"/>
       <c r="N18" s="0" t="n"/>
-      <c r="O18" s="0" t="n"/>
-      <c r="P18" s="0" t="n"/>
-      <c r="Q18" s="0" t="n"/>
-      <c r="R18" s="0" t="n"/>
-      <c r="S18" s="0" t="n"/>
+      <c r="O18" s="0" t="inlineStr"/>
+      <c r="P18" s="0" t="inlineStr"/>
+      <c r="Q18" s="0" t="inlineStr"/>
+      <c r="R18" s="0" t="inlineStr"/>
+      <c r="S18" s="0" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -9755,14 +9755,14 @@
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr"/>
-      <c r="L19" s="0" t="n"/>
+      <c r="L19" s="0" t="inlineStr"/>
       <c r="M19" s="0" t="n"/>
       <c r="N19" s="0" t="n"/>
-      <c r="O19" s="0" t="n"/>
-      <c r="P19" s="0" t="n"/>
-      <c r="Q19" s="0" t="n"/>
-      <c r="R19" s="0" t="n"/>
-      <c r="S19" s="0" t="n"/>
+      <c r="O19" s="0" t="inlineStr"/>
+      <c r="P19" s="0" t="inlineStr"/>
+      <c r="Q19" s="0" t="inlineStr"/>
+      <c r="R19" s="0" t="inlineStr"/>
+      <c r="S19" s="0" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -9780,14 +9780,14 @@
       <c r="I20" s="0" t="inlineStr"/>
       <c r="J20" s="0" t="inlineStr"/>
       <c r="K20" s="0" t="inlineStr"/>
-      <c r="L20" s="0" t="n"/>
+      <c r="L20" s="0" t="inlineStr"/>
       <c r="M20" s="0" t="n"/>
       <c r="N20" s="0" t="n"/>
-      <c r="O20" s="0" t="n"/>
-      <c r="P20" s="0" t="n"/>
-      <c r="Q20" s="0" t="n"/>
-      <c r="R20" s="0" t="n"/>
-      <c r="S20" s="0" t="n"/>
+      <c r="O20" s="0" t="inlineStr"/>
+      <c r="P20" s="0" t="inlineStr"/>
+      <c r="Q20" s="0" t="inlineStr"/>
+      <c r="R20" s="0" t="inlineStr"/>
+      <c r="S20" s="0" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -9819,62 +9819,121 @@
         </is>
       </c>
       <c r="M21" s="0" t="n"/>
-      <c r="N21" s="0" t="inlineStr">
+      <c r="N21" s="0" t="n"/>
+      <c r="O21" s="0" t="inlineStr"/>
+      <c r="P21" s="0" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="O21" s="0" t="n"/>
-      <c r="P21" s="0" t="inlineStr">
+      <c r="Q21" s="0" t="inlineStr"/>
+      <c r="R21" s="0" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="Q21" s="0" t="n"/>
-      <c r="R21" s="0" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="S21" s="0" t="n"/>
+      <c r="S21" s="0" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="0" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr"/>
       <c r="C22" s="0" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="D22" s="0" t="inlineStr"/>
+      <c r="E22" s="0" t="inlineStr"/>
+      <c r="F22" s="0" t="inlineStr"/>
+      <c r="G22" s="0" t="inlineStr"/>
+      <c r="H22" s="0" t="inlineStr"/>
+      <c r="I22" s="0" t="inlineStr"/>
+      <c r="J22" s="0" t="inlineStr"/>
+      <c r="K22" s="0" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" s="64" t="inlineStr"/>
-      <c r="C23" s="64" t="inlineStr"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B23" s="64" t="inlineStr">
+        <is>
+          <t>20191219</t>
+        </is>
+      </c>
+      <c r="C23" s="64" t="inlineStr">
+        <is>
+          <t>投资</t>
+        </is>
+      </c>
       <c r="D23" s="11" t="inlineStr"/>
       <c r="E23" s="11" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="F23" s="0" t="inlineStr"/>
+      <c r="G23" s="0" t="inlineStr"/>
+      <c r="H23" s="0" t="inlineStr"/>
+      <c r="I23" s="0" t="inlineStr"/>
+      <c r="J23" s="0" t="inlineStr"/>
+      <c r="K23" s="0" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="0" t="n"/>
-      <c r="C24" s="0" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr"/>
+      <c r="C24" s="0" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="B25" s="64" t="n"/>
-      <c r="C25" s="64" t="n"/>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="64" t="inlineStr"/>
+      <c r="C25" s="64" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="D26" s="64" t="n"/>
@@ -11350,10 +11409,10 @@
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="inlineStr"/>
       <c r="H6" s="0" t="inlineStr">
         <is>
           <t>消费基大家在撤离。白酒在跌。医疗涨得慢 科技普遍看好。</t>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -9180,7 +9180,7 @@
           <t>基金</t>
         </is>
       </c>
-      <c r="M1" s="0" t="n"/>
+      <c r="M1" s="0" t="inlineStr"/>
       <c r="N1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
@@ -9245,7 +9245,7 @@
           <t>161033</t>
         </is>
       </c>
-      <c r="M2" s="0" t="n"/>
+      <c r="M2" s="0" t="inlineStr"/>
       <c r="N2" s="10" t="inlineStr">
         <is>
           <t>320007</t>
@@ -9290,8 +9290,8 @@
       <c r="J3" s="0" t="inlineStr"/>
       <c r="K3" s="0" t="inlineStr"/>
       <c r="L3" s="0" t="inlineStr"/>
-      <c r="M3" s="0" t="n"/>
-      <c r="N3" s="0" t="n"/>
+      <c r="M3" s="0" t="inlineStr"/>
+      <c r="N3" s="0" t="inlineStr"/>
       <c r="O3" s="0" t="inlineStr"/>
       <c r="P3" s="0" t="inlineStr"/>
       <c r="Q3" s="0" t="inlineStr"/>
@@ -9325,8 +9325,8 @@
       <c r="J4" s="12" t="inlineStr"/>
       <c r="K4" s="12" t="inlineStr"/>
       <c r="L4" s="12" t="inlineStr"/>
-      <c r="M4" s="12" t="n"/>
-      <c r="N4" s="12" t="n"/>
+      <c r="M4" s="12" t="inlineStr"/>
+      <c r="N4" s="12" t="inlineStr"/>
       <c r="O4" s="12" t="inlineStr"/>
       <c r="P4" s="0" t="inlineStr"/>
       <c r="Q4" s="0" t="inlineStr"/>
@@ -9354,8 +9354,8 @@
       <c r="J5" s="0" t="inlineStr"/>
       <c r="K5" s="0" t="inlineStr"/>
       <c r="L5" s="0" t="inlineStr"/>
-      <c r="M5" s="0" t="n"/>
-      <c r="N5" s="0" t="n"/>
+      <c r="M5" s="0" t="inlineStr"/>
+      <c r="N5" s="0" t="inlineStr"/>
       <c r="O5" s="0" t="inlineStr"/>
       <c r="P5" s="0" t="inlineStr"/>
       <c r="Q5" s="0" t="inlineStr"/>
@@ -9377,8 +9377,8 @@
       <c r="J6" s="0" t="inlineStr"/>
       <c r="K6" s="0" t="inlineStr"/>
       <c r="L6" s="64" t="inlineStr"/>
-      <c r="M6" s="64" t="n"/>
-      <c r="N6" s="64" t="n"/>
+      <c r="M6" s="64" t="inlineStr"/>
+      <c r="N6" s="64" t="inlineStr"/>
       <c r="O6" s="64" t="inlineStr"/>
       <c r="P6" s="64" t="inlineStr"/>
       <c r="Q6" s="64" t="inlineStr"/>
@@ -9406,8 +9406,8 @@
       <c r="J7" s="0" t="inlineStr"/>
       <c r="K7" s="0" t="inlineStr"/>
       <c r="L7" s="0" t="inlineStr"/>
-      <c r="M7" s="0" t="n"/>
-      <c r="N7" s="0" t="n"/>
+      <c r="M7" s="0" t="inlineStr"/>
+      <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="inlineStr"/>
       <c r="P7" s="0" t="inlineStr"/>
       <c r="Q7" s="0" t="inlineStr"/>
@@ -9429,8 +9429,8 @@
       <c r="J8" s="0" t="inlineStr"/>
       <c r="K8" s="0" t="inlineStr"/>
       <c r="L8" s="64" t="inlineStr"/>
-      <c r="M8" s="64" t="n"/>
-      <c r="N8" s="64" t="n"/>
+      <c r="M8" s="64" t="inlineStr"/>
+      <c r="N8" s="64" t="inlineStr"/>
       <c r="O8" s="64" t="inlineStr"/>
       <c r="P8" s="0" t="inlineStr"/>
       <c r="Q8" s="0" t="inlineStr"/>
@@ -9460,8 +9460,8 @@
       <c r="J9" s="0" t="inlineStr"/>
       <c r="K9" s="0" t="inlineStr"/>
       <c r="L9" s="0" t="inlineStr"/>
-      <c r="M9" s="0" t="n"/>
-      <c r="N9" s="0" t="n"/>
+      <c r="M9" s="0" t="inlineStr"/>
+      <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="inlineStr"/>
       <c r="P9" s="0" t="inlineStr"/>
       <c r="Q9" s="0" t="inlineStr"/>
@@ -9483,8 +9483,8 @@
       <c r="J10" s="0" t="inlineStr"/>
       <c r="K10" s="0" t="inlineStr"/>
       <c r="L10" s="67" t="inlineStr"/>
-      <c r="M10" s="64" t="n"/>
-      <c r="N10" s="67" t="n"/>
+      <c r="M10" s="64" t="inlineStr"/>
+      <c r="N10" s="67" t="inlineStr"/>
       <c r="O10" s="64" t="inlineStr"/>
       <c r="P10" s="64" t="inlineStr"/>
       <c r="Q10" s="64" t="inlineStr"/>
@@ -9514,8 +9514,8 @@
       <c r="J11" s="0" t="inlineStr"/>
       <c r="K11" s="0" t="inlineStr"/>
       <c r="L11" s="0" t="inlineStr"/>
-      <c r="M11" s="0" t="n"/>
-      <c r="N11" s="0" t="n"/>
+      <c r="M11" s="0" t="inlineStr"/>
+      <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="inlineStr"/>
       <c r="P11" s="0" t="inlineStr"/>
       <c r="Q11" s="0" t="inlineStr"/>
@@ -9537,8 +9537,8 @@
       <c r="J12" s="0" t="inlineStr"/>
       <c r="K12" s="0" t="inlineStr"/>
       <c r="L12" s="11" t="inlineStr"/>
-      <c r="M12" s="11" t="n"/>
-      <c r="N12" s="11" t="n"/>
+      <c r="M12" s="11" t="inlineStr"/>
+      <c r="N12" s="11" t="inlineStr"/>
       <c r="O12" s="11" t="inlineStr"/>
       <c r="P12" s="0" t="inlineStr"/>
       <c r="Q12" s="0" t="inlineStr"/>
@@ -9576,8 +9576,8 @@
       <c r="J13" s="0" t="inlineStr"/>
       <c r="K13" s="0" t="inlineStr"/>
       <c r="L13" s="0" t="inlineStr"/>
-      <c r="M13" s="0" t="n"/>
-      <c r="N13" s="0" t="n"/>
+      <c r="M13" s="0" t="inlineStr"/>
+      <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="inlineStr"/>
       <c r="P13" s="0" t="inlineStr"/>
       <c r="Q13" s="0" t="inlineStr"/>
@@ -9607,8 +9607,8 @@
       <c r="J14" s="0" t="inlineStr"/>
       <c r="K14" s="0" t="inlineStr"/>
       <c r="L14" s="0" t="inlineStr"/>
-      <c r="M14" s="0" t="n"/>
-      <c r="N14" s="0" t="n"/>
+      <c r="M14" s="0" t="inlineStr"/>
+      <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="inlineStr"/>
       <c r="P14" s="0" t="inlineStr"/>
       <c r="Q14" s="0" t="inlineStr"/>
@@ -9638,8 +9638,8 @@
       <c r="J15" s="0" t="inlineStr"/>
       <c r="K15" s="0" t="inlineStr"/>
       <c r="L15" s="0" t="inlineStr"/>
-      <c r="M15" s="0" t="n"/>
-      <c r="N15" s="0" t="n"/>
+      <c r="M15" s="0" t="inlineStr"/>
+      <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="inlineStr"/>
       <c r="P15" s="0" t="inlineStr"/>
       <c r="Q15" s="0" t="inlineStr"/>
@@ -9661,8 +9661,8 @@
       <c r="J16" s="0" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr"/>
       <c r="L16" s="0" t="inlineStr"/>
-      <c r="M16" s="0" t="n"/>
-      <c r="N16" s="0" t="n"/>
+      <c r="M16" s="0" t="inlineStr"/>
+      <c r="N16" s="0" t="inlineStr"/>
       <c r="O16" s="0" t="inlineStr"/>
       <c r="P16" s="0" t="inlineStr"/>
       <c r="Q16" s="0" t="inlineStr"/>
@@ -9692,8 +9692,8 @@
       <c r="J17" s="0" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr"/>
       <c r="L17" s="0" t="inlineStr"/>
-      <c r="M17" s="0" t="n"/>
-      <c r="N17" s="0" t="n"/>
+      <c r="M17" s="0" t="inlineStr"/>
+      <c r="N17" s="0" t="inlineStr"/>
       <c r="O17" s="0" t="inlineStr"/>
       <c r="P17" s="0" t="inlineStr"/>
       <c r="Q17" s="0" t="inlineStr"/>
@@ -9715,8 +9715,8 @@
       <c r="J18" s="12" t="inlineStr"/>
       <c r="K18" s="12" t="inlineStr"/>
       <c r="L18" s="11" t="inlineStr"/>
-      <c r="M18" s="11" t="n"/>
-      <c r="N18" s="0" t="n"/>
+      <c r="M18" s="11" t="inlineStr"/>
+      <c r="N18" s="0" t="inlineStr"/>
       <c r="O18" s="0" t="inlineStr"/>
       <c r="P18" s="0" t="inlineStr"/>
       <c r="Q18" s="0" t="inlineStr"/>
@@ -9756,8 +9756,8 @@
       </c>
       <c r="K19" s="0" t="inlineStr"/>
       <c r="L19" s="0" t="inlineStr"/>
-      <c r="M19" s="0" t="n"/>
-      <c r="N19" s="0" t="n"/>
+      <c r="M19" s="0" t="inlineStr"/>
+      <c r="N19" s="0" t="inlineStr"/>
       <c r="O19" s="0" t="inlineStr"/>
       <c r="P19" s="0" t="inlineStr"/>
       <c r="Q19" s="0" t="inlineStr"/>
@@ -9781,8 +9781,8 @@
       <c r="J20" s="0" t="inlineStr"/>
       <c r="K20" s="0" t="inlineStr"/>
       <c r="L20" s="0" t="inlineStr"/>
-      <c r="M20" s="0" t="n"/>
-      <c r="N20" s="0" t="n"/>
+      <c r="M20" s="0" t="inlineStr"/>
+      <c r="N20" s="0" t="inlineStr"/>
       <c r="O20" s="0" t="inlineStr"/>
       <c r="P20" s="0" t="inlineStr"/>
       <c r="Q20" s="0" t="inlineStr"/>
@@ -9818,8 +9818,8 @@
           <t>3000</t>
         </is>
       </c>
-      <c r="M21" s="0" t="n"/>
-      <c r="N21" s="0" t="n"/>
+      <c r="M21" s="0" t="inlineStr"/>
+      <c r="N21" s="0" t="inlineStr"/>
       <c r="O21" s="0" t="inlineStr"/>
       <c r="P21" s="0" t="inlineStr">
         <is>
@@ -9850,12 +9850,14 @@
       <c r="I22" s="0" t="inlineStr"/>
       <c r="J22" s="0" t="inlineStr"/>
       <c r="K22" s="0" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="L22" s="0" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" s="0" t="inlineStr"/>
+      <c r="P22" s="0" t="inlineStr"/>
+      <c r="Q22" s="0" t="inlineStr"/>
+      <c r="R22" s="0" t="inlineStr"/>
+      <c r="S22" s="0" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -9881,59 +9883,64 @@
       <c r="I23" s="0" t="inlineStr"/>
       <c r="J23" s="0" t="inlineStr"/>
       <c r="K23" s="0" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
+      <c r="L23" s="0" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" s="0" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="O23" s="0" t="inlineStr"/>
+      <c r="P23" s="0" t="inlineStr"/>
+      <c r="Q23" s="0" t="inlineStr"/>
+      <c r="R23" s="0" t="inlineStr"/>
+      <c r="S23" s="0" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="0" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr"/>
       <c r="C24" s="0" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="D24" s="0" t="inlineStr"/>
+      <c r="E24" s="0" t="inlineStr"/>
+      <c r="F24" s="0" t="inlineStr"/>
+      <c r="G24" s="0" t="inlineStr"/>
+      <c r="H24" s="0" t="inlineStr"/>
+      <c r="I24" s="0" t="inlineStr"/>
+      <c r="J24" s="0" t="inlineStr"/>
+      <c r="K24" s="0" t="inlineStr"/>
+      <c r="L24" s="0" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" s="0" t="inlineStr"/>
+      <c r="P24" s="0" t="inlineStr"/>
+      <c r="Q24" s="0" t="inlineStr"/>
+      <c r="R24" s="0" t="inlineStr"/>
+      <c r="S24" s="0" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" s="0" t="inlineStr"/>
       <c r="B25" s="64" t="inlineStr"/>
       <c r="C25" s="64" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="D25" s="0" t="inlineStr"/>
+      <c r="E25" s="0" t="inlineStr"/>
+      <c r="F25" s="0" t="inlineStr"/>
+      <c r="G25" s="0" t="inlineStr"/>
+      <c r="H25" s="0" t="inlineStr"/>
+      <c r="I25" s="0" t="inlineStr"/>
+      <c r="J25" s="0" t="inlineStr"/>
+      <c r="K25" s="0" t="inlineStr"/>
+      <c r="L25" s="0" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" s="0" t="inlineStr"/>
+      <c r="P25" s="0" t="inlineStr"/>
+      <c r="Q25" s="0" t="inlineStr"/>
+      <c r="R25" s="0" t="inlineStr"/>
+      <c r="S25" s="0" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="D26" s="64" t="n"/>
@@ -11189,7 +11196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -11416,6 +11423,42 @@
       <c r="H6" s="0" t="inlineStr">
         <is>
           <t>消费基大家在撤离。白酒在跌。医疗涨得慢 科技普遍看好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20191220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>投资方法</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>自己思考</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>所有</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1、之前认为指数底部快涨时，大量投入。然后高点快跌时卖。
+2、后来遇到11.25，科技股大跌一天，后来又快速上涨。以及美股一直在涨。没有上车机会。就在纳斯达克、医疗、广发双擎等约8只基上，
+投入了2万多元。现在12月中旬，大涨了几天。最近几天又在回调。感觉前几天买的也在高点。这样追涨，觉得不踏实，而且也太累，每天看着跌了就补。
+总结：感觉应该还是稍微关注下指数，然后底部区间快涨时大笔投入，比较省事。卖出点，是不用卖太早，或者分批卖。牛市可能涨很高。
+如果因为有些持续增长股无法上车，可以几百元的小笔定投。实际上它们有点高估，投入还是有风险的。</t>
         </is>
       </c>
     </row>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1358,7 +1358,7 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="10" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="2" min="2" max="2"/>
@@ -6807,42 +6807,78 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6860,7 +6896,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="2" max="2"/>
@@ -9387,7 +9423,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="5" customWidth="1" style="8" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="10" min="2" max="3"/>
@@ -16018,13 +16054,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="0"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="8" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="8" min="2" max="2"/>
@@ -16330,10 +16366,31 @@
           <t>20191223</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>注意根据量价关系，判断上涨是否能持续，从而明确是否买入或者卖出。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20191224</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>前期科技涨太多，又到年底，已经赚钱的有兑现需求，所以股票马上会跌。</t>
         </is>
       </c>
     </row>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -723,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +900,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1752,7 +1755,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>1.9044, 1.9116, 1.8359, 1.7601, 1.7703, 1.7399, 1.712, 1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742</t>
+          <t>1.9116, 1.8359, 1.7601, 1.7703, 1.7399, 1.712, 1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436</t>
         </is>
       </c>
       <c r="E2" s="20" t="inlineStr">
@@ -1769,17 +1772,23 @@
         <v>115</v>
       </c>
       <c r="I2" s="78" t="n">
-        <v>2.1432</v>
+        <v>2.1436</v>
       </c>
       <c r="J2" s="79" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="K2" s="80" t="inlineStr"/>
-      <c r="L2" s="80" t="inlineStr"/>
-      <c r="M2" s="80" t="n"/>
+        <v>-1.407414221322773</v>
+      </c>
+      <c r="K2" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" s="80" t="n">
+        <v>-4.020775499238823</v>
+      </c>
+      <c r="M2" s="80" t="n">
+        <v>2.1436</v>
+      </c>
       <c r="N2" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O2" s="26">
@@ -1896,24 +1905,30 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>1.142, 1.124, 1.081, 1.027, 1.04, 1.016, 0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264</t>
+          <t>1.124, 1.081, 1.027, 1.04, 1.016, 0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>115</v>
       </c>
       <c r="I3" s="78" t="n">
-        <v>1.2413</v>
+        <v>1.226</v>
       </c>
       <c r="J3" s="79" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="K3" s="80" t="inlineStr"/>
-      <c r="L3" s="80" t="inlineStr"/>
-      <c r="M3" s="80" t="n"/>
+        <v>-3.006329113924053</v>
+      </c>
+      <c r="K3" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="80" t="n">
+        <v>-5.646527385657813</v>
+      </c>
+      <c r="M3" s="80" t="n">
+        <v>1.671</v>
+      </c>
       <c r="N3" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O3" s="26">
@@ -2032,24 +2047,30 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>3.6263, 3.636, 3.5085, 3.3603, 3.4432, 3.3668, 3.3075, 3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366</t>
+          <t>3.636, 3.5085, 3.3603, 3.4432, 3.3668, 3.3075, 3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="78" t="n">
-        <v>4.0556</v>
+        <v>3.9861</v>
       </c>
       <c r="J4" s="79" t="n">
-        <v>-1.96</v>
-      </c>
-      <c r="K4" s="80" t="inlineStr"/>
-      <c r="L4" s="80" t="inlineStr"/>
-      <c r="M4" s="80" t="n"/>
+        <v>-3.638253638253629</v>
+      </c>
+      <c r="K4" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" s="80" t="n">
+        <v>-7.21800661049299</v>
+      </c>
+      <c r="M4" s="80" t="n">
+        <v>3.9861</v>
+      </c>
       <c r="N4" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O4" s="26">
@@ -2170,24 +2191,30 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>1.3441, 1.3554, 1.3087, 1.2603, 1.2707, 1.2503, 1.2281, 1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578</t>
+          <t>1.3554, 1.3087, 1.2603, 1.2707, 1.2503, 1.2281, 1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="78" t="n">
-        <v>1.5322</v>
+        <v>1.5335</v>
       </c>
       <c r="J5" s="79" t="n">
-        <v>-1.64</v>
-      </c>
-      <c r="K5" s="80" t="inlineStr"/>
-      <c r="L5" s="80" t="inlineStr"/>
-      <c r="M5" s="80" t="n"/>
+        <v>-1.559892155604056</v>
+      </c>
+      <c r="K5" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" s="80" t="n">
+        <v>-4.240039965030589</v>
+      </c>
+      <c r="M5" s="80" t="n">
+        <v>1.5335</v>
+      </c>
       <c r="N5" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O5" s="26">
@@ -2306,7 +2333,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>2.042, 2.029, 1.956, 1.836, 1.871, 1.852, 1.859, 1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196</t>
+          <t>2.029, 1.956, 1.836, 1.871, 1.852, 1.859, 1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2318,17 +2345,23 @@
         <v>115</v>
       </c>
       <c r="I6" s="78" t="n">
-        <v>2.1571</v>
+        <v>2.116</v>
       </c>
       <c r="J6" s="79" t="n">
-        <v>-1.77</v>
-      </c>
-      <c r="K6" s="80" t="inlineStr"/>
-      <c r="L6" s="80" t="inlineStr"/>
-      <c r="M6" s="80" t="n"/>
+        <v>-3.64298724954463</v>
+      </c>
+      <c r="K6" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" s="80" t="n">
+        <v>-5.049551675318556</v>
+      </c>
+      <c r="M6" s="80" t="n">
+        <v>2.012</v>
+      </c>
       <c r="N6" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O6" s="26">
@@ -2452,7 +2485,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>1.0679, 1.0928, 1.0844, 1.0608, 1.0677, 1.0653, 1.0732, 1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965</t>
+          <t>1.0928, 1.0844, 1.0608, 1.0677, 1.0653, 1.0732, 1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857</t>
         </is>
       </c>
       <c r="E7" s="22" t="inlineStr">
@@ -2469,17 +2502,23 @@
         <v>5</v>
       </c>
       <c r="I7" s="78" t="n">
-        <v>1.0887</v>
+        <v>1.0857</v>
       </c>
       <c r="J7" s="79" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="K7" s="80" t="inlineStr"/>
-      <c r="L7" s="80" t="inlineStr"/>
-      <c r="M7" s="80" t="n"/>
+        <v>-0.9849521203830296</v>
+      </c>
+      <c r="K7" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" s="80" t="n">
+        <v>-3.734177215189872</v>
+      </c>
+      <c r="M7" s="80" t="n">
+        <v>0.4563</v>
+      </c>
       <c r="N7" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O7" s="26">
@@ -2600,7 +2639,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>1.5066, 1.5331, 1.5363, 1.5197, 1.5245, 1.5228, 1.5282, 1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692</t>
+          <t>1.5331, 1.5363, 1.5197, 1.5245, 1.5228, 1.5282, 1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2612,17 +2651,23 @@
         <v>5</v>
       </c>
       <c r="I8" s="78" t="n">
-        <v>1.5631</v>
+        <v>1.5659</v>
       </c>
       <c r="J8" s="79" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="K8" s="80" t="inlineStr"/>
-      <c r="L8" s="80" t="inlineStr"/>
-      <c r="M8" s="80" t="n"/>
+        <v>-0.2102982411419742</v>
+      </c>
+      <c r="K8" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="80" t="n">
+        <v>-3.142203253541161</v>
+      </c>
+      <c r="M8" s="80" t="n">
+        <v>1.5659</v>
+      </c>
       <c r="N8" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O8" s="26">
@@ -2743,7 +2788,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1.272, 1.291, 1.236, 1.202, 1.234, 1.185, 1.164, 1.174, 1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272</t>
+          <t>1.291, 1.236, 1.202, 1.234, 1.185, 1.164, 1.174, 1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2755,17 +2800,23 @@
         <v>4</v>
       </c>
       <c r="I9" s="78" t="n">
-        <v>1.2434</v>
+        <v>1.234</v>
       </c>
       <c r="J9" s="79" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="K9" s="80" t="inlineStr"/>
-      <c r="L9" s="80" t="inlineStr"/>
-      <c r="M9" s="80" t="n"/>
+        <v>-2.987421383647801</v>
+      </c>
+      <c r="K9" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="80" t="n">
+        <v>-7.008289374529012</v>
+      </c>
+      <c r="M9" s="80" t="n">
+        <v>1.234</v>
+      </c>
       <c r="N9" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O9" s="26">
@@ -2886,7 +2937,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.4348, 1.4595, 1.4412, 1.3958, 1.4213, 1.3796, 1.366, 1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614</t>
+          <t>1.4595, 1.4412, 1.3958, 1.4213, 1.3796, 1.366, 1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2903,17 +2954,23 @@
         <v>3</v>
       </c>
       <c r="I10" s="78" t="n">
-        <v>1.5468</v>
+        <v>1.5454</v>
       </c>
       <c r="J10" s="79" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="K10" s="80" t="inlineStr"/>
-      <c r="L10" s="80" t="inlineStr"/>
-      <c r="M10" s="80" t="n"/>
+        <v>-1.02472140386831</v>
+      </c>
+      <c r="K10" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" s="80" t="n">
+        <v>-2.078317070079834</v>
+      </c>
+      <c r="M10" s="80" t="n">
+        <v>1.5454</v>
+      </c>
       <c r="N10" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O10" s="26">
@@ -3034,7 +3091,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>1.0506, 1.0599, 1.0367, 1.01, 1.0213, 1.0021, 0.9908, 0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965</t>
+          <t>1.0599, 1.0367, 1.01, 1.0213, 1.0021, 0.9908, 0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -3046,17 +3103,23 @@
         <v>3</v>
       </c>
       <c r="I11" s="78" t="n">
-        <v>1.0802</v>
+        <v>1.0756</v>
       </c>
       <c r="J11" s="79" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="K11" s="80" t="inlineStr"/>
-      <c r="L11" s="80" t="inlineStr"/>
-      <c r="M11" s="80" t="n"/>
+        <v>-1.906064751482001</v>
+      </c>
+      <c r="K11" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="80" t="n">
+        <v>-4.543840965566217</v>
+      </c>
+      <c r="M11" s="80" t="n">
+        <v>1.0756</v>
+      </c>
       <c r="N11" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O11" s="26">
@@ -3177,7 +3240,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1.2976, 1.3156, 1.2673, 1.2178, 1.239, 1.2084, 1.1984, 1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893</t>
+          <t>1.3156, 1.2673, 1.2178, 1.239, 1.2084, 1.1984, 1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3189,17 +3252,23 @@
         <v>3</v>
       </c>
       <c r="I12" s="78" t="n">
-        <v>1.4642</v>
+        <v>1.46</v>
       </c>
       <c r="J12" s="79" t="n">
-        <v>-1.69</v>
-      </c>
-      <c r="K12" s="80" t="inlineStr"/>
-      <c r="L12" s="80" t="inlineStr"/>
-      <c r="M12" s="80" t="n"/>
+        <v>-1.967367219499101</v>
+      </c>
+      <c r="K12" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="80" t="n">
+        <v>-4.237176964449691</v>
+      </c>
+      <c r="M12" s="80" t="n">
+        <v>1.46</v>
+      </c>
       <c r="N12" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O12" s="26">
@@ -3320,24 +3389,30 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>2.24, 2.265, 2.249, 2.23, 2.245, 2.241, 2.243, 2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252</t>
+          <t>2.265, 2.249, 2.23, 2.245, 2.241, 2.243, 2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="78" t="n">
-        <v>2.2341</v>
+        <v>2.235</v>
       </c>
       <c r="J13" s="79" t="n">
-        <v>-0.79</v>
-      </c>
-      <c r="K13" s="80" t="inlineStr"/>
-      <c r="L13" s="80" t="inlineStr"/>
-      <c r="M13" s="80" t="n"/>
+        <v>-0.7548845470692676</v>
+      </c>
+      <c r="K13" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" s="80" t="n">
+        <v>-3.495934959349588</v>
+      </c>
+      <c r="M13" s="80" t="n">
+        <v>2.374</v>
+      </c>
       <c r="N13" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O13" s="26">
@@ -3456,7 +3531,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>5.2337, 5.3121, 5.2922, 5.2694, 5.2647, 5.2293, 5.283, 5.2513, 5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361</t>
+          <t>5.3121, 5.2922, 5.2694, 5.2647, 5.2293, 5.283, 5.2513, 5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3468,17 +3543,23 @@
         <v>114</v>
       </c>
       <c r="I14" s="78" t="n">
-        <v>4.8279</v>
+        <v>4.8142</v>
       </c>
       <c r="J14" s="79" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="K14" s="80" t="inlineStr"/>
-      <c r="L14" s="80" t="inlineStr"/>
-      <c r="M14" s="80" t="n"/>
+        <v>-0.4528442339902085</v>
+      </c>
+      <c r="K14" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="80" t="n">
+        <v>-1.350673607388065</v>
+      </c>
+      <c r="M14" s="80" t="n">
+        <v>5.7042</v>
+      </c>
       <c r="N14" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O14" s="26">
@@ -3602,7 +3683,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1.0086, 1.029, 1.0237, 1.0117, 1.0083, 0.9895, 1.0041, 0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698</t>
+          <t>1.029, 1.0237, 1.0117, 1.0083, 0.9895, 1.0041, 0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635</t>
         </is>
       </c>
       <c r="E15" s="24" t="inlineStr">
@@ -3614,17 +3695,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="78" t="n">
-        <v>0.9651999999999999</v>
+        <v>0.9635</v>
       </c>
       <c r="J15" s="79" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="K15" s="80" t="inlineStr"/>
-      <c r="L15" s="80" t="inlineStr"/>
-      <c r="M15" s="80" t="n"/>
+        <v>-0.6496184780367058</v>
+      </c>
+      <c r="K15" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" s="80" t="n">
+        <v>-0.8164040250616995</v>
+      </c>
+      <c r="M15" s="80" t="n">
+        <v>2.0896</v>
+      </c>
       <c r="N15" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O15" s="26">
@@ -3745,7 +3832,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>1.591, 1.631, 1.635, 1.621, 1.626, 1.636, 1.651, 1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712</t>
+          <t>1.631, 1.635, 1.621, 1.626, 1.636, 1.651, 1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706</t>
         </is>
       </c>
       <c r="E16" s="20" t="inlineStr">
@@ -3762,17 +3849,23 @@
         <v>115</v>
       </c>
       <c r="I16" s="78" t="n">
-        <v>1.7075</v>
+        <v>1.706</v>
       </c>
       <c r="J16" s="79" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="K16" s="80" t="inlineStr"/>
-      <c r="L16" s="80" t="inlineStr"/>
-      <c r="M16" s="80" t="n"/>
+        <v>-0.3504672897196265</v>
+      </c>
+      <c r="K16" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" s="80" t="n">
+        <v>-3.573362208987551</v>
+      </c>
+      <c r="M16" s="80" t="n">
+        <v>1.781</v>
+      </c>
       <c r="N16" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O16" s="26">
@@ -3893,7 +3986,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1.5765, 1.608, 1.6084, 1.5958, 1.6026, 1.6119, 1.6255, 1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671</t>
+          <t>1.608, 1.6084, 1.5958, 1.6026, 1.6119, 1.6255, 1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -3910,17 +4003,23 @@
         <v>5</v>
       </c>
       <c r="I17" s="78" t="n">
-        <v>1.668</v>
+        <v>1.6652</v>
       </c>
       <c r="J17" s="79" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="K17" s="80" t="inlineStr"/>
-      <c r="L17" s="80" t="inlineStr"/>
-      <c r="M17" s="80" t="n"/>
+        <v>-0.3470975463794151</v>
+      </c>
+      <c r="K17" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" s="80" t="n">
+        <v>-3.817940276093112</v>
+      </c>
+      <c r="M17" s="80" t="n">
+        <v>1.6652</v>
+      </c>
       <c r="N17" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O17" s="26">
@@ -4041,7 +4140,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1.473, 1.5188, 1.5079, 1.4768, 1.4901, 1.4873, 1.4836, 1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563</t>
+          <t>1.5188, 1.5079, 1.4768, 1.4901, 1.4873, 1.4836, 1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493</t>
         </is>
       </c>
       <c r="E18" s="20" t="inlineStr">
@@ -4058,17 +4157,23 @@
         <v>5</v>
       </c>
       <c r="I18" s="78" t="n">
-        <v>1.5616</v>
+        <v>1.5493</v>
       </c>
       <c r="J18" s="79" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="K18" s="80" t="inlineStr"/>
-      <c r="L18" s="80" t="inlineStr"/>
-      <c r="M18" s="80" t="n"/>
+        <v>-0.8765195137556012</v>
+      </c>
+      <c r="K18" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="80" t="n">
+        <v>-4.263733547549908</v>
+      </c>
+      <c r="M18" s="80" t="n">
+        <v>1.5493</v>
+      </c>
       <c r="N18" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O18" s="26">
@@ -4187,7 +4292,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.06, 1.0585, 1.0638, 1.0775, 1.0783, 1.0695, 1.0828, 1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277</t>
+          <t>1.0585, 1.0638, 1.0775, 1.0783, 1.0695, 1.0828, 1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -4199,17 +4304,23 @@
         <v>2</v>
       </c>
       <c r="I19" s="80" t="n">
-        <v>1.1192</v>
+        <v>1.1164</v>
       </c>
       <c r="J19" s="82" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="K19" s="80" t="inlineStr"/>
-      <c r="L19" s="80" t="inlineStr"/>
-      <c r="M19" s="80" t="n"/>
+        <v>-1.002039549525571</v>
+      </c>
+      <c r="K19" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="80" t="n">
+        <v>-0.916538243166525</v>
+      </c>
+      <c r="M19" s="80" t="n">
+        <v>1.2216</v>
+      </c>
       <c r="N19" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O19" s="26">
@@ -4330,7 +4441,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>1.771, 1.8, 1.77, 1.713, 1.751, 1.697, 1.677, 1.677, 1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941</t>
+          <t>1.8, 1.77, 1.713, 1.751, 1.697, 1.677, 1.677, 1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -4342,17 +4453,23 @@
         <v>3</v>
       </c>
       <c r="I20" s="80" t="n">
-        <v>1.9152</v>
+        <v>1.918</v>
       </c>
       <c r="J20" s="82" t="n">
-        <v>-1.33</v>
-      </c>
-      <c r="K20" s="80" t="inlineStr"/>
-      <c r="L20" s="80" t="inlineStr"/>
-      <c r="M20" s="80" t="n"/>
+        <v>-1.184956208140141</v>
+      </c>
+      <c r="K20" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="80" t="n">
+        <v>-2.292409577177797</v>
+      </c>
+      <c r="M20" s="80" t="n">
+        <v>1.918</v>
+      </c>
       <c r="N20" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O20" s="26">
@@ -4473,24 +4590,30 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>0.9691, 0.9702, 0.9634, 0.9515, 0.9578, 0.9372, 0.9313, 0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923</t>
+          <t>0.9702, 0.9634, 0.9515, 0.9578, 0.9372, 0.9313, 0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I21" s="80" t="n">
-        <v>0.9799</v>
+        <v>0.9687</v>
       </c>
       <c r="J21" s="82" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="K21" s="80" t="inlineStr"/>
-      <c r="L21" s="80" t="inlineStr"/>
-      <c r="M21" s="80" t="n"/>
+        <v>-2.378313010178369</v>
+      </c>
+      <c r="K21" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="80" t="n">
+        <v>-2.378313010178369</v>
+      </c>
+      <c r="M21" s="80" t="n">
+        <v>0.9687</v>
+      </c>
       <c r="N21" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O21" s="26">
@@ -4616,24 +4739,30 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>2.473, 2.472, 2.439, 2.467, 2.458, 2.43, 2.451, 2.407, 2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688</t>
+          <t>2.472, 2.439, 2.467, 2.458, 2.43, 2.451, 2.407, 2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>113</v>
       </c>
       <c r="I22" s="80" t="n">
-        <v>2.6988</v>
+        <v>2.699</v>
       </c>
       <c r="J22" s="82" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K22" s="80" t="inlineStr"/>
-      <c r="L22" s="80" t="inlineStr"/>
-      <c r="M22" s="80" t="n"/>
+        <v>0.4092261904761784</v>
+      </c>
+      <c r="K22" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" s="80" t="n">
+        <v>3.054600992745308</v>
+      </c>
+      <c r="M22" s="80" t="n">
+        <v>2.699</v>
+      </c>
       <c r="N22" s="80" t="inlineStr">
         <is>
-          <t>2019-12-21 05:00</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="O22" s="26">
@@ -4752,24 +4881,30 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>1.0334, 1.0351, 1.0285, 1.017, 1.0238, 1.0027, 0.9963, 0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067</t>
+          <t>1.0351, 1.0285, 1.017, 1.0238, 1.0027, 0.9963, 0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I23" s="80" t="n">
-        <v>1.054</v>
+        <v>1.0416</v>
       </c>
       <c r="J23" s="82" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="K23" s="80" t="inlineStr"/>
-      <c r="L23" s="80" t="inlineStr"/>
-      <c r="M23" s="80" t="n"/>
+        <v>-2.380506091846286</v>
+      </c>
+      <c r="K23" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="80" t="n">
+        <v>-2.380506091846286</v>
+      </c>
+      <c r="M23" s="80" t="n">
+        <v>1.0416</v>
+      </c>
       <c r="N23" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O23" s="26">
@@ -4890,24 +5025,30 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>1.54, 1.543, 1.499, 1.447, 1.479, 1.442, 1.414, 1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618</t>
+          <t>1.543, 1.499, 1.447, 1.479, 1.442, 1.414, 1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59</t>
         </is>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="84" t="n">
-        <v>1.5924</v>
+        <v>1.59</v>
       </c>
       <c r="J24" s="82" t="n">
-        <v>-1.58</v>
-      </c>
-      <c r="K24" s="84" t="inlineStr"/>
-      <c r="L24" s="84" t="inlineStr"/>
-      <c r="M24" s="84" t="n"/>
+        <v>-1.730531520395551</v>
+      </c>
+      <c r="K24" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="84" t="n">
+        <v>-3.755868544600943</v>
+      </c>
+      <c r="M24" s="84" t="n">
+        <v>2.05</v>
+      </c>
       <c r="N24" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -5028,24 +5169,30 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1.6218, 1.6304, 1.571, 1.504, 1.5106, 1.4874, 1.4632, 1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415</t>
+          <t>1.6304, 1.571, 1.504, 1.5106, 1.4874, 1.4632, 1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="84" t="n">
-        <v>1.8119</v>
+        <v>1.8062</v>
       </c>
       <c r="J25" s="82" t="n">
-        <v>-1.61</v>
-      </c>
-      <c r="K25" s="84" t="inlineStr"/>
-      <c r="L25" s="84" t="inlineStr"/>
-      <c r="M25" s="84" t="n"/>
+        <v>-1.916915557969041</v>
+      </c>
+      <c r="K25" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" s="84" t="n">
+        <v>-4.90573791544666</v>
+      </c>
+      <c r="M25" s="84" t="n">
+        <v>1.8512</v>
+      </c>
       <c r="N25" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -5166,24 +5313,30 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>2.062, 2.08, 2.009, 1.927, 1.963, 1.926, 1.896, 1.913, 1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319</t>
+          <t>2.08, 2.009, 1.927, 1.963, 1.926, 1.896, 1.913, 1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="84" t="n">
-        <v>2.2807</v>
+        <v>2.249</v>
       </c>
       <c r="J26" s="82" t="n">
-        <v>-1.65</v>
-      </c>
-      <c r="K26" s="84" t="inlineStr"/>
-      <c r="L26" s="84" t="inlineStr"/>
-      <c r="M26" s="84" t="n"/>
+        <v>-3.018542475204823</v>
+      </c>
+      <c r="K26" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="84" t="n">
+        <v>-5.480572597137011</v>
+      </c>
+      <c r="M26" s="84" t="n">
+        <v>2.311</v>
+      </c>
       <c r="N26" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O26" s="0">
@@ -5304,24 +5457,30 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1.1049, 1.1089, 1.0995, 1.0845, 1.0885, 1.0789, 1.0745, 1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691</t>
+          <t>1.1089, 1.0995, 1.0845, 1.0885, 1.0789, 1.0745, 1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="84" t="n">
-        <v>1.1649</v>
+        <v>1.1609</v>
       </c>
       <c r="J27" s="82" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="K27" s="84" t="inlineStr"/>
-      <c r="L27" s="84" t="inlineStr"/>
-      <c r="M27" s="84" t="n"/>
+        <v>-0.7013942348815315</v>
+      </c>
+      <c r="K27" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" s="84" t="n">
+        <v>-1.942731649632563</v>
+      </c>
+      <c r="M27" s="84" t="n">
+        <v>1.1609</v>
+      </c>
       <c r="N27" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:35</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -5440,24 +5599,30 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>1.1009, 1.1034, 1.0882, 1.0623, 1.0758, 1.0292, 1.0152, 1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315</t>
+          <t>1.1034, 1.0882, 1.0623, 1.0758, 1.0292, 1.0152, 1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="84" t="n">
-        <v>1.1056</v>
+        <v>1.0805</v>
       </c>
       <c r="J28" s="82" t="n">
-        <v>-2.29</v>
-      </c>
-      <c r="K28" s="84" t="inlineStr"/>
-      <c r="L28" s="84" t="inlineStr"/>
-      <c r="M28" s="84" t="n"/>
+        <v>-4.507291206363229</v>
+      </c>
+      <c r="K28" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="84" t="n">
+        <v>-0.7507507507507514</v>
+      </c>
+      <c r="M28" s="84" t="n">
+        <v>0.1322</v>
+      </c>
       <c r="N28" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -5578,24 +5743,30 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>0.99, 1.004, 0.999, 0.978, 0.984, 0.977, 0.967, 0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122</t>
+          <t>1.004, 0.999, 0.978, 0.984, 0.977, 0.967, 0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="84" t="n">
-        <v>1.1245</v>
+        <v>1.12</v>
       </c>
       <c r="J29" s="82" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K29" s="84" t="inlineStr"/>
-      <c r="L29" s="84" t="inlineStr"/>
-      <c r="M29" s="84" t="n"/>
+        <v>-0.1782531194295902</v>
+      </c>
+      <c r="K29" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="84" t="n">
+        <v>-0.1285347043701801</v>
+      </c>
+      <c r="M29" s="84" t="n">
+        <v>0.777</v>
+      </c>
       <c r="N29" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -5704,24 +5875,30 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>1.7582, 1.7673, 1.7644, 1.7642, 1.7661, 1.7506, 1.7709, 1.7667, 1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065</t>
+          <t>1.7673, 1.7644, 1.7642, 1.7661, 1.7506, 1.7709, 1.7667, 1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942</t>
         </is>
       </c>
       <c r="H30" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I30" s="84" t="n">
-        <v>1.7957</v>
+        <v>1.7942</v>
       </c>
       <c r="J30" s="82" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="K30" s="84" t="inlineStr"/>
-      <c r="L30" s="84" t="inlineStr"/>
-      <c r="M30" s="84" t="n"/>
+        <v>-0.6808746194298354</v>
+      </c>
+      <c r="K30" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" s="84" t="n">
+        <v>-0.7422255932387065</v>
+      </c>
+      <c r="M30" s="84" t="n">
+        <v>3.6642</v>
+      </c>
       <c r="N30" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O30" s="0">
@@ -5840,24 +6017,30 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>2.5006, 2.4998, 2.4655, 2.4945, 2.4842, 2.4561, 2.4773, 2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286</t>
+          <t>2.4998, 2.4655, 2.4945, 2.4842, 2.4561, 2.4773, 2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="84" t="n">
-        <v>2.7396</v>
+        <v>2.7398</v>
       </c>
       <c r="J31" s="82" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K31" s="84" t="inlineStr"/>
-      <c r="L31" s="84" t="inlineStr"/>
-      <c r="M31" s="84" t="n"/>
+        <v>0.4104669061056825</v>
+      </c>
+      <c r="K31" s="84" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" s="84" t="n">
+        <v>2.807760623035928</v>
+      </c>
+      <c r="M31" s="84" t="n">
+        <v>3.0098</v>
+      </c>
       <c r="N31" s="84" t="inlineStr">
         <is>
-          <t>2019-12-21 05:00</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -5966,24 +6149,30 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>0.861, 0.86, 0.824, 0.792, 0.819, 0.799, 0.773, 0.785, 0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991</t>
+          <t>0.86, 0.824, 0.792, 0.819, 0.799, 0.773, 0.785, 0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I32" s="84" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.951</v>
       </c>
       <c r="J32" s="82" t="n">
-        <v>-1.98</v>
-      </c>
-      <c r="K32" s="84" t="inlineStr"/>
-      <c r="L32" s="84" t="inlineStr"/>
-      <c r="M32" s="84" t="n"/>
+        <v>-4.036326942482344</v>
+      </c>
+      <c r="K32" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" s="84" t="n">
+        <v>-2.389767754964664</v>
+      </c>
+      <c r="M32" s="84" t="n">
+        <v>2.9</v>
+      </c>
       <c r="N32" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O32" s="0">
@@ -6104,24 +6293,30 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>1.7813, 1.7954, 1.7379, 1.6819, 1.6919, 1.6733, 1.6515, 1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031</t>
+          <t>1.7954, 1.7379, 1.6819, 1.6919, 1.6733, 1.6515, 1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="84" t="n">
-        <v>2.002</v>
+        <v>1.9883</v>
       </c>
       <c r="J33" s="82" t="n">
-        <v>-1.43</v>
-      </c>
-      <c r="K33" s="84" t="inlineStr"/>
-      <c r="L33" s="84" t="inlineStr"/>
-      <c r="M33" s="84" t="n"/>
+        <v>-2.102412604628271</v>
+      </c>
+      <c r="K33" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" s="84" t="n">
+        <v>-2.63756048160235</v>
+      </c>
+      <c r="M33" s="84" t="n">
+        <v>4.3263</v>
+      </c>
       <c r="N33" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -6230,30 +6425,30 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>1.3424, 1.34, 1.2804, 1.2351, 1.2418, 1.2175, 1.1975, 1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303</t>
+          <t>1.34, 1.2804, 1.2351, 1.2418, 1.2175, 1.1975, 1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="71" t="n">
-        <v>1.4303</v>
-      </c>
-      <c r="J34" s="77" t="n">
-        <v>-0.7769684356573082</v>
-      </c>
-      <c r="K34" s="71" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" s="71" t="n">
-        <v>-3.129021334236371</v>
-      </c>
-      <c r="M34" s="75" t="n">
-        <v>1.4303</v>
-      </c>
-      <c r="N34" s="71" t="inlineStr">
-        <is>
-          <t>2019-12-20</t>
+      <c r="I34" s="80" t="n">
+        <v>1.3849</v>
+      </c>
+      <c r="J34" s="86" t="n">
+        <v>-3.174159267286575</v>
+      </c>
+      <c r="K34" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" s="80" t="n">
+        <v>-6.203860480866909</v>
+      </c>
+      <c r="M34" s="84" t="n">
+        <v>1.3849</v>
+      </c>
+      <c r="N34" s="80" t="inlineStr">
+        <is>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O34" s="0">
@@ -6268,86 +6463,86 @@
       </c>
       <c r="S34" s="0" t="inlineStr"/>
       <c r="T34" s="0" t="inlineStr"/>
-      <c r="U34" s="75" t="n"/>
-      <c r="V34" s="75" t="n"/>
-      <c r="W34" s="75" t="n"/>
-      <c r="X34" s="75" t="n"/>
-      <c r="Y34" s="75" t="n"/>
-      <c r="Z34" s="75" t="n"/>
-      <c r="AA34" s="75" t="n"/>
-      <c r="AB34" s="75" t="n"/>
-      <c r="AC34" s="75" t="n"/>
-      <c r="AD34" s="75" t="n"/>
-      <c r="AE34" s="75" t="n"/>
-      <c r="AF34" s="75" t="n"/>
-      <c r="AG34" s="75" t="n"/>
-      <c r="AH34" s="75" t="n"/>
-      <c r="AI34" s="75" t="n"/>
-      <c r="AJ34" s="75" t="n"/>
-      <c r="AK34" s="75" t="n"/>
-      <c r="AL34" s="75" t="n"/>
-      <c r="AM34" s="75" t="n"/>
-      <c r="AN34" s="75" t="n"/>
-      <c r="AO34" s="75" t="n"/>
-      <c r="AP34" s="75" t="n"/>
-      <c r="AQ34" s="75" t="n"/>
-      <c r="AR34" s="75" t="n"/>
-      <c r="AS34" s="75" t="n"/>
-      <c r="AT34" s="75" t="n"/>
-      <c r="AU34" s="75" t="n"/>
-      <c r="AV34" s="75" t="n"/>
-      <c r="AW34" s="75" t="n"/>
-      <c r="AX34" s="75" t="n"/>
-      <c r="AY34" s="75" t="n"/>
-      <c r="AZ34" s="75" t="n"/>
-      <c r="BA34" s="75" t="n"/>
-      <c r="BB34" s="75" t="n"/>
-      <c r="BC34" s="75" t="n"/>
-      <c r="BD34" s="75" t="n"/>
-      <c r="BE34" s="75" t="n"/>
-      <c r="BF34" s="75" t="n"/>
-      <c r="BG34" s="75" t="n"/>
-      <c r="BH34" s="75" t="n"/>
-      <c r="BI34" s="75" t="n"/>
-      <c r="BJ34" s="75" t="n"/>
-      <c r="BK34" s="75" t="n"/>
-      <c r="BL34" s="75" t="n"/>
-      <c r="BM34" s="75" t="n"/>
-      <c r="BN34" s="75" t="n"/>
-      <c r="BO34" s="75" t="n"/>
-      <c r="BP34" s="75" t="n"/>
-      <c r="BQ34" s="75" t="n"/>
-      <c r="BR34" s="75" t="n"/>
-      <c r="BS34" s="75" t="n"/>
-      <c r="BT34" s="75" t="n"/>
-      <c r="BU34" s="75" t="n"/>
-      <c r="BV34" s="75" t="n"/>
-      <c r="BW34" s="75" t="n"/>
-      <c r="BX34" s="75" t="n"/>
-      <c r="BY34" s="75" t="n"/>
-      <c r="BZ34" s="75" t="n"/>
-      <c r="CA34" s="75" t="n"/>
-      <c r="CB34" s="75" t="n"/>
-      <c r="CC34" s="75" t="n"/>
-      <c r="CD34" s="75" t="n"/>
-      <c r="CE34" s="75" t="n"/>
-      <c r="CF34" s="75" t="n"/>
-      <c r="CG34" s="75" t="n"/>
-      <c r="CH34" s="75" t="n"/>
-      <c r="CI34" s="75" t="n"/>
-      <c r="CJ34" s="75" t="n"/>
-      <c r="CK34" s="75" t="n"/>
-      <c r="CL34" s="75" t="n"/>
-      <c r="CM34" s="75" t="n"/>
-      <c r="CN34" s="75" t="n"/>
-      <c r="CO34" s="75" t="n"/>
-      <c r="CP34" s="75" t="n"/>
-      <c r="CQ34" s="75" t="n"/>
-      <c r="CR34" s="75" t="n"/>
-      <c r="CS34" s="75" t="n"/>
-      <c r="CT34" s="75" t="n"/>
-      <c r="CU34" s="75" t="n"/>
-      <c r="CV34" s="75" t="n"/>
+      <c r="U34" s="84" t="n"/>
+      <c r="V34" s="84" t="n"/>
+      <c r="W34" s="84" t="n"/>
+      <c r="X34" s="84" t="n"/>
+      <c r="Y34" s="84" t="n"/>
+      <c r="Z34" s="84" t="n"/>
+      <c r="AA34" s="84" t="n"/>
+      <c r="AB34" s="84" t="n"/>
+      <c r="AC34" s="84" t="n"/>
+      <c r="AD34" s="84" t="n"/>
+      <c r="AE34" s="84" t="n"/>
+      <c r="AF34" s="84" t="n"/>
+      <c r="AG34" s="84" t="n"/>
+      <c r="AH34" s="84" t="n"/>
+      <c r="AI34" s="84" t="n"/>
+      <c r="AJ34" s="84" t="n"/>
+      <c r="AK34" s="84" t="n"/>
+      <c r="AL34" s="84" t="n"/>
+      <c r="AM34" s="84" t="n"/>
+      <c r="AN34" s="84" t="n"/>
+      <c r="AO34" s="84" t="n"/>
+      <c r="AP34" s="84" t="n"/>
+      <c r="AQ34" s="84" t="n"/>
+      <c r="AR34" s="84" t="n"/>
+      <c r="AS34" s="84" t="n"/>
+      <c r="AT34" s="84" t="n"/>
+      <c r="AU34" s="84" t="n"/>
+      <c r="AV34" s="84" t="n"/>
+      <c r="AW34" s="84" t="n"/>
+      <c r="AX34" s="84" t="n"/>
+      <c r="AY34" s="84" t="n"/>
+      <c r="AZ34" s="84" t="n"/>
+      <c r="BA34" s="84" t="n"/>
+      <c r="BB34" s="84" t="n"/>
+      <c r="BC34" s="84" t="n"/>
+      <c r="BD34" s="84" t="n"/>
+      <c r="BE34" s="84" t="n"/>
+      <c r="BF34" s="84" t="n"/>
+      <c r="BG34" s="84" t="n"/>
+      <c r="BH34" s="84" t="n"/>
+      <c r="BI34" s="84" t="n"/>
+      <c r="BJ34" s="84" t="n"/>
+      <c r="BK34" s="84" t="n"/>
+      <c r="BL34" s="84" t="n"/>
+      <c r="BM34" s="84" t="n"/>
+      <c r="BN34" s="84" t="n"/>
+      <c r="BO34" s="84" t="n"/>
+      <c r="BP34" s="84" t="n"/>
+      <c r="BQ34" s="84" t="n"/>
+      <c r="BR34" s="84" t="n"/>
+      <c r="BS34" s="84" t="n"/>
+      <c r="BT34" s="84" t="n"/>
+      <c r="BU34" s="84" t="n"/>
+      <c r="BV34" s="84" t="n"/>
+      <c r="BW34" s="84" t="n"/>
+      <c r="BX34" s="84" t="n"/>
+      <c r="BY34" s="84" t="n"/>
+      <c r="BZ34" s="84" t="n"/>
+      <c r="CA34" s="84" t="n"/>
+      <c r="CB34" s="84" t="n"/>
+      <c r="CC34" s="84" t="n"/>
+      <c r="CD34" s="84" t="n"/>
+      <c r="CE34" s="84" t="n"/>
+      <c r="CF34" s="84" t="n"/>
+      <c r="CG34" s="84" t="n"/>
+      <c r="CH34" s="84" t="n"/>
+      <c r="CI34" s="84" t="n"/>
+      <c r="CJ34" s="84" t="n"/>
+      <c r="CK34" s="84" t="n"/>
+      <c r="CL34" s="84" t="n"/>
+      <c r="CM34" s="84" t="n"/>
+      <c r="CN34" s="84" t="n"/>
+      <c r="CO34" s="84" t="n"/>
+      <c r="CP34" s="84" t="n"/>
+      <c r="CQ34" s="84" t="n"/>
+      <c r="CR34" s="84" t="n"/>
+      <c r="CS34" s="84" t="n"/>
+      <c r="CT34" s="84" t="n"/>
+      <c r="CU34" s="84" t="n"/>
+      <c r="CV34" s="84" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -6362,24 +6557,30 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>0.815, 0.82, 0.81, 0.787, 0.798, 0.789, 0.784, 0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858</t>
+          <t>0.82, 0.81, 0.787, 0.798, 0.789, 0.784, 0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="84" t="n">
-        <v>0.8472</v>
+        <v>0.842</v>
       </c>
       <c r="J35" s="82" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="K35" s="84" t="inlineStr"/>
-      <c r="L35" s="84" t="inlineStr"/>
-      <c r="M35" s="84" t="n"/>
+        <v>-1.864801864801866</v>
+      </c>
+      <c r="K35" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" s="84" t="n">
+        <v>-1.407129455909955</v>
+      </c>
+      <c r="M35" s="84" t="n">
+        <v>2.102</v>
+      </c>
       <c r="N35" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -6488,24 +6689,30 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>1.6439, 1.6474, 1.6312, 1.6503, 1.651, 1.6308, 1.6464, 1.6119, 1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205</t>
+          <t>1.6474, 1.6312, 1.6503, 1.651, 1.6308, 1.6464, 1.6119, 1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303</t>
         </is>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="84" t="n">
-        <v>1.8252</v>
+        <v>1.8303</v>
       </c>
       <c r="J36" s="82" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K36" s="84" t="inlineStr"/>
-      <c r="L36" s="84" t="inlineStr"/>
-      <c r="M36" s="84" t="n"/>
+        <v>0.5383136500961292</v>
+      </c>
+      <c r="K36" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" s="84" t="n">
+        <v>1.278220451527231</v>
+      </c>
+      <c r="M36" s="84" t="n">
+        <v>1.8303</v>
+      </c>
       <c r="N36" s="84" t="inlineStr">
         <is>
-          <t>2019-12-21 05:00</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="O36" s="0">
@@ -6614,24 +6821,30 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1.126, 1.13, 1.095, 1.058, 1.078, 1.053, 1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224</t>
+          <t>1.13, 1.095, 1.058, 1.078, 1.053, 1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201</t>
         </is>
       </c>
       <c r="H37" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I37" s="84" t="n">
-        <v>1.207</v>
+        <v>1.201</v>
       </c>
       <c r="J37" s="82" t="n">
-        <v>-1.39</v>
-      </c>
-      <c r="K37" s="84" t="inlineStr"/>
-      <c r="L37" s="84" t="inlineStr"/>
-      <c r="M37" s="84" t="n"/>
+        <v>-1.879084967320254</v>
+      </c>
+      <c r="K37" s="84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" s="84" t="n">
+        <v>-3.68885324779471</v>
+      </c>
+      <c r="M37" s="84" t="n">
+        <v>1.201</v>
+      </c>
       <c r="N37" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23 14:34</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -6879,6 +7092,42 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7297,23 +7546,23 @@
         </is>
       </c>
       <c r="F2" s="12" t="n">
-        <v>2974.3739</v>
+        <v>2965.586</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>-1.017115962740796</v>
+        <v>0.09567795987465719</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>-1.415013885345152</v>
+        <v>-1.309564631225634</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>2.23305036</v>
+        <v>2.184842731</v>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:36</t>
+          <t>20191224 03:04:56</t>
         </is>
       </c>
       <c r="L2" s="50">
@@ -7423,23 +7672,23 @@
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>2993.0828</v>
+        <v>2988.9116</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>-0.6486999032106749</v>
+        <v>0.1564551085759539</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>-1.320726033856039</v>
+        <v>-0.7871571964615499</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.425593127</v>
+        <v>0.461449136</v>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:36</t>
+          <t>20191224 03:04:56</t>
         </is>
       </c>
       <c r="L3" s="50">
@@ -7549,23 +7798,23 @@
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>3982.2582</v>
+        <v>3973.8881</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>-0.8711052705247989</v>
+        <v>0.1712058306022468</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>-1.473140825685658</v>
+        <v>-1.079459103979192</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>1.584602324</v>
+        <v>1.620482615</v>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:37</t>
+          <t>20191224 03:04:56</t>
         </is>
       </c>
       <c r="L4" s="50">
@@ -7675,23 +7924,23 @@
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>4349.855</v>
+        <v>4295.55</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>-0.4517353328478684</v>
+        <v>-1.248432419011654</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>-0.4517353328478684</v>
+        <v>-1.69452814151612</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.251421106</v>
+        <v>0.279599607</v>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20191220</t>
+          <t>20191223</t>
         </is>
       </c>
       <c r="L5" s="50">
@@ -7801,23 +8050,23 @@
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>5117.2731</v>
+        <v>5112.964</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>-1.300025505937177</v>
+        <v>0.5627759140523532</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>-2.374489329645193</v>
+        <v>-1.383137751811333</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>1.074049057</v>
+        <v>0.9821494409999999</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:37</t>
+          <t>20191224 03:04:56</t>
         </is>
       </c>
       <c r="L6" s="50">
@@ -7927,23 +8176,23 @@
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>9546.351000000001</v>
+        <v>9469.529</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>-0.07994566458051199</v>
+        <v>-0.804726329463479</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>-0.3074107321507107</v>
+        <v>-1.109663246512976</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0.270802375</v>
+        <v>0.284962551</v>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>20191220</t>
+          <t>20191223</t>
         </is>
       </c>
       <c r="L7" s="50">
@@ -8053,23 +8302,23 @@
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>15570.0327</v>
+        <v>15560.1565</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>-0.8033408956876292</v>
+        <v>0.09062742072874663</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>-1.686498590375514</v>
+        <v>-0.8029860142924632</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>0.143405877</v>
+        <v>0.161169448</v>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:38</t>
+          <t>20191224 03:04:56</t>
         </is>
       </c>
       <c r="L8" s="50">
@@ -8185,23 +8434,23 @@
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>9719.328600000001</v>
+        <v>9685.6173</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>-0.7184588258515431</v>
+        <v>-0.01286897403400494</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>-1.579450095111488</v>
+        <v>-1.920819835816494</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>0.350629485</v>
+        <v>0.316025496</v>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:39</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L9" s="50">
@@ -8322,23 +8571,23 @@
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>10628.351</v>
+        <v>10595.5269</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>-0.1521417663494792</v>
+        <v>-0.1038114445206754</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>-0.7640245503263963</v>
+        <v>-1.070500275653647</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.09101562000000001</v>
+        <v>0.09747439699999999</v>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:39</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L10" s="50">
@@ -8459,23 +8708,23 @@
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>745.546</v>
+        <v>736.847</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>-1.350704065079374</v>
+        <v>0.03719930000149353</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>-1.450654674922877</v>
+        <v>-2.124238764963197</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>0.48856629</v>
+        <v>0.405766585</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:40</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L11" s="50">
@@ -8591,23 +8840,23 @@
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>1747.786</v>
+        <v>1752.404</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>-1.350166816522148</v>
+        <v>0.9086595601580982</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>-2.987883878930478</v>
+        <v>-1.089486322932157</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>1.188689696</v>
+        <v>1.100969193</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:40</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L12" s="50">
@@ -8717,23 +8966,23 @@
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>6784.981</v>
+        <v>6806.452</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>-0.8452219538792416</v>
+        <v>0.591553146602527</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>-0.8350776762400272</v>
+        <v>1.132321502756817</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0.122550423</v>
+        <v>0.12222765</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:41</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L13" s="50">
@@ -8854,23 +9103,23 @@
         </is>
       </c>
       <c r="F14" s="11" t="n">
-        <v>9064.927</v>
+        <v>8963.686</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>-1.2033130125494</v>
+        <v>-1.116842970715594</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="11" t="n">
-        <v>-2.976468312865473</v>
+        <v>-4.060068806453251</v>
       </c>
       <c r="J14" s="11" t="n">
-        <v>0.082677822</v>
+        <v>0.068169647</v>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>20191220</t>
+          <t>20191223</t>
         </is>
       </c>
       <c r="L14" s="50">
@@ -8986,23 +9235,23 @@
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>5633.4379</v>
+        <v>5622.6523</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>-0.2894884616488749</v>
+        <v>-0.04626634785919063</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>-0.5928672518203026</v>
+        <v>-0.7831889683282245</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>0.230325838</v>
+        <v>0.263105061</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:42</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L15" s="50">
@@ -9112,16 +9361,16 @@
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>27841.12</v>
+        <v>27854.211</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.11</v>
+        <v>-0.19</v>
       </c>
       <c r="I16" s="11" t="n"/>
       <c r="J16" s="11" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:43</t>
+          <t>20191224 03:04:57</t>
         </is>
       </c>
       <c r="L16" s="50">
@@ -9231,16 +9480,16 @@
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>8678.491</v>
+        <v>8696.0072</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="11" t="n"/>
       <c r="J17" s="11" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20191223 06:36:44</t>
+          <t>20191224 03:04:58</t>
         </is>
       </c>
       <c r="L17" s="50">
@@ -9708,79 +9957,79 @@
         <v>13000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1.054</v>
+        <v>1.0416</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9799</v>
+        <v>0.9687</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.1432</v>
+        <v>2.1436</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.1571</v>
+        <v>2.116</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.2413</v>
+        <v>1.226</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1.207</v>
+        <v>1.201</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.9713000000000001</v>
+        <v>0.951</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1.7957</v>
+        <v>1.7942</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>4.8279</v>
+        <v>4.8142</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>1.7075</v>
+        <v>1.706</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.6988</v>
+        <v>2.699</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>19308</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>27841.12</v>
+        <v>27854.211</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>14000</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>4349.855</v>
+        <v>4295.55</v>
       </c>
       <c r="AD3" s="0" t="inlineStr"/>
       <c r="AE3" s="0" t="inlineStr"/>
@@ -9792,88 +10041,88 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>3162.748797205428</v>
+        <v>2437.577016012505</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>3.541394720747781</v>
+        <v>2.729404998446394</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>1190.140845070423</v>
+        <v>1023.198011599007</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>9.154929577464792</v>
+        <v>7.870753935376975</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>1090.059000333964</v>
+        <v>940.4430591116555</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>9.083825002783035</v>
+        <v>7.83702549259713</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>-177.5347644120426</v>
+        <v>-176.63471490932</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>-3.550695288240852</v>
+        <v>-3.532694298186401</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>-61.58424908424993</v>
+        <v>-155.6776556776558</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>-1.231684981684998</v>
+        <v>-3.113553113553116</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>-158.736349453978</v>
+        <v>-218.4087363494542</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>-3.17472698907956</v>
+        <v>-4.368174726989083</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>-89.22829581993551</v>
+        <v>-103.6977491961413</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>-2.974276527331184</v>
+        <v>-3.456591639871377</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>-148.8258317025439</v>
+        <v>-208.4148727984346</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>-4.960861056751464</v>
+        <v>-6.947162426614488</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>-21.92112800176253</v>
+        <v>-23.57347433355374</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>-1.096056400088127</v>
+        <v>-1.178673716677687</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>-16.47493837304877</v>
+        <v>-22.10353327855412</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>-0.8237469186524382</v>
+        <v>-1.105176663927706</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>-18.33527357392309</v>
+        <v>-20.95459837019792</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>-0.6111757857974363</v>
+        <v>-0.6984866123399307</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>102.0689655172414</v>
+        <v>102.2988505747126</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>3.402298850574712</v>
+        <v>3.409961685823753</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>932.0582570109204</v>
+        <v>941.5752090100691</v>
       </c>
       <c r="AA4" s="12" t="n">
-        <v>4.82731643365921</v>
+        <v>4.876606634607775</v>
       </c>
       <c r="AB4" s="12" t="n">
-        <v>541.0625596943634</v>
+        <v>359.5272206303731</v>
       </c>
       <c r="AC4" s="12" t="n">
-        <v>3.864732569245453</v>
+        <v>2.568051575931237</v>
       </c>
       <c r="AD4" s="0" t="inlineStr"/>
       <c r="AE4" s="0" t="inlineStr"/>
@@ -10284,16 +10533,16 @@
       <c r="X12" s="0" t="inlineStr"/>
       <c r="Y12" s="0" t="inlineStr"/>
       <c r="Z12" s="12" t="n">
-        <v>621.6931809152575</v>
+        <v>628.7084771185484</v>
       </c>
       <c r="AA12" s="12" t="n">
-        <v>4.348112889321985</v>
+        <v>4.397177766950262</v>
       </c>
       <c r="AB12" s="12" t="n">
-        <v>541.0625596943634</v>
+        <v>359.5272206303731</v>
       </c>
       <c r="AC12" s="12" t="n">
-        <v>3.864732569245453</v>
+        <v>2.568051575931237</v>
       </c>
       <c r="AD12" s="0" t="inlineStr"/>
       <c r="AE12" s="0" t="inlineStr"/>
@@ -10360,16 +10609,16 @@
       <c r="B14" s="0" t="inlineStr"/>
       <c r="C14" s="0" t="inlineStr"/>
       <c r="D14" s="12" t="n">
-        <v>1190.140845070423</v>
+        <v>1023.198011599007</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>9.154929577464792</v>
+        <v>7.870753935376975</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>1090.059000333964</v>
+        <v>940.4430591116555</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>9.083825002783035</v>
+        <v>7.83702549259713</v>
       </c>
       <c r="H14" s="0" t="inlineStr"/>
       <c r="I14" s="0" t="inlineStr"/>
@@ -10472,10 +10721,10 @@
       <c r="T16" s="0" t="inlineStr"/>
       <c r="U16" s="0" t="inlineStr"/>
       <c r="V16" s="11" t="n">
-        <v>-18.33527357392309</v>
+        <v>-20.95459837019792</v>
       </c>
       <c r="W16" s="11" t="n">
-        <v>-0.6111757857974363</v>
+        <v>-0.6984866123399307</v>
       </c>
       <c r="X16" s="0" t="inlineStr"/>
       <c r="Y16" s="0" t="inlineStr"/>
@@ -10568,16 +10817,16 @@
       <c r="V18" s="0" t="inlineStr"/>
       <c r="W18" s="0" t="inlineStr"/>
       <c r="X18" s="11" t="n">
-        <v>102.0689655172414</v>
+        <v>102.2988505747126</v>
       </c>
       <c r="Y18" s="11" t="n">
-        <v>3.402298850574712</v>
+        <v>3.409961685823753</v>
       </c>
       <c r="Z18" s="12" t="n">
-        <v>310.3650760956629</v>
+        <v>312.8667318915206</v>
       </c>
       <c r="AA18" s="12" t="n">
-        <v>6.194911698516226</v>
+        <v>6.244844947934544</v>
       </c>
       <c r="AB18" s="0" t="inlineStr"/>
       <c r="AC18" s="0" t="inlineStr"/>
@@ -10658,16 +10907,16 @@
       <c r="F20" s="0" t="inlineStr"/>
       <c r="G20" s="0" t="inlineStr"/>
       <c r="H20" s="12" t="n">
-        <v>-177.5347644120426</v>
+        <v>-176.63471490932</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>-3.550695288240852</v>
+        <v>-3.532694298186401</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>-61.58424908424993</v>
+        <v>-155.6776556776558</v>
       </c>
       <c r="K20" s="12" t="n">
-        <v>-1.231684981684998</v>
+        <v>-3.113553113553116</v>
       </c>
       <c r="L20" s="0" t="inlineStr"/>
       <c r="M20" s="0" t="inlineStr"/>
@@ -10780,28 +11029,28 @@
       <c r="L22" s="0" t="inlineStr"/>
       <c r="M22" s="0" t="inlineStr"/>
       <c r="N22" s="12" t="n">
-        <v>-89.22829581993551</v>
+        <v>-103.6977491961413</v>
       </c>
       <c r="O22" s="12" t="n">
-        <v>-2.974276527331184</v>
+        <v>-3.456591639871377</v>
       </c>
       <c r="P22" s="12" t="n">
-        <v>-148.8258317025439</v>
+        <v>-208.4148727984346</v>
       </c>
       <c r="Q22" s="12" t="n">
-        <v>-4.960861056751464</v>
+        <v>-6.947162426614488</v>
       </c>
       <c r="R22" s="12" t="n">
-        <v>-21.92112800176253</v>
+        <v>-23.57347433355374</v>
       </c>
       <c r="S22" s="12" t="n">
-        <v>-1.096056400088127</v>
+        <v>-1.178673716677687</v>
       </c>
       <c r="T22" s="11" t="n">
-        <v>-16.47493837304877</v>
+        <v>-22.10353327855412</v>
       </c>
       <c r="U22" s="11" t="n">
-        <v>-0.8237469186524382</v>
+        <v>-1.105176663927706</v>
       </c>
       <c r="V22" s="0" t="inlineStr"/>
       <c r="W22" s="0" t="inlineStr"/>
@@ -10886,10 +11135,10 @@
       <c r="J24" s="0" t="inlineStr"/>
       <c r="K24" s="0" t="inlineStr"/>
       <c r="L24" s="12" t="n">
-        <v>-158.736349453978</v>
+        <v>-218.4087363494542</v>
       </c>
       <c r="M24" s="11" t="n">
-        <v>-3.17472698907956</v>
+        <v>-4.368174726989083</v>
       </c>
       <c r="N24" s="0" t="inlineStr"/>
       <c r="O24" s="0" t="inlineStr"/>
@@ -11079,6 +11328,12 @@
     <cfRule type="cellIs" priority="1654" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1765" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1766" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="154" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11207,6 +11462,12 @@
     <cfRule type="cellIs" priority="1656" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1767" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1768" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="104" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11317,6 +11578,12 @@
     <cfRule type="cellIs" priority="1550" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1661" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1662" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="106" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11427,6 +11694,12 @@
     <cfRule type="cellIs" priority="1552" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1663" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1664" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="112" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11537,6 +11810,12 @@
     <cfRule type="cellIs" priority="1558" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1669" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1670" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="114" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11647,6 +11926,12 @@
     <cfRule type="cellIs" priority="1560" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1671" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1672" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="120" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11757,6 +12042,12 @@
     <cfRule type="cellIs" priority="1566" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1677" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1678" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="122" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11867,6 +12158,12 @@
     <cfRule type="cellIs" priority="1568" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1679" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1680" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="128" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11977,6 +12274,12 @@
     <cfRule type="cellIs" priority="1574" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1685" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1686" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="398" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12057,6 +12360,12 @@
     <cfRule type="cellIs" priority="1576" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1687" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1688" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="148" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12167,6 +12476,12 @@
     <cfRule type="cellIs" priority="1582" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1693" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1694" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="406" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12247,6 +12562,12 @@
     <cfRule type="cellIs" priority="1584" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1695" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1696" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="140" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12351,6 +12672,12 @@
     <cfRule type="cellIs" priority="1590" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1701" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1702" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="142" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12455,6 +12782,12 @@
     <cfRule type="cellIs" priority="1592" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1703" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1704" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="412" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12535,6 +12868,12 @@
     <cfRule type="cellIs" priority="1598" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1709" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1710" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="cellIs" priority="414" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12615,6 +12954,12 @@
     <cfRule type="cellIs" priority="1600" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1711" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1712" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="420" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12695,6 +13040,12 @@
     <cfRule type="cellIs" priority="1606" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1717" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1718" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="cellIs" priority="422" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12775,6 +13126,12 @@
     <cfRule type="cellIs" priority="1608" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1719" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1720" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" priority="428" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12855,6 +13212,12 @@
     <cfRule type="cellIs" priority="1614" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1725" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1726" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
     <cfRule type="cellIs" priority="873" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12935,6 +13298,12 @@
     <cfRule type="cellIs" priority="1616" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1727" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1728" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:AC4">
     <cfRule type="cellIs" priority="8" operator="greaterThan" dxfId="1">
@@ -13023,6 +13392,12 @@
     <cfRule type="cellIs" priority="1622" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1733" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1734" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="874" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13103,6 +13478,12 @@
     <cfRule type="cellIs" priority="1624" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1735" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1736" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="444" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13183,6 +13564,12 @@
     <cfRule type="cellIs" priority="1630" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1741" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1742" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="875" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13263,6 +13650,12 @@
     <cfRule type="cellIs" priority="1632" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1743" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1744" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="764" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13343,6 +13736,12 @@
     <cfRule type="cellIs" priority="1642" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1753" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1754" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="458" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13423,6 +13822,12 @@
     <cfRule type="cellIs" priority="1644" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1755" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1756" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="876" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13503,6 +13908,12 @@
     <cfRule type="cellIs" priority="1650" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1761" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1762" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="466" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13583,6 +13994,12 @@
     <cfRule type="cellIs" priority="1652" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1763" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1764" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AG6">
     <cfRule type="cellIs" priority="6" operator="greaterThan" dxfId="1">
@@ -13687,6 +14104,12 @@
     <cfRule type="cellIs" priority="1634" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1745" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1746" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
     <cfRule type="cellIs" priority="450" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13767,6 +14190,12 @@
     <cfRule type="cellIs" priority="1636" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1747" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1748" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
     <cfRule type="cellIs" priority="460" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13847,6 +14276,12 @@
     <cfRule type="cellIs" priority="1646" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1757" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1758" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" priority="878" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13927,6 +14362,12 @@
     <cfRule type="cellIs" priority="1648" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1759" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1760" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14049,6 +14490,12 @@
     <cfRule type="cellIs" priority="1546" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1657" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1658" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" priority="39" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14171,6 +14618,12 @@
     <cfRule type="cellIs" priority="1548" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1659" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1660" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14293,6 +14746,12 @@
     <cfRule type="cellIs" priority="1554" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1665" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1666" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14415,6 +14874,12 @@
     <cfRule type="cellIs" priority="1556" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1667" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1668" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" priority="879" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14495,6 +14960,12 @@
     <cfRule type="cellIs" priority="1618" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1729" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1730" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
     <cfRule type="cellIs" priority="880" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14575,6 +15046,12 @@
     <cfRule type="cellIs" priority="1620" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1731" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1732" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
     <cfRule type="cellIs" priority="881" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14655,6 +15132,12 @@
     <cfRule type="cellIs" priority="1626" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1737" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1738" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
     <cfRule type="cellIs" priority="442" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14735,6 +15218,12 @@
     <cfRule type="cellIs" priority="1628" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1739" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1740" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
     <cfRule type="cellIs" priority="452" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14815,6 +15304,12 @@
     <cfRule type="cellIs" priority="1638" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1749" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1750" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18">
     <cfRule type="cellIs" priority="882" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14895,6 +15390,12 @@
     <cfRule type="cellIs" priority="1640" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1751" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1752" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" priority="883" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14975,6 +15476,12 @@
     <cfRule type="cellIs" priority="1562" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1673" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1674" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
     <cfRule type="cellIs" priority="586" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15055,6 +15562,12 @@
     <cfRule type="cellIs" priority="1564" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1675" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1676" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" priority="392" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15135,6 +15648,12 @@
     <cfRule type="cellIs" priority="1570" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1681" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1682" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
     <cfRule type="cellIs" priority="394" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15215,6 +15734,12 @@
     <cfRule type="cellIs" priority="1572" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1683" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1684" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
     <cfRule type="cellIs" priority="884" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15289,6 +15814,12 @@
     <cfRule type="cellIs" priority="1586" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1697" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1698" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
     <cfRule type="cellIs" priority="885" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15363,6 +15894,12 @@
     <cfRule type="cellIs" priority="1588" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1699" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1700" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
     <cfRule type="cellIs" priority="408" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15443,6 +15980,12 @@
     <cfRule type="cellIs" priority="1594" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1705" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1706" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" priority="410" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15523,6 +16066,12 @@
     <cfRule type="cellIs" priority="1596" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1707" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1708" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
     <cfRule type="cellIs" priority="416" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15603,6 +16152,12 @@
     <cfRule type="cellIs" priority="1602" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1713" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1714" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
     <cfRule type="cellIs" priority="418" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15683,6 +16238,12 @@
     <cfRule type="cellIs" priority="1604" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1715" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1716" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
     <cfRule type="cellIs" priority="424" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15763,6 +16324,12 @@
     <cfRule type="cellIs" priority="1610" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1721" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1722" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
     <cfRule type="cellIs" priority="886" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15843,6 +16410,12 @@
     <cfRule type="cellIs" priority="1612" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1723" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1724" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
     <cfRule type="cellIs" priority="400" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15923,6 +16496,12 @@
     <cfRule type="cellIs" priority="1578" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1689" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1690" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
     <cfRule type="cellIs" priority="402" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16001,6 +16580,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="1580" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1691" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1692" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16388,6 +16973,11 @@
           <t>20191224</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>前期科技涨太多，又到年底，已经赚钱的有兑现需求，所以股票马上会跌。</t>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1755,7 +1755,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>1.9116, 1.8359, 1.7601, 1.7703, 1.7399, 1.712, 1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436</t>
+          <t>1.7703, 1.7399, 1.712, 1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204</t>
         </is>
       </c>
       <c r="E2" s="20" t="inlineStr">
@@ -1772,23 +1772,23 @@
         <v>115</v>
       </c>
       <c r="I2" s="78" t="n">
-        <v>2.1436</v>
+        <v>2.2204</v>
       </c>
       <c r="J2" s="79" t="n">
-        <v>-1.407414221322773</v>
+        <v>-0.2336448598130783</v>
       </c>
       <c r="K2" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" s="80" t="n">
-        <v>-4.020775499238823</v>
+        <v>-0.2336448598130783</v>
       </c>
       <c r="M2" s="80" t="n">
-        <v>2.1436</v>
+        <v>2.2204</v>
       </c>
       <c r="N2" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O2" s="26">
@@ -1905,30 +1905,30 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>1.124, 1.081, 1.027, 1.04, 1.016, 0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226</t>
+          <t>1.04, 1.016, 0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>115</v>
       </c>
       <c r="I3" s="78" t="n">
-        <v>1.226</v>
+        <v>1.288</v>
       </c>
       <c r="J3" s="79" t="n">
-        <v>-3.006329113924053</v>
+        <v>-1.754385964912274</v>
       </c>
       <c r="K3" s="80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="80" t="n">
-        <v>-5.646527385657813</v>
+        <v>-1.309794988610473</v>
       </c>
       <c r="M3" s="80" t="n">
-        <v>1.671</v>
+        <v>1.733</v>
       </c>
       <c r="N3" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O3" s="26">
@@ -2047,30 +2047,30 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>3.636, 3.5085, 3.3603, 3.4432, 3.3668, 3.3075, 3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861</t>
+          <t>3.4432, 3.3668, 3.3075, 3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="78" t="n">
-        <v>3.9861</v>
+        <v>4.1732</v>
       </c>
       <c r="J4" s="79" t="n">
-        <v>-3.638253638253629</v>
+        <v>-0.4437234600887488</v>
       </c>
       <c r="K4" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" s="80" t="n">
-        <v>-7.21800661049299</v>
+        <v>-0.4437234600887488</v>
       </c>
       <c r="M4" s="80" t="n">
-        <v>3.9861</v>
+        <v>4.1732</v>
       </c>
       <c r="N4" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O4" s="26">
@@ -2191,30 +2191,30 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>1.3554, 1.3087, 1.2603, 1.2707, 1.2503, 1.2281, 1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335</t>
+          <t>1.2707, 1.2503, 1.2281, 1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="78" t="n">
-        <v>1.5335</v>
+        <v>1.5907</v>
       </c>
       <c r="J5" s="79" t="n">
-        <v>-1.559892155604056</v>
+        <v>-0.3070945099022251</v>
       </c>
       <c r="K5" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" s="80" t="n">
-        <v>-4.240039965030589</v>
+        <v>-0.3070945099022251</v>
       </c>
       <c r="M5" s="80" t="n">
-        <v>1.5335</v>
+        <v>1.5907</v>
       </c>
       <c r="N5" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O5" s="26">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>2.029, 1.956, 1.836, 1.871, 1.852, 1.859, 1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116</t>
+          <t>1.871, 1.852, 1.859, 1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2345,23 +2345,23 @@
         <v>115</v>
       </c>
       <c r="I6" s="78" t="n">
-        <v>2.116</v>
+        <v>2.203</v>
       </c>
       <c r="J6" s="79" t="n">
-        <v>-3.64298724954463</v>
+        <v>0.2274795268425793</v>
       </c>
       <c r="K6" s="80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="80" t="n">
-        <v>-5.049551675318556</v>
+        <v>4.125248508946331</v>
       </c>
       <c r="M6" s="80" t="n">
-        <v>2.012</v>
+        <v>2.095</v>
       </c>
       <c r="N6" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O6" s="26">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>1.0928, 1.0844, 1.0608, 1.0677, 1.0653, 1.0732, 1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857</t>
+          <t>1.0677, 1.0653, 1.0732, 1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908</t>
         </is>
       </c>
       <c r="E7" s="22" t="inlineStr">
@@ -2502,23 +2502,23 @@
         <v>5</v>
       </c>
       <c r="I7" s="78" t="n">
-        <v>1.0857</v>
+        <v>1.0908</v>
       </c>
       <c r="J7" s="79" t="n">
-        <v>-0.9849521203830296</v>
+        <v>0.1560921862087994</v>
       </c>
       <c r="K7" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" s="80" t="n">
-        <v>-3.734177215189872</v>
+        <v>0.1747869783701164</v>
       </c>
       <c r="M7" s="80" t="n">
-        <v>0.4563</v>
+        <v>0.4585</v>
       </c>
       <c r="N7" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O7" s="26">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>1.5331, 1.5363, 1.5197, 1.5245, 1.5228, 1.5282, 1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659</t>
+          <t>1.5245, 1.5228, 1.5282, 1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2651,23 +2651,23 @@
         <v>5</v>
       </c>
       <c r="I8" s="78" t="n">
-        <v>1.5659</v>
+        <v>1.5777</v>
       </c>
       <c r="J8" s="79" t="n">
-        <v>-0.2102982411419742</v>
+        <v>0.5096515257692557</v>
       </c>
       <c r="K8" s="80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="80" t="n">
-        <v>-3.142203253541161</v>
+        <v>0.7535602528897141</v>
       </c>
       <c r="M8" s="80" t="n">
-        <v>1.5659</v>
+        <v>1.5777</v>
       </c>
       <c r="N8" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O8" s="26">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1.291, 1.236, 1.202, 1.234, 1.185, 1.164, 1.174, 1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234</t>
+          <t>1.234, 1.185, 1.164, 1.174, 1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2800,23 +2800,23 @@
         <v>4</v>
       </c>
       <c r="I9" s="78" t="n">
-        <v>1.234</v>
+        <v>1.272</v>
       </c>
       <c r="J9" s="79" t="n">
-        <v>-2.987421383647801</v>
+        <v>-0.2352941176470504</v>
       </c>
       <c r="K9" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="80" t="n">
-        <v>-7.008289374529012</v>
+        <v>-0.2352941176470504</v>
       </c>
       <c r="M9" s="80" t="n">
-        <v>1.234</v>
+        <v>1.272</v>
       </c>
       <c r="N9" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O9" s="26">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.4595, 1.4412, 1.3958, 1.4213, 1.3796, 1.366, 1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454</t>
+          <t>1.4213, 1.3796, 1.366, 1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2954,23 +2954,23 @@
         <v>3</v>
       </c>
       <c r="I10" s="78" t="n">
-        <v>1.5454</v>
+        <v>1.5974</v>
       </c>
       <c r="J10" s="79" t="n">
-        <v>-1.02472140386831</v>
+        <v>0.1253604111821488</v>
       </c>
       <c r="K10" s="80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="80" t="n">
-        <v>-2.078317070079834</v>
+        <v>3.364824640869666</v>
       </c>
       <c r="M10" s="80" t="n">
-        <v>1.5454</v>
+        <v>1.5974</v>
       </c>
       <c r="N10" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O10" s="26">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>1.0599, 1.0367, 1.01, 1.0213, 1.0021, 0.9908, 0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756</t>
+          <t>1.0213, 1.0021, 0.9908, 0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -3103,23 +3103,23 @@
         <v>3</v>
       </c>
       <c r="I11" s="78" t="n">
-        <v>1.0756</v>
+        <v>1.1043</v>
       </c>
       <c r="J11" s="79" t="n">
-        <v>-1.906064751482001</v>
+        <v>0.4182958988815277</v>
       </c>
       <c r="K11" s="80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" s="80" t="n">
-        <v>-4.543840965566217</v>
+        <v>2.668278170323556</v>
       </c>
       <c r="M11" s="80" t="n">
-        <v>1.0756</v>
+        <v>1.1043</v>
       </c>
       <c r="N11" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O11" s="26">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1.3156, 1.2673, 1.2178, 1.239, 1.2084, 1.1984, 1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46</t>
+          <t>1.2178, 1.239, 1.2084, 1.1984, 1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3252,23 +3252,23 @@
         <v>3</v>
       </c>
       <c r="I12" s="78" t="n">
-        <v>1.46</v>
+        <v>1.5075</v>
       </c>
       <c r="J12" s="79" t="n">
-        <v>-1.967367219499101</v>
+        <v>1.256045137023117</v>
       </c>
       <c r="K12" s="80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="80" t="n">
-        <v>-4.237176964449691</v>
+        <v>3.253424657534253</v>
       </c>
       <c r="M12" s="80" t="n">
-        <v>1.46</v>
+        <v>1.5075</v>
       </c>
       <c r="N12" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O12" s="26">
@@ -3389,30 +3389,30 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>2.265, 2.249, 2.23, 2.245, 2.241, 2.243, 2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235</t>
+          <t>2.23, 2.245, 2.241, 2.243, 2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="78" t="n">
-        <v>2.235</v>
+        <v>2.232</v>
       </c>
       <c r="J13" s="79" t="n">
-        <v>-0.7548845470692676</v>
+        <v>-0.2680965147452987</v>
       </c>
       <c r="K13" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="80" t="n">
-        <v>-3.495934959349588</v>
+        <v>-0.2524190155658302</v>
       </c>
       <c r="M13" s="80" t="n">
-        <v>2.374</v>
+        <v>2.371</v>
       </c>
       <c r="N13" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O13" s="26">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>5.3121, 5.2922, 5.2694, 5.2647, 5.2293, 5.283, 5.2513, 5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142</t>
+          <t>5.2647, 5.2293, 5.283, 5.2513, 5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -3543,23 +3543,23 @@
         <v>114</v>
       </c>
       <c r="I14" s="78" t="n">
-        <v>4.8142</v>
+        <v>4.8552</v>
       </c>
       <c r="J14" s="79" t="n">
-        <v>-0.4528442339902085</v>
+        <v>1.162645330666325</v>
       </c>
       <c r="K14" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" s="80" t="n">
-        <v>-1.350673607388065</v>
+        <v>0.9807712588322078</v>
       </c>
       <c r="M14" s="80" t="n">
-        <v>5.7042</v>
+        <v>5.7452</v>
       </c>
       <c r="N14" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O14" s="26">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1.029, 1.0237, 1.0117, 1.0083, 0.9895, 1.0041, 0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635</t>
+          <t>1.0117, 1.0083, 0.9895, 1.0041, 0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566</t>
         </is>
       </c>
       <c r="E15" s="24" t="inlineStr">
@@ -3695,23 +3695,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="78" t="n">
-        <v>0.9635</v>
+        <v>0.9566</v>
       </c>
       <c r="J15" s="79" t="n">
-        <v>-0.6496184780367058</v>
+        <v>-1.136833402232329</v>
       </c>
       <c r="K15" s="80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" s="80" t="n">
-        <v>-0.8164040250616995</v>
+        <v>-0.5253856808520858</v>
       </c>
       <c r="M15" s="80" t="n">
-        <v>2.0896</v>
+        <v>2.0827</v>
       </c>
       <c r="N15" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O15" s="26">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>1.631, 1.635, 1.621, 1.626, 1.636, 1.651, 1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706</t>
+          <t>1.626, 1.636, 1.651, 1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715</t>
         </is>
       </c>
       <c r="E16" s="20" t="inlineStr">
@@ -3849,23 +3849,23 @@
         <v>115</v>
       </c>
       <c r="I16" s="78" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="J16" s="79" t="n">
-        <v>-0.3504672897196265</v>
+        <v>0.3510825043885316</v>
       </c>
       <c r="K16" s="80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16" s="80" t="n">
-        <v>-3.573362208987551</v>
+        <v>0.3363228699551573</v>
       </c>
       <c r="M16" s="80" t="n">
-        <v>1.781</v>
+        <v>1.79</v>
       </c>
       <c r="N16" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O16" s="26">
@@ -3986,7 +3986,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1.608, 1.6084, 1.5958, 1.6026, 1.6119, 1.6255, 1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652</t>
+          <t>1.6026, 1.6119, 1.6255, 1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -4003,23 +4003,23 @@
         <v>5</v>
       </c>
       <c r="I17" s="78" t="n">
-        <v>1.6652</v>
+        <v>1.6803</v>
       </c>
       <c r="J17" s="79" t="n">
-        <v>-0.3470975463794151</v>
+        <v>0.4123341699533827</v>
       </c>
       <c r="K17" s="80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" s="80" t="n">
-        <v>-3.817940276093112</v>
+        <v>0.9067979822243509</v>
       </c>
       <c r="M17" s="80" t="n">
-        <v>1.6652</v>
+        <v>1.6803</v>
       </c>
       <c r="N17" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O17" s="26">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1.5188, 1.5079, 1.4768, 1.4901, 1.4873, 1.4836, 1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493</t>
+          <t>1.4768, 1.4901, 1.4873, 1.4836, 1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582</t>
         </is>
       </c>
       <c r="E18" s="20" t="inlineStr">
@@ -4157,23 +4157,23 @@
         <v>5</v>
       </c>
       <c r="I18" s="78" t="n">
-        <v>1.5493</v>
+        <v>1.5582</v>
       </c>
       <c r="J18" s="79" t="n">
-        <v>-0.8765195137556012</v>
+        <v>0.3219160442956552</v>
       </c>
       <c r="K18" s="80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L18" s="80" t="n">
-        <v>-4.263733547549908</v>
+        <v>0.5744529787646119</v>
       </c>
       <c r="M18" s="80" t="n">
-        <v>1.5493</v>
+        <v>1.5582</v>
       </c>
       <c r="N18" s="81" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O18" s="26">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.0585, 1.0638, 1.0775, 1.0783, 1.0695, 1.0828, 1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164</t>
+          <t>1.0775, 1.0783, 1.0695, 1.0828, 1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -4304,23 +4304,23 @@
         <v>2</v>
       </c>
       <c r="I19" s="80" t="n">
-        <v>1.1164</v>
+        <v>1.1181</v>
       </c>
       <c r="J19" s="82" t="n">
-        <v>-1.002039549525571</v>
+        <v>-0.4185963662272824</v>
       </c>
       <c r="K19" s="80" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="80" t="n">
-        <v>-0.916538243166525</v>
+        <v>-0.3827361563517856</v>
       </c>
       <c r="M19" s="80" t="n">
-        <v>1.2216</v>
+        <v>1.2233</v>
       </c>
       <c r="N19" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O19" s="26">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>1.8, 1.77, 1.713, 1.751, 1.697, 1.677, 1.677, 1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918</t>
+          <t>1.713, 1.751, 1.697, 1.677, 1.677, 1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -4453,23 +4453,23 @@
         <v>3</v>
       </c>
       <c r="I20" s="80" t="n">
-        <v>1.918</v>
+        <v>1.984</v>
       </c>
       <c r="J20" s="82" t="n">
-        <v>-1.184956208140141</v>
+        <v>0.5065856129685922</v>
       </c>
       <c r="K20" s="80" t="n">
         <v>2</v>
       </c>
       <c r="L20" s="80" t="n">
-        <v>-2.292409577177797</v>
+        <v>3.441084462982277</v>
       </c>
       <c r="M20" s="80" t="n">
-        <v>1.918</v>
+        <v>1.984</v>
       </c>
       <c r="N20" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O20" s="26">
@@ -4590,30 +4590,30 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>0.9702, 0.9634, 0.9515, 0.9578, 0.9372, 0.9313, 0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687</t>
+          <t>0.9578, 0.9372, 0.9313, 0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I21" s="80" t="n">
-        <v>0.9687</v>
+        <v>1.004</v>
       </c>
       <c r="J21" s="82" t="n">
-        <v>-2.378313010178369</v>
+        <v>2.49081257656186</v>
       </c>
       <c r="K21" s="80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="80" t="n">
-        <v>-2.378313010178369</v>
+        <v>3.64405904820894</v>
       </c>
       <c r="M21" s="80" t="n">
-        <v>0.9687</v>
+        <v>1.004</v>
       </c>
       <c r="N21" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O21" s="26">
@@ -4739,30 +4739,30 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>2.472, 2.439, 2.467, 2.458, 2.43, 2.451, 2.407, 2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699</t>
+          <t>2.467, 2.458, 2.43, 2.451, 2.407, 2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>113</v>
       </c>
       <c r="I22" s="80" t="n">
-        <v>2.699</v>
+        <v>2.709</v>
       </c>
       <c r="J22" s="82" t="n">
-        <v>0.4092261904761784</v>
+        <v>0</v>
       </c>
       <c r="K22" s="80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L22" s="80" t="n">
-        <v>3.054600992745308</v>
+        <v>0</v>
       </c>
       <c r="M22" s="80" t="n">
-        <v>2.699</v>
+        <v>2.709</v>
       </c>
       <c r="N22" s="80" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="O22" s="26">
@@ -4881,30 +4881,30 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>1.0351, 1.0285, 1.017, 1.0238, 1.0027, 0.9963, 0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416</t>
+          <t>1.0238, 1.0027, 0.9963, 0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I23" s="80" t="n">
-        <v>1.0416</v>
+        <v>1.0779</v>
       </c>
       <c r="J23" s="82" t="n">
-        <v>-2.380506091846286</v>
+        <v>2.491204716173814</v>
       </c>
       <c r="K23" s="80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="80" t="n">
-        <v>-2.380506091846286</v>
+        <v>3.485023041474654</v>
       </c>
       <c r="M23" s="80" t="n">
-        <v>1.0416</v>
+        <v>1.0779</v>
       </c>
       <c r="N23" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O23" s="26">
@@ -5025,30 +5025,30 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>1.543, 1.499, 1.447, 1.479, 1.442, 1.414, 1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59</t>
+          <t>1.479, 1.442, 1.414, 1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609</t>
         </is>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="84" t="n">
-        <v>1.59</v>
+        <v>1.609</v>
       </c>
       <c r="J24" s="82" t="n">
-        <v>-1.730531520395551</v>
+        <v>0.3117206982543574</v>
       </c>
       <c r="K24" s="84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24" s="84" t="n">
-        <v>-3.755868544600943</v>
+        <v>0.2422480620154987</v>
       </c>
       <c r="M24" s="84" t="n">
-        <v>2.05</v>
+        <v>2.069</v>
       </c>
       <c r="N24" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -5169,30 +5169,30 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1.6304, 1.571, 1.504, 1.5106, 1.4874, 1.4632, 1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062</t>
+          <t>1.5106, 1.4874, 1.4632, 1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="84" t="n">
-        <v>1.8062</v>
+        <v>1.8817</v>
       </c>
       <c r="J25" s="82" t="n">
-        <v>-1.916915557969041</v>
+        <v>-0.5338830743207525</v>
       </c>
       <c r="K25" s="84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="84" t="n">
-        <v>-4.90573791544666</v>
+        <v>-0.5214787277984303</v>
       </c>
       <c r="M25" s="84" t="n">
-        <v>1.8512</v>
+        <v>1.9267</v>
       </c>
       <c r="N25" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -5313,30 +5313,30 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>2.08, 2.009, 1.927, 1.963, 1.926, 1.896, 1.913, 1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249</t>
+          <t>1.963, 1.926, 1.896, 1.913, 1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="84" t="n">
-        <v>2.249</v>
+        <v>2.35</v>
       </c>
       <c r="J26" s="82" t="n">
-        <v>-3.018542475204823</v>
+        <v>0.04257130693911833</v>
       </c>
       <c r="K26" s="84" t="n">
         <v>3</v>
       </c>
       <c r="L26" s="84" t="n">
-        <v>-5.480572597137011</v>
+        <v>4.370402423193422</v>
       </c>
       <c r="M26" s="84" t="n">
-        <v>2.311</v>
+        <v>2.412</v>
       </c>
       <c r="N26" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O26" s="0">
@@ -5457,30 +5457,30 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1.1089, 1.0995, 1.0845, 1.0885, 1.0789, 1.0745, 1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609</t>
+          <t>1.0885, 1.0789, 1.0745, 1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="84" t="n">
-        <v>1.1609</v>
+        <v>1.1846</v>
       </c>
       <c r="J27" s="82" t="n">
-        <v>-0.7013942348815315</v>
+        <v>0.4153598372467684</v>
       </c>
       <c r="K27" s="84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27" s="84" t="n">
-        <v>-1.942731649632563</v>
+        <v>2.041519510724442</v>
       </c>
       <c r="M27" s="84" t="n">
-        <v>1.1609</v>
+        <v>1.1846</v>
       </c>
       <c r="N27" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -5599,30 +5599,30 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>1.1034, 1.0882, 1.0623, 1.0758, 1.0292, 1.0152, 1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805</t>
+          <t>1.0623, 1.0758, 1.0292, 1.0152, 1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="84" t="n">
-        <v>1.0805</v>
+        <v>1.1029</v>
       </c>
       <c r="J28" s="82" t="n">
-        <v>-4.507291206363229</v>
+        <v>0.2089769216790813</v>
       </c>
       <c r="K28" s="84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="84" t="n">
-        <v>-0.7507507507507514</v>
+        <v>0.3025718608169317</v>
       </c>
       <c r="M28" s="84" t="n">
-        <v>0.1322</v>
+        <v>0.1326</v>
       </c>
       <c r="N28" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -5743,30 +5743,30 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>1.004, 0.999, 0.978, 0.984, 0.977, 0.967, 0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12</t>
+          <t>0.978, 0.984, 0.977, 0.967, 0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="84" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="J29" s="82" t="n">
-        <v>-0.1782531194295902</v>
+        <v>1.276595744680843</v>
       </c>
       <c r="K29" s="84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="84" t="n">
-        <v>-0.1285347043701801</v>
+        <v>5.405405405405396</v>
       </c>
       <c r="M29" s="84" t="n">
-        <v>0.777</v>
+        <v>0.819</v>
       </c>
       <c r="N29" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -5875,30 +5875,30 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>1.7673, 1.7644, 1.7642, 1.7661, 1.7506, 1.7709, 1.7667, 1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942</t>
+          <t>1.7661, 1.7506, 1.7709, 1.7667, 1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778</t>
         </is>
       </c>
       <c r="H30" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I30" s="84" t="n">
-        <v>1.7942</v>
+        <v>1.778</v>
       </c>
       <c r="J30" s="82" t="n">
-        <v>-0.6808746194298354</v>
+        <v>0.7879371917691754</v>
       </c>
       <c r="K30" s="84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30" s="84" t="n">
-        <v>-0.7422255932387065</v>
+        <v>0.3793564586119381</v>
       </c>
       <c r="M30" s="84" t="n">
-        <v>3.6642</v>
+        <v>3.678</v>
       </c>
       <c r="N30" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O30" s="0">
@@ -6017,30 +6017,30 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>2.4998, 2.4655, 2.4945, 2.4842, 2.4561, 2.4773, 2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398</t>
+          <t>2.4842, 2.4561, 2.4773, 2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="84" t="n">
-        <v>2.7398</v>
+        <v>2.7478</v>
       </c>
       <c r="J31" s="82" t="n">
-        <v>0.4104669061056825</v>
+        <v>-0.06909844710332083</v>
       </c>
       <c r="K31" s="84" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L31" s="84" t="n">
-        <v>2.807760623035928</v>
+        <v>-0.06292015763155323</v>
       </c>
       <c r="M31" s="84" t="n">
-        <v>3.0098</v>
+        <v>3.0178</v>
       </c>
       <c r="N31" s="84" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -6149,30 +6149,30 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>0.86, 0.824, 0.792, 0.819, 0.799, 0.773, 0.785, 0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951</t>
+          <t>0.819, 0.799, 0.773, 0.785, 0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I32" s="84" t="n">
-        <v>0.951</v>
+        <v>0.988</v>
       </c>
       <c r="J32" s="82" t="n">
-        <v>-4.036326942482344</v>
+        <v>-0.8032128514056233</v>
       </c>
       <c r="K32" s="84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="84" t="n">
-        <v>-2.389767754964664</v>
+        <v>-0.2716468590831921</v>
       </c>
       <c r="M32" s="84" t="n">
-        <v>2.9</v>
+        <v>2.937</v>
       </c>
       <c r="N32" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O32" s="0">
@@ -6293,30 +6293,30 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>1.7954, 1.7379, 1.6819, 1.6919, 1.6733, 1.6515, 1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883</t>
+          <t>1.6919, 1.6733, 1.6515, 1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="84" t="n">
-        <v>1.9883</v>
+        <v>2.0682</v>
       </c>
       <c r="J33" s="82" t="n">
-        <v>-2.102412604628271</v>
+        <v>-0.7914807886026852</v>
       </c>
       <c r="K33" s="84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L33" s="84" t="n">
-        <v>-2.63756048160235</v>
+        <v>-0.3730752707621982</v>
       </c>
       <c r="M33" s="84" t="n">
-        <v>4.3263</v>
+        <v>4.4062</v>
       </c>
       <c r="N33" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -6425,30 +6425,30 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>1.34, 1.2804, 1.2351, 1.2418, 1.2175, 1.1975, 1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849</t>
+          <t>1.2351, 1.2418, 1.2175, 1.1975, 1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="80" t="n">
-        <v>1.3849</v>
+        <v>1.4876</v>
       </c>
       <c r="J34" s="86" t="n">
-        <v>-3.174159267286575</v>
+        <v>4.561748787516691</v>
       </c>
       <c r="K34" s="80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" s="80" t="n">
-        <v>-6.203860480866909</v>
+        <v>7.415697884323778</v>
       </c>
       <c r="M34" s="84" t="n">
-        <v>1.3849</v>
+        <v>1.4876</v>
       </c>
       <c r="N34" s="80" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O34" s="0">
@@ -6557,30 +6557,30 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>0.82, 0.81, 0.787, 0.798, 0.789, 0.784, 0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842</t>
+          <t>0.798, 0.789, 0.784, 0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="84" t="n">
-        <v>0.842</v>
+        <v>0.868</v>
       </c>
       <c r="J35" s="82" t="n">
-        <v>-1.864801864801866</v>
+        <v>0.4629629629629634</v>
       </c>
       <c r="K35" s="84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="84" t="n">
-        <v>-1.407129455909955</v>
+        <v>1.236917221693637</v>
       </c>
       <c r="M35" s="84" t="n">
-        <v>2.102</v>
+        <v>2.128</v>
       </c>
       <c r="N35" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -6689,30 +6689,30 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>1.6474, 1.6312, 1.6503, 1.651, 1.6308, 1.6464, 1.6119, 1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303</t>
+          <t>1.651, 1.6308, 1.6464, 1.6119, 1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837</t>
         </is>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="84" t="n">
-        <v>1.8303</v>
+        <v>1.837</v>
       </c>
       <c r="J36" s="82" t="n">
-        <v>0.5383136500961292</v>
+        <v>-0.07071751074362612</v>
       </c>
       <c r="K36" s="84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" s="84" t="n">
-        <v>1.278220451527231</v>
+        <v>-0.07071751074362612</v>
       </c>
       <c r="M36" s="84" t="n">
-        <v>1.8303</v>
+        <v>1.837</v>
       </c>
       <c r="N36" s="84" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O36" s="0">
@@ -6821,30 +6821,30 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1.13, 1.095, 1.058, 1.078, 1.053, 1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201</t>
+          <t>1.058, 1.078, 1.053, 1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246</t>
         </is>
       </c>
       <c r="H37" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I37" s="84" t="n">
-        <v>1.201</v>
+        <v>1.246</v>
       </c>
       <c r="J37" s="82" t="n">
-        <v>-1.879084967320254</v>
+        <v>1.714285714285707</v>
       </c>
       <c r="K37" s="84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L37" s="84" t="n">
-        <v>-3.68885324779471</v>
+        <v>3.746877601998329</v>
       </c>
       <c r="M37" s="84" t="n">
-        <v>1.201</v>
+        <v>1.246</v>
       </c>
       <c r="N37" s="84" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -7128,6 +7128,42 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId106"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId107"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7546,23 +7582,23 @@
         </is>
       </c>
       <c r="F2" s="12" t="n">
-        <v>2965.586</v>
+        <v>3007.3546</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>0.09567795987465719</v>
+        <v>0.8542964749928746</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>-1.309564631225634</v>
+        <v>0.8542964749928746</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>2.184842731</v>
+        <v>1.955860791</v>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:56</t>
+          <t>20191226 14:15:44</t>
         </is>
       </c>
       <c r="L2" s="50">
@@ -7672,23 +7708,23 @@
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>2988.9116</v>
+        <v>3011.6361</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>0.1564551085759539</v>
+        <v>0.8584216040462966</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>-0.7871571964615499</v>
+        <v>0.8584216040462966</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.461449136</v>
+        <v>0.381274696</v>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:56</t>
+          <t>20191226 14:15:44</t>
         </is>
       </c>
       <c r="L3" s="50">
@@ -7798,23 +7834,23 @@
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>3973.8881</v>
+        <v>4025.9879</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.1712058306022468</v>
+        <v>0.8800293049097061</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>-1.079459103979192</v>
+        <v>0.8800293049097061</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>1.620482615</v>
+        <v>1.408149682</v>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:56</t>
+          <t>20191226 14:15:44</t>
         </is>
       </c>
       <c r="L4" s="50">
@@ -7924,23 +7960,23 @@
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>4295.55</v>
+        <v>4362.727</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>-1.248432419011654</v>
+        <v>1.135885248212215</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>-1.69452814151612</v>
+        <v>1.135885248212215</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.279599607</v>
+        <v>0.230674329</v>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20191223</t>
+          <t>20191226</t>
         </is>
       </c>
       <c r="L5" s="50">
@@ -8050,23 +8086,23 @@
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>5112.964</v>
+        <v>5219.1404</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>0.5627759140523532</v>
+        <v>0.6953716836488498</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>-1.383137751811333</v>
+        <v>2.651074114579643</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>0.9821494409999999</v>
+        <v>0.891692122</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:56</t>
+          <t>20191226 14:15:44</t>
         </is>
       </c>
       <c r="L6" s="50">
@@ -8176,23 +8212,23 @@
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>9469.529</v>
+        <v>9515.416999999999</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>-0.804726329463479</v>
+        <v>0.4392109740044183</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>-1.109663246512976</v>
+        <v>0.4392109740044183</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0.284962551</v>
+        <v>0.198298205</v>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>20191223</t>
+          <t>20191226</t>
         </is>
       </c>
       <c r="L7" s="50">
@@ -8302,23 +8338,23 @@
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>15560.1565</v>
+        <v>15472.7068</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>0.09062742072874663</v>
+        <v>0.03987964003943575</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>-0.8029860142924632</v>
+        <v>0.03987964003943575</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>0.161169448</v>
+        <v>0.106858509</v>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:56</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L8" s="50">
@@ -8434,23 +8470,23 @@
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>9685.6173</v>
+        <v>9794.4342</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>-0.01286897403400494</v>
+        <v>0.6626296102370584</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>-1.920819835816494</v>
+        <v>1.110476012778495</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>0.316025496</v>
+        <v>0.295546602</v>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L9" s="50">
@@ -8571,23 +8607,23 @@
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>10595.5269</v>
+        <v>10692.2968</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>-0.1038114445206754</v>
+        <v>0.9567434834382126</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>-1.070500275653647</v>
+        <v>0.9567434834382126</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.09747439699999999</v>
+        <v>0.109587838</v>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L10" s="50">
@@ -8708,23 +8744,23 @@
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>736.847</v>
+        <v>764.649</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>0.03719930000149353</v>
+        <v>2.616375428938752</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>-2.124238764963197</v>
+        <v>3.811692281458561</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>0.405766585</v>
+        <v>0.385863161</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L11" s="50">
@@ -8840,23 +8876,23 @@
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>1752.404</v>
+        <v>1793.635</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.9086595601580982</v>
+        <v>0.5178225673127311</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>-1.089486322932157</v>
+        <v>3.282863763255602</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>1.100969193</v>
+        <v>1.115746198</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L12" s="50">
@@ -8966,23 +9002,23 @@
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>6806.452</v>
+        <v>6825.871</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.591553146602527</v>
+        <v>0.7433690541692572</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>1.132321502756817</v>
+        <v>0.7433690541692572</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0.12222765</v>
+        <v>0.073032231</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:45</t>
         </is>
       </c>
       <c r="L13" s="50">
@@ -9103,23 +9139,23 @@
         </is>
       </c>
       <c r="F14" s="11" t="n">
-        <v>8963.686</v>
+        <v>9004.992</v>
       </c>
       <c r="G14" s="11" t="n">
-        <v>-1.116842970715594</v>
+        <v>0.1239069194854108</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11" t="n">
-        <v>-4.060068806453251</v>
+        <v>0.1239069194854108</v>
       </c>
       <c r="J14" s="11" t="n">
-        <v>0.068169647</v>
+        <v>0.060868658</v>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>20191223</t>
+          <t>20191226</t>
         </is>
       </c>
       <c r="L14" s="50">
@@ -9235,23 +9271,23 @@
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>5622.6523</v>
+        <v>5639.4617</v>
       </c>
       <c r="G15" s="12" t="n">
-        <v>-0.04626634785919063</v>
+        <v>0.4166746052081725</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>-0.7831889683282245</v>
+        <v>0.4166746052081725</v>
       </c>
       <c r="J15" s="12" t="n">
-        <v>0.263105061</v>
+        <v>0.179214094</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:46</t>
         </is>
       </c>
       <c r="L15" s="50">
@@ -9361,16 +9397,16 @@
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>27854.211</v>
+        <v>27864.21</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>-0.19</v>
+        <v>-0.15</v>
       </c>
       <c r="I16" s="11" t="n"/>
       <c r="J16" s="11" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:57</t>
+          <t>20191226 14:15:46</t>
         </is>
       </c>
       <c r="L16" s="50">
@@ -9480,16 +9516,16 @@
         </is>
       </c>
       <c r="F17" s="12" t="n">
-        <v>8696.0072</v>
+        <v>8699.51</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="I17" s="11" t="n"/>
       <c r="J17" s="11" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20191224 03:04:58</t>
+          <t>20191226 14:15:46</t>
         </is>
       </c>
       <c r="L17" s="50">
@@ -9957,79 +9993,79 @@
         <v>13000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1.0416</v>
+        <v>1.0779</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9687</v>
+        <v>1.004</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.1436</v>
+        <v>2.2204</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.116</v>
+        <v>2.203</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.226</v>
+        <v>1.288</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1.201</v>
+        <v>1.246</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0.951</v>
+        <v>0.988</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1.7942</v>
+        <v>1.778</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>4.8142</v>
+        <v>4.8552</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>1.706</v>
+        <v>1.715</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>2.699</v>
+        <v>2.709</v>
       </c>
       <c r="Z3" s="0" t="n">
         <v>19308</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>27854.211</v>
+        <v>27864.21</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>14000</v>
       </c>
       <c r="AC3" s="0" t="n">
-        <v>4295.55</v>
+        <v>4362.727</v>
       </c>
       <c r="AD3" s="0" t="inlineStr"/>
       <c r="AE3" s="0" t="inlineStr"/>
@@ -10041,88 +10077,88 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>2437.577016012505</v>
+        <v>4486.816178201788</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>2.729404998446394</v>
+        <v>5.02398013414452</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>1023.198011599007</v>
+        <v>1511.909693454848</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>7.870753935376975</v>
+        <v>11.63007456503729</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>940.4430591116555</v>
+        <v>1412.00044528554</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>7.83702549259713</v>
+        <v>11.7666703773795</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>-176.63471490932</v>
+        <v>-3.82521038657134</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>-3.532694298186401</v>
+        <v>-0.07650420773142678</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>-155.6776556776558</v>
+        <v>43.49816849816777</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>-3.113553113553116</v>
+        <v>0.8699633699633554</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>-218.4087363494542</v>
+        <v>23.40093603744151</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>-4.368174726989083</v>
+        <v>0.4680187207488303</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>-103.6977491961413</v>
+        <v>4.823151125401933</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>-3.456591639871377</v>
+        <v>0.1607717041800645</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>-208.4148727984346</v>
+        <v>-99.80430528375742</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>-6.947162426614488</v>
+        <v>-3.326810176125247</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>-23.57347433355374</v>
+        <v>-41.41881471689808</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>-1.178673716677687</v>
+        <v>-2.070940735844904</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>-22.10353327855412</v>
+        <v>-5.258833196384703</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>-1.105176663927706</v>
+        <v>-0.2629416598192351</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>-20.95459837019792</v>
+        <v>-5.238649592549287</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>-0.6984866123399307</v>
+        <v>-0.1746216530849762</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>102.2988505747126</v>
+        <v>113.7931034482761</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>3.409961685823753</v>
+        <v>3.79310344827587</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>941.5752090100691</v>
+        <v>948.8443254289434</v>
       </c>
       <c r="AA4" s="12" t="n">
-        <v>4.876606634607775</v>
+        <v>4.914254844773894</v>
       </c>
       <c r="AB4" s="12" t="n">
-        <v>359.5272206303731</v>
+        <v>584.0921680993309</v>
       </c>
       <c r="AC4" s="12" t="n">
-        <v>2.568051575931237</v>
+        <v>4.172086914995221</v>
       </c>
       <c r="AD4" s="0" t="inlineStr"/>
       <c r="AE4" s="0" t="inlineStr"/>
@@ -10533,16 +10569,16 @@
       <c r="X12" s="0" t="inlineStr"/>
       <c r="Y12" s="0" t="inlineStr"/>
       <c r="Z12" s="12" t="n">
-        <v>628.7084771185484</v>
+        <v>634.0668108391735</v>
       </c>
       <c r="AA12" s="12" t="n">
-        <v>4.397177766950262</v>
+        <v>4.434653873542968</v>
       </c>
       <c r="AB12" s="12" t="n">
-        <v>359.5272206303731</v>
+        <v>584.0921680993309</v>
       </c>
       <c r="AC12" s="12" t="n">
-        <v>2.568051575931237</v>
+        <v>4.172086914995221</v>
       </c>
       <c r="AD12" s="0" t="inlineStr"/>
       <c r="AE12" s="0" t="inlineStr"/>
@@ -10609,16 +10645,16 @@
       <c r="B14" s="0" t="inlineStr"/>
       <c r="C14" s="0" t="inlineStr"/>
       <c r="D14" s="12" t="n">
-        <v>1023.198011599007</v>
+        <v>1511.909693454848</v>
       </c>
       <c r="E14" s="12" t="n">
-        <v>7.870753935376975</v>
+        <v>11.63007456503729</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>940.4430591116555</v>
+        <v>1412.00044528554</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>7.83702549259713</v>
+        <v>11.7666703773795</v>
       </c>
       <c r="H14" s="0" t="inlineStr"/>
       <c r="I14" s="0" t="inlineStr"/>
@@ -10721,10 +10757,10 @@
       <c r="T16" s="0" t="inlineStr"/>
       <c r="U16" s="0" t="inlineStr"/>
       <c r="V16" s="11" t="n">
-        <v>-20.95459837019792</v>
+        <v>-5.238649592549287</v>
       </c>
       <c r="W16" s="11" t="n">
-        <v>-0.6984866123399307</v>
+        <v>-0.1746216530849762</v>
       </c>
       <c r="X16" s="0" t="inlineStr"/>
       <c r="Y16" s="0" t="inlineStr"/>
@@ -10817,16 +10853,16 @@
       <c r="V18" s="0" t="inlineStr"/>
       <c r="W18" s="0" t="inlineStr"/>
       <c r="X18" s="11" t="n">
-        <v>102.2988505747126</v>
+        <v>113.7931034482761</v>
       </c>
       <c r="Y18" s="11" t="n">
-        <v>3.409961685823753</v>
+        <v>3.79310344827587</v>
       </c>
       <c r="Z18" s="12" t="n">
-        <v>312.8667318915206</v>
+        <v>314.7775145897699</v>
       </c>
       <c r="AA18" s="12" t="n">
-        <v>6.244844947934544</v>
+        <v>6.282984323149099</v>
       </c>
       <c r="AB18" s="0" t="inlineStr"/>
       <c r="AC18" s="0" t="inlineStr"/>
@@ -10907,16 +10943,16 @@
       <c r="F20" s="0" t="inlineStr"/>
       <c r="G20" s="0" t="inlineStr"/>
       <c r="H20" s="12" t="n">
-        <v>-176.63471490932</v>
+        <v>-3.82521038657134</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>-3.532694298186401</v>
+        <v>-0.07650420773142678</v>
       </c>
       <c r="J20" s="12" t="n">
-        <v>-155.6776556776558</v>
+        <v>43.49816849816777</v>
       </c>
       <c r="K20" s="12" t="n">
-        <v>-3.113553113553116</v>
+        <v>0.8699633699633554</v>
       </c>
       <c r="L20" s="0" t="inlineStr"/>
       <c r="M20" s="0" t="inlineStr"/>
@@ -11029,28 +11065,28 @@
       <c r="L22" s="0" t="inlineStr"/>
       <c r="M22" s="0" t="inlineStr"/>
       <c r="N22" s="12" t="n">
-        <v>-103.6977491961413</v>
+        <v>4.823151125401933</v>
       </c>
       <c r="O22" s="12" t="n">
-        <v>-3.456591639871377</v>
+        <v>0.1607717041800645</v>
       </c>
       <c r="P22" s="12" t="n">
-        <v>-208.4148727984346</v>
+        <v>-99.80430528375742</v>
       </c>
       <c r="Q22" s="12" t="n">
-        <v>-6.947162426614488</v>
+        <v>-3.326810176125247</v>
       </c>
       <c r="R22" s="12" t="n">
-        <v>-23.57347433355374</v>
+        <v>-41.41881471689808</v>
       </c>
       <c r="S22" s="12" t="n">
-        <v>-1.178673716677687</v>
+        <v>-2.070940735844904</v>
       </c>
       <c r="T22" s="11" t="n">
-        <v>-22.10353327855412</v>
+        <v>-5.258833196384703</v>
       </c>
       <c r="U22" s="11" t="n">
-        <v>-1.105176663927706</v>
+        <v>-0.2629416598192351</v>
       </c>
       <c r="V22" s="0" t="inlineStr"/>
       <c r="W22" s="0" t="inlineStr"/>
@@ -11135,10 +11171,10 @@
       <c r="J24" s="0" t="inlineStr"/>
       <c r="K24" s="0" t="inlineStr"/>
       <c r="L24" s="12" t="n">
-        <v>-218.4087363494542</v>
+        <v>23.40093603744151</v>
       </c>
       <c r="M24" s="11" t="n">
-        <v>-4.368174726989083</v>
+        <v>0.4680187207488303</v>
       </c>
       <c r="N24" s="0" t="inlineStr"/>
       <c r="O24" s="0" t="inlineStr"/>
@@ -11334,6 +11370,12 @@
     <cfRule type="cellIs" priority="1766" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1877" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1878" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="154" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11468,6 +11510,12 @@
     <cfRule type="cellIs" priority="1768" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1879" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1880" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="104" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11584,6 +11632,12 @@
     <cfRule type="cellIs" priority="1662" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1773" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1774" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="106" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11700,6 +11754,12 @@
     <cfRule type="cellIs" priority="1664" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1775" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1776" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="112" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11816,6 +11876,12 @@
     <cfRule type="cellIs" priority="1670" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1781" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1782" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="114" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11932,6 +11998,12 @@
     <cfRule type="cellIs" priority="1672" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1783" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1784" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="120" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12048,6 +12120,12 @@
     <cfRule type="cellIs" priority="1678" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1789" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1790" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="122" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12164,6 +12242,12 @@
     <cfRule type="cellIs" priority="1680" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1791" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1792" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="128" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12280,6 +12364,12 @@
     <cfRule type="cellIs" priority="1686" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1797" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1798" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="398" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12366,6 +12456,12 @@
     <cfRule type="cellIs" priority="1688" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1799" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1800" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="148" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12482,6 +12578,12 @@
     <cfRule type="cellIs" priority="1694" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1805" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1806" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="406" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12568,6 +12670,12 @@
     <cfRule type="cellIs" priority="1696" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1807" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1808" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="140" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12678,6 +12786,12 @@
     <cfRule type="cellIs" priority="1702" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1813" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1814" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="142" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12788,6 +12902,12 @@
     <cfRule type="cellIs" priority="1704" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1815" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1816" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="412" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12874,6 +12994,12 @@
     <cfRule type="cellIs" priority="1710" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1821" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1822" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="cellIs" priority="414" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12960,6 +13086,12 @@
     <cfRule type="cellIs" priority="1712" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1823" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1824" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="420" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13046,6 +13178,12 @@
     <cfRule type="cellIs" priority="1718" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1829" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1830" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="cellIs" priority="422" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13132,6 +13270,12 @@
     <cfRule type="cellIs" priority="1720" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1831" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1832" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" priority="428" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13218,6 +13362,12 @@
     <cfRule type="cellIs" priority="1726" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1837" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1838" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
     <cfRule type="cellIs" priority="873" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13304,6 +13454,12 @@
     <cfRule type="cellIs" priority="1728" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1839" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1840" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:AC4">
     <cfRule type="cellIs" priority="8" operator="greaterThan" dxfId="1">
@@ -13398,6 +13554,12 @@
     <cfRule type="cellIs" priority="1734" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1845" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1846" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="874" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13484,6 +13646,12 @@
     <cfRule type="cellIs" priority="1736" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1847" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1848" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="444" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13570,6 +13738,12 @@
     <cfRule type="cellIs" priority="1742" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1853" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1854" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="875" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13656,6 +13830,12 @@
     <cfRule type="cellIs" priority="1744" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1855" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1856" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="764" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13742,6 +13922,12 @@
     <cfRule type="cellIs" priority="1754" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1865" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1866" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="458" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13828,6 +14014,12 @@
     <cfRule type="cellIs" priority="1756" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1867" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1868" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="876" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13914,6 +14106,12 @@
     <cfRule type="cellIs" priority="1762" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1873" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1874" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="466" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14000,6 +14198,12 @@
     <cfRule type="cellIs" priority="1764" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1875" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1876" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6:AG6">
     <cfRule type="cellIs" priority="6" operator="greaterThan" dxfId="1">
@@ -14110,6 +14314,12 @@
     <cfRule type="cellIs" priority="1746" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1857" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1858" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
     <cfRule type="cellIs" priority="450" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14196,6 +14406,12 @@
     <cfRule type="cellIs" priority="1748" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1859" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1860" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
     <cfRule type="cellIs" priority="460" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14282,6 +14498,12 @@
     <cfRule type="cellIs" priority="1758" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1869" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1870" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" priority="878" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14368,6 +14590,12 @@
     <cfRule type="cellIs" priority="1760" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1871" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1872" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14496,6 +14724,12 @@
     <cfRule type="cellIs" priority="1658" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1769" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1770" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
     <cfRule type="cellIs" priority="39" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14624,6 +14858,12 @@
     <cfRule type="cellIs" priority="1660" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1771" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1772" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14752,6 +14992,12 @@
     <cfRule type="cellIs" priority="1666" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1777" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1778" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14880,6 +15126,12 @@
     <cfRule type="cellIs" priority="1668" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1779" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1780" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" priority="879" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14966,6 +15218,12 @@
     <cfRule type="cellIs" priority="1730" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1841" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1842" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
     <cfRule type="cellIs" priority="880" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15052,6 +15310,12 @@
     <cfRule type="cellIs" priority="1732" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1843" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1844" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
     <cfRule type="cellIs" priority="881" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15138,6 +15402,12 @@
     <cfRule type="cellIs" priority="1738" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1849" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1850" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
     <cfRule type="cellIs" priority="442" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15224,6 +15494,12 @@
     <cfRule type="cellIs" priority="1740" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1851" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1852" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
     <cfRule type="cellIs" priority="452" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15310,6 +15586,12 @@
     <cfRule type="cellIs" priority="1750" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1861" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1862" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18">
     <cfRule type="cellIs" priority="882" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15396,6 +15678,12 @@
     <cfRule type="cellIs" priority="1752" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1863" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1864" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
     <cfRule type="cellIs" priority="883" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15482,6 +15770,12 @@
     <cfRule type="cellIs" priority="1674" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1785" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1786" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
     <cfRule type="cellIs" priority="586" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15568,6 +15862,12 @@
     <cfRule type="cellIs" priority="1676" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1787" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1788" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
     <cfRule type="cellIs" priority="392" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15654,6 +15954,12 @@
     <cfRule type="cellIs" priority="1682" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1793" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1794" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
     <cfRule type="cellIs" priority="394" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15740,6 +16046,12 @@
     <cfRule type="cellIs" priority="1684" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1795" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1796" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
     <cfRule type="cellIs" priority="884" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15820,6 +16132,12 @@
     <cfRule type="cellIs" priority="1698" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1809" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1810" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
     <cfRule type="cellIs" priority="885" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15900,6 +16218,12 @@
     <cfRule type="cellIs" priority="1700" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1811" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1812" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
     <cfRule type="cellIs" priority="408" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15986,6 +16310,12 @@
     <cfRule type="cellIs" priority="1706" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1817" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1818" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" priority="410" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16072,6 +16402,12 @@
     <cfRule type="cellIs" priority="1708" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1819" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1820" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
     <cfRule type="cellIs" priority="416" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16158,6 +16494,12 @@
     <cfRule type="cellIs" priority="1714" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1825" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1826" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
     <cfRule type="cellIs" priority="418" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16244,6 +16586,12 @@
     <cfRule type="cellIs" priority="1716" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1827" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1828" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
     <cfRule type="cellIs" priority="424" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16330,6 +16678,12 @@
     <cfRule type="cellIs" priority="1722" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1833" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1834" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
     <cfRule type="cellIs" priority="886" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16416,6 +16770,12 @@
     <cfRule type="cellIs" priority="1724" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1835" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1836" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
     <cfRule type="cellIs" priority="400" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16502,6 +16862,12 @@
     <cfRule type="cellIs" priority="1690" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="1801" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1802" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24">
     <cfRule type="cellIs" priority="402" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16586,6 +16952,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="1692" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1803" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1804" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1276,7 +1276,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="11" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="2" min="2" max="2"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>1.712, 1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752</t>
+          <t>1.7485, 1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792</t>
         </is>
       </c>
       <c r="E2" s="21" t="inlineStr">
@@ -1687,23 +1687,23 @@
         <v>115</v>
       </c>
       <c r="I2" s="42" t="n">
-        <v>2.1752</v>
+        <v>2.1792</v>
       </c>
       <c r="J2" s="43" t="n">
-        <v>0.1888443646077919</v>
+        <v>0.1838911364472234</v>
       </c>
       <c r="K2" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="44" t="n">
-        <v>0.1888443646077919</v>
+        <v>0.3730827691032091</v>
       </c>
       <c r="M2" s="44" t="n">
-        <v>2.1752</v>
+        <v>2.1792</v>
       </c>
       <c r="N2" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O2" s="27">
@@ -1820,30 +1820,30 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>0.998, 1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244</t>
+          <t>1.014, 1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>115</v>
       </c>
       <c r="I3" s="42" t="n">
-        <v>1.244</v>
+        <v>1.243</v>
       </c>
       <c r="J3" s="43" t="n">
-        <v>0</v>
+        <v>-0.0803858520900233</v>
       </c>
       <c r="K3" s="44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="44" t="n">
-        <v>-3.815489749430521</v>
+        <v>-0.0592066311426946</v>
       </c>
       <c r="M3" s="44" t="n">
-        <v>1.689</v>
+        <v>1.688</v>
       </c>
       <c r="N3" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O3" s="27">
@@ -1962,30 +1962,30 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>3.3075, 3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374</t>
+          <t>3.3411, 3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="42" t="n">
-        <v>4.0374</v>
+        <v>4.0288</v>
       </c>
       <c r="J4" s="43" t="n">
-        <v>-0.379984208448493</v>
+        <v>-0.2130083717243646</v>
       </c>
       <c r="K4" s="44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="44" t="n">
-        <v>-3.683381840736673</v>
+        <v>-3.888544300777694</v>
       </c>
       <c r="M4" s="44" t="n">
-        <v>4.0374</v>
+        <v>4.0288</v>
       </c>
       <c r="N4" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O4" s="27">
@@ -2106,30 +2106,30 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>1.2281, 1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573</t>
+          <t>1.2503, 1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="42" t="n">
-        <v>1.5573</v>
+        <v>1.5628</v>
       </c>
       <c r="J5" s="43" t="n">
-        <v>0.3221026863363972</v>
+        <v>0.3531753676234548</v>
       </c>
       <c r="K5" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="44" t="n">
-        <v>0.3221026863363972</v>
+        <v>0.6764156413064455</v>
       </c>
       <c r="M5" s="44" t="n">
-        <v>1.5573</v>
+        <v>1.5628</v>
       </c>
       <c r="N5" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O5" s="27">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>1.859, 1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171</t>
+          <t>1.912, 1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2260,23 +2260,23 @@
         <v>115</v>
       </c>
       <c r="I6" s="42" t="n">
-        <v>2.171</v>
+        <v>2.196</v>
       </c>
       <c r="J6" s="43" t="n">
-        <v>0.3234750462107058</v>
+        <v>1.151543067710749</v>
       </c>
       <c r="K6" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="44" t="n">
-        <v>0.3403014098201321</v>
+        <v>1.507049100631995</v>
       </c>
       <c r="M6" s="44" t="n">
-        <v>2.064</v>
+        <v>2.088</v>
       </c>
       <c r="N6" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O6" s="27">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>1.0732, 1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815</t>
+          <t>1.0714, 1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022</t>
         </is>
       </c>
       <c r="E7" s="23" t="inlineStr">
@@ -2417,23 +2417,23 @@
         <v>5</v>
       </c>
       <c r="I7" s="42" t="n">
-        <v>1.0815</v>
+        <v>1.1022</v>
       </c>
       <c r="J7" s="43" t="n">
-        <v>0.4364784546805281</v>
+        <v>1.914008321775327</v>
       </c>
       <c r="K7" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="44" t="n">
-        <v>0.4197967300044217</v>
+        <v>2.342023862129916</v>
       </c>
       <c r="M7" s="44" t="n">
-        <v>0.4545</v>
+        <v>0.4632</v>
       </c>
       <c r="N7" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O7" s="27">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>1.5282, 1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775</t>
+          <t>1.5229, 1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -2566,23 +2566,23 @@
         <v>5</v>
       </c>
       <c r="I8" s="42" t="n">
-        <v>1.5775</v>
+        <v>1.5971</v>
       </c>
       <c r="J8" s="43" t="n">
-        <v>0.452114111054501</v>
+        <v>1.242472266244061</v>
       </c>
       <c r="K8" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="44" t="n">
-        <v>0.452114111054501</v>
+        <v>1.70020376974019</v>
       </c>
       <c r="M8" s="44" t="n">
-        <v>1.5775</v>
+        <v>1.5971</v>
       </c>
       <c r="N8" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O8" s="27">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.366, 1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091</t>
+          <t>1.3644, 1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2869,23 +2869,23 @@
         <v>3</v>
       </c>
       <c r="I10" s="42" t="n">
-        <v>1.6091</v>
+        <v>1.6206</v>
       </c>
       <c r="J10" s="43" t="n">
-        <v>0.3930621412528058</v>
+        <v>0.7146852277670789</v>
       </c>
       <c r="K10" s="44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10" s="44" t="n">
-        <v>4.121910185065347</v>
+        <v>4.866054096026914</v>
       </c>
       <c r="M10" s="44" t="n">
-        <v>1.6091</v>
+        <v>1.6206</v>
       </c>
       <c r="N10" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O10" s="27">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>0.9908, 0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934</t>
+          <t>0.9931, 1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -3018,23 +3018,23 @@
         <v>3</v>
       </c>
       <c r="I11" s="42" t="n">
-        <v>1.0934</v>
+        <v>1.1035</v>
       </c>
       <c r="J11" s="43" t="n">
-        <v>0.6628613515006327</v>
+        <v>0.9237241631607827</v>
       </c>
       <c r="K11" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="44" t="n">
-        <v>0.6628613515006327</v>
+        <v>1.592708525133481</v>
       </c>
       <c r="M11" s="44" t="n">
-        <v>1.0934</v>
+        <v>1.1035</v>
       </c>
       <c r="N11" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O11" s="27">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1.1984, 1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913</t>
+          <t>1.2123, 1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -3167,23 +3167,23 @@
         <v>3</v>
       </c>
       <c r="I12" s="42" t="n">
-        <v>1.4913</v>
+        <v>1.5001</v>
       </c>
       <c r="J12" s="43" t="n">
-        <v>0.1948400967481944</v>
+        <v>0.5900891839334754</v>
       </c>
       <c r="K12" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="44" t="n">
-        <v>0.1948400967481944</v>
+        <v>0.7860790110185465</v>
       </c>
       <c r="M12" s="44" t="n">
-        <v>1.4913</v>
+        <v>1.5001</v>
       </c>
       <c r="N12" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O12" s="27">
@@ -3304,30 +3304,30 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>2.243, 2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236</t>
+          <t>2.229, 2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="42" t="n">
-        <v>2.236</v>
+        <v>2.281</v>
       </c>
       <c r="J13" s="43" t="n">
-        <v>0.1343484102104843</v>
+        <v>2.012522361359567</v>
       </c>
       <c r="K13" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="44" t="n">
-        <v>0.1264755480607131</v>
+        <v>2.023608768971334</v>
       </c>
       <c r="M13" s="44" t="n">
-        <v>2.375</v>
+        <v>2.42</v>
       </c>
       <c r="N13" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O13" s="27">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1.0041, 0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068</t>
+          <t>0.9924, 0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073</t>
         </is>
       </c>
       <c r="E15" s="25" t="inlineStr">
@@ -3610,23 +3610,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="42" t="n">
-        <v>1.0068</v>
+        <v>1.0073</v>
       </c>
       <c r="J15" s="43" t="n">
-        <v>3.431271830696515</v>
+        <v>0.04966229638460141</v>
       </c>
       <c r="K15" s="44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="44" t="n">
-        <v>2.410332741153301</v>
+        <v>2.434340039371968</v>
       </c>
       <c r="M15" s="44" t="n">
-        <v>2.1329</v>
+        <v>2.1334</v>
       </c>
       <c r="N15" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O15" s="27">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>1.651, 1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706</t>
+          <t>1.644, 1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -3764,23 +3764,23 @@
         <v>115</v>
       </c>
       <c r="I16" s="42" t="n">
-        <v>1.706</v>
+        <v>1.733</v>
       </c>
       <c r="J16" s="43" t="n">
-        <v>0.05865102639295541</v>
+        <v>1.582649472450184</v>
       </c>
       <c r="K16" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="44" t="n">
-        <v>0.05617977528089269</v>
+        <v>1.57303370786517</v>
       </c>
       <c r="M16" s="44" t="n">
-        <v>1.781</v>
+        <v>1.808</v>
       </c>
       <c r="N16" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O16" s="27">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1.6255, 1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783</t>
+          <t>1.6145, 1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -3918,23 +3918,23 @@
         <v>5</v>
       </c>
       <c r="I17" s="42" t="n">
-        <v>1.6783</v>
+        <v>1.7051</v>
       </c>
       <c r="J17" s="43" t="n">
-        <v>0.4970059880239506</v>
+        <v>1.596853959363651</v>
       </c>
       <c r="K17" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="44" t="n">
-        <v>0.4970059880239506</v>
+        <v>2.101796407185637</v>
       </c>
       <c r="M17" s="44" t="n">
-        <v>1.6783</v>
+        <v>1.7051</v>
       </c>
       <c r="N17" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O17" s="27">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1.4836, 1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446</t>
+          <t>1.4782, 1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -4072,23 +4072,23 @@
         <v>5</v>
       </c>
       <c r="I18" s="42" t="n">
-        <v>1.5446</v>
+        <v>1.5693</v>
       </c>
       <c r="J18" s="43" t="n">
-        <v>0.09072058061172032</v>
+        <v>1.599119513142558</v>
       </c>
       <c r="K18" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="44" t="n">
-        <v>0.09072058061172032</v>
+        <v>1.691290824261276</v>
       </c>
       <c r="M18" s="44" t="n">
-        <v>1.5446</v>
+        <v>1.5693</v>
       </c>
       <c r="N18" s="45" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O18" s="27">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.0828, 1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266</t>
+          <t>1.0945, 1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -4219,23 +4219,23 @@
         <v>2</v>
       </c>
       <c r="I19" s="44" t="n">
-        <v>1.1266</v>
+        <v>1.1261</v>
       </c>
       <c r="J19" s="46" t="n">
-        <v>-0.0620952718885765</v>
+        <v>-0.04438132433871338</v>
       </c>
       <c r="K19" s="44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="44" t="n">
-        <v>-0.05679513184583553</v>
+        <v>-0.09736308316428949</v>
       </c>
       <c r="M19" s="44" t="n">
-        <v>1.2318</v>
+        <v>1.2313</v>
       </c>
       <c r="N19" s="44" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O19" s="27">
@@ -4505,30 +4505,30 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>0.9313, 0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372</t>
+          <t>0.9334, 0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I21" s="44" t="n">
-        <v>1.0372</v>
+        <v>1.0333</v>
       </c>
       <c r="J21" s="46" t="n">
-        <v>5.46009150991356</v>
+        <v>-0.3760123409178358</v>
       </c>
       <c r="K21" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="44" t="n">
-        <v>5.46009150991356</v>
+        <v>-0.3760123409178358</v>
       </c>
       <c r="M21" s="44" t="n">
-        <v>1.0372</v>
+        <v>1.0333</v>
       </c>
       <c r="N21" s="44" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O21" s="27">
@@ -4796,30 +4796,30 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>0.9963, 0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154</t>
+          <t>0.998, 1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>104</v>
       </c>
       <c r="I23" s="44" t="n">
-        <v>1.1154</v>
+        <v>1.1105</v>
       </c>
       <c r="J23" s="46" t="n">
-        <v>5.545041635124904</v>
+        <v>-0.4393042854581231</v>
       </c>
       <c r="K23" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="44" t="n">
-        <v>5.545041635124904</v>
+        <v>-0.4393042854581231</v>
       </c>
       <c r="M23" s="44" t="n">
-        <v>1.1154</v>
+        <v>1.1105</v>
       </c>
       <c r="N23" s="44" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O23" s="27">
@@ -4940,30 +4940,30 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>1.414, 1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597</t>
+          <t>1.421, 1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609</t>
         </is>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="48" t="n">
-        <v>1.597</v>
+        <v>1.609</v>
       </c>
       <c r="J24" s="46" t="n">
-        <v>1.075949367088602</v>
+        <v>0.7514088916718855</v>
       </c>
       <c r="K24" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="48" t="n">
-        <v>0.8333333333333286</v>
+        <v>1.421568627450976</v>
       </c>
       <c r="M24" s="48" t="n">
-        <v>2.057</v>
+        <v>2.069</v>
       </c>
       <c r="N24" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -5084,30 +5084,30 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1.4632, 1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379</t>
+          <t>1.4944, 1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="48" t="n">
-        <v>1.8379</v>
+        <v>1.8454</v>
       </c>
       <c r="J25" s="46" t="n">
-        <v>0.3878086082586906</v>
+        <v>0.4080744327765297</v>
       </c>
       <c r="K25" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="48" t="n">
-        <v>0.3785051711269915</v>
+        <v>0.7783345772470504</v>
       </c>
       <c r="M25" s="48" t="n">
-        <v>1.8829</v>
+        <v>1.8904</v>
       </c>
       <c r="N25" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -5372,30 +5372,30 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1.0745, 1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897</t>
+          <t>1.0819, 1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1.1897</v>
+        <v>1.1982</v>
       </c>
       <c r="J27" s="46" t="n">
-        <v>0.9332315262577329</v>
+        <v>0.7144658317222788</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0.9332315262577329</v>
+        <v>1.654364978365984</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1.1897</v>
+        <v>1.1982</v>
       </c>
       <c r="N27" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -5516,30 +5516,30 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>1.0152, 1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243</t>
+          <t>1.0201, 1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1.2243</v>
+        <v>1.2154</v>
       </c>
       <c r="J28" s="46" t="n">
-        <v>10.37684817886765</v>
+        <v>-0.7269460099648705</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1.733232856066312</v>
+        <v>-0.1481481481481524</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>0.135</v>
+        <v>0.1348</v>
       </c>
       <c r="N28" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>0.967, 0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206</t>
+          <t>0.971, 0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
@@ -5670,20 +5670,20 @@
         <v>1.206</v>
       </c>
       <c r="J29" s="46" t="n">
-        <v>1.686340640809445</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1.468788249694004</v>
+        <v>0</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>0.829</v>
       </c>
       <c r="N29" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -5936,30 +5936,30 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>2.4773, 2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632</t>
+          <t>2.4314, 2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2.7632</v>
+        <v>2.7424</v>
       </c>
       <c r="J31" s="46" t="n">
-        <v>0.01085815628505356</v>
+        <v>-0.7527504342790943</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>0.5103055205779071</v>
+        <v>-0.6857444283265176</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3.0332</v>
+        <v>3.0124</v>
       </c>
       <c r="N31" s="48" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -6212,30 +6212,30 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>1.6515, 1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205</t>
+          <t>1.683, 1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2.0205</v>
+        <v>2.031</v>
       </c>
       <c r="J33" s="46" t="n">
-        <v>0.617499128529454</v>
+        <v>0.519673348181141</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>0.2853132693679485</v>
+        <v>0.5269091829456276</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>4.3585</v>
+        <v>4.369</v>
       </c>
       <c r="N33" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -6344,30 +6344,30 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>1.1975, 1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418</t>
+          <t>1.224, 1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="44" t="n">
-        <v>1.4418</v>
+        <v>1.4379</v>
       </c>
       <c r="J34" s="50" t="n">
-        <v>0.5088881143255394</v>
+        <v>-0.27049521431544</v>
       </c>
       <c r="K34" s="44" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="44" t="n">
-        <v>0.5088881143255394</v>
+        <v>-0.27049521431544</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1.4418</v>
+        <v>1.4379</v>
       </c>
       <c r="N34" s="44" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O34" s="0">
@@ -6476,30 +6476,30 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>0.784, 0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865</t>
+          <t>0.786, 0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>0.865</v>
+        <v>0.869</v>
       </c>
       <c r="J35" s="46" t="n">
-        <v>1.169590643274855</v>
+        <v>0.4624277456647403</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>0.4728132387706754</v>
+        <v>0.6619385342789499</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2.125</v>
+        <v>2.129</v>
       </c>
       <c r="N35" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -6740,30 +6740,30 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1.04, 1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239</t>
+          <t>1.047, 1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24</t>
         </is>
       </c>
       <c r="H37" s="0" t="n">
         <v>110</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1.239</v>
+        <v>1.24</v>
       </c>
       <c r="J37" s="46" t="n">
-        <v>1.474201474201476</v>
+        <v>0.08071025020176673</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1.474201474201476</v>
+        <v>1.556101556101548</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1.239</v>
+        <v>1.24</v>
       </c>
       <c r="N37" s="48" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -6975,6 +6975,42 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6992,7 +7028,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="2" max="2"/>
@@ -7409,7 +7445,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:41</t>
+          <t>20200101 00:05:40</t>
         </is>
       </c>
       <c r="L2" s="51">
@@ -7535,7 +7571,7 @@
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:41</t>
+          <t>20200101 00:05:40</t>
         </is>
       </c>
       <c r="L3" s="51">
@@ -7661,7 +7697,7 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:41</t>
+          <t>20200101 00:05:40</t>
         </is>
       </c>
       <c r="L4" s="51">
@@ -7913,7 +7949,7 @@
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:42</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L6" s="51">
@@ -8165,7 +8201,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:42</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L8" s="51">
@@ -8297,7 +8333,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:42</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L9" s="51">
@@ -8434,7 +8470,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:42</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L10" s="51">
@@ -8571,7 +8607,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:42</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L11" s="51">
@@ -8703,7 +8739,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:43</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L12" s="51">
@@ -8829,7 +8865,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:43</t>
+          <t>20200101 00:05:41</t>
         </is>
       </c>
       <c r="L13" s="51">
@@ -9098,7 +9134,7 @@
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:43</t>
+          <t>20200101 00:05:42</t>
         </is>
       </c>
       <c r="L15" s="51">
@@ -9217,7 +9253,7 @@
       <c r="J16" s="12" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:43</t>
+          <t>20200101 00:05:42</t>
         </is>
       </c>
       <c r="L16" s="51">
@@ -9327,16 +9363,16 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>8709.73</v>
+        <v>8733.0728</v>
       </c>
       <c r="G17" s="13" t="n">
-        <v>-0.7</v>
+        <v>0.27</v>
       </c>
       <c r="I17" s="12" t="n"/>
       <c r="J17" s="12" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20191231 13:30:43</t>
+          <t>20200101 00:05:42</t>
         </is>
       </c>
       <c r="L17" s="51">
@@ -9519,7 +9555,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="5" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="11" min="2" max="3"/>
@@ -9804,37 +9840,37 @@
         <v>13000</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1.1154</v>
+        <v>1.1105</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>12000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.0372</v>
+        <v>1.0333</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.1752</v>
+        <v>2.1792</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.171</v>
+        <v>2.196</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1.244</v>
+        <v>1.243</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1.239</v>
+        <v>1.24</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>3000</v>
@@ -9858,7 +9894,7 @@
         <v>3000</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>1.706</v>
+        <v>1.733</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>3000</v>
@@ -9888,46 +9924,46 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="n">
-        <v>5531.471305789341</v>
+        <v>5525.297745351542</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>6.193701914486207</v>
+        <v>6.186789252196379</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>2016.777133388566</v>
+        <v>1950.807787903894</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>15.51367025683512</v>
+        <v>15.00621375310688</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>1855.504842480239</v>
+        <v>1803.406434376045</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>15.46254035400199</v>
+        <v>15.02838695313371</v>
       </c>
       <c r="H4" s="12" t="n">
-        <v>-105.5308041942315</v>
+        <v>-96.53030916700504</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>-2.110616083884631</v>
+        <v>-1.930606183340101</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>-29.76190476190555</v>
+        <v>27.4725274725275</v>
       </c>
       <c r="K4" s="12" t="n">
-        <v>-0.595238095238111</v>
+        <v>0.5494505494505499</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>-148.2059282371296</v>
+        <v>-152.1060842433694</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>-2.964118564742592</v>
+        <v>-3.042121684867388</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>-12.05787781350457</v>
+        <v>-9.646302250803867</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>-0.4019292604501523</v>
+        <v>-0.3215434083601289</v>
       </c>
       <c r="P4" s="13" t="n">
         <v>-190.8023483365951</v>
@@ -9948,10 +9984,10 @@
         <v>1.904272801972058</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>-20.95459837019792</v>
+        <v>26.1932479627476</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>-0.6984866123399307</v>
+        <v>0.8731082654249199</v>
       </c>
       <c r="X4" s="13" t="n">
         <v>106.8965517241379</v>
@@ -9981,46 +10017,46 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>1443.080353485439</v>
+        <v>5.834585434075862</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>1.615846680572221</v>
+        <v>0.006533105023151187</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>720.8554125662375</v>
+        <v>-57.10955710955601</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>5.545041635124904</v>
+        <v>-0.4393042854581231</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>655.2109811896271</v>
+        <v>-45.1214809101403</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>5.46009150991356</v>
+        <v>-0.3760123409178358</v>
       </c>
       <c r="H5" s="12" t="n">
-        <v>9.442218230389596</v>
+        <v>9.194556822361172</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>0.1888443646077919</v>
+        <v>0.1838911364472234</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>16.17375231053529</v>
+        <v>57.57715338553744</v>
       </c>
       <c r="K5" s="12" t="n">
-        <v>0.3234750462107058</v>
+        <v>1.151543067710749</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0</v>
+        <v>-4.019292604501165</v>
       </c>
       <c r="M5" s="12" t="n">
-        <v>0</v>
+        <v>-0.0803858520900233</v>
       </c>
       <c r="N5" s="12" t="n">
-        <v>44.22604422604427</v>
+        <v>2.421307506053002</v>
       </c>
       <c r="O5" s="12" t="n">
-        <v>1.474201474201476</v>
+        <v>0.08071025020176673</v>
       </c>
       <c r="P5" s="13" t="n">
         <v>-9.375000000000007</v>
@@ -10041,10 +10077,10 @@
         <v>1.003787107545703</v>
       </c>
       <c r="V5" s="13" t="n">
-        <v>1.759530791788662</v>
+        <v>47.4794841735055</v>
       </c>
       <c r="W5" s="13" t="n">
-        <v>0.05865102639295541</v>
+        <v>1.582649472450184</v>
       </c>
       <c r="X5" s="13" t="n">
         <v>-22.03452074917373</v>
@@ -10549,16 +10585,16 @@
       <c r="B15" s="0" t="inlineStr"/>
       <c r="C15" s="0" t="inlineStr"/>
       <c r="D15" s="13" t="n">
-        <v>2016.777133388566</v>
+        <v>1950.807787903894</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>15.51367025683512</v>
+        <v>15.00621375310688</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>1855.504842480239</v>
+        <v>1803.406434376045</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>15.46254035400199</v>
+        <v>15.02838695313371</v>
       </c>
       <c r="H15" s="0" t="inlineStr"/>
       <c r="I15" s="0" t="inlineStr"/>
@@ -10661,10 +10697,10 @@
       <c r="T17" s="0" t="inlineStr"/>
       <c r="U17" s="0" t="inlineStr"/>
       <c r="V17" s="12" t="n">
-        <v>-20.95459837019792</v>
+        <v>26.1932479627476</v>
       </c>
       <c r="W17" s="12" t="n">
-        <v>-0.6984866123399307</v>
+        <v>0.8731082654249199</v>
       </c>
       <c r="X17" s="0" t="inlineStr"/>
       <c r="Y17" s="0" t="inlineStr"/>
@@ -10849,16 +10885,16 @@
       <c r="F21" s="0" t="inlineStr"/>
       <c r="G21" s="0" t="inlineStr"/>
       <c r="H21" s="13" t="n">
-        <v>-105.5308041942315</v>
+        <v>-96.53030916700504</v>
       </c>
       <c r="I21" s="13" t="n">
-        <v>-2.110616083884631</v>
+        <v>-1.930606183340101</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>-29.76190476190555</v>
+        <v>27.4725274725275</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>-0.595238095238111</v>
+        <v>0.5494505494505499</v>
       </c>
       <c r="L21" s="0" t="inlineStr"/>
       <c r="M21" s="0" t="inlineStr"/>
@@ -10971,10 +11007,10 @@
       <c r="L23" s="0" t="inlineStr"/>
       <c r="M23" s="0" t="inlineStr"/>
       <c r="N23" s="13" t="n">
-        <v>-12.05787781350457</v>
+        <v>-9.646302250803867</v>
       </c>
       <c r="O23" s="13" t="n">
-        <v>-0.4019292604501523</v>
+        <v>-0.3215434083601289</v>
       </c>
       <c r="P23" s="13" t="n">
         <v>-190.8023483365951</v>
@@ -11075,10 +11111,10 @@
       <c r="J25" s="0" t="inlineStr"/>
       <c r="K25" s="0" t="inlineStr"/>
       <c r="L25" s="13" t="n">
-        <v>-148.2059282371296</v>
+        <v>-152.1060842433694</v>
       </c>
       <c r="M25" s="12" t="n">
-        <v>-2.964118564742592</v>
+        <v>-3.042121684867388</v>
       </c>
       <c r="N25" s="0" t="inlineStr"/>
       <c r="O25" s="0" t="inlineStr"/>
@@ -11160,6 +11196,12 @@
     <cfRule type="cellIs" priority="2378" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2545" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2546" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2043" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11180,6 +11222,12 @@
     <cfRule type="cellIs" priority="2380" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2547" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2548" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2201" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11200,6 +11248,12 @@
     <cfRule type="cellIs" priority="2222" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2389" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2390" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="2202" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11220,6 +11274,12 @@
     <cfRule type="cellIs" priority="2224" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2391" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2392" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="1897" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11240,6 +11300,12 @@
     <cfRule type="cellIs" priority="2234" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2401" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2402" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="1899" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11260,6 +11326,12 @@
     <cfRule type="cellIs" priority="2236" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2403" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2404" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="1909" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11280,6 +11352,12 @@
     <cfRule type="cellIs" priority="2246" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2413" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2414" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="1911" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11300,6 +11378,12 @@
     <cfRule type="cellIs" priority="2248" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2415" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2416" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="1921" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11320,6 +11404,12 @@
     <cfRule type="cellIs" priority="2258" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2425" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2426" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="1923" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11340,6 +11430,12 @@
     <cfRule type="cellIs" priority="2260" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2427" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2428" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="1933" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11360,6 +11456,12 @@
     <cfRule type="cellIs" priority="2270" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2437" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2438" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="1935" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11380,6 +11482,12 @@
     <cfRule type="cellIs" priority="2272" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2439" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2440" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="1945" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11400,6 +11508,12 @@
     <cfRule type="cellIs" priority="2282" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2449" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2450" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="1947" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11420,6 +11534,12 @@
     <cfRule type="cellIs" priority="2284" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2451" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2452" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="1957" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11440,6 +11560,12 @@
     <cfRule type="cellIs" priority="2294" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2461" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2462" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="cellIs" priority="1959" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11460,6 +11586,12 @@
     <cfRule type="cellIs" priority="2296" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2463" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2464" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="1969" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11480,6 +11612,12 @@
     <cfRule type="cellIs" priority="2306" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2473" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2474" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="cellIs" priority="1971" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11500,6 +11638,12 @@
     <cfRule type="cellIs" priority="2308" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2475" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2476" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" priority="1981" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11520,6 +11664,12 @@
     <cfRule type="cellIs" priority="2318" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2485" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2486" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
     <cfRule type="cellIs" priority="1983" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11540,6 +11690,12 @@
     <cfRule type="cellIs" priority="2320" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2487" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2488" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" priority="1993" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11560,6 +11716,12 @@
     <cfRule type="cellIs" priority="2330" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2497" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2498" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="1995" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11580,6 +11742,12 @@
     <cfRule type="cellIs" priority="2332" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2499" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2500" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="2005" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11600,6 +11768,12 @@
     <cfRule type="cellIs" priority="2342" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2509" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2510" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="2007" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11620,6 +11794,12 @@
     <cfRule type="cellIs" priority="2344" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2511" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2512" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="2021" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11640,6 +11820,12 @@
     <cfRule type="cellIs" priority="2358" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2525" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2526" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="2023" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11660,6 +11846,12 @@
     <cfRule type="cellIs" priority="2360" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2527" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2528" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="2033" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11680,6 +11872,12 @@
     <cfRule type="cellIs" priority="2370" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2537" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2538" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11700,6 +11898,12 @@
     <cfRule type="cellIs" priority="2372" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2539" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2540" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11720,6 +11924,12 @@
     <cfRule type="cellIs" priority="2382" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2549" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2550" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2047" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11740,6 +11950,12 @@
     <cfRule type="cellIs" priority="2384" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2551" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2552" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11760,6 +11976,12 @@
     <cfRule type="cellIs" priority="2226" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2393" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2394" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" priority="2204" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11780,6 +12002,12 @@
     <cfRule type="cellIs" priority="2228" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2395" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2396" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" priority="1901" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11800,6 +12028,12 @@
     <cfRule type="cellIs" priority="2238" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2405" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2406" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" priority="1903" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11820,6 +12054,12 @@
     <cfRule type="cellIs" priority="2240" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2407" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2408" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" priority="1913" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11840,6 +12080,12 @@
     <cfRule type="cellIs" priority="2250" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2417" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2418" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" priority="1915" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11860,6 +12106,12 @@
     <cfRule type="cellIs" priority="2252" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2419" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2420" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" priority="1925" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11880,6 +12132,12 @@
     <cfRule type="cellIs" priority="2262" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2429" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2430" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" priority="1927" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11900,6 +12158,12 @@
     <cfRule type="cellIs" priority="2264" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2431" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2432" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="cellIs" priority="1937" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11920,6 +12184,12 @@
     <cfRule type="cellIs" priority="2274" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2441" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2442" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
     <cfRule type="cellIs" priority="1939" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11940,6 +12210,12 @@
     <cfRule type="cellIs" priority="2276" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2443" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2444" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="cellIs" priority="1949" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11960,6 +12236,12 @@
     <cfRule type="cellIs" priority="2286" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2453" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2454" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
     <cfRule type="cellIs" priority="1951" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11980,6 +12262,12 @@
     <cfRule type="cellIs" priority="2288" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2455" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2456" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
     <cfRule type="cellIs" priority="1961" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12000,6 +12288,12 @@
     <cfRule type="cellIs" priority="2298" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2465" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2466" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
     <cfRule type="cellIs" priority="1963" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12020,6 +12314,12 @@
     <cfRule type="cellIs" priority="2300" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2467" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2468" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
     <cfRule type="cellIs" priority="1973" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12040,6 +12340,12 @@
     <cfRule type="cellIs" priority="2310" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2477" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2478" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
     <cfRule type="cellIs" priority="1975" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12060,6 +12366,12 @@
     <cfRule type="cellIs" priority="2312" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2479" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2480" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
     <cfRule type="cellIs" priority="1985" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12080,6 +12392,12 @@
     <cfRule type="cellIs" priority="2322" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2489" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2490" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
     <cfRule type="cellIs" priority="1987" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12100,6 +12418,12 @@
     <cfRule type="cellIs" priority="2324" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2491" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2492" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
     <cfRule type="cellIs" priority="1997" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12120,6 +12444,12 @@
     <cfRule type="cellIs" priority="2334" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2501" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2502" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
     <cfRule type="cellIs" priority="1999" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12140,6 +12470,12 @@
     <cfRule type="cellIs" priority="2336" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2503" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2504" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
     <cfRule type="cellIs" priority="2009" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12160,6 +12496,12 @@
     <cfRule type="cellIs" priority="2346" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2513" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2514" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" priority="2011" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12180,6 +12522,12 @@
     <cfRule type="cellIs" priority="2348" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2515" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2516" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12200,6 +12548,12 @@
     <cfRule type="cellIs" priority="2362" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2529" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2530" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
     <cfRule type="cellIs" priority="2027" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12220,6 +12574,12 @@
     <cfRule type="cellIs" priority="2364" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2531" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2532" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
     <cfRule type="cellIs" priority="2037" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12240,6 +12600,12 @@
     <cfRule type="cellIs" priority="2374" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2541" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2542" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12260,6 +12626,12 @@
     <cfRule type="cellIs" priority="2376" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2543" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2544" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AG7">
     <cfRule type="cellIs" priority="5" operator="lessThan" dxfId="2">
@@ -12394,6 +12766,12 @@
     <cfRule type="cellIs" priority="2350" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2517" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2518" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
     <cfRule type="cellIs" priority="450" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12504,6 +12882,12 @@
     <cfRule type="cellIs" priority="2352" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2519" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2520" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
     <cfRule type="cellIs" priority="460" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12614,6 +12998,12 @@
     <cfRule type="cellIs" priority="2366" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2533" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2534" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" priority="528" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -12724,6 +13114,12 @@
     <cfRule type="cellIs" priority="2368" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2535" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2536" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12876,6 +13272,12 @@
     <cfRule type="cellIs" priority="2218" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2385" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2386" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" priority="39" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13028,6 +13430,12 @@
     <cfRule type="cellIs" priority="2220" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2387" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2388" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13180,6 +13588,12 @@
     <cfRule type="cellIs" priority="2230" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2397" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2398" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13332,6 +13746,12 @@
     <cfRule type="cellIs" priority="2232" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2399" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2400" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
     <cfRule type="cellIs" priority="497" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13442,6 +13862,12 @@
     <cfRule type="cellIs" priority="2326" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2493" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2494" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
     <cfRule type="cellIs" priority="499" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13552,6 +13978,12 @@
     <cfRule type="cellIs" priority="2328" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2495" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2496" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
     <cfRule type="cellIs" priority="441" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -13662,6 +14094,12 @@
     <cfRule type="cellIs" priority="2338" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2505" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2506" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" priority="442" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13772,6 +14210,12 @@
     <cfRule type="cellIs" priority="2340" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2507" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2508" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" priority="452" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13882,6 +14326,12 @@
     <cfRule type="cellIs" priority="2354" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2521" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2522" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
     <cfRule type="cellIs" priority="520" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -13992,6 +14442,12 @@
     <cfRule type="cellIs" priority="2356" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2523" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2524" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" priority="489" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -14102,6 +14558,12 @@
     <cfRule type="cellIs" priority="2242" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2409" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2410" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" priority="490" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14212,6 +14674,12 @@
     <cfRule type="cellIs" priority="2244" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2411" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2412" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" priority="392" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14322,6 +14790,12 @@
     <cfRule type="cellIs" priority="2254" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2421" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2422" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
     <cfRule type="cellIs" priority="394" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14432,6 +14906,12 @@
     <cfRule type="cellIs" priority="2256" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2423" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2424" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" priority="689" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14536,6 +15016,12 @@
     <cfRule type="cellIs" priority="2278" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2445" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2446" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" priority="691" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14640,6 +15126,12 @@
     <cfRule type="cellIs" priority="2280" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2447" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2448" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
     <cfRule type="cellIs" priority="408" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14750,6 +15242,12 @@
     <cfRule type="cellIs" priority="2290" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2457" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2458" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" priority="410" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14860,6 +15358,12 @@
     <cfRule type="cellIs" priority="2292" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2459" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2460" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" priority="416" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14970,6 +15474,12 @@
     <cfRule type="cellIs" priority="2302" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2469" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2470" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" priority="418" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15080,6 +15590,12 @@
     <cfRule type="cellIs" priority="2304" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2471" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2472" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" priority="424" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15190,6 +15706,12 @@
     <cfRule type="cellIs" priority="2314" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2481" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2482" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" priority="603" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15300,6 +15822,12 @@
     <cfRule type="cellIs" priority="2316" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2483" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2484" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" priority="400" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15410,6 +15938,12 @@
     <cfRule type="cellIs" priority="2266" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="2433" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2434" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
     <cfRule type="cellIs" priority="402" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15518,6 +16052,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="2268" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2435" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2436" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18545,7 +19085,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="9" min="2" max="2"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1342,7 +1342,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="11" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="2" min="2" max="2"/>
@@ -7041,6 +7041,42 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7058,7 +7094,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="2" max="2"/>
@@ -7475,7 +7511,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:53</t>
+          <t>20200101 08:36:17</t>
         </is>
       </c>
       <c r="L2" s="51">
@@ -7601,7 +7637,7 @@
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:53</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L3" s="51">
@@ -7727,7 +7763,7 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:53</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L4" s="51">
@@ -7979,7 +8015,7 @@
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:53</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L6" s="51">
@@ -8231,7 +8267,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L8" s="51">
@@ -8363,7 +8399,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L9" s="51">
@@ -8500,7 +8536,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:18</t>
         </is>
       </c>
       <c r="L10" s="51">
@@ -8637,7 +8673,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L11" s="51">
@@ -8769,7 +8805,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L12" s="51">
@@ -8895,7 +8931,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L13" s="51">
@@ -9164,7 +9200,7 @@
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:54</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L15" s="51">
@@ -9283,7 +9319,7 @@
       <c r="J16" s="12" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:55</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L16" s="51">
@@ -9402,7 +9438,7 @@
       <c r="J17" s="12" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200101 08:23:55</t>
+          <t>20200101 08:36:19</t>
         </is>
       </c>
       <c r="L17" s="51">
@@ -9585,7 +9621,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="5" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="11" min="2" max="3"/>
@@ -11268,6 +11304,18 @@
     <cfRule type="cellIs" priority="3554" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3721" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3722" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3889" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3890" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2043" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11330,6 +11378,18 @@
     <cfRule type="cellIs" priority="3556" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3723" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3724" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3891" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3892" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2201" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11392,6 +11452,18 @@
     <cfRule type="cellIs" priority="3398" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3565" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3566" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3733" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3734" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="2202" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11454,6 +11526,18 @@
     <cfRule type="cellIs" priority="3400" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3567" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3568" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3735" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3736" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="1897" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11516,6 +11600,18 @@
     <cfRule type="cellIs" priority="3410" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3577" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3578" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3745" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3746" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="1899" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11578,6 +11674,18 @@
     <cfRule type="cellIs" priority="3412" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3579" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3580" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3747" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3748" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="1909" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11640,6 +11748,18 @@
     <cfRule type="cellIs" priority="3422" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3589" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3590" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3757" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3758" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="1911" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11702,6 +11822,18 @@
     <cfRule type="cellIs" priority="3424" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3591" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3592" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3759" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3760" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="1921" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11764,6 +11896,18 @@
     <cfRule type="cellIs" priority="3434" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3601" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3602" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3769" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3770" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="1923" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11826,6 +11970,18 @@
     <cfRule type="cellIs" priority="3436" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3603" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3604" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3771" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3772" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="1933" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11888,6 +12044,18 @@
     <cfRule type="cellIs" priority="3446" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3613" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3614" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3781" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3782" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="1935" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11950,6 +12118,18 @@
     <cfRule type="cellIs" priority="3448" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3615" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3616" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3783" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3784" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="1945" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12012,6 +12192,18 @@
     <cfRule type="cellIs" priority="3458" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3625" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3626" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3793" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3794" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="1947" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12074,6 +12266,18 @@
     <cfRule type="cellIs" priority="3460" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3627" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3628" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3795" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3796" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="1957" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12136,6 +12340,18 @@
     <cfRule type="cellIs" priority="3470" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3637" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3638" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3805" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3806" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="cellIs" priority="1959" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12198,6 +12414,18 @@
     <cfRule type="cellIs" priority="3472" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3639" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3640" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3807" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3808" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="1969" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12260,6 +12488,18 @@
     <cfRule type="cellIs" priority="3482" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3649" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3650" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3817" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3818" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="cellIs" priority="1971" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12322,6 +12562,18 @@
     <cfRule type="cellIs" priority="3484" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3651" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3652" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3819" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3820" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" priority="1981" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12384,6 +12636,18 @@
     <cfRule type="cellIs" priority="3494" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3661" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3662" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3829" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3830" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
     <cfRule type="cellIs" priority="1983" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12446,6 +12710,18 @@
     <cfRule type="cellIs" priority="3496" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3663" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3664" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3831" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3832" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" priority="1993" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12508,6 +12784,18 @@
     <cfRule type="cellIs" priority="3506" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3673" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3674" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3841" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3842" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="1995" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12570,6 +12858,18 @@
     <cfRule type="cellIs" priority="3508" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3675" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3676" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3843" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3844" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="2005" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12632,6 +12932,18 @@
     <cfRule type="cellIs" priority="3518" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3685" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3686" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3853" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3854" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="2007" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12694,6 +13006,18 @@
     <cfRule type="cellIs" priority="3520" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3687" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3688" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3855" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3856" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="2021" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12756,6 +13080,18 @@
     <cfRule type="cellIs" priority="3534" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3701" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3702" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3869" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3870" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="2023" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12818,6 +13154,18 @@
     <cfRule type="cellIs" priority="3536" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3703" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3704" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3871" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3872" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="2033" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12880,6 +13228,18 @@
     <cfRule type="cellIs" priority="3546" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3713" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3714" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3881" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3882" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12942,6 +13302,18 @@
     <cfRule type="cellIs" priority="3548" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3715" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3716" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3883" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3884" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13004,6 +13376,18 @@
     <cfRule type="cellIs" priority="3558" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3725" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3726" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3893" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3894" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2047" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13066,6 +13450,18 @@
     <cfRule type="cellIs" priority="3560" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3727" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3728" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3895" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3896" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13128,6 +13524,18 @@
     <cfRule type="cellIs" priority="3402" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3569" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3570" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3737" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3738" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" priority="2204" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13190,6 +13598,18 @@
     <cfRule type="cellIs" priority="3404" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3571" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3572" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3739" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3740" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" priority="1901" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13252,6 +13672,18 @@
     <cfRule type="cellIs" priority="3414" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3581" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3582" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3749" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3750" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" priority="1903" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13314,6 +13746,18 @@
     <cfRule type="cellIs" priority="3416" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3583" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3584" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3751" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3752" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" priority="1913" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13376,6 +13820,18 @@
     <cfRule type="cellIs" priority="3426" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3593" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3594" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3761" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3762" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" priority="1915" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13438,6 +13894,18 @@
     <cfRule type="cellIs" priority="3428" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3595" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3596" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3763" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3764" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" priority="1925" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13500,6 +13968,18 @@
     <cfRule type="cellIs" priority="3438" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3605" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3606" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3773" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3774" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" priority="1927" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13562,6 +14042,18 @@
     <cfRule type="cellIs" priority="3440" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3607" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3608" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3775" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3776" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="cellIs" priority="1937" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13624,6 +14116,18 @@
     <cfRule type="cellIs" priority="3450" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3617" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3618" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3785" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3786" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
     <cfRule type="cellIs" priority="1939" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13686,6 +14190,18 @@
     <cfRule type="cellIs" priority="3452" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3619" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3620" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3787" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3788" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="cellIs" priority="1949" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13748,6 +14264,18 @@
     <cfRule type="cellIs" priority="3462" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3629" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3630" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3797" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3798" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
     <cfRule type="cellIs" priority="1951" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13810,6 +14338,18 @@
     <cfRule type="cellIs" priority="3464" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3631" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3632" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3799" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3800" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
     <cfRule type="cellIs" priority="1961" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13872,6 +14412,18 @@
     <cfRule type="cellIs" priority="3474" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3641" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3642" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3809" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3810" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
     <cfRule type="cellIs" priority="1963" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13934,6 +14486,18 @@
     <cfRule type="cellIs" priority="3476" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3643" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3644" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3811" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3812" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
     <cfRule type="cellIs" priority="1973" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13996,6 +14560,18 @@
     <cfRule type="cellIs" priority="3486" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3653" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3654" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3821" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3822" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
     <cfRule type="cellIs" priority="1975" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14058,6 +14634,18 @@
     <cfRule type="cellIs" priority="3488" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3655" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3656" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3823" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3824" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
     <cfRule type="cellIs" priority="1985" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14120,6 +14708,18 @@
     <cfRule type="cellIs" priority="3498" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3665" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3666" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3833" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3834" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
     <cfRule type="cellIs" priority="1987" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14182,6 +14782,18 @@
     <cfRule type="cellIs" priority="3500" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3667" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3668" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3835" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3836" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
     <cfRule type="cellIs" priority="1997" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14244,6 +14856,18 @@
     <cfRule type="cellIs" priority="3510" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3677" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3678" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3845" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3846" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
     <cfRule type="cellIs" priority="1999" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14306,6 +14930,18 @@
     <cfRule type="cellIs" priority="3512" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3679" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3680" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3847" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3848" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
     <cfRule type="cellIs" priority="2009" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14368,6 +15004,18 @@
     <cfRule type="cellIs" priority="3522" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3689" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3690" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3857" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3858" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" priority="2011" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14430,6 +15078,18 @@
     <cfRule type="cellIs" priority="3524" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3691" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3692" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3859" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3860" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14492,6 +15152,18 @@
     <cfRule type="cellIs" priority="3538" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3705" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3706" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3873" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3874" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
     <cfRule type="cellIs" priority="2027" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14554,6 +15226,18 @@
     <cfRule type="cellIs" priority="3540" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3707" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3708" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3875" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3876" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
     <cfRule type="cellIs" priority="2037" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14616,6 +15300,18 @@
     <cfRule type="cellIs" priority="3550" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3717" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3718" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3885" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3886" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14678,6 +15374,18 @@
     <cfRule type="cellIs" priority="3552" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3719" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3720" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3887" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3888" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AG7">
     <cfRule type="cellIs" priority="5" operator="lessThan" dxfId="2">
@@ -14854,6 +15562,18 @@
     <cfRule type="cellIs" priority="3526" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3693" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3694" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3861" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3862" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
     <cfRule type="cellIs" priority="450" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15006,6 +15726,18 @@
     <cfRule type="cellIs" priority="3528" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3695" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3696" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3863" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3864" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
     <cfRule type="cellIs" priority="460" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15158,6 +15890,18 @@
     <cfRule type="cellIs" priority="3542" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3709" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3710" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3877" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3878" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" priority="528" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -15310,6 +16054,18 @@
     <cfRule type="cellIs" priority="3544" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3711" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3712" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3879" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3880" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15504,6 +16260,18 @@
     <cfRule type="cellIs" priority="3394" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3561" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3562" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3729" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3730" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" priority="39" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15698,6 +16466,18 @@
     <cfRule type="cellIs" priority="3396" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3563" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3564" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3731" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3732" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15892,6 +16672,18 @@
     <cfRule type="cellIs" priority="3406" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3573" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3574" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3741" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3742" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16086,6 +16878,18 @@
     <cfRule type="cellIs" priority="3408" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3575" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3576" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3743" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3744" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
     <cfRule type="cellIs" priority="497" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16238,6 +17042,18 @@
     <cfRule type="cellIs" priority="3502" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3669" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3670" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3837" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3838" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
     <cfRule type="cellIs" priority="499" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16390,6 +17206,18 @@
     <cfRule type="cellIs" priority="3504" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3671" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3672" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3839" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3840" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
     <cfRule type="cellIs" priority="441" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -16542,6 +17370,18 @@
     <cfRule type="cellIs" priority="3514" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3681" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3682" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3849" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3850" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" priority="442" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16694,6 +17534,18 @@
     <cfRule type="cellIs" priority="3516" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3683" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3684" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3851" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3852" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" priority="452" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16846,6 +17698,18 @@
     <cfRule type="cellIs" priority="3530" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3697" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3698" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3865" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3866" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
     <cfRule type="cellIs" priority="520" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -16998,6 +17862,18 @@
     <cfRule type="cellIs" priority="3532" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3699" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3700" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3867" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3868" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" priority="489" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -17150,6 +18026,18 @@
     <cfRule type="cellIs" priority="3418" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3585" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3586" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3753" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3754" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" priority="490" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17302,6 +18190,18 @@
     <cfRule type="cellIs" priority="3420" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3587" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3588" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3755" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3756" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" priority="392" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17454,6 +18354,18 @@
     <cfRule type="cellIs" priority="3430" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3597" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3598" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3765" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3766" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
     <cfRule type="cellIs" priority="394" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17606,6 +18518,18 @@
     <cfRule type="cellIs" priority="3432" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3599" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3600" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3767" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3768" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" priority="689" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17752,6 +18676,18 @@
     <cfRule type="cellIs" priority="3454" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3621" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3622" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3789" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3790" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" priority="691" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17898,6 +18834,18 @@
     <cfRule type="cellIs" priority="3456" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3623" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3624" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3791" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3792" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
     <cfRule type="cellIs" priority="408" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18050,6 +18998,18 @@
     <cfRule type="cellIs" priority="3466" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3633" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3634" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3801" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3802" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" priority="410" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18202,6 +19162,18 @@
     <cfRule type="cellIs" priority="3468" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3635" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3636" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3803" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3804" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" priority="416" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18354,6 +19326,18 @@
     <cfRule type="cellIs" priority="3478" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3645" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3646" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3813" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3814" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" priority="418" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18506,6 +19490,18 @@
     <cfRule type="cellIs" priority="3480" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3647" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3648" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3815" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3816" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" priority="424" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18658,6 +19654,18 @@
     <cfRule type="cellIs" priority="3490" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3657" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3658" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3825" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3826" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" priority="603" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18810,6 +19818,18 @@
     <cfRule type="cellIs" priority="3492" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3659" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3660" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3827" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3828" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" priority="400" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18962,6 +19982,18 @@
     <cfRule type="cellIs" priority="3442" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="3609" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3610" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3777" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3778" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
     <cfRule type="cellIs" priority="402" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -19112,6 +20144,18 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="3444" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3611" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3612" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3779" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3780" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22139,7 +23183,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="9" min="2" max="2"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -7121,42 +7121,150 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId216"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7591,7 +7699,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:32</t>
+          <t>20200102 22:19:19</t>
         </is>
       </c>
       <c r="L2" s="51">
@@ -7717,7 +7825,7 @@
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:32</t>
+          <t>20200102 22:19:19</t>
         </is>
       </c>
       <c r="L3" s="51">
@@ -7843,7 +7951,7 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:32</t>
+          <t>20200102 22:19:19</t>
         </is>
       </c>
       <c r="L4" s="51">
@@ -8095,7 +8203,7 @@
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L6" s="51">
@@ -8347,7 +8455,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L8" s="51">
@@ -8479,7 +8587,7 @@
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L9" s="51">
@@ -8616,7 +8724,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L10" s="51">
@@ -8753,7 +8861,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L11" s="51">
@@ -8885,7 +8993,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:20</t>
         </is>
       </c>
       <c r="L12" s="51">
@@ -9011,7 +9119,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:33</t>
+          <t>20200102 22:19:21</t>
         </is>
       </c>
       <c r="L13" s="51">
@@ -9280,7 +9388,7 @@
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:34</t>
+          <t>20200102 22:19:21</t>
         </is>
       </c>
       <c r="L15" s="51">
@@ -9399,7 +9507,7 @@
       <c r="J16" s="12" t="n"/>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:34</t>
+          <t>20200102 22:19:21</t>
         </is>
       </c>
       <c r="L16" s="51">
@@ -9518,7 +9626,7 @@
       <c r="J17" s="12" t="n"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200102 22:10:34</t>
+          <t>20200102 22:19:21</t>
         </is>
       </c>
       <c r="L17" s="51">
@@ -9695,7 +9803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -10899,12 +11007,8 @@
       <c r="Y18" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="Z18" s="0" t="n">
-        <v>5010</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <v>26217</v>
-      </c>
+      <c r="Z18" s="0" t="inlineStr"/>
+      <c r="AA18" s="0" t="inlineStr"/>
       <c r="AB18" s="0" t="inlineStr"/>
       <c r="AC18" s="0" t="inlineStr"/>
       <c r="AD18" s="0" t="inlineStr"/>
@@ -10946,12 +11050,8 @@
       <c r="Y19" s="12" t="n">
         <v>3.79310344827587</v>
       </c>
-      <c r="Z19" s="13" t="n">
-        <v>444.5918755006294</v>
-      </c>
-      <c r="AA19" s="13" t="n">
-        <v>8.874089331349889</v>
-      </c>
+      <c r="Z19" s="13" t="inlineStr"/>
+      <c r="AA19" s="13" t="inlineStr"/>
       <c r="AB19" s="0" t="inlineStr"/>
       <c r="AC19" s="0" t="inlineStr"/>
       <c r="AD19" s="0" t="inlineStr"/>
@@ -11284,9 +11384,21 @@
       <c r="AG25" s="0" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr"/>
-      <c r="B26" s="11" t="inlineStr"/>
-      <c r="C26" s="0" t="inlineStr"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>20191205</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>投资</t>
+        </is>
+      </c>
       <c r="D26" s="0" t="inlineStr"/>
       <c r="E26" s="0" t="inlineStr"/>
       <c r="F26" s="0" t="inlineStr"/>
@@ -11309,8 +11421,16 @@
       <c r="W26" s="0" t="inlineStr"/>
       <c r="X26" s="0" t="inlineStr"/>
       <c r="Y26" s="0" t="inlineStr"/>
-      <c r="Z26" s="0" t="inlineStr"/>
-      <c r="AA26" s="0" t="inlineStr"/>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t>26217</t>
+        </is>
+      </c>
       <c r="AB26" s="0" t="inlineStr"/>
       <c r="AC26" s="0" t="inlineStr"/>
       <c r="AD26" s="0" t="inlineStr"/>
@@ -11319,8 +11439,82 @@
       <c r="AG26" s="0" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="D27" s="51" t="n"/>
-      <c r="E27" s="51" t="n"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>19.1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="51" t="inlineStr"/>
+      <c r="E27" s="51" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" s="12" t="n">
+        <v>444.5918755006294</v>
+      </c>
+      <c r="AA27" s="12" t="n">
+        <v>8.874089331349889</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
@@ -11462,6 +11656,18 @@
     <cfRule type="cellIs" priority="5738" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5901" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5902" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6069" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6070" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2043" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11602,6 +11808,18 @@
     <cfRule type="cellIs" priority="5740" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5903" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5904" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6071" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6072" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2201" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11742,6 +11960,18 @@
     <cfRule type="cellIs" priority="5582" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5749" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5750" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5913" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5914" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="2202" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -11882,6 +12112,18 @@
     <cfRule type="cellIs" priority="5584" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5751" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5752" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5915" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5916" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" priority="1897" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12022,6 +12264,18 @@
     <cfRule type="cellIs" priority="5594" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5761" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5762" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5925" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5926" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="1899" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12162,6 +12416,18 @@
     <cfRule type="cellIs" priority="5596" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5763" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5764" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5927" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5928" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="1909" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12302,6 +12568,18 @@
     <cfRule type="cellIs" priority="5606" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5773" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5774" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5937" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5938" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="1911" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12442,6 +12720,18 @@
     <cfRule type="cellIs" priority="5608" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5775" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5776" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5939" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5940" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="1921" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12582,6 +12872,18 @@
     <cfRule type="cellIs" priority="5618" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5785" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5786" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5949" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5950" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="1923" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12722,6 +13024,18 @@
     <cfRule type="cellIs" priority="5620" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5787" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5788" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5951" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5952" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
     <cfRule type="cellIs" priority="1933" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -12862,6 +13176,18 @@
     <cfRule type="cellIs" priority="5630" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5797" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5798" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5961" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5962" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="1935" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13002,6 +13328,18 @@
     <cfRule type="cellIs" priority="5632" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5799" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5800" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5963" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5964" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="1945" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13142,6 +13480,18 @@
     <cfRule type="cellIs" priority="5642" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5809" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5810" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5973" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5974" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="1947" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13282,6 +13632,18 @@
     <cfRule type="cellIs" priority="5644" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5811" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5812" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5975" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5976" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="1957" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13422,6 +13784,18 @@
     <cfRule type="cellIs" priority="5654" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5821" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5822" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5985" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5986" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
     <cfRule type="cellIs" priority="1959" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13562,6 +13936,18 @@
     <cfRule type="cellIs" priority="5656" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5823" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5824" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5987" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5988" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
     <cfRule type="cellIs" priority="1969" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13702,6 +14088,18 @@
     <cfRule type="cellIs" priority="5666" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5833" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5834" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5997" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5998" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
     <cfRule type="cellIs" priority="1971" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13842,6 +14240,18 @@
     <cfRule type="cellIs" priority="5668" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5835" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5836" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5999" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6000" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
     <cfRule type="cellIs" priority="1981" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -13982,6 +14392,18 @@
     <cfRule type="cellIs" priority="5678" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5845" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5846" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6009" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6010" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
     <cfRule type="cellIs" priority="1983" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14122,6 +14544,18 @@
     <cfRule type="cellIs" priority="5680" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5847" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5848" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6011" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6012" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" priority="1993" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14262,6 +14696,18 @@
     <cfRule type="cellIs" priority="5690" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5857" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5858" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6021" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6022" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="1995" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14402,6 +14848,18 @@
     <cfRule type="cellIs" priority="5692" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5859" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5860" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6023" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6024" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="2005" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14542,6 +15000,18 @@
     <cfRule type="cellIs" priority="5702" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5869" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5870" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6033" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6034" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="2007" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14682,6 +15152,18 @@
     <cfRule type="cellIs" priority="5704" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5871" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5872" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6035" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6036" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="2021" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14822,6 +15304,18 @@
     <cfRule type="cellIs" priority="5718" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5881" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5882" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6049" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6050" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="2023" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -14962,6 +15456,18 @@
     <cfRule type="cellIs" priority="5720" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5883" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5884" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6051" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6052" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="2033" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15102,6 +15608,18 @@
     <cfRule type="cellIs" priority="5730" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5893" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5894" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6061" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6062" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15242,6 +15760,18 @@
     <cfRule type="cellIs" priority="5732" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5895" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5896" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6063" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6064" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15382,6 +15912,18 @@
     <cfRule type="cellIs" priority="5742" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5905" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5906" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6073" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6074" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2047" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15522,6 +16064,18 @@
     <cfRule type="cellIs" priority="5744" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5907" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5908" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6075" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6076" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15662,6 +16216,18 @@
     <cfRule type="cellIs" priority="5586" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5753" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5754" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5917" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5918" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" priority="2204" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15802,6 +16368,18 @@
     <cfRule type="cellIs" priority="5588" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5755" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5756" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5919" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5920" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" priority="1901" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -15942,6 +16520,18 @@
     <cfRule type="cellIs" priority="5598" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5765" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5766" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5929" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5930" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" priority="1903" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16082,6 +16672,18 @@
     <cfRule type="cellIs" priority="5600" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5767" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5768" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5931" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5932" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" priority="1913" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16222,6 +16824,18 @@
     <cfRule type="cellIs" priority="5610" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5777" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5778" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5941" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5942" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" priority="1915" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16362,6 +16976,18 @@
     <cfRule type="cellIs" priority="5612" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5779" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5780" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5943" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5944" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" priority="1925" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16502,6 +17128,18 @@
     <cfRule type="cellIs" priority="5622" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5789" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5790" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5953" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5954" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" priority="1927" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16642,6 +17280,18 @@
     <cfRule type="cellIs" priority="5624" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5791" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5792" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5955" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5956" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="cellIs" priority="1937" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16782,6 +17432,18 @@
     <cfRule type="cellIs" priority="5634" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5801" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5802" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5965" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5966" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
     <cfRule type="cellIs" priority="1939" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16922,6 +17584,18 @@
     <cfRule type="cellIs" priority="5636" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5803" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5804" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5967" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5968" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="cellIs" priority="1949" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17062,6 +17736,18 @@
     <cfRule type="cellIs" priority="5646" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5813" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5814" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5977" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5978" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
     <cfRule type="cellIs" priority="1951" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17202,6 +17888,18 @@
     <cfRule type="cellIs" priority="5648" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5815" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5816" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5979" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5980" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
     <cfRule type="cellIs" priority="1961" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17342,6 +18040,18 @@
     <cfRule type="cellIs" priority="5658" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5825" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5826" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5989" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5990" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
     <cfRule type="cellIs" priority="1963" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17482,6 +18192,18 @@
     <cfRule type="cellIs" priority="5660" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5827" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5828" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5991" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5992" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
     <cfRule type="cellIs" priority="1973" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17622,6 +18344,18 @@
     <cfRule type="cellIs" priority="5670" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5837" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5838" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6001" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6002" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
     <cfRule type="cellIs" priority="1975" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17762,6 +18496,18 @@
     <cfRule type="cellIs" priority="5672" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5839" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5840" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6003" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6004" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
     <cfRule type="cellIs" priority="1985" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17902,6 +18648,18 @@
     <cfRule type="cellIs" priority="5682" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5849" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5850" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6013" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6014" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
     <cfRule type="cellIs" priority="1987" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18042,6 +18800,18 @@
     <cfRule type="cellIs" priority="5684" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5851" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5852" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6015" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6016" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
     <cfRule type="cellIs" priority="1997" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18182,6 +18952,18 @@
     <cfRule type="cellIs" priority="5694" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5861" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5862" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6025" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6026" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
     <cfRule type="cellIs" priority="1999" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18322,6 +19104,18 @@
     <cfRule type="cellIs" priority="5696" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5863" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5864" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6027" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6028" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
     <cfRule type="cellIs" priority="2009" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18462,6 +19256,18 @@
     <cfRule type="cellIs" priority="5706" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5873" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5874" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6037" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6038" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" priority="2011" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18602,6 +19408,18 @@
     <cfRule type="cellIs" priority="5708" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5875" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5876" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6039" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6040" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18742,6 +19560,18 @@
     <cfRule type="cellIs" priority="5722" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5885" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5886" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6053" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6054" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
     <cfRule type="cellIs" priority="2027" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -18882,6 +19712,18 @@
     <cfRule type="cellIs" priority="5724" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5887" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5888" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6055" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6056" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
     <cfRule type="cellIs" priority="2037" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -19022,6 +19864,18 @@
     <cfRule type="cellIs" priority="5734" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5897" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5898" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6065" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6066" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -19162,6 +20016,18 @@
     <cfRule type="cellIs" priority="5736" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5899" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5900" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6067" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6068" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AG7">
     <cfRule type="cellIs" priority="5" operator="lessThan" dxfId="2">
@@ -19416,6 +20282,18 @@
     <cfRule type="cellIs" priority="5710" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5877" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5878" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6041" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6042" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13">
     <cfRule type="cellIs" priority="450" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -19646,6 +20524,18 @@
     <cfRule type="cellIs" priority="5712" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5879" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5880" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6043" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6044" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB13">
     <cfRule type="cellIs" priority="460" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -19876,6 +20766,18 @@
     <cfRule type="cellIs" priority="5726" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5889" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5890" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6057" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6058" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC13">
     <cfRule type="cellIs" priority="528" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -20106,6 +21008,18 @@
     <cfRule type="cellIs" priority="5728" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5891" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5892" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6059" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6060" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" priority="37" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20378,6 +21292,18 @@
     <cfRule type="cellIs" priority="5578" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5745" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5746" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5909" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5910" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
     <cfRule type="cellIs" priority="39" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20650,6 +21576,18 @@
     <cfRule type="cellIs" priority="5580" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5747" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5748" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5911" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5912" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
     <cfRule type="cellIs" priority="29" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20922,6 +21860,18 @@
     <cfRule type="cellIs" priority="5590" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5757" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5758" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5921" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5922" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="cellIs" priority="31" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21194,6 +22144,18 @@
     <cfRule type="cellIs" priority="5592" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5759" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5760" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5923" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5924" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V17">
     <cfRule type="cellIs" priority="497" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21424,6 +22386,18 @@
     <cfRule type="cellIs" priority="5686" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5853" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5854" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6017" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6018" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W17">
     <cfRule type="cellIs" priority="499" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21654,6 +22628,18 @@
     <cfRule type="cellIs" priority="5688" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5855" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5856" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6019" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6020" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
     <cfRule type="cellIs" priority="441" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -21884,6 +22870,18 @@
     <cfRule type="cellIs" priority="5698" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5865" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5866" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6029" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6030" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" priority="442" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22114,6 +23112,18 @@
     <cfRule type="cellIs" priority="5700" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5867" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5868" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6031" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6032" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" priority="452" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22804,6 +23814,18 @@
     <cfRule type="cellIs" priority="5602" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5769" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5770" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5933" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5934" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
     <cfRule type="cellIs" priority="490" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23034,6 +24056,18 @@
     <cfRule type="cellIs" priority="5604" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5771" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5772" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5935" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5936" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
     <cfRule type="cellIs" priority="392" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23264,6 +24298,18 @@
     <cfRule type="cellIs" priority="5614" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5781" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5782" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5945" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5946" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
     <cfRule type="cellIs" priority="394" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23494,6 +24540,18 @@
     <cfRule type="cellIs" priority="5616" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5783" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5784" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5947" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5948" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
     <cfRule type="cellIs" priority="689" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23718,6 +24776,18 @@
     <cfRule type="cellIs" priority="5638" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5805" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5806" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5969" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5970" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
     <cfRule type="cellIs" priority="691" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23942,6 +25012,18 @@
     <cfRule type="cellIs" priority="5640" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5807" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5808" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5971" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5972" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
     <cfRule type="cellIs" priority="408" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -24172,6 +25254,18 @@
     <cfRule type="cellIs" priority="5650" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5817" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5818" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5981" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5982" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
     <cfRule type="cellIs" priority="410" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -24402,6 +25496,18 @@
     <cfRule type="cellIs" priority="5652" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5819" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5820" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5983" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5984" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
     <cfRule type="cellIs" priority="416" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -24632,6 +25738,18 @@
     <cfRule type="cellIs" priority="5662" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5829" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5830" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5993" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5994" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
     <cfRule type="cellIs" priority="418" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -24862,6 +25980,18 @@
     <cfRule type="cellIs" priority="5664" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5831" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5832" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5995" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5996" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
     <cfRule type="cellIs" priority="424" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25092,6 +26222,18 @@
     <cfRule type="cellIs" priority="5674" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5841" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5842" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6005" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6006" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" priority="603" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25322,6 +26464,18 @@
     <cfRule type="cellIs" priority="5676" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5843" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5844" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6007" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6008" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
     <cfRule type="cellIs" priority="400" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25552,6 +26706,18 @@
     <cfRule type="cellIs" priority="5626" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5793" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5794" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5957" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5958" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
     <cfRule type="cellIs" priority="402" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25782,6 +26948,18 @@
     <cfRule type="cellIs" priority="5628" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="5795" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5796" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5959" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5960" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
     <cfRule type="cellIs" priority="86" operator="lessThan" dxfId="2">
@@ -28788,6 +29966,22 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="8" operator="greaterThan" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="cellIs" priority="6045" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6046" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
+    <cfRule type="cellIs" priority="6047" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6048" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -7229,42 +7229,78 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId178"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId179"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId181"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId182"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId183"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId184"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId185"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId186"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId187"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId188"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId189"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId190"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId191"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId192"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId193"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId194"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId195"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId196"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId197"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId198"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId199"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId200"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId201"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId202"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId203"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId204"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId205"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId206"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId207"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId208"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId209"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId210"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId211"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId212"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId213"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId214"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId215"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId252"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9803,7 +9839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -10692,7 +10728,7 @@
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr"/>
@@ -10790,7 +10826,7 @@
       </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D14" s="0" t="n">
@@ -10888,7 +10924,7 @@
       </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr"/>
@@ -11072,7 +11108,7 @@
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr"/>
@@ -11178,7 +11214,7 @@
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr"/>
@@ -11302,7 +11338,7 @@
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr"/>
@@ -11396,7 +11432,7 @@
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>投资</t>
+          <t>已赎回</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr"/>
@@ -11482,9 +11518,21 @@
       <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20200102</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>赎回</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -11516,6 +11564,7 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
     </row>
+    <row r="29"/>
   </sheetData>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="2041" operator="greaterThan" dxfId="6" stopIfTrue="1">

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -575,6 +575,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -582,61 +583,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
@@ -645,13 +646,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyAlignment="1">
@@ -663,10 +664,10 @@
     <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
@@ -675,58 +676,58 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,13 +1381,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV37"/>
+  <dimension ref="A1:CV38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" style="11" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="2" min="2" max="2"/>
@@ -6981,6 +6982,37 @@
       <c r="CU37" s="94" t="n"/>
       <c r="CV37" s="94" t="n"/>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>07301</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O38">
+        <f>(P38-I38)/I38*100</f>
+        <v/>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>20191231</t>
+        </is>
+      </c>
+      <c r="R38">
+        <f>(S38-I38)/I38*100</f>
+        <v/>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>20191225</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
     <cfRule type="cellIs" priority="8" operator="greaterThanOrEqual" dxfId="0">
@@ -7049,258 +7081,42 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId145"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId146"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId147"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId148"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId149"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId150"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId151"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId152"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId153"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId154"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId155"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId156"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId157"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId158"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId159"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId160"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId161"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId162"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId163"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId164"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId165"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId166"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId167"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId168"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId169"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId170"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId171"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId172"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId173"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId174"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId175"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId176"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId177"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId178"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId179"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId180"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId243"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId244"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId245"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId246"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId247"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId248"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId249"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId250"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId251"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId252"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId217"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId218"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId219"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId220"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId221"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId222"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId223"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId224"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId225"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId226"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId227"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId228"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId229"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId230"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId231"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId232"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId233"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId234"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId235"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId236"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId237"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId238"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId239"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId240"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId241"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId242"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId243"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId244"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId245"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId246"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId247"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId248"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId249"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId250"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId251"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7318,7 +7134,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="2" max="2"/>
@@ -9839,13 +9655,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="5" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="11" min="2" max="3"/>
@@ -11475,96 +11291,95 @@
       <c r="AG26" s="0" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>19.1</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" s="0" t="inlineStr"/>
+      <c r="C27" s="0" t="inlineStr"/>
       <c r="D27" s="51" t="inlineStr"/>
       <c r="E27" s="51" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="F27" s="0" t="inlineStr"/>
+      <c r="G27" s="0" t="inlineStr"/>
+      <c r="H27" s="0" t="inlineStr"/>
+      <c r="I27" s="0" t="inlineStr"/>
+      <c r="J27" s="0" t="inlineStr"/>
+      <c r="K27" s="0" t="inlineStr"/>
+      <c r="L27" s="0" t="inlineStr"/>
+      <c r="M27" s="0" t="inlineStr"/>
+      <c r="N27" s="0" t="inlineStr"/>
+      <c r="O27" s="0" t="inlineStr"/>
+      <c r="P27" s="0" t="inlineStr"/>
+      <c r="Q27" s="0" t="inlineStr"/>
+      <c r="R27" s="0" t="inlineStr"/>
+      <c r="S27" s="0" t="inlineStr"/>
+      <c r="T27" s="0" t="inlineStr"/>
+      <c r="U27" s="0" t="inlineStr"/>
+      <c r="V27" s="0" t="inlineStr"/>
+      <c r="W27" s="0" t="inlineStr"/>
+      <c r="X27" s="0" t="inlineStr"/>
+      <c r="Y27" s="0" t="inlineStr"/>
       <c r="Z27" s="12" t="n">
         <v>444.5918755006294</v>
       </c>
       <c r="AA27" s="12" t="n">
         <v>8.874089331349889</v>
       </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
+      <c r="AB27" s="0" t="inlineStr"/>
+      <c r="AC27" s="0" t="inlineStr"/>
+      <c r="AD27" s="0" t="inlineStr"/>
+      <c r="AE27" s="0" t="inlineStr"/>
+      <c r="AF27" s="0" t="inlineStr"/>
+      <c r="AG27" s="0" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="0" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>20200102</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>赎回</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+      <c r="D28" s="0" t="inlineStr"/>
+      <c r="E28" s="0" t="inlineStr"/>
+      <c r="F28" s="0" t="inlineStr"/>
+      <c r="G28" s="0" t="inlineStr"/>
+      <c r="H28" s="0" t="inlineStr"/>
+      <c r="I28" s="0" t="inlineStr"/>
+      <c r="J28" s="0" t="inlineStr"/>
+      <c r="K28" s="0" t="inlineStr"/>
+      <c r="L28" s="0" t="inlineStr"/>
+      <c r="M28" s="0" t="inlineStr"/>
+      <c r="N28" s="0" t="inlineStr"/>
+      <c r="O28" s="0" t="inlineStr"/>
+      <c r="P28" s="0" t="inlineStr"/>
+      <c r="Q28" s="0" t="inlineStr"/>
+      <c r="R28" s="0" t="inlineStr"/>
+      <c r="S28" s="0" t="inlineStr"/>
+      <c r="T28" s="0" t="inlineStr"/>
+      <c r="U28" s="0" t="inlineStr"/>
+      <c r="V28" s="0" t="inlineStr"/>
+      <c r="W28" s="0" t="inlineStr"/>
+      <c r="X28" s="0" t="inlineStr"/>
+      <c r="Y28" s="0" t="inlineStr"/>
+      <c r="Z28" s="0" t="inlineStr"/>
+      <c r="AA28" s="0" t="inlineStr"/>
+      <c r="AB28" s="0" t="inlineStr"/>
+      <c r="AC28" s="0" t="inlineStr"/>
+      <c r="AD28" s="0" t="inlineStr"/>
+      <c r="AE28" s="0" t="inlineStr"/>
+      <c r="AF28" s="0" t="inlineStr"/>
+      <c r="AG28" s="0" t="inlineStr"/>
     </row>
-    <row r="29"/>
   </sheetData>
   <conditionalFormatting sqref="B4">
     <cfRule type="cellIs" priority="2041" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -30050,7 +29865,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="9" min="2" max="2"/>
@@ -30390,22 +30205,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>20200102</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr"/>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr"/>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>元旦降准0.5个百分点，节后第一天跳空大涨。根据之前信息，科技卖残了，很多基在CA签协议时过于乐观，再加上当时有钱，想投出去，追高了不少基。看到今天亏得少点，再加上券商是底部买的，也赚了16%，就打算全部卖出了，以后再找超跌底部的入手。最近看股市，上涨持续性不好。前面有一天，上午上涨，下午暴跌。所以高点的都卖掉，以后只入手超跌底部的。</t>
         </is>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1387,7 +1387,7 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="11" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="2" min="2" max="2"/>
@@ -7081,42 +7081,78 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7134,7 +7170,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="2" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="2" min="2" max="2"/>
@@ -9661,7 +9697,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="5" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="11" min="2" max="3"/>
@@ -29859,13 +29895,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="9" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="9" min="2" max="2"/>
@@ -30222,10 +30258,18 @@
       <c r="G11" s="0" t="inlineStr"/>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>元旦降准0.5个百分点，节后第一天跳空大涨。根据之前信息，科技卖残了，很多基在CA签协议时过于乐观，再加上当时有钱，想投出去，追高了不少基。看到今天亏得少点，再加上券商是底部买的，也赚了16%，就打算全部卖出了，以后再找超跌底部的入手。最近看股市，上涨持续性不好。前面有一天，上午上涨，下午暴跌。所以高点的都卖掉，以后只入手超跌底部的。</t>
+          <t>元旦降准0.5个百分点，节后第一天跳空大涨。根据之前信息，科技卖残了，很多基在CA签协议时过于乐观，再加上当时有钱，想投出去，追高了不少基。
+看到今天亏得少点，再加上券商是底部买的，也赚了16%，就打算全部卖出了，以后再找超跌底部的入手。
+最近看股市，上涨持续性不好。前面有一天，上午上涨，下午暴跌。所以高点的都卖掉，以后只入手超跌底部的。
+事实上确实持续性不好，第二天就跌了。以后跌到更低再买。
+目前看正确的买的策略：绝不追涨；遇到下跌一定程度，可少量投入；跌到底部，把握大可谨慎重仓。
+小帮组合的估值，对于指数投资应该够用。单只基金的估值，暂时还没有好方法，需后续实现。
+多看天天基金网大家分析，事前分析可帮助预判，事后分析可积累经验。
+目前看较好的卖出策略：到高点暴涨就可以卖了。除非等牛市的，那就多等等。建仓在底部的，更有耐心等。</t>
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -7081,78 +7081,150 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId144"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9691,7 +9763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
@@ -11385,36 +11457,201 @@
           <t>赎回</t>
         </is>
       </c>
-      <c r="D28" s="0" t="inlineStr"/>
-      <c r="E28" s="0" t="inlineStr"/>
-      <c r="F28" s="0" t="inlineStr"/>
-      <c r="G28" s="0" t="inlineStr"/>
-      <c r="H28" s="0" t="inlineStr"/>
-      <c r="I28" s="0" t="inlineStr"/>
-      <c r="J28" s="0" t="inlineStr"/>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="n"/>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="n"/>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n"/>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
       <c r="K28" s="0" t="inlineStr"/>
-      <c r="L28" s="0" t="inlineStr"/>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
       <c r="M28" s="0" t="inlineStr"/>
-      <c r="N28" s="0" t="inlineStr"/>
+      <c r="N28" s="0" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
       <c r="O28" s="0" t="inlineStr"/>
-      <c r="P28" s="0" t="inlineStr"/>
+      <c r="P28" s="0" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
       <c r="Q28" s="0" t="inlineStr"/>
-      <c r="R28" s="0" t="inlineStr"/>
+      <c r="R28" s="0" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
       <c r="S28" s="0" t="inlineStr"/>
-      <c r="T28" s="0" t="inlineStr"/>
+      <c r="T28" s="0" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
       <c r="U28" s="0" t="inlineStr"/>
-      <c r="V28" s="0" t="inlineStr"/>
+      <c r="V28" s="0" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
       <c r="W28" s="0" t="inlineStr"/>
       <c r="X28" s="0" t="inlineStr"/>
       <c r="Y28" s="0" t="inlineStr"/>
-      <c r="Z28" s="0" t="inlineStr"/>
+      <c r="Z28" s="0" t="inlineStr">
+        <is>
+          <t>19308</t>
+        </is>
+      </c>
       <c r="AA28" s="0" t="inlineStr"/>
-      <c r="AB28" s="0" t="inlineStr"/>
+      <c r="AB28" s="0" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
       <c r="AC28" s="0" t="inlineStr"/>
       <c r="AD28" s="0" t="inlineStr"/>
       <c r="AE28" s="0" t="inlineStr"/>
       <c r="AF28" s="0" t="inlineStr"/>
       <c r="AG28" s="0" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2031.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1886.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-19.41</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>145.67</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>-34.76</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>-0.55</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-139.32</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>-4.50</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>42.09</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>670.15</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
@@ -29895,7 +30132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -30263,13 +30500,46 @@
 最近看股市，上涨持续性不好。前面有一天，上午上涨，下午暴跌。所以高点的都卖掉，以后只入手超跌底部的。
 事实上确实持续性不好，第二天就跌了。以后跌到更低再买。
 目前看正确的买的策略：绝不追涨；遇到下跌一定程度，可少量投入；跌到底部，把握大可谨慎重仓。
-小帮组合的估值，对于指数投资应该够用。单只基金的估值，暂时还没有好方法，需后续实现。
+小帮组合的估值，对于指数投资应该够用(可参考，但不要投资小帮组合，没跑赢指数)。单只基金的估值，暂时还没有好方法，需后续实现。
 多看天天基金网大家分析，事前分析可帮助预判，事后分析可积累经验。
 目前看较好的卖出策略：到高点暴涨就可以卖了。除非等牛市的，那就多等等。建仓在底部的，更有耐心等。</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20200104</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>场外基金：市场行情好的时候投资，跟踪指数、大盘即可赚钱； 场内基金：市场行情不好，抓短线机会，甚至半天的涨幅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20200104</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>小帮指数组合大幅跑输对应指数。恒生指数按指数算赚1400，实际只赚665。红利按指数算赚1053，实际只赚670.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8555"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="432">
   <si>
     <t>编号</t>
   </si>
@@ -221,7 +221,7 @@
     <t>广发双擎升级混合</t>
   </si>
   <si>
-    <t>1.7918, 1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168</t>
+    <t>1.7731, 1.8277, 1.7781, 1.7731, 1.7648, 1.7345, 1.7271, 1.7655, 1.7526, 1.7547, 1.7879, 1.8626, 1.8315, 1.8729, 1.8561, 1.8759, 1.8876, 1.9322, 1.9036, 1.904, 1.8911, 1.8595, 1.8624, 1.9337, 1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203</t>
   </si>
   <si>
     <t>回撤时买</t>
@@ -230,274 +230,274 @@
     <t>中</t>
   </si>
   <si>
+    <t>2020-01-03</t>
+  </si>
+  <si>
+    <t>20191120</t>
+  </si>
+  <si>
+    <t>诺安成长混合</t>
+  </si>
+  <si>
+    <t>1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253</t>
+  </si>
+  <si>
+    <t>20191021</t>
+  </si>
+  <si>
+    <t>20191119</t>
+  </si>
+  <si>
+    <t>银河创新成长混合</t>
+  </si>
+  <si>
+    <t>3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386</t>
+  </si>
+  <si>
+    <t>20191018</t>
+  </si>
+  <si>
+    <t>003745</t>
+  </si>
+  <si>
+    <t>广发多元新兴股票</t>
+  </si>
+  <si>
+    <t>1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822</t>
+  </si>
+  <si>
+    <t>银华内需精选混合(LOF)</t>
+  </si>
+  <si>
+    <t>1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243</t>
+  </si>
+  <si>
+    <t>有机会</t>
+  </si>
+  <si>
+    <t>20191016</t>
+  </si>
+  <si>
+    <t>华宝中证医疗指数分级</t>
+  </si>
+  <si>
+    <t>中证医疗指数</t>
+  </si>
+  <si>
+    <t>1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981</t>
+  </si>
+  <si>
+    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
+  </si>
+  <si>
+    <t>20191024</t>
+  </si>
+  <si>
+    <t>006113</t>
+  </si>
+  <si>
+    <t>汇添富创新医药混合</t>
+  </si>
+  <si>
+    <t>1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803</t>
+  </si>
+  <si>
+    <t>1808成立</t>
+  </si>
+  <si>
+    <t>001480</t>
+  </si>
+  <si>
+    <t>财通成长优选混合</t>
+  </si>
+  <si>
+    <t>1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313</t>
+  </si>
+  <si>
+    <t>最近涨了不少</t>
+  </si>
+  <si>
+    <t>20191008</t>
+  </si>
+  <si>
+    <t>20191114</t>
+  </si>
+  <si>
+    <t>006879</t>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+  </si>
+  <si>
+    <t>1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935</t>
+  </si>
+  <si>
+    <t>1905成立</t>
+  </si>
+  <si>
+    <t>20191023</t>
+  </si>
+  <si>
+    <t>007873</t>
+  </si>
+  <si>
+    <t>华宝科技ETF联接A</t>
+  </si>
+  <si>
+    <t>1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289</t>
+  </si>
+  <si>
+    <t>1908成立</t>
+  </si>
+  <si>
+    <t>007490</t>
+  </si>
+  <si>
+    <t>南方信息创新混合A</t>
+  </si>
+  <si>
+    <t>1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548</t>
+  </si>
+  <si>
+    <t>1906成立</t>
+  </si>
+  <si>
+    <t>050026</t>
+  </si>
+  <si>
+    <t>博时医疗保健行业混合A</t>
+  </si>
+  <si>
+    <t>2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288</t>
+  </si>
+  <si>
+    <t>易方达中小盘混合</t>
+  </si>
+  <si>
+    <t>5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767</t>
+  </si>
+  <si>
+    <t>11月大幅下降，是因为分红,盘子太大</t>
+  </si>
+  <si>
+    <t>招商中证白酒指数分级</t>
+  </si>
+  <si>
+    <t>中证白酒指数</t>
+  </si>
+  <si>
+    <t>0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857</t>
+  </si>
+  <si>
+    <t>当前估值太高，近三月表现不佳</t>
+  </si>
+  <si>
+    <t>003096</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+  </si>
+  <si>
+    <t>1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715</t>
+  </si>
+  <si>
+    <t>回撤时可买少量</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>004851</t>
+  </si>
+  <si>
+    <t>广发医疗保健股票</t>
+  </si>
+  <si>
+    <t>1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944</t>
+  </si>
+  <si>
+    <t>似乎回撤结束</t>
+  </si>
+  <si>
+    <t>000913</t>
+  </si>
+  <si>
+    <t>农银医疗保健股票</t>
+  </si>
+  <si>
+    <t>1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547</t>
+  </si>
+  <si>
+    <t>似乎回撤结束，盈利空间太小</t>
+  </si>
+  <si>
+    <t>招商中证银行指数分级</t>
+  </si>
+  <si>
+    <t>1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458</t>
+  </si>
+  <si>
+    <t>盈利空间太小</t>
+  </si>
+  <si>
+    <t>20191030</t>
+  </si>
+  <si>
+    <t>20191106</t>
+  </si>
+  <si>
+    <t>001071</t>
+  </si>
+  <si>
+    <t>华安媒体互联网混合</t>
+  </si>
+  <si>
+    <t>1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111</t>
+  </si>
+  <si>
+    <t>在高点</t>
+  </si>
+  <si>
+    <t>20191111</t>
+  </si>
+  <si>
+    <t>004070</t>
+  </si>
+  <si>
+    <t>南方中证全指证券ETF联接C</t>
+  </si>
+  <si>
+    <t>0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382</t>
+  </si>
+  <si>
+    <t>20190815</t>
+  </si>
+  <si>
+    <t>20190911</t>
+  </si>
+  <si>
+    <t>040046</t>
+  </si>
+  <si>
+    <t>华安纳斯达克100指数</t>
+  </si>
+  <si>
+    <t>宽基</t>
+  </si>
+  <si>
+    <t>2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744</t>
+  </si>
+  <si>
     <t>2020-01-02</t>
   </si>
   <si>
-    <t>20191120</t>
-  </si>
-  <si>
-    <t>诺安成长混合</t>
-  </si>
-  <si>
-    <t>1.035, 1.025, 1.061, 1.03, 1.025, 1.03, 1.005, 1.002, 1.036, 1.025, 1.018, 1.038, 1.074, 1.041, 1.064, 1.052, 1.06, 1.084, 1.115, 1.086, 1.097, 1.098, 1.085, 1.079, 1.124, 1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275</t>
-  </si>
-  <si>
-    <t>20191021</t>
-  </si>
-  <si>
-    <t>20191119</t>
-  </si>
-  <si>
-    <t>银河创新成长混合</t>
-  </si>
-  <si>
-    <t>3.4228, 3.4194, 3.5025, 3.3978, 3.3724, 3.3904, 3.334, 3.3356, 3.3854, 3.3688, 3.3669, 3.4188, 3.555, 3.4803, 3.5051, 3.4625, 3.4908, 3.5675, 3.6056, 3.5585, 3.584, 3.5713, 3.5102, 3.5084, 3.6217, 3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087</t>
-  </si>
-  <si>
-    <t>20191018</t>
-  </si>
-  <si>
-    <t>003745</t>
-  </si>
-  <si>
-    <t>广发多元新兴股票</t>
-  </si>
-  <si>
-    <t>1.2833, 1.2724, 1.3067, 1.2737, 1.2731, 1.2696, 1.2509, 1.241, 1.2665, 1.2558, 1.2579, 1.2828, 1.3344, 1.3146, 1.3463, 1.34, 1.352, 1.3625, 1.3922, 1.3719, 1.371, 1.3601, 1.3337, 1.3356, 1.3835, 1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592</t>
-  </si>
-  <si>
-    <t>银华内需精选混合(LOF)</t>
-  </si>
-  <si>
-    <t>1.957, 1.94, 1.978, 1.95, 1.934, 1.943, 1.932, 1.967, 2.002, 2.01, 2.044, 2.104, 2.156, 2.171, 2.179, 2.13, 2.151, 2.171, 2.184, 2.124, 2.163, 2.135, 2.102, 2.092, 2.12, 2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251</t>
-  </si>
-  <si>
-    <t>有机会</t>
-  </si>
-  <si>
-    <t>20191016</t>
-  </si>
-  <si>
-    <t>华宝中证医疗指数分级</t>
-  </si>
-  <si>
-    <t>中证医疗指数</t>
-  </si>
-  <si>
-    <t>1.1078, 1.1109, 1.1181, 1.1132, 1.1261, 1.127, 1.1309, 1.1063, 1.1167, 1.0946, 1.0893, 1.0981, 1.1232, 1.1289, 1.128, 1.1275, 1.1499, 1.1756, 1.1739, 1.169, 1.1814, 1.1736, 1.1441, 1.1517, 1.1767, 1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038</t>
-  </si>
-  <si>
-    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
-  </si>
-  <si>
-    <t>20191024</t>
-  </si>
-  <si>
-    <t>006113</t>
-  </si>
-  <si>
-    <t>汇添富创新医药混合</t>
-  </si>
-  <si>
-    <t>1.5779, 1.5846, 1.5823, 1.5829, 1.6002, 1.6094, 1.6023, 1.5731, 1.5923, 1.5608, 1.5551, 1.573, 1.597, 1.6129, 1.6078, 1.6165, 1.6351, 1.6679, 1.6647, 1.649, 1.6615, 1.6545, 1.6223, 1.6311, 1.6683, 1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973</t>
-  </si>
-  <si>
-    <t>1808成立</t>
-  </si>
-  <si>
-    <t>001480</t>
-  </si>
-  <si>
-    <t>财通成长优选混合</t>
-  </si>
-  <si>
-    <t>1.217, 1.226, 1.25, 1.213, 1.203, 1.218, 1.193, 1.19, 1.207, 1.209, 1.209, 1.227, 1.248, 1.222, 1.22, 1.201, 1.21, 1.235, 1.241, 1.226, 1.219, 1.226, 1.205, 1.2, 1.212, 1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3</t>
-  </si>
-  <si>
-    <t>最近涨了不少</t>
-  </si>
-  <si>
-    <t>20191008</t>
-  </si>
-  <si>
-    <t>20191114</t>
-  </si>
-  <si>
-    <t>006879</t>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-  </si>
-  <si>
-    <t>1.3906, 1.3765, 1.4117, 1.3898, 1.3783, 1.3865, 1.3575, 1.3584, 1.3793, 1.3574, 1.358, 1.3758, 1.4091, 1.3827, 1.3956, 1.3875, 1.399, 1.4315, 1.4668, 1.4605, 1.4545, 1.4575, 1.4321, 1.432, 1.4478, 1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645</t>
-  </si>
-  <si>
-    <t>1905成立</t>
-  </si>
-  <si>
-    <t>20191023</t>
-  </si>
-  <si>
-    <t>007873</t>
-  </si>
-  <si>
-    <t>华宝科技ETF联接A</t>
-  </si>
-  <si>
-    <t>1.015, 1.0125, 1.0267, 1.0073, 1.0108, 1.0164, 1.0012, 1.0004, 1.0153, 1.0097, 1.0093, 1.0291, 1.0624, 1.0455, 1.041, 1.0311, 1.0455, 1.0519, 1.0628, 1.0541, 1.0592, 1.0645, 1.0454, 1.0449, 1.0618, 1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274</t>
-  </si>
-  <si>
-    <t>1908成立</t>
-  </si>
-  <si>
-    <t>007490</t>
-  </si>
-  <si>
-    <t>南方信息创新混合A</t>
-  </si>
-  <si>
-    <t>1.2495, 1.2522, 1.2847, 1.249, 1.2385, 1.2458, 1.2218, 1.222, 1.2521, 1.2409, 1.2433, 1.2615, 1.2932, 1.2744, 1.2882, 1.2716, 1.281, 1.3119, 1.3204, 1.3022, 1.3179, 1.3273, 1.3155, 1.2942, 1.32, 1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544</t>
-  </si>
-  <si>
-    <t>1906成立</t>
-  </si>
-  <si>
-    <t>050026</t>
-  </si>
-  <si>
-    <t>博时医疗保健行业混合A</t>
-  </si>
-  <si>
-    <t>2.295, 2.297, 2.302, 2.287, 2.309, 2.322, 2.312, 2.263, 2.295, 2.248, 2.232, 2.249, 2.276, 2.287, 2.268, 2.291, 2.325, 2.368, 2.371, 2.364, 2.366, 2.36, 2.311, 2.321, 2.365, 2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289</t>
-  </si>
-  <si>
-    <t>易方达中小盘混合</t>
-  </si>
-  <si>
-    <t>5.3328, 5.3538, 5.3447, 5.3919, 5.3639, 5.3725, 5.3144, 5.2869, 5.3027, 5.25, 5.184, 5.2546, 5.3053, 5.2848, 5.2823, 5.3217, 5.4348, 5.4667, 5.4931, 5.4546, 5.4822, 5.4775, 5.4148, 5.4479, 5.5077, 5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348</t>
-  </si>
-  <si>
-    <t>11月大幅下降，是因为分红,盘子太大</t>
-  </si>
-  <si>
-    <t>招商中证白酒指数分级</t>
-  </si>
-  <si>
-    <t>中证白酒指数</t>
-  </si>
-  <si>
-    <t>0.9912, 0.996, 0.9975, 1.0136, 0.9947, 0.9961, 0.9775, 0.9794, 0.9833, 0.9666, 0.9507, 0.966, 0.9848, 0.9922, 0.9837, 0.9833, 0.9949, 1.0021, 1.0043, 0.9933, 1.0012, 1.005, 0.9951, 0.9986, 1.0052, 1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966</t>
-  </si>
-  <si>
-    <t>当前估值太高，近三月表现不佳</t>
-  </si>
-  <si>
-    <t>003096</t>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C</t>
-  </si>
-  <si>
-    <t>1.714, 1.72, 1.72, 1.721, 1.755, 1.758, 1.754, 1.713, 1.735, 1.704, 1.703, 1.721, 1.749, 1.768, 1.757, 1.78, 1.812, 1.837, 1.827, 1.817, 1.831, 1.819, 1.781, 1.799, 1.851, 1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727</t>
-  </si>
-  <si>
-    <t>回撤时可买少量</t>
-  </si>
-  <si>
-    <t>少</t>
-  </si>
-  <si>
-    <t>004851</t>
-  </si>
-  <si>
-    <t>广发医疗保健股票</t>
-  </si>
-  <si>
-    <t>1.6789, 1.6755, 1.6676, 1.6716, 1.6987, 1.7081, 1.6985, 1.6583, 1.6844, 1.6512, 1.6489, 1.6607, 1.688, 1.7025, 1.6931, 1.7067, 1.74, 1.7799, 1.7801, 1.7673, 1.7788, 1.7738, 1.7396, 1.761, 1.816, 1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031</t>
-  </si>
-  <si>
-    <t>似乎回撤结束</t>
-  </si>
-  <si>
-    <t>000913</t>
-  </si>
-  <si>
-    <t>农银医疗保健股票</t>
-  </si>
-  <si>
-    <t>1.5456, 1.5432, 1.5609, 1.5594, 1.5721, 1.5852, 1.5856, 1.5427, 1.5653, 1.5303, 1.525, 1.5441, 1.5722, 1.5823, 1.5692, 1.5759, 1.6029, 1.6409, 1.6355, 1.6223, 1.6337, 1.6306, 1.5935, 1.6014, 1.6479, 1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706</t>
-  </si>
-  <si>
-    <t>似乎回撤结束，盈利空间太小</t>
-  </si>
-  <si>
-    <t>招商中证银行指数分级</t>
-  </si>
-  <si>
-    <t>1.0939, 1.1145, 1.1356, 1.1374, 1.1331, 1.1309, 1.1145, 1.1269, 1.1235, 1.1234, 1.135, 1.1325, 1.1263, 1.1239, 1.1205, 1.115, 1.137, 1.1428, 1.1555, 1.16, 1.1572, 1.1441, 1.1276, 1.1295, 1.125, 1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143</t>
-  </si>
-  <si>
-    <t>盈利空间太小</t>
-  </si>
-  <si>
-    <t>20191030</t>
-  </si>
-  <si>
-    <t>20191106</t>
-  </si>
-  <si>
-    <t>001071</t>
-  </si>
-  <si>
-    <t>华安媒体互联网混合</t>
-  </si>
-  <si>
-    <t>1.712, 1.696, 1.738, 1.709, 1.693, 1.705, 1.667, 1.67, 1.696, 1.672, 1.672, 1.696, 1.74, 1.708, 1.726, 1.714, 1.727, 1.769, 1.815, 1.806, 1.798, 1.805, 1.773, 1.772, 1.794, 1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072</t>
-  </si>
-  <si>
-    <t>在高点</t>
-  </si>
-  <si>
-    <t>20191111</t>
-  </si>
-  <si>
-    <t>004070</t>
-  </si>
-  <si>
-    <t>南方中证全指证券ETF联接C</t>
-  </si>
-  <si>
-    <t>0.9402, 0.9568, 0.97, 0.9579, 0.9539, 0.9493, 0.9292, 0.9211, 0.9264, 0.9195, 0.9231, 0.9332, 0.9464, 0.9271, 0.9196, 0.9188, 0.9306, 0.9317, 0.9438, 0.9337, 0.9381, 0.926, 0.9094, 0.912, 0.9031, 0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395</t>
-  </si>
-  <si>
-    <t>20190815</t>
-  </si>
-  <si>
-    <t>20190911</t>
-  </si>
-  <si>
-    <t>040046</t>
-  </si>
-  <si>
-    <t>华安纳斯达克100指数</t>
-  </si>
-  <si>
-    <t>宽基</t>
-  </si>
-  <si>
-    <t>2.433, 2.448, 2.478, 2.478, 2.507, 2.501, 2.509, 2.484, 2.504, 2.484, 2.492, 2.514, 2.534, 2.559, 2.535, 2.545, 2.543, 2.562, 2.575, 2.575, 2.56, 2.565, 2.574, 2.569, 2.577, 2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709</t>
-  </si>
-  <si>
-    <t>2019-12-31</t>
-  </si>
-  <si>
     <t>20191128</t>
   </si>
   <si>
     <t>国泰中证申万证券行业指数</t>
   </si>
   <si>
-    <t>1.0052, 1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178</t>
+    <t>1.0223, 1.0357, 1.0238, 1.0195, 1.0145, 0.9935, 0.9859, 0.9922, 0.9851, 0.9887, 0.9991, 1.0128, 0.993, 0.9851, 0.9844, 0.9967, 0.998, 1.0107, 1.0009, 1.0061, 0.9936, 0.9758, 0.9783, 0.9692, 0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158</t>
   </si>
   <si>
     <t>20190807</t>
@@ -512,7 +512,7 @@
     <t>交银成长30混合</t>
   </si>
   <si>
-    <t>1.447, 1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642</t>
+    <t>1.453, 1.48, 1.46, 1.455, 1.462, 1.445, 1.434, 1.453, 1.451, 1.446, 1.461, 1.48, 1.462, 1.472, 1.459, 1.471, 1.478, 1.507, 1.499, 1.496, 1.5, 1.484, 1.476, 1.493, 1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634</t>
   </si>
   <si>
     <t>20191212</t>
@@ -527,7 +527,7 @@
     <t>广发创新升级混合</t>
   </si>
   <si>
-    <t>1.5389, 1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824</t>
+    <t>1.5212, 1.5669, 1.5168, 1.5139, 1.512, 1.4846, 1.4766, 1.5102, 1.4969, 1.497, 1.527, 1.5874, 1.5655, 1.604, 1.5944, 1.6101, 1.6228, 1.658, 1.6312, 1.6324, 1.6231, 1.5916, 1.5963, 1.6583, 1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705</t>
   </si>
   <si>
     <t>20191211</t>
@@ -539,7 +539,7 @@
     <t>信达澳银新能源产业股票</t>
   </si>
   <si>
-    <t>1.952, 1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383</t>
+    <t>1.951, 1.994, 1.936, 1.925, 1.921, 1.89, 1.879, 1.92, 1.909, 1.903, 1.927, 1.998, 1.957, 1.96, 1.941, 1.958, 1.979, 2.008, 1.992, 1.996, 1.996, 1.956, 1.943, 1.974, 2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398</t>
   </si>
   <si>
     <t>20191218</t>
@@ -551,7 +551,7 @@
     <t>南方希元转债</t>
   </si>
   <si>
-    <t>1.0994, 1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174</t>
+    <t>1.105, 1.1203, 1.1085, 1.1034, 1.1041, 1.0951, 1.0889, 1.0994, 1.0919, 1.0919, 1.1021, 1.1159, 1.1109, 1.1038, 1.0988, 1.1096, 1.1193, 1.1325, 1.1287, 1.1288, 1.1281, 1.1161, 1.1134, 1.1185, 1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225</t>
   </si>
   <si>
     <t>20191129</t>
@@ -563,7 +563,7 @@
     <t>招商中证全指证券公司分级B</t>
   </si>
   <si>
-    <t>1.0352, 1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283</t>
+    <t>1.0715, 1.0999, 1.0738, 1.0646, 1.0545, 1.01, 0.9912, 1.0029, 0.9874, 0.9953, 1.0175, 1.0462, 1.0036, 0.9869, 0.985, 1.0107, 1.0127, 1.0392, 1.0175, 1.0271, 1.0006, 0.9632, 0.9687, 0.949, 0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258</t>
   </si>
   <si>
     <t>161028</t>
@@ -572,7 +572,7 @@
     <t>富国中证新能源汽车指数分级</t>
   </si>
   <si>
-    <t>0.985, 0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219</t>
+    <t>0.971, 0.984, 0.967, 0.961, 0.954, 0.946, 0.941, 0.951, 0.942, 0.947, 0.956, 0.972, 0.966, 0.969, 0.968, 0.976, 0.98, 1.006, 1.02, 1.013, 1.007, 0.99, 0.994, 0.996, 1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231</t>
   </si>
   <si>
     <t/>
@@ -584,7 +584,7 @@
     <t>易方达上证50指数A</t>
   </si>
   <si>
-    <t>1.7823, 1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266</t>
+    <t>1.8018, 1.8127, 1.8165, 1.8116, 1.814, 1.7913, 1.7937, 1.7938, 1.7787, 1.7791, 1.7916, 1.8, 1.8027, 1.7847, 1.7984, 1.8323, 1.8423, 1.8501, 1.8439, 1.845, 1.8371, 1.8083, 1.8142, 1.8209, 1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226</t>
   </si>
   <si>
     <t>270042</t>
@@ -593,7 +593,7 @@
     <t>广发纳斯达克100指数A</t>
   </si>
   <si>
-    <t>2.4582, 2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479</t>
+    <t>2.4741, 2.5064, 2.5055, 2.536, 2.5308, 2.5388, 2.5123, 2.5343, 2.5136, 2.5215, 2.5429, 2.5648, 2.5899, 2.5652, 2.5757, 2.5741, 2.5953, 2.609, 2.6087, 2.594, 2.5994, 2.6089, 2.6041, 2.6131, 2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864</t>
   </si>
   <si>
     <t>519005</t>
@@ -602,7 +602,7 @@
     <t>海富通股票混合</t>
   </si>
   <si>
-    <t>0.817, 0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976</t>
+    <t>0.818, 0.835, 0.803, 0.799, 0.805, 0.785, 0.782, 0.798, 0.79, 0.784, 0.8, 0.823, 0.8, 0.818, 0.808, 0.82, 0.841, 0.857, 0.842, 0.838, 0.833, 0.825, 0.824, 0.853, 0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965</t>
   </si>
   <si>
     <t>20191125</t>
@@ -614,7 +614,7 @@
     <t>广发小盘成长混合(LOF)</t>
   </si>
   <si>
-    <t>1.7313, 1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743</t>
+    <t>1.7223, 1.7653, 1.716, 1.716, 1.7154, 1.6895, 1.6734, 1.7015, 1.6838, 1.6905, 1.7143, 1.7709, 1.7528, 1.7942, 1.7859, 1.8026, 1.8127, 1.8527, 1.8219, 1.8148, 1.8043, 1.7661, 1.7752, 1.8322, 1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578</t>
   </si>
   <si>
     <t>007300</t>
@@ -623,7 +623,7 @@
     <t>国联安中证半导体ETF联接A</t>
   </si>
   <si>
-    <t>1.2367, 1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891</t>
+    <t>1.2157, 1.2507, 1.2108, 1.198, 1.1956, 1.1703, 1.1715, 1.1939, 1.1839, 1.1757, 1.1933, 1.2303, 1.2011, 1.2279, 1.2212, 1.232, 1.2457, 1.2587, 1.2255, 1.2326, 1.2423, 1.2104, 1.2034, 1.2481, 1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487</t>
   </si>
   <si>
     <t>161613</t>
@@ -632,7 +632,7 @@
     <t>融通创业板指数A</t>
   </si>
   <si>
-    <t>0.807, 0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885</t>
+    <t>0.807, 0.813, 0.805, 0.803, 0.804, 0.799, 0.797, 0.808, 0.8, 0.802, 0.812, 0.824, 0.816, 0.816, 0.81, 0.818, 0.824, 0.83, 0.826, 0.831, 0.829, 0.812, 0.811, 0.817, 0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885</t>
   </si>
   <si>
     <t>161128</t>
@@ -641,7 +641,7 @@
     <t>易标普信息科技人民币</t>
   </si>
   <si>
-    <t>1.6342, 1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375</t>
+    <t>1.644, 1.6671, 1.6653, 1.6822, 1.6718, 1.669, 1.6524, 1.6686, 1.6467, 1.6505, 1.673, 1.6923, 1.7127, 1.6944, 1.7035, 1.7004, 1.7179, 1.7254, 1.7231, 1.716, 1.7262, 1.7343, 1.7348, 1.7407, 1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636</t>
   </si>
   <si>
     <t>161033</t>
@@ -650,13 +650,16 @@
     <t>富国中证智能汽车(LOF)</t>
   </si>
   <si>
-    <t>1.071, 1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262</t>
+    <t>1.066, 1.092, 1.06, 1.054, 1.063, 1.052, 1.05, 1.069, 1.062, 1.061, 1.08, 1.101, 1.088, 1.094, 1.086, 1.092, 1.111, 1.123, 1.118, 1.118, 1.12, 1.102, 1.101, 1.116, 1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262</t>
   </si>
   <si>
     <t>007301</t>
   </si>
   <si>
-    <t>10</t>
+    <t>国联安中证半导体ETF联接C</t>
+  </si>
+  <si>
+    <t>1.2124, 1.2472, 1.2074, 1.1946, 1.1921, 1.1669, 1.168, 1.1904, 1.1804, 1.1722, 1.1898, 1.2266, 1.1974, 1.2241, 1.2174, 1.2281, 1.2417, 1.2547, 1.2216, 1.2286, 1.2382, 1.2064, 1.1994, 1.2439, 1.2768, 1.2664, 1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815</t>
   </si>
   <si>
     <t>20191231</t>
@@ -665,6 +668,9 @@
     <t>20191225</t>
   </si>
   <si>
+    <t>恒生指数(人民币，建行可买)</t>
+  </si>
+  <si>
     <t xml:space="preserve">香港指数基金，建行可买，完全跟踪恒生指数   </t>
   </si>
   <si>
@@ -764,7 +770,7 @@
     <t>参考</t>
   </si>
   <si>
-    <t>20200102 22:19:19</t>
+    <t>20200104 14:23:45</t>
   </si>
   <si>
     <t>000016.SH</t>
@@ -779,199 +785,208 @@
     <t>沪深300</t>
   </si>
   <si>
+    <t>20200104 14:23:46</t>
+  </si>
+  <si>
     <t>000922.CSI</t>
   </si>
   <si>
     <t xml:space="preserve">中证红利 </t>
   </si>
   <si>
+    <t>20200103</t>
+  </si>
+  <si>
+    <t>000905.SH</t>
+  </si>
+  <si>
+    <t>中证500</t>
+  </si>
+  <si>
+    <t>000942.CSI</t>
+  </si>
+  <si>
+    <t>内地消费</t>
+  </si>
+  <si>
+    <t>000932.SH</t>
+  </si>
+  <si>
+    <t>中证主要消费</t>
+  </si>
+  <si>
+    <t>20200104 14:23:47</t>
+  </si>
+  <si>
+    <t>000991.SH</t>
+  </si>
+  <si>
+    <t>全指医药卫生</t>
+  </si>
+  <si>
+    <t>000913.SH</t>
+  </si>
+  <si>
+    <t>沪深300医药</t>
+  </si>
+  <si>
+    <t>类全指医药</t>
+  </si>
+  <si>
+    <t>399975.SZ</t>
+  </si>
+  <si>
+    <t>证券公司指数</t>
+  </si>
+  <si>
+    <t>招商中证银行，据说银行类涨势差</t>
+  </si>
+  <si>
+    <t>399006.SZ</t>
+  </si>
+  <si>
+    <t>创业版指</t>
+  </si>
+  <si>
+    <t>20200104 14:23:48</t>
+  </si>
+  <si>
+    <t>399986.CSI</t>
+  </si>
+  <si>
+    <t>中证银行</t>
+  </si>
+  <si>
+    <t>399989.CSI</t>
+  </si>
+  <si>
+    <t>中证医疗</t>
+  </si>
+  <si>
+    <t>华宝中证医疗指数分级(162412)</t>
+  </si>
+  <si>
+    <t>000170.SH</t>
+  </si>
+  <si>
+    <t>50AH优选</t>
+  </si>
+  <si>
+    <t>100.HSI</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>20200104 14:23:49</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>纳斯达克100</t>
+  </si>
+  <si>
+    <t>投资日期</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>总投资</t>
+  </si>
+  <si>
+    <t>161810</t>
+  </si>
+  <si>
+    <t>320007</t>
+  </si>
+  <si>
+    <t>恒生指数组合</t>
+  </si>
+  <si>
+    <t>红利指数组合</t>
+  </si>
+  <si>
+    <t>沪深300指数组合</t>
+  </si>
+  <si>
+    <t>睿定投</t>
+  </si>
+  <si>
+    <t>已赎回</t>
+  </si>
+  <si>
+    <t>赎回</t>
+  </si>
+  <si>
+    <t>20191118</t>
+  </si>
+  <si>
+    <t>20191204</t>
+  </si>
+  <si>
+    <t>20191205</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20191216</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20191219</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>5010</t>
+  </si>
+  <si>
+    <t>26217</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>20200102</t>
-  </si>
-  <si>
-    <t>000905.SH</t>
-  </si>
-  <si>
-    <t>中证500</t>
-  </si>
-  <si>
-    <t>20200102 22:19:20</t>
-  </si>
-  <si>
-    <t>000942.CSI</t>
-  </si>
-  <si>
-    <t>内地消费</t>
-  </si>
-  <si>
-    <t>000932.SH</t>
-  </si>
-  <si>
-    <t>中证主要消费</t>
-  </si>
-  <si>
-    <t>000991.SH</t>
-  </si>
-  <si>
-    <t>全指医药卫生</t>
-  </si>
-  <si>
-    <t>000913.SH</t>
-  </si>
-  <si>
-    <t>沪深300医药</t>
-  </si>
-  <si>
-    <t>类全指医药</t>
-  </si>
-  <si>
-    <t>399975.SZ</t>
-  </si>
-  <si>
-    <t>证券公司指数</t>
-  </si>
-  <si>
-    <t>招商中证银行，据说银行类涨势差</t>
-  </si>
-  <si>
-    <t>399006.SZ</t>
-  </si>
-  <si>
-    <t>创业版指</t>
-  </si>
-  <si>
-    <t>399986.CSI</t>
-  </si>
-  <si>
-    <t>中证银行</t>
-  </si>
-  <si>
-    <t>20200102 22:19:21</t>
-  </si>
-  <si>
-    <t>399989.CSI</t>
-  </si>
-  <si>
-    <t>中证医疗</t>
-  </si>
-  <si>
-    <t>华宝中证医疗指数分级(162412)</t>
-  </si>
-  <si>
-    <t>000170.SH</t>
-  </si>
-  <si>
-    <t>50AH优选</t>
-  </si>
-  <si>
-    <t>100.HSI</t>
-  </si>
-  <si>
-    <t>恒生指数</t>
-  </si>
-  <si>
-    <t>NDX</t>
-  </si>
-  <si>
-    <t>纳斯达克100</t>
-  </si>
-  <si>
-    <t>投资日期</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>基金</t>
-  </si>
-  <si>
-    <t>指数</t>
-  </si>
-  <si>
-    <t>总投资</t>
-  </si>
-  <si>
-    <t>161810</t>
-  </si>
-  <si>
-    <t>320007</t>
-  </si>
-  <si>
-    <t>恒生指数组合</t>
-  </si>
-  <si>
-    <t>红利指数组合</t>
-  </si>
-  <si>
-    <t>沪深300指数组合</t>
-  </si>
-  <si>
-    <t>睿定投</t>
-  </si>
-  <si>
-    <t>已赎回</t>
-  </si>
-  <si>
-    <t>赎回</t>
-  </si>
-  <si>
-    <t>20191118</t>
-  </si>
-  <si>
-    <t>20191204</t>
-  </si>
-  <si>
-    <t>20191205</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20191216</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20191219</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>26217</t>
-  </si>
-  <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>26</t>
   </si>
   <si>
     <t>赎回(86308)</t>
@@ -1154,6 +1169,9 @@
   </si>
   <si>
     <t>前期科技涨太多，又到年底，已经赚钱的有兑现需求，所以股票马上会跌。</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>元旦降准0.5个百分点，节后第一天跳空大涨。根据之前信息，科技卖残了，很多基在CA签协议时过于乐观，再加上当时有钱，想投出去，追高了不少基。
@@ -1321,12 +1339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="23">
@@ -1362,9 +1380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,6 +1394,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1386,7 +1450,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1408,28 +1495,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1445,57 +1510,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1538,7 +1556,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,13 +1646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,19 +1676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,13 +1700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,55 +1718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,55 +1736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,41 +1761,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1814,9 +1797,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,15 +1862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1852,10 +1870,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
@@ -1864,7 +1882,7 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
@@ -1873,124 +1891,124 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2522,10 +2540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CK39"/>
+  <dimension ref="A1:CV39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2779,7 +2797,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" ht="15.15" customHeight="1" spans="1:89">
+    <row r="2" ht="15.15" customHeight="1" spans="1:100">
       <c r="A2" s="32" t="s">
         <v>65</v>
       </c>
@@ -2799,26 +2817,26 @@
         <v>115</v>
       </c>
       <c r="I2" s="3">
-        <v>2.2168</v>
+        <v>2.203</v>
       </c>
       <c r="J2" s="27">
-        <v>1.72540381791484</v>
+        <v>-0.62251894622881</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>2.10492377136014</v>
+        <v>-0.62251894622881</v>
       </c>
       <c r="M2">
-        <v>2.2168</v>
+        <v>2.203</v>
       </c>
       <c r="N2" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O2" s="27">
         <f t="shared" ref="O2:O13" si="0">(P2-I2)/I2*100</f>
-        <v>-22.0904005774089</v>
+        <v>-21.6023604176123</v>
       </c>
       <c r="P2" s="3">
         <v>1.7271</v>
@@ -2828,7 +2846,7 @@
       </c>
       <c r="R2" s="27">
         <f t="shared" ref="R2:R13" si="1">(S2-I2)/I2*100</f>
-        <v>-9.05810176831469</v>
+        <v>-8.48842487517022</v>
       </c>
       <c r="S2" s="3">
         <v>2.016</v>
@@ -2905,8 +2923,19 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
     </row>
-    <row r="3" ht="15.15" customHeight="1" spans="1:89">
+    <row r="3" ht="15.15" customHeight="1" spans="1:100">
       <c r="A3" s="10">
         <v>320007</v>
       </c>
@@ -2920,26 +2949,26 @@
         <v>115</v>
       </c>
       <c r="I3" s="3">
-        <v>1.275</v>
+        <v>1.253</v>
       </c>
       <c r="J3" s="27">
-        <v>2.57441673370875</v>
+        <v>-1.72549019607843</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1.8957345971564</v>
+        <v>-1.27906976744186</v>
       </c>
       <c r="M3">
-        <v>1.72</v>
+        <v>1.698</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="27">
         <f t="shared" si="0"/>
-        <v>-21.4117647058823</v>
+        <v>-20.0319233838787</v>
       </c>
       <c r="P3" s="3">
         <v>1.002</v>
@@ -2949,7 +2978,7 @@
       </c>
       <c r="R3" s="27">
         <f t="shared" si="1"/>
-        <v>-9.80392156862745</v>
+        <v>-8.22027134876297</v>
       </c>
       <c r="S3" s="3">
         <v>1.15</v>
@@ -3026,8 +3055,19 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
     </row>
-    <row r="4" ht="15.15" customHeight="1" spans="1:89">
+    <row r="4" ht="15.15" customHeight="1" spans="1:100">
       <c r="A4" s="10">
         <v>519674</v>
       </c>
@@ -3041,26 +3081,26 @@
         <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>4.2087</v>
+        <v>4.2386</v>
       </c>
       <c r="J4" s="27">
-        <v>4.46534948371723</v>
+        <v>0.710433150378967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>4.46534948371723</v>
+        <v>5.2075059571088</v>
       </c>
       <c r="M4">
-        <v>4.2087</v>
+        <v>4.2386</v>
       </c>
       <c r="N4" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O4" s="27">
         <f t="shared" si="0"/>
-        <v>-20.7831396868392</v>
+        <v>-21.3419525314962</v>
       </c>
       <c r="P4" s="3">
         <v>3.334</v>
@@ -3070,7 +3110,7 @@
       </c>
       <c r="R4" s="27">
         <f t="shared" si="1"/>
-        <v>-12.1343882909212</v>
+        <v>-12.7542112961827</v>
       </c>
       <c r="S4" s="3">
         <v>3.698</v>
@@ -3147,8 +3187,19 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
     </row>
-    <row r="5" ht="15.15" customHeight="1" spans="1:89">
+    <row r="5" ht="15.15" customHeight="1" spans="1:100">
       <c r="A5" s="32" t="s">
         <v>79</v>
       </c>
@@ -3162,26 +3213,26 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>1.592</v>
+        <v>1.5822</v>
       </c>
       <c r="J5" s="27">
-        <v>1.86844125927823</v>
+        <v>-0.615577889447238</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>2.55749532951105</v>
+        <v>-0.615577889447238</v>
       </c>
       <c r="M5">
-        <v>1.592</v>
+        <v>1.5822</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>-22.0477386934673</v>
+        <v>-21.5649096195171</v>
       </c>
       <c r="P5" s="3">
         <v>1.241</v>
@@ -3191,7 +3242,7 @@
       </c>
       <c r="R5" s="27">
         <f t="shared" si="1"/>
-        <v>-9.67964824120604</v>
+        <v>-9.12021236253319</v>
       </c>
       <c r="S5" s="3">
         <v>1.4379</v>
@@ -3268,8 +3319,19 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
     </row>
-    <row r="6" ht="15.15" customHeight="1" spans="1:89">
+    <row r="6" ht="15.15" customHeight="1" spans="1:100">
       <c r="A6" s="10">
         <v>161810</v>
       </c>
@@ -3286,26 +3348,26 @@
         <v>115</v>
       </c>
       <c r="I6" s="3">
-        <v>2.251</v>
+        <v>2.243</v>
       </c>
       <c r="J6" s="27">
-        <v>2.50455373406192</v>
+        <v>-0.355397601066193</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>4.03500243072437</v>
+        <v>-0.327102803738323</v>
       </c>
       <c r="M6">
-        <v>2.14</v>
+        <v>2.133</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O6" s="27">
         <f t="shared" si="0"/>
-        <v>-14.0826299422479</v>
+        <v>-13.7761925991975</v>
       </c>
       <c r="P6" s="3">
         <v>1.934</v>
@@ -3315,7 +3377,7 @@
       </c>
       <c r="R6" s="27">
         <f t="shared" si="1"/>
-        <v>-4.75344291426032</v>
+        <v>-4.41373160945162</v>
       </c>
       <c r="S6" s="3">
         <v>2.144</v>
@@ -3392,8 +3454,19 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="1"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="1"/>
+      <c r="CU6" s="1"/>
+      <c r="CV6" s="1"/>
     </row>
-    <row r="7" ht="15.15" customHeight="1" spans="1:89">
+    <row r="7" ht="15.15" customHeight="1" spans="1:100">
       <c r="A7" s="22">
         <v>162412</v>
       </c>
@@ -3416,26 +3489,26 @@
         <v>5</v>
       </c>
       <c r="I7" s="3">
-        <v>1.1038</v>
+        <v>1.0981</v>
       </c>
       <c r="J7" s="27">
-        <v>0.145164217020488</v>
+        <v>-0.516397898169942</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>2.49668581528943</v>
+        <v>-0.517352877775374</v>
       </c>
       <c r="M7">
-        <v>0.4639</v>
+        <v>0.4615</v>
       </c>
       <c r="N7" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O7" s="27">
         <f t="shared" si="0"/>
-        <v>-1.31364377604638</v>
+        <v>-0.801384209088438</v>
       </c>
       <c r="P7" s="3">
         <v>1.0893</v>
@@ -3445,7 +3518,7 @@
       </c>
       <c r="R7" s="27">
         <f t="shared" si="1"/>
-        <v>10.4729117593767</v>
+        <v>11.0463527911848</v>
       </c>
       <c r="S7" s="3">
         <v>1.2194</v>
@@ -3522,8 +3595,19 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
     </row>
-    <row r="8" ht="15.15" customHeight="1" spans="1:89">
+    <row r="8" ht="15.15" customHeight="1" spans="1:100">
       <c r="A8" s="32" t="s">
         <v>91</v>
       </c>
@@ -3540,26 +3624,26 @@
         <v>5</v>
       </c>
       <c r="I8" s="3">
-        <v>1.5973</v>
+        <v>1.5803</v>
       </c>
       <c r="J8" s="27">
-        <v>0.0125226973890162</v>
+        <v>-1.06429599949915</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.71293937850229</v>
+        <v>-1.06429599949915</v>
       </c>
       <c r="M8">
-        <v>1.5973</v>
+        <v>1.5803</v>
       </c>
       <c r="N8" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O8" s="27">
         <f t="shared" si="0"/>
-        <v>-2.64195830463908</v>
+        <v>-1.59463393026641</v>
       </c>
       <c r="P8" s="3">
         <v>1.5551</v>
@@ -3569,7 +3653,7 @@
       </c>
       <c r="R8" s="27">
         <f t="shared" si="1"/>
-        <v>6.71758592625055</v>
+        <v>7.86559514016325</v>
       </c>
       <c r="S8" s="3">
         <v>1.7046</v>
@@ -3646,8 +3730,19 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
+      <c r="CV8" s="1"/>
     </row>
-    <row r="9" ht="15.15" customHeight="1" spans="1:89">
+    <row r="9" ht="15.15" customHeight="1" spans="1:100">
       <c r="A9" s="33" t="s">
         <v>95</v>
       </c>
@@ -3664,26 +3759,26 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>1.3</v>
+        <v>1.313</v>
       </c>
       <c r="J9" s="27">
-        <v>3.83386581469649</v>
+        <v>0.999999999999992</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>5.0080775444265</v>
+        <v>6.05815831987076</v>
       </c>
       <c r="M9">
-        <v>1.3</v>
+        <v>1.313</v>
       </c>
       <c r="N9" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O9" s="27">
         <f t="shared" si="0"/>
-        <v>-10.4615384615385</v>
+        <v>-11.3480578827114</v>
       </c>
       <c r="P9" s="3">
         <v>1.164</v>
@@ -3693,7 +3788,7 @@
       </c>
       <c r="R9" s="27">
         <f t="shared" si="1"/>
-        <v>-4.53846153846153</v>
+        <v>-5.48362528560547</v>
       </c>
       <c r="S9" s="3">
         <v>1.241</v>
@@ -3770,8 +3865,19 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" ht="15.15" customHeight="1" spans="1:89">
+    <row r="10" ht="15.15" customHeight="1" spans="1:100">
       <c r="A10" s="32" t="s">
         <v>101</v>
       </c>
@@ -3791,26 +3897,26 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>1.6645</v>
+        <v>1.6935</v>
       </c>
       <c r="J10" s="27">
-        <v>2.70887325681846</v>
+        <v>1.74226494442775</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>7.70674259091497</v>
+        <v>9.58327940986152</v>
       </c>
       <c r="M10">
-        <v>1.6645</v>
+        <v>1.6935</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O10" s="27">
         <f t="shared" si="0"/>
-        <v>-18.4499849804746</v>
+        <v>-19.8464718039563</v>
       </c>
       <c r="P10" s="3">
         <v>1.3574</v>
@@ -3820,7 +3926,7 @@
       </c>
       <c r="R10" s="27">
         <f t="shared" si="1"/>
-        <v>-9.69059777711024</v>
+        <v>-11.2370829642752</v>
       </c>
       <c r="S10" s="3">
         <v>1.5032</v>
@@ -3897,8 +4003,19 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="1"/>
+      <c r="CN10" s="1"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="1"/>
+      <c r="CU10" s="1"/>
+      <c r="CV10" s="1"/>
     </row>
-    <row r="11" ht="15.15" customHeight="1" spans="1:89">
+    <row r="11" ht="15.15" customHeight="1" spans="1:100">
       <c r="A11" s="32" t="s">
         <v>106</v>
       </c>
@@ -3915,26 +4032,26 @@
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>1.1274</v>
+        <v>1.1289</v>
       </c>
       <c r="J11" s="27">
-        <v>2.16583597643861</v>
+        <v>0.133049494411926</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.79303995580923</v>
+        <v>3.93113607070521</v>
       </c>
       <c r="M11">
-        <v>1.1274</v>
+        <v>1.1289</v>
       </c>
       <c r="N11" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O11" s="27">
         <f t="shared" si="0"/>
-        <v>-11.2648571935427</v>
+        <v>-11.3827619806892</v>
       </c>
       <c r="P11" s="3">
         <v>1.0004</v>
@@ -3944,7 +4061,7 @@
       </c>
       <c r="R11" s="27">
         <f t="shared" si="1"/>
-        <v>-3.29962746141564</v>
+        <v>-3.42811586500133</v>
       </c>
       <c r="S11" s="3">
         <v>1.0902</v>
@@ -4021,8 +4138,19 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
+      <c r="CV11" s="1"/>
     </row>
-    <row r="12" ht="15.15" customHeight="1" spans="1:89">
+    <row r="12" ht="15.15" customHeight="1" spans="1:100">
       <c r="A12" s="32" t="s">
         <v>110</v>
       </c>
@@ -4039,26 +4167,26 @@
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>1.544</v>
+        <v>1.548</v>
       </c>
       <c r="J12" s="27">
-        <v>2.9264715685621</v>
+        <v>0.259067357512954</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3.73555495834454</v>
+        <v>4.00429991937652</v>
       </c>
       <c r="M12">
-        <v>1.544</v>
+        <v>1.548</v>
       </c>
       <c r="N12" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O12" s="27">
         <f t="shared" si="0"/>
-        <v>-22.3834196891192</v>
+        <v>-22.5839793281654</v>
       </c>
       <c r="P12" s="3">
         <v>1.1984</v>
@@ -4068,7 +4196,7 @@
       </c>
       <c r="R12" s="27">
         <f t="shared" si="1"/>
-        <v>-11.4831606217617</v>
+        <v>-11.7118863049096</v>
       </c>
       <c r="S12" s="3">
         <v>1.3667</v>
@@ -4145,8 +4273,19 @@
       <c r="CI12" s="3"/>
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="1"/>
+      <c r="CN12" s="1"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="1"/>
+      <c r="CU12" s="1"/>
+      <c r="CV12" s="1"/>
     </row>
-    <row r="13" ht="15.15" customHeight="1" spans="1:89">
+    <row r="13" ht="15.15" customHeight="1" spans="1:100">
       <c r="A13" s="33" t="s">
         <v>114</v>
       </c>
@@ -4160,26 +4299,26 @@
         <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2.289</v>
+        <v>2.288</v>
       </c>
       <c r="J13" s="27">
-        <v>0.350723366944323</v>
+        <v>-0.043687199650517</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>2.36087689713322</v>
+        <v>-0.0411861614497483</v>
       </c>
       <c r="M13">
-        <v>2.428</v>
+        <v>2.427</v>
       </c>
       <c r="N13" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O13" s="27">
         <f t="shared" si="0"/>
-        <v>-2.49017038007863</v>
+        <v>-2.44755244755243</v>
       </c>
       <c r="P13" s="3">
         <v>2.232</v>
@@ -4189,7 +4328,7 @@
       </c>
       <c r="R13" s="27">
         <f t="shared" si="1"/>
-        <v>6.29095674967233</v>
+        <v>6.33741258741259</v>
       </c>
       <c r="S13" s="3">
         <v>2.433</v>
@@ -4266,8 +4405,19 @@
       <c r="CI13" s="3"/>
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
+      <c r="CL13" s="1"/>
+      <c r="CM13" s="1"/>
+      <c r="CN13" s="1"/>
+      <c r="CO13" s="1"/>
+      <c r="CP13" s="1"/>
+      <c r="CQ13" s="1"/>
+      <c r="CR13" s="1"/>
+      <c r="CS13" s="1"/>
+      <c r="CT13" s="1"/>
+      <c r="CU13" s="1"/>
+      <c r="CV13" s="1"/>
     </row>
-    <row r="14" ht="15.15" customHeight="1" spans="1:89">
+    <row r="14" ht="15.15" customHeight="1" spans="1:100">
       <c r="A14" s="10">
         <v>110011</v>
       </c>
@@ -4284,26 +4434,26 @@
         <v>114</v>
       </c>
       <c r="I14" s="3">
-        <v>4.9348</v>
+        <v>4.8767</v>
       </c>
       <c r="J14" s="27">
-        <v>-0.52210373535993</v>
+        <v>-1.1773526789333</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>-0.442682072230674</v>
+        <v>-1.43572563966704</v>
       </c>
       <c r="M14">
-        <v>5.8248</v>
+        <v>5.7667</v>
       </c>
       <c r="N14" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O14" s="27">
         <f>(P14-I14-0.5)/(I14+0.5)*100</f>
-        <v>-4.61470523294325</v>
+        <v>-3.58398274034258</v>
       </c>
       <c r="P14" s="3">
         <v>5.184</v>
@@ -4313,7 +4463,7 @@
       </c>
       <c r="R14" s="27">
         <f>(S14-I14-0.5)/(I14+0.5)*100</f>
-        <v>2.40119231618458</v>
+        <v>3.50772778842041</v>
       </c>
       <c r="S14" s="3">
         <v>5.5653</v>
@@ -4390,8 +4540,19 @@
       <c r="CI14" s="3"/>
       <c r="CJ14" s="3"/>
       <c r="CK14" s="3"/>
+      <c r="CL14" s="1"/>
+      <c r="CM14" s="1"/>
+      <c r="CN14" s="1"/>
+      <c r="CO14" s="1"/>
+      <c r="CP14" s="1"/>
+      <c r="CQ14" s="1"/>
+      <c r="CR14" s="1"/>
+      <c r="CS14" s="1"/>
+      <c r="CT14" s="1"/>
+      <c r="CU14" s="1"/>
+      <c r="CV14" s="1"/>
     </row>
-    <row r="15" ht="15.15" customHeight="1" spans="1:89">
+    <row r="15" ht="15.15" customHeight="1" spans="1:100">
       <c r="A15" s="10">
         <v>161725</v>
       </c>
@@ -4411,26 +4572,26 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0.9966</v>
+        <v>0.9857</v>
       </c>
       <c r="J15" s="27">
-        <v>-1.0622456070684</v>
+        <v>-1.09371864338752</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>-0.501546826661664</v>
+        <v>-1.01246836036373</v>
       </c>
       <c r="M15">
-        <v>2.1227</v>
+        <v>2.1118</v>
       </c>
       <c r="N15" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O15" s="27">
         <f t="shared" ref="O15:O39" si="2">(P15-I15)/I15*100</f>
-        <v>-4.60565924142084</v>
+        <v>-3.55077609820432</v>
       </c>
       <c r="P15" s="3">
         <v>0.9507</v>
@@ -4440,7 +4601,7 @@
       </c>
       <c r="R15" s="27">
         <f t="shared" ref="R15:R39" si="3">(S15-I15)/I15*100</f>
-        <v>2.18743728677503</v>
+        <v>3.31743938317946</v>
       </c>
       <c r="S15" s="3">
         <v>1.0184</v>
@@ -4517,8 +4678,19 @@
       <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
+      <c r="CL15" s="1"/>
+      <c r="CM15" s="1"/>
+      <c r="CN15" s="1"/>
+      <c r="CO15" s="1"/>
+      <c r="CP15" s="1"/>
+      <c r="CQ15" s="1"/>
+      <c r="CR15" s="1"/>
+      <c r="CS15" s="1"/>
+      <c r="CT15" s="1"/>
+      <c r="CU15" s="1"/>
+      <c r="CV15" s="1"/>
     </row>
-    <row r="16" ht="15.15" customHeight="1" spans="1:89">
+    <row r="16" ht="15.15" customHeight="1" spans="1:100">
       <c r="A16" s="34" t="s">
         <v>124</v>
       </c>
@@ -4538,26 +4710,26 @@
         <v>115</v>
       </c>
       <c r="I16" s="3">
-        <v>1.727</v>
+        <v>1.715</v>
       </c>
       <c r="J16" s="27">
-        <v>-0.346220427005194</v>
+        <v>-0.694846554719167</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>-0.331858407079646</v>
+        <v>-0.995575221238939</v>
       </c>
       <c r="M16">
-        <v>1.802</v>
+        <v>1.79</v>
       </c>
       <c r="N16" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O16" s="27">
         <f t="shared" si="2"/>
-        <v>-1.38969310943833</v>
+        <v>-0.699708454810496</v>
       </c>
       <c r="P16" s="3">
         <v>1.703</v>
@@ -4567,7 +4739,7 @@
       </c>
       <c r="R16" s="27">
         <f t="shared" si="3"/>
-        <v>10.5964099594673</v>
+        <v>11.3702623906705</v>
       </c>
       <c r="S16" s="3">
         <v>1.91</v>
@@ -4644,8 +4816,19 @@
       <c r="CI16" s="3"/>
       <c r="CJ16" s="3"/>
       <c r="CK16" s="3"/>
+      <c r="CL16" s="1"/>
+      <c r="CM16" s="1"/>
+      <c r="CN16" s="1"/>
+      <c r="CO16" s="1"/>
+      <c r="CP16" s="1"/>
+      <c r="CQ16" s="1"/>
+      <c r="CR16" s="1"/>
+      <c r="CS16" s="1"/>
+      <c r="CT16" s="1"/>
+      <c r="CU16" s="1"/>
+      <c r="CV16" s="1"/>
     </row>
-    <row r="17" ht="15.15" customHeight="1" spans="1:89">
+    <row r="17" ht="15.15" customHeight="1" spans="1:100">
       <c r="A17" s="34" t="s">
         <v>129</v>
       </c>
@@ -4665,26 +4848,26 @@
         <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1.7031</v>
+        <v>1.6944</v>
       </c>
       <c r="J17" s="27">
-        <v>-0.117295173303619</v>
+        <v>-0.510833186542197</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>-0.117295173303619</v>
+        <v>-0.627529177174368</v>
       </c>
       <c r="M17">
-        <v>1.7031</v>
+        <v>1.6944</v>
       </c>
       <c r="N17" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O17" s="27">
         <f t="shared" si="2"/>
-        <v>-3.18243203569961</v>
+        <v>-2.68531633616619</v>
       </c>
       <c r="P17" s="3">
         <v>1.6489</v>
@@ -4694,7 +4877,7 @@
       </c>
       <c r="R17" s="27">
         <f t="shared" si="3"/>
-        <v>9.69408725265692</v>
+        <v>10.2573182247403</v>
       </c>
       <c r="S17" s="3">
         <v>1.8682</v>
@@ -4771,8 +4954,19 @@
       <c r="CI17" s="3"/>
       <c r="CJ17" s="3"/>
       <c r="CK17" s="3"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
+      <c r="CV17" s="1"/>
     </row>
-    <row r="18" ht="15.15" customHeight="1" spans="1:89">
+    <row r="18" ht="15.15" customHeight="1" spans="1:100">
       <c r="A18" s="33" t="s">
         <v>133</v>
       </c>
@@ -4792,26 +4986,26 @@
         <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>1.5706</v>
+        <v>1.5547</v>
       </c>
       <c r="J18" s="27">
-        <v>0.0828394825718523</v>
+        <v>-1.012351967401</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1.77553136340073</v>
+        <v>-1.012351967401</v>
       </c>
       <c r="M18">
-        <v>1.5706</v>
+        <v>1.5547</v>
       </c>
       <c r="N18" s="28" t="s">
         <v>70</v>
       </c>
       <c r="O18" s="27">
         <f t="shared" si="2"/>
-        <v>-2.90334903858399</v>
+        <v>-1.91033639930534</v>
       </c>
       <c r="P18" s="3">
         <v>1.525</v>
@@ -4821,7 +5015,7 @@
       </c>
       <c r="R18" s="27">
         <f t="shared" si="3"/>
-        <v>8.6591111677066</v>
+        <v>9.77037370553804</v>
       </c>
       <c r="S18" s="3">
         <v>1.7066</v>
@@ -4898,8 +5092,19 @@
       <c r="CI18" s="3"/>
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
+      <c r="CL18" s="1"/>
+      <c r="CM18" s="1"/>
+      <c r="CN18" s="1"/>
+      <c r="CO18" s="1"/>
+      <c r="CP18" s="1"/>
+      <c r="CQ18" s="1"/>
+      <c r="CR18" s="1"/>
+      <c r="CS18" s="1"/>
+      <c r="CT18" s="1"/>
+      <c r="CU18" s="1"/>
+      <c r="CV18" s="1"/>
     </row>
-    <row r="19" ht="15.15" customHeight="1" spans="1:50">
+    <row r="19" ht="15.15" customHeight="1" spans="1:100">
       <c r="A19" s="10">
         <v>161723</v>
       </c>
@@ -4916,26 +5121,26 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1.143</v>
+        <v>1.1458</v>
       </c>
       <c r="J19" s="11">
-        <v>1.50075481751176</v>
+        <v>0.244969378827639</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1.37253309510273</v>
+        <v>1.59993502801915</v>
       </c>
       <c r="M19">
-        <v>1.2482</v>
+        <v>1.251</v>
       </c>
       <c r="N19" t="s">
         <v>70</v>
       </c>
       <c r="O19" s="27">
         <f t="shared" si="2"/>
-        <v>-1.96850393700787</v>
+        <v>-2.20806423459591</v>
       </c>
       <c r="P19">
         <v>1.1205</v>
@@ -4945,7 +5150,7 @@
       </c>
       <c r="R19" s="27">
         <f t="shared" si="3"/>
-        <v>1.48731408573927</v>
+        <v>1.23930877989178</v>
       </c>
       <c r="S19">
         <v>1.16</v>
@@ -4983,8 +5188,50 @@
       <c r="AV19" s="11"/>
       <c r="AW19"/>
       <c r="AX19"/>
+      <c r="AY19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BK19" s="1"/>
+      <c r="BL19" s="1"/>
+      <c r="BM19" s="1"/>
+      <c r="BN19" s="1"/>
+      <c r="BO19" s="1"/>
+      <c r="BP19" s="1"/>
+      <c r="BQ19" s="1"/>
+      <c r="BR19" s="1"/>
+      <c r="BS19" s="1"/>
+      <c r="BT19" s="1"/>
+      <c r="BU19" s="1"/>
+      <c r="BV19" s="1"/>
+      <c r="BW19" s="1"/>
+      <c r="BX19" s="1"/>
+      <c r="BY19" s="1"/>
+      <c r="BZ19" s="1"/>
+      <c r="CA19" s="1"/>
+      <c r="CB19" s="1"/>
+      <c r="CC19" s="1"/>
+      <c r="CD19" s="1"/>
+      <c r="CE19" s="1"/>
+      <c r="CF19" s="1"/>
+      <c r="CG19" s="1"/>
+      <c r="CH19" s="1"/>
+      <c r="CI19" s="1"/>
+      <c r="CJ19" s="1"/>
+      <c r="CK19" s="1"/>
+      <c r="CL19" s="1"/>
+      <c r="CM19" s="1"/>
+      <c r="CN19" s="1"/>
+      <c r="CO19" s="1"/>
+      <c r="CP19" s="1"/>
+      <c r="CQ19" s="1"/>
+      <c r="CR19" s="1"/>
+      <c r="CS19" s="1"/>
+      <c r="CT19" s="1"/>
+      <c r="CU19" s="1"/>
+      <c r="CV19" s="1"/>
     </row>
-    <row r="20" ht="15.15" customHeight="1" spans="1:60">
+    <row r="20" ht="15.15" customHeight="1" spans="1:100">
       <c r="A20" s="35" t="s">
         <v>142</v>
       </c>
@@ -5001,26 +5248,26 @@
         <v>3</v>
       </c>
       <c r="I20">
-        <v>2.072</v>
+        <v>2.111</v>
       </c>
       <c r="J20" s="11">
-        <v>2.72682201289044</v>
+        <v>1.88223938223939</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>8.02919708029198</v>
+        <v>10.0625651720542</v>
       </c>
       <c r="M20">
-        <v>2.072</v>
+        <v>2.111</v>
       </c>
       <c r="N20" t="s">
         <v>70</v>
       </c>
       <c r="O20" s="27">
         <f t="shared" si="2"/>
-        <v>-14.4305019305019</v>
+        <v>-16.0113690194221</v>
       </c>
       <c r="P20">
         <v>1.773</v>
@@ -5030,7 +5277,7 @@
       </c>
       <c r="R20" s="27">
         <f t="shared" si="3"/>
-        <v>-8.97683397683398</v>
+        <v>-10.6584557081952</v>
       </c>
       <c r="S20">
         <v>1.886</v>
@@ -5076,8 +5323,46 @@
       <c r="BD20"/>
       <c r="BE20" s="11"/>
       <c r="BH20" s="11"/>
+      <c r="BK20" s="1"/>
+      <c r="BL20" s="1"/>
+      <c r="BM20" s="1"/>
+      <c r="BN20" s="1"/>
+      <c r="BO20" s="1"/>
+      <c r="BP20" s="1"/>
+      <c r="BQ20" s="1"/>
+      <c r="BR20" s="1"/>
+      <c r="BS20" s="1"/>
+      <c r="BT20" s="1"/>
+      <c r="BU20" s="1"/>
+      <c r="BV20" s="1"/>
+      <c r="BW20" s="1"/>
+      <c r="BX20" s="1"/>
+      <c r="BY20" s="1"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
+      <c r="CV20" s="1"/>
     </row>
-    <row r="21" ht="15.15" customHeight="1" spans="1:62">
+    <row r="21" ht="15.15" customHeight="1" spans="1:100">
       <c r="A21" s="36" t="s">
         <v>147</v>
       </c>
@@ -5091,26 +5376,26 @@
         <v>104</v>
       </c>
       <c r="I21">
-        <v>1.0395</v>
+        <v>1.0382</v>
       </c>
       <c r="J21" s="11">
-        <v>0.600019355463078</v>
+        <v>-0.125060125060133</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.600019355463078</v>
+        <v>-0.125060125060133</v>
       </c>
       <c r="M21">
-        <v>1.0395</v>
+        <v>1.0382</v>
       </c>
       <c r="N21" t="s">
         <v>70</v>
       </c>
       <c r="O21" s="27">
         <f t="shared" si="2"/>
-        <v>-14.1317941317941</v>
+        <v>-14.0242727798112</v>
       </c>
       <c r="P21">
         <v>0.8926</v>
@@ -5120,7 +5405,7 @@
       </c>
       <c r="R21" s="27">
         <f t="shared" si="3"/>
-        <v>-2.36652236652238</v>
+        <v>-2.24426892698903</v>
       </c>
       <c r="S21">
         <v>1.0149</v>
@@ -5170,8 +5455,46 @@
       <c r="BH21" s="11"/>
       <c r="BI21"/>
       <c r="BJ21"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1"/>
+      <c r="BP21" s="1"/>
+      <c r="BQ21" s="1"/>
+      <c r="BR21" s="1"/>
+      <c r="BS21" s="1"/>
+      <c r="BT21" s="1"/>
+      <c r="BU21" s="1"/>
+      <c r="BV21" s="1"/>
+      <c r="BW21" s="1"/>
+      <c r="BX21" s="1"/>
+      <c r="BY21" s="1"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
+      <c r="CV21" s="1"/>
     </row>
-    <row r="22" ht="15.15" customHeight="1" spans="1:56">
+    <row r="22" ht="15.15" customHeight="1" spans="1:100">
       <c r="A22" s="35" t="s">
         <v>152</v>
       </c>
@@ -5188,26 +5511,26 @@
         <v>113</v>
       </c>
       <c r="I22">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="J22" s="11">
-        <v>0.221975582685913</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.221975582685913</v>
+        <v>1.51683314835369</v>
       </c>
       <c r="M22">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="N22" t="s">
         <v>156</v>
       </c>
       <c r="O22" s="27">
         <f t="shared" si="2"/>
-        <v>-11.1480251015135</v>
+        <v>-12.2813411078717</v>
       </c>
       <c r="P22" s="3">
         <v>2.407</v>
@@ -5217,7 +5540,7 @@
       </c>
       <c r="R22" s="27">
         <f t="shared" si="3"/>
-        <v>-2.43632336655593</v>
+        <v>-3.68075801749273</v>
       </c>
       <c r="S22" s="3">
         <v>2.643</v>
@@ -5261,8 +5584,48 @@
       <c r="BB22" s="11"/>
       <c r="BC22"/>
       <c r="BD22"/>
+      <c r="BE22" s="1"/>
+      <c r="BH22" s="1"/>
+      <c r="BK22" s="1"/>
+      <c r="BL22" s="1"/>
+      <c r="BM22" s="1"/>
+      <c r="BN22" s="1"/>
+      <c r="BO22" s="1"/>
+      <c r="BP22" s="1"/>
+      <c r="BQ22" s="1"/>
+      <c r="BR22" s="1"/>
+      <c r="BS22" s="1"/>
+      <c r="BT22" s="1"/>
+      <c r="BU22" s="1"/>
+      <c r="BV22" s="1"/>
+      <c r="BW22" s="1"/>
+      <c r="BX22" s="1"/>
+      <c r="BY22" s="1"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
+      <c r="CV22" s="1"/>
     </row>
-    <row r="23" ht="15.15" customHeight="1" spans="1:62">
+    <row r="23" ht="15.15" customHeight="1" spans="1:100">
       <c r="A23" s="10">
         <v>501016</v>
       </c>
@@ -5276,26 +5639,26 @@
         <v>104</v>
       </c>
       <c r="I23">
-        <v>1.1178</v>
+        <v>1.1158</v>
       </c>
       <c r="J23" s="11">
-        <v>0.657361548851856</v>
+        <v>-0.178922884236894</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.657361548851856</v>
+        <v>-0.178922884236894</v>
       </c>
       <c r="M23">
-        <v>1.1178</v>
+        <v>1.1158</v>
       </c>
       <c r="N23" t="s">
         <v>70</v>
       </c>
       <c r="O23" s="27">
         <f t="shared" si="2"/>
-        <v>-15.8346752549651</v>
+        <v>-15.6838143036386</v>
       </c>
       <c r="P23" s="3">
         <v>0.9408</v>
@@ -5305,7 +5668,7 @@
       </c>
       <c r="R23" s="27">
         <f t="shared" si="3"/>
-        <v>-1.78028269815708</v>
+        <v>-1.60423014877216</v>
       </c>
       <c r="S23" s="3">
         <v>1.0979</v>
@@ -5355,8 +5718,46 @@
       <c r="BH23" s="11"/>
       <c r="BI23"/>
       <c r="BJ23"/>
+      <c r="BK23" s="1"/>
+      <c r="BL23" s="1"/>
+      <c r="BM23" s="1"/>
+      <c r="BN23" s="1"/>
+      <c r="BO23" s="1"/>
+      <c r="BP23" s="1"/>
+      <c r="BQ23" s="1"/>
+      <c r="BR23" s="1"/>
+      <c r="BS23" s="1"/>
+      <c r="BT23" s="1"/>
+      <c r="BU23" s="1"/>
+      <c r="BV23" s="1"/>
+      <c r="BW23" s="1"/>
+      <c r="BX23" s="1"/>
+      <c r="BY23" s="1"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
+      <c r="CV23" s="1"/>
     </row>
-    <row r="24" ht="15.15" customHeight="1" spans="1:20">
+    <row r="24" ht="15.15" customHeight="1" spans="1:100">
       <c r="A24" t="s">
         <v>162</v>
       </c>
@@ -5370,26 +5771,26 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.642</v>
+        <v>1.634</v>
       </c>
       <c r="J24" s="11">
-        <v>2.05096333126165</v>
+        <v>-0.487210718635811</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>3.0392156862745</v>
+        <v>-0.38058991436727</v>
       </c>
       <c r="M24">
-        <v>2.102</v>
+        <v>2.094</v>
       </c>
       <c r="N24" t="s">
         <v>70</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>-3.71498172959805</v>
+        <v>-3.24357405140758</v>
       </c>
       <c r="P24">
         <v>1.581</v>
@@ -5399,7 +5800,7 @@
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
-        <v>1.70523751522534</v>
+        <v>2.20318237454101</v>
       </c>
       <c r="S24">
         <v>1.67</v>
@@ -5407,8 +5808,64 @@
       <c r="T24" t="s">
         <v>166</v>
       </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BH24" s="1"/>
+      <c r="BK24" s="1"/>
+      <c r="BL24" s="1"/>
+      <c r="BM24" s="1"/>
+      <c r="BN24" s="1"/>
+      <c r="BO24" s="1"/>
+      <c r="BP24" s="1"/>
+      <c r="BQ24" s="1"/>
+      <c r="BR24" s="1"/>
+      <c r="BS24" s="1"/>
+      <c r="BT24" s="1"/>
+      <c r="BU24" s="1"/>
+      <c r="BV24" s="1"/>
+      <c r="BW24" s="1"/>
+      <c r="BX24" s="1"/>
+      <c r="BY24" s="1"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
+      <c r="CV24" s="1"/>
     </row>
-    <row r="25" ht="15.15" customHeight="1" spans="1:20">
+    <row r="25" ht="15.15" customHeight="1" spans="1:100">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -5422,26 +5879,26 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.8824</v>
+        <v>1.8705</v>
       </c>
       <c r="J25" s="11">
-        <v>2.00498536902569</v>
+        <v>-0.632171695707608</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>2.75082631410599</v>
+        <v>-0.617412057694304</v>
       </c>
       <c r="M25">
-        <v>1.9274</v>
+        <v>1.9155</v>
       </c>
       <c r="N25" t="s">
         <v>70</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>-2.73586910327242</v>
+        <v>-2.11708099438653</v>
       </c>
       <c r="P25">
         <v>1.8309</v>
@@ -5451,7 +5908,7 @@
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>0.37717807054823</v>
+        <v>1.01577118417535</v>
       </c>
       <c r="S25">
         <v>1.8895</v>
@@ -5459,8 +5916,64 @@
       <c r="T25" t="s">
         <v>166</v>
       </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BH25" s="1"/>
+      <c r="BK25" s="1"/>
+      <c r="BL25" s="1"/>
+      <c r="BM25" s="1"/>
+      <c r="BN25" s="1"/>
+      <c r="BO25" s="1"/>
+      <c r="BP25" s="1"/>
+      <c r="BQ25" s="1"/>
+      <c r="BR25" s="1"/>
+      <c r="BS25" s="1"/>
+      <c r="BT25" s="1"/>
+      <c r="BU25" s="1"/>
+      <c r="BV25" s="1"/>
+      <c r="BW25" s="1"/>
+      <c r="BX25" s="1"/>
+      <c r="BY25" s="1"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
+      <c r="CV25" s="1"/>
     </row>
-    <row r="26" ht="15.15" customHeight="1" spans="1:20">
+    <row r="26" ht="15.15" customHeight="1" spans="1:100">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -5474,26 +5987,26 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2.383</v>
+        <v>2.398</v>
       </c>
       <c r="J26" s="11">
-        <v>3.24956672443675</v>
+        <v>0.629458665547634</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3.1645569620253</v>
+        <v>3.79746835443037</v>
       </c>
       <c r="M26">
-        <v>2.445</v>
+        <v>2.46</v>
       </c>
       <c r="N26" t="s">
         <v>70</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>-6.42047838858582</v>
+        <v>-7.00583819849875</v>
       </c>
       <c r="P26">
         <v>2.23</v>
@@ -5503,7 +6016,7 @@
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>-1.13302559798574</v>
+        <v>-1.7514595496247</v>
       </c>
       <c r="S26">
         <v>2.356</v>
@@ -5511,8 +6024,64 @@
       <c r="T26" t="s">
         <v>174</v>
       </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BH26" s="1"/>
+      <c r="BK26" s="1"/>
+      <c r="BL26" s="1"/>
+      <c r="BM26" s="1"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="1"/>
+      <c r="BP26" s="1"/>
+      <c r="BQ26" s="1"/>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1"/>
+      <c r="BT26" s="1"/>
+      <c r="BU26" s="1"/>
+      <c r="BV26" s="1"/>
+      <c r="BW26" s="1"/>
+      <c r="BX26" s="1"/>
+      <c r="BY26" s="1"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
+      <c r="CV26" s="1"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:100">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -5526,26 +6095,26 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1.2174</v>
+        <v>1.2225</v>
       </c>
       <c r="J27" s="11">
-        <v>1.60240360540812</v>
+        <v>0.418925579102997</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.28327818783405</v>
+        <v>3.71595825909899</v>
       </c>
       <c r="M27">
-        <v>1.2174</v>
+        <v>1.2225</v>
       </c>
       <c r="N27" t="s">
         <v>70</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>-8.93707902086414</v>
+        <v>-9.31697341513292</v>
       </c>
       <c r="P27">
         <v>1.1086</v>
@@ -5555,7 +6124,7 @@
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>-2.85855101034992</v>
+        <v>-3.26380368098158</v>
       </c>
       <c r="S27">
         <v>1.1826</v>
@@ -5563,8 +6132,64 @@
       <c r="T27" t="s">
         <v>166</v>
       </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BH27" s="1"/>
+      <c r="BK27" s="1"/>
+      <c r="BL27" s="1"/>
+      <c r="BM27" s="1"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="1"/>
+      <c r="BP27" s="1"/>
+      <c r="BQ27" s="1"/>
+      <c r="BR27" s="1"/>
+      <c r="BS27" s="1"/>
+      <c r="BT27" s="1"/>
+      <c r="BU27" s="1"/>
+      <c r="BV27" s="1"/>
+      <c r="BW27" s="1"/>
+      <c r="BX27" s="1"/>
+      <c r="BY27" s="1"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
+      <c r="CV27" s="1"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:100">
       <c r="A28" t="s">
         <v>179</v>
       </c>
@@ -5578,16 +6203,16 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1.2283</v>
+        <v>1.2258</v>
       </c>
       <c r="J28" s="11">
-        <v>1.06137896988645</v>
+        <v>-0.203533338760885</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28">
-        <v>0.222551928783379</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0.1351</v>
@@ -5597,7 +6222,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>-14.7195310591875</v>
+        <v>-14.5456028715941</v>
       </c>
       <c r="P28">
         <v>1.0475</v>
@@ -5607,7 +6232,7 @@
       </c>
       <c r="R28">
         <f t="shared" si="3"/>
-        <v>-8.45884555890254</v>
+        <v>-8.27214880078316</v>
       </c>
       <c r="S28">
         <v>1.1244</v>
@@ -5615,8 +6240,64 @@
       <c r="T28" t="s">
         <v>174</v>
       </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BH28" s="1"/>
+      <c r="BK28" s="1"/>
+      <c r="BL28" s="1"/>
+      <c r="BM28" s="1"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="1"/>
+      <c r="BP28" s="1"/>
+      <c r="BQ28" s="1"/>
+      <c r="BR28" s="1"/>
+      <c r="BS28" s="1"/>
+      <c r="BT28" s="1"/>
+      <c r="BU28" s="1"/>
+      <c r="BV28" s="1"/>
+      <c r="BW28" s="1"/>
+      <c r="BX28" s="1"/>
+      <c r="BY28" s="1"/>
+      <c r="BZ28" s="1"/>
+      <c r="CA28" s="1"/>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
+      <c r="CE28" s="1"/>
+      <c r="CF28" s="1"/>
+      <c r="CG28" s="1"/>
+      <c r="CH28" s="1"/>
+      <c r="CI28" s="1"/>
+      <c r="CJ28" s="1"/>
+      <c r="CK28" s="1"/>
+      <c r="CL28" s="1"/>
+      <c r="CM28" s="1"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="1"/>
+      <c r="CP28" s="1"/>
+      <c r="CQ28" s="1"/>
+      <c r="CR28" s="1"/>
+      <c r="CS28" s="1"/>
+      <c r="CT28" s="1"/>
+      <c r="CU28" s="1"/>
+      <c r="CV28" s="1"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:100">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -5630,19 +6311,19 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1.219</v>
+        <v>1.231</v>
       </c>
       <c r="J29" s="11">
-        <v>1.07794361525706</v>
+        <v>0.984413453650534</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>2.44798041615667</v>
+        <v>3.42717258261934</v>
       </c>
       <c r="M29">
-        <v>0.837</v>
+        <v>0.845</v>
       </c>
       <c r="N29" t="s">
         <v>70</v>
@@ -5667,8 +6348,64 @@
       <c r="T29" t="s">
         <v>185</v>
       </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BH29" s="1"/>
+      <c r="BK29" s="1"/>
+      <c r="BL29" s="1"/>
+      <c r="BM29" s="1"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="1"/>
+      <c r="BP29" s="1"/>
+      <c r="BQ29" s="1"/>
+      <c r="BR29" s="1"/>
+      <c r="BS29" s="1"/>
+      <c r="BT29" s="1"/>
+      <c r="BU29" s="1"/>
+      <c r="BV29" s="1"/>
+      <c r="BW29" s="1"/>
+      <c r="BX29" s="1"/>
+      <c r="BY29" s="1"/>
+      <c r="BZ29" s="1"/>
+      <c r="CA29" s="1"/>
+      <c r="CB29" s="1"/>
+      <c r="CC29" s="1"/>
+      <c r="CD29" s="1"/>
+      <c r="CE29" s="1"/>
+      <c r="CF29" s="1"/>
+      <c r="CG29" s="1"/>
+      <c r="CH29" s="1"/>
+      <c r="CI29" s="1"/>
+      <c r="CJ29" s="1"/>
+      <c r="CK29" s="1"/>
+      <c r="CL29" s="1"/>
+      <c r="CM29" s="1"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="1"/>
+      <c r="CP29" s="1"/>
+      <c r="CQ29" s="1"/>
+      <c r="CR29" s="1"/>
+      <c r="CS29" s="1"/>
+      <c r="CT29" s="1"/>
+      <c r="CU29" s="1"/>
+      <c r="CV29" s="1"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:100">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -5682,26 +6419,26 @@
         <v>110</v>
       </c>
       <c r="I30">
-        <v>1.8266</v>
+        <v>1.8226</v>
       </c>
       <c r="J30" s="11">
-        <v>1.0287610619469</v>
+        <v>-0.218986094383007</v>
       </c>
       <c r="K30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1.70573947217598</v>
+        <v>-0.10733644609027</v>
       </c>
       <c r="M30">
-        <v>3.7266</v>
+        <v>3.7226</v>
       </c>
       <c r="N30" t="s">
         <v>70</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>-3.96364830833242</v>
+        <v>-3.75288050038407</v>
       </c>
       <c r="P30">
         <v>1.7542</v>
@@ -5711,7 +6448,7 @@
       </c>
       <c r="R30">
         <f t="shared" si="3"/>
-        <v>-0.602211759553263</v>
+        <v>-0.384066717875557</v>
       </c>
       <c r="S30">
         <v>1.8156</v>
@@ -5719,8 +6456,64 @@
       <c r="T30" t="s">
         <v>166</v>
       </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BH30" s="1"/>
+      <c r="BK30" s="1"/>
+      <c r="BL30" s="1"/>
+      <c r="BM30" s="1"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="1"/>
+      <c r="BP30" s="1"/>
+      <c r="BQ30" s="1"/>
+      <c r="BR30" s="1"/>
+      <c r="BS30" s="1"/>
+      <c r="BT30" s="1"/>
+      <c r="BU30" s="1"/>
+      <c r="BV30" s="1"/>
+      <c r="BW30" s="1"/>
+      <c r="BX30" s="1"/>
+      <c r="BY30" s="1"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
+      <c r="CV30" s="1"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:100">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -5734,19 +6527,19 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>2.7479</v>
+        <v>2.7864</v>
       </c>
       <c r="J31" s="11">
-        <v>0.200554259043176</v>
+        <v>1.40106990792969</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.182578674810784</v>
+        <v>1.46062939848626</v>
       </c>
       <c r="M31">
-        <v>3.0179</v>
+        <v>3.0564</v>
       </c>
       <c r="N31" t="s">
         <v>156</v>
@@ -5771,8 +6564,64 @@
       <c r="T31" t="s">
         <v>185</v>
       </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BH31" s="1"/>
+      <c r="BK31" s="1"/>
+      <c r="BL31" s="1"/>
+      <c r="BM31" s="1"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="1"/>
+      <c r="BP31" s="1"/>
+      <c r="BQ31" s="1"/>
+      <c r="BR31" s="1"/>
+      <c r="BS31" s="1"/>
+      <c r="BT31" s="1"/>
+      <c r="BU31" s="1"/>
+      <c r="BV31" s="1"/>
+      <c r="BW31" s="1"/>
+      <c r="BX31" s="1"/>
+      <c r="BY31" s="1"/>
+      <c r="BZ31" s="1"/>
+      <c r="CA31" s="1"/>
+      <c r="CB31" s="1"/>
+      <c r="CC31" s="1"/>
+      <c r="CD31" s="1"/>
+      <c r="CE31" s="1"/>
+      <c r="CF31" s="1"/>
+      <c r="CG31" s="1"/>
+      <c r="CH31" s="1"/>
+      <c r="CI31" s="1"/>
+      <c r="CJ31" s="1"/>
+      <c r="CK31" s="1"/>
+      <c r="CL31" s="1"/>
+      <c r="CM31" s="1"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="1"/>
+      <c r="CP31" s="1"/>
+      <c r="CQ31" s="1"/>
+      <c r="CR31" s="1"/>
+      <c r="CS31" s="1"/>
+      <c r="CT31" s="1"/>
+      <c r="CU31" s="1"/>
+      <c r="CV31" s="1"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:100">
       <c r="A32" t="s">
         <v>192</v>
       </c>
@@ -5786,26 +6635,26 @@
         <v>110</v>
       </c>
       <c r="I32">
-        <v>0.976</v>
+        <v>0.965</v>
       </c>
       <c r="J32" s="11">
-        <v>1.98537095088819</v>
+        <v>-1.12704918032787</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0.653819683413616</v>
+        <v>-0.376068376068365</v>
       </c>
       <c r="M32">
-        <v>2.925</v>
+        <v>2.914</v>
       </c>
       <c r="N32" t="s">
         <v>70</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>-16.0860655737705</v>
+        <v>-15.1295336787565</v>
       </c>
       <c r="P32">
         <v>0.819</v>
@@ -5815,7 +6664,7 @@
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
-        <v>3.07377049180328</v>
+        <v>4.24870466321244</v>
       </c>
       <c r="S32">
         <v>1.006</v>
@@ -5823,8 +6672,64 @@
       <c r="T32" t="s">
         <v>174</v>
       </c>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BH32" s="1"/>
+      <c r="BK32" s="1"/>
+      <c r="BL32" s="1"/>
+      <c r="BM32" s="1"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="1"/>
+      <c r="BP32" s="1"/>
+      <c r="BQ32" s="1"/>
+      <c r="BR32" s="1"/>
+      <c r="BS32" s="1"/>
+      <c r="BT32" s="1"/>
+      <c r="BU32" s="1"/>
+      <c r="BV32" s="1"/>
+      <c r="BW32" s="1"/>
+      <c r="BX32" s="1"/>
+      <c r="BY32" s="1"/>
+      <c r="BZ32" s="1"/>
+      <c r="CA32" s="1"/>
+      <c r="CB32" s="1"/>
+      <c r="CC32" s="1"/>
+      <c r="CD32" s="1"/>
+      <c r="CE32" s="1"/>
+      <c r="CF32" s="1"/>
+      <c r="CG32" s="1"/>
+      <c r="CH32" s="1"/>
+      <c r="CI32" s="1"/>
+      <c r="CJ32" s="1"/>
+      <c r="CK32" s="1"/>
+      <c r="CL32" s="1"/>
+      <c r="CM32" s="1"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="1"/>
+      <c r="CP32" s="1"/>
+      <c r="CQ32" s="1"/>
+      <c r="CR32" s="1"/>
+      <c r="CS32" s="1"/>
+      <c r="CT32" s="1"/>
+      <c r="CU32" s="1"/>
+      <c r="CV32" s="1"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:100">
       <c r="A33" t="s">
         <v>196</v>
       </c>
@@ -5838,19 +6743,19 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>2.0743</v>
+        <v>2.0578</v>
       </c>
       <c r="J33" s="11">
-        <v>2.13195470211718</v>
+        <v>-0.795449067155194</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1.52320471227078</v>
+        <v>-0.373954626838604</v>
       </c>
       <c r="M33">
-        <v>4.4123</v>
+        <v>4.3958</v>
       </c>
       <c r="N33" t="s">
         <v>70</v>
@@ -5875,8 +6780,64 @@
       <c r="T33" t="s">
         <v>185</v>
       </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1"/>
+      <c r="CP33" s="1"/>
+      <c r="CQ33" s="1"/>
+      <c r="CR33" s="1"/>
+      <c r="CS33" s="1"/>
+      <c r="CT33" s="1"/>
+      <c r="CU33" s="1"/>
+      <c r="CV33" s="1"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:100">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -5890,19 +6851,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1.4891</v>
+        <v>1.487</v>
       </c>
       <c r="J34" s="12">
-        <v>3.56074831351277</v>
+        <v>-0.141024780068497</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>3.56074831351277</v>
+        <v>-0.141024780068497</v>
       </c>
       <c r="M34">
-        <v>1.4891</v>
+        <v>1.487</v>
       </c>
       <c r="N34" t="s">
         <v>70</v>
@@ -5927,8 +6888,64 @@
       <c r="T34" t="s">
         <v>185</v>
       </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1"/>
+      <c r="CP34" s="1"/>
+      <c r="CQ34" s="1"/>
+      <c r="CR34" s="1"/>
+      <c r="CS34" s="1"/>
+      <c r="CT34" s="1"/>
+      <c r="CU34" s="1"/>
+      <c r="CV34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:100">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -5945,13 +6962,13 @@
         <v>0.885</v>
       </c>
       <c r="J35" s="11">
-        <v>1.84119677790564</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1.41843971631205</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>2.145</v>
@@ -5979,8 +6996,64 @@
       <c r="T35" t="s">
         <v>185</v>
       </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1"/>
+      <c r="CP35" s="1"/>
+      <c r="CQ35" s="1"/>
+      <c r="CR35" s="1"/>
+      <c r="CS35" s="1"/>
+      <c r="CT35" s="1"/>
+      <c r="CU35" s="1"/>
+      <c r="CV35" s="1"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:100">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -5994,19 +7067,19 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1.8375</v>
+        <v>1.8636</v>
       </c>
       <c r="J36" s="11">
-        <v>0.26737967914438</v>
+        <v>1.42040816326531</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>0.26737967914438</v>
+        <v>1.69158572519917</v>
       </c>
       <c r="M36">
-        <v>1.8375</v>
+        <v>1.8636</v>
       </c>
       <c r="N36" t="s">
         <v>156</v>
@@ -6031,8 +7104,64 @@
       <c r="T36" t="s">
         <v>185</v>
       </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
+      <c r="CV36" s="1"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:100">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -6049,13 +7178,13 @@
         <v>1.262</v>
       </c>
       <c r="J37" s="11">
-        <v>1.7741935483871</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>3.35790335790335</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>1.262</v>
@@ -6083,62 +7212,183 @@
       <c r="T37" t="s">
         <v>166</v>
       </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1"/>
+      <c r="CP37" s="1"/>
+      <c r="CQ37" s="1"/>
+      <c r="CR37" s="1"/>
+      <c r="CS37" s="1"/>
+      <c r="CT37" s="1"/>
+      <c r="CU37" s="1"/>
+      <c r="CV37" s="1"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:100">
       <c r="A38" s="37" t="s">
         <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H38" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J38" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" t="s">
-        <v>185</v>
-      </c>
-      <c r="L38" t="s">
-        <v>185</v>
+        <v>213</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>1.4815</v>
+      </c>
+      <c r="J38" s="12">
+        <v>-0.14154758695066</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>-0.14154758695066</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.4815</v>
       </c>
       <c r="N38" t="s">
-        <v>185</v>
-      </c>
-      <c r="O38" t="e">
+        <v>70</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-3.30070874114073</v>
+      </c>
+      <c r="P38">
+        <v>1.4326</v>
       </c>
       <c r="Q38" t="s">
-        <v>213</v>
-      </c>
-      <c r="R38" t="e">
+        <v>214</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.0472494093823775</v>
+      </c>
+      <c r="S38">
+        <v>1.4822</v>
       </c>
       <c r="T38" t="s">
-        <v>214</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1"/>
+      <c r="CP38" s="1"/>
+      <c r="CQ38" s="1"/>
+      <c r="CR38" s="1"/>
+      <c r="CS38" s="1"/>
+      <c r="CT38" s="1"/>
+      <c r="CU38" s="1"/>
+      <c r="CV38" s="1"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:100">
       <c r="A39">
         <v>968029</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
         <v>185</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H39" t="s">
         <v>185</v>
@@ -6155,6 +7405,7 @@
       <c r="L39" t="s">
         <v>185</v>
       </c>
+      <c r="M39" s="1"/>
       <c r="N39" t="s">
         <v>185</v>
       </c>
@@ -6172,6 +7423,62 @@
       <c r="T39" t="s">
         <v>185</v>
       </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
@@ -6277,6 +7584,7 @@
     <hyperlink ref="B35" r:id="rId34" display="融通创业板指数A"/>
     <hyperlink ref="B36" r:id="rId35" display="易标普信息科技人民币"/>
     <hyperlink ref="B37" r:id="rId36" display="富国中证智能汽车(LOF)"/>
+    <hyperlink ref="B38" r:id="rId37" display="国联安中证半导体ETF联接C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6356,22 +7664,22 @@
   <sheetData>
     <row r="1" ht="15.15" customHeight="1" spans="1:62">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -6380,37 +7688,37 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O1" t="s">
         <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="T1" t="s">
         <v>22</v>
@@ -6419,7 +7727,7 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="W1" t="s">
         <v>25</v>
@@ -6428,7 +7736,7 @@
         <v>26</v>
       </c>
       <c r="Y1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -6437,7 +7745,7 @@
         <v>29</v>
       </c>
       <c r="AB1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AC1" t="s">
         <v>31</v>
@@ -6446,7 +7754,7 @@
         <v>32</v>
       </c>
       <c r="AE1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF1" t="s">
         <v>34</v>
@@ -6455,7 +7763,7 @@
         <v>35</v>
       </c>
       <c r="AH1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI1" t="s">
         <v>37</v>
@@ -6464,7 +7772,7 @@
         <v>38</v>
       </c>
       <c r="AK1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL1" t="s">
         <v>40</v>
@@ -6473,7 +7781,7 @@
         <v>41</v>
       </c>
       <c r="AN1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -6482,7 +7790,7 @@
         <v>44</v>
       </c>
       <c r="AQ1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AR1" t="s">
         <v>46</v>
@@ -6491,7 +7799,7 @@
         <v>47</v>
       </c>
       <c r="AT1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -6500,7 +7808,7 @@
         <v>50</v>
       </c>
       <c r="AW1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AX1" t="s">
         <v>52</v>
@@ -6509,7 +7817,7 @@
         <v>53</v>
       </c>
       <c r="AZ1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BA1" t="s">
         <v>55</v>
@@ -6518,7 +7826,7 @@
         <v>56</v>
       </c>
       <c r="BC1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BD1" t="s">
         <v>58</v>
@@ -6527,7 +7835,7 @@
         <v>59</v>
       </c>
       <c r="BF1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -6536,7 +7844,7 @@
         <v>62</v>
       </c>
       <c r="BI1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BJ1" t="s">
         <v>64</v>
@@ -6544,48 +7852,48 @@
     </row>
     <row r="2" ht="15.15" customHeight="1" spans="1:97">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F2" s="12">
-        <v>3085.1976</v>
+        <v>3083.7858</v>
       </c>
       <c r="G2" s="12">
-        <v>1.14990734802914</v>
+        <v>-0.0457604401092448</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="12">
-        <v>2.66759244607926</v>
+        <v>-0.0457604401092448</v>
       </c>
       <c r="J2" s="12">
-        <v>3.271971226</v>
+        <v>2.899917084</v>
       </c>
       <c r="K2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L2" s="13">
         <f t="shared" ref="L2:L17" si="0">(M2-F2)/F2*100</f>
-        <v>-6.97516424879884</v>
+        <v>-6.93257618606325</v>
       </c>
       <c r="M2">
         <v>2870</v>
       </c>
       <c r="O2" s="13">
         <f t="shared" ref="O2:O17" si="1">(P2-F2)/F2*100</f>
-        <v>5.76307981051198</v>
+        <v>5.81149961842356</v>
       </c>
       <c r="P2">
         <v>3263</v>
@@ -6673,39 +7981,39 @@
     </row>
     <row r="3" ht="15.15" customHeight="1" spans="1:97">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3078.2793</v>
+      </c>
+      <c r="G3" s="12">
+        <v>-0.406162338561719</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>-0.406162338561719</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.723467892</v>
+      </c>
+      <c r="K3" t="s">
         <v>250</v>
-      </c>
-      <c r="F3" s="12">
-        <v>3090.8331</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.901473254116006</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="12">
-        <v>3.51069570043384</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0.947737292</v>
-      </c>
-      <c r="K3" t="s">
-        <v>248</v>
       </c>
       <c r="L3" s="13">
         <f t="shared" si="0"/>
-        <v>-11.1242855526557</v>
+        <v>-10.7618337296424</v>
       </c>
       <c r="M3">
         <v>2747</v>
       </c>
       <c r="O3" s="13">
         <f t="shared" si="1"/>
-        <v>-1.57993325488846</v>
+        <v>-1.1785577741435</v>
       </c>
       <c r="P3">
         <v>3042</v>
@@ -6793,39 +8101,39 @@
     </row>
     <row r="4" ht="15.15" customHeight="1" spans="1:97">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="12">
-        <v>4152.2408</v>
+        <v>4144.9649</v>
       </c>
       <c r="G4" s="12">
-        <v>1.35866189524189</v>
+        <v>-0.175228276741552</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="12">
-        <v>3.23749626991638</v>
+        <v>-0.175228276741552</v>
       </c>
       <c r="J4" s="12">
-        <v>2.70105532</v>
+        <v>2.152162883</v>
       </c>
       <c r="K4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L4" s="13">
         <f t="shared" si="0"/>
-        <v>-12.5050743685193</v>
+        <v>-12.3514893937944</v>
       </c>
       <c r="M4">
         <v>3633</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="1"/>
-        <v>-0.776467491962402</v>
+        <v>-0.602294605679289</v>
       </c>
       <c r="P4">
         <v>4120</v>
@@ -6913,39 +8221,39 @@
     </row>
     <row r="5" ht="15.15" customHeight="1" spans="1:97">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F5" s="12">
-        <v>4503.087</v>
+        <v>4501.637</v>
       </c>
       <c r="G5" s="12">
-        <v>1.40735739739208</v>
+        <v>-0.0322001329310477</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="12">
-        <v>3.41102827569864</v>
+        <v>-0.0322001329310477</v>
       </c>
       <c r="J5" s="12">
-        <v>0.481234354</v>
+        <v>0.342078255</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
-        <v>-9.15121115803449</v>
+        <v>-9.12194830458342</v>
       </c>
       <c r="M5">
         <v>4091</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="1"/>
-        <v>12.8115001997518</v>
+        <v>12.8478373533895</v>
       </c>
       <c r="P5">
         <v>5080</v>
@@ -7033,39 +8341,39 @@
     </row>
     <row r="6" ht="15.15" customHeight="1" spans="1:97">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F6" s="12">
-        <v>5366.1375</v>
+        <v>5380.6372</v>
       </c>
       <c r="G6" s="12">
-        <v>1.86943080746522</v>
+        <v>0.270207388461445</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="12">
-        <v>3.60953151600126</v>
+        <v>3.88949212530779</v>
       </c>
       <c r="J6" s="12">
-        <v>1.368137523</v>
+        <v>1.221997255</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L6" s="13">
         <f t="shared" si="0"/>
-        <v>-14.2772618107531</v>
+        <v>-14.5082667904091</v>
       </c>
       <c r="M6">
         <v>4600</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="1"/>
-        <v>9.01696052328141</v>
+        <v>8.72318245132751</v>
       </c>
       <c r="P6">
         <v>5850</v>
@@ -7153,39 +8461,39 @@
     </row>
     <row r="7" ht="15.15" customHeight="1" spans="1:97">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F7" s="12">
-        <v>9864.765</v>
+        <v>9749.194</v>
       </c>
       <c r="G7" s="12">
-        <v>1.20961970849088</v>
+        <v>-1.17155350380876</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12">
-        <v>4.12672540194241</v>
+        <v>-1.17155350380876</v>
       </c>
       <c r="J7" s="12">
-        <v>0.549719154</v>
+        <v>0.45526646</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="0"/>
-        <v>-37.1196374166034</v>
+        <v>-36.3742274489563</v>
       </c>
       <c r="M7">
         <v>6203</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="1"/>
-        <v>-3.98149373046392</v>
+        <v>-2.84325042665065</v>
       </c>
       <c r="P7">
         <v>9472</v>
@@ -7273,32 +8581,32 @@
     </row>
     <row r="8" ht="15.15" customHeight="1" spans="1:97">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F8" s="12">
-        <v>16205.7936</v>
+        <v>16071.9259</v>
       </c>
       <c r="G8" s="12">
-        <v>0.51328732061824</v>
+        <v>-0.826048407774369</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="12">
-        <v>4.77970417014051</v>
+        <v>-0.826048407774369</v>
       </c>
       <c r="J8" s="12">
-        <v>0.399364102</v>
+        <v>0.316745542</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>-8.61910027041194</v>
+        <v>-7.85796243622552</v>
       </c>
       <c r="M8">
         <v>14809</v>
@@ -7308,7 +8616,7 @@
       </c>
       <c r="O8" s="13">
         <f t="shared" si="1"/>
-        <v>2.53740366037982</v>
+        <v>3.3914672292012</v>
       </c>
       <c r="P8">
         <v>16617</v>
@@ -7399,32 +8707,32 @@
     </row>
     <row r="9" ht="15.15" customHeight="1" spans="1:97">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F9" s="12">
-        <v>10011.7326</v>
+        <v>9985.6603</v>
       </c>
       <c r="G9" s="12">
-        <v>0.296277627431188</v>
+        <v>-0.260417462607819</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12">
-        <v>2.9417532970568</v>
+        <v>-0.260417462607819</v>
       </c>
       <c r="J9" s="12">
-        <v>0.497540249</v>
+        <v>0.41728385</v>
       </c>
       <c r="K9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>-14.9298094517626</v>
+        <v>-14.707693391092</v>
       </c>
       <c r="M9">
         <v>8517</v>
@@ -7434,7 +8742,7 @@
       </c>
       <c r="O9" s="13">
         <f t="shared" si="1"/>
-        <v>3.39868645712732</v>
+        <v>3.66865774514681</v>
       </c>
       <c r="P9">
         <v>10352</v>
@@ -7525,35 +8833,35 @@
     </row>
     <row r="10" ht="15.15" customHeight="1" spans="1:97">
       <c r="A10" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="12">
+        <v>10868.8665</v>
+      </c>
+      <c r="G10" s="12">
+        <v>-0.331378166570571</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>-0.350099183537399</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.15633092</v>
+      </c>
+      <c r="K10" t="s">
         <v>265</v>
-      </c>
-      <c r="B10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="12">
-        <v>10905.0033</v>
-      </c>
-      <c r="G10" s="12">
-        <v>-0.0187832605913988</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>-0.0187832605913988</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.178080539</v>
-      </c>
-      <c r="K10" t="s">
-        <v>258</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>-16.4878748821653</v>
+        <v>-16.2102138249651</v>
       </c>
       <c r="M10">
         <v>9107</v>
@@ -7563,7 +8871,7 @@
       </c>
       <c r="O10" s="13">
         <f t="shared" si="1"/>
-        <v>6.06140761094497</v>
+        <v>6.41404050735189</v>
       </c>
       <c r="P10">
         <v>11566</v>
@@ -7654,35 +8962,35 @@
     </row>
     <row r="11" ht="15.15" customHeight="1" spans="1:97">
       <c r="A11" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F11" s="12">
-        <v>793.18</v>
+        <v>792.174</v>
       </c>
       <c r="G11" s="12">
-        <v>0.653400691089564</v>
+        <v>-0.126831236289363</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="12">
-        <v>0.653387918319456</v>
+        <v>-0.126856419260092</v>
       </c>
       <c r="J11" s="12">
-        <v>0.602145422</v>
+        <v>0.390446819</v>
       </c>
       <c r="K11" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>-14.6473688191835</v>
+        <v>-14.538977547862</v>
       </c>
       <c r="M11">
         <v>677</v>
@@ -7692,7 +9000,7 @@
       </c>
       <c r="O11" s="13">
         <f t="shared" si="1"/>
-        <v>-1.03129176227337</v>
+        <v>-0.905609121228414</v>
       </c>
       <c r="P11">
         <v>785</v>
@@ -7783,39 +9091,39 @@
     </row>
     <row r="12" ht="15.15" customHeight="1" spans="1:97">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F12" s="12">
-        <v>1832.742</v>
+        <v>1836.012</v>
       </c>
       <c r="G12" s="12">
-        <v>1.9255688447588</v>
+        <v>0.17842118530595</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="12">
-        <v>3.68640365045623</v>
+        <v>3.87140216085049</v>
       </c>
       <c r="J12" s="12">
-        <v>1.400755236</v>
+        <v>1.391250909</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>-22.7387160876981</v>
+        <v>-22.8763210697969</v>
       </c>
       <c r="M12">
         <v>1416</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="1"/>
-        <v>-3.53252121684339</v>
+        <v>-3.70433308714758</v>
       </c>
       <c r="P12">
         <v>1768</v>
@@ -7903,32 +9211,32 @@
     </row>
     <row r="13" ht="15.15" customHeight="1" spans="1:97">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F13" s="12">
-        <v>6934.355</v>
+        <v>6951.823</v>
       </c>
       <c r="G13" s="12">
-        <v>1.60956610804291</v>
+        <v>0.251905188009566</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="12">
-        <v>1.60956610804291</v>
+        <v>1.86552587658308</v>
       </c>
       <c r="J13" s="12">
-        <v>0.213348017</v>
+        <v>0.136329929</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>-8.52790201828432</v>
+        <v>-8.7577459897929</v>
       </c>
       <c r="M13">
         <v>6343</v>
@@ -7938,7 +9246,7 @@
       </c>
       <c r="O13" s="13">
         <f t="shared" si="1"/>
-        <v>-0.0339613417542016</v>
+        <v>-0.285148226587477</v>
       </c>
       <c r="P13">
         <v>6932</v>
@@ -8029,35 +9337,35 @@
     </row>
     <row r="14" ht="15.15" customHeight="1" spans="1:97">
       <c r="A14" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F14" s="11">
-        <v>9119.139</v>
+        <v>9068.611</v>
       </c>
       <c r="G14" s="11">
-        <v>0.155794307143117</v>
+        <v>-0.554087397944021</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>2.66631120353953</v>
+        <v>-0.554087397944021</v>
       </c>
       <c r="J14" s="11">
-        <v>0.092022481</v>
+        <v>0.088669681</v>
       </c>
       <c r="K14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>-1.99732672130559</v>
+        <v>-1.45128068675568</v>
       </c>
       <c r="M14">
         <v>8937</v>
@@ -8067,7 +9375,7 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="1"/>
-        <v>8.54094887686218</v>
+        <v>9.14571150973395</v>
       </c>
       <c r="P14">
         <v>9898</v>
@@ -8158,39 +9466,39 @@
     </row>
     <row r="15" ht="15.15" customHeight="1" spans="1:97">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F15" s="12">
-        <v>5793.2386</v>
+        <v>5776.5939</v>
       </c>
       <c r="G15" s="12">
-        <v>1.09828563181688</v>
+        <v>-0.385677829911278</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="12">
-        <v>1.09828563181688</v>
+        <v>-0.250722076160319</v>
       </c>
       <c r="J15" s="12">
-        <v>0.54362904</v>
+        <v>0.459662051</v>
       </c>
       <c r="K15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>-25.6374491463203</v>
+        <v>-25.4231806047505</v>
       </c>
       <c r="M15">
         <v>4308</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="1"/>
-        <v>-2.93857394376955</v>
+        <v>-2.65890077542061</v>
       </c>
       <c r="P15">
         <v>5623</v>
@@ -8278,32 +9586,32 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F16" s="12">
-        <v>28543.52</v>
+        <v>28451.5</v>
       </c>
       <c r="G16" s="12">
-        <v>1.25</v>
+        <v>-0.32</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>-11.3564129441639</v>
+        <v>-11.069715129255</v>
       </c>
       <c r="M16">
         <v>25302</v>
       </c>
       <c r="O16" s="13">
         <f t="shared" si="1"/>
-        <v>5.65270155888272</v>
+        <v>5.99441154244943</v>
       </c>
       <c r="P16">
         <v>30157</v>
@@ -8391,32 +9699,32 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F17" s="12">
-        <v>8872.2188</v>
+        <v>8793.9039</v>
       </c>
       <c r="G17" s="12">
-        <v>1.59</v>
+        <v>-0.88</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>-19.2310270797199</v>
+        <v>-18.5117317463521</v>
       </c>
       <c r="M17">
         <v>7166</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="1"/>
-        <v>-9.71818684183037</v>
+        <v>-8.91417405641651</v>
       </c>
       <c r="P17">
         <v>8010</v>
@@ -8611,97 +9919,97 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
         <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
         <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I1" t="s">
         <v>185</v>
       </c>
       <c r="J1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K1" t="s">
         <v>185</v>
       </c>
       <c r="L1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M1" t="s">
         <v>185</v>
       </c>
       <c r="N1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
       </c>
       <c r="P1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s">
         <v>185</v>
       </c>
       <c r="R1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s">
         <v>185</v>
       </c>
       <c r="T1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="U1" t="s">
         <v>185</v>
       </c>
       <c r="V1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="W1" t="s">
         <v>185</v>
       </c>
       <c r="X1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s">
         <v>185</v>
       </c>
       <c r="Z1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AA1" t="s">
         <v>185</v>
       </c>
       <c r="AB1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AC1" t="s">
         <v>185</v>
       </c>
       <c r="AD1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AE1" t="s">
         <v>185</v>
       </c>
       <c r="AF1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>185</v>
@@ -8712,7 +10020,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
         <v>185</v>
@@ -8736,13 +10044,13 @@
         <v>66</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
         <v>82</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
         <v>72</v>
@@ -8784,28 +10092,28 @@
         <v>153</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AB2" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="AC2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>251</v>
-      </c>
       <c r="AE2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AG2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -8813,7 +10121,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>89308</v>
+        <v>3000</v>
       </c>
       <c r="C3" t="s">
         <v>185</v>
@@ -8882,7 +10190,7 @@
         <v>3000</v>
       </c>
       <c r="Y3">
-        <v>2.709</v>
+        <v>2.744</v>
       </c>
       <c r="Z3">
         <v>19308</v>
@@ -8914,10 +10222,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11">
-        <v>6622.92100958407</v>
+        <v>154.022988505747</v>
       </c>
       <c r="C4" s="11">
-        <v>7.4158205419269</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="D4" s="11">
         <v>2049.08864954432</v>
@@ -8980,10 +10288,10 @@
         <v>0.523864959254955</v>
       </c>
       <c r="X4" s="12">
-        <v>113.793103448276</v>
+        <v>154.022988505747</v>
       </c>
       <c r="Y4" s="12">
-        <v>3.79310344827587</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="Z4" s="12">
         <v>1442.69205765272</v>
@@ -9015,10 +10323,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11">
-        <v>1055.2508101059</v>
+        <v>38.7596899224808</v>
       </c>
       <c r="C5" s="11">
-        <v>1.18158598345713</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="D5" s="11">
         <v>85.4570013507413</v>
@@ -9081,10 +10389,10 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="X5" s="12">
-        <v>6.65926748057739</v>
+        <v>38.7596899224808</v>
       </c>
       <c r="Y5" s="12">
-        <v>0.221975582685913</v>
+        <v>1.29198966408269</v>
       </c>
       <c r="Z5" s="12">
         <v>241.35</v>
@@ -9119,7 +10427,7 @@
         <v>20190909</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>185</v>
@@ -9321,7 +10629,7 @@
         <v>20191008</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
         <v>185</v>
@@ -9523,7 +10831,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
         <v>185</v>
@@ -9722,10 +11030,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
         <v>185</v>
@@ -9927,7 +11235,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D14">
         <v>13000</v>
@@ -10126,10 +11434,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
         <v>185</v>
@@ -10328,10 +11636,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>185</v>
@@ -10426,7 +11734,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>185</v>
@@ -10495,10 +11803,10 @@
         <v>185</v>
       </c>
       <c r="X19" s="11">
-        <v>113.793103448276</v>
+        <v>154.022988505747</v>
       </c>
       <c r="Y19" s="11">
-        <v>3.79310344827587</v>
+        <v>5.13409961685825</v>
       </c>
       <c r="Z19" s="12" t="s">
         <v>185</v>
@@ -10527,13 +11835,13 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
         <v>185</v>
@@ -10548,13 +11856,13 @@
         <v>185</v>
       </c>
       <c r="H20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I20">
         <v>2.2221</v>
       </c>
       <c r="J20" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K20">
         <v>2.184</v>
@@ -10628,7 +11936,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
         <v>185</v>
@@ -10729,13 +12037,13 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
         <v>185</v>
@@ -10768,19 +12076,19 @@
         <v>185</v>
       </c>
       <c r="N22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="O22">
         <v>1.244</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q22">
         <v>1.022</v>
       </c>
       <c r="R22" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="S22">
         <v>1.8156</v>
@@ -10830,7 +12138,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B23" t="s">
         <v>185</v>
@@ -10931,13 +12239,13 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
         <v>185</v>
@@ -10964,7 +12272,7 @@
         <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M24">
         <v>1.282</v>
@@ -11133,14 +12441,14 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C26" t="s">
         <v>300</v>
       </c>
-      <c r="C26" t="s">
-        <v>296</v>
-      </c>
       <c r="D26" t="s">
         <v>185</v>
       </c>
@@ -11208,10 +12516,10 @@
         <v>185</v>
       </c>
       <c r="Z26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AA26" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AB26" t="s">
         <v>185</v>
@@ -11234,7 +12542,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
         <v>185</v>
@@ -11335,13 +12643,13 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D28" s="13">
         <v>13000</v>
@@ -11436,25 +12744,25 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D29">
         <v>2031.05</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H29">
         <v>-19.41</v>
@@ -11466,7 +12774,7 @@
         <v>145.67</v>
       </c>
       <c r="K29" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L29">
         <v>-34.76</v>
@@ -11478,7 +12786,7 @@
         <v>39.75</v>
       </c>
       <c r="O29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P29">
         <v>-139.32</v>
@@ -11490,19 +12798,19 @@
         <v>42.09</v>
       </c>
       <c r="S29" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="T29">
         <v>24.4</v>
       </c>
       <c r="U29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="V29">
         <v>15.72</v>
       </c>
       <c r="W29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="X29" t="s">
         <v>185</v>
@@ -11511,13 +12819,13 @@
         <v>185</v>
       </c>
       <c r="Z29" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AA29">
         <v>3.44</v>
       </c>
       <c r="AB29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AC29">
         <v>4.79</v>
@@ -11791,6 +13099,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6072" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6089" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6090" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6109" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6110" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" dxfId="6" priority="2045" stopIfTrue="1" operator="greaterThan">
@@ -11943,6 +13263,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6074" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6091" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6092" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6111" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6112" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="6" priority="2203" stopIfTrue="1" operator="greaterThan">
@@ -15135,6 +16467,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6036" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6081" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6082" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6101" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6102" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" dxfId="6" priority="2009" stopIfTrue="1" operator="greaterThan">
@@ -15287,6 +16631,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6038" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6083" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6084" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6103" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6104" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" dxfId="6" priority="2023" stopIfTrue="1" operator="greaterThan">
@@ -16047,6 +17403,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6076" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6093" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6094" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6113" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6114" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" dxfId="6" priority="2049" stopIfTrue="1" operator="greaterThan">
@@ -16199,6 +17567,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6078" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6095" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6096" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6115" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6116" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="6" priority="2205" stopIfTrue="1" operator="greaterThan">
@@ -19391,6 +20771,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6040" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6085" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6086" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6105" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6106" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" dxfId="6" priority="2013" stopIfTrue="1" operator="greaterThan">
@@ -19543,6 +20935,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6042" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6087" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6088" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6107" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6108" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" dxfId="6" priority="2027" stopIfTrue="1" operator="greaterThan">
@@ -21836,13 +23240,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1780" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1895" stopIfTrue="1" operator="greaterThan">
@@ -22117,16 +23521,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1897" stopIfTrue="1" operator="greaterThan">
@@ -22359,16 +23763,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1844" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1991" stopIfTrue="1" operator="greaterThan">
@@ -23005,6 +24409,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6032" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6097" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6098" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
     <cfRule type="cellIs" dxfId="6" priority="444" stopIfTrue="1" operator="greaterThan">
@@ -23247,6 +24663,18 @@
     <cfRule type="cellIs" dxfId="7" priority="6034" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6099" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6100" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
     <cfRule type="cellIs" dxfId="6" priority="454" stopIfTrue="1" operator="greaterThan">
@@ -23327,16 +24755,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1864" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2019" stopIfTrue="1" operator="greaterThan">
@@ -23345,7 +24773,7 @@
     <cfRule type="cellIs" dxfId="7" priority="2020" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2188" stopIfTrue="1" operator="lessThan">
@@ -23554,19 +24982,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1866" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="2021" stopIfTrue="1" operator="greaterThan">
@@ -24265,22 +25693,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1796" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1919" stopIfTrue="1" operator="greaterThan">
@@ -24507,22 +25935,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1798" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1921" stopIfTrue="1" operator="greaterThan">
@@ -24743,22 +26171,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1812" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1943" stopIfTrue="1" operator="greaterThan">
@@ -25469,16 +26897,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1822" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1957" stopIfTrue="1" operator="greaterThan">
@@ -25711,16 +27139,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1828" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1967" stopIfTrue="1" operator="greaterThan">
@@ -25953,16 +27381,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1830" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1969" stopIfTrue="1" operator="greaterThan">
@@ -26192,19 +27620,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1836" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1979" stopIfTrue="1" operator="greaterThan">
@@ -26431,22 +27859,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1838" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1981" stopIfTrue="1" operator="greaterThan">
@@ -26673,22 +28101,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1804" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1931" stopIfTrue="1" operator="greaterThan">
@@ -26915,22 +28343,22 @@
     <cfRule type="cellIs" dxfId="7" priority="1806" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1933" stopIfTrue="1" operator="greaterThan">
@@ -28449,10 +29877,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1808" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28651,16 +30079,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1816" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28770,13 +30198,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1818" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28865,10 +30293,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28960,7 +30388,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1826" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29046,13 +30474,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1832" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29138,13 +30566,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1834" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29227,16 +30655,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1840" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29316,19 +30744,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1842" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29969,10 +31397,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1876" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6080" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6117" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30064,7 +31492,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1878" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6080" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6117" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30132,28 +31560,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -30164,13 +31592,13 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -30179,7 +31607,7 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -30190,13 +31618,13 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -30205,67 +31633,67 @@
         <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
         <v>185</v>
@@ -30283,24 +31711,24 @@
         <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F7" t="s">
         <v>185</v>
@@ -30309,7 +31737,7 @@
         <v>185</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
@@ -30320,13 +31748,13 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>185</v>
@@ -30335,15 +31763,15 @@
         <v>185</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
@@ -30361,15 +31789,15 @@
         <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C10" t="s">
         <v>185</v>
@@ -30387,15 +31815,15 @@
         <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>185</v>
@@ -30413,15 +31841,15 @@
         <v>185</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
         <v>185</v>
@@ -30439,15 +31867,15 @@
         <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>185</v>
@@ -30465,7 +31893,7 @@
         <v>185</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -30493,100 +31921,100 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G21" s="5"/>
       <c r="J21" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -30594,7 +32022,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="6" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C22" s="7"/>
       <c r="F22" s="4"/>
@@ -30603,120 +32031,120 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="2:14">
       <c r="B23" s="6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="2:14">
       <c r="B24" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="6" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M25" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="6" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M26" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1233,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV44"/>
+  <dimension ref="A1:CK44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -5650,22 +5650,22 @@
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43" s="0" t="n">
         <v>2.056</v>
       </c>
       <c r="J43" s="11" t="n">
         <v>2.74862568715643</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" s="0" t="n">
         <v>2.34942332336607</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" s="0" t="n">
         <v>2.396</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N43" s="0" t="inlineStr">
         <is>
           <t>2020-02-04</t>
         </is>
@@ -5692,19 +5692,29 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="0" t="inlineStr">
         <is>
           <t>007801</t>
         </is>
       </c>
-      <c r="O44">
+      <c r="B44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" s="0">
         <f>(P44-I44)/I44*100</f>
         <v/>
       </c>
-      <c r="R44">
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" s="0">
         <f>(S44-I44)/I44*100</f>
         <v/>
       </c>
+      <c r="T44" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H65536">
@@ -10083,7 +10093,7 @@
         </is>
       </c>
       <c r="G1" s="0" t="inlineStr"/>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
         </is>
@@ -12091,7 +12101,11 @@
       <c r="AD30" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AE30" s="0" t="inlineStr"/>
+      <c r="AE30" s="0" t="inlineStr">
+        <is>
+          <t>26786.74</t>
+        </is>
+      </c>
       <c r="AF30" s="0" t="inlineStr"/>
       <c r="AG30" s="0" t="inlineStr"/>
       <c r="AH30" s="0" t="inlineStr"/>
@@ -12100,84 +12114,84 @@
       <c r="AK30" s="0" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="B31" s="0" t="inlineStr"/>
+      <c r="C31" s="0" t="inlineStr"/>
+      <c r="D31" s="0" t="inlineStr"/>
+      <c r="E31" s="0" t="inlineStr"/>
+      <c r="F31" s="0" t="inlineStr"/>
+      <c r="G31" s="0" t="inlineStr"/>
+      <c r="H31" s="0" t="inlineStr"/>
+      <c r="I31" s="0" t="inlineStr"/>
+      <c r="J31" s="0" t="inlineStr"/>
+      <c r="K31" s="0" t="inlineStr"/>
+      <c r="L31" s="0" t="inlineStr"/>
+      <c r="M31" s="0" t="inlineStr"/>
+      <c r="N31" s="0" t="inlineStr"/>
+      <c r="O31" s="0" t="inlineStr"/>
+      <c r="P31" s="0" t="inlineStr"/>
+      <c r="Q31" s="0" t="inlineStr"/>
+      <c r="R31" s="0" t="inlineStr"/>
+      <c r="S31" s="0" t="inlineStr"/>
+      <c r="T31" s="0" t="inlineStr"/>
+      <c r="U31" s="0" t="inlineStr"/>
+      <c r="V31" s="0" t="inlineStr"/>
+      <c r="W31" s="0" t="inlineStr"/>
+      <c r="X31" s="0" t="inlineStr"/>
+      <c r="Y31" s="0" t="inlineStr"/>
+      <c r="Z31" s="0" t="inlineStr"/>
+      <c r="AA31" s="0" t="inlineStr"/>
+      <c r="AB31" s="0" t="inlineStr"/>
+      <c r="AC31" s="0" t="inlineStr"/>
+      <c r="AD31" s="0" t="inlineStr"/>
+      <c r="AE31" s="0" t="inlineStr"/>
+      <c r="AF31" s="0" t="inlineStr"/>
+      <c r="AG31" s="0" t="inlineStr"/>
+      <c r="AH31" s="0" t="inlineStr"/>
+      <c r="AI31" s="0" t="inlineStr"/>
+      <c r="AJ31" s="0" t="inlineStr"/>
+      <c r="AK31" s="0" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="A32" s="0" t="inlineStr"/>
+      <c r="B32" s="0" t="inlineStr"/>
+      <c r="C32" s="0" t="inlineStr"/>
+      <c r="D32" s="0" t="inlineStr"/>
+      <c r="E32" s="0" t="inlineStr"/>
+      <c r="F32" s="0" t="inlineStr"/>
+      <c r="G32" s="0" t="inlineStr"/>
+      <c r="H32" s="0" t="inlineStr"/>
+      <c r="I32" s="0" t="inlineStr"/>
+      <c r="J32" s="0" t="inlineStr"/>
+      <c r="K32" s="0" t="inlineStr"/>
+      <c r="L32" s="0" t="inlineStr"/>
+      <c r="M32" s="0" t="inlineStr"/>
+      <c r="N32" s="0" t="inlineStr"/>
+      <c r="O32" s="0" t="inlineStr"/>
+      <c r="P32" s="0" t="inlineStr"/>
+      <c r="Q32" s="0" t="inlineStr"/>
+      <c r="R32" s="0" t="inlineStr"/>
+      <c r="S32" s="0" t="inlineStr"/>
+      <c r="T32" s="0" t="inlineStr"/>
+      <c r="U32" s="0" t="inlineStr"/>
+      <c r="V32" s="0" t="inlineStr"/>
+      <c r="W32" s="0" t="inlineStr"/>
+      <c r="X32" s="0" t="inlineStr"/>
+      <c r="Y32" s="0" t="inlineStr"/>
+      <c r="Z32" s="0" t="inlineStr"/>
+      <c r="AA32" s="0" t="inlineStr"/>
+      <c r="AB32" s="0" t="inlineStr"/>
+      <c r="AC32" s="0" t="inlineStr"/>
+      <c r="AD32" s="0" t="inlineStr"/>
+      <c r="AE32" s="0" t="inlineStr"/>
+      <c r="AF32" s="0" t="inlineStr"/>
+      <c r="AG32" s="0" t="inlineStr"/>
+      <c r="AH32" s="0" t="inlineStr"/>
+      <c r="AI32" s="0" t="inlineStr"/>
+      <c r="AJ32" s="0" t="inlineStr"/>
+      <c r="AK32" s="0" t="inlineStr"/>
     </row>
     <row r="33"/>
     <row r="34"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -547,6 +547,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -554,61 +555,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
@@ -617,13 +618,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyAlignment="1">
@@ -635,10 +636,10 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
@@ -647,58 +648,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,7 +1305,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" style="10" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="3" min="2" max="2"/>
@@ -7799,7 +7800,7 @@
         <f>(P44-I44)/I44*100</f>
         <v/>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" s="0" t="n">
         <v>1.542</v>
       </c>
       <c r="Q44" s="0" t="inlineStr">
@@ -7811,7 +7812,7 @@
         <f>(S44-I44)/I44*100</f>
         <v/>
       </c>
-      <c r="S44" t="n">
+      <c r="S44" s="0" t="n">
         <v>1.725</v>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -8010,48 +8011,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId40"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId41"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8069,7 +8028,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="3" min="2" max="2"/>
@@ -14009,20 +13968,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14034,13 +13986,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="5" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="10" min="2" max="2"/>
@@ -14104,7 +14056,7 @@
           <t>基金</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr"/>
+      <c r="M1" s="0" t="n"/>
       <c r="N1" s="0" t="inlineStr">
         <is>
           <t>基金</t>
@@ -14155,7 +14107,7 @@
       <c r="AC1" s="0" t="inlineStr"/>
       <c r="AD1" s="0" t="inlineStr">
         <is>
-          <t>指数</t>
+          <t>基金</t>
         </is>
       </c>
       <c r="AE1" s="0" t="inlineStr"/>
@@ -14177,6 +14129,12 @@
         </is>
       </c>
       <c r="AK1" s="0" t="inlineStr"/>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>指数</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
@@ -14228,128 +14186,138 @@
       </c>
       <c r="L2" s="39" t="inlineStr">
         <is>
+          <t>161028</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>富国中证新能源汽车指数分级</t>
+        </is>
+      </c>
+      <c r="N2" s="39" t="inlineStr">
+        <is>
           <t>005911</t>
         </is>
       </c>
-      <c r="M2" s="0" t="inlineStr">
+      <c r="O2" s="0" t="inlineStr">
         <is>
           <t>广发双擎升级混合</t>
         </is>
       </c>
-      <c r="N2" s="39" t="inlineStr">
+      <c r="P2" s="10" t="inlineStr">
         <is>
           <t>161810</t>
         </is>
       </c>
-      <c r="O2" s="0" t="inlineStr">
+      <c r="Q2" s="0" t="inlineStr">
         <is>
           <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
-      <c r="P2" s="10" t="inlineStr">
+      <c r="R2" s="10" t="inlineStr">
         <is>
           <t>320007</t>
         </is>
       </c>
-      <c r="Q2" s="0" t="inlineStr">
+      <c r="S2" s="0" t="inlineStr">
         <is>
           <t>诺安成长混合</t>
         </is>
       </c>
-      <c r="R2" s="10" t="inlineStr">
+      <c r="T2" s="10" t="inlineStr">
         <is>
           <t>161033</t>
         </is>
       </c>
-      <c r="S2" s="0" t="inlineStr">
+      <c r="U2" s="0" t="inlineStr">
         <is>
           <t>富国中证智能汽车(LOF)</t>
         </is>
       </c>
-      <c r="T2" s="10" t="inlineStr">
+      <c r="V2" s="10" t="inlineStr">
         <is>
           <t>519005</t>
         </is>
       </c>
-      <c r="U2" s="0" t="inlineStr">
+      <c r="W2" s="0" t="inlineStr">
         <is>
           <t>海富通股票混合</t>
         </is>
       </c>
-      <c r="V2" s="10" t="inlineStr">
+      <c r="X2" s="0" t="inlineStr">
         <is>
           <t>110003</t>
         </is>
       </c>
-      <c r="W2" s="0" t="inlineStr">
+      <c r="Y2" s="0" t="inlineStr">
         <is>
           <t>易方达上证50指数A</t>
         </is>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>110011</v>
       </c>
-      <c r="Y2" s="0" t="inlineStr">
+      <c r="AA2" s="0" t="inlineStr">
         <is>
           <t>易方达中小盘混合</t>
         </is>
       </c>
-      <c r="Z2" s="0" t="inlineStr">
+      <c r="AB2" s="0" t="inlineStr">
         <is>
           <t>003096</t>
         </is>
       </c>
-      <c r="AA2" s="0" t="inlineStr">
+      <c r="AC2" s="0" t="inlineStr">
         <is>
           <t>中欧医疗健康混合C</t>
         </is>
       </c>
-      <c r="AB2" s="0" t="inlineStr">
+      <c r="AD2" s="10" t="inlineStr">
         <is>
           <t>040046</t>
         </is>
       </c>
-      <c r="AC2" s="0" t="inlineStr">
+      <c r="AE2" s="0" t="inlineStr">
         <is>
           <t>华安纳斯达克100指数</t>
         </is>
       </c>
-      <c r="AD2" s="10" t="inlineStr">
+      <c r="AF2" s="10" t="inlineStr">
         <is>
           <t>100.HSI</t>
         </is>
       </c>
-      <c r="AE2" s="0" t="inlineStr">
+      <c r="AG2" s="0" t="inlineStr">
         <is>
           <t>恒生指数组合</t>
         </is>
       </c>
-      <c r="AF2" s="10" t="inlineStr">
+      <c r="AH2" s="10" t="inlineStr">
         <is>
           <t>000922.CSI</t>
         </is>
       </c>
-      <c r="AG2" s="0" t="inlineStr">
+      <c r="AI2" s="0" t="inlineStr">
         <is>
           <t>红利指数组合</t>
         </is>
       </c>
-      <c r="AH2" s="10" t="inlineStr">
+      <c r="AJ2" s="10" t="inlineStr">
         <is>
           <t>000300.SH</t>
         </is>
       </c>
-      <c r="AI2" s="0" t="inlineStr">
+      <c r="AK2" s="0" t="inlineStr">
         <is>
           <t>沪深300指数组合</t>
         </is>
       </c>
-      <c r="AJ2" s="10" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>000001.SH</t>
         </is>
       </c>
-      <c r="AK2" s="0" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>睿定投</t>
         </is>
@@ -14387,76 +14355,78 @@
       <c r="K3" s="0" t="n">
         <v>1.576</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>2.2168</v>
-      </c>
+      <c r="L3" s="0" t="n"/>
+      <c r="M3" s="0" t="n"/>
       <c r="N3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>2.251</v>
+        <v>2.2168</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="Q3" s="0" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S3" s="0" t="n">
         <v>1.275</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>1.262</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="U3" s="0" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>0.976</v>
-      </c>
-      <c r="V3" s="0" t="n">
-        <v>2000</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>1.8266</v>
       </c>
       <c r="X3" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="Y3" s="0" t="n">
+        <v>1.8266</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA3" s="0" t="n">
         <v>4.9348</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <v>1.727</v>
       </c>
       <c r="AB3" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="AC3" s="0" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AE3" s="0" t="n">
         <v>2.893</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>27289.77</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>14000</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>4503.087</v>
       </c>
-      <c r="AH3" s="0" t="inlineStr"/>
-      <c r="AI3" s="0" t="inlineStr"/>
       <c r="AJ3" s="0" t="inlineStr"/>
       <c r="AK3" s="0" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -14492,76 +14462,78 @@
       <c r="K4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="11" t="n"/>
+      <c r="M4" s="11" t="n"/>
+      <c r="N4" s="11" t="n">
         <v>-11.9256559110753</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="O4" s="11" t="n">
         <v>-0.238513118221506</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="P4" s="11" t="n">
         <v>153.388278388278</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="Q4" s="11" t="n">
         <v>3.06776556776556</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="R4" s="11" t="n">
         <v>-27.3010920436822</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="S4" s="11" t="n">
         <v>-0.546021840873644</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>43.4083601286174</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>1.44694533762058</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="V4" s="12" t="n">
         <v>-135.029354207437</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="W4" s="12" t="n">
         <v>-4.50097847358122</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>12.1172064331349</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>0.605860321656747</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="Z4" s="12" t="n">
         <v>27.4445357436318</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="AA4" s="12" t="n">
         <v>1.37222678718159</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="AB4" s="12" t="n">
         <v>15.7159487776486</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AC4" s="12" t="n">
         <v>0.523864959254955</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AD4" s="12" t="n">
         <v>325.287356321839</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AE4" s="12" t="n">
         <v>10.84291187739463</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AF4" s="12" t="n">
         <v>187.790675535731</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AG4" s="12" t="n">
         <v>1.87790675535731</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AH4" s="0" t="n">
         <v>1053.2994269341</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AI4" s="0" t="n">
         <v>7.52356733524356</v>
       </c>
-      <c r="AH4" s="0" t="inlineStr"/>
-      <c r="AI4" s="0" t="inlineStr"/>
       <c r="AJ4" s="0" t="inlineStr"/>
       <c r="AK4" s="0" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -14597,76 +14569,78 @@
       <c r="K5" s="11" t="n">
         <v>1.155327342747113</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="11" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="11" t="n">
         <v>86.2701908957422</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="O5" s="11" t="n">
         <v>1.72540381791484</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="P5" s="11" t="n">
         <v>125.227686703096</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="Q5" s="11" t="n">
         <v>2.50455373406192</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="R5" s="11" t="n">
         <v>128.720836685438</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="S5" s="11" t="n">
         <v>2.57441673370875</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>53.2258064516129</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>1.7741935483871</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="V5" s="12" t="n">
         <v>59.5611285266458</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="W5" s="12" t="n">
         <v>1.98537095088819</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>20.575221238938</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>1.0287610619469</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="Z5" s="12" t="n">
         <v>-10.4420747071986</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="AA5" s="12" t="n">
         <v>-0.52210373535993</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="AB5" s="12" t="n">
         <v>-10.3866128101558</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AC5" s="12" t="n">
         <v>-0.346220427005194</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AD5" s="12" t="n">
         <v>12.49566122874003</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AE5" s="12" t="n">
         <v>0.4165220409580011</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AF5" s="12" t="n">
         <v>-74</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AG5" s="12" t="n">
         <v>-0.74</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AH5" s="0" t="n">
         <v>197.030035634891</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AI5" s="0" t="n">
         <v>1.40735739739208</v>
       </c>
-      <c r="AH5" s="0" t="inlineStr"/>
-      <c r="AI5" s="0" t="inlineStr"/>
       <c r="AJ5" s="0" t="inlineStr"/>
       <c r="AK5" s="0" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -14688,8 +14662,8 @@
       <c r="I6" s="0" t="inlineStr"/>
       <c r="J6" s="0" t="inlineStr"/>
       <c r="K6" s="0" t="inlineStr"/>
-      <c r="L6" s="0" t="inlineStr"/>
-      <c r="M6" s="0" t="inlineStr"/>
+      <c r="L6" s="0" t="n"/>
+      <c r="M6" s="0" t="n"/>
       <c r="N6" s="0" t="inlineStr"/>
       <c r="O6" s="0" t="inlineStr"/>
       <c r="P6" s="0" t="inlineStr"/>
@@ -14706,28 +14680,30 @@
       <c r="AA6" s="0" t="inlineStr"/>
       <c r="AB6" s="0" t="inlineStr"/>
       <c r="AC6" s="0" t="inlineStr"/>
-      <c r="AD6" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="AE6" s="0" t="n">
-        <v>26681</v>
-      </c>
+      <c r="AD6" s="0" t="inlineStr"/>
+      <c r="AE6" s="0" t="inlineStr"/>
       <c r="AF6" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="AG6" s="0" t="n">
+        <v>26681</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="AI6" s="0" t="n">
         <v>4401</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AJ6" s="0" t="n">
         <v>13040</v>
       </c>
-      <c r="AI6" s="0" t="n">
+      <c r="AK6" s="0" t="n">
         <v>3972</v>
       </c>
-      <c r="AJ6" s="0" t="n">
+      <c r="AL6" t="n">
         <v>10000</v>
       </c>
-      <c r="AK6" s="0" t="n">
+      <c r="AM6" t="n">
         <v>3024</v>
       </c>
     </row>
@@ -14745,8 +14721,8 @@
       <c r="I7" s="0" t="inlineStr"/>
       <c r="J7" s="0" t="inlineStr"/>
       <c r="K7" s="0" t="inlineStr"/>
-      <c r="L7" s="0" t="inlineStr"/>
-      <c r="M7" s="0" t="inlineStr"/>
+      <c r="L7" s="0" t="n"/>
+      <c r="M7" s="0" t="n"/>
       <c r="N7" s="0" t="inlineStr"/>
       <c r="O7" s="0" t="inlineStr"/>
       <c r="P7" s="0" t="inlineStr"/>
@@ -14763,28 +14739,30 @@
       <c r="AA7" s="0" t="inlineStr"/>
       <c r="AB7" s="0" t="inlineStr"/>
       <c r="AC7" s="0" t="inlineStr"/>
-      <c r="AD7" s="45" t="n">
+      <c r="AD7" s="45" t="inlineStr"/>
+      <c r="AE7" s="45" t="inlineStr"/>
+      <c r="AF7" s="45" t="n">
         <v>754.844271204228</v>
       </c>
-      <c r="AE7" s="45" t="n">
+      <c r="AG7" s="45" t="n">
         <v>3.77422135602114</v>
       </c>
-      <c r="AF7" s="45" t="n">
+      <c r="AH7" s="45" t="n">
         <v>-595.319245625994</v>
       </c>
-      <c r="AG7" s="45" t="n">
+      <c r="AI7" s="45" t="n">
         <v>-2.97659622812997</v>
       </c>
-      <c r="AH7" s="45" t="n">
+      <c r="AJ7" s="45" t="n">
         <v>39.3957703927492</v>
       </c>
-      <c r="AI7" s="45" t="n">
+      <c r="AK7" s="45" t="n">
         <v>0.302114803625378</v>
       </c>
-      <c r="AJ7" s="45" t="n">
+      <c r="AL7" t="n">
         <v>-152.116402116402</v>
       </c>
-      <c r="AK7" s="45" t="n">
+      <c r="AM7" t="n">
         <v>-1.52116402116402</v>
       </c>
     </row>
@@ -14808,8 +14786,8 @@
       <c r="I8" s="0" t="inlineStr"/>
       <c r="J8" s="0" t="inlineStr"/>
       <c r="K8" s="0" t="inlineStr"/>
-      <c r="L8" s="0" t="inlineStr"/>
-      <c r="M8" s="0" t="inlineStr"/>
+      <c r="L8" s="0" t="n"/>
+      <c r="M8" s="0" t="n"/>
       <c r="N8" s="0" t="inlineStr"/>
       <c r="O8" s="0" t="inlineStr"/>
       <c r="P8" s="0" t="inlineStr"/>
@@ -14826,22 +14804,24 @@
       <c r="AA8" s="0" t="inlineStr"/>
       <c r="AB8" s="0" t="inlineStr"/>
       <c r="AC8" s="0" t="inlineStr"/>
-      <c r="AD8" s="0" t="n">
+      <c r="AD8" s="0" t="inlineStr"/>
+      <c r="AE8" s="0" t="inlineStr"/>
+      <c r="AF8" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AE8" s="0" t="n">
+      <c r="AG8" s="0" t="n">
         <v>25893</v>
       </c>
-      <c r="AF8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>6077</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AI8" s="0" t="n">
         <v>4225</v>
       </c>
-      <c r="AH8" s="0" t="inlineStr"/>
-      <c r="AI8" s="0" t="inlineStr"/>
       <c r="AJ8" s="0" t="inlineStr"/>
       <c r="AK8" s="0" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -14857,8 +14837,8 @@
       <c r="I9" s="0" t="inlineStr"/>
       <c r="J9" s="0" t="inlineStr"/>
       <c r="K9" s="0" t="inlineStr"/>
-      <c r="L9" s="0" t="inlineStr"/>
-      <c r="M9" s="0" t="inlineStr"/>
+      <c r="L9" s="0" t="n"/>
+      <c r="M9" s="0" t="n"/>
       <c r="N9" s="0" t="inlineStr"/>
       <c r="O9" s="0" t="inlineStr"/>
       <c r="P9" s="0" t="inlineStr"/>
@@ -14875,22 +14855,24 @@
       <c r="AA9" s="0" t="inlineStr"/>
       <c r="AB9" s="0" t="inlineStr"/>
       <c r="AC9" s="0" t="inlineStr"/>
-      <c r="AD9" s="45" t="n">
+      <c r="AD9" s="45" t="inlineStr"/>
+      <c r="AE9" s="45" t="inlineStr"/>
+      <c r="AF9" s="45" t="n">
         <v>693.237554551423</v>
       </c>
-      <c r="AE9" s="45" t="n">
+      <c r="AG9" s="45" t="n">
         <v>6.93237554551423</v>
       </c>
-      <c r="AF9" s="45" t="n">
+      <c r="AH9" s="0" t="n">
         <v>64.7254437869823</v>
       </c>
-      <c r="AG9" s="45" t="n">
+      <c r="AI9" s="0" t="n">
         <v>1.06508875739645</v>
       </c>
-      <c r="AH9" s="0" t="inlineStr"/>
-      <c r="AI9" s="0" t="inlineStr"/>
       <c r="AJ9" s="0" t="inlineStr"/>
       <c r="AK9" s="0" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -14914,8 +14896,8 @@
       <c r="I10" s="0" t="inlineStr"/>
       <c r="J10" s="0" t="inlineStr"/>
       <c r="K10" s="0" t="inlineStr"/>
-      <c r="L10" s="0" t="inlineStr"/>
-      <c r="M10" s="0" t="inlineStr"/>
+      <c r="L10" s="0" t="n"/>
+      <c r="M10" s="0" t="n"/>
       <c r="N10" s="0" t="inlineStr"/>
       <c r="O10" s="0" t="inlineStr"/>
       <c r="P10" s="0" t="inlineStr"/>
@@ -14932,28 +14914,30 @@
       <c r="AA10" s="0" t="inlineStr"/>
       <c r="AB10" s="0" t="inlineStr"/>
       <c r="AC10" s="0" t="inlineStr"/>
-      <c r="AD10" s="0" t="n">
+      <c r="AD10" s="0" t="inlineStr"/>
+      <c r="AE10" s="0" t="inlineStr"/>
+      <c r="AF10" s="0" t="n">
         <v>-31575.22</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>27688</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>-26487.2</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>4270</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>-13224.51</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>3984</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AL10" t="n">
         <v>-9973</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AM10" t="n">
         <v>2978</v>
       </c>
     </row>
@@ -14971,8 +14955,8 @@
       <c r="I11" s="0" t="inlineStr"/>
       <c r="J11" s="0" t="inlineStr"/>
       <c r="K11" s="0" t="inlineStr"/>
-      <c r="L11" s="0" t="inlineStr"/>
-      <c r="M11" s="0" t="inlineStr"/>
+      <c r="L11" s="0" t="n"/>
+      <c r="M11" s="0" t="n"/>
       <c r="N11" s="0" t="inlineStr"/>
       <c r="O11" s="0" t="inlineStr"/>
       <c r="P11" s="0" t="inlineStr"/>
@@ -14989,28 +14973,30 @@
       <c r="AA11" s="0" t="inlineStr"/>
       <c r="AB11" s="0" t="inlineStr"/>
       <c r="AC11" s="0" t="inlineStr"/>
-      <c r="AD11" s="45" t="n">
+      <c r="AD11" s="45" t="inlineStr"/>
+      <c r="AE11" s="45" t="inlineStr"/>
+      <c r="AF11" s="45" t="n">
         <v>1448.08</v>
       </c>
-      <c r="AE11" s="45" t="n">
+      <c r="AG11" s="45" t="n">
         <v>4.83</v>
       </c>
-      <c r="AF11" s="45" t="n">
+      <c r="AH11" s="45" t="n">
         <v>400</v>
-      </c>
-      <c r="AG11" s="45" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH11" s="45" t="n">
-        <v>150</v>
       </c>
       <c r="AI11" s="45" t="n">
         <v>1.53</v>
       </c>
       <c r="AJ11" s="45" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK11" s="45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL11" t="n">
         <v>-152.116402116402</v>
       </c>
-      <c r="AK11" s="45" t="n">
+      <c r="AM11" t="n">
         <v>-1.52116402116402</v>
       </c>
     </row>
@@ -15036,8 +15022,8 @@
       <c r="I12" s="0" t="inlineStr"/>
       <c r="J12" s="0" t="inlineStr"/>
       <c r="K12" s="0" t="inlineStr"/>
-      <c r="L12" s="0" t="inlineStr"/>
-      <c r="M12" s="0" t="inlineStr"/>
+      <c r="L12" s="0" t="n"/>
+      <c r="M12" s="0" t="n"/>
       <c r="N12" s="0" t="inlineStr"/>
       <c r="O12" s="0" t="inlineStr"/>
       <c r="P12" s="0" t="inlineStr"/>
@@ -15054,22 +15040,24 @@
       <c r="AA12" s="0" t="inlineStr"/>
       <c r="AB12" s="0" t="inlineStr"/>
       <c r="AC12" s="0" t="inlineStr"/>
-      <c r="AD12" s="0" t="n">
+      <c r="AD12" s="0" t="inlineStr"/>
+      <c r="AE12" s="0" t="inlineStr"/>
+      <c r="AF12" s="0" t="n">
         <v>14298</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>26681</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>14000</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>4188</v>
       </c>
-      <c r="AH12" s="0" t="inlineStr"/>
-      <c r="AI12" s="0" t="inlineStr"/>
       <c r="AJ12" s="0" t="inlineStr"/>
       <c r="AK12" s="0" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
@@ -15085,8 +15073,8 @@
       <c r="I13" s="0" t="inlineStr"/>
       <c r="J13" s="0" t="inlineStr"/>
       <c r="K13" s="0" t="inlineStr"/>
-      <c r="L13" s="0" t="inlineStr"/>
-      <c r="M13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="n"/>
+      <c r="M13" s="0" t="n"/>
       <c r="N13" s="0" t="inlineStr"/>
       <c r="O13" s="0" t="inlineStr"/>
       <c r="P13" s="0" t="inlineStr"/>
@@ -15103,22 +15091,24 @@
       <c r="AA13" s="0" t="inlineStr"/>
       <c r="AB13" s="0" t="inlineStr"/>
       <c r="AC13" s="0" t="inlineStr"/>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="12" t="inlineStr"/>
+      <c r="AE13" s="12" t="inlineStr"/>
+      <c r="AF13" s="12" t="n">
         <v>998.100182152093</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AG13" s="12" t="n">
         <v>6.98069787489225</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AH13" s="0" t="n">
         <v>1053.2994269341</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AI13" s="0" t="n">
         <v>7.52356733524356</v>
       </c>
-      <c r="AH13" s="0" t="inlineStr"/>
-      <c r="AI13" s="0" t="inlineStr"/>
       <c r="AJ13" s="0" t="inlineStr"/>
       <c r="AK13" s="0" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -15150,8 +15140,8 @@
       <c r="I14" s="0" t="inlineStr"/>
       <c r="J14" s="0" t="inlineStr"/>
       <c r="K14" s="0" t="inlineStr"/>
-      <c r="L14" s="0" t="inlineStr"/>
-      <c r="M14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="n"/>
+      <c r="M14" s="0" t="n"/>
       <c r="N14" s="0" t="inlineStr"/>
       <c r="O14" s="0" t="inlineStr"/>
       <c r="P14" s="0" t="inlineStr"/>
@@ -15176,6 +15166,8 @@
       <c r="AI14" s="0" t="inlineStr"/>
       <c r="AJ14" s="0" t="inlineStr"/>
       <c r="AK14" s="0" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
@@ -15199,8 +15191,8 @@
       <c r="I15" s="12" t="inlineStr"/>
       <c r="J15" s="12" t="inlineStr"/>
       <c r="K15" s="12" t="inlineStr"/>
-      <c r="L15" s="0" t="inlineStr"/>
-      <c r="M15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="n"/>
+      <c r="M15" s="0" t="n"/>
       <c r="N15" s="0" t="inlineStr"/>
       <c r="O15" s="0" t="inlineStr"/>
       <c r="P15" s="0" t="inlineStr"/>
@@ -15225,6 +15217,8 @@
       <c r="AI15" s="0" t="inlineStr"/>
       <c r="AJ15" s="0" t="inlineStr"/>
       <c r="AK15" s="0" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -15248,8 +15242,8 @@
       <c r="I16" s="0" t="inlineStr"/>
       <c r="J16" s="0" t="inlineStr"/>
       <c r="K16" s="0" t="inlineStr"/>
-      <c r="L16" s="0" t="inlineStr"/>
-      <c r="M16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="n"/>
+      <c r="M16" s="0" t="n"/>
       <c r="N16" s="0" t="inlineStr"/>
       <c r="O16" s="0" t="inlineStr"/>
       <c r="P16" s="0" t="inlineStr"/>
@@ -15262,14 +15256,14 @@
       <c r="W16" s="0" t="inlineStr"/>
       <c r="X16" s="0" t="inlineStr"/>
       <c r="Y16" s="0" t="inlineStr"/>
-      <c r="Z16" s="0" t="n">
+      <c r="Z16" s="0" t="inlineStr"/>
+      <c r="AA16" s="0" t="inlineStr"/>
+      <c r="AB16" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>1.718</v>
       </c>
-      <c r="AB16" s="0" t="inlineStr"/>
-      <c r="AC16" s="0" t="inlineStr"/>
       <c r="AD16" s="0" t="inlineStr"/>
       <c r="AE16" s="0" t="inlineStr"/>
       <c r="AF16" s="0" t="inlineStr"/>
@@ -15278,6 +15272,8 @@
       <c r="AI16" s="0" t="inlineStr"/>
       <c r="AJ16" s="0" t="inlineStr"/>
       <c r="AK16" s="0" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -15293,8 +15289,8 @@
       <c r="I17" s="0" t="inlineStr"/>
       <c r="J17" s="0" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr"/>
-      <c r="L17" s="0" t="inlineStr"/>
-      <c r="M17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="n"/>
+      <c r="M17" s="0" t="n"/>
       <c r="N17" s="0" t="inlineStr"/>
       <c r="O17" s="0" t="inlineStr"/>
       <c r="P17" s="0" t="inlineStr"/>
@@ -15307,14 +15303,14 @@
       <c r="W17" s="0" t="inlineStr"/>
       <c r="X17" s="0" t="inlineStr"/>
       <c r="Y17" s="0" t="inlineStr"/>
-      <c r="Z17" s="11" t="n">
+      <c r="Z17" s="11" t="inlineStr"/>
+      <c r="AA17" s="11" t="inlineStr"/>
+      <c r="AB17" s="0" t="n">
         <v>15.7159487776486</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.523864959254955</v>
       </c>
-      <c r="AB17" s="0" t="inlineStr"/>
-      <c r="AC17" s="0" t="inlineStr"/>
       <c r="AD17" s="0" t="inlineStr"/>
       <c r="AE17" s="0" t="inlineStr"/>
       <c r="AF17" s="0" t="inlineStr"/>
@@ -15323,6 +15319,8 @@
       <c r="AI17" s="0" t="inlineStr"/>
       <c r="AJ17" s="0" t="inlineStr"/>
       <c r="AK17" s="0" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -15346,8 +15344,8 @@
       <c r="I18" s="0" t="inlineStr"/>
       <c r="J18" s="0" t="inlineStr"/>
       <c r="K18" s="0" t="inlineStr"/>
-      <c r="L18" s="0" t="inlineStr"/>
-      <c r="M18" s="0" t="inlineStr"/>
+      <c r="L18" s="0" t="n"/>
+      <c r="M18" s="0" t="n"/>
       <c r="N18" s="0" t="inlineStr"/>
       <c r="O18" s="0" t="inlineStr"/>
       <c r="P18" s="0" t="inlineStr"/>
@@ -15362,20 +15360,22 @@
       <c r="Y18" s="0" t="inlineStr"/>
       <c r="Z18" s="0" t="inlineStr"/>
       <c r="AA18" s="0" t="inlineStr"/>
-      <c r="AB18" s="0" t="n">
+      <c r="AB18" s="0" t="inlineStr"/>
+      <c r="AC18" s="0" t="inlineStr"/>
+      <c r="AD18" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="AD18" s="0" t="inlineStr"/>
-      <c r="AE18" s="0" t="inlineStr"/>
       <c r="AF18" s="0" t="inlineStr"/>
       <c r="AG18" s="0" t="inlineStr"/>
       <c r="AH18" s="0" t="inlineStr"/>
       <c r="AI18" s="0" t="inlineStr"/>
       <c r="AJ18" s="0" t="inlineStr"/>
       <c r="AK18" s="0" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -15393,8 +15393,8 @@
       <c r="I19" s="0" t="inlineStr"/>
       <c r="J19" s="0" t="inlineStr"/>
       <c r="K19" s="0" t="inlineStr"/>
-      <c r="L19" s="0" t="inlineStr"/>
-      <c r="M19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="n"/>
+      <c r="M19" s="0" t="n"/>
       <c r="N19" s="0" t="inlineStr"/>
       <c r="O19" s="0" t="inlineStr"/>
       <c r="P19" s="0" t="inlineStr"/>
@@ -15409,20 +15409,22 @@
       <c r="Y19" s="0" t="inlineStr"/>
       <c r="Z19" s="0" t="inlineStr"/>
       <c r="AA19" s="0" t="inlineStr"/>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="11" t="inlineStr"/>
+      <c r="AC19" s="11" t="inlineStr"/>
+      <c r="AD19" s="12" t="n">
         <v>325.287356321839</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AE19" s="12" t="n">
         <v>10.84291187739463</v>
       </c>
-      <c r="AD19" s="12" t="inlineStr"/>
-      <c r="AE19" s="12" t="inlineStr"/>
       <c r="AF19" s="0" t="inlineStr"/>
       <c r="AG19" s="0" t="inlineStr"/>
       <c r="AH19" s="0" t="inlineStr"/>
       <c r="AI19" s="0" t="inlineStr"/>
       <c r="AJ19" s="0" t="inlineStr"/>
       <c r="AK19" s="0" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -15448,24 +15450,24 @@
       <c r="I20" s="0" t="inlineStr"/>
       <c r="J20" s="0" t="inlineStr"/>
       <c r="K20" s="0" t="inlineStr"/>
-      <c r="L20" s="0" t="inlineStr">
+      <c r="L20" s="0" t="n"/>
+      <c r="M20" s="0" t="n"/>
+      <c r="N20" s="0" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>2.2221</v>
       </c>
-      <c r="N20" s="0" t="inlineStr">
+      <c r="P20" s="0" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>2.184</v>
       </c>
-      <c r="P20" s="0" t="inlineStr"/>
-      <c r="Q20" s="0" t="inlineStr"/>
       <c r="R20" s="0" t="inlineStr"/>
       <c r="S20" s="0" t="inlineStr"/>
       <c r="T20" s="0" t="inlineStr"/>
@@ -15486,6 +15488,8 @@
       <c r="AI20" s="0" t="inlineStr"/>
       <c r="AJ20" s="0" t="inlineStr"/>
       <c r="AK20" s="0" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -15503,20 +15507,20 @@
       <c r="I21" s="0" t="inlineStr"/>
       <c r="J21" s="0" t="inlineStr"/>
       <c r="K21" s="0" t="inlineStr"/>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="12" t="n"/>
+      <c r="M21" s="12" t="n"/>
+      <c r="N21" s="12" t="n">
         <v>-11.9256559110753</v>
       </c>
-      <c r="M21" s="12" t="n">
+      <c r="O21" s="12" t="n">
         <v>-0.238513118221506</v>
       </c>
-      <c r="N21" s="12" t="n">
+      <c r="P21" s="0" t="n">
         <v>153.388278388278</v>
       </c>
-      <c r="O21" s="12" t="n">
+      <c r="Q21" s="0" t="n">
         <v>3.06776556776555</v>
       </c>
-      <c r="P21" s="0" t="inlineStr"/>
-      <c r="Q21" s="0" t="inlineStr"/>
       <c r="R21" s="0" t="inlineStr"/>
       <c r="S21" s="0" t="inlineStr"/>
       <c r="T21" s="0" t="inlineStr"/>
@@ -15537,6 +15541,8 @@
       <c r="AI21" s="0" t="inlineStr"/>
       <c r="AJ21" s="0" t="inlineStr"/>
       <c r="AK21" s="0" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -15562,44 +15568,44 @@
       <c r="I22" s="0" t="inlineStr"/>
       <c r="J22" s="0" t="inlineStr"/>
       <c r="K22" s="0" t="inlineStr"/>
-      <c r="L22" s="0" t="inlineStr"/>
-      <c r="M22" s="0" t="inlineStr"/>
+      <c r="L22" s="0" t="n"/>
+      <c r="M22" s="0" t="n"/>
       <c r="N22" s="0" t="inlineStr"/>
       <c r="O22" s="0" t="inlineStr"/>
       <c r="P22" s="0" t="inlineStr"/>
       <c r="Q22" s="0" t="inlineStr"/>
-      <c r="R22" s="0" t="inlineStr">
+      <c r="R22" s="0" t="inlineStr"/>
+      <c r="S22" s="0" t="inlineStr"/>
+      <c r="T22" s="0" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>1.244</v>
       </c>
-      <c r="T22" s="0" t="inlineStr">
+      <c r="V22" s="0" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>1.022</v>
       </c>
-      <c r="V22" s="0" t="inlineStr">
+      <c r="X22" s="0" t="inlineStr">
         <is>
           <t>2000</t>
         </is>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>1.8156</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>4.868</v>
       </c>
-      <c r="Z22" s="0" t="inlineStr"/>
-      <c r="AA22" s="0" t="inlineStr"/>
       <c r="AB22" s="0" t="inlineStr"/>
       <c r="AC22" s="0" t="inlineStr"/>
       <c r="AD22" s="0" t="inlineStr"/>
@@ -15610,6 +15616,8 @@
       <c r="AI22" s="0" t="inlineStr"/>
       <c r="AJ22" s="0" t="inlineStr"/>
       <c r="AK22" s="0" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -15627,38 +15635,38 @@
       <c r="I23" s="0" t="inlineStr"/>
       <c r="J23" s="0" t="inlineStr"/>
       <c r="K23" s="0" t="inlineStr"/>
-      <c r="L23" s="0" t="inlineStr"/>
-      <c r="M23" s="0" t="inlineStr"/>
+      <c r="L23" s="0" t="n"/>
+      <c r="M23" s="0" t="n"/>
       <c r="N23" s="0" t="inlineStr"/>
       <c r="O23" s="0" t="inlineStr"/>
       <c r="P23" s="0" t="inlineStr"/>
       <c r="Q23" s="0" t="inlineStr"/>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="12" t="inlineStr"/>
+      <c r="S23" s="12" t="inlineStr"/>
+      <c r="T23" s="12" t="n">
         <v>43.4083601286174</v>
       </c>
-      <c r="S23" s="12" t="n">
+      <c r="U23" s="12" t="n">
         <v>1.44694533762058</v>
       </c>
-      <c r="T23" s="12" t="n">
+      <c r="V23" s="12" t="n">
         <v>-135.029354207437</v>
       </c>
-      <c r="U23" s="12" t="n">
+      <c r="W23" s="12" t="n">
         <v>-4.50097847358122</v>
       </c>
-      <c r="V23" s="12" t="n">
+      <c r="X23" s="11" t="n">
         <v>12.1172064331349</v>
       </c>
-      <c r="W23" s="12" t="n">
+      <c r="Y23" s="11" t="n">
         <v>0.605860321656747</v>
       </c>
-      <c r="X23" s="11" t="n">
+      <c r="Z23" s="0" t="n">
         <v>27.4445357436318</v>
       </c>
-      <c r="Y23" s="11" t="n">
+      <c r="AA23" s="0" t="n">
         <v>1.37222678718159</v>
       </c>
-      <c r="Z23" s="0" t="inlineStr"/>
-      <c r="AA23" s="0" t="inlineStr"/>
       <c r="AB23" s="0" t="inlineStr"/>
       <c r="AC23" s="0" t="inlineStr"/>
       <c r="AD23" s="0" t="inlineStr"/>
@@ -15669,6 +15677,8 @@
       <c r="AI23" s="0" t="inlineStr"/>
       <c r="AJ23" s="0" t="inlineStr"/>
       <c r="AK23" s="0" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -15694,20 +15704,20 @@
       <c r="I24" s="0" t="inlineStr"/>
       <c r="J24" s="0" t="inlineStr"/>
       <c r="K24" s="0" t="inlineStr"/>
-      <c r="L24" s="0" t="inlineStr"/>
-      <c r="M24" s="0" t="inlineStr"/>
+      <c r="L24" s="0" t="n"/>
+      <c r="M24" s="0" t="n"/>
       <c r="N24" s="0" t="inlineStr"/>
       <c r="O24" s="0" t="inlineStr"/>
-      <c r="P24" s="0" t="inlineStr">
+      <c r="P24" s="0" t="inlineStr"/>
+      <c r="Q24" s="0" t="inlineStr"/>
+      <c r="R24" s="0" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="S24" s="0" t="n">
         <v>1.282</v>
       </c>
-      <c r="R24" s="0" t="inlineStr"/>
-      <c r="S24" s="0" t="inlineStr"/>
       <c r="T24" s="0" t="inlineStr"/>
       <c r="U24" s="0" t="inlineStr"/>
       <c r="V24" s="0" t="inlineStr"/>
@@ -15726,6 +15736,8 @@
       <c r="AI24" s="0" t="inlineStr"/>
       <c r="AJ24" s="0" t="inlineStr"/>
       <c r="AK24" s="0" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -15741,18 +15753,18 @@
       <c r="I25" s="0" t="inlineStr"/>
       <c r="J25" s="0" t="inlineStr"/>
       <c r="K25" s="0" t="inlineStr"/>
-      <c r="L25" s="0" t="inlineStr"/>
-      <c r="M25" s="0" t="inlineStr"/>
+      <c r="L25" s="0" t="n"/>
+      <c r="M25" s="0" t="n"/>
       <c r="N25" s="0" t="inlineStr"/>
       <c r="O25" s="0" t="inlineStr"/>
-      <c r="P25" s="12" t="n">
+      <c r="P25" s="12" t="inlineStr"/>
+      <c r="Q25" s="11" t="inlineStr"/>
+      <c r="R25" s="0" t="n">
         <v>-27.3010920436822</v>
       </c>
-      <c r="Q25" s="11" t="n">
+      <c r="S25" s="0" t="n">
         <v>-0.546021840873644</v>
       </c>
-      <c r="R25" s="0" t="inlineStr"/>
-      <c r="S25" s="0" t="inlineStr"/>
       <c r="T25" s="0" t="inlineStr"/>
       <c r="U25" s="0" t="inlineStr"/>
       <c r="V25" s="0" t="inlineStr"/>
@@ -15771,6 +15783,8 @@
       <c r="AI25" s="0" t="inlineStr"/>
       <c r="AJ25" s="0" t="inlineStr"/>
       <c r="AK25" s="0" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -15796,8 +15810,8 @@
       <c r="I26" s="0" t="inlineStr"/>
       <c r="J26" s="0" t="inlineStr"/>
       <c r="K26" s="0" t="inlineStr"/>
-      <c r="L26" s="0" t="inlineStr"/>
-      <c r="M26" s="0" t="inlineStr"/>
+      <c r="L26" s="0" t="n"/>
+      <c r="M26" s="0" t="n"/>
       <c r="N26" s="0" t="inlineStr"/>
       <c r="O26" s="0" t="inlineStr"/>
       <c r="P26" s="0" t="inlineStr"/>
@@ -15814,22 +15828,24 @@
       <c r="AA26" s="0" t="inlineStr"/>
       <c r="AB26" s="0" t="inlineStr"/>
       <c r="AC26" s="0" t="inlineStr"/>
-      <c r="AD26" s="0" t="inlineStr">
+      <c r="AD26" s="0" t="inlineStr"/>
+      <c r="AE26" s="0" t="inlineStr"/>
+      <c r="AF26" s="0" t="inlineStr">
         <is>
           <t>5010</t>
         </is>
       </c>
-      <c r="AE26" s="0" t="inlineStr">
+      <c r="AG26" s="0" t="inlineStr">
         <is>
           <t>26217</t>
         </is>
       </c>
-      <c r="AF26" s="0" t="inlineStr"/>
-      <c r="AG26" s="0" t="inlineStr"/>
       <c r="AH26" s="0" t="inlineStr"/>
       <c r="AI26" s="0" t="inlineStr"/>
       <c r="AJ26" s="0" t="inlineStr"/>
       <c r="AK26" s="0" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -15847,8 +15863,8 @@
       <c r="I27" s="0" t="inlineStr"/>
       <c r="J27" s="0" t="inlineStr"/>
       <c r="K27" s="0" t="inlineStr"/>
-      <c r="L27" s="0" t="inlineStr"/>
-      <c r="M27" s="0" t="inlineStr"/>
+      <c r="L27" s="0" t="n"/>
+      <c r="M27" s="0" t="n"/>
       <c r="N27" s="0" t="inlineStr"/>
       <c r="O27" s="0" t="inlineStr"/>
       <c r="P27" s="0" t="inlineStr"/>
@@ -15865,18 +15881,20 @@
       <c r="AA27" s="0" t="inlineStr"/>
       <c r="AB27" s="0" t="inlineStr"/>
       <c r="AC27" s="0" t="inlineStr"/>
-      <c r="AD27" s="11" t="n">
+      <c r="AD27" s="11" t="inlineStr"/>
+      <c r="AE27" s="11" t="inlineStr"/>
+      <c r="AF27" s="0" t="n">
         <v>444.591875500629</v>
       </c>
-      <c r="AE27" s="11" t="n">
+      <c r="AG27" s="0" t="n">
         <v>8.874089331349889</v>
       </c>
-      <c r="AF27" s="0" t="inlineStr"/>
-      <c r="AG27" s="0" t="inlineStr"/>
       <c r="AH27" s="0" t="inlineStr"/>
       <c r="AI27" s="0" t="inlineStr"/>
       <c r="AJ27" s="0" t="inlineStr"/>
       <c r="AK27" s="0" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -15906,10 +15924,8 @@
       <c r="I28" s="45" t="inlineStr"/>
       <c r="J28" s="45" t="inlineStr"/>
       <c r="K28" s="45" t="inlineStr"/>
-      <c r="L28" s="45" t="n">
-        <v>5000</v>
-      </c>
-      <c r="M28" s="45" t="inlineStr"/>
+      <c r="L28" s="45" t="n"/>
+      <c r="M28" s="45" t="n"/>
       <c r="N28" s="45" t="n">
         <v>5000</v>
       </c>
@@ -15919,7 +15935,7 @@
       </c>
       <c r="Q28" s="45" t="inlineStr"/>
       <c r="R28" s="45" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S28" s="45" t="inlineStr"/>
       <c r="T28" s="45" t="n">
@@ -15927,7 +15943,7 @@
       </c>
       <c r="U28" s="45" t="inlineStr"/>
       <c r="V28" s="45" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="W28" s="45" t="inlineStr"/>
       <c r="X28" s="45" t="n">
@@ -15935,23 +15951,27 @@
       </c>
       <c r="Y28" s="45" t="inlineStr"/>
       <c r="Z28" s="45" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA28" s="45" t="inlineStr"/>
+      <c r="AB28" s="45" t="n">
         <v>3000</v>
       </c>
-      <c r="AA28" s="45" t="inlineStr"/>
-      <c r="AB28" s="45" t="inlineStr"/>
       <c r="AC28" s="45" t="inlineStr"/>
-      <c r="AD28" s="45" t="n">
-        <v>19308</v>
-      </c>
+      <c r="AD28" s="45" t="inlineStr"/>
       <c r="AE28" s="45" t="inlineStr"/>
       <c r="AF28" s="45" t="n">
+        <v>19308</v>
+      </c>
+      <c r="AG28" s="45" t="inlineStr"/>
+      <c r="AH28" s="0" t="n">
         <v>14000</v>
       </c>
-      <c r="AG28" s="45" t="inlineStr"/>
-      <c r="AH28" s="0" t="inlineStr"/>
       <c r="AI28" s="0" t="inlineStr"/>
       <c r="AJ28" s="0" t="inlineStr"/>
       <c r="AK28" s="0" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -15991,86 +16011,88 @@
       <c r="I29" s="0" t="inlineStr"/>
       <c r="J29" s="0" t="inlineStr"/>
       <c r="K29" s="0" t="inlineStr"/>
-      <c r="L29" s="0" t="n">
+      <c r="L29" s="0" t="n"/>
+      <c r="M29" s="0" t="n"/>
+      <c r="N29" s="0" t="n">
         <v>-19.41</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="O29" s="0" t="n">
         <v>-0.24</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="P29" s="0" t="n">
         <v>145.67</v>
       </c>
-      <c r="O29" s="0" t="inlineStr">
+      <c r="Q29" s="0" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="R29" s="0" t="n">
         <v>-34.76</v>
       </c>
-      <c r="Q29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-0.55</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>39.75</v>
       </c>
-      <c r="S29" s="0" t="inlineStr">
+      <c r="U29" s="0" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-139.32</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-4.5</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="X29" s="0" t="n">
         <v>42.09</v>
       </c>
-      <c r="W29" s="0" t="inlineStr">
+      <c r="Y29" s="0" t="inlineStr">
         <is>
           <t>0.61</t>
         </is>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="Z29" s="0" t="n">
         <v>24.4</v>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
+      <c r="AA29" s="0" t="inlineStr">
         <is>
           <t>1.37</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
         <v>15.72</v>
       </c>
-      <c r="AA29" s="0" t="inlineStr">
+      <c r="AC29" s="0" t="inlineStr">
         <is>
           <t>0.52</t>
         </is>
       </c>
-      <c r="AB29" s="0" t="inlineStr"/>
-      <c r="AC29" s="0" t="inlineStr"/>
-      <c r="AD29" s="0" t="inlineStr">
+      <c r="AD29" s="0" t="inlineStr"/>
+      <c r="AE29" s="0" t="inlineStr"/>
+      <c r="AF29" s="0" t="inlineStr">
         <is>
           <t>665</t>
         </is>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>3.44</v>
       </c>
-      <c r="AF29" s="0" t="inlineStr">
+      <c r="AH29" s="0" t="inlineStr">
         <is>
           <t>670.15</t>
         </is>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>4.79</v>
       </c>
-      <c r="AH29" s="0" t="inlineStr"/>
-      <c r="AI29" s="0" t="inlineStr"/>
       <c r="AJ29" s="0" t="inlineStr"/>
       <c r="AK29" s="0" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
@@ -16105,7 +16127,7 @@
         <v>1.576</v>
       </c>
       <c r="L30" s="0" t="inlineStr"/>
-      <c r="M30" s="0" t="inlineStr"/>
+      <c r="M30" s="0" t="n"/>
       <c r="N30" s="0" t="inlineStr"/>
       <c r="O30" s="0" t="inlineStr"/>
       <c r="P30" s="0" t="inlineStr"/>
@@ -16122,20 +16144,22 @@
       <c r="AA30" s="0" t="inlineStr"/>
       <c r="AB30" s="0" t="inlineStr"/>
       <c r="AC30" s="0" t="inlineStr"/>
-      <c r="AD30" s="0" t="n">
+      <c r="AD30" s="0" t="inlineStr"/>
+      <c r="AE30" s="0" t="inlineStr"/>
+      <c r="AF30" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AE30" s="0" t="inlineStr">
+      <c r="AG30" s="0" t="inlineStr">
         <is>
           <t>26786.74</t>
         </is>
       </c>
-      <c r="AF30" s="0" t="inlineStr"/>
-      <c r="AG30" s="0" t="inlineStr"/>
       <c r="AH30" s="0" t="inlineStr"/>
       <c r="AI30" s="0" t="inlineStr"/>
       <c r="AJ30" s="0" t="inlineStr"/>
       <c r="AK30" s="0" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -16163,8 +16187,8 @@
       <c r="K31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="L31" s="0" t="inlineStr"/>
-      <c r="M31" s="0" t="inlineStr"/>
+      <c r="L31" s="0" t="n"/>
+      <c r="M31" s="0" t="n"/>
       <c r="N31" s="0" t="inlineStr"/>
       <c r="O31" s="0" t="inlineStr"/>
       <c r="P31" s="0" t="inlineStr"/>
@@ -16181,23 +16205,37 @@
       <c r="AA31" s="0" t="inlineStr"/>
       <c r="AB31" s="0" t="inlineStr"/>
       <c r="AC31" s="0" t="inlineStr"/>
-      <c r="AD31" s="12" t="n">
+      <c r="AD31" s="12" t="inlineStr"/>
+      <c r="AE31" s="12" t="inlineStr"/>
+      <c r="AF31" s="0" t="n">
         <v>187.790675535731</v>
       </c>
-      <c r="AE31" s="12" t="n">
+      <c r="AG31" s="0" t="n">
         <v>1.87790675535731</v>
       </c>
-      <c r="AF31" s="0" t="inlineStr"/>
-      <c r="AG31" s="0" t="inlineStr"/>
       <c r="AH31" s="0" t="inlineStr"/>
       <c r="AI31" s="0" t="inlineStr"/>
       <c r="AJ31" s="0" t="inlineStr"/>
       <c r="AK31" s="0" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr"/>
-      <c r="B32" s="0" t="inlineStr"/>
-      <c r="C32" s="0" t="inlineStr"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>20200207</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>投资</t>
+        </is>
+      </c>
       <c r="D32" s="0" t="inlineStr"/>
       <c r="E32" s="0" t="inlineStr"/>
       <c r="F32" s="0" t="inlineStr"/>
@@ -16206,8 +16244,12 @@
       <c r="I32" s="0" t="inlineStr"/>
       <c r="J32" s="0" t="inlineStr"/>
       <c r="K32" s="0" t="inlineStr"/>
-      <c r="L32" s="0" t="inlineStr"/>
-      <c r="M32" s="0" t="inlineStr"/>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M32" s="0" t="n"/>
       <c r="N32" s="0" t="inlineStr"/>
       <c r="O32" s="0" t="inlineStr"/>
       <c r="P32" s="0" t="inlineStr"/>
@@ -16232,9 +16274,55 @@
       <c r="AI32" s="0" t="inlineStr"/>
       <c r="AJ32" s="0" t="inlineStr"/>
       <c r="AK32" s="0" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
-    <row r="33"/>
-    <row r="34"/>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+    </row>
     <row r="35"/>
     <row r="36"/>
     <row r="37">
@@ -36009,7 +36097,7 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="1" min="2" max="2"/>
@@ -36456,7 +36544,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5555555555556" customWidth="1" style="1" min="11" max="11"/>
     <col width="1.44444444444444" customWidth="1" style="1" min="12" max="12"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>1.9786, 1.9708, 1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203, 2.2107, 2.2143, 2.1871, 2.2483, 2.2799, 2.3195, 2.2982, 2.3311, 2.351, 2.3749, 2.4625, 2.44, 2.4958, 2.4445, 2.2939, 2.393, 2.4071, 2.4697, 2.5209, 2.5221, 2.5459, 2.5921, 2.6019, 2.6219</t>
+          <t>1.9662, 2.0156, 2.016, 2.0069, 1.9292, 1.8758, 1.9094, 1.9462, 1.9415, 1.9334, 1.9657, 2.0333, 2.0368, 2.0594, 2.0833, 2.1021, 2.1619, 2.1357, 2.1591, 2.1756, 2.2221, 2.2334, 2.2205, 2.2061, 2.1742, 2.1436, 2.1972, 2.2256, 2.2204, 2.1711, 2.1752, 2.1792, 2.2168, 2.203, 2.2107, 2.2143, 2.1871, 2.2483, 2.2799, 2.3195, 2.2982, 2.3311, 2.351, 2.3749, 2.4625, 2.44, 2.4958, 2.4445, 2.2939, 2.393, 2.4071, 2.4697, 2.5209, 2.5221, 2.5459, 2.5921, 2.6019, 2.6219, 2.6931, 2.7566</t>
         </is>
       </c>
       <c r="E2" s="24" t="inlineStr">
@@ -1759,23 +1759,23 @@
         <v>15</v>
       </c>
       <c r="I2" s="74" t="n">
-        <v>2.6219</v>
+        <v>2.7566</v>
       </c>
       <c r="J2" s="75" t="n">
-        <v>0.7686690495407209</v>
+        <v>2.357877538895709</v>
       </c>
       <c r="K2" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L2" s="76" t="n">
-        <v>14.2987924495401</v>
+        <v>20.17088800732379</v>
       </c>
       <c r="M2" s="76" t="n">
-        <v>2.6219</v>
+        <v>2.7566</v>
       </c>
       <c r="N2" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O2" s="30">
@@ -1892,30 +1892,30 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>1.146, 1.149, 1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253, 1.249, 1.244, 1.235, 1.278, 1.313, 1.387, 1.354, 1.375, 1.376, 1.373, 1.43, 1.441, 1.487, 1.439, 1.317, 1.392, 1.393, 1.426, 1.471, 1.429, 1.457, 1.498, 1.548, 1.537</t>
+          <t>1.133, 1.15, 1.135, 1.138, 1.099, 1.063, 1.086, 1.123, 1.121, 1.116, 1.145, 1.189, 1.195, 1.208, 1.239, 1.251, 1.284, 1.277, 1.29, 1.291, 1.312, 1.314, 1.326, 1.282, 1.264, 1.226, 1.265, 1.311, 1.288, 1.244, 1.244, 1.243, 1.275, 1.253, 1.249, 1.244, 1.235, 1.278, 1.313, 1.387, 1.354, 1.375, 1.376, 1.373, 1.43, 1.441, 1.487, 1.439, 1.317, 1.392, 1.393, 1.426, 1.471, 1.429, 1.457, 1.498, 1.548, 1.537, 1.572, 1.627</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
         <v>15</v>
       </c>
       <c r="I3" s="74" t="n">
-        <v>1.537</v>
+        <v>1.627</v>
       </c>
       <c r="J3" s="75" t="n">
-        <v>-0.7105943152454859</v>
+        <v>3.498727735368953</v>
       </c>
       <c r="K3" s="76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="76" t="n">
-        <v>-0.5519317611640804</v>
+        <v>4.540867810292638</v>
       </c>
       <c r="M3" s="76" t="n">
-        <v>1.982</v>
+        <v>2.072</v>
       </c>
       <c r="N3" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O3" s="30">
@@ -2034,30 +2034,30 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>3.7299, 3.6813, 3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386, 4.2866, 4.2851, 4.174, 4.2587, 4.3341, 4.4817, 4.5077, 4.5983, 4.6206, 4.6398, 4.8649, 4.8899, 5.1199, 5.0136, 4.6553, 4.8895, 4.9414, 5.0837, 5.2218, 5.1426, 5.2235, 5.3354, 5.3753, 5.4243</t>
+          <t>3.6526, 3.698, 3.6566, 3.6777, 3.5981, 3.4791, 3.5305, 3.6562, 3.6666, 3.6823, 3.7375, 3.7957, 3.8074, 3.8782, 3.9198, 3.927, 4.0568, 4.0206, 4.0601, 4.1019, 4.2549, 4.2962, 4.2832, 4.1795, 4.1366, 3.9861, 4.097, 4.1918, 4.1732, 4.0528, 4.0374, 4.0288, 4.2087, 4.2386, 4.2866, 4.2851, 4.174, 4.2587, 4.3341, 4.4817, 4.5077, 4.5983, 4.6206, 4.6398, 4.8649, 4.8899, 5.1199, 5.0136, 4.6553, 4.8895, 4.9414, 5.0837, 5.2218, 5.1426, 5.2235, 5.3354, 5.3753, 5.4243, 5.6002, 5.8071</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I4" s="74" t="n">
-        <v>5.4243</v>
+        <v>5.8071</v>
       </c>
       <c r="J4" s="75" t="n">
-        <v>0.9115770282588783</v>
+        <v>3.694510910324632</v>
       </c>
       <c r="K4" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" s="76" t="n">
-        <v>5.477773888694432</v>
+        <v>12.9214794073037</v>
       </c>
       <c r="M4" s="76" t="n">
-        <v>5.4243</v>
+        <v>5.8071</v>
       </c>
       <c r="N4" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O4" s="30">
@@ -2178,30 +2178,30 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>1.4115, 1.405, 1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822, 1.5893, 1.5914, 1.5712, 1.6147, 1.6356, 1.669, 1.6556, 1.6782, 1.6928, 1.7128, 1.7753, 1.758, 1.7993, 1.7584, 1.6472, 1.7278, 1.7458, 1.7983, 1.8437, 1.8405, 1.8513, 1.89, 1.8988, 1.9184</t>
+          <t>1.4044, 1.4379, 1.4363, 1.4366, 1.3776, 1.3389, 1.3573, 1.3817, 1.3824, 1.3756, 1.3968, 1.4373, 1.4445, 1.4642, 1.489, 1.5025, 1.551, 1.531, 1.5467, 1.5604, 1.5956, 1.6014, 1.5942, 1.5793, 1.5578, 1.5335, 1.5722, 1.5956, 1.5907, 1.5523, 1.5573, 1.5628, 1.592, 1.5822, 1.5893, 1.5914, 1.5712, 1.6147, 1.6356, 1.669, 1.6556, 1.6782, 1.6928, 1.7128, 1.7753, 1.758, 1.7993, 1.7584, 1.6472, 1.7278, 1.7458, 1.7983, 1.8437, 1.8405, 1.8513, 1.89, 1.8988, 1.9184, 1.9754, 2.035</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I5" s="74" t="n">
-        <v>1.9184</v>
+        <v>2.035</v>
       </c>
       <c r="J5" s="75" t="n">
-        <v>1.032230882662738</v>
+        <v>3.017110458641293</v>
       </c>
       <c r="K5" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L5" s="76" t="n">
-        <v>4.232545503939152</v>
+        <v>10.56778049443087</v>
       </c>
       <c r="M5" s="76" t="n">
-        <v>1.9184</v>
+        <v>2.035</v>
       </c>
       <c r="N5" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O5" s="30">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>2.145, 2.094, 2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243, 2.262, 2.317, 2.289, 2.321, 2.305, 2.363, 2.358, 2.357, 2.343, 2.361, 2.407, 2.373, 2.395, 2.273, 2.087, 2.157, 2.222, 2.295, 2.372, 2.383, 2.362, 2.422, 2.42, 2.44</t>
+          <t>2.101, 2.144, 2.118, 2.103, 2.041, 2.003, 2.043, 2.041, 2.05, 2.036, 2.068, 2.084, 2.078, 2.103, 2.131, 2.148, 2.152, 2.112, 2.133, 2.136, 2.184, 2.229, 2.219, 2.202, 2.196, 2.116, 2.155, 2.198, 2.203, 2.164, 2.171, 2.196, 2.251, 2.243, 2.262, 2.317, 2.289, 2.321, 2.305, 2.363, 2.358, 2.357, 2.343, 2.361, 2.407, 2.373, 2.395, 2.273, 2.087, 2.157, 2.222, 2.295, 2.372, 2.383, 2.362, 2.422, 2.42, 2.44, 2.522, 2.568</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2332,23 +2332,23 @@
         <v>15</v>
       </c>
       <c r="I6" s="74" t="n">
-        <v>2.44</v>
+        <v>2.568</v>
       </c>
       <c r="J6" s="75" t="n">
-        <v>0.8264462809917362</v>
+        <v>1.82394924662967</v>
       </c>
       <c r="K6" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="76" t="n">
-        <v>0.8257279443719984</v>
+        <v>6.127770534550195</v>
       </c>
       <c r="M6" s="76" t="n">
-        <v>2.32</v>
+        <v>2.442</v>
       </c>
       <c r="N6" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O6" s="30">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>1.1876, 1.177, 1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981, 1.0917, 1.1144, 1.1055, 1.1465, 1.1473, 1.1566, 1.1466, 1.1548, 1.169, 1.1797, 1.1911, 1.2034, 1.1944, 1.1711, 1.136, 1.1782, 1.2051, 1.2481, 1.2379, 1.2328, 1.2365, 1.2609, 1.2546, 1.2483</t>
+          <t>1.1841, 1.2157, 1.2194, 1.1982, 1.1561, 1.1391, 1.1423, 1.1292, 1.1279, 1.1065, 1.0957, 1.0971, 1.1028, 1.1169, 1.1227, 1.104, 1.1201, 1.1185, 1.1135, 1.1062, 1.119, 1.1277, 1.1111, 1.109, 1.0965, 1.0857, 1.0896, 1.0891, 1.0908, 1.0768, 1.0815, 1.1022, 1.1038, 1.0981, 1.0917, 1.1144, 1.1055, 1.1465, 1.1473, 1.1566, 1.1466, 1.1548, 1.169, 1.1797, 1.1911, 1.2034, 1.1944, 1.1711, 1.136, 1.1782, 1.2051, 1.2481, 1.2379, 1.2328, 1.2365, 1.2609, 1.2546, 1.2483, 1.2871, 1.2944</t>
         </is>
       </c>
       <c r="E7" s="26" t="inlineStr">
@@ -2489,23 +2489,23 @@
         <v>5</v>
       </c>
       <c r="I7" s="74" t="n">
-        <v>1.2483</v>
+        <v>1.2944</v>
       </c>
       <c r="J7" s="75" t="n">
-        <v>-0.5021520803443307</v>
+        <v>0.5671664983295848</v>
       </c>
       <c r="K7" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L7" s="76" t="n">
-        <v>-1.000188714851874</v>
+        <v>3.698055661456364</v>
       </c>
       <c r="M7" s="76" t="n">
-        <v>0.5246</v>
+        <v>0.544</v>
       </c>
       <c r="N7" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O7" s="30">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>1.6873, 1.6728, 1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803, 1.5686, 1.5998, 1.5972, 1.6535, 1.6539, 1.6725, 1.6581, 1.6817, 1.7073, 1.7254, 1.7513, 1.7561, 1.7484, 1.7006, 1.6286, 1.6837, 1.7158, 1.775, 1.7592, 1.7599, 1.7748, 1.7989, 1.7838, 1.7891</t>
+          <t>1.671, 1.7046, 1.7004, 1.6698, 1.6047, 1.5899, 1.6046, 1.5896, 1.5956, 1.5578, 1.5421, 1.5451, 1.5607, 1.581, 1.594, 1.5636, 1.5832, 1.5825, 1.5853, 1.6122, 1.6105, 1.6167, 1.5937, 1.5863, 1.5692, 1.5659, 1.5675, 1.5697, 1.5777, 1.5704, 1.5775, 1.5971, 1.5973, 1.5803, 1.5686, 1.5998, 1.5972, 1.6535, 1.6539, 1.6725, 1.6581, 1.6817, 1.7073, 1.7254, 1.7513, 1.7561, 1.7484, 1.7006, 1.6286, 1.6837, 1.7158, 1.775, 1.7592, 1.7599, 1.7748, 1.7989, 1.7838, 1.7891, 1.8337, 1.8309</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -2638,23 +2638,23 @@
         <v>5</v>
       </c>
       <c r="I8" s="74" t="n">
-        <v>1.7891</v>
+        <v>1.8309</v>
       </c>
       <c r="J8" s="75" t="n">
-        <v>0.2971185110438311</v>
+        <v>-0.152696733380604</v>
       </c>
       <c r="K8" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="76" t="n">
-        <v>0.2971185110438311</v>
+        <v>-0.152696733380604</v>
       </c>
       <c r="M8" s="76" t="n">
-        <v>1.7891</v>
+        <v>1.8309</v>
       </c>
       <c r="N8" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O8" s="30">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>1.241, 1.229, 1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313, 1.324, 1.329, 1.293, 1.342, 1.364, 1.418, 1.405, 1.412, 1.41, 1.405, 1.467, 1.482, 1.536, 1.483, 1.363, 1.398, 1.411, 1.445, 1.47, 1.458, 1.491, 1.514, 1.518, 1.532</t>
+          <t>1.214, 1.237, 1.221, 1.218, 1.182, 1.141, 1.145, 1.158, 1.17, 1.171, 1.181, 1.193, 1.186, 1.222, 1.249, 1.256, 1.27, 1.256, 1.263, 1.276, 1.311, 1.327, 1.318, 1.289, 1.272, 1.234, 1.259, 1.275, 1.272, 1.238, 1.238, 1.252, 1.3, 1.313, 1.324, 1.329, 1.293, 1.342, 1.364, 1.418, 1.405, 1.412, 1.41, 1.405, 1.467, 1.482, 1.536, 1.483, 1.363, 1.398, 1.411, 1.445, 1.47, 1.458, 1.491, 1.514, 1.518, 1.532, 1.603, 1.622</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -2787,23 +2787,23 @@
         <v>4</v>
       </c>
       <c r="I9" s="74" t="n">
-        <v>1.532</v>
+        <v>1.622</v>
       </c>
       <c r="J9" s="75" t="n">
-        <v>0.9222661396574449</v>
+        <v>1.185277604491586</v>
       </c>
       <c r="K9" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L9" s="76" t="n">
-        <v>5.075445816186561</v>
+        <v>11.24828532235941</v>
       </c>
       <c r="M9" s="76" t="n">
-        <v>1.532</v>
+        <v>1.622</v>
       </c>
       <c r="N9" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O9" s="30">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>1.4678, 1.4657, 1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935, 1.7343, 1.7419, 1.7236, 1.74, 1.7302, 1.7444, 1.7512, 1.7344, 1.7254, 1.7181, 1.7239, 1.711, 1.7341, 1.7011, 1.6122, 1.6534, 1.6935, 1.7373, 1.7429, 1.7719, 1.7808, 1.8377, 1.8261, 1.821</t>
+          <t>1.4648, 1.5032, 1.4891, 1.4887, 1.4683, 1.4495, 1.4588, 1.4811, 1.4775, 1.4791, 1.4871, 1.4975, 1.5055, 1.518, 1.5225, 1.5257, 1.5338, 1.5191, 1.5153, 1.5364, 1.5617, 1.5784, 1.5779, 1.5782, 1.5614, 1.5454, 1.5875, 1.5954, 1.5974, 1.6028, 1.6091, 1.6206, 1.6645, 1.6935, 1.7343, 1.7419, 1.7236, 1.74, 1.7302, 1.7444, 1.7512, 1.7344, 1.7254, 1.7181, 1.7239, 1.711, 1.7341, 1.7011, 1.6122, 1.6534, 1.6935, 1.7373, 1.7429, 1.7719, 1.7808, 1.8377, 1.8261, 1.821, 1.8763, 1.8836</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2941,23 +2941,23 @@
         <v>3</v>
       </c>
       <c r="I10" s="74" t="n">
-        <v>1.821</v>
+        <v>1.8836</v>
       </c>
       <c r="J10" s="75" t="n">
-        <v>-0.27928371940201</v>
+        <v>0.3890635825827353</v>
       </c>
       <c r="K10" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L10" s="76" t="n">
-        <v>-0.9087446264352145</v>
+        <v>3.43767160900604</v>
       </c>
       <c r="M10" s="76" t="n">
-        <v>1.821</v>
+        <v>1.8836</v>
       </c>
       <c r="N10" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O10" s="30">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>1.0755, 1.0668, 1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289, 1.138, 1.1435, 1.1326, 1.1605, 1.1671, 1.1945, 1.1888, 1.205, 1.2073, 1.2112, 1.2423, 1.2315, 1.2639, 1.2241, 1.1368, 1.1893, 1.2077, 1.2392, 1.2451, 1.246, 1.2574, 1.2826, 1.2727, 1.2727</t>
+          <t>1.0686, 1.0902, 1.0837, 1.0781, 1.0485, 1.0308, 1.0416, 1.0473, 1.0445, 1.0392, 1.0359, 1.0425, 1.0454, 1.065, 1.0728, 1.0665, 1.0808, 1.0744, 1.0731, 1.0914, 1.1116, 1.1268, 1.118, 1.1105, 1.0965, 1.0756, 1.0908, 1.0997, 1.1043, 1.0862, 1.0934, 1.1035, 1.1274, 1.1289, 1.138, 1.1435, 1.1326, 1.1605, 1.1671, 1.1945, 1.1888, 1.205, 1.2073, 1.2112, 1.2423, 1.2315, 1.2639, 1.2241, 1.1368, 1.1893, 1.2077, 1.2392, 1.2451, 1.246, 1.2574, 1.2826, 1.2727, 1.2727, 1.3147, 1.3253</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -3090,23 +3090,23 @@
         <v>3</v>
       </c>
       <c r="I11" s="74" t="n">
-        <v>1.2727</v>
+        <v>1.3253</v>
       </c>
       <c r="J11" s="75" t="n">
-        <v>0</v>
+        <v>0.8062675895641547</v>
       </c>
       <c r="K11" s="76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="76" t="n">
-        <v>-0.7718696397941697</v>
+        <v>4.132945705979413</v>
       </c>
       <c r="M11" s="76" t="n">
-        <v>1.2727</v>
+        <v>1.3253</v>
       </c>
       <c r="N11" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O11" s="30">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>1.3447, 1.3323, 1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548, 1.5676, 1.5706, 1.5458, 1.5876, 1.5872, 1.6302, 1.6253, 1.6337, 1.6499, 1.6498, 1.7044, 1.683, 1.746, 1.6898, 1.5591, 1.6529, 1.6792, 1.7465, 1.7851, 1.7588, 1.7617, 1.7887, 1.7807, 1.7561</t>
+          <t>1.3367, 1.3667, 1.3602, 1.3542, 1.3271, 1.2906, 1.3009, 1.3192, 1.3209, 1.3088, 1.3308, 1.3357, 1.348, 1.3841, 1.4134, 1.424, 1.4583, 1.4436, 1.4503, 1.4564, 1.4935, 1.5217, 1.5246, 1.508, 1.4893, 1.46, 1.4888, 1.5075, 1.5104, 1.4884, 1.4913, 1.5001, 1.544, 1.548, 1.5676, 1.5706, 1.5458, 1.5876, 1.5872, 1.6302, 1.6253, 1.6337, 1.6499, 1.6498, 1.7044, 1.683, 1.746, 1.6898, 1.5591, 1.6529, 1.6792, 1.7465, 1.7851, 1.7588, 1.7617, 1.7887, 1.7807, 1.7561, 1.8229, 1.8464</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -3239,23 +3239,23 @@
         <v>3</v>
       </c>
       <c r="I12" s="74" t="n">
-        <v>1.7561</v>
+        <v>1.8464</v>
       </c>
       <c r="J12" s="75" t="n">
-        <v>-1.381479193575558</v>
+        <v>1.289154643699604</v>
       </c>
       <c r="K12" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L12" s="76" t="n">
-        <v>-1.822552691899143</v>
+        <v>5.142076191560848</v>
       </c>
       <c r="M12" s="76" t="n">
-        <v>1.7561</v>
+        <v>1.8464</v>
       </c>
       <c r="N12" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O12" s="30">
@@ -3376,30 +3376,30 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>2.392, 2.38, 2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288, 2.271, 2.307, 2.29, 2.349, 2.358, 2.378, 2.352, 2.373, 2.403, 2.425, 2.456, 2.474, 2.457, 2.389, 2.286, 2.36, 2.421, 2.498, 2.463, 2.474, 2.479, 2.518, 2.493, 2.508</t>
+          <t>2.388, 2.425, 2.433, 2.402, 2.313, 2.291, 2.303, 2.29, 2.291, 2.248, 2.223, 2.222, 2.236, 2.258, 2.268, 2.23, 2.249, 2.245, 2.254, 2.298, 2.308, 2.321, 2.286, 2.278, 2.252, 2.235, 2.238, 2.232, 2.245, 2.233, 2.236, 2.281, 2.289, 2.288, 2.271, 2.307, 2.29, 2.349, 2.358, 2.378, 2.352, 2.373, 2.403, 2.425, 2.456, 2.474, 2.457, 2.389, 2.286, 2.36, 2.421, 2.498, 2.463, 2.474, 2.479, 2.518, 2.493, 2.508, 2.574, 2.576</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
         <v>5</v>
       </c>
       <c r="I13" s="74" t="n">
-        <v>2.508</v>
+        <v>2.576</v>
       </c>
       <c r="J13" s="75" t="n">
-        <v>0.6016847172081879</v>
+        <v>0.0777000777000864</v>
       </c>
       <c r="K13" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="76" t="n">
-        <v>0.5699088145896535</v>
+        <v>3.153495440729473</v>
       </c>
       <c r="M13" s="76" t="n">
-        <v>2.647</v>
+        <v>2.715</v>
       </c>
       <c r="N13" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O13" s="30">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>5.5334, 5.4922, 5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767, 4.7873, 4.8272, 4.8134, 4.9049, 4.9685, 5.0368, 4.9983, 5.0017, 5.0181, 5.0197, 5.0262, 4.9916, 4.975, 4.8404, 4.5302, 4.5848, 4.7141, 4.838, 4.824, 4.861, 4.9281, 4.9444, 4.917, 4.9622</t>
+          <t>5.4984, 5.5653, 5.5537, 5.5118, 4.8745, 4.851, 4.8865, 4.8578, 4.8471, 4.7459, 4.7341, 4.7245, 4.748, 4.7673, 4.8305, 4.7867, 4.8021, 4.7974, 4.7769, 4.8731, 4.8619, 4.8923, 4.868, 4.8449, 4.8361, 4.8142, 4.8313, 4.7994, 4.8552, 4.8483, 4.9114, 4.9607, 4.9348, 4.8767, 4.7873, 4.8272, 4.8134, 4.9049, 4.9685, 5.0368, 4.9983, 5.0017, 5.0181, 5.0197, 5.0262, 4.9916, 4.975, 4.8404, 4.5302, 4.5848, 4.7141, 4.838, 4.824, 4.861, 4.9281, 4.9444, 4.917, 4.9622, 4.9751, 4.9235</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -3530,23 +3530,23 @@
         <v>14</v>
       </c>
       <c r="I14" s="74" t="n">
-        <v>4.9622</v>
+        <v>4.9235</v>
       </c>
       <c r="J14" s="75" t="n">
-        <v>0.9192597112060271</v>
+        <v>-1.037165082108913</v>
       </c>
       <c r="K14" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="76" t="n">
-        <v>0.7783709316342252</v>
+        <v>-0.8797803959011721</v>
       </c>
       <c r="M14" s="76" t="n">
-        <v>5.8522</v>
+        <v>5.8135</v>
       </c>
       <c r="N14" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O14" s="30">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>1.0158, 1.0093, 1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857, 0.9779, 0.988, 0.9896, 1.01, 1.0337, 1.0486, 1.0332, 1.0381, 1.04, 1.0401, 1.0295, 1.0006, 1.0043, 0.9675, 0.8865, 0.8809, 0.8926, 0.9014, 0.9091, 0.9112, 0.9324, 0.935, 0.928, 0.9257</t>
+          <t>1.0048, 1.0131, 1.0184, 1.0167, 0.9896, 0.9869, 0.9964, 0.9999, 0.9939, 0.9686, 0.9686, 0.9641, 0.9697, 0.9686, 0.9889, 0.9833, 0.9836, 0.9733, 0.9654, 0.9803, 0.9649, 0.9761, 0.9807, 0.9735, 0.9698, 0.9635, 0.9676, 0.9566, 0.9637, 0.9734, 1.0068, 1.0073, 0.9966, 0.9857, 0.9779, 0.988, 0.9896, 1.01, 1.0337, 1.0486, 1.0332, 1.0381, 1.04, 1.0401, 1.0295, 1.0006, 1.0043, 0.9675, 0.8865, 0.8809, 0.8926, 0.9014, 0.9091, 0.9112, 0.9324, 0.935, 0.928, 0.9257, 0.9331, 0.9283</t>
         </is>
       </c>
       <c r="E15" s="28" t="inlineStr">
@@ -3682,23 +3682,23 @@
         <v>3</v>
       </c>
       <c r="I15" s="74" t="n">
-        <v>0.9257</v>
+        <v>0.9283</v>
       </c>
       <c r="J15" s="75" t="n">
-        <v>-0.2478448275862155</v>
+        <v>-0.5144143178651834</v>
       </c>
       <c r="K15" s="76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" s="76" t="n">
-        <v>-0.4512153704332679</v>
+        <v>-0.2331002331002505</v>
       </c>
       <c r="M15" s="76" t="n">
-        <v>2.0518</v>
+        <v>2.0544</v>
       </c>
       <c r="N15" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O15" s="30">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>1.878, 1.858, 1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715, 1.699, 1.733, 1.727, 1.789, 1.798, 1.814, 1.794, 1.823, 1.853, 1.876, 1.915, 1.917, 1.919, 1.865, 1.774, 1.846, 1.87, 1.934, 1.912, 1.921, 1.935, 1.97, 1.953, 1.965</t>
+          <t>1.862, 1.908, 1.91, 1.877, 1.787, 1.76, 1.773, 1.761, 1.772, 1.726, 1.707, 1.702, 1.718, 1.739, 1.754, 1.713, 1.732, 1.73, 1.726, 1.764, 1.765, 1.772, 1.739, 1.729, 1.712, 1.706, 1.711, 1.709, 1.715, 1.705, 1.706, 1.733, 1.727, 1.715, 1.699, 1.733, 1.727, 1.789, 1.798, 1.814, 1.794, 1.823, 1.853, 1.876, 1.915, 1.917, 1.919, 1.865, 1.774, 1.846, 1.87, 1.934, 1.912, 1.921, 1.935, 1.97, 1.953, 1.965, 2.016, 2.007</t>
         </is>
       </c>
       <c r="E16" s="24" t="inlineStr">
@@ -3836,23 +3836,23 @@
         <v>15</v>
       </c>
       <c r="I16" s="74" t="n">
-        <v>1.965</v>
+        <v>2.007</v>
       </c>
       <c r="J16" s="75" t="n">
-        <v>0.614439324116744</v>
+        <v>-0.4464285714285663</v>
       </c>
       <c r="K16" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="76" t="n">
-        <v>0.5917159763313614</v>
+        <v>-0.4304160688665873</v>
       </c>
       <c r="M16" s="76" t="n">
-        <v>2.04</v>
+        <v>2.082</v>
       </c>
       <c r="N16" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O16" s="30">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>1.8341, 1.8157, 1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944, 1.6826, 1.7221, 1.7157, 1.7829, 1.7836, 1.8001, 1.7809, 1.8068, 1.8401, 1.8616, 1.888, 1.8958, 1.8887, 1.8384, 1.7604, 1.8216, 1.8625, 1.921, 1.9091, 1.9107, 1.9362, 1.9697, 1.9542, 1.9526</t>
+          <t>1.8188, 1.8605, 1.8682, 1.8275, 1.7434, 1.7228, 1.7321, 1.7125, 1.7214, 1.6762, 1.6551, 1.6533, 1.6719, 1.6955, 1.7107, 1.6733, 1.6936, 1.6934, 1.6944, 1.7286, 1.726, 1.7313, 1.6992, 1.6892, 1.671, 1.6652, 1.6706, 1.6734, 1.6803, 1.67, 1.6783, 1.7051, 1.7031, 1.6944, 1.6826, 1.7221, 1.7157, 1.7829, 1.7836, 1.8001, 1.7809, 1.8068, 1.8401, 1.8616, 1.888, 1.8958, 1.8887, 1.8384, 1.7604, 1.8216, 1.8625, 1.921, 1.9091, 1.9107, 1.9362, 1.9697, 1.9542, 1.9526, 1.9972, 1.9988</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -3990,23 +3990,23 @@
         <v>5</v>
       </c>
       <c r="I17" s="74" t="n">
-        <v>1.9526</v>
+        <v>1.9988</v>
       </c>
       <c r="J17" s="75" t="n">
-        <v>-0.08187493603520858</v>
+        <v>0.08011215701981894</v>
       </c>
       <c r="K17" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L17" s="76" t="n">
-        <v>-0.8681525105346051</v>
+        <v>2.366076001229132</v>
       </c>
       <c r="M17" s="76" t="n">
-        <v>1.9526</v>
+        <v>1.9988</v>
       </c>
       <c r="N17" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O17" s="30">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>1.6737, 1.6646, 1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547, 1.5403, 1.566, 1.5558, 1.6241, 1.6349, 1.6584, 1.6409, 1.6638, 1.6859, 1.7106, 1.738, 1.7398, 1.7496, 1.7044, 1.6276, 1.6889, 1.7306, 1.7809, 1.7523, 1.7603, 1.7693, 1.7924, 1.7771, 1.7835</t>
+          <t>1.665, 1.7066, 1.7058, 1.6791, 1.5942, 1.577, 1.6024, 1.5964, 1.6024, 1.5521, 1.5316, 1.5392, 1.5577, 1.582, 1.5959, 1.561, 1.5798, 1.5718, 1.5727, 1.6094, 1.6056, 1.6183, 1.5962, 1.5828, 1.563, 1.5493, 1.5532, 1.5582, 1.5611, 1.5432, 1.5446, 1.5693, 1.5706, 1.5547, 1.5403, 1.566, 1.5558, 1.6241, 1.6349, 1.6584, 1.6409, 1.6638, 1.6859, 1.7106, 1.738, 1.7398, 1.7496, 1.7044, 1.6276, 1.6889, 1.7306, 1.7809, 1.7523, 1.7603, 1.7693, 1.7924, 1.7771, 1.7835, 1.8545, 1.8541</t>
         </is>
       </c>
       <c r="E18" s="24" t="inlineStr">
@@ -4144,23 +4144,23 @@
         <v>5</v>
       </c>
       <c r="I18" s="74" t="n">
-        <v>1.7835</v>
+        <v>1.8541</v>
       </c>
       <c r="J18" s="75" t="n">
-        <v>0.3601373023465299</v>
+        <v>-0.02156915610676495</v>
       </c>
       <c r="K18" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="76" t="n">
-        <v>0.3601373023465299</v>
+        <v>-0.02156915610676495</v>
       </c>
       <c r="M18" s="76" t="n">
-        <v>1.7835</v>
+        <v>1.8541</v>
       </c>
       <c r="N18" s="77" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O18" s="30">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>1.1197, 1.1204, 1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458, 1.1385, 1.1436, 1.1265, 1.1321, 1.1319, 1.1347, 1.1322, 1.1205, 1.114, 1.1149, 1.1214, 1.107, 1.1067, 1.0836, 1.0166, 1.0373, 1.0375, 1.0442, 1.0404, 1.0366, 1.047, 1.0493, 1.0424, 1.0507</t>
+          <t>1.1357, 1.1355, 1.1164, 1.1135, 1.1097, 1.1218, 1.1154, 1.1163, 1.1123, 1.106, 1.1066, 1.1103, 1.1049, 1.11, 1.1111, 1.1097, 1.1061, 1.1176, 1.1149, 1.1351, 1.1099, 1.1249, 1.1258, 1.1277, 1.1277, 1.1164, 1.1228, 1.1181, 1.1261, 1.1273, 1.1266, 1.1261, 1.143, 1.1458, 1.1385, 1.1436, 1.1265, 1.1321, 1.1319, 1.1347, 1.1322, 1.1205, 1.114, 1.1149, 1.1214, 1.107, 1.1067, 1.0836, 1.0166, 1.0373, 1.0375, 1.0442, 1.0404, 1.0366, 1.047, 1.0493, 1.0424, 1.0507, 1.0686, 1.06</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -4291,23 +4291,23 @@
         <v>2</v>
       </c>
       <c r="I19" s="76" t="n">
-        <v>1.0507</v>
+        <v>1.06</v>
       </c>
       <c r="J19" s="78" t="n">
-        <v>0.7962394474290075</v>
+        <v>-0.8047913157402155</v>
       </c>
       <c r="K19" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="76" t="n">
-        <v>0.7232485186476101</v>
+        <v>-0.7326631453399166</v>
       </c>
       <c r="M19" s="76" t="n">
-        <v>1.1559</v>
+        <v>1.1652</v>
       </c>
       <c r="N19" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O19" s="30">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>1.819, 1.816, 1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111, 2.164, 2.173, 2.149, 2.171, 2.159, 2.179, 2.189, 2.166, 2.153, 2.142, 2.152, 2.133, 2.166, 2.116, 1.984, 2.037, 2.092, 2.15, 2.156, 2.194, 2.206, 2.278, 2.263, 2.257</t>
+          <t>1.816, 1.866, 1.848, 1.847, 1.821, 1.797, 1.81, 1.84, 1.835, 1.837, 1.847, 1.86, 1.871, 1.889, 1.894, 1.897, 1.908, 1.889, 1.884, 1.91, 1.942, 1.963, 1.963, 1.963, 1.941, 1.918, 1.974, 1.984, 1.987, 1.994, 2.002, 2.017, 2.072, 2.111, 2.164, 2.173, 2.149, 2.171, 2.159, 2.179, 2.189, 2.166, 2.153, 2.142, 2.152, 2.133, 2.166, 2.116, 1.984, 2.037, 2.092, 2.15, 2.156, 2.194, 2.206, 2.278, 2.263, 2.257, 2.328, 2.338</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -4440,23 +4440,23 @@
         <v>3</v>
       </c>
       <c r="I20" s="76" t="n">
-        <v>2.257</v>
+        <v>2.338</v>
       </c>
       <c r="J20" s="78" t="n">
-        <v>-0.2651347768448866</v>
+        <v>0.4295532646048209</v>
       </c>
       <c r="K20" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L20" s="76" t="n">
-        <v>-0.9218612818261593</v>
+        <v>3.588834736375718</v>
       </c>
       <c r="M20" s="76" t="n">
-        <v>2.257</v>
+        <v>2.338</v>
       </c>
       <c r="N20" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O20" s="30">
@@ -4577,30 +4577,30 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>0.9038, 0.8946, 0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382, 1.0389, 1.0457, 1.0141, 1.0291, 1.0305, 1.0433, 1.0308, 1.0263, 1.0208, 1.0247, 1.0402, 1.0218, 1.0295, 0.9886, 0.8991, 0.8979, 0.9094, 0.9323, 0.9349, 0.9442, 0.9422, 0.9563, 0.941, 0.9581</t>
+          <t>0.9066, 0.9137, 0.8999, 0.9003, 0.8975, 0.902, 0.9025, 0.8952, 0.8947, 0.8983, 0.9044, 0.9102, 0.9075, 0.9211, 0.925, 0.9236, 0.9218, 0.9231, 0.9179, 0.9508, 0.9654, 0.9905, 0.9934, 0.9887, 0.9923, 0.9687, 0.9782, 0.9796, 1.004, 0.9835, 1.0372, 1.0333, 1.0395, 1.0382, 1.0389, 1.0457, 1.0141, 1.0291, 1.0305, 1.0433, 1.0308, 1.0263, 1.0208, 1.0247, 1.0402, 1.0218, 1.0295, 0.9886, 0.8991, 0.8979, 0.9094, 0.9323, 0.9349, 0.9442, 0.9422, 0.9563, 0.941, 0.9581, 1.0038, 0.9989</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
         <v>104</v>
       </c>
       <c r="I21" s="76" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="J21" s="78" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="K21" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L21" s="76" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="M21" s="76" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="N21" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O21" s="30">
@@ -4726,30 +4726,30 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>2.577, 2.579, 2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744, 2.724, 2.74, 2.738, 2.748, 2.772, 2.76, 2.786, 2.764, 2.76, 2.784, 2.8, 2.792, 2.788, 2.802, 2.811, 2.8, 2.881, 2.893, 2.922, 2.902, 2.937, 2.938, 2.956, 2.955</t>
+          <t>2.596, 2.597, 2.6, 2.588, 2.586, 2.591, 2.623, 2.625, 2.643, 2.64, 2.629, 2.6, 2.582, 2.6, 2.61, 2.631, 2.621, 2.619, 2.633, 2.647, 2.65, 2.664, 2.667, 2.668, 2.688, 2.699, 2.709, 2.709, 2.708, 2.722, 2.723, 2.703, 2.709, 2.744, 2.724, 2.74, 2.738, 2.748, 2.772, 2.76, 2.786, 2.764, 2.76, 2.784, 2.8, 2.792, 2.788, 2.802, 2.811, 2.8, 2.881, 2.893, 2.922, 2.902, 2.937, 2.938, 2.956, 2.955, 2.963, 2.961</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
         <v>113</v>
       </c>
       <c r="I22" s="76" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="J22" s="78" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="K22" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="76" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="M22" s="76" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="N22" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O22" s="30">
@@ -4868,30 +4868,30 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>0.9701, 0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158, 1.1159, 1.1234, 1.091, 1.1058, 1.107, 1.1219, 1.1091, 1.104, 1.0983, 1.1025, 1.1192, 1.0998, 1.1071, 1.0629, 0.9641, 0.963, 0.9756, 0.998, 1.0008, 1.0104, 1.0089, 1.0218, 1.0065, 1.0217</t>
+          <t>0.9605, 0.9733, 0.9812, 0.9661, 0.9666, 0.964, 0.9691, 0.9702, 0.9626, 0.9619, 0.9656, 0.9723, 0.9786, 0.9759, 0.9908, 0.9949, 0.9936, 0.9921, 0.9932, 0.9877, 1.0227, 1.0376, 1.064, 1.0659, 1.0619, 1.067, 1.0416, 1.0508, 1.0517, 1.0779, 1.0568, 1.1154, 1.1105, 1.1178, 1.1158, 1.1159, 1.1234, 1.091, 1.1058, 1.107, 1.1219, 1.1091, 1.104, 1.0983, 1.1025, 1.1192, 1.0998, 1.1071, 1.0629, 0.9641, 0.963, 0.9756, 0.998, 1.0008, 1.0104, 1.0089, 1.0218, 1.0065, 1.0217, 1.0705</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="76" t="n">
-        <v>1.0217</v>
+        <v>1.0705</v>
       </c>
       <c r="J23" s="78" t="n">
-        <v>1.510183805265783</v>
+        <v>4.776353136928644</v>
       </c>
       <c r="K23" s="76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="76" t="n">
-        <v>1.510183805265783</v>
+        <v>6.358668653750627</v>
       </c>
       <c r="M23" s="76" t="n">
-        <v>1.0217</v>
+        <v>1.0705</v>
       </c>
       <c r="N23" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O23" s="30">
@@ -5012,30 +5012,30 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>1.504, 1.504, 1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634, 1.65, 1.651, 1.632, 1.665, 1.67, 1.705, 1.709, 1.716, 1.715, 1.709, 1.755, 1.735, 1.784, 1.731, 1.604, 1.661, 1.67, 1.707, 1.699, 1.725, 1.743, 1.783, 1.775, 1.788</t>
+          <t>1.497, 1.521, 1.516, 1.512, 1.496, 1.483, 1.51, 1.527, 1.526, 1.519, 1.532, 1.545, 1.549, 1.566, 1.584, 1.592, 1.604, 1.581, 1.581, 1.626, 1.657, 1.67, 1.649, 1.62, 1.618, 1.59, 1.606, 1.604, 1.609, 1.58, 1.597, 1.609, 1.642, 1.634, 1.65, 1.651, 1.632, 1.665, 1.67, 1.705, 1.709, 1.716, 1.715, 1.709, 1.755, 1.735, 1.784, 1.731, 1.604, 1.661, 1.67, 1.707, 1.699, 1.725, 1.743, 1.783, 1.775, 1.788, 1.857, 1.895</t>
         </is>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="76" t="n">
-        <v>1.788</v>
+        <v>1.895</v>
       </c>
       <c r="J24" s="78" t="n">
-        <v>0.73239436619719</v>
+        <v>2.046311254711903</v>
       </c>
       <c r="K24" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" s="76" t="n">
-        <v>0.5816554809843555</v>
+        <v>5.369127516778528</v>
       </c>
       <c r="M24" s="76" t="n">
-        <v>2.248</v>
+        <v>2.355</v>
       </c>
       <c r="N24" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O24" s="0">
@@ -5156,30 +5156,30 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>1.6932, 1.683, 1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705, 1.8822, 1.8826, 1.8552, 1.9101, 1.9396, 1.982, 1.9654, 1.9967, 2.0032, 2.0143, 2.0945, 2.0749, 2.129, 2.0843, 1.9474, 2.034, 2.0439, 2.1053, 2.1487, 2.1539, 2.1677, 2.2087, 2.2184, 2.2406</t>
+          <t>1.6798, 1.719, 1.7163, 1.7134, 1.6409, 1.5957, 1.6259, 1.6451, 1.6407, 1.6363, 1.6574, 1.7108, 1.7164, 1.7361, 1.7637, 1.7824, 1.8359, 1.8088, 1.8309, 1.8497, 1.8954, 1.9017, 1.8895, 1.8703, 1.8415, 1.8062, 1.864, 1.8918, 1.8817, 1.8308, 1.8379, 1.8454, 1.8824, 1.8705, 1.8822, 1.8826, 1.8552, 1.9101, 1.9396, 1.982, 1.9654, 1.9967, 2.0032, 2.0143, 2.0945, 2.0749, 2.129, 2.0843, 1.9474, 2.034, 2.0439, 2.1053, 2.1487, 2.1539, 2.1677, 2.2087, 2.2184, 2.2406, 2.3069, 2.376</t>
         </is>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="76" t="n">
-        <v>2.2406</v>
+        <v>2.376</v>
       </c>
       <c r="J25" s="78" t="n">
-        <v>1.000721240533728</v>
+        <v>2.995361740864351</v>
       </c>
       <c r="K25" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L25" s="76" t="n">
-        <v>14.715920497892</v>
+        <v>21.51174462959244</v>
       </c>
       <c r="M25" s="76" t="n">
-        <v>2.2856</v>
+        <v>2.421</v>
       </c>
       <c r="N25" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O25" s="0">
@@ -5300,30 +5300,30 @@
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>2.026, 2.013, 2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398, 2.434, 2.454, 2.414, 2.471, 2.484, 2.558, 2.546, 2.577, 2.586, 2.592, 2.674, 2.649, 2.739, 2.646, 2.435, 2.523, 2.564, 2.649, 2.714, 2.732, 2.736, 2.826, 2.817, 2.829</t>
+          <t>2.01, 2.056, 2.037, 2.045, 2.006, 1.946, 1.966, 2.017, 2.015, 2.019, 2.055, 2.078, 2.072, 2.131, 2.164, 2.178, 2.226, 2.203, 2.23, 2.262, 2.352, 2.379, 2.383, 2.356, 2.319, 2.249, 2.304, 2.349, 2.35, 2.298, 2.312, 2.308, 2.383, 2.398, 2.434, 2.454, 2.414, 2.471, 2.484, 2.558, 2.546, 2.577, 2.586, 2.592, 2.674, 2.649, 2.739, 2.646, 2.435, 2.523, 2.564, 2.649, 2.714, 2.732, 2.736, 2.826, 2.817, 2.829, 2.954, 3.028</t>
         </is>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="76" t="n">
-        <v>2.829</v>
+        <v>3.028</v>
       </c>
       <c r="J26" s="78" t="n">
-        <v>0.4259850905218321</v>
+        <v>2.505077860528092</v>
       </c>
       <c r="K26" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="76" t="n">
-        <v>0.4168113928447382</v>
+        <v>7.328933657519968</v>
       </c>
       <c r="M26" s="76" t="n">
-        <v>2.891</v>
+        <v>3.09</v>
       </c>
       <c r="N26" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O26" s="0">
@@ -5444,30 +5444,30 @@
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>1.1219, 1.1127, 1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225, 1.2272, 1.2349, 1.2271, 1.2388, 1.2347, 1.2452, 1.2487, 1.2422, 1.2368, 1.24, 1.26, 1.2557, 1.2639, 1.2383, 1.1689, 1.2131, 1.2282, 1.255, 1.2568, 1.2658, 1.2673, 1.2927, 1.2876, 1.2879</t>
+          <t>1.1209, 1.1348, 1.1289, 1.1244, 1.1164, 1.1142, 1.1171, 1.1176, 1.1149, 1.1086, 1.1122, 1.1144, 1.1165, 1.1276, 1.1346, 1.1362, 1.1447, 1.1471, 1.1512, 1.1643, 1.1761, 1.1839, 1.1826, 1.1762, 1.1691, 1.1609, 1.173, 1.1797, 1.1846, 1.1787, 1.1897, 1.1982, 1.2174, 1.2225, 1.2272, 1.2349, 1.2271, 1.2388, 1.2347, 1.2452, 1.2487, 1.2422, 1.2368, 1.24, 1.26, 1.2557, 1.2639, 1.2383, 1.1689, 1.2131, 1.2282, 1.255, 1.2568, 1.2658, 1.2673, 1.2927, 1.2876, 1.2879, 1.3212, 1.335</t>
         </is>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="76" t="n">
-        <v>1.2879</v>
+        <v>1.335</v>
       </c>
       <c r="J27" s="78" t="n">
-        <v>0.02329916123019314</v>
+        <v>1.044504995458676</v>
       </c>
       <c r="K27" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="76" t="n">
-        <v>0.02329916123019314</v>
+        <v>3.681267474370914</v>
       </c>
       <c r="M27" s="76" t="n">
-        <v>1.2879</v>
+        <v>1.335</v>
       </c>
       <c r="N27" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O27" s="0">
@@ -5588,30 +5588,30 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>0.9503, 0.9297, 0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258, 1.2266, 1.2403, 1.1714, 1.2046, 1.2077, 1.2351, 1.208, 1.1977, 1.1858, 1.1941, 1.2261, 1.186, 1.2016, 1.1115, 0.9104, 0.9076, 0.9339, 0.983, 0.9885, 1.0069, 1.0022, 1.0312, 0.9983, 1.0348</t>
+          <t>0.954, 0.9697, 0.9387, 0.9394, 0.9333, 0.9427, 0.9436, 0.9273, 0.9261, 0.9342, 0.947, 0.9593, 0.9536, 0.9831, 0.9912, 0.9876, 0.9837, 0.9859, 0.9746, 1.0475, 1.0772, 1.1303, 1.1348, 1.1244, 1.1315, 1.0805, 1.1006, 1.1029, 1.1536, 1.1092, 1.2243, 1.2154, 1.2283, 1.2258, 1.2266, 1.2403, 1.1714, 1.2046, 1.2077, 1.2351, 1.208, 1.1977, 1.1858, 1.1941, 1.2261, 1.186, 1.2016, 1.1115, 0.9104, 0.9076, 0.9339, 0.983, 0.9885, 1.0069, 1.0022, 1.0312, 0.9983, 1.0348, 1.1292, 1.1173</t>
         </is>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="76" t="n">
-        <v>1.0348</v>
+        <v>1.1173</v>
       </c>
       <c r="J28" s="78" t="n">
-        <v>3.656215566462985</v>
+        <v>-1.053843428976268</v>
       </c>
       <c r="K28" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="76" t="n">
-        <v>0.6130268199233679</v>
+        <v>-0.1502629601803198</v>
       </c>
       <c r="M28" s="76" t="n">
-        <v>0.1313</v>
+        <v>0.1329</v>
       </c>
       <c r="N28" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O28" s="0">
@@ -5732,30 +5732,30 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>1, 0.985, 0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231, 1.278, 1.27, 1.274, 1.289, 1.285, 1.31, 1.332, 1.309, 1.309, 1.306, 1.34, 1.32, 1.375, 1.345, 1.251, 1.339, 1.385, 1.413, 1.372, 1.433, 1.426, 1.477, 1.464, 1.45</t>
+          <t>0.991, 1.03, 1.028, 1.032, 1.04, 1.036, 1.06, 1.07, 1.067, 1.062, 1.058, 1.066, 1.073, 1.094, 1.105, 1.099, 1.097, 1.079, 1.076, 1.085, 1.1, 1.132, 1.12, 1.122, 1.122, 1.12, 1.175, 1.19, 1.195, 1.186, 1.206, 1.206, 1.219, 1.231, 1.278, 1.27, 1.274, 1.289, 1.285, 1.31, 1.332, 1.309, 1.309, 1.306, 1.34, 1.32, 1.375, 1.345, 1.251, 1.339, 1.385, 1.413, 1.372, 1.433, 1.426, 1.477, 1.464, 1.45, 1.496, 1.509</t>
         </is>
       </c>
       <c r="H29" s="0" t="n">
         <v>100</v>
       </c>
       <c r="I29" s="76" t="n">
-        <v>1.45</v>
+        <v>1.509</v>
       </c>
       <c r="J29" s="78" t="n">
-        <v>-0.9562841530054653</v>
+        <v>0.8689839572192447</v>
       </c>
       <c r="K29" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L29" s="76" t="n">
-        <v>-1.708542713567841</v>
+        <v>3.783231083844573</v>
       </c>
       <c r="M29" s="76" t="n">
-        <v>0.978</v>
+        <v>1.015</v>
       </c>
       <c r="N29" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O29" s="0">
@@ -5872,30 +5872,30 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>1.823, 1.8148, 1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226, 1.8043, 1.8185, 1.8006, 1.8201, 1.8233, 1.8414, 1.8286, 1.8242, 1.8186, 1.8235, 1.8314, 1.8017, 1.8043, 1.7538, 1.6446, 1.6912, 1.7048, 1.7352, 1.7306, 1.7254, 1.7459, 1.7522, 1.7386, 1.7487</t>
+          <t>1.8259, 1.8422, 1.8237, 1.8085, 1.7809, 1.7907, 1.7907, 1.7898, 1.7839, 1.7542, 1.7555, 1.7626, 1.7641, 1.7722, 1.7847, 1.775, 1.7794, 1.7841, 1.7774, 1.8144, 1.8057, 1.8216, 1.8156, 1.8097, 1.8065, 1.7942, 1.7721, 1.7641, 1.778, 1.7856, 1.802, 1.808, 1.8266, 1.8226, 1.8043, 1.8185, 1.8006, 1.8201, 1.8233, 1.8414, 1.8286, 1.8242, 1.8186, 1.8235, 1.8314, 1.8017, 1.8043, 1.7538, 1.6446, 1.6912, 1.7048, 1.7352, 1.7306, 1.7254, 1.7459, 1.7522, 1.7386, 1.7487, 1.7698, 1.7532</t>
         </is>
       </c>
       <c r="H30" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I30" s="76" t="n">
-        <v>1.7487</v>
+        <v>1.7532</v>
       </c>
       <c r="J30" s="78" t="n">
-        <v>0.5809271827907512</v>
+        <v>-0.9379590914227567</v>
       </c>
       <c r="K30" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="76" t="n">
-        <v>0.2775792887374264</v>
+        <v>-0.4523407270150948</v>
       </c>
       <c r="M30" s="76" t="n">
-        <v>3.6487</v>
+        <v>3.6532</v>
       </c>
       <c r="N30" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O30" s="0">
@@ -6016,30 +6016,30 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>2.6147, 2.6155, 2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864, 2.7642, 2.7818, 2.7804, 2.7923, 2.8172, 2.8047, 2.8335, 2.8115, 2.8078, 2.8327, 2.8494, 2.8418, 2.8371, 2.8507, 2.8592, 2.8425, 2.9278, 2.94, 2.9716, 2.9499, 2.9892, 2.9893, 3.0119, 3.0082</t>
+          <t>2.6331, 2.6354, 2.6381, 2.6253, 2.6238, 2.6289, 2.6617, 2.6644, 2.6821, 2.6794, 2.6681, 2.6388, 2.6207, 2.6387, 2.6477, 2.6701, 2.6595, 2.6576, 2.6715, 2.6862, 2.6894, 2.7055, 2.7086, 2.7095, 2.7286, 2.7398, 2.7489, 2.7497, 2.7478, 2.7629, 2.7632, 2.7424, 2.7479, 2.7864, 2.7642, 2.7818, 2.7804, 2.7923, 2.8172, 2.8047, 2.8335, 2.8115, 2.8078, 2.8327, 2.8494, 2.8418, 2.8371, 2.8507, 2.8592, 2.8425, 2.9278, 2.94, 2.9716, 2.9499, 2.9892, 2.9893, 3.0119, 3.0082, 3.018, 3.0158</t>
         </is>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="76" t="n">
-        <v>3.0082</v>
+        <v>3.0158</v>
       </c>
       <c r="J31" s="78" t="n">
-        <v>-0.1228460440253599</v>
+        <v>-0.07289595758779847</v>
       </c>
       <c r="K31" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L31" s="76" t="n">
-        <v>-0.1127395715896223</v>
+        <v>-0.06690997566909239</v>
       </c>
       <c r="M31" s="76" t="n">
-        <v>3.2782</v>
+        <v>3.2858</v>
       </c>
       <c r="N31" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O31" s="0">
@@ -6148,30 +6148,30 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>0.874, 0.87, 0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965, 0.968, 0.98, 0.962, 1.004, 1.016, 1.046, 1.05, 1.072, 1.093, 1.108, 1.136, 1.129, 1.179, 1.141, 1.04, 1.114, 1.143, 1.18, 1.213, 1.176, 1.181, 1.221, 1.219, 1.211</t>
+          <t>0.857, 0.874, 0.869, 0.864, 0.831, 0.808, 0.819, 0.836, 0.839, 0.837, 0.854, 0.864, 0.874, 0.892, 0.91, 0.928, 0.951, 0.946, 0.951, 0.962, 1.006, 1.017, 1.022, 1.006, 0.991, 0.951, 0.974, 0.996, 0.988, 0.957, 0.96, 0.957, 0.976, 0.965, 0.968, 0.98, 0.962, 1.004, 1.016, 1.046, 1.05, 1.072, 1.093, 1.108, 1.136, 1.129, 1.179, 1.141, 1.04, 1.114, 1.143, 1.18, 1.213, 1.176, 1.181, 1.221, 1.219, 1.211, 1.246, 1.292</t>
         </is>
       </c>
       <c r="H32" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I32" s="76" t="n">
-        <v>1.211</v>
+        <v>1.292</v>
       </c>
       <c r="J32" s="78" t="n">
-        <v>-0.6562756357670227</v>
+        <v>3.691813804173358</v>
       </c>
       <c r="K32" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L32" s="76" t="n">
-        <v>-0.3154574132492046</v>
+        <v>2.563291139240505</v>
       </c>
       <c r="M32" s="76" t="n">
-        <v>3.16</v>
+        <v>3.241</v>
       </c>
       <c r="N32" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O32" s="0">
@@ -6292,30 +6292,30 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>1.8636, 1.856, 1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578, 2.0787, 2.0751, 2.0351, 2.1002, 2.1392, 2.188, 2.1672, 2.2078, 2.2102, 2.2243, 2.3164, 2.294, 2.3611, 2.3208, 2.169, 2.2652, 2.2853, 2.3499, 2.3926, 2.3979, 2.4137, 2.4626, 2.4709, 2.4955</t>
+          <t>1.8537, 1.9026, 1.9009, 1.8976, 1.8177, 1.768, 1.8006, 1.8194, 1.8181, 1.8128, 1.8346, 1.892, 1.8968, 1.9188, 1.9443, 1.9634, 2.021, 1.9917, 2.0176, 2.0428, 2.0965, 2.1055, 2.0867, 2.0683, 2.031, 1.9883, 2.0558, 2.0847, 2.0682, 2.0081, 2.0205, 2.031, 2.0743, 2.0578, 2.0787, 2.0751, 2.0351, 2.1002, 2.1392, 2.188, 2.1672, 2.2078, 2.2102, 2.2243, 2.3164, 2.294, 2.3611, 2.3208, 2.169, 2.2652, 2.2853, 2.3499, 2.3926, 2.3979, 2.4137, 2.4626, 2.4709, 2.4955, 2.5689, 2.6463</t>
         </is>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I33" s="76" t="n">
-        <v>2.4955</v>
+        <v>2.6463</v>
       </c>
       <c r="J33" s="78" t="n">
-        <v>0.9955886519082099</v>
+        <v>3.012962746700919</v>
       </c>
       <c r="K33" s="76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L33" s="76" t="n">
-        <v>7.244286665187492</v>
+        <v>10.5901930330597</v>
       </c>
       <c r="M33" s="76" t="n">
-        <v>4.8335</v>
+        <v>4.9843</v>
       </c>
       <c r="N33" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O33" s="0">
@@ -6432,30 +6432,30 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>1.2812, 1.2709, 1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487, 1.4992, 1.4905, 1.4571, 1.4964, 1.5418, 1.6194, 1.6067, 1.6429, 1.6427, 1.6377, 1.7166, 1.718, 1.7997, 1.7785, 1.6634, 1.7211, 1.7295, 1.7679, 1.8224, 1.7854, 1.8022, 1.8508, 1.9104, 1.9366</t>
+          <t>1.2751, 1.2951, 1.2779, 1.2758, 1.2489, 1.2055, 1.2185, 1.2555, 1.2529, 1.2591, 1.2845, 1.3128, 1.3214, 1.3439, 1.3735, 1.3891, 1.4311, 1.4166, 1.4534, 1.4525, 1.4835, 1.4761, 1.4765, 1.4415, 1.4303, 1.3849, 1.4227, 1.4876, 1.4754, 1.4345, 1.4418, 1.4379, 1.4891, 1.487, 1.4992, 1.4905, 1.4571, 1.4964, 1.5418, 1.6194, 1.6067, 1.6429, 1.6427, 1.6377, 1.7166, 1.718, 1.7997, 1.7785, 1.6634, 1.7211, 1.7295, 1.7679, 1.8224, 1.7854, 1.8022, 1.8508, 1.9104, 1.9366, 1.9868, 2.0561</t>
         </is>
       </c>
       <c r="H34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I34" s="76" t="n">
-        <v>1.9366</v>
+        <v>2.0561</v>
       </c>
       <c r="J34" s="82" t="n">
-        <v>1.3714405360134</v>
+        <v>3.488020938192064</v>
       </c>
       <c r="K34" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L34" s="76" t="n">
-        <v>8.468690489526157</v>
+        <v>15.16186848885402</v>
       </c>
       <c r="M34" s="76" t="n">
-        <v>1.9366</v>
+        <v>2.0561</v>
       </c>
       <c r="N34" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O34" s="0">
@@ -6572,30 +6572,30 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>0.822, 0.813, 0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885, 0.897, 0.912, 0.898, 0.922, 0.918, 0.933, 0.927, 0.928, 0.93, 0.931, 0.954, 0.948, 0.961, 0.93, 0.869, 0.912, 0.938, 0.972, 0.972, 0.985, 0.978, 1.004, 0.994, 0.996</t>
+          <t>0.817, 0.838, 0.834, 0.831, 0.815, 0.806, 0.814, 0.813, 0.813, 0.808, 0.81, 0.813, 0.812, 0.829, 0.837, 0.833, 0.839, 0.832, 0.834, 0.851, 0.863, 0.872, 0.867, 0.866, 0.858, 0.842, 0.857, 0.864, 0.868, 0.855, 0.865, 0.869, 0.885, 0.885, 0.897, 0.912, 0.898, 0.922, 0.918, 0.933, 0.927, 0.928, 0.93, 0.931, 0.954, 0.948, 0.961, 0.93, 0.869, 0.912, 0.938, 0.972, 0.972, 0.985, 0.978, 1.004, 0.994, 0.996, 1.031, 1.043</t>
         </is>
       </c>
       <c r="H35" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I35" s="76" t="n">
-        <v>0.996</v>
+        <v>1.043</v>
       </c>
       <c r="J35" s="78" t="n">
-        <v>0.2012072434607648</v>
+        <v>1.163918525703202</v>
       </c>
       <c r="K35" s="76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="76" t="n">
-        <v>0.08873114463175598</v>
+        <v>2.173913043478258</v>
       </c>
       <c r="M35" s="76" t="n">
-        <v>2.256</v>
+        <v>2.303</v>
       </c>
       <c r="N35" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O35" s="0">
@@ -6712,30 +6712,30 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>1.7457, 1.745, 1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636, 1.8466, 1.8522, 1.8497, 1.8619, 1.8831, 1.8759, 1.8971, 1.8787, 1.8771, 1.9006, 1.9153, 1.9095, 1.9062, 1.9186, 1.9279, 1.9119, 1.9736, 1.9855, 2.0068, 1.9844, 2.011, 2.0056, 2.0214, 2.0176</t>
+          <t>1.7589, 1.7615, 1.7652, 1.7562, 1.7507, 1.7507, 1.7763, 1.7761, 1.7857, 1.7838, 1.7787, 1.7547, 1.7396, 1.7493, 1.759, 1.7741, 1.7664, 1.7664, 1.7778, 1.7929, 1.8013, 1.81, 1.8084, 1.8072, 1.8205, 1.8303, 1.8378, 1.8383, 1.837, 1.8425, 1.8447, 1.8326, 1.8375, 1.8636, 1.8466, 1.8522, 1.8497, 1.8619, 1.8831, 1.8759, 1.8971, 1.8787, 1.8771, 1.9006, 1.9153, 1.9095, 1.9062, 1.9186, 1.9279, 1.9119, 1.9736, 1.9855, 2.0068, 1.9844, 2.011, 2.0056, 2.0214, 2.0176, 2.0275, 2.026</t>
         </is>
       </c>
       <c r="H36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I36" s="76" t="n">
-        <v>2.0176</v>
+        <v>2.026</v>
       </c>
       <c r="J36" s="78" t="n">
-        <v>-0.1879885228059773</v>
+        <v>-0.07398273736128518</v>
       </c>
       <c r="K36" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L36" s="76" t="n">
-        <v>-0.1879885228059773</v>
+        <v>-0.07398273736128518</v>
       </c>
       <c r="M36" s="76" t="n">
-        <v>2.0176</v>
+        <v>2.026</v>
       </c>
       <c r="N36" s="76" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="O36" s="0">
@@ -6852,30 +6852,30 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>1.128, 1.119, 1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262, 1.283, 1.283, 1.281, 1.31, 1.311, 1.351, 1.335, 1.345, 1.352, 1.35, 1.389, 1.375, 1.402, 1.347, 1.233, 1.299, 1.315, 1.341, 1.344, 1.364, 1.371, 1.383, 1.379, 1.377</t>
+          <t>1.112, 1.136, 1.135, 1.132, 1.125, 1.103, 1.109, 1.13, 1.13, 1.133, 1.142, 1.16, 1.154, 1.174, 1.194, 1.189, 1.205, 1.197, 1.203, 1.221, 1.24, 1.247, 1.244, 1.236, 1.224, 1.201, 1.225, 1.246, 1.238, 1.221, 1.239, 1.24, 1.262, 1.262, 1.283, 1.283, 1.281, 1.31, 1.311, 1.351, 1.335, 1.345, 1.352, 1.35, 1.389, 1.375, 1.402, 1.347, 1.233, 1.299, 1.315, 1.341, 1.344, 1.364, 1.371, 1.383, 1.379, 1.377, 1.426, 1.445</t>
         </is>
       </c>
       <c r="H37" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I37" s="76" t="n">
-        <v>1.377</v>
+        <v>1.445</v>
       </c>
       <c r="J37" s="78" t="n">
-        <v>-0.1450326323422771</v>
+        <v>1.332398316970556</v>
       </c>
       <c r="K37" s="76" t="n">
         <v>2</v>
       </c>
       <c r="L37" s="76" t="n">
-        <v>-0.4338394793926251</v>
+        <v>4.938271604938276</v>
       </c>
       <c r="M37" s="76" t="n">
-        <v>1.377</v>
+        <v>1.445</v>
       </c>
       <c r="N37" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O37" s="0">
@@ -6996,30 +6996,30 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>1.2768, 1.2664, 1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815, 1.4936, 1.4849, 1.4517, 1.4908, 1.536, 1.6133, 1.6006, 1.6367, 1.6365, 1.6314, 1.7101, 1.7114, 1.7928, 1.7716, 1.6569, 1.7143, 1.7227, 1.7609, 1.8152, 1.7783, 1.7951, 1.8434, 1.9028, 1.9289</t>
+          <t>1.2711, 1.2911, 1.2738, 1.2717, 1.2449, 1.2015, 1.2146, 1.2514, 1.2488, 1.255, 1.2803, 1.3085, 1.317, 1.3394, 1.3687, 1.3842, 1.426, 1.4116, 1.4482, 1.4473, 1.4782, 1.4708, 1.4711, 1.4363, 1.4251, 1.3799, 1.4175, 1.4822, 1.47, 1.4293, 1.4365, 1.4326, 1.4836, 1.4815, 1.4936, 1.4849, 1.4517, 1.4908, 1.536, 1.6133, 1.6006, 1.6367, 1.6365, 1.6314, 1.7101, 1.7114, 1.7928, 1.7716, 1.6569, 1.7143, 1.7227, 1.7609, 1.8152, 1.7783, 1.7951, 1.8434, 1.9028, 1.9289, 1.9788, 2.0478</t>
         </is>
       </c>
       <c r="H38" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I38" s="76" t="n">
-        <v>1.9289</v>
+        <v>2.0478</v>
       </c>
       <c r="J38" s="82" t="n">
-        <v>1.371662812697079</v>
+        <v>3.486961795027298</v>
       </c>
       <c r="K38" s="76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L38" s="76" t="n">
-        <v>8.468762301074063</v>
+        <v>15.15492324129787</v>
       </c>
       <c r="M38" s="76" t="n">
-        <v>1.9289</v>
+        <v>2.0478</v>
       </c>
       <c r="N38" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O38" s="0">
@@ -7253,30 +7253,30 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>1.2161, 1.2084, 1.2211, 1.2346, 1.2237, 1.2186, 1.2058, 1.2128, 1.2141, 1.2094, 1.2053, 1.1931, 1.1971, 1.2015, 1.2013, 1.2115, 1.2188, 1.2185, 1.222, 1.2239, 1.2197, 1.2441, 1.2484, 1.2631, 1.2592, 1.258, 1.2553, 1.2408, 1.2489, 1.2486, 1.2577, 1.2589, 1.277, 1.2824, 1.2999, 1.2971, 1.2906, 1.2992, 1.285, 1.3021, 1.3023, 1.3132, 1.3075, 1.3017, 1.2986, 1.3007, 1.3108, 1.2888, 1.2967, 1.2591, 1.1679, 1.2075, 1.2197, 1.2419, 1.2415, 1.2453, 1.257, 1.2682, 1.2643, 1.272</t>
+          <t>1.2211, 1.2346, 1.2237, 1.2186, 1.2058, 1.2128, 1.2141, 1.2094, 1.2053, 1.1931, 1.1971, 1.2015, 1.2013, 1.2115, 1.2188, 1.2185, 1.222, 1.2239, 1.2197, 1.2441, 1.2484, 1.2631, 1.2592, 1.258, 1.2553, 1.2408, 1.2489, 1.2486, 1.2577, 1.2589, 1.277, 1.2824, 1.2999, 1.2971, 1.2906, 1.2992, 1.285, 1.3021, 1.3023, 1.3132, 1.3075, 1.3017, 1.2986, 1.3007, 1.3108, 1.2888, 1.2967, 1.2591, 1.1679, 1.2075, 1.2197, 1.2419, 1.2415, 1.2453, 1.257, 1.2682, 1.2643, 1.272, 1.3008, 1.2964</t>
         </is>
       </c>
       <c r="H40" s="0" t="n">
         <v>115</v>
       </c>
       <c r="I40" s="76" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="J40" s="78" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="K40" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L40" s="76" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="M40" s="76" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="N40" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O40" s="0">
@@ -7393,30 +7393,30 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>1.4557, 1.4409, 1.4495, 1.4711, 1.4565, 1.4497, 1.4261, 1.4321, 1.4448, 1.4361, 1.4333, 1.4221, 1.4244, 1.4315, 1.4324, 1.4468, 1.4563, 1.4505, 1.4539, 1.446, 1.4437, 1.4724, 1.4886, 1.5122, 1.5088, 1.5095, 1.5056, 1.4836, 1.4949, 1.4982, 1.51, 1.5044, 1.5257, 1.5363, 1.5617, 1.5606, 1.5569, 1.5732, 1.5612, 1.5906, 1.5884, 1.6079, 1.5989, 1.5949, 1.5924, 1.5936, 1.6115, 1.5838, 1.5987, 1.5427, 1.4206, 1.474, 1.5008, 1.5356, 1.5263, 1.5417, 1.5576, 1.5714, 1.5623, 1.5737</t>
+          <t>1.4495, 1.4711, 1.4565, 1.4497, 1.4261, 1.4321, 1.4448, 1.4361, 1.4333, 1.4221, 1.4244, 1.4315, 1.4324, 1.4468, 1.4563, 1.4505, 1.4539, 1.446, 1.4437, 1.4724, 1.4886, 1.5122, 1.5088, 1.5095, 1.5056, 1.4836, 1.4949, 1.4982, 1.51, 1.5044, 1.5257, 1.5363, 1.5617, 1.5606, 1.5569, 1.5732, 1.5612, 1.5906, 1.5884, 1.6079, 1.5989, 1.5949, 1.5924, 1.5936, 1.6115, 1.5838, 1.5987, 1.5427, 1.4206, 1.474, 1.5008, 1.5356, 1.5263, 1.5417, 1.5576, 1.5714, 1.5623, 1.5737, 1.6104, 1.6061</t>
         </is>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="76" t="n">
-        <v>1.5737</v>
+        <v>1.6061</v>
       </c>
       <c r="J41" s="78" t="n">
-        <v>0.7296934007553016</v>
+        <v>-0.2670144063586668</v>
       </c>
       <c r="K41" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L41" s="76" t="n">
-        <v>0.7296934007553016</v>
+        <v>-0.2670144063586668</v>
       </c>
       <c r="M41" s="76" t="n">
-        <v>1.5737</v>
+        <v>1.6061</v>
       </c>
       <c r="N41" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O41" s="0">
@@ -7533,30 +7533,30 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>1.0973, 1.0896, 1.0974, 1.1075, 1.0979, 1.0941, 1.084, 1.0908, 1.0933, 1.0895, 1.0857, 1.0772, 1.0789, 1.0817, 1.08, 1.0888, 1.0963, 1.0951, 1.0971, 1.0974, 1.0943, 1.1139, 1.1209, 1.1347, 1.1321, 1.1307, 1.1271, 1.1135, 1.1217, 1.1225, 1.1314, 1.1298, 1.1457, 1.1501, 1.1636, 1.1615, 1.1593, 1.1681, 1.1546, 1.1699, 1.1696, 1.1816, 1.177, 1.1726, 1.1698, 1.1704, 1.1799, 1.1628, 1.1695, 1.1356, 1.0534, 1.0813, 1.0961, 1.1169, 1.1179, 1.1238, 1.1305, 1.1408, 1.1345, 1.1405</t>
+          <t>1.0974, 1.1075, 1.0979, 1.0941, 1.084, 1.0908, 1.0933, 1.0895, 1.0857, 1.0772, 1.0789, 1.0817, 1.08, 1.0888, 1.0963, 1.0951, 1.0971, 1.0974, 1.0943, 1.1139, 1.1209, 1.1347, 1.1321, 1.1307, 1.1271, 1.1135, 1.1217, 1.1225, 1.1314, 1.1298, 1.1457, 1.1501, 1.1636, 1.1615, 1.1593, 1.1681, 1.1546, 1.1699, 1.1696, 1.1816, 1.177, 1.1726, 1.1698, 1.1704, 1.1799, 1.1628, 1.1695, 1.1356, 1.0534, 1.0813, 1.0961, 1.1169, 1.1179, 1.1238, 1.1305, 1.1408, 1.1345, 1.1405, 1.1655, 1.1628</t>
         </is>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="76" t="n">
-        <v>1.1405</v>
+        <v>1.1628</v>
       </c>
       <c r="J42" s="82" t="n">
-        <v>0.5288673424416046</v>
+        <v>-0.2316602316602252</v>
       </c>
       <c r="K42" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L42" s="76" t="n">
-        <v>0.5288673424416046</v>
+        <v>-0.2316602316602252</v>
       </c>
       <c r="M42" s="76" t="n">
-        <v>1.1405</v>
+        <v>1.1628</v>
       </c>
       <c r="N42" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O42" s="0">
@@ -7673,30 +7673,30 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>2.109, 2.091, 2.109, 2.131, 2.11, 2.097, 2.07, 2.085, 2.093, 2.085, 2.079, 2.061, 2.069, 2.078, 2.078, 2.091, 2.102, 2.1, 2.095, 2.103, 2.095, 2.131, 2.136, 2.16, 2.153, 2.147, 2.142, 2.115, 2.126, 2.131, 2.147, 2.144, 2.174, 2.184, 2.218, 2.207, 2.199, 2.219, 2.187, 2.219, 2.226, 2.254, 2.247, 2.243, 2.236, 2.24, 2.26, 2.223, 2.236, 2.172, 2.001, 2.056, 2.071, 2.106, 2.107, 2.118, 2.14, 2.152, 2.143, 2.155</t>
+          <t>2.109, 2.131, 2.11, 2.097, 2.07, 2.085, 2.093, 2.085, 2.079, 2.061, 2.069, 2.078, 2.078, 2.091, 2.102, 2.1, 2.095, 2.103, 2.095, 2.131, 2.136, 2.16, 2.153, 2.147, 2.142, 2.115, 2.126, 2.131, 2.147, 2.144, 2.174, 2.184, 2.218, 2.207, 2.199, 2.219, 2.187, 2.219, 2.226, 2.254, 2.247, 2.243, 2.236, 2.24, 2.26, 2.223, 2.236, 2.172, 2.001, 2.056, 2.071, 2.106, 2.107, 2.118, 2.14, 2.152, 2.143, 2.155, 2.203, 2.188</t>
         </is>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="76" t="n">
-        <v>2.155</v>
+        <v>2.188</v>
       </c>
       <c r="J43" s="78" t="n">
-        <v>0.5599626691553902</v>
+        <v>-0.6808896958692547</v>
       </c>
       <c r="K43" s="76" t="n">
         <v>1</v>
       </c>
       <c r="L43" s="76" t="n">
-        <v>0.4832863471606931</v>
+        <v>-0.589854502556041</v>
       </c>
       <c r="M43" s="76" t="n">
-        <v>2.495</v>
+        <v>2.528</v>
       </c>
       <c r="N43" s="76" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O43" s="0">
@@ -7813,30 +7813,30 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>1.606, 1.591, 1.607, 1.623, 1.611, 1.609, 1.603, 1.623, 1.62, 1.612, 1.607, 1.604, 1.609, 1.615, 1.608, 1.615, 1.617, 1.624, 1.623, 1.633, 1.635, 1.647, 1.655, 1.665, 1.66, 1.664, 1.658, 1.638, 1.647, 1.645, 1.662, 1.66, 1.68, 1.69, 1.712, 1.711, 1.706, 1.719, 1.7, 1.72, 1.714, 1.725, 1.727, 1.719, 1.71, 1.711, 1.713, 1.684, 1.689, 1.648, 1.512, 1.542, 1.558, 1.576, 1.581, 1.603, 1.609, 1.619, 1.61, 1.621</t>
+          <t>1.607, 1.623, 1.611, 1.609, 1.603, 1.623, 1.62, 1.612, 1.607, 1.604, 1.609, 1.615, 1.608, 1.615, 1.617, 1.624, 1.623, 1.633, 1.635, 1.647, 1.655, 1.665, 1.66, 1.664, 1.658, 1.638, 1.647, 1.645, 1.662, 1.66, 1.68, 1.69, 1.712, 1.711, 1.706, 1.719, 1.7, 1.72, 1.714, 1.725, 1.727, 1.719, 1.71, 1.711, 1.713, 1.684, 1.689, 1.648, 1.512, 1.542, 1.558, 1.576, 1.581, 1.603, 1.609, 1.619, 1.61, 1.621, 1.653, 1.657</t>
         </is>
       </c>
       <c r="H44" s="0" t="n">
         <v>100</v>
       </c>
       <c r="I44" s="80" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="J44" s="78" t="n">
-        <v>0.6832298136645899</v>
+        <v>0.2419842710223837</v>
       </c>
       <c r="K44" s="80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="80" t="n">
-        <v>0.6832298136645899</v>
+        <v>2.919254658385089</v>
       </c>
       <c r="M44" s="80" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="N44" s="80" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="O44" s="0">
@@ -8466,23 +8466,23 @@
         <v>0</v>
       </c>
       <c r="F2" s="12" t="n">
-        <v>2917.0077</v>
+        <v>2984.9716</v>
       </c>
       <c r="G2" s="12" t="n">
-        <v>0.3762533879476946</v>
+        <v>0.04522019944613819</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>0.3762533879476946</v>
+        <v>2.714938214742328</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>3.080803687</v>
+        <v>3.749985626</v>
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:12</t>
+          <t>20200218 16:29:42</t>
         </is>
       </c>
       <c r="L2" s="45">
@@ -8607,23 +8607,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="n">
-        <v>10916.3117</v>
+        <v>11306.4863</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>0.4785342246201026</v>
+        <v>0.5780990441372975</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>0.4785342246201026</v>
+        <v>4.06987285410221</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>5.048924645</v>
+        <v>6.249475121000001</v>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L3" s="0">
@@ -8743,23 +8743,23 @@
         <v>0</v>
       </c>
       <c r="F4" s="12" t="n">
-        <v>2069.219</v>
+        <v>2170.949</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.2239178996762586</v>
+        <v>1.154238443520732</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>0.2239373173128891</v>
+        <v>5.151294519856575</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>1.892438915</v>
+        <v>2.322640254</v>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:42</t>
         </is>
       </c>
       <c r="L4" s="45">
@@ -8879,23 +8879,23 @@
         <v>3</v>
       </c>
       <c r="F5" s="12" t="n">
-        <v>2895.0644</v>
+        <v>2924.3981</v>
       </c>
       <c r="G5" s="12" t="n">
-        <v>0.6811038187232374</v>
+        <v>-0.8702098889250073</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="12" t="n">
-        <v>0.6811038187232374</v>
+        <v>-0.8702098889250073</v>
       </c>
       <c r="J5" s="12" t="n">
-        <v>0.532705082</v>
+        <v>0.608750963</v>
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L5" s="45">
@@ -9015,23 +9015,23 @@
         <v>103</v>
       </c>
       <c r="F6" s="12" t="n">
-        <v>3987.7342</v>
+        <v>4057.5108</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>0.7024234941383131</v>
+        <v>-0.4883794158179465</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>0.7024234941383131</v>
+        <v>-0.4883794158179465</v>
       </c>
       <c r="J6" s="12" t="n">
-        <v>2.228950736</v>
+        <v>2.425525173</v>
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L6" s="45">
@@ -9156,23 +9156,23 @@
         <v>3</v>
       </c>
       <c r="F7" s="12" t="n">
-        <v>4236.914</v>
+        <v>4333.747</v>
       </c>
       <c r="G7" s="12" t="n">
-        <v>0.7562699875770177</v>
+        <v>0.206899788868808</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0.7562699875770177</v>
+        <v>3.059014837179134</v>
       </c>
       <c r="J7" s="12" t="n">
-        <v>0.296982909</v>
+        <v>0.344906732</v>
       </c>
       <c r="K7" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L7" s="45">
@@ -9288,23 +9288,23 @@
         <v>0</v>
       </c>
       <c r="F8" s="12" t="n">
-        <v>5420.8025</v>
+        <v>5660.8142</v>
       </c>
       <c r="G8" s="12" t="n">
-        <v>0.1470706200945986</v>
+        <v>1.186493024159033</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>0.1470706200945986</v>
+        <v>4.581186909988754</v>
       </c>
       <c r="J8" s="12" t="n">
-        <v>1.627420046</v>
+        <v>2.064285244</v>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:13</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L8" s="45">
@@ -9425,23 +9425,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="n">
-        <v>9479.105</v>
+        <v>9593.825000000001</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.3164499693783703</v>
+        <v>-0.366772034310005</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0.3164499693783703</v>
+        <v>-0.366772034310005</v>
       </c>
       <c r="J9" s="12" t="n">
-        <v>0.338064596</v>
+        <v>0.376880436</v>
       </c>
       <c r="K9" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L9" s="45">
@@ -9557,23 +9557,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="n">
-        <v>15822.5993</v>
+        <v>15980.0738</v>
       </c>
       <c r="G10" s="12" t="n">
-        <v>0.8904362817496453</v>
+        <v>-0.469110335541926</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>0.8904362817496453</v>
+        <v>-0.469110335541926</v>
       </c>
       <c r="J10" s="12" t="n">
-        <v>0.263998935</v>
+        <v>0.245864055</v>
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L10" s="45">
@@ -9693,23 +9693,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>10868.3803</v>
+        <v>11109.2214</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>0.08202331733778204</v>
+        <v>0.09106673003029472</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0.08202331733778204</v>
+        <v>2.299820626654723</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>0.71984879</v>
+        <v>0.8404359850000001</v>
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:43</t>
         </is>
       </c>
       <c r="L11" s="45">
@@ -9829,23 +9829,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="12" t="n">
-        <v>11447.7785</v>
+        <v>11537.9981</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.1805393611774445</v>
+        <v>-0.6808852386980067</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>0.1805393611774445</v>
+        <v>-0.6808852386980067</v>
       </c>
       <c r="J12" s="12" t="n">
-        <v>0.204957588</v>
+        <v>0.207715513</v>
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L12" s="45">
@@ -9969,23 +9969,23 @@
         <v>3</v>
       </c>
       <c r="F13" s="12" t="n">
-        <v>721.913</v>
+        <v>753.551</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>1.845286548453591</v>
+        <v>-0.6031994766027693</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>1.845243444403642</v>
+        <v>-0.6031994766027693</v>
       </c>
       <c r="J13" s="12" t="n">
-        <v>0.362194751</v>
+        <v>0.357507294</v>
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L13" s="45">
@@ -10114,23 +10114,23 @@
         <v>2</v>
       </c>
       <c r="F14" s="12" t="n">
-        <v>6277.266</v>
+        <v>6324.635</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.8919161788769774</v>
+        <v>-1.007744536720815</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.8919161788769774</v>
+        <v>-1.007744536720815</v>
       </c>
       <c r="J14" s="12" t="n">
-        <v>0.102477621</v>
+        <v>0.119038156</v>
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:14</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L14" s="45">
@@ -10255,23 +10255,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="11" t="n">
-        <v>10464.051</v>
+        <v>10857.294</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>-0.5330448450817437</v>
+        <v>0.4801203840851924</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I15" s="11" t="n">
-        <v>-1.051811095740889</v>
+        <v>3.758037876535583</v>
       </c>
       <c r="J15" s="11" t="n">
-        <v>0.149260195</v>
+        <v>0.171750425</v>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L15" s="45">
@@ -10393,23 +10393,23 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="n">
-        <v>5494.2777</v>
+        <v>5543.5332</v>
       </c>
       <c r="G16" s="12" t="n">
-        <v>0.610808955169261</v>
+        <v>-0.8059763634233925</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>0.5258752490469459</v>
+        <v>-0.8548838607812362</v>
       </c>
       <c r="J16" s="12" t="n">
-        <v>0.305340939</v>
+        <v>0.392157644</v>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:15</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L16" s="45">
@@ -10534,17 +10534,17 @@
         <v>3</v>
       </c>
       <c r="F17" s="12" t="n">
-        <v>27815.6</v>
+        <v>27530.2</v>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0.31</v>
+        <v>-1.54</v>
       </c>
       <c r="H17" s="0" t="inlineStr"/>
       <c r="I17" s="11" t="inlineStr"/>
       <c r="J17" s="11" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:15</t>
+          <t>20200218 16:29:44</t>
         </is>
       </c>
       <c r="L17" s="45">
@@ -10792,17 +10792,17 @@
         <v>100</v>
       </c>
       <c r="F19" s="12" t="n">
-        <v>9623.5805</v>
+        <v>9583.4041</v>
       </c>
       <c r="G19" s="12" t="n">
-        <v>0.29</v>
+        <v>-0.42</v>
       </c>
       <c r="H19" s="0" t="inlineStr"/>
       <c r="I19" s="11" t="inlineStr"/>
       <c r="J19" s="11" t="inlineStr"/>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>20200215 09:38:16</t>
+          <t>20200218 16:29:46</t>
         </is>
       </c>
       <c r="L19" s="45">
@@ -11050,23 +11050,23 @@
         <v>100</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2466.959</v>
+        <v>2576.371</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>-1.003147325575845</v>
+        <v>0.9260670239049813</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I21" s="11" t="n">
-        <v>-1.936810003486137</v>
+        <v>4.43509600281157</v>
       </c>
       <c r="J21" s="11" t="n">
-        <v>0.347055938</v>
+        <v>0.320498249</v>
       </c>
       <c r="K21" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L21" s="0">
@@ -11195,23 +11195,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>8893.598</v>
+        <v>9465.575999999999</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>-0.05892901570789319</v>
+        <v>2.225827897820552</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I22" s="11" t="n">
-        <v>-1.079741073917272</v>
+        <v>6.431345334025656</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>0.6154822010000001</v>
+        <v>0.760478558</v>
       </c>
       <c r="K22" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L22" s="0">
@@ -11340,23 +11340,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3956.302</v>
+        <v>4132.834</v>
       </c>
       <c r="G23" s="11" t="n">
-        <v>0.0001769332165589736</v>
+        <v>0.8701344313885867</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="11" t="n">
-        <v>0.0001769332165589736</v>
+        <v>4.46223044540409</v>
       </c>
       <c r="J23" s="11" t="n">
-        <v>0.698085985</v>
+        <v>0.836122881</v>
       </c>
       <c r="K23" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L23" s="0">
@@ -11616,23 +11616,23 @@
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>4667.8054</v>
+        <v>4813.5505</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>0.5238960517184752</v>
+        <v>0.2619697913760661</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="11" t="n">
-        <v>0.5238960517184752</v>
+        <v>3.662601294753526</v>
       </c>
       <c r="J25" s="11" t="n">
-        <v>2.129033164</v>
+        <v>2.383757086</v>
       </c>
       <c r="K25" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L25" s="0">
@@ -11756,23 +11756,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>6121.5241</v>
+        <v>6257.2438</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>0.7364950025251807</v>
+        <v>-0.2612568686465158</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="11" t="n">
-        <v>0.7364950025251807</v>
+        <v>-0.2612568686465158</v>
       </c>
       <c r="J26" s="11" t="n">
-        <v>1.108890995</v>
+        <v>1.14244656</v>
       </c>
       <c r="K26" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L26" s="0">
@@ -12022,23 +12022,23 @@
         <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3456.762</v>
+        <v>3519.609</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>0.3687797631923483</v>
+        <v>-0.3571686401630697</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="11" t="n">
-        <v>0.3687797631923483</v>
+        <v>-0.3571686401630697</v>
       </c>
       <c r="J28" s="11" t="n">
-        <v>0.147586429</v>
+        <v>0.15584575</v>
       </c>
       <c r="K28" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L28" s="0">
@@ -12159,23 +12159,23 @@
         <v>3</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3049.712</v>
+        <v>3217.884</v>
       </c>
       <c r="G29" s="11" t="n">
-        <v>0.1727403904740857</v>
+        <v>1.618245206275426</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="11" t="n">
-        <v>0.1727403904740857</v>
+        <v>5.696622677374229</v>
       </c>
       <c r="J29" s="11" t="n">
-        <v>1.187110204</v>
+        <v>1.357565852</v>
       </c>
       <c r="K29" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L29" s="0">
@@ -12299,23 +12299,23 @@
         <v>3</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3149.4799</v>
+        <v>3363.1807</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>0.4642598068592196</v>
+        <v>2.718827068386564</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="11" t="n">
-        <v>0.4642598068592196</v>
+        <v>7.281033805681587</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>1.038171342</v>
+        <v>1.316447224</v>
       </c>
       <c r="K30" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L30" s="0">
@@ -12439,23 +12439,23 @@
         <v>3</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>6743.6724</v>
+        <v>7200.1705</v>
       </c>
       <c r="G31" s="11" t="n">
-        <v>0.5251921303554345</v>
+        <v>2.643451054553089</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" s="11" t="n">
-        <v>0.5251921303554345</v>
+        <v>7.330024347537602</v>
       </c>
       <c r="J31" s="11" t="n">
-        <v>2.263568372</v>
+        <v>2.77097012</v>
       </c>
       <c r="K31" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L31" s="0">
@@ -12579,23 +12579,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>3463.4166</v>
+        <v>3506.4467</v>
       </c>
       <c r="G32" s="11" t="n">
-        <v>1.470732613478791</v>
+        <v>-0.6615730998159643</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="11" t="n">
-        <v>1.470732613478791</v>
+        <v>-0.6615730998159643</v>
       </c>
       <c r="J32" s="11" t="n">
-        <v>0.172679227</v>
+        <v>0.153679767</v>
       </c>
       <c r="K32" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L32" s="0">
@@ -12711,23 +12711,23 @@
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2287.1968</v>
+        <v>2425.2866</v>
       </c>
       <c r="G33" s="11" t="n">
-        <v>0.286139486411656</v>
+        <v>2.217197804541328</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" s="11" t="n">
-        <v>0.286139486411656</v>
+        <v>6.340928013769975</v>
       </c>
       <c r="J33" s="11" t="n">
-        <v>1.132505575</v>
+        <v>1.350950162</v>
       </c>
       <c r="K33" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L33" s="0">
@@ -12851,23 +12851,23 @@
         <v>5</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>9696.887699999999</v>
+        <v>9802.081200000001</v>
       </c>
       <c r="G34" s="11" t="n">
-        <v>0.8035289232396081</v>
+        <v>-0.7030956794433065</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="11" t="n">
-        <v>0.8035289232396081</v>
+        <v>-0.7030956794433065</v>
       </c>
       <c r="J34" s="11" t="n">
-        <v>0.286984785</v>
+        <v>0.322008653</v>
       </c>
       <c r="K34" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L34" s="0">
@@ -12991,23 +12991,23 @@
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>4769.0779</v>
+        <v>4874.8126</v>
       </c>
       <c r="G35" s="11" t="n">
-        <v>0.7364944699229503</v>
+        <v>-0.2612580315279783</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="11" t="n">
-        <v>0.7364944699229503</v>
+        <v>-0.2612580315279783</v>
       </c>
       <c r="J35" s="11" t="n">
-        <v>1.108890995</v>
+        <v>1.14244656</v>
       </c>
       <c r="K35" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L35" s="0">
@@ -13131,23 +13131,23 @@
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>3647.4363</v>
+        <v>3661.9615</v>
       </c>
       <c r="G36" s="11" t="n">
-        <v>2.221603603733874</v>
+        <v>-0.9463268702250989</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="11" t="n">
-        <v>2.221603603733874</v>
+        <v>-0.9463268702250989</v>
       </c>
       <c r="J36" s="11" t="n">
-        <v>0.187134834</v>
+        <v>0.149634025</v>
       </c>
       <c r="K36" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L36" s="0">
@@ -13268,23 +13268,23 @@
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>14261.341</v>
+        <v>14380.319</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>-0.1160394004472174</v>
+        <v>-0.3845431551533169</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="11" t="n">
-        <v>-1.349503207257726</v>
+        <v>-0.3845431551533169</v>
       </c>
       <c r="J37" s="11" t="n">
-        <v>0.146185045</v>
+        <v>0.178084129</v>
       </c>
       <c r="K37" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L37" s="0">
@@ -13413,23 +13413,23 @@
         <v>3</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>3553.374</v>
+        <v>3761.859</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>0.3047215037406256</v>
+        <v>2.471530533138871</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="11" t="n">
-        <v>4.833177019611148</v>
+        <v>10.98399168503439</v>
       </c>
       <c r="J38" s="11" t="n">
-        <v>0.851997259</v>
+        <v>0.939355761</v>
       </c>
       <c r="K38" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L38" s="0">
@@ -13558,23 +13558,23 @@
         <v>2</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>8112.761</v>
+        <v>8149.542</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>0.5548465814807088</v>
+        <v>-0.9029043160730502</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I39" s="11" t="n">
-        <v>9.135295566538918</v>
+        <v>-0.9029043160730502</v>
       </c>
       <c r="J39" s="11" t="n">
-        <v>0.084218076</v>
+        <v>0.09677662699999999</v>
       </c>
       <c r="K39" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L39" s="0">
@@ -13821,23 +13821,23 @@
         <v>2</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>8131.3124</v>
+        <v>8940.4638</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>0.1647734063246235</v>
+        <v>3.650591993295832</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="11" t="n">
-        <v>0.1647734063246235</v>
+        <v>10.13222547868754</v>
       </c>
       <c r="J41" s="11" t="n">
-        <v>0.161857231</v>
+        <v>0.269721146</v>
       </c>
       <c r="K41" s="0" t="inlineStr">
         <is>
-          <t>20200214</t>
+          <t>20200218</t>
         </is>
       </c>
       <c r="L41" s="0">
@@ -14384,19 +14384,19 @@
         <v>10000</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.9581</v>
+        <v>0.9989</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.272</v>
+        <v>1.2964</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.621</v>
+        <v>1.657</v>
       </c>
       <c r="L3" s="0" t="inlineStr"/>
       <c r="M3" s="0" t="inlineStr"/>
@@ -14452,13 +14452,13 @@
         <v>3000</v>
       </c>
       <c r="AE3" s="0" t="n">
-        <v>2.955</v>
+        <v>2.961</v>
       </c>
       <c r="AF3" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="AG3" s="0" t="n">
-        <v>27815.6</v>
+        <v>27530.2</v>
       </c>
       <c r="AH3" s="0" t="n">
         <v>14000</v>
@@ -14476,10 +14476,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1585.28326198874</v>
+        <v>2348.161475440668</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>3.68670526043893</v>
+        <v>5.460840640559693</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>2049.08864954432</v>
@@ -14488,22 +14488,22 @@
         <v>15.7622203811102</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>276.7349565590468</v>
+        <v>714.3623297221924</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>2.767349565590468</v>
+        <v>7.143623297221923</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>242.3705612368147</v>
+        <v>438.8437072228037</v>
       </c>
       <c r="I4" s="11" t="n">
-        <v>2.423705612368147</v>
+        <v>4.388437072228037</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>285.5329949238574</v>
+        <v>513.9593908629439</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>2.855329949238574</v>
+        <v>5.139593908629439</v>
       </c>
       <c r="L4" s="11" t="inlineStr"/>
       <c r="M4" s="11" t="inlineStr"/>
@@ -14556,16 +14556,16 @@
         <v>0.523864959254955</v>
       </c>
       <c r="AD4" s="12" t="n">
-        <v>396.5517241379313</v>
+        <v>403.448275862069</v>
       </c>
       <c r="AE4" s="12" t="n">
-        <v>13.21839080459771</v>
+        <v>13.44827586206896</v>
       </c>
       <c r="AF4" s="12" t="n">
-        <v>384.0930251310898</v>
+        <v>277.5477717706593</v>
       </c>
       <c r="AG4" s="12" t="n">
-        <v>3.840930251310898</v>
+        <v>2.775477717706593</v>
       </c>
       <c r="AH4" s="0" t="n">
         <v>1053.2994269341</v>
@@ -14583,10 +14583,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>340.9329358114118</v>
+        <v>-214.4663907204111</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>0.7928672925846786</v>
+        <v>-0.4987590481870026</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>85.45700135074129</v>
@@ -14595,22 +14595,22 @@
         <v>0.657361548851856</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>181.7215727948991</v>
+        <v>-48.81450488145064</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>1.817215727948991</v>
+        <v>-0.4881450488145064</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>60.90326662975592</v>
+        <v>-33.82533825338223</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>0.6090326662975591</v>
+        <v>-0.3382533825338223</v>
       </c>
       <c r="J5" s="11" t="n">
-        <v>68.32298136645899</v>
+        <v>24.19842710223837</v>
       </c>
       <c r="K5" s="11" t="n">
-        <v>0.6832298136645899</v>
+        <v>0.2419842710223837</v>
       </c>
       <c r="L5" s="11" t="inlineStr"/>
       <c r="M5" s="11" t="inlineStr"/>
@@ -14663,16 +14663,16 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="AD5" s="12" t="n">
-        <v>-1.014884979702189</v>
+        <v>-2.024974687816629</v>
       </c>
       <c r="AE5" s="12" t="n">
-        <v>-0.03382949932340629</v>
+        <v>-0.0674991562605543</v>
       </c>
       <c r="AF5" s="12" t="n">
-        <v>31</v>
+        <v>-154</v>
       </c>
       <c r="AG5" s="12" t="n">
-        <v>0.31</v>
+        <v>-1.54</v>
       </c>
       <c r="AH5" s="0" t="n">
         <v>197.030035634891</v>
@@ -15455,10 +15455,10 @@
       <c r="AB19" s="11" t="inlineStr"/>
       <c r="AC19" s="11" t="inlineStr"/>
       <c r="AD19" s="12" t="n">
-        <v>396.5517241379313</v>
+        <v>403.448275862069</v>
       </c>
       <c r="AE19" s="12" t="n">
-        <v>13.21839080459771</v>
+        <v>13.44827586206896</v>
       </c>
       <c r="AF19" s="0" t="inlineStr"/>
       <c r="AG19" s="0" t="inlineStr"/>
@@ -16213,22 +16213,22 @@
       <c r="D31" s="0" t="inlineStr"/>
       <c r="E31" s="0" t="inlineStr"/>
       <c r="F31" s="12" t="n">
-        <v>276.7349565590468</v>
+        <v>714.3623297221924</v>
       </c>
       <c r="G31" s="12" t="n">
-        <v>2.767349565590468</v>
+        <v>7.143623297221923</v>
       </c>
       <c r="H31" s="12" t="n">
-        <v>242.3705612368147</v>
+        <v>438.8437072228037</v>
       </c>
       <c r="I31" s="12" t="n">
-        <v>2.423705612368147</v>
+        <v>4.388437072228037</v>
       </c>
       <c r="J31" s="12" t="n">
-        <v>285.5329949238574</v>
+        <v>513.9593908629439</v>
       </c>
       <c r="K31" s="12" t="n">
-        <v>2.855329949238574</v>
+        <v>5.139593908629439</v>
       </c>
       <c r="L31" s="0" t="inlineStr"/>
       <c r="M31" s="0" t="inlineStr"/>
@@ -16251,10 +16251,10 @@
       <c r="AD31" s="12" t="inlineStr"/>
       <c r="AE31" s="12" t="inlineStr"/>
       <c r="AF31" s="12" t="n">
-        <v>384.0930251310898</v>
+        <v>277.5477717706593</v>
       </c>
       <c r="AG31" s="12" t="n">
-        <v>3.840930251310898</v>
+        <v>2.775477717706593</v>
       </c>
       <c r="AH31" s="0" t="inlineStr"/>
       <c r="AI31" s="0" t="inlineStr"/>
@@ -16671,6 +16671,12 @@
     <cfRule type="cellIs" priority="6622" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6689" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6690" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -16931,6 +16937,12 @@
     <cfRule type="cellIs" priority="6624" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6691" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6692" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -17411,6 +17423,12 @@
     <cfRule type="cellIs" priority="6566" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6633" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6634" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
     <cfRule type="cellIs" priority="1901" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20667,6 +20685,12 @@
     <cfRule type="cellIs" priority="6602" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6669" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6670" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -20843,6 +20867,12 @@
     <cfRule type="cellIs" priority="6604" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6671" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6672" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21007,6 +21037,12 @@
     <cfRule type="cellIs" priority="6614" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6681" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6682" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
     <cfRule type="cellIs" priority="2037" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21171,6 +21207,12 @@
     <cfRule type="cellIs" priority="6616" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6683" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6684" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" priority="2047" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21431,6 +21473,12 @@
     <cfRule type="cellIs" priority="6626" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6693" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6694" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2049" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21691,6 +21739,12 @@
     <cfRule type="cellIs" priority="6628" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6695" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6696" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2205" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22171,6 +22225,12 @@
     <cfRule type="cellIs" priority="6570" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6637" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6638" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K5">
     <cfRule type="cellIs" priority="1905" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25427,6 +25487,12 @@
     <cfRule type="cellIs" priority="6606" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6673" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6674" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
     <cfRule type="cellIs" priority="2029" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25603,6 +25669,12 @@
     <cfRule type="cellIs" priority="6608" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6675" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6676" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25767,6 +25839,12 @@
     <cfRule type="cellIs" priority="6618" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6685" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6686" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5">
     <cfRule type="cellIs" priority="2041" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25931,6 +26009,12 @@
     <cfRule type="cellIs" priority="6620" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6687" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6688" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD7:AK7">
     <cfRule type="cellIs" priority="7" operator="lessThan" dxfId="2">
@@ -29461,6 +29545,12 @@
     <cfRule type="cellIs" priority="6598" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6665" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6666" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19">
     <cfRule type="cellIs" priority="522" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -29703,6 +29793,12 @@
     <cfRule type="cellIs" priority="6600" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6667" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6668" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
     <cfRule type="cellIs" priority="491" operator="lessThan" dxfId="7" stopIfTrue="1">
@@ -36129,6 +36225,12 @@
     <cfRule type="cellIs" priority="6562" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6629" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6630" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
     <cfRule type="cellIs" priority="6359" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36155,6 +36257,12 @@
     <cfRule type="cellIs" priority="6564" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6631" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6632" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
     <cfRule type="cellIs" priority="6363" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36181,6 +36289,12 @@
     <cfRule type="cellIs" priority="6568" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6635" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6636" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
     <cfRule type="cellIs" priority="6367" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36207,6 +36321,12 @@
     <cfRule type="cellIs" priority="6572" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6639" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6640" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" priority="6369" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36233,6 +36353,12 @@
     <cfRule type="cellIs" priority="6574" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6641" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6642" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
     <cfRule type="cellIs" priority="6371" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36259,6 +36385,12 @@
     <cfRule type="cellIs" priority="6576" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6643" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6644" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" priority="6373" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36285,6 +36417,12 @@
     <cfRule type="cellIs" priority="6578" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6645" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6646" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" priority="6375" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36311,6 +36449,12 @@
     <cfRule type="cellIs" priority="6580" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6647" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6648" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" priority="6377" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36337,6 +36481,12 @@
     <cfRule type="cellIs" priority="6582" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6649" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6650" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
     <cfRule type="cellIs" priority="6379" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36363,6 +36513,12 @@
     <cfRule type="cellIs" priority="6584" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6651" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6652" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
     <cfRule type="cellIs" priority="6381" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36389,6 +36545,12 @@
     <cfRule type="cellIs" priority="6586" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6653" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6654" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
     <cfRule type="cellIs" priority="6383" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36415,6 +36577,12 @@
     <cfRule type="cellIs" priority="6588" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6655" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6656" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
     <cfRule type="cellIs" priority="6385" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36441,6 +36609,12 @@
     <cfRule type="cellIs" priority="6590" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6657" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6658" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
     <cfRule type="cellIs" priority="6387" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36467,6 +36641,12 @@
     <cfRule type="cellIs" priority="6592" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6659" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6660" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
     <cfRule type="cellIs" priority="6389" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36493,6 +36673,12 @@
     <cfRule type="cellIs" priority="6594" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6661" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6662" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" priority="6391" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36519,6 +36705,12 @@
     <cfRule type="cellIs" priority="6596" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6663" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6664" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD31">
     <cfRule type="cellIs" priority="6405" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36561,6 +36753,12 @@
     <cfRule type="cellIs" priority="6610" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="6677" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6678" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG31">
     <cfRule type="cellIs" priority="6543" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -36573,6 +36771,12 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6612" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6679" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6680" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="534">
   <si>
     <t>编号</t>
   </si>
@@ -666,12 +666,6 @@
   </si>
   <si>
     <t>20191225</t>
-  </si>
-  <si>
-    <t>恒生指数(人民币，建行可买)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">香港指数基金，建行可买，完全跟踪恒生指数   </t>
   </si>
   <si>
     <t>006021</t>
@@ -1651,13 +1645,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1693,16 +1687,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,14 +1710,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1730,38 +1725,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1783,7 +1748,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1791,7 +1756,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1805,6 +1792,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1813,19 +1807,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1868,7 +1862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,7 +1880,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,37 +1976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,13 +1994,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,97 +2042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2078,15 +2072,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2125,43 +2145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2182,10 +2176,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
@@ -2194,16 +2188,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2212,115 +2206,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2358,10 +2352,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2375,12 +2369,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2400,8 +2394,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2482,22 +2476,22 @@
     <dxf>
       <font>
         <sz val="11"/>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
         <sz val="11"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2521,21 +2515,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2858,10 +2852,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV44"/>
+  <dimension ref="A1:CV43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7692,50 +7686,55 @@
       <c r="CV38" s="1"/>
     </row>
     <row r="39" spans="1:100">
-      <c r="A39">
-        <v>968029</v>
+      <c r="A39" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" t="s">
-        <v>191</v>
-      </c>
-      <c r="K39" t="s">
-        <v>191</v>
-      </c>
-      <c r="L39" t="s">
-        <v>191</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="H39">
+        <v>115</v>
+      </c>
+      <c r="I39">
+        <v>1.2663</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-3.15105162523901</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>-3.15105162523901</v>
+      </c>
+      <c r="M39">
+        <v>1.2663</v>
+      </c>
       <c r="N39" t="s">
-        <v>191</v>
-      </c>
-      <c r="O39" s="30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>191</v>
-      </c>
-      <c r="R39" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" t="s">
-        <v>191</v>
+        <v>70</v>
+      </c>
+      <c r="O39" s="30">
+        <f>(P39-M39)/M39*100</f>
+        <v>-7.77067045723762</v>
+      </c>
+      <c r="P39">
+        <v>1.1679</v>
+      </c>
+      <c r="Q39">
+        <v>20200203</v>
+      </c>
+      <c r="R39" s="30">
+        <f>(S39-M39)/M39*100</f>
+        <v>3.7037037037037</v>
+      </c>
+      <c r="S39">
+        <v>1.3132</v>
+      </c>
+      <c r="T39">
+        <v>20200113</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -7796,54 +7795,54 @@
     </row>
     <row r="40" spans="1:100">
       <c r="A40" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H40">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1.2663</v>
+        <v>1.5806</v>
       </c>
       <c r="J40" s="11">
-        <v>-3.15105162523901</v>
+        <v>-3.85644768856447</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>-3.15105162523901</v>
+        <v>-3.85644768856447</v>
       </c>
       <c r="M40">
-        <v>1.2663</v>
+        <v>1.5806</v>
       </c>
       <c r="N40" t="s">
         <v>70</v>
       </c>
       <c r="O40" s="30">
-        <f t="shared" si="0"/>
-        <v>-7.77067045723762</v>
+        <f>(P40-M40)/M40*100</f>
+        <v>-10.1227382006833</v>
       </c>
       <c r="P40">
-        <v>1.1679</v>
+        <v>1.4206</v>
       </c>
       <c r="Q40">
         <v>20200203</v>
       </c>
       <c r="R40" s="30">
-        <f t="shared" si="1"/>
-        <v>3.7037037037037</v>
+        <f>(S40-M40)/M40*100</f>
+        <v>0.904719726686067</v>
       </c>
       <c r="S40">
-        <v>1.3132</v>
+        <v>1.5949</v>
       </c>
       <c r="T40">
-        <v>20200113</v>
+        <v>20200115</v>
       </c>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -7904,54 +7903,54 @@
     </row>
     <row r="41" spans="1:100">
       <c r="A41" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1.5806</v>
-      </c>
-      <c r="J41" s="11">
-        <v>-3.85644768856447</v>
+        <v>1.1291</v>
+      </c>
+      <c r="J41" s="12">
+        <v>-3.5369500213584</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>-3.85644768856447</v>
+        <v>-3.5369500213584</v>
       </c>
       <c r="M41">
-        <v>1.5806</v>
+        <v>1.1291</v>
       </c>
       <c r="N41" t="s">
         <v>70</v>
       </c>
       <c r="O41" s="30">
-        <f t="shared" si="0"/>
-        <v>-10.1227382006833</v>
+        <f>(P41-M41)/M41*100</f>
+        <v>-6.70445487556462</v>
       </c>
       <c r="P41">
-        <v>1.4206</v>
+        <v>1.0534</v>
       </c>
       <c r="Q41">
         <v>20200203</v>
       </c>
       <c r="R41" s="30">
-        <f t="shared" si="1"/>
-        <v>0.904719726686067</v>
+        <f>(S41-M41)/M41*100</f>
+        <v>4.64972101673899</v>
       </c>
       <c r="S41">
-        <v>1.5949</v>
+        <v>1.1816</v>
       </c>
       <c r="T41">
-        <v>20200115</v>
+        <v>20200113</v>
       </c>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -8011,55 +8010,55 @@
       <c r="CV41" s="1"/>
     </row>
     <row r="42" spans="1:100">
-      <c r="A42" s="10" t="s">
-        <v>224</v>
+      <c r="A42" t="s">
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1.1291</v>
-      </c>
-      <c r="J42" s="12">
-        <v>-3.5369500213584</v>
+        <v>2.125</v>
+      </c>
+      <c r="J42" s="11">
+        <v>-3.36516598453842</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>-3.5369500213584</v>
+        <v>-2.91453328081923</v>
       </c>
       <c r="M42">
-        <v>1.1291</v>
+        <v>2.465</v>
       </c>
       <c r="N42" t="s">
         <v>70</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="0"/>
-        <v>-6.70445487556462</v>
+        <f>(P42-M42)/M42*100</f>
+        <v>-5.03042596348883</v>
       </c>
       <c r="P42">
-        <v>1.0534</v>
+        <v>2.341</v>
       </c>
       <c r="Q42">
         <v>20200203</v>
       </c>
       <c r="R42" s="30">
-        <f t="shared" si="1"/>
-        <v>4.64972101673899</v>
+        <f>(S42-M42)/M42*100</f>
+        <v>5.4766734279919</v>
       </c>
       <c r="S42">
-        <v>1.1816</v>
+        <v>2.6</v>
       </c>
       <c r="T42">
-        <v>20200113</v>
+        <v>20200120</v>
       </c>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -8120,54 +8119,54 @@
     </row>
     <row r="43" spans="1:100">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>2.125</v>
+        <v>100</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.607</v>
       </c>
       <c r="J43" s="11">
-        <v>-3.36516598453842</v>
-      </c>
-      <c r="K43">
+        <v>-2.90030211480363</v>
+      </c>
+      <c r="K43" s="1">
         <v>1</v>
       </c>
-      <c r="L43">
-        <v>-2.91453328081923</v>
-      </c>
-      <c r="M43">
-        <v>2.465</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="L43" s="1">
+        <v>-2.90030211480363</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.607</v>
+      </c>
+      <c r="N43" s="1" t="s">
         <v>70</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="0"/>
-        <v>-5.03042596348883</v>
+        <f>(P43-M43)/M43*100</f>
+        <v>-5.9116365899191</v>
       </c>
       <c r="P43">
-        <v>2.341</v>
-      </c>
-      <c r="Q43">
-        <v>20200203</v>
+        <v>1.512</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>231</v>
       </c>
       <c r="R43" s="30">
-        <f t="shared" si="1"/>
-        <v>5.4766734279919</v>
+        <f>(S43-M43)/M43*100</f>
+        <v>7.46733042937151</v>
       </c>
       <c r="S43">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="T43">
-        <v>20200120</v>
+        <v>20200114</v>
       </c>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -8226,121 +8225,13 @@
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
     </row>
-    <row r="44" spans="1:100">
-      <c r="A44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="I44" s="1">
-        <v>1.607</v>
-      </c>
-      <c r="J44" s="11">
-        <v>-2.90030211480363</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <v>-2.90030211480363</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1.607</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O44" s="30">
-        <f t="shared" si="0"/>
-        <v>-5.9116365899191</v>
-      </c>
-      <c r="P44">
-        <v>1.512</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>233</v>
-      </c>
-      <c r="R44" s="30">
-        <f t="shared" si="1"/>
-        <v>7.46733042937151</v>
-      </c>
-      <c r="S44">
-        <v>1.727</v>
-      </c>
-      <c r="T44">
-        <v>20200114</v>
-      </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AJ44" s="1"/>
-      <c r="AM44" s="1"/>
-      <c r="AP44" s="1"/>
-      <c r="AS44" s="1"/>
-      <c r="AV44" s="1"/>
-      <c r="AY44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
-      <c r="BQ44" s="1"/>
-      <c r="BR44" s="1"/>
-      <c r="BS44" s="1"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="1"/>
-      <c r="BV44" s="1"/>
-      <c r="BW44" s="1"/>
-      <c r="BX44" s="1"/>
-      <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
-      <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
-      <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
-      <c r="CI44" s="1"/>
-      <c r="CJ44" s="1"/>
-      <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
-      <c r="CT44" s="1"/>
-      <c r="CU44" s="1"/>
-      <c r="CV44" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H2:H65535">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThanOrEqual">
       <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="greaterThanOrEqual">
-      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThanOrEqual">
       <formula>2</formula>
@@ -8349,55 +8240,55 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  <conditionalFormatting sqref="J2:J65535">
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH2:BH65536">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="BH2:BH65535">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK2:BK65536">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="BK2:BK65535">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O65536 U2:U65536 AA2:AA65536 AG2:AG65536 AM2:AM65536 AS2:AS65536 AY2:AY65536 BE2:BE65536">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="O2:O65535 BE2:BE65535 AY2:AY65535 U2:U65535 AS2:AS65535 AM2:AM65535 AA2:AA65535 AG2:AG65535">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
       <formula>-3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O65536 AD2:AD65536 BE2:BE65536 AJ2:AJ65536 X2:X65536 AY2:AY65536 AP2:AP65536 R2:R65536 AS2:AS65536 AV2:AV65536 U2:U65536 AM2:AM65536 BB2:BB65536 AA2:AA65536 AG2:AG65536">
+  <conditionalFormatting sqref="O2:O65535 AG2:AG65535 AA2:AA65535 AD2:AD65535 BB2:BB65535 AM2:AM65535 BE2:BE65535 U2:U65535 AV2:AV65535 AJ2:AJ65535 AS2:AS65535 R2:R65535 X2:X65535 AP2:AP65535 AY2:AY65535">
     <cfRule type="cellIs" dxfId="2" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R65536 AV2:AV65536 X2:X65536 AP2:AP65536 BB2:BB65536 AD2:AD65536 AJ2:AJ65536">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="R2:R65535 AJ2:AJ65535 AD2:AD65535 AV2:AV65535 BB2:BB65535 AP2:AP65535 X2:X65535">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH2:BH65536 BK2:BK65536">
+  <conditionalFormatting sqref="BH2:BH65535 BK2:BK65535">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8439,11 +8330,11 @@
     <hyperlink ref="B36" r:id="rId35" display="易标普信息科技人民币"/>
     <hyperlink ref="B37" r:id="rId36" display="富国中证智能汽车(LOF)"/>
     <hyperlink ref="B38" r:id="rId37" display="国联安中证半导体ETF联接C"/>
-    <hyperlink ref="B40" r:id="rId38" display="广发沪深300指数增强C"/>
-    <hyperlink ref="B41" r:id="rId39" display="招商深证100指数A"/>
-    <hyperlink ref="B42" r:id="rId40" display="招商MSCI中国A股国际通C"/>
-    <hyperlink ref="B43" r:id="rId41" display="景顺长城沪深300指数增强"/>
-    <hyperlink ref="B44" r:id="rId42" display="大成中证红利指数C"/>
+    <hyperlink ref="B39" r:id="rId38" display="广发沪深300指数增强C"/>
+    <hyperlink ref="B40" r:id="rId39" display="招商深证100指数A"/>
+    <hyperlink ref="B41" r:id="rId40" display="招商MSCI中国A股国际通C"/>
+    <hyperlink ref="B42" r:id="rId41" display="景顺长城沪深300指数增强"/>
+    <hyperlink ref="B43" r:id="rId42" display="大成中证红利指数C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -8523,22 +8414,22 @@
   <sheetData>
     <row r="1" ht="15.15" customHeight="1" spans="1:62">
       <c r="A1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>237</v>
-      </c>
-      <c r="E1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" t="s">
-        <v>239</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -8547,37 +8438,37 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" t="s">
         <v>240</v>
-      </c>
-      <c r="J1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" t="s">
-        <v>242</v>
       </c>
       <c r="L1" t="s">
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O1" t="s">
         <v>17</v>
       </c>
       <c r="P1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="T1" t="s">
         <v>22</v>
@@ -8586,7 +8477,7 @@
         <v>23</v>
       </c>
       <c r="V1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="W1" t="s">
         <v>25</v>
@@ -8595,7 +8486,7 @@
         <v>26</v>
       </c>
       <c r="Y1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -8604,7 +8495,7 @@
         <v>29</v>
       </c>
       <c r="AB1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AC1" t="s">
         <v>31</v>
@@ -8613,7 +8504,7 @@
         <v>32</v>
       </c>
       <c r="AE1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF1" t="s">
         <v>34</v>
@@ -8622,7 +8513,7 @@
         <v>35</v>
       </c>
       <c r="AH1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AI1" t="s">
         <v>37</v>
@@ -8631,7 +8522,7 @@
         <v>38</v>
       </c>
       <c r="AK1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AL1" t="s">
         <v>40</v>
@@ -8640,7 +8531,7 @@
         <v>41</v>
       </c>
       <c r="AN1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -8649,7 +8540,7 @@
         <v>44</v>
       </c>
       <c r="AQ1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AR1" t="s">
         <v>46</v>
@@ -8658,7 +8549,7 @@
         <v>47</v>
       </c>
       <c r="AT1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -8667,7 +8558,7 @@
         <v>50</v>
       </c>
       <c r="AW1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AX1" t="s">
         <v>52</v>
@@ -8676,7 +8567,7 @@
         <v>53</v>
       </c>
       <c r="AZ1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="BA1" t="s">
         <v>55</v>
@@ -8685,7 +8576,7 @@
         <v>56</v>
       </c>
       <c r="BC1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BD1" t="s">
         <v>58</v>
@@ -8694,7 +8585,7 @@
         <v>59</v>
       </c>
       <c r="BF1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -8703,7 +8594,7 @@
         <v>62</v>
       </c>
       <c r="BI1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="BJ1" t="s">
         <v>64</v>
@@ -8711,13 +8602,13 @@
     </row>
     <row r="2" ht="15.15" customHeight="1" spans="1:97">
       <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>191</v>
@@ -8741,7 +8632,7 @@
         <v>4.32657775</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L2" s="13">
         <f t="shared" ref="L2:L41" si="0">(M2-F2)/F2*100</f>
@@ -8751,7 +8642,7 @@
         <v>2870</v>
       </c>
       <c r="N2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O2" s="13">
         <f t="shared" ref="O2:O41" si="1">(P2-F2)/F2*100</f>
@@ -8846,13 +8737,13 @@
     </row>
     <row r="3" ht="15.15" customHeight="1" spans="1:97">
       <c r="A3" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>191</v>
@@ -8876,7 +8767,7 @@
         <v>6.968482297</v>
       </c>
       <c r="K3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -8981,10 +8872,10 @@
     </row>
     <row r="4" ht="15.15" customHeight="1" spans="1:97">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>191</v>
@@ -9008,7 +8899,7 @@
         <v>2.401658883</v>
       </c>
       <c r="K4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L4" s="13">
         <f t="shared" si="0"/>
@@ -9113,13 +9004,13 @@
     </row>
     <row r="5" ht="15.15" customHeight="1" spans="1:97">
       <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -9140,7 +9031,7 @@
         <v>0.905362331</v>
       </c>
       <c r="K5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
@@ -9245,13 +9136,13 @@
     </row>
     <row r="6" ht="15.15" customHeight="1" spans="1:97">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6">
         <v>103</v>
@@ -9272,7 +9163,7 @@
         <v>3.303589073</v>
       </c>
       <c r="K6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L6" s="13">
         <f t="shared" si="0"/>
@@ -9377,16 +9268,16 @@
     </row>
     <row r="7" ht="15.15" customHeight="1" spans="1:97">
       <c r="A7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -9407,7 +9298,7 @@
         <v>0.499180149</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="0"/>
@@ -9512,10 +9403,10 @@
     </row>
     <row r="8" ht="15.15" customHeight="1" spans="1:97">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>191</v>
@@ -9539,7 +9430,7 @@
         <v>2.328797702</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
@@ -9644,13 +9535,13 @@
     </row>
     <row r="9" ht="15.15" customHeight="1" spans="1:97">
       <c r="A9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>191</v>
@@ -9674,7 +9565,7 @@
         <v>0.527522954</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
@@ -9779,10 +9670,10 @@
     </row>
     <row r="10" ht="15.15" customHeight="1" spans="1:97">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>191</v>
@@ -9806,7 +9697,7 @@
         <v>0.328668937</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
@@ -9911,10 +9802,10 @@
     </row>
     <row r="11" ht="15.15" customHeight="1" spans="1:97">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>191</v>
@@ -9938,7 +9829,7 @@
         <v>0.799511484</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
@@ -10043,10 +9934,10 @@
     </row>
     <row r="12" ht="15.15" customHeight="1" spans="1:97">
       <c r="A12" s="40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>191</v>
@@ -10070,7 +9961,7 @@
         <v>0.201389644</v>
       </c>
       <c r="K12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
@@ -10175,13 +10066,13 @@
     </row>
     <row r="13" ht="15.15" customHeight="1" spans="1:97">
       <c r="A13" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -10202,7 +10093,7 @@
         <v>0.582182238</v>
       </c>
       <c r="K13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
@@ -10307,16 +10198,16 @@
     </row>
     <row r="14" ht="15.15" customHeight="1" spans="1:97">
       <c r="A14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10337,7 +10228,7 @@
         <v>0.176961826</v>
       </c>
       <c r="K14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
@@ -10442,13 +10333,13 @@
     </row>
     <row r="15" ht="15.15" customHeight="1" spans="1:97">
       <c r="A15" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="B15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>191</v>
@@ -10472,7 +10363,7 @@
         <v>0.23672943</v>
       </c>
       <c r="K15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
@@ -10577,10 +10468,10 @@
     </row>
     <row r="16" ht="15.15" customHeight="1" spans="1:97">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D16" s="10">
         <v>501050</v>
@@ -10604,7 +10495,7 @@
         <v>0.583567089</v>
       </c>
       <c r="K16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
@@ -10709,16 +10600,16 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" t="s">
         <v>308</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="10" t="s">
         <v>309</v>
-      </c>
-      <c r="C17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -10739,7 +10630,7 @@
         <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
@@ -10844,16 +10735,16 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -10979,13 +10870,13 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" t="s">
         <v>316</v>
-      </c>
-      <c r="B19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" t="s">
-        <v>318</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>152</v>
@@ -11009,7 +10900,7 @@
         <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
@@ -11114,16 +11005,16 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="C20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -11144,7 +11035,7 @@
         <v>0.86362486705</v>
       </c>
       <c r="K20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L20" t="e">
         <f t="shared" si="0"/>
@@ -11221,13 +11112,13 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>327</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>182</v>
@@ -11251,7 +11142,7 @@
         <v>0.341819943</v>
       </c>
       <c r="K21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -11328,16 +11219,16 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>328</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="C22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -11358,7 +11249,7 @@
         <v>0.818983702</v>
       </c>
       <c r="K22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
@@ -11435,16 +11326,16 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>333</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -11465,7 +11356,7 @@
         <v>1.108820564</v>
       </c>
       <c r="K23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -11542,13 +11433,13 @@
     </row>
     <row r="24" spans="1:97">
       <c r="A24" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>211</v>
@@ -11572,7 +11463,7 @@
         <v>0.62168766601</v>
       </c>
       <c r="K24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
@@ -11649,16 +11540,16 @@
     </row>
     <row r="25" spans="1:97">
       <c r="A25" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>338</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11679,7 +11570,7 @@
         <v>3.0134903</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
@@ -11756,13 +11647,13 @@
     </row>
     <row r="26" spans="1:97">
       <c r="A26" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -11783,7 +11674,7 @@
         <v>1.587540217</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
@@ -11860,16 +11751,16 @@
     </row>
     <row r="27" spans="1:97">
       <c r="A27" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C27" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -11967,13 +11858,13 @@
     </row>
     <row r="28" spans="1:97">
       <c r="A28" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D28" s="15">
         <v>501006</v>
@@ -11997,7 +11888,7 @@
         <v>0.200978778</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L28" t="e">
         <f t="shared" si="0"/>
@@ -12074,16 +11965,16 @@
     </row>
     <row r="29" spans="1:97">
       <c r="A29" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>349</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -12104,7 +11995,7 @@
         <v>1.815751327</v>
       </c>
       <c r="K29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
@@ -12181,13 +12072,13 @@
     </row>
     <row r="30" spans="1:97">
       <c r="A30" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -12208,7 +12099,7 @@
         <v>1.560771045</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
@@ -12285,13 +12176,13 @@
     </row>
     <row r="31" spans="1:97">
       <c r="A31" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>355</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -12312,7 +12203,7 @@
         <v>3.008531491</v>
       </c>
       <c r="K31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -12389,13 +12280,13 @@
     </row>
     <row r="32" spans="1:97">
       <c r="A32" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -12416,7 +12307,7 @@
         <v>0.165666804</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L32" t="e">
         <f t="shared" si="0"/>
@@ -12493,13 +12384,13 @@
     </row>
     <row r="33" spans="1:97">
       <c r="A33" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>361</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -12520,7 +12411,7 @@
         <v>1.753876986</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
@@ -12597,13 +12488,13 @@
     </row>
     <row r="34" spans="1:97">
       <c r="A34" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>362</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>364</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -12624,7 +12515,7 @@
         <v>0.436792329</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
@@ -12701,13 +12592,13 @@
     </row>
     <row r="35" spans="1:97">
       <c r="A35" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>367</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -12728,7 +12619,7 @@
         <v>1.587540217</v>
       </c>
       <c r="K35" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
@@ -12805,13 +12696,13 @@
     </row>
     <row r="36" spans="1:97">
       <c r="A36" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -12832,7 +12723,7 @@
         <v>0.159726087</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L36" t="e">
         <f t="shared" si="0"/>
@@ -12909,16 +12800,16 @@
     </row>
     <row r="37" spans="1:97">
       <c r="A37" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="C37" t="s">
-        <v>322</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>373</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -12939,7 +12830,7 @@
         <v>0.292949922</v>
       </c>
       <c r="K37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
@@ -13016,16 +12907,16 @@
     </row>
     <row r="38" spans="1:97">
       <c r="A38" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="C38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -13046,7 +12937,7 @@
         <v>1.049247714</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
@@ -13123,16 +13014,16 @@
     </row>
     <row r="39" spans="1:97">
       <c r="A39" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="C39" t="s">
-        <v>322</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -13153,7 +13044,7 @@
         <v>0.159565636</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
@@ -13230,16 +13121,16 @@
     </row>
     <row r="40" spans="1:97">
       <c r="A40" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="C40" t="s">
-        <v>322</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -13337,13 +13228,13 @@
     </row>
     <row r="41" spans="1:97">
       <c r="A41" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -13364,7 +13255,7 @@
         <v>0.188228362</v>
       </c>
       <c r="K41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
@@ -13444,7 +13335,7 @@
     <cfRule type="cellIs" dxfId="2" priority="17" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13452,56 +13343,56 @@
     <cfRule type="cellIs" dxfId="2" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J3">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65538">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
       <formula>-3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O65538">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R65538 AJ2:AJ65538 AD2:AD65538 AP2:AP65538 BH2:BH65538 BB2:BB65538 AV2:AV65538 X2:X65538">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>-3</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U65538 AG2:AG65538 AY2:AY65538 AM2:AM65538 AS2:AS65538 BE2:BE65538 AA2:AA65538">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
@@ -13527,7 +13418,7 @@
   <sheetPr/>
   <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -13557,118 +13448,118 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="D1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" t="s">
-        <v>237</v>
-      </c>
-      <c r="S1" t="s">
-        <v>191</v>
-      </c>
-      <c r="T1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V1" t="s">
-        <v>237</v>
-      </c>
-      <c r="W1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>388</v>
-      </c>
       <c r="AI1" t="s">
         <v>191</v>
       </c>
       <c r="AJ1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AK1" t="s">
         <v>191</v>
       </c>
       <c r="AL1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AM1" t="s">
         <v>191</v>
       </c>
       <c r="AN1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AO1" t="s">
         <v>191</v>
@@ -13679,7 +13570,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>191</v>
@@ -13697,16 +13588,16 @@
         <v>148</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>182</v>
@@ -13721,13 +13612,13 @@
         <v>66</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
         <v>82</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="S2" t="s">
         <v>72</v>
@@ -13775,28 +13666,28 @@
         <v>212</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AI2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM2" t="s">
         <v>392</v>
       </c>
-      <c r="AJ2" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AO2" t="s">
         <v>393</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -14168,7 +14059,7 @@
         <v>20190909</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D6" t="s">
         <v>191</v>
@@ -14408,7 +14299,7 @@
         <v>20191008</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
         <v>191</v>
@@ -14648,7 +14539,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
         <v>191</v>
@@ -14885,10 +14776,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D12" t="s">
         <v>191</v>
@@ -15128,7 +15019,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D14">
         <v>13000</v>
@@ -15363,10 +15254,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
         <v>191</v>
@@ -15601,10 +15492,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
         <v>191</v>
@@ -15717,7 +15608,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B19" t="s">
         <v>191</v>
@@ -15838,52 +15729,52 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="s">
+        <v>191</v>
+      </c>
+      <c r="N20" t="s">
         <v>402</v>
-      </c>
-      <c r="B20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" t="s">
-        <v>396</v>
-      </c>
-      <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" t="s">
-        <v>191</v>
-      </c>
-      <c r="N20" t="s">
-        <v>404</v>
       </c>
       <c r="O20">
         <v>2.2221</v>
       </c>
       <c r="P20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q20">
         <v>2.184</v>
@@ -15957,7 +15848,7 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
         <v>191</v>
@@ -16076,13 +15967,13 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B22" t="s">
         <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D22" t="s">
         <v>191</v>
@@ -16133,19 +16024,19 @@
         <v>191</v>
       </c>
       <c r="T22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U22">
         <v>1.244</v>
       </c>
       <c r="V22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="W22">
         <v>1.022</v>
       </c>
       <c r="X22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Y22">
         <v>1.8156</v>
@@ -16195,7 +16086,7 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
         <v>191</v>
@@ -16314,13 +16205,13 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D24" t="s">
         <v>191</v>
@@ -16365,7 +16256,7 @@
         <v>191</v>
       </c>
       <c r="R24" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S24">
         <v>1.282</v>
@@ -16552,103 +16443,103 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" t="s">
+        <v>191</v>
+      </c>
+      <c r="N26" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>191</v>
+      </c>
+      <c r="R26" t="s">
+        <v>191</v>
+      </c>
+      <c r="S26" t="s">
+        <v>191</v>
+      </c>
+      <c r="T26" t="s">
+        <v>191</v>
+      </c>
+      <c r="U26" t="s">
+        <v>191</v>
+      </c>
+      <c r="V26" t="s">
+        <v>191</v>
+      </c>
+      <c r="W26" t="s">
+        <v>191</v>
+      </c>
+      <c r="X26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>411</v>
+      </c>
+      <c r="AI26" t="s">
         <v>412</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D26" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" t="s">
-        <v>191</v>
-      </c>
-      <c r="I26" t="s">
-        <v>191</v>
-      </c>
-      <c r="J26" t="s">
-        <v>191</v>
-      </c>
-      <c r="K26" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" t="s">
-        <v>191</v>
-      </c>
-      <c r="N26" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" t="s">
-        <v>191</v>
-      </c>
-      <c r="P26" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>191</v>
-      </c>
-      <c r="R26" t="s">
-        <v>191</v>
-      </c>
-      <c r="S26" t="s">
-        <v>191</v>
-      </c>
-      <c r="T26" t="s">
-        <v>191</v>
-      </c>
-      <c r="U26" t="s">
-        <v>191</v>
-      </c>
-      <c r="V26" t="s">
-        <v>191</v>
-      </c>
-      <c r="W26" t="s">
-        <v>191</v>
-      </c>
-      <c r="X26" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>413</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>414</v>
       </c>
       <c r="AJ26" t="s">
         <v>191</v>
@@ -16671,7 +16562,7 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B27" t="s">
         <v>191</v>
@@ -16792,13 +16683,13 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" t="s">
         <v>416</v>
-      </c>
-      <c r="B28" t="s">
-        <v>417</v>
-      </c>
-      <c r="C28" t="s">
-        <v>418</v>
       </c>
       <c r="D28" s="13">
         <v>13000</v>
@@ -16913,25 +16804,25 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="D29">
         <v>2031.05</v>
       </c>
       <c r="E29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" t="s">
         <v>422</v>
-      </c>
-      <c r="F29" t="s">
-        <v>423</v>
-      </c>
-      <c r="G29" t="s">
-        <v>424</v>
       </c>
       <c r="H29" t="s">
         <v>191</v>
@@ -16961,7 +16852,7 @@
         <v>145.67</v>
       </c>
       <c r="Q29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="R29">
         <v>-34.76</v>
@@ -16973,7 +16864,7 @@
         <v>39.75</v>
       </c>
       <c r="U29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V29">
         <v>-139.32</v>
@@ -16985,19 +16876,19 @@
         <v>42.09</v>
       </c>
       <c r="Y29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Z29">
         <v>24.4</v>
       </c>
       <c r="AA29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AB29">
         <v>15.72</v>
       </c>
       <c r="AC29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AD29" t="s">
         <v>191</v>
@@ -17006,13 +16897,13 @@
         <v>191</v>
       </c>
       <c r="AH29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AI29">
         <v>3.44</v>
       </c>
       <c r="AJ29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AK29">
         <v>4.79</v>
@@ -17038,7 +16929,7 @@
         <v>20200205</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -17128,7 +17019,7 @@
         <v>10000</v>
       </c>
       <c r="AI30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AJ30" t="s">
         <v>191</v>
@@ -17272,40 +17163,40 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+      <c r="C32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" t="s">
         <v>433</v>
-      </c>
-      <c r="B32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" t="s">
-        <v>400</v>
-      </c>
-      <c r="D32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" t="s">
-        <v>191</v>
-      </c>
-      <c r="J32" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" t="s">
-        <v>191</v>
-      </c>
-      <c r="L32" t="s">
-        <v>435</v>
       </c>
       <c r="M32">
         <v>1.372</v>
@@ -17391,7 +17282,7 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B33" t="s">
         <v>191</v>
@@ -17516,7 +17407,7 @@
         <v>20200218</v>
       </c>
       <c r="C34" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D34" t="s">
         <v>191</v>
@@ -17661,10 +17552,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AD36" s="1">
         <v>3000</v>
@@ -17687,10 +17578,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF38">
         <v>3000</v>
@@ -27798,7 +27689,7 @@
     <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27806,7 +27697,7 @@
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27814,7 +27705,7 @@
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32775,22 +32666,22 @@
     <cfRule type="cellIs" dxfId="7" priority="5972" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33501,16 +33392,16 @@
     <cfRule type="cellIs" dxfId="7" priority="5986" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33743,16 +33634,16 @@
     <cfRule type="cellIs" dxfId="7" priority="5996" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33985,16 +33876,16 @@
     <cfRule type="cellIs" dxfId="7" priority="5998" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34224,19 +34115,19 @@
     <cfRule type="cellIs" dxfId="7" priority="6008" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34463,22 +34354,22 @@
     <cfRule type="cellIs" dxfId="7" priority="6010" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34705,22 +34596,22 @@
     <cfRule type="cellIs" dxfId="7" priority="5960" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34947,22 +34838,22 @@
     <cfRule type="cellIs" dxfId="7" priority="5962" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34983,18 +34874,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:AI29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6425" stopIfTrue="1" operator="greaterThan">
@@ -35021,10 +34912,10 @@
     <cfRule type="cellIs" dxfId="7" priority="6630" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6777" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6777" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36533,10 +36424,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1808" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36735,16 +36626,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1816" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36854,13 +36745,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1818" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36949,10 +36840,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37044,7 +36935,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1826" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37130,13 +37021,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1832" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37222,13 +37113,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1834" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37311,16 +37202,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1840" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37400,19 +37291,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1842" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37961,10 +37852,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1876" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6778" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6779" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38056,7 +37947,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1878" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6778" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6779" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38218,7 +38109,7 @@
     <cfRule type="cellIs" dxfId="2" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38341,28 +38232,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
         <v>438</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>440</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>441</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>444</v>
-      </c>
-      <c r="H1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -38373,13 +38264,13 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" t="s">
         <v>446</v>
-      </c>
-      <c r="D2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E2" t="s">
-        <v>448</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -38388,7 +38279,7 @@
         <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -38399,13 +38290,13 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" t="s">
         <v>450</v>
-      </c>
-      <c r="D3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" t="s">
-        <v>452</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -38414,111 +38305,111 @@
         <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>165</v>
       </c>
       <c r="C4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" t="s">
         <v>455</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>456</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>457</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>458</v>
-      </c>
-      <c r="G4" t="s">
-        <v>459</v>
-      </c>
-      <c r="H4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" t="s">
         <v>461</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" t="s">
         <v>462</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>463</v>
       </c>
-      <c r="E5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>464</v>
-      </c>
-      <c r="G5" t="s">
-        <v>465</v>
-      </c>
-      <c r="H5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
         <v>467</v>
-      </c>
-      <c r="B6" t="s">
-        <v>468</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
         <v>470</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>471</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>472</v>
-      </c>
-      <c r="D7" t="s">
-        <v>473</v>
-      </c>
-      <c r="E7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
@@ -38529,30 +38420,30 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="E8" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
         <v>191</v>
@@ -38570,41 +38461,41 @@
         <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" t="s">
         <v>478</v>
-      </c>
-      <c r="B10" t="s">
-        <v>479</v>
-      </c>
-      <c r="C10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C11" t="s">
         <v>191</v>
@@ -38622,41 +38513,41 @@
         <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" t="s">
         <v>483</v>
-      </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C13" t="s">
         <v>191</v>
@@ -38674,7 +38565,7 @@
         <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -38700,7 +38591,7 @@
         <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -38728,110 +38619,110 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -38839,7 +38730,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C25" s="7"/>
       <c r="F25" s="4"/>
@@ -38848,120 +38739,120 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="K26" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>515</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="K27" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="M29" t="s">
         <v>526</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="M29" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1911" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="541">
   <si>
     <t>编号</t>
   </si>
@@ -1511,6 +1511,15 @@
     <t>大多数指数可以用市盈率百分位判断高估/低估(每20%一档，显著低估，较低估，适中，较为高估，显著高估)，但个别周期性行业，比如证券、银行、800证保等，因为盈利有明显周期性，用市净率百分位比较合适。</t>
   </si>
   <si>
+    <t>新冠肺炎出现，年后第一天开市大跌8%，有人恐慌性卖出。无法猜到这是短期底部，第二天开始全线开始涨，直到2.25，全球新冠有爆发苗头，美股暴跌，再次进入下跌通道。</t>
+  </si>
+  <si>
+    <t>半导体跌了5%左右，按以往经验热门科技，多半大跌都只有一天，于是买入3000，谁知随后几天都是大跌。</t>
+  </si>
+  <si>
+    <t>高低部判断不容易。2.18全线赎回就早了，25赎回最好，可多赚1000多。另外，0205投资，券商在底部，应该全投券商，而沪深300,赚较少，投资建行恒生更是失误，它完全比不上恒生涨幅。</t>
+  </si>
+  <si>
     <t>看盘总结</t>
   </si>
   <si>
@@ -1658,12 +1667,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1700,7 +1709,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,10 +1805,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1737,35 +1821,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1782,56 +1838,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1874,7 +1883,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,19 +1961,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,79 +2033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2000,61 +2063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,6 +2088,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2133,45 +2181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2188,10 +2197,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
@@ -2200,16 +2209,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2218,115 +2227,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2866,7 +2875,7 @@
   <sheetPr/>
   <dimension ref="A1:CV61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -13538,8 +13547,8 @@
   <sheetPr/>
   <dimension ref="A1:AO39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -33996,16 +34005,16 @@
     <cfRule type="cellIs" dxfId="7" priority="5998" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34235,19 +34244,19 @@
     <cfRule type="cellIs" dxfId="7" priority="6008" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34474,22 +34483,22 @@
     <cfRule type="cellIs" dxfId="7" priority="6010" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34716,22 +34725,22 @@
     <cfRule type="cellIs" dxfId="7" priority="5960" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34958,22 +34967,22 @@
     <cfRule type="cellIs" dxfId="7" priority="5962" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35002,10 +35011,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="6425" stopIfTrue="1" operator="greaterThan">
@@ -35032,10 +35041,10 @@
     <cfRule type="cellIs" dxfId="7" priority="6630" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6780" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6780" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36544,10 +36553,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1808" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36746,16 +36755,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1816" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36865,13 +36874,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1818" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36960,10 +36969,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1824" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37055,7 +37064,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1826" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37141,13 +37150,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1832" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37233,13 +37242,13 @@
     <cfRule type="cellIs" dxfId="7" priority="1834" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37322,16 +37331,16 @@
     <cfRule type="cellIs" dxfId="7" priority="1840" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37411,19 +37420,19 @@
     <cfRule type="cellIs" dxfId="7" priority="1842" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37972,10 +37981,10 @@
     <cfRule type="cellIs" dxfId="7" priority="1876" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6781" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6782" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38067,7 +38076,7 @@
     <cfRule type="cellIs" dxfId="7" priority="1878" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6781" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6782" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38336,10 +38345,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -38712,6 +38721,39 @@
       </c>
       <c r="H14" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20200203</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20200226</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20200301</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -38739,110 +38781,110 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G24" s="5"/>
       <c r="J24" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -38850,7 +38892,7 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C25" s="7"/>
       <c r="F25" s="4"/>
@@ -38859,7 +38901,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="2:14">
@@ -38873,106 +38915,106 @@
         <v>385</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="6" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="2:14">
       <c r="B27" s="6" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M28" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M29" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -547,6 +547,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -554,61 +555,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
@@ -617,13 +618,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyAlignment="1">
@@ -635,10 +636,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
@@ -647,58 +648,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,7 +1304,7 @@
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="9" customWidth="1" style="10" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="3" min="2" max="2"/>
@@ -7847,7 +7848,7 @@
         <f>(P44-M44)/M44*100</f>
         <v/>
       </c>
-      <c r="P44" t="n">
+      <c r="P44" s="0" t="n">
         <v>1.0721</v>
       </c>
       <c r="Q44" s="21" t="inlineStr">
@@ -9719,7 +9720,7 @@
         <f>(P57-M57)/M57*100</f>
         <v/>
       </c>
-      <c r="P57" t="n">
+      <c r="P57" s="0" t="n">
         <v>0.9766</v>
       </c>
       <c r="Q57" s="21" t="inlineStr">
@@ -10524,66 +10525,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId58"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId59"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId92"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId93"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId94"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId95"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId96"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId97"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId98"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId99"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId100"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId101"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId102"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId103"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId104"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId105"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId106"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId107"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId108"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId109"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId110"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId111"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId112"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId113"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId114"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId115"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId116"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId117"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId118"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId119"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10601,7 +10542,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="3" min="2" max="2"/>
@@ -16553,20 +16494,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16584,7 +16518,7 @@
       <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="5" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="10" min="2" max="2"/>
@@ -40632,8 +40566,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AG2" display="国联安中证半导体ETF联接C" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AG2" display="国联安中证半导体ETF联接C" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AG2" display="国联安中证半导体ETF联接C" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -40645,13 +40578,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="1" min="2" max="2"/>
@@ -41132,6 +41065,27 @@
       <c r="H17" s="0" t="inlineStr">
         <is>
           <t>高低部判断不容易。2.18全线赎回就早了，25赎回最好，可多赚1000多。另外，0205投资，券商在底部，应该全投券商，而沪深300,赚较少，投资建行恒生更是失误，它完全比不上恒生涨幅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20200301</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>yt视频显示，银行股下跌空间有限，有一定上升空间。降息也会对银行形成利好。
+同时，银行大盘股以稳为主，中小盘可能涨。
+二月pmi下降很多，股市跌幅可能未算进去。而且3月份对经济数据公布，可能更多利空。
+基金会抛售没有逻辑的题材股，转为投资有逻辑的股票。
+所以垃圾股可能大跌。</t>
         </is>
       </c>
     </row>
@@ -41152,7 +41106,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5555555555556" customWidth="1" style="1" min="11" max="11"/>
     <col width="1.44444444444444" customWidth="1" style="1" min="12" max="12"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -1325,7 +1325,7 @@
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="9" customWidth="1" style="10" min="1" max="1"/>
     <col width="17.5555555555556" customWidth="1" style="3" min="2" max="2"/>
@@ -4709,7 +4709,7 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="I22" s="66" t="n">
         <v>2.689</v>
@@ -11053,70 +11053,198 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId192"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11134,7 +11262,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="11.5555555555556" customWidth="1" style="3" min="1" max="1"/>
     <col width="13.3333333333333" customWidth="1" style="3" min="2" max="2"/>
@@ -11545,7 +11673,7 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:05</t>
+          <t>20200308 01:30:12</t>
         </is>
       </c>
       <c r="L2" s="53">
@@ -11822,7 +11950,7 @@
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:06</t>
+          <t>20200308 01:30:13</t>
         </is>
       </c>
       <c r="L4" s="53">
@@ -11958,7 +12086,7 @@
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:06</t>
+          <t>20200308 01:30:13</t>
         </is>
       </c>
       <c r="L5" s="53">
@@ -12094,7 +12222,7 @@
       </c>
       <c r="K6" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:06</t>
+          <t>20200308 01:30:13</t>
         </is>
       </c>
       <c r="L6" s="53">
@@ -12367,7 +12495,7 @@
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:06</t>
+          <t>20200308 01:30:13</t>
         </is>
       </c>
       <c r="L8" s="53">
@@ -12636,7 +12764,7 @@
       </c>
       <c r="K10" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:06</t>
+          <t>20200308 01:30:14</t>
         </is>
       </c>
       <c r="L10" s="53">
@@ -12772,7 +12900,7 @@
       </c>
       <c r="K11" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:14</t>
         </is>
       </c>
       <c r="L11" s="53">
@@ -12908,7 +13036,7 @@
       </c>
       <c r="K12" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:14</t>
         </is>
       </c>
       <c r="L12" s="53">
@@ -13048,7 +13176,7 @@
       </c>
       <c r="K13" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:14</t>
         </is>
       </c>
       <c r="L13" s="53">
@@ -13193,7 +13321,7 @@
       </c>
       <c r="K14" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:14</t>
         </is>
       </c>
       <c r="L14" s="53">
@@ -13472,7 +13600,7 @@
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:15</t>
         </is>
       </c>
       <c r="L16" s="53">
@@ -13603,7 +13731,7 @@
       <c r="J17" s="11" t="inlineStr"/>
       <c r="K17" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:07</t>
+          <t>20200308 01:30:15</t>
         </is>
       </c>
       <c r="L17" s="53">
@@ -13848,7 +13976,7 @@
         </is>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F19" s="12" t="n">
         <v>8530.336799999999</v>
@@ -13861,7 +13989,7 @@
       <c r="J19" s="11" t="inlineStr"/>
       <c r="K19" s="0" t="inlineStr">
         <is>
-          <t>20200308 00:54:09</t>
+          <t>20200308 01:30:19</t>
         </is>
       </c>
       <c r="L19" s="53">
@@ -17086,13 +17214,27 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="https://finance.sina.com.cn/realstock/company/sh000922/nc.shtml" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" display="https://finance.sina.com.cn/realstock/company/sh000942/nc.shtml" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" display="https://finance.sina.com.cn/realstock/company/sz399986/nc.shtml" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" display="https://finance.sina.com.cn/realstock/company/sz399989/nc.shtml" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="http://stock.finance.sina.com.cn/hkstock/quotes/HSSI.html" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="https://finance.sina.com.cn/realstock/company/sz399976/nc.shtml" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" display="https://finance.sina.com.cn/realstock/company/sz399970/nc.shtml" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17114,7 +17256,7 @@
       <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="5" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.77777777777778" customWidth="1" style="10" min="2" max="2"/>
@@ -17560,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>47000</v>
+        <v>67000</v>
       </c>
       <c r="C3" s="0" t="inlineStr"/>
       <c r="D3" s="0" t="n">
@@ -17630,13 +17772,13 @@
         <v>1.4582</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="AA3" s="0" t="n">
         <v>1.215</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>3000</v>
+        <v>8000</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>1.3727</v>
@@ -17678,10 +17820,10 @@
         <v>1.727</v>
       </c>
       <c r="AP3" s="0" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="AQ3" s="0" t="n">
-        <v>2.645</v>
+        <v>2.689</v>
       </c>
       <c r="AR3" s="0" t="n">
         <v>3000</v>
@@ -17711,10 +17853,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>-1226.405902433413</v>
+        <v>-1624.758671212825</v>
       </c>
       <c r="C4" s="11" t="n">
-        <v>-2.609374260496624</v>
+        <v>-2.425012942108694</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>2049.08864954432</v>
@@ -17783,16 +17925,16 @@
         <v>-0.701395982294857</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>-174.74185861795</v>
+        <v>-230.4918382712414</v>
       </c>
       <c r="AA4" s="12" t="n">
-        <v>-3.494837172359001</v>
+        <v>-2.304918382712414</v>
       </c>
       <c r="AB4" s="12" t="n">
-        <v>-209.9593495934958</v>
+        <v>-263.649173750313</v>
       </c>
       <c r="AC4" s="12" t="n">
-        <v>-6.99864498644986</v>
+        <v>-3.295614671878913</v>
       </c>
       <c r="AD4" s="12" t="n">
         <v>56.54281098546052</v>
@@ -17831,10 +17973,10 @@
         <v>0.523864959254955</v>
       </c>
       <c r="AP4" s="12" t="n">
-        <v>40.2298850574714</v>
+        <v>-288.9129649693032</v>
       </c>
       <c r="AQ4" s="12" t="n">
-        <v>1.34099616858238</v>
+        <v>-2.889129649693032</v>
       </c>
       <c r="AR4" s="12" t="n">
         <v>-233.7605804111243</v>
@@ -17864,10 +18006,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>-648.2470558305629</v>
+        <v>-1046.599824609975</v>
       </c>
       <c r="C5" s="11" t="n">
-        <v>-1.379249054958644</v>
+        <v>-1.562089290462649</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>85.45700135074129</v>
@@ -17936,13 +18078,13 @@
         <v>-2.278514944377431</v>
       </c>
       <c r="Z5" s="12" t="n">
-        <v>-55.74997965329138</v>
+        <v>-111.4999593065828</v>
       </c>
       <c r="AA5" s="12" t="n">
         <v>-1.114999593065828</v>
       </c>
       <c r="AB5" s="12" t="n">
-        <v>-32.21389449409033</v>
+        <v>-85.90371865090754</v>
       </c>
       <c r="AC5" s="12" t="n">
         <v>-1.073796483136344</v>
@@ -17984,10 +18126,10 @@
         <v>-0.346220427005194</v>
       </c>
       <c r="AP5" s="12" t="n">
-        <v>-131.236442516269</v>
+        <v>-288.9129649693032</v>
       </c>
       <c r="AQ5" s="12" t="n">
-        <v>-4.37454808387563</v>
+        <v>-2.889129649693032</v>
       </c>
       <c r="AR5" s="12" t="n">
         <v>-41.89510706527348</v>
@@ -20556,8 +20698,14 @@
       <c r="AM40" s="0" t="inlineStr"/>
       <c r="AN40" s="0" t="inlineStr"/>
       <c r="AO40" s="0" t="inlineStr"/>
-      <c r="AP40" s="0" t="inlineStr"/>
-      <c r="AQ40" s="0" t="inlineStr"/>
+      <c r="AP40" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="AQ40" s="0" t="n">
+        <v>2.769</v>
+      </c>
       <c r="AR40" s="0" t="inlineStr"/>
       <c r="AS40" s="0" t="inlineStr"/>
       <c r="AT40" s="0" t="inlineStr"/>
@@ -20617,8 +20765,12 @@
       <c r="AM41" s="0" t="inlineStr"/>
       <c r="AN41" s="0" t="inlineStr"/>
       <c r="AO41" s="0" t="inlineStr"/>
-      <c r="AP41" s="0" t="inlineStr"/>
-      <c r="AQ41" s="0" t="inlineStr"/>
+      <c r="AP41" s="12" t="n">
+        <v>-288.9129649693032</v>
+      </c>
+      <c r="AQ41" s="12" t="n">
+        <v>-2.889129649693032</v>
+      </c>
       <c r="AR41" s="0" t="inlineStr"/>
       <c r="AS41" s="0" t="inlineStr"/>
       <c r="AT41" s="0" t="inlineStr"/>
@@ -20828,13 +20980,21 @@
       <c r="W44" s="0" t="inlineStr"/>
       <c r="X44" s="0" t="inlineStr"/>
       <c r="Y44" s="0" t="inlineStr"/>
-      <c r="Z44" s="0" t="inlineStr"/>
+      <c r="Z44" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
       <c r="AA44" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AB44" s="0" t="inlineStr"/>
+        <v>1.2287</v>
+      </c>
+      <c r="AB44" s="0" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
       <c r="AC44" s="0" t="n">
-        <v>5000</v>
+        <v>1.3876</v>
       </c>
       <c r="AD44" s="0" t="inlineStr"/>
       <c r="AE44" s="0" t="inlineStr"/>
@@ -20889,10 +21049,18 @@
       <c r="W45" s="0" t="inlineStr"/>
       <c r="X45" s="0" t="inlineStr"/>
       <c r="Y45" s="0" t="inlineStr"/>
-      <c r="Z45" s="0" t="inlineStr"/>
-      <c r="AA45" s="0" t="inlineStr"/>
-      <c r="AB45" s="0" t="inlineStr"/>
-      <c r="AC45" s="0" t="inlineStr"/>
+      <c r="Z45" s="12" t="n">
+        <v>-55.74997965329138</v>
+      </c>
+      <c r="AA45" s="12" t="n">
+        <v>-1.114999593065828</v>
+      </c>
+      <c r="AB45" s="12" t="n">
+        <v>-53.68982415681721</v>
+      </c>
+      <c r="AC45" s="12" t="n">
+        <v>-1.073796483136344</v>
+      </c>
       <c r="AD45" s="0" t="inlineStr"/>
       <c r="AE45" s="0" t="inlineStr"/>
       <c r="AF45" s="0" t="inlineStr"/>
@@ -21244,6 +21412,12 @@
     <cfRule type="cellIs" priority="7406" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7541" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7542" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
     <cfRule type="cellIs" priority="2045" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -21570,6 +21744,12 @@
     <cfRule type="cellIs" priority="7408" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7543" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7544" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" priority="2203" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22688,6 +22868,12 @@
     <cfRule type="cellIs" priority="7302" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7417" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7418" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
     <cfRule type="cellIs" priority="1913" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -22900,6 +23086,12 @@
     <cfRule type="cellIs" priority="7304" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7419" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7420" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
     <cfRule type="cellIs" priority="1923" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23082,6 +23274,12 @@
     <cfRule type="cellIs" priority="7314" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7429" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7430" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
     <cfRule type="cellIs" priority="1925" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -23264,6 +23462,12 @@
     <cfRule type="cellIs" priority="7316" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7431" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7432" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
     <cfRule type="cellIs" priority="1935" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25784,6 +25988,12 @@
     <cfRule type="cellIs" priority="6922" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7521" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7522" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4">
     <cfRule type="cellIs" priority="6831" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -25798,6 +26008,12 @@
     <cfRule type="cellIs" priority="6924" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7523" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7524" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AS4">
     <cfRule type="cellIs" priority="2025" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -26042,6 +26258,12 @@
     <cfRule type="cellIs" priority="7398" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7533" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7534" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS4">
     <cfRule type="cellIs" priority="6843" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -26098,6 +26320,12 @@
     <cfRule type="cellIs" priority="7400" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7535" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7536" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT4">
     <cfRule type="cellIs" priority="2035" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -26800,6 +27028,12 @@
     <cfRule type="cellIs" priority="7410" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7545" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7546" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
     <cfRule type="cellIs" priority="2049" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -27126,6 +27360,12 @@
     <cfRule type="cellIs" priority="7412" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7547" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7548" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" priority="2205" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -28244,6 +28484,12 @@
     <cfRule type="cellIs" priority="7306" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7421" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7422" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
     <cfRule type="cellIs" priority="1917" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -28456,6 +28702,12 @@
     <cfRule type="cellIs" priority="7308" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7423" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7424" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="cellIs" priority="1927" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -28638,6 +28890,12 @@
     <cfRule type="cellIs" priority="7318" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7433" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7434" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
     <cfRule type="cellIs" priority="1929" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -28820,6 +29078,12 @@
     <cfRule type="cellIs" priority="7320" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7435" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7436" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
     <cfRule type="cellIs" priority="1939" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -31340,6 +31604,12 @@
     <cfRule type="cellIs" priority="6926" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7525" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7526" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ5">
     <cfRule type="cellIs" priority="6835" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -31354,6 +31624,12 @@
     <cfRule type="cellIs" priority="6928" operator="lessThan" dxfId="7" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7527" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7528" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ5:AS5">
     <cfRule type="cellIs" priority="2029" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -31598,6 +31874,12 @@
     <cfRule type="cellIs" priority="7402" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7537" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7538" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS5">
     <cfRule type="cellIs" priority="6847" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -31654,6 +31936,12 @@
     <cfRule type="cellIs" priority="7404" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7539" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7540" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT5">
     <cfRule type="cellIs" priority="2039" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -39718,6 +40006,12 @@
     <cfRule type="cellIs" priority="7298" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7413" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7414" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
     <cfRule type="cellIs" priority="6735" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -39780,6 +40074,12 @@
     <cfRule type="cellIs" priority="7300" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7415" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7416" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR39">
     <cfRule type="cellIs" priority="6837" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -39836,6 +40136,12 @@
     <cfRule type="cellIs" priority="7394" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7529" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7530" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS39">
     <cfRule type="cellIs" priority="6839" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -39892,6 +40198,12 @@
     <cfRule type="cellIs" priority="7396" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7531" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7532" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
     <cfRule type="cellIs" priority="154" operator="greaterThan" dxfId="6" stopIfTrue="1">
@@ -42924,6 +43236,12 @@
     <cfRule type="cellIs" priority="7310" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7425" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7426" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
     <cfRule type="cellIs" priority="7039" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -42956,6 +43274,12 @@
     <cfRule type="cellIs" priority="7312" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7427" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7428" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V43">
     <cfRule type="cellIs" priority="7049" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -42988,6 +43312,12 @@
     <cfRule type="cellIs" priority="7322" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7437" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7438" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43">
     <cfRule type="cellIs" priority="7051" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43020,6 +43350,12 @@
     <cfRule type="cellIs" priority="7324" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7439" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7440" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4">
     <cfRule type="cellIs" priority="7053" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43052,6 +43388,12 @@
     <cfRule type="cellIs" priority="7326" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7441" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7442" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4">
     <cfRule type="cellIs" priority="7055" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43084,6 +43426,12 @@
     <cfRule type="cellIs" priority="7328" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7443" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7444" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
     <cfRule type="cellIs" priority="7057" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43116,6 +43464,12 @@
     <cfRule type="cellIs" priority="7330" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7445" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7446" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
     <cfRule type="cellIs" priority="7059" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43148,6 +43502,12 @@
     <cfRule type="cellIs" priority="7332" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7447" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7448" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD43">
     <cfRule type="cellIs" priority="7061" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43180,6 +43540,12 @@
     <cfRule type="cellIs" priority="7370" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7493" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7494" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE43">
     <cfRule type="cellIs" priority="7063" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43212,6 +43578,12 @@
     <cfRule type="cellIs" priority="7372" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7495" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7496" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4">
     <cfRule type="cellIs" priority="7065" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43244,6 +43616,12 @@
     <cfRule type="cellIs" priority="7374" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7497" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7498" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4">
     <cfRule type="cellIs" priority="7067" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43276,6 +43654,12 @@
     <cfRule type="cellIs" priority="7376" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7499" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7500" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD5">
     <cfRule type="cellIs" priority="7069" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43308,6 +43692,12 @@
     <cfRule type="cellIs" priority="7378" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7501" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7502" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5">
     <cfRule type="cellIs" priority="7071" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43340,6 +43730,12 @@
     <cfRule type="cellIs" priority="7380" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7503" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7504" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X43">
     <cfRule type="cellIs" priority="7333" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43348,6 +43744,12 @@
     <cfRule type="cellIs" priority="7334" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7449" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7450" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y43">
     <cfRule type="cellIs" priority="7335" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43356,6 +43758,12 @@
     <cfRule type="cellIs" priority="7336" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7451" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7452" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4">
     <cfRule type="cellIs" priority="7337" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43364,6 +43772,12 @@
     <cfRule type="cellIs" priority="7338" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7453" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7454" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4">
     <cfRule type="cellIs" priority="7339" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43372,6 +43786,12 @@
     <cfRule type="cellIs" priority="7340" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7455" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7456" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
     <cfRule type="cellIs" priority="7341" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43380,6 +43800,12 @@
     <cfRule type="cellIs" priority="7342" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7457" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7458" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" priority="7343" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43388,6 +43814,12 @@
     <cfRule type="cellIs" priority="7344" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7459" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7460" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z43">
     <cfRule type="cellIs" priority="7345" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43396,6 +43828,12 @@
     <cfRule type="cellIs" priority="7346" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7461" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7462" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA43">
     <cfRule type="cellIs" priority="7347" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43404,6 +43842,12 @@
     <cfRule type="cellIs" priority="7348" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7463" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7464" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4">
     <cfRule type="cellIs" priority="7349" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43412,6 +43856,12 @@
     <cfRule type="cellIs" priority="7350" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7469" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7470" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA4">
     <cfRule type="cellIs" priority="7351" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43420,6 +43870,12 @@
     <cfRule type="cellIs" priority="7352" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7471" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7472" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5">
     <cfRule type="cellIs" priority="7353" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43428,6 +43884,12 @@
     <cfRule type="cellIs" priority="7354" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7473" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7474" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
     <cfRule type="cellIs" priority="7355" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43436,6 +43898,12 @@
     <cfRule type="cellIs" priority="7356" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7475" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7476" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39">
     <cfRule type="cellIs" priority="7357" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43444,6 +43912,12 @@
     <cfRule type="cellIs" priority="7358" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7477" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7478" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC39">
     <cfRule type="cellIs" priority="7359" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43452,6 +43926,12 @@
     <cfRule type="cellIs" priority="7360" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7479" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7480" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
     <cfRule type="cellIs" priority="7361" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43460,6 +43940,12 @@
     <cfRule type="cellIs" priority="7362" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7485" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7486" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
     <cfRule type="cellIs" priority="7363" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43468,6 +43954,12 @@
     <cfRule type="cellIs" priority="7364" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7487" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7488" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5">
     <cfRule type="cellIs" priority="7365" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43476,6 +43968,12 @@
     <cfRule type="cellIs" priority="7366" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7489" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7490" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5">
     <cfRule type="cellIs" priority="7367" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43484,6 +43982,12 @@
     <cfRule type="cellIs" priority="7368" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7491" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7492" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF41">
     <cfRule type="cellIs" priority="7381" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43492,6 +43996,12 @@
     <cfRule type="cellIs" priority="7382" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7505" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7506" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG41">
     <cfRule type="cellIs" priority="7383" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43500,6 +44010,12 @@
     <cfRule type="cellIs" priority="7384" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7507" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7508" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4">
     <cfRule type="cellIs" priority="7385" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43508,6 +44024,12 @@
     <cfRule type="cellIs" priority="7386" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7509" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7510" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
     <cfRule type="cellIs" priority="7387" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43516,6 +44038,12 @@
     <cfRule type="cellIs" priority="7388" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7511" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7512" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF5">
     <cfRule type="cellIs" priority="7389" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43524,6 +44052,12 @@
     <cfRule type="cellIs" priority="7390" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7513" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7514" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5">
     <cfRule type="cellIs" priority="7391" operator="greaterThan" dxfId="8" stopIfTrue="1">
@@ -43532,9 +44066,65 @@
     <cfRule type="cellIs" priority="7392" operator="lessThan" dxfId="9" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="7515" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7516" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z45">
+    <cfRule type="cellIs" priority="7465" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7466" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA45">
+    <cfRule type="cellIs" priority="7467" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7468" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB45">
+    <cfRule type="cellIs" priority="7481" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7482" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC45">
+    <cfRule type="cellIs" priority="7483" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7484" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP41">
+    <cfRule type="cellIs" priority="7517" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7518" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ41">
+    <cfRule type="cellIs" priority="7519" operator="greaterThan" dxfId="8" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7520" operator="lessThan" dxfId="9" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AS2" display="国联安中证半导体ETF联接C" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AS2" display="国联安中证半导体ETF联接C" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AS2" display="国联安中证半导体ETF联接C" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AS2" display="国联安中证半导体ETF联接C" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -43552,7 +44142,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="4.66666666666667" customWidth="1" style="1" min="1" max="1"/>
     <col width="9.66666666666667" customWidth="1" style="1" min="2" max="2"/>
@@ -44079,7 +44669,7 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="12.5555555555556" customWidth="1" style="1" min="11" max="11"/>
     <col width="1.44444444444444" customWidth="1" style="1" min="12" max="12"/>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="601">
   <si>
     <t>编号</t>
   </si>
@@ -1503,9 +1503,6 @@
   </si>
   <si>
     <t>20200717</t>
-  </si>
-  <si>
-    <t>投资</t>
   </si>
   <si>
     <t>20200727</t>
@@ -2373,6 +2370,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -2380,61 +2378,61 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyAlignment="1">
@@ -2443,13 +2441,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyAlignment="1">
@@ -2461,10 +2459,10 @@
     <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
@@ -2473,58 +2471,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="10" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4866,9 +4864,7 @@
       <c r="I13" s="44" t="n">
         <v>4.379</v>
       </c>
-      <c r="J13" s="45" t="n">
-        <v>1.742565055762065</v>
-      </c>
+      <c r="J13" s="45" t="s"/>
       <c r="K13" s="46" t="n">
         <v>2</v>
       </c>
@@ -21204,7 +21200,7 @@
         <v>494</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
@@ -21325,10 +21321,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
@@ -46302,28 +46298,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B1" t="s">
         <v>497</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>500</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>501</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>502</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>503</v>
-      </c>
-      <c r="H1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -46334,20 +46330,20 @@
         <v>20191011</v>
       </c>
       <c r="C2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D2" t="s">
         <v>505</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>506</v>
-      </c>
-      <c r="E2" t="s">
-        <v>507</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -46358,80 +46354,80 @@
         <v>20191211</v>
       </c>
       <c r="C3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" t="s">
         <v>509</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>510</v>
-      </c>
-      <c r="E3" t="s">
-        <v>511</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" t="s">
         <v>513</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>514</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>515</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>516</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>517</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>518</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>519</v>
-      </c>
-      <c r="H4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" t="s">
         <v>521</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>522</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" t="s">
         <v>523</v>
       </c>
-      <c r="E5" t="s">
-        <v>511</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>524</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>525</v>
-      </c>
-      <c r="H5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" t="s">
         <v>527</v>
-      </c>
-      <c r="B6" t="s">
-        <v>528</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
@@ -46439,29 +46435,29 @@
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="201.6" customHeight="1" s="1">
       <c r="A7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" t="s">
         <v>530</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>531</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>532</v>
       </c>
-      <c r="D7" t="s">
-        <v>533</v>
-      </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
       <c r="H7" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" customHeight="1" s="1">
@@ -46472,26 +46468,26 @@
         <v>20191222</v>
       </c>
       <c r="C8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" t="s">
         <v>532</v>
       </c>
-      <c r="D8" t="s">
-        <v>533</v>
-      </c>
       <c r="E8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
       <c r="H8" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
@@ -46499,15 +46495,15 @@
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" t="s">
         <v>538</v>
-      </c>
-      <c r="B10" t="s">
-        <v>539</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
@@ -46515,12 +46511,12 @@
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
         <v>470</v>
@@ -46531,15 +46527,15 @@
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B12" t="s">
         <v>543</v>
-      </c>
-      <c r="B12" t="s">
-        <v>544</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
@@ -46547,15 +46543,15 @@
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
@@ -46563,7 +46559,7 @@
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -46579,7 +46575,7 @@
       <c r="F14" t="s"/>
       <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -46595,7 +46591,7 @@
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -46611,7 +46607,7 @@
       <c r="F16" t="s"/>
       <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -46627,15 +46623,15 @@
       <c r="F17" t="s"/>
       <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B18" t="s">
         <v>552</v>
-      </c>
-      <c r="B18" t="s">
-        <v>553</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="s"/>
@@ -46643,7 +46639,7 @@
       <c r="F18" t="s"/>
       <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -46673,110 +46669,110 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="n"/>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="B3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" t="s">
         <v>561</v>
-      </c>
-      <c r="C11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B16" s="3" t="n"/>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="B19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="B20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="B23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="B24" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C24" s="4" t="n"/>
       <c r="F24" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G24" s="5" t="n"/>
       <c r="J24" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K24" s="4" t="n"/>
       <c r="L24" s="4" t="n"/>
@@ -46784,7 +46780,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="B25" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C25" s="7" t="n"/>
       <c r="F25" s="4" t="n"/>
@@ -46793,12 +46789,12 @@
       <c r="K25" s="4" t="n"/>
       <c r="L25" s="4" t="n"/>
       <c r="M25" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="B26" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
@@ -46807,106 +46803,106 @@
         <v>434</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>581</v>
       </c>
       <c r="L26" s="8" t="n"/>
       <c r="M26" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N26" s="6" t="n"/>
     </row>
     <row r="27" spans="1:14">
       <c r="B27" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="F27" s="8" t="n"/>
       <c r="G27" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="J27" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>588</v>
       </c>
       <c r="L27" s="8" t="n"/>
       <c r="M27" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="M28" t="s">
         <v>590</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="M28" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="B29" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="M29" t="s">
         <v>593</v>
-      </c>
-      <c r="M29" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="B34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="B35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="B36" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="B37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="684">
   <si>
     <t>编号</t>
   </si>
@@ -2089,6 +2089,9 @@
   </si>
   <si>
     <t>20210105 00:29:40</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -9248,8 +9251,8 @@
       <c r="D44" t="s">
         <v>651</v>
       </c>
-      <c r="H44" s="3" t="n">
-        <v>6</v>
+      <c r="H44" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="I44" s="56" t="n">
         <v>1.1935</v>
@@ -9380,8 +9383,8 @@
       <c r="D45" t="s">
         <v>652</v>
       </c>
-      <c r="H45" s="3" t="n">
-        <v>6</v>
+      <c r="H45" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="I45" s="56" t="n">
         <v>3.3204</v>
@@ -9512,8 +9515,8 @@
       <c r="D46" t="s">
         <v>653</v>
       </c>
-      <c r="H46" s="3" t="n">
-        <v>6</v>
+      <c r="H46" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="I46" s="56" t="n">
         <v>0.7181999999999999</v>
@@ -9644,8 +9647,8 @@
       <c r="D47" t="s">
         <v>654</v>
       </c>
-      <c r="H47" s="3" t="n">
-        <v>6</v>
+      <c r="H47" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="I47" s="56" t="n">
         <v>1.5823</v>

--- a/Jelly_model.xlsx
+++ b/Jelly_model.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
   <si>
     <t>编号</t>
   </si>
@@ -221,7 +221,7 @@
     <t>广发双擎升级混合A</t>
   </si>
   <si>
-    <t>3.5513, 3.5343, 3.4949, 3.2949, 3.2909, 3.3467, 3.4084, 3.4348, 3.4909, 3.3093, 3.3273, 3.3281, 3.4546, 3.4893, 3.5224, 3.5805, 3.5659, 3.5679, 3.4892, 3.4819, 3.4873, 3.4119, 3.3541, 3.3247, 3.3627, 3.3924, 3.4034, 3.2987, 3.2524, 3.2909, 3.3324, 3.3274, 3.2332, 3.3016, 3.3638, 3.3601, 3.3944, 3.3968, 3.3688, 3.3706, 3.2347, 3.244, 3.0995, 3.0817, 3.1921, 3.2122, 3.2366, 3.2158, 3.2368, 3.2478, 3.2133, 3.1789, 3.276, 3.1711, 3.1662, 3.171, 3.2132, 3.2139, 3.3421, 3.4366, 3.4222, 3.3627, 3.3254, 3.2922, 3.2117, 3.2502, 3.2092, 3.1784, 3.1023, 3.161, 3.2132, 3.2332, 3.2477, 3.2624, 3.2965, 3.3128, 3.2925, 3.3608, 3.3219, 3.4469, 3.4301, 3.3188, 3.3196, 3.3243, 3.3096, 3.2558, 3.2212, 3.2536, 3.2695, 3.286, 3.2747, 3.2329, 3.1965, 3.2071, 3.227, 3.2847, 3.2795, 3.2659, 3.2631, 3.2822, 3.2792, 3.2445, 3.2778, 3.2419, 3.2902, 3.3149, 3.3148, 3.3308, 3.3692, 3.4734, 3.4055, 3.4884, 3.4776, 3.547, 3.5351, 3.4649, 3.5369, 3.5817, 3.7111, 3.7848</t>
+    <t>3.5343, 3.4949, 3.2949, 3.2909, 3.3467, 3.4084, 3.4348, 3.4909, 3.3093, 3.3273, 3.3281, 3.4546, 3.4893, 3.5224, 3.5805, 3.5659, 3.5679, 3.4892, 3.4819, 3.4873, 3.4119, 3.3541, 3.3247, 3.3627, 3.3924, 3.4034, 3.2987, 3.2524, 3.2909, 3.3324, 3.3274, 3.2332, 3.3016, 3.3638, 3.3601, 3.3944, 3.3968, 3.3688, 3.3706, 3.2347, 3.244, 3.0995, 3.0817, 3.1921, 3.2122, 3.2366, 3.2158, 3.2368, 3.2478, 3.2133, 3.1789, 3.276, 3.1711, 3.1662, 3.171, 3.2132, 3.2139, 3.3421, 3.4366, 3.4222, 3.3627, 3.3254, 3.2922, 3.2117, 3.2502, 3.2092, 3.1784, 3.1023, 3.161, 3.2132, 3.2332, 3.2477, 3.2624, 3.2965, 3.3128, 3.2925, 3.3608, 3.3219, 3.4469, 3.4301, 3.3188, 3.3196, 3.3243, 3.3096, 3.2558, 3.2212, 3.2536, 3.2695, 3.286, 3.2747, 3.2329, 3.1965, 3.2071, 3.227, 3.2847, 3.2795, 3.2659, 3.2631, 3.2822, 3.2792, 3.2445, 3.2778, 3.2419, 3.2902, 3.3149, 3.3148, 3.3308, 3.3692, 3.4734, 3.4055, 3.4884, 3.4776, 3.547, 3.5351, 3.4649, 3.5369, 3.5817, 3.7111, 3.7848, 3.783</t>
   </si>
   <si>
     <t>回撤时买</t>
@@ -230,246 +230,246 @@
     <t>中</t>
   </si>
   <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>20200203</t>
+  </si>
+  <si>
+    <t>20200225</t>
+  </si>
+  <si>
+    <t>诺安成长混合</t>
+  </si>
+  <si>
+    <t>2.688, 2.533, 2.362, 2.349, 2.393, 2.396, 2.41, 2.392, 2.274, 2.269, 2.273, 2.362, 2.367, 2.435, 2.496, 2.452, 2.478, 2.468, 2.381, 2.388, 2.347, 2.362, 2.342, 2.359, 2.369, 2.351, 2.282, 2.27, 2.26, 2.254, 2.232, 2.15, 2.209, 2.207, 2.191, 2.18, 2.143, 2.172, 2.209, 2.103, 2.073, 1.999, 1.991, 2.039, 2.049, 2.076, 2.07, 2.102, 2.114, 2.094, 2.071, 2.086, 2.057, 2.028, 1.999, 2.022, 2.024, 2.063, 2.161, 2.136, 2.091, 2.088, 2.086, 2.071, 2.071, 2.032, 2.024, 1.988, 2.002, 2.024, 2.027, 2.03, 2.079, 2.123, 2.149, 2.127, 2.157, 2.196, 2.349, 2.282, 2.164, 2.175, 2.204, 2.171, 2.199, 2.194, 2.192, 2.177, 2.182, 2.197, 2.192, 2.168, 2.177, 2.203, 2.221, 2.235, 2.194, 2.189, 2.211, 2.214, 2.173, 2.205, 2.206, 2.213, 2.18, 2.149, 2.162, 2.141, 2.17, 2.113, 2.155, 2.153, 2.119, 2.108, 2.116, 2.144, 2.174, 2.217, 2.295, 2.271</t>
+  </si>
+  <si>
+    <t>银河创新成长混合</t>
+  </si>
+  <si>
+    <t>7.3127, 6.8763, 6.3389, 6.1974, 6.3818, 6.4328, 6.478, 6.4336, 6.0624, 6.018, 6.0635, 6.3614, 6.3243, 6.5453, 6.7904, 6.6354, 6.756, 6.7234, 6.4911, 6.4889, 6.3207, 6.3257, 6.2768, 6.3334, 6.4443, 6.4213, 6.1766, 6.1599, 6.1111, 6.1555, 6.0633, 5.833, 5.9723, 5.9773, 6.0017, 5.989, 5.924, 5.8692, 5.9224, 5.6384, 5.5591, 5.3051, 5.2485, 5.404, 5.4468, 5.5094, 5.4471, 5.514, 5.5847, 5.5317, 5.4457, 5.5056, 5.3769, 5.3262, 5.2561, 5.3186, 5.2872, 5.4591, 5.7283, 5.6775, 5.5394, 5.4914, 5.4424, 5.4113, 5.4451, 5.3135, 5.2977, 5.1902, 5.1804, 5.2154, 5.2541, 5.254, 5.3489, 5.4773, 5.5826, 5.5178, 5.6117, 5.7219, 6.0954, 5.9564, 5.6191, 5.6403, 5.7311, 5.6477, 5.7238, 5.7, 5.6775, 5.6359, 5.6572, 5.7485, 5.7481, 5.6631, 5.7268, 5.7802, 5.8794, 5.9804, 5.8594, 5.7919, 5.821, 5.8649, 5.7155, 5.8557, 5.8584, 5.9627, 5.8296, 5.712, 5.7815, 5.7049, 5.8048, 5.6411, 5.7838, 5.7082, 5.6109, 5.5559, 5.6228, 5.7464, 5.8587, 5.8824, 6.1739, 6.1271</t>
+  </si>
+  <si>
+    <t>003745</t>
+  </si>
+  <si>
+    <t>广发多元新兴股票</t>
+  </si>
+  <si>
+    <t>2.5944, 2.5239, 2.3666, 2.3458, 2.4078, 2.4516, 2.4759, 2.5301, 2.3842, 2.3751, 2.3773, 2.4831, 2.5069, 2.5583, 2.6277, 2.5932, 2.609, 2.5501, 2.5282, 2.5446, 2.4789, 2.4296, 2.4084, 2.44, 2.4677, 2.4718, 2.3862, 2.3477, 2.3762, 2.3936, 2.3925, 2.3144, 2.3573, 2.3906, 2.3838, 2.4033, 2.3811, 2.3675, 2.3831, 2.2856, 2.2873, 2.1744, 2.1566, 2.2357, 2.26, 2.2796, 2.2633, 2.2829, 2.2949, 2.2747, 2.2473, 2.3219, 2.2474, 2.2453, 2.2451, 2.2764, 2.2746, 2.3718, 2.4516, 2.4409, 2.4002, 2.3683, 2.3501, 2.2892, 2.3163, 2.2833, 2.2574, 2.2001, 2.2416, 2.2778, 2.2905, 2.2965, 2.3165, 2.3428, 2.3536, 2.3364, 2.3954, 2.3778, 2.4801, 2.4588, 2.368, 2.3652, 2.3722, 2.3611, 2.3254, 2.3032, 2.3279, 2.3325, 2.3459, 2.3372, 2.3109, 2.2772, 2.2815, 2.2933, 2.3337, 2.3334, 2.3255, 2.3226, 2.3435, 2.3406, 2.3051, 2.326, 2.2934, 2.336, 2.3589, 2.3395, 2.3498, 2.3722, 2.4593, 2.4055, 2.4809, 2.4631, 2.5001, 2.4921, 2.4543, 2.5011, 2.5545, 2.6599, 2.7069, 2.68</t>
+  </si>
+  <si>
+    <t>银华内需精选混合(LOF)</t>
+  </si>
+  <si>
+    <t>3.469, 3.385, 3.193, 3.231, 3.274, 3.29, 3.349, 3.323, 3.233, 3.248, 3.318, 3.374, 3.369, 3.394, 3.502, 3.485, 3.613, 3.619, 3.572, 3.509, 3.45, 3.38, 3.442, 3.448, 3.498, 3.563, 3.54, 3.463, 3.476, 3.552, 3.498, 3.446, 3.479, 3.54, 3.555, 3.591, 3.568, 3.484, 3.446, 3.292, 3.258, 3.127, 3.114, 3.128, 3.131, 3.154, 3.109, 3.075, 3.126, 3.111, 3.046, 3.068, 2.998, 2.991, 2.942, 2.983, 2.963, 3.021, 3.123, 3.183, 3.126, 3.094, 3.082, 3.069, 3.068, 3.046, 3, 2.93, 2.931, 2.985, 2.97, 2.971, 2.903, 2.93, 2.989, 2.974, 2.988, 2.969, 3.023, 2.963, 2.917, 2.904, 2.91, 2.978, 2.962, 2.968, 3.009, 3.013, 3.02, 3.017, 2.951, 2.968, 3.002, 3.019, 3.045, 3.059, 3.101, 3.116, 3.138, 3.118, 3.068, 3.048, 3.011, 3.08, 3.075, 3.054, 3.084, 3.07, 3.147, 3.056, 3.094, 3.059, 3.075, 3.114, 3.082, 3.098, 3.141, 3.275, 3.33, 3.34</t>
+  </si>
+  <si>
+    <t>有机会</t>
+  </si>
+  <si>
+    <t>华宝中证医疗指数</t>
+  </si>
+  <si>
+    <t>中证医疗指数</t>
+  </si>
+  <si>
+    <t>0.729, 0.7334, 0.7085, 0.7157, 0.7131, 0.7293, 0.7359, 0.7462, 0.7134, 0.7184, 0.7246, 0.7355, 0.7334, 0.7408, 0.7499, 0.748, 0.7527, 0.7432, 0.7336, 0.7349, 0.7264, 0.7126, 0.7094, 0.7131, 0.7168, 0.7204, 0.7078, 0.7057, 0.7106, 0.7172, 0.7209, 0.7217, 0.7302, 0.7434, 0.7406, 0.7436, 0.7434, 0.7405, 0.7292, 0.7108, 0.7094, 0.692, 0.6882, 0.6952, 0.6967, 0.7021, 0.6922, 0.6873, 0.6927, 0.6873, 0.692, 0.7029, 0.6947, 0.6976, 0.6932, 0.7015, 0.7092, 0.7217, 0.7416, 0.7483, 0.749, 0.7429, 0.7445, 0.7308, 0.7365, 0.736, 0.7325, 0.7181, 0.7228, 0.7368, 0.7419, 0.7545, 0.7436, 0.7429, 0.7487, 0.7493, 0.745, 0.7328, 0.7471, 0.7353, 0.7221, 0.727, 0.7271, 0.7315, 0.716, 0.7009, 0.7046, 0.71, 0.7083, 0.7041, 0.6898, 0.6908, 0.6922, 0.6924, 0.7073, 0.7066, 0.7174, 0.7237, 0.7233, 0.7257, 0.7173, 0.7269, 0.722, 0.7318, 0.7369, 0.7397, 0.7471, 0.7413, 0.7519, 0.7525, 0.7506, 0.7483, 0.7573, 0.7547, 0.7539, 0.7605, 0.7684, 0.7661, 0.7761, 0.7869</t>
+  </si>
+  <si>
+    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
+  </si>
+  <si>
+    <t>006113</t>
+  </si>
+  <si>
+    <t>汇添富创新医药混合</t>
+  </si>
+  <si>
+    <t>2.6504, 2.6975, 2.5448, 2.598, 2.5602, 2.6698, 2.7142, 2.8001, 2.6471, 2.681, 2.6854, 2.7585, 2.7583, 2.7902, 2.834, 2.8094, 2.8453, 2.7782, 2.7494, 2.7426, 2.7091, 2.6329, 2.593, 2.6015, 2.6191, 2.6634, 2.6037, 2.5946, 2.6301, 2.6345, 2.6616, 2.6671, 2.7144, 2.7997, 2.7868, 2.7954, 2.7915, 2.7802, 2.7255, 2.6176, 2.6144, 2.5149, 2.5177, 2.5657, 2.551, 2.582, 2.5358, 2.4922, 2.5187, 2.4974, 2.5108, 2.5869, 2.5534, 2.5656, 2.5325, 2.5541, 2.5923, 2.6432, 2.7272, 2.7669, 2.7635, 2.7419, 2.7427, 2.6787, 2.7151, 2.72, 2.6934, 2.604, 2.6304, 2.7017, 2.7259, 2.7772, 2.7449, 2.7548, 2.7841, 2.8093, 2.8011, 2.7338, 2.7784, 2.7433, 2.6636, 2.6866, 2.6857, 2.7034, 2.6301, 2.5468, 2.5729, 2.5924, 2.5771, 2.5525, 2.4848, 2.4915, 2.5036, 2.5048, 2.58, 2.574, 2.626, 2.67, 2.6779, 2.6898, 2.6531, 2.6954, 2.6749, 2.7246, 2.7629, 2.7896, 2.8249, 2.7981, 2.847, 2.8232, 2.8273, 2.8498, 2.9173, 2.8915, 2.8778, 2.9188, 2.9546, 2.9261, 2.9737, 3.0156</t>
+  </si>
+  <si>
+    <t>1808成立</t>
+  </si>
+  <si>
+    <t>001480</t>
+  </si>
+  <si>
+    <t>财通成长优选混合</t>
+  </si>
+  <si>
+    <t>1.981, 1.884, 1.804, 1.833, 1.848, 1.854, 1.872, 1.854, 1.739, 1.736, 1.768, 1.827, 1.806, 1.848, 1.897, 1.878, 1.883, 1.869, 1.832, 1.805, 1.771, 1.769, 1.757, 1.778, 1.798, 1.79, 1.762, 1.755, 1.792, 1.845, 1.861, 1.805, 1.822, 1.855, 1.845, 1.865, 1.863, 1.841, 1.82, 1.755, 1.745, 1.682, 1.664, 1.709, 1.743, 1.753, 1.724, 1.74, 1.762, 1.748, 1.73, 1.758, 1.714, 1.724, 1.7, 1.723, 1.742, 1.804, 1.848, 1.864, 1.84, 1.821, 1.799, 1.793, 1.807, 1.77, 1.753, 1.722, 1.74, 1.791, 1.805, 1.783, 1.727, 1.743, 1.77, 1.777, 1.829, 1.825, 1.872, 1.839, 1.785, 1.794, 1.774, 1.777, 1.757, 1.75, 1.752, 1.763, 1.77, 1.781, 1.754, 1.747, 1.764, 1.768, 1.797, 1.805, 1.791, 1.809, 1.808, 1.814, 1.792, 1.799, 1.772, 1.777, 1.794, 1.788, 1.791, 1.789, 1.83, 1.776, 1.797, 1.799, 1.834, 1.828, 1.824, 1.831, 1.865, 1.879, 1.915, 1.902</t>
+  </si>
+  <si>
+    <t>最近涨了不少</t>
+  </si>
+  <si>
+    <t>006879</t>
+  </si>
+  <si>
+    <t>华安智能生活混合</t>
+  </si>
+  <si>
+    <t>2.0453, 1.9998, 1.9128, 1.9025, 1.9429, 1.9548, 1.9739, 1.9587, 1.8501, 1.8394, 1.8619, 1.9061, 1.8776, 1.8852, 1.9322, 1.9183, 1.9205, 1.901, 1.8856, 1.9198, 1.9024, 1.9081, 1.9051, 1.9242, 1.9715, 1.9693, 1.9289, 1.9142, 1.9513, 1.9754, 1.9824, 1.9634, 1.9693, 1.9814, 1.9646, 1.9584, 1.9827, 1.9637, 1.9575, 1.9267, 1.9472, 1.8769, 1.8399, 1.8556, 1.8732, 1.8986, 1.8937, 1.8957, 1.9287, 1.9108, 1.8798, 1.8833, 1.846, 1.8438, 1.8355, 1.8409, 1.8398, 1.86, 1.9067, 1.9087, 1.8972, 1.8833, 1.8812, 1.8769, 1.8986, 1.8989, 1.8832, 1.8642, 1.8517, 1.8594, 1.8717, 1.8658, 1.8301, 1.835, 1.8704, 1.8894, 1.9171, 1.907, 1.9292, 1.9325, 1.9092, 1.9184, 1.9164, 1.9433, 1.9465, 1.9629, 1.9647, 1.9815, 1.9886, 1.9945, 1.9669, 1.9767, 1.9881, 1.9838, 2.017, 2.0225, 2.0141, 2.01, 1.9933, 1.9943, 1.9694, 1.9698, 1.9312, 1.9422, 1.9488, 1.9415, 1.959, 1.9588, 1.949, 1.89, 1.9164, 1.9063, 1.9203, 1.9219, 1.9063, 1.9166, 1.9431, 1.9657, 1.962, 1.9782</t>
+  </si>
+  <si>
+    <t>1905成立</t>
+  </si>
+  <si>
+    <t>20200218</t>
+  </si>
+  <si>
+    <t>007873</t>
+  </si>
+  <si>
+    <t>华宝科技ETF联接A</t>
+  </si>
+  <si>
+    <t>1.6401, 1.6109, 1.5208, 1.5348, 1.5556, 1.5706, 1.5889, 1.5779, 1.4959, 1.511, 1.5292, 1.5825, 1.5651, 1.5891, 1.6166, 1.5967, 1.6113, 1.6017, 1.5677, 1.5569, 1.5374, 1.5308, 1.522, 1.5443, 1.569, 1.5662, 1.5205, 1.5179, 1.5259, 1.5542, 1.5527, 1.5254, 1.5364, 1.5651, 1.554, 1.5639, 1.5715, 1.5536, 1.5385, 1.488, 1.4877, 1.4411, 1.434, 1.4644, 1.4655, 1.4718, 1.4466, 1.4416, 1.4656, 1.4571, 1.4534, 1.4664, 1.4364, 1.4372, 1.4392, 1.4552, 1.4529, 1.5022, 1.5411, 1.5494, 1.5253, 1.5183, 1.5056, 1.493, 1.5072, 1.4803, 1.4759, 1.4485, 1.4643, 1.4787, 1.5002, 1.4997, 1.4752, 1.4856, 1.5055, 1.5089, 1.5334, 1.5308, 1.5651, 1.541, 1.5014, 1.5153, 1.5098, 1.5056, 1.492, 1.4797, 1.4946, 1.4956, 1.489, 1.4828, 1.4615, 1.4529, 1.4673, 1.4698, 1.4968, 1.4956, 1.5045, 1.5128, 1.5047, 1.5038, 1.4864, 1.4894, 1.4739, 1.4825, 1.5018, 1.5009, 1.5214, 1.5159, 1.5369, 1.5058, 1.5252, 1.521, 1.5342, 1.5173, 1.5244, 1.5573, 1.5747, 1.5907, 1.6444, 1.6466</t>
+  </si>
+  <si>
+    <t>1908成立</t>
+  </si>
+  <si>
+    <t>007490</t>
+  </si>
+  <si>
+    <t>南方信息创新混合A</t>
+  </si>
+  <si>
+    <t>2.4419, 2.3549, 2.2006, 2.2053, 2.2402, 2.2712, 2.2838, 2.2893, 2.157, 2.1202, 2.1693, 2.2606, 2.2439, 2.3154, 2.4009, 2.3438, 2.3681, 2.345, 2.2837, 2.2675, 2.2287, 2.2034, 2.1973, 2.2269, 2.2429, 2.25, 2.1756, 2.1637, 2.1798, 2.2227, 2.213, 2.1443, 2.1901, 2.2036, 2.1928, 2.2221, 2.2477, 2.2088, 2.1854, 2.1031, 2.0931, 2.0307, 1.999, 2.0561, 2.1019, 2.1305, 2.105, 2.1194, 2.1549, 2.1249, 2.1167, 2.1434, 2.0935, 2.0757, 2.0763, 2.1185, 2.1204, 2.1952, 2.2511, 2.2561, 2.2145, 2.1862, 2.1695, 2.1534, 2.1741, 2.13, 2.1166, 2.0605, 2.066, 2.1012, 2.1312, 2.1203, 2.0723, 2.0784, 2.13, 2.114, 2.1888, 2.1942, 2.2882, 2.2092, 2.1118, 2.1344, 2.1353, 2.1092, 2.102, 2.1199, 2.1323, 2.1226, 2.1224, 2.1198, 2.0894, 2.093, 2.1074, 2.1193, 2.1485, 2.1605, 2.1621, 2.1656, 2.1709, 2.1661, 2.131, 2.1324, 2.1295, 2.1307, 2.1419, 2.1246, 2.1433, 2.1346, 2.1495, 2.1196, 2.1464, 2.1234, 2.12, 2.1041, 2.1387, 2.1606, 2.1957, 2.2191, 2.2686, 2.2364</t>
+  </si>
+  <si>
+    <t>1906成立</t>
+  </si>
+  <si>
+    <t>050026</t>
+  </si>
+  <si>
+    <t>博时医疗保健行业混合A</t>
+  </si>
+  <si>
+    <t>4.258, 4.274, 4.051, 4.119, 4.104, 4.248, 4.33, 4.448, 4.206, 4.233, 4.255, 4.378, 4.358, 4.443, 4.518, 4.49, 4.577, 4.457, 4.389, 4.394, 4.337, 4.214, 4.163, 4.178, 4.216, 4.247, 4.138, 4.102, 4.161, 4.175, 4.205, 4.193, 4.276, 4.371, 4.327, 4.323, 4.312, 4.305, 4.231, 4.083, 4.098, 3.938, 3.914, 3.977, 3.96, 4.004, 3.94, 3.909, 3.958, 3.911, 3.929, 4.016, 3.961, 3.978, 3.928, 3.968, 4.047, 4.128, 4.243, 4.299, 4.326, 4.284, 4.294, 4.195, 4.216, 4.219, 4.167, 4.027, 4.064, 4.154, 4.18, 4.285, 4.214, 4.212, 4.246, 4.231, 4.208, 4.106, 4.156, 4.075, 3.957, 3.981, 3.974, 3.997, 3.922, 3.84, 3.871, 3.892, 3.875, 3.85, 3.754, 3.75, 3.76, 3.751, 3.84, 3.831, 3.899, 3.961, 3.964, 3.975, 3.917, 3.977, 3.95, 4.029, 4.08, 4.094, 4.184, 4.146, 4.23, 4.199, 4.185, 4.175, 4.252, 4.218, 4.212, 4.284, 4.345, 4.333, 4.421, 4.525</t>
+  </si>
+  <si>
+    <t>易方达中小盘混合</t>
+  </si>
+  <si>
+    <t>7.8604, 7.9635, 7.438, 7.4665, 7.4403, 7.5915, 7.7323, 7.8284, 7.5189, 7.6486, 7.726, 7.8308, 7.866, 7.8841, 7.9628, 7.9747, 8.0303, 7.8998, 7.7878, 7.7849, 7.8317, 7.729, 7.723, 7.876, 8.0038, 8.0396, 8.002, 7.8895, 7.9867, 8.0919, 8.2429, 8.2594, 8.3404, 8.5115, 8.5078, 8.4958, 8.485, 8.5421, 8.4209, 8.2539, 8.1209, 7.9524, 8.018, 8.1344, 8.1958, 8.2287, 8.133, 8.0271, 8.1027, 8.02, 7.9551, 7.9968, 7.9034, 7.9475, 7.9667, 7.9828, 8.0558, 8.1879, 8.4703, 8.5697, 8.5195, 8.4892, 8.4327, 8.3386, 8.5286, 8.5468, 8.6025, 8.4431, 8.4989, 8.5274, 8.6449, 8.8029, 8.6591, 8.6923, 8.7441, 8.8081, 8.8524, 8.805, 8.9681, 9.0426, 8.9557, 9.0451, 8.932, 9.097, 8.9517, 8.8613, 8.9108, 8.9936, 8.9965, 9.0343, 8.8353, 8.8507, 8.9077, 8.8042, 8.958, 8.9281, 9.0444, 9.248, 9.2517, 9.2683, 9.225, 9.27, 9.2332, 9.3971, 9.3815, 9.4356, 9.5845, 9.5251, 9.5969, 9.5978, 9.5743, 9.4972, 9.5519, 9.7165, 9.6921, 9.8339, 10.0348, 10.1528, 10.4994, 10.6044</t>
+  </si>
+  <si>
+    <t>11月大幅下降，是因为分红,盘子太大</t>
+  </si>
+  <si>
+    <t>20200221</t>
+  </si>
+  <si>
+    <t>招商中证白酒指数</t>
+  </si>
+  <si>
+    <t>中证白酒指数</t>
+  </si>
+  <si>
+    <t>2.5783, 2.6102, 2.4813, 2.4797, 2.4646, 2.4959, 2.5136, 2.5175, 2.4543, 2.4701, 2.5037, 2.512, 2.5218, 2.52, 2.5213, 2.5145, 2.5181, 2.4823, 2.4666, 2.4682, 2.4805, 2.4565, 2.467, 2.513, 2.5451, 2.5535, 2.5555, 2.5235, 2.5426, 2.5717, 2.6279, 2.6242, 2.636, 2.6762, 2.6819, 2.6699, 2.6619, 2.6835, 2.6633, 2.646, 2.6177, 2.5979, 2.6131, 2.6409, 2.6492, 2.6474, 2.6303, 2.6068, 2.6202, 2.6051, 2.5961, 2.5913, 2.5745, 2.5748, 2.5857, 2.5837, 2.5881, 2.6021, 2.6563, 2.6738, 2.6703, 2.6691, 2.6575, 2.6496, 2.682, 2.6854, 2.705, 2.6775, 2.6661, 2.6756, 2.71, 2.7408, 2.7092, 2.7273, 2.7394, 2.7448, 2.766, 2.7585, 2.7802, 2.805, 2.8064, 2.8271, 2.7859, 2.831, 2.8145, 2.7952, 2.7997, 2.8172, 2.8295, 2.8367, 2.7941, 2.8, 2.8071, 2.7715, 2.7815, 2.7811, 2.7926, 2.8323, 2.8362, 2.8547, 2.8491, 2.8594, 2.8664, 2.8955, 2.888, 2.9169, 2.9527, 2.956, 2.9624, 2.9863, 2.9787, 2.953, 2.9528, 3.018, 3.0028, 3.0328, 3.0577, 3.1045, 3.1799, 3.1844</t>
+  </si>
+  <si>
+    <t>当前估值太高，近三月表现不佳</t>
+  </si>
+  <si>
+    <t>20200204</t>
+  </si>
+  <si>
+    <t>20200113</t>
+  </si>
+  <si>
+    <t>003096</t>
+  </si>
+  <si>
+    <t>中欧医疗健康混合C</t>
+  </si>
+  <si>
+    <t>3.152, 3.198, 3.009, 3.062, 3.015, 3.137, 3.189, 3.271, 3.08, 3.118, 3.123, 3.214, 3.212, 3.267, 3.331, 3.275, 3.33, 3.247, 3.216, 3.209, 3.168, 3.072, 3.021, 3.033, 3.066, 3.101, 3.013, 3.009, 3.042, 3.042, 3.081, 3.08, 3.13, 3.225, 3.212, 3.21, 3.197, 3.185, 3.121, 2.998, 2.994, 2.875, 2.88, 2.924, 2.889, 2.927, 2.864, 2.821, 2.854, 2.831, 2.843, 2.951, 2.915, 2.94, 2.893, 2.918, 2.968, 3.048, 3.156, 3.203, 3.202, 3.171, 3.181, 3.106, 3.144, 3.141, 3.101, 2.987, 3.012, 3.115, 3.135, 3.199, 3.147, 3.148, 3.172, 3.197, 3.193, 3.123, 3.208, 3.147, 3.046, 3.085, 3.078, 3.101, 3.004, 2.905, 2.936, 2.959, 2.943, 2.931, 2.872, 2.868, 2.885, 2.895, 2.989, 2.989, 3.045, 3.107, 3.127, 3.137, 3.09, 3.151, 3.135, 3.203, 3.241, 3.27, 3.333, 3.314, 3.381, 3.355, 3.361, 3.387, 3.449, 3.43, 3.409, 3.453, 3.493, 3.458, 3.519, 3.583</t>
+  </si>
+  <si>
+    <t>回撤时可买少量</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>004851</t>
+  </si>
+  <si>
+    <t>广发医疗保健股票A</t>
+  </si>
+  <si>
+    <t>3.2152, 3.2597, 3.0575, 3.1004, 3.0729, 3.1869, 3.227, 3.2848, 3.0844, 3.1128, 3.1382, 3.2436, 3.2405, 3.2839, 3.35, 3.3165, 3.3486, 3.2646, 3.2303, 3.2276, 3.1873, 3.0851, 3.0365, 3.0522, 3.0889, 3.1245, 3.0311, 2.9992, 3.0425, 3.0545, 3.0825, 3.0826, 3.1374, 3.2262, 3.215, 3.2153, 3.211, 3.1995, 3.136, 3.0173, 3.0153, 2.8813, 2.8858, 2.938, 2.918, 2.9545, 2.8956, 2.8625, 2.8952, 2.8678, 2.8824, 2.9852, 2.9429, 2.957, 2.9173, 2.9513, 3.003, 3.0766, 3.1743, 3.2257, 3.2289, 3.1996, 3.2007, 3.119, 3.1496, 3.1421, 3.1, 2.9865, 3.0163, 3.1174, 3.1394, 3.2043, 3.1506, 3.1493, 3.1779, 3.1926, 3.1877, 3.0933, 3.1695, 3.1068, 3.0119, 3.045, 3.0434, 3.0594, 2.9747, 2.8997, 2.9315, 2.955, 2.938, 2.9193, 2.8413, 2.8389, 2.8563, 2.8603, 2.9536, 2.9558, 3.0262, 3.0769, 3.0931, 3.1004, 3.0566, 3.1097, 3.0863, 3.1469, 3.193, 3.2226, 3.2807, 3.2526, 3.3082, 3.2824, 3.2794, 3.2961, 3.359, 3.3444, 3.3156, 3.3605, 3.3946, 3.3793, 3.4417, 3.4934</t>
+  </si>
+  <si>
+    <t>似乎回撤结束</t>
+  </si>
+  <si>
+    <t>000913</t>
+  </si>
+  <si>
+    <t>农银医疗保健股票</t>
+  </si>
+  <si>
+    <t>2.6766, 2.6981, 2.5528, 2.6318, 2.5847, 2.6762, 2.707, 2.7719, 2.618, 2.6548, 2.6803, 2.7635, 2.7585, 2.8148, 2.8773, 2.8418, 2.8851, 2.8252, 2.7427, 2.7392, 2.6976, 2.616, 2.5839, 2.6028, 2.6292, 2.657, 2.5767, 2.5382, 2.5766, 2.6048, 2.6134, 2.6319, 2.6839, 2.7548, 2.7404, 2.7407, 2.7411, 2.7356, 2.6623, 2.5458, 2.5351, 2.439, 2.4334, 2.4802, 2.4769, 2.5242, 2.4851, 2.4597, 2.4943, 2.4688, 2.4913, 2.5724, 2.5371, 2.5238, 2.4902, 2.5439, 2.5927, 2.6749, 2.7677, 2.8174, 2.8111, 2.7819, 2.7812, 2.7115, 2.7386, 2.7392, 2.6987, 2.5961, 2.6264, 2.7104, 2.7297, 2.7733, 2.7369, 2.7504, 2.7868, 2.8228, 2.8162, 2.7361, 2.7892, 2.7504, 2.6583, 2.6984, 2.718, 2.7249, 2.648, 2.5655, 2.5985, 2.6023, 2.5719, 2.535, 2.4539, 2.4457, 2.4385, 2.4329, 2.4954, 2.4842, 2.5441, 2.5783, 2.5786, 2.5729, 2.5285, 2.5681, 2.5446, 2.5862, 2.6198, 2.6461, 2.713, 2.6823, 2.7282, 2.6846, 2.6948, 2.6791, 2.7196, 2.7002, 2.6943, 2.746, 2.7922, 2.7569, 2.8291, 2.8634</t>
+  </si>
+  <si>
+    <t>似乎回撤结束，盈利空间太小</t>
+  </si>
+  <si>
+    <t>招商中证银行指数</t>
+  </si>
+  <si>
+    <t>1.1951, 1.1794, 1.1862, 1.1873, 1.2153, 1.206, 1.2045, 1.1899, 1.1638, 1.1559, 1.1605, 1.1738, 1.1634, 1.1642, 1.1721, 1.1977, 1.1845, 1.1929, 1.1839, 1.1943, 1.1969, 1.203, 1.1984, 1.214, 1.2438, 1.2339, 1.2247, 1.2091, 1.2113, 1.2069, 1.2089, 1.2005, 1.1994, 1.2229, 1.2153, 1.2136, 1.2072, 1.2026, 1.1987, 1.1944, 1.2107, 1.2049, 1.2023, 1.1944, 1.1986, 1.2013, 1.2052, 1.2033, 1.2248, 1.2171, 1.2052, 1.2003, 1.1875, 1.1863, 1.1907, 1.1786, 1.1768, 1.1791, 1.2059, 1.2063, 1.2062, 1.2224, 1.24, 1.2446, 1.2393, 1.2587, 1.2559, 1.2631, 1.2425, 1.2384, 1.2276, 1.2282, 1.2194, 1.219, 1.2305, 1.2466, 1.2424, 1.2392, 1.2488, 1.2564, 1.264, 1.2521, 1.2321, 1.2369, 1.25, 1.2745, 1.2826, 1.2759, 1.2989, 1.2933, 1.284, 1.2995, 1.326, 1.3158, 1.3474, 1.3415, 1.3394, 1.3245, 1.2992, 1.2921, 1.2912, 1.2843, 1.2722, 1.2836, 1.2746, 1.2774, 1.2838, 1.2698, 1.2665, 1.249, 1.2515, 1.2574, 1.2592, 1.2664, 1.2694, 1.2734, 1.2847, 1.2642, 1.2514, 1.2764</t>
+  </si>
+  <si>
+    <t>盈利空间太小</t>
+  </si>
+  <si>
+    <t>20200103</t>
+  </si>
+  <si>
+    <t>001071</t>
+  </si>
+  <si>
+    <t>华安媒体互联网混合</t>
+  </si>
+  <si>
+    <t>2.534, 2.481, 2.37, 2.359, 2.409, 2.424, 2.448, 2.431, 2.297, 2.282, 2.31, 2.365, 2.329, 2.339, 2.398, 2.381, 2.383, 2.36, 2.34, 2.383, 2.362, 2.37, 2.366, 2.389, 2.447, 2.444, 2.394, 2.377, 2.424, 2.453, 2.461, 2.439, 2.446, 2.461, 2.439, 2.43, 2.461, 2.438, 2.43, 2.392, 2.418, 2.331, 2.286, 2.305, 2.326, 2.358, 2.352, 2.355, 2.396, 2.374, 2.335, 2.34, 2.293, 2.291, 2.282, 2.288, 2.288, 2.312, 2.368, 2.371, 2.358, 2.342, 2.337, 2.331, 2.358, 2.359, 2.34, 2.317, 2.301, 2.311, 2.326, 2.318, 2.273, 2.28, 2.323, 2.348, 2.376, 2.368, 2.392, 2.397, 2.372, 2.378, 2.374, 2.406, 2.411, 2.423, 2.425, 2.445, 2.452, 2.457, 2.424, 2.435, 2.45, 2.448, 2.489, 2.498, 2.489, 2.48, 2.459, 2.461, 2.425, 2.427, 2.376, 2.388, 2.396, 2.387, 2.408, 2.409, 2.395, 2.324, 2.354, 2.344, 2.361, 2.363, 2.344, 2.356, 2.388, 2.415, 2.41, 2.429</t>
+  </si>
+  <si>
+    <t>在高点</t>
+  </si>
+  <si>
+    <t>004070</t>
+  </si>
+  <si>
+    <t>南方中证全指证券公司ETF联接C</t>
+  </si>
+  <si>
+    <t>1.3513, 1.3159, 1.2593, 1.2235, 1.2838, 1.2666, 1.28, 1.2858, 1.2046, 1.2054, 1.2043, 1.2537, 1.2403, 1.2599, 1.2874, 1.2801, 1.2734, 1.3163, 1.2759, 1.289, 1.2453, 1.2402, 1.2475, 1.2642, 1.321, 1.3172, 1.2935, 1.2715, 1.2925, 1.2849, 1.2793, 1.2477, 1.2544, 1.2887, 1.2815, 1.2909, 1.2899, 1.2803, 1.2678, 1.229, 1.253, 1.2266, 1.202, 1.2047, 1.2063, 1.2085, 1.2045, 1.1951, 1.252, 1.2489, 1.2502, 1.2398, 1.2264, 1.2459, 1.244, 1.2465, 1.2326, 1.2502, 1.2952, 1.2795, 1.2658, 1.2643, 1.2686, 1.2557, 1.2586, 1.2513, 1.2589, 1.2389, 1.2005, 1.2001, 1.2069, 1.2161, 1.178, 1.1717, 1.2013, 1.194, 1.2112, 1.2162, 1.2606, 1.2406, 1.2155, 1.2096, 1.1967, 1.2055, 1.2071, 1.2132, 1.2156, 1.2157, 1.2378, 1.2272, 1.2093, 1.2141, 1.2407, 1.2474, 1.2912, 1.2895, 1.2917, 1.2709, 1.2495, 1.2509, 1.2109, 1.208, 1.1936, 1.192, 1.1945, 1.1831, 1.2135, 1.2012, 1.2108, 1.1618, 1.1711, 1.1616, 1.1736, 1.1699, 1.1748, 1.1982, 1.2498, 1.2582, 1.2574, 1.2569</t>
+  </si>
+  <si>
+    <t>040046</t>
+  </si>
+  <si>
+    <t>华安纳斯达克100指数</t>
+  </si>
+  <si>
+    <t>宽基</t>
+  </si>
+  <si>
+    <t>3.331, 3.359, 3.363, 3.334, 3.348, 3.44, 3.4, 3.401, 3.32, 3.291, 3.355, 3.306, 3.35, 3.362, 3.416, 3.469, 3.473, 3.479, 3.508, 3.467, 3.462, 3.401, 3.482, 3.481, 3.475, 3.512, 3.545, 3.512, 3.566, 3.582, 3.609, 3.637, 3.71, 3.687, 3.707, 3.726, 3.776, 3.808, 3.611, 3.57, 3.571, 3.415, 3.513, 3.434, 3.415, 3.472, 3.515, 3.437, 3.379, 3.332, 3.346, 3.419, 3.318, 3.339, 3.421, 3.494, 3.477, 3.502, 3.579, 3.654, 3.662, 3.641, 3.609, 3.592, 3.511, 3.519, 3.509, 3.495, 3.511, 3.456, 3.498, 3.371, 3.437, 3.346, 3.346, 3.401, 3.54, 3.637, 3.609, 3.522, 3.45, 3.539, 3.528, 3.563, 3.573, 3.548, 3.515, 3.536, 3.529, 3.525, 3.581, 3.599, 3.601, 3.631, 3.636, 3.699, 3.681, 3.684, 3.697, 3.709, 3.718, 3.638, 3.658, 3.646, 3.669, 3.712, 3.728, 3.753, 3.746, 3.744, 3.744, 3.736, 3.742, 3.741, 3.773, 3.786, 3.78, 3.788, 3.74, 3.734</t>
+  </si>
+  <si>
     <t>2021-01-05</t>
   </si>
   <si>
-    <t>20200203</t>
-  </si>
-  <si>
-    <t>20200225</t>
-  </si>
-  <si>
-    <t>诺安成长混合</t>
-  </si>
-  <si>
-    <t>2.643, 2.688, 2.533, 2.362, 2.349, 2.393, 2.396, 2.41, 2.392, 2.274, 2.269, 2.273, 2.362, 2.367, 2.435, 2.496, 2.452, 2.478, 2.468, 2.381, 2.388, 2.347, 2.362, 2.342, 2.359, 2.369, 2.351, 2.282, 2.27, 2.26, 2.254, 2.232, 2.15, 2.209, 2.207, 2.191, 2.18, 2.143, 2.172, 2.209, 2.103, 2.073, 1.999, 1.991, 2.039, 2.049, 2.076, 2.07, 2.102, 2.114, 2.094, 2.071, 2.086, 2.057, 2.028, 1.999, 2.022, 2.024, 2.063, 2.161, 2.136, 2.091, 2.088, 2.086, 2.071, 2.071, 2.032, 2.024, 1.988, 2.002, 2.024, 2.027, 2.03, 2.079, 2.123, 2.149, 2.127, 2.157, 2.196, 2.349, 2.282, 2.164, 2.175, 2.204, 2.171, 2.199, 2.194, 2.192, 2.177, 2.182, 2.197, 2.192, 2.168, 2.177, 2.203, 2.221, 2.235, 2.194, 2.189, 2.211, 2.214, 2.173, 2.205, 2.206, 2.213, 2.18, 2.149, 2.162, 2.141, 2.17, 2.113, 2.155, 2.153, 2.119, 2.108, 2.116, 2.144, 2.174, 2.217, 2.295</t>
-  </si>
-  <si>
-    <t>银河创新成长混合</t>
-  </si>
-  <si>
-    <t>7.3895, 7.3127, 6.8763, 6.3389, 6.1974, 6.3818, 6.4328, 6.478, 6.4336, 6.0624, 6.018, 6.0635, 6.3614, 6.3243, 6.5453, 6.7904, 6.6354, 6.756, 6.7234, 6.4911, 6.4889, 6.3207, 6.3257, 6.2768, 6.3334, 6.4443, 6.4213, 6.1766, 6.1599, 6.1111, 6.1555, 6.0633, 5.833, 5.9723, 5.9773, 6.0017, 5.989, 5.924, 5.8692, 5.9224, 5.6384, 5.5591, 5.3051, 5.2485, 5.404, 5.4468, 5.5094, 5.4471, 5.514, 5.5847, 5.5317, 5.4457, 5.5056, 5.3769, 5.3262, 5.2561, 5.3186, 5.2872, 5.4591, 5.7283, 5.6775, 5.5394, 5.4914, 5.4424, 5.4113, 5.4451, 5.3135, 5.2977, 5.1902, 5.1804, 5.2154, 5.2541, 5.254, 5.3489, 5.4773, 5.5826, 5.5178, 5.6117, 5.7219, 6.0954, 5.9564, 5.6191, 5.6403, 5.7311, 5.6477, 5.7238, 5.7, 5.6775, 5.6359, 5.6572, 5.7485, 5.7481, 5.6631, 5.7268, 5.7802, 5.8794, 5.9804, 5.8594, 5.7919, 5.821, 5.8649, 5.7155, 5.8557, 5.8584, 5.9627, 5.8296, 5.712, 5.7815, 5.7049, 5.8048, 5.6411, 5.7838, 5.7082, 5.6109, 5.5559, 5.6228, 5.7464, 5.8587, 5.8824, 6.1739</t>
-  </si>
-  <si>
-    <t>003745</t>
-  </si>
-  <si>
-    <t>广发多元新兴股票</t>
-  </si>
-  <si>
-    <t>2.6317, 2.5944, 2.5239, 2.3666, 2.3458, 2.4078, 2.4516, 2.4759, 2.5301, 2.3842, 2.3751, 2.3773, 2.4831, 2.5069, 2.5583, 2.6277, 2.5932, 2.609, 2.5501, 2.5282, 2.5446, 2.4789, 2.4296, 2.4084, 2.44, 2.4677, 2.4718, 2.3862, 2.3477, 2.3762, 2.3936, 2.3925, 2.3144, 2.3573, 2.3906, 2.3838, 2.4033, 2.3811, 2.3675, 2.3831, 2.2856, 2.2873, 2.1744, 2.1566, 2.2357, 2.26, 2.2796, 2.2633, 2.2829, 2.2949, 2.2747, 2.2473, 2.3219, 2.2474, 2.2453, 2.2451, 2.2764, 2.2746, 2.3718, 2.4516, 2.4409, 2.4002, 2.3683, 2.3501, 2.2892, 2.3163, 2.2833, 2.2574, 2.2001, 2.2416, 2.2778, 2.2905, 2.2965, 2.3165, 2.3428, 2.3536, 2.3364, 2.3954, 2.3778, 2.4801, 2.4588, 2.368, 2.3652, 2.3722, 2.3611, 2.3254, 2.3032, 2.3279, 2.3325, 2.3459, 2.3372, 2.3109, 2.2772, 2.2815, 2.2933, 2.3337, 2.3334, 2.3255, 2.3226, 2.3435, 2.3406, 2.3051, 2.326, 2.2934, 2.336, 2.3589, 2.3395, 2.3498, 2.3722, 2.4593, 2.4055, 2.4809, 2.4631, 2.5001, 2.4921, 2.4543, 2.5011, 2.5545, 2.6599, 2.7069</t>
-  </si>
-  <si>
-    <t>银华内需精选混合(LOF)</t>
-  </si>
-  <si>
-    <t>3.517, 3.469, 3.385, 3.193, 3.231, 3.274, 3.29, 3.349, 3.323, 3.233, 3.248, 3.318, 3.374, 3.369, 3.394, 3.502, 3.485, 3.613, 3.619, 3.572, 3.509, 3.45, 3.38, 3.442, 3.448, 3.498, 3.563, 3.54, 3.463, 3.476, 3.552, 3.498, 3.446, 3.479, 3.54, 3.555, 3.591, 3.568, 3.484, 3.446, 3.292, 3.258, 3.127, 3.114, 3.128, 3.131, 3.154, 3.109, 3.075, 3.126, 3.111, 3.046, 3.068, 2.998, 2.991, 2.942, 2.983, 2.963, 3.021, 3.123, 3.183, 3.126, 3.094, 3.082, 3.069, 3.068, 3.046, 3, 2.93, 2.931, 2.985, 2.97, 2.971, 2.903, 2.93, 2.989, 2.974, 2.988, 2.969, 3.023, 2.963, 2.917, 2.904, 2.91, 2.978, 2.962, 2.968, 3.009, 3.013, 3.02, 3.017, 2.951, 2.968, 3.002, 3.019, 3.045, 3.059, 3.101, 3.116, 3.138, 3.118, 3.068, 3.048, 3.011, 3.08, 3.075, 3.054, 3.084, 3.07, 3.147, 3.056, 3.094, 3.059, 3.075, 3.114, 3.082, 3.098, 3.141, 3.275, 3.33</t>
-  </si>
-  <si>
-    <t>有机会</t>
-  </si>
-  <si>
-    <t>华宝中证医疗指数</t>
-  </si>
-  <si>
-    <t>中证医疗指数</t>
-  </si>
-  <si>
-    <t>0.7393, 0.729, 0.7334, 0.7085, 0.7157, 0.7131, 0.7293, 0.7359, 0.7462, 0.7134, 0.7184, 0.7246, 0.7355, 0.7334, 0.7408, 0.7499, 0.748, 0.7527, 0.7432, 0.7336, 0.7349, 0.7264, 0.7126, 0.7094, 0.7131, 0.7168, 0.7204, 0.7078, 0.7057, 0.7106, 0.7172, 0.7209, 0.7217, 0.7302, 0.7434, 0.7406, 0.7436, 0.7434, 0.7405, 0.7292, 0.7108, 0.7094, 0.692, 0.6882, 0.6952, 0.6967, 0.7021, 0.6922, 0.6873, 0.6927, 0.6873, 0.692, 0.7029, 0.6947, 0.6976, 0.6932, 0.7015, 0.7092, 0.7217, 0.7416, 0.7483, 0.749, 0.7429, 0.7445, 0.7308, 0.7365, 0.736, 0.7325, 0.7181, 0.7228, 0.7368, 0.7419, 0.7545, 0.7436, 0.7429, 0.7487, 0.7493, 0.745, 0.7328, 0.7471, 0.7353, 0.7221, 0.727, 0.7271, 0.7315, 0.716, 0.7009, 0.7046, 0.71, 0.7083, 0.7041, 0.6898, 0.6908, 0.6922, 0.6924, 0.7073, 0.7066, 0.7174, 0.7237, 0.7233, 0.7257, 0.7173, 0.7269, 0.722, 0.7318, 0.7369, 0.7397, 0.7471, 0.7413, 0.7519, 0.7525, 0.7506, 0.7483, 0.7573, 0.7547, 0.7539, 0.7605, 0.7684, 0.7661, 0.7761</t>
-  </si>
-  <si>
-    <t>本次回撤结束就买，同类前4，指数到8700左右时买</t>
-  </si>
-  <si>
-    <t>006113</t>
-  </si>
-  <si>
-    <t>汇添富创新医药混合</t>
-  </si>
-  <si>
-    <t>2.6735, 2.6504, 2.6975, 2.5448, 2.598, 2.5602, 2.6698, 2.7142, 2.8001, 2.6471, 2.681, 2.6854, 2.7585, 2.7583, 2.7902, 2.834, 2.8094, 2.8453, 2.7782, 2.7494, 2.7426, 2.7091, 2.6329, 2.593, 2.6015, 2.6191, 2.6634, 2.6037, 2.5946, 2.6301, 2.6345, 2.6616, 2.6671, 2.7144, 2.7997, 2.7868, 2.7954, 2.7915, 2.7802, 2.7255, 2.6176, 2.6144, 2.5149, 2.5177, 2.5657, 2.551, 2.582, 2.5358, 2.4922, 2.5187, 2.4974, 2.5108, 2.5869, 2.5534, 2.5656, 2.5325, 2.5541, 2.5923, 2.6432, 2.7272, 2.7669, 2.7635, 2.7419, 2.7427, 2.6787, 2.7151, 2.72, 2.6934, 2.604, 2.6304, 2.7017, 2.7259, 2.7772, 2.7449, 2.7548, 2.7841, 2.8093, 2.8011, 2.7338, 2.7784, 2.7433, 2.6636, 2.6866, 2.6857, 2.7034, 2.6301, 2.5468, 2.5729, 2.5924, 2.5771, 2.5525, 2.4848, 2.4915, 2.5036, 2.5048, 2.58, 2.574, 2.626, 2.67, 2.6779, 2.6898, 2.6531, 2.6954, 2.6749, 2.7246, 2.7629, 2.7896, 2.8249, 2.7981, 2.847, 2.8232, 2.8273, 2.8498, 2.9173, 2.8915, 2.8778, 2.9188, 2.9546, 2.9261, 2.9737</t>
-  </si>
-  <si>
-    <t>1808成立</t>
-  </si>
-  <si>
-    <t>001480</t>
-  </si>
-  <si>
-    <t>财通成长优选混合</t>
-  </si>
-  <si>
-    <t>1.991, 1.981, 1.884, 1.804, 1.833, 1.848, 1.854, 1.872, 1.854, 1.739, 1.736, 1.768, 1.827, 1.806, 1.848, 1.897, 1.878, 1.883, 1.869, 1.832, 1.805, 1.771, 1.769, 1.757, 1.778, 1.798, 1.79, 1.762, 1.755, 1.792, 1.845, 1.861, 1.805, 1.822, 1.855, 1.845, 1.865, 1.863, 1.841, 1.82, 1.755, 1.745, 1.682, 1.664, 1.709, 1.743, 1.753, 1.724, 1.74, 1.762, 1.748, 1.73, 1.758, 1.714, 1.724, 1.7, 1.723, 1.742, 1.804, 1.848, 1.864, 1.84, 1.821, 1.799, 1.793, 1.807, 1.77, 1.753, 1.722, 1.74, 1.791, 1.805, 1.783, 1.727, 1.743, 1.77, 1.777, 1.829, 1.825, 1.872, 1.839, 1.785, 1.794, 1.774, 1.777, 1.757, 1.75, 1.752, 1.763, 1.77, 1.781, 1.754, 1.747, 1.764, 1.768, 1.797, 1.805, 1.791, 1.809, 1.808, 1.814, 1.792, 1.799, 1.772, 1.777, 1.794, 1.788, 1.791, 1.789, 1.83, 1.776, 1.797, 1.799, 1.834, 1.828, 1.824, 1.831, 1.865, 1.879, 1.915</t>
-  </si>
-  <si>
-    <t>最近涨了不少</t>
-  </si>
-  <si>
-    <t>006879</t>
-  </si>
-  <si>
-    <t>华安智能生活混合</t>
-  </si>
-  <si>
-    <t>2.0624, 2.0453, 1.9998, 1.9128, 1.9025, 1.9429, 1.9548, 1.9739, 1.9587, 1.8501, 1.8394, 1.8619, 1.9061, 1.8776, 1.8852, 1.9322, 1.9183, 1.9205, 1.901, 1.8856, 1.9198, 1.9024, 1.9081, 1.9051, 1.9242, 1.9715, 1.9693, 1.9289, 1.9142, 1.9513, 1.9754, 1.9824, 1.9634, 1.9693, 1.9814, 1.9646, 1.9584, 1.9827, 1.9637, 1.9575, 1.9267, 1.9472, 1.8769, 1.8399, 1.8556, 1.8732, 1.8986, 1.8937, 1.8957, 1.9287, 1.9108, 1.8798, 1.8833, 1.846, 1.8438, 1.8355, 1.8409, 1.8398, 1.86, 1.9067, 1.9087, 1.8972, 1.8833, 1.8812, 1.8769, 1.8986, 1.8989, 1.8832, 1.8642, 1.8517, 1.8594, 1.8717, 1.8658, 1.8301, 1.835, 1.8704, 1.8894, 1.9171, 1.907, 1.9292, 1.9325, 1.9092, 1.9184, 1.9164, 1.9433, 1.9465, 1.9629, 1.9647, 1.9815, 1.9886, 1.9945, 1.9669, 1.9767, 1.9881, 1.9838, 2.017, 2.0225, 2.0141, 2.01, 1.9933, 1.9943, 1.9694, 1.9698, 1.9312, 1.9422, 1.9488, 1.9415, 1.959, 1.9588, 1.949, 1.89, 1.9164, 1.9063, 1.9203, 1.9219, 1.9063, 1.9166, 1.9431, 1.9657, 1.962</t>
-  </si>
-  <si>
-    <t>1905成立</t>
-  </si>
-  <si>
-    <t>20200218</t>
-  </si>
-  <si>
-    <t>007873</t>
-  </si>
-  <si>
-    <t>华宝科技ETF联接A</t>
-  </si>
-  <si>
-    <t>1.6703, 1.6401, 1.6109, 1.5208, 1.5348, 1.5556, 1.5706, 1.5889, 1.5779, 1.4959, 1.511, 1.5292, 1.5825, 1.5651, 1.5891, 1.6166, 1.5967, 1.6113, 1.6017, 1.5677, 1.5569, 1.5374, 1.5308, 1.522, 1.5443, 1.569, 1.5662, 1.5205, 1.5179, 1.5259, 1.5542, 1.5527, 1.5254, 1.5364, 1.5651, 1.554, 1.5639, 1.5715, 1.5536, 1.5385, 1.488, 1.4877, 1.4411, 1.434, 1.4644, 1.4655, 1.4718, 1.4466, 1.4416, 1.4656, 1.4571, 1.4534, 1.4664, 1.4364, 1.4372, 1.4392, 1.4552, 1.4529, 1.5022, 1.5411, 1.5494, 1.5253, 1.5183, 1.5056, 1.493, 1.5072, 1.4803, 1.4759, 1.4485, 1.4643, 1.4787, 1.5002, 1.4997, 1.4752, 1.4856, 1.5055, 1.5089, 1.5334, 1.5308, 1.5651, 1.541, 1.5014, 1.5153, 1.5098, 1.5056, 1.492, 1.4797, 1.4946, 1.4956, 1.489, 1.4828, 1.4615, 1.4529, 1.4673, 1.4698, 1.4968, 1.4956, 1.5045, 1.5128, 1.5047, 1.5038, 1.4864, 1.4894, 1.4739, 1.4825, 1.5018, 1.5009, 1.5214, 1.5159, 1.5369, 1.5058, 1.5252, 1.521, 1.5342, 1.5173, 1.5244, 1.5573, 1.5747, 1.5907, 1.6444</t>
-  </si>
-  <si>
-    <t>1908成立</t>
-  </si>
-  <si>
-    <t>007490</t>
-  </si>
-  <si>
-    <t>南方信息创新混合A</t>
-  </si>
-  <si>
-    <t>2.5006, 2.4419, 2.3549, 2.2006, 2.2053, 2.2402, 2.2712, 2.2838, 2.2893, 2.157, 2.1202, 2.1693, 2.2606, 2.2439, 2.3154, 2.4009, 2.3438, 2.3681, 2.345, 2.2837, 2.2675, 2.2287, 2.2034, 2.1973, 2.2269, 2.2429, 2.25, 2.1756, 2.1637, 2.1798, 2.2227, 2.213, 2.1443, 2.1901, 2.2036, 2.1928, 2.2221, 2.2477, 2.2088, 2.1854, 2.1031, 2.0931, 2.0307, 1.999, 2.0561, 2.1019, 2.1305, 2.105, 2.1194, 2.1549, 2.1249, 2.1167, 2.1434, 2.0935, 2.0757, 2.0763, 2.1185, 2.1204, 2.1952, 2.2511, 2.2561, 2.2145, 2.1862, 2.1695, 2.1534, 2.1741, 2.13, 2.1166, 2.0605, 2.066, 2.1012, 2.1312, 2.1203, 2.0723, 2.0784, 2.13, 2.114, 2.1888, 2.1942, 2.2882, 2.2092, 2.1118, 2.1344, 2.1353, 2.1092, 2.102, 2.1199, 2.1323, 2.1226, 2.1224, 2.1198, 2.0894, 2.093, 2.1074, 2.1193, 2.1485, 2.1605, 2.1621, 2.1656, 2.1709, 2.1661, 2.131, 2.1324, 2.1295, 2.1307, 2.1419, 2.1246, 2.1433, 2.1346, 2.1495, 2.1196, 2.1464, 2.1234, 2.12, 2.1041, 2.1387, 2.1606, 2.1957, 2.2191, 2.2686</t>
-  </si>
-  <si>
-    <t>1906成立</t>
-  </si>
-  <si>
-    <t>050026</t>
-  </si>
-  <si>
-    <t>博时医疗保健行业混合A</t>
-  </si>
-  <si>
-    <t>4.333, 4.258, 4.274, 4.051, 4.119, 4.104, 4.248, 4.33, 4.448, 4.206, 4.233, 4.255, 4.378, 4.358, 4.443, 4.518, 4.49, 4.577, 4.457, 4.389, 4.394, 4.337, 4.214, 4.163, 4.178, 4.216, 4.247, 4.138, 4.102, 4.161, 4.175, 4.205, 4.193, 4.276, 4.371, 4.327, 4.323, 4.312, 4.305, 4.231, 4.083, 4.098, 3.938, 3.914, 3.977, 3.96, 4.004, 3.94, 3.909, 3.958, 3.911, 3.929, 4.016, 3.961, 3.978, 3.928, 3.968, 4.047, 4.128, 4.243, 4.299, 4.326, 4.284, 4.294, 4.195, 4.216, 4.219, 4.167, 4.027, 4.064, 4.154, 4.18, 4.285, 4.214, 4.212, 4.246, 4.231, 4.208, 4.106, 4.156, 4.075, 3.957, 3.981, 3.974, 3.997, 3.922, 3.84, 3.871, 3.892, 3.875, 3.85, 3.754, 3.75, 3.76, 3.751, 3.84, 3.831, 3.899, 3.961, 3.964, 3.975, 3.917, 3.977, 3.95, 4.029, 4.08, 4.094, 4.184, 4.146, 4.23, 4.199, 4.185, 4.175, 4.252, 4.218, 4.212, 4.284, 4.345, 4.333, 4.421</t>
-  </si>
-  <si>
-    <t>易方达中小盘混合</t>
-  </si>
-  <si>
-    <t>7.8683, 7.8604, 7.9635, 7.438, 7.4665, 7.4403, 7.5915, 7.7323, 7.8284, 7.5189, 7.6486, 7.726, 7.8308, 7.866, 7.8841, 7.9628, 7.9747, 8.0303, 7.8998, 7.7878, 7.7849, 7.8317, 7.729, 7.723, 7.876, 8.0038, 8.0396, 8.002, 7.8895, 7.9867, 8.0919, 8.2429, 8.2594, 8.3404, 8.5115, 8.5078, 8.4958, 8.485, 8.5421, 8.4209, 8.2539, 8.1209, 7.9524, 8.018, 8.1344, 8.1958, 8.2287, 8.133, 8.0271, 8.1027, 8.02, 7.9551, 7.9968, 7.9034, 7.9475, 7.9667, 7.9828, 8.0558, 8.1879, 8.4703, 8.5697, 8.5195, 8.4892, 8.4327, 8.3386, 8.5286, 8.5468, 8.6025, 8.4431, 8.4989, 8.5274, 8.6449, 8.8029, 8.6591, 8.6923, 8.7441, 8.8081, 8.8524, 8.805, 8.9681, 9.0426, 8.9557, 9.0451, 8.932, 9.097, 8.9517, 8.8613, 8.9108, 8.9936, 8.9965, 9.0343, 8.8353, 8.8507, 8.9077, 8.8042, 8.958, 8.9281, 9.0444, 9.248, 9.2517, 9.2683, 9.225, 9.27, 9.2332, 9.3971, 9.3815, 9.4356, 9.5845, 9.5251, 9.5969, 9.5978, 9.5743, 9.4972, 9.5519, 9.7165, 9.6921, 9.8339, 10.0348, 10.1528, 10.4994</t>
-  </si>
-  <si>
-    <t>11月大幅下降，是因为分红,盘子太大</t>
-  </si>
-  <si>
-    <t>20200221</t>
-  </si>
-  <si>
-    <t>招商中证白酒指数</t>
-  </si>
-  <si>
-    <t>中证白酒指数</t>
-  </si>
-  <si>
-    <t>2.5745, 2.5783, 2.6102, 2.4813, 2.4797, 2.4646, 2.4959, 2.5136, 2.5175, 2.4543, 2.4701, 2.5037, 2.512, 2.5218, 2.52, 2.5213, 2.5145, 2.5181, 2.4823, 2.4666, 2.4682, 2.4805, 2.4565, 2.467, 2.513, 2.5451, 2.5535, 2.5555, 2.5235, 2.5426, 2.5717, 2.6279, 2.6242, 2.636, 2.6762, 2.6819, 2.6699, 2.6619, 2.6835, 2.6633, 2.646, 2.6177, 2.5979, 2.6131, 2.6409, 2.6492, 2.6474, 2.6303, 2.6068, 2.6202, 2.6051, 2.5961, 2.5913, 2.5745, 2.5748, 2.5857, 2.5837, 2.5881, 2.6021, 2.6563, 2.6738, 2.6703, 2.6691, 2.6575, 2.6496, 2.682, 2.6854, 2.705, 2.6775, 2.6661, 2.6756, 2.71, 2.7408, 2.7092, 2.7273, 2.7394, 2.7448, 2.766, 2.7585, 2.7802, 2.805, 2.8064, 2.8271, 2.7859, 2.831, 2.8145, 2.7952, 2.7997, 2.8172, 2.8295, 2.8367, 2.7941, 2.8, 2.8071, 2.7715, 2.7815, 2.7811, 2.7926, 2.8323, 2.8362, 2.8547, 2.8491, 2.8594, 2.8664, 2.8955, 2.888, 2.9169, 2.9527, 2.956, 2.9624, 2.9863, 2.9787, 2.953, 2.9528, 3.018, 3.0028, 3.0328, 3.0577, 3.1045, 3.1799</t>
-  </si>
-  <si>
-    <t>当前估值太高，近三月表现不佳</t>
-  </si>
-  <si>
-    <t>20200204</t>
-  </si>
-  <si>
-    <t>20200113</t>
-  </si>
-  <si>
-    <t>003096</t>
-  </si>
-  <si>
-    <t>中欧医疗健康混合C</t>
-  </si>
-  <si>
-    <t>3.168, 3.152, 3.198, 3.009, 3.062, 3.015, 3.137, 3.189, 3.271, 3.08, 3.118, 3.123, 3.214, 3.212, 3.267, 3.331, 3.275, 3.33, 3.247, 3.216, 3.209, 3.168, 3.072, 3.021, 3.033, 3.066, 3.101, 3.013, 3.009, 3.042, 3.042, 3.081, 3.08, 3.13, 3.225, 3.212, 3.21, 3.197, 3.185, 3.121, 2.998, 2.994, 2.875, 2.88, 2.924, 2.889, 2.927, 2.864, 2.821, 2.854, 2.831, 2.843, 2.951, 2.915, 2.94, 2.893, 2.918, 2.968, 3.048, 3.156, 3.203, 3.202, 3.171, 3.181, 3.106, 3.144, 3.141, 3.101, 2.987, 3.012, 3.115, 3.135, 3.199, 3.147, 3.148, 3.172, 3.197, 3.193, 3.123, 3.208, 3.147, 3.046, 3.085, 3.078, 3.101, 3.004, 2.905, 2.936, 2.959, 2.943, 2.931, 2.872, 2.868, 2.885, 2.895, 2.989, 2.989, 3.045, 3.107, 3.127, 3.137, 3.09, 3.151, 3.135, 3.203, 3.241, 3.27, 3.333, 3.314, 3.381, 3.355, 3.361, 3.387, 3.449, 3.43, 3.409, 3.453, 3.493, 3.458, 3.519</t>
-  </si>
-  <si>
-    <t>回撤时可买少量</t>
-  </si>
-  <si>
-    <t>少</t>
-  </si>
-  <si>
-    <t>004851</t>
-  </si>
-  <si>
-    <t>广发医疗保健股票A</t>
-  </si>
-  <si>
-    <t>3.2466, 3.2152, 3.2597, 3.0575, 3.1004, 3.0729, 3.1869, 3.227, 3.2848, 3.0844, 3.1128, 3.1382, 3.2436, 3.2405, 3.2839, 3.35, 3.3165, 3.3486, 3.2646, 3.2303, 3.2276, 3.1873, 3.0851, 3.0365, 3.0522, 3.0889, 3.1245, 3.0311, 2.9992, 3.0425, 3.0545, 3.0825, 3.0826, 3.1374, 3.2262, 3.215, 3.2153, 3.211, 3.1995, 3.136, 3.0173, 3.0153, 2.8813, 2.8858, 2.938, 2.918, 2.9545, 2.8956, 2.8625, 2.8952, 2.8678, 2.8824, 2.9852, 2.9429, 2.957, 2.9173, 2.9513, 3.003, 3.0766, 3.1743, 3.2257, 3.2289, 3.1996, 3.2007, 3.119, 3.1496, 3.1421, 3.1, 2.9865, 3.0163, 3.1174, 3.1394, 3.2043, 3.1506, 3.1493, 3.1779, 3.1926, 3.1877, 3.0933, 3.1695, 3.1068, 3.0119, 3.045, 3.0434, 3.0594, 2.9747, 2.8997, 2.9315, 2.955, 2.938, 2.9193, 2.8413, 2.8389, 2.8563, 2.8603, 2.9536, 2.9558, 3.0262, 3.0769, 3.0931, 3.1004, 3.0566, 3.1097, 3.0863, 3.1469, 3.193, 3.2226, 3.2807, 3.2526, 3.3082, 3.2824, 3.2794, 3.2961, 3.359, 3.3444, 3.3156, 3.3605, 3.3946, 3.3793, 3.4417</t>
-  </si>
-  <si>
-    <t>似乎回撤结束</t>
-  </si>
-  <si>
-    <t>000913</t>
-  </si>
-  <si>
-    <t>农银医疗保健股票</t>
-  </si>
-  <si>
-    <t>2.7188, 2.6766, 2.6981, 2.5528, 2.6318, 2.5847, 2.6762, 2.707, 2.7719, 2.618, 2.6548, 2.6803, 2.7635, 2.7585, 2.8148, 2.8773, 2.8418, 2.8851, 2.8252, 2.7427, 2.7392, 2.6976, 2.616, 2.5839, 2.6028, 2.6292, 2.657, 2.5767, 2.5382, 2.5766, 2.6048, 2.6134, 2.6319, 2.6839, 2.7548, 2.7404, 2.7407, 2.7411, 2.7356, 2.6623, 2.5458, 2.5351, 2.439, 2.4334, 2.4802, 2.4769, 2.5242, 2.4851, 2.4597, 2.4943, 2.4688, 2.4913, 2.5724, 2.5371, 2.5238, 2.4902, 2.5439, 2.5927, 2.6749, 2.7677, 2.8174, 2.8111, 2.7819, 2.7812, 2.7115, 2.7386, 2.7392, 2.6987, 2.5961, 2.6264, 2.7104, 2.7297, 2.7733, 2.7369, 2.7504, 2.7868, 2.8228, 2.8162, 2.7361, 2.7892, 2.7504, 2.6583, 2.6984, 2.718, 2.7249, 2.648, 2.5655, 2.5985, 2.6023, 2.5719, 2.535, 2.4539, 2.4457, 2.4385, 2.4329, 2.4954, 2.4842, 2.5441, 2.5783, 2.5786, 2.5729, 2.5285, 2.5681, 2.5446, 2.5862, 2.6198, 2.6461, 2.713, 2.6823, 2.7282, 2.6846, 2.6948, 2.6791, 2.7196, 2.7002, 2.6943, 2.746, 2.7922, 2.7569, 2.8291</t>
-  </si>
-  <si>
-    <t>似乎回撤结束，盈利空间太小</t>
-  </si>
-  <si>
-    <t>招商中证银行指数</t>
-  </si>
-  <si>
-    <t>1.2109, 1.1951, 1.1794, 1.1862, 1.1873, 1.2153, 1.206, 1.2045, 1.1899, 1.1638, 1.1559, 1.1605, 1.1738, 1.1634, 1.1642, 1.1721, 1.1977, 1.1845, 1.1929, 1.1839, 1.1943, 1.1969, 1.203, 1.1984, 1.214, 1.2438, 1.2339, 1.2247, 1.2091, 1.2113, 1.2069, 1.2089, 1.2005, 1.1994, 1.2229, 1.2153, 1.2136, 1.2072, 1.2026, 1.1987, 1.1944, 1.2107, 1.2049, 1.2023, 1.1944, 1.1986, 1.2013, 1.2052, 1.2033, 1.2248, 1.2171, 1.2052, 1.2003, 1.1875, 1.1863, 1.1907, 1.1786, 1.1768, 1.1791, 1.2059, 1.2063, 1.2062, 1.2224, 1.24, 1.2446, 1.2393, 1.2587, 1.2559, 1.2631, 1.2425, 1.2384, 1.2276, 1.2282, 1.2194, 1.219, 1.2305, 1.2466, 1.2424, 1.2392, 1.2488, 1.2564, 1.264, 1.2521, 1.2321, 1.2369, 1.25, 1.2745, 1.2826, 1.2759, 1.2989, 1.2933, 1.284, 1.2995, 1.326, 1.3158, 1.3474, 1.3415, 1.3394, 1.3245, 1.2992, 1.2921, 1.2912, 1.2843, 1.2722, 1.2836, 1.2746, 1.2774, 1.2838, 1.2698, 1.2665, 1.249, 1.2515, 1.2574, 1.2592, 1.2664, 1.2694, 1.2734, 1.2847, 1.2642, 1.2514</t>
-  </si>
-  <si>
-    <t>盈利空间太小</t>
-  </si>
-  <si>
-    <t>20200103</t>
-  </si>
-  <si>
-    <t>001071</t>
-  </si>
-  <si>
-    <t>华安媒体互联网混合</t>
-  </si>
-  <si>
-    <t>2.555, 2.534, 2.481, 2.37, 2.359, 2.409, 2.424, 2.448, 2.431, 2.297, 2.282, 2.31, 2.365, 2.329, 2.339, 2.398, 2.381, 2.383, 2.36, 2.34, 2.383, 2.362, 2.37, 2.366, 2.389, 2.447, 2.444, 2.394, 2.377, 2.424, 2.453, 2.461, 2.439, 2.446, 2.461, 2.439, 2.43, 2.461, 2.438, 2.43, 2.392, 2.418, 2.331, 2.286, 2.305, 2.326, 2.358, 2.352, 2.355, 2.396, 2.374, 2.335, 2.34, 2.293, 2.291, 2.282, 2.288, 2.288, 2.312, 2.368, 2.371, 2.358, 2.342, 2.337, 2.331, 2.358, 2.359, 2.34, 2.317, 2.301, 2.311, 2.326, 2.318, 2.273, 2.28, 2.323, 2.348, 2.376, 2.368, 2.392, 2.397, 2.372, 2.378, 2.374, 2.406, 2.411, 2.423, 2.425, 2.445, 2.452, 2.457, 2.424, 2.435, 2.45, 2.448, 2.489, 2.498, 2.489, 2.48, 2.459, 2.461, 2.425, 2.427, 2.376, 2.388, 2.396, 2.387, 2.408, 2.409, 2.395, 2.324, 2.354, 2.344, 2.361, 2.363, 2.344, 2.356, 2.388, 2.415, 2.41</t>
-  </si>
-  <si>
-    <t>在高点</t>
-  </si>
-  <si>
-    <t>004070</t>
-  </si>
-  <si>
-    <t>南方中证全指证券公司ETF联接C</t>
-  </si>
-  <si>
-    <t>1.3479, 1.3513, 1.3159, 1.2593, 1.2235, 1.2838, 1.2666, 1.28, 1.2858, 1.2046, 1.2054, 1.2043, 1.2537, 1.2403, 1.2599, 1.2874, 1.2801, 1.2734, 1.3163, 1.2759, 1.289, 1.2453, 1.2402, 1.2475, 1.2642, 1.321, 1.3172, 1.2935, 1.2715, 1.2925, 1.2849, 1.2793, 1.2477, 1.2544, 1.2887, 1.2815, 1.2909, 1.2899, 1.2803, 1.2678, 1.229, 1.253, 1.2266, 1.202, 1.2047, 1.2063, 1.2085, 1.2045, 1.1951, 1.252, 1.2489, 1.2502, 1.2398, 1.2264, 1.2459, 1.244, 1.2465, 1.2326, 1.2502, 1.2952, 1.2795, 1.2658, 1.2643, 1.2686, 1.2557, 1.2586, 1.2513, 1.2589, 1.2389, 1.2005, 1.2001, 1.2069, 1.2161, 1.178, 1.1717, 1.2013, 1.194, 1.2112, 1.2162, 1.2606, 1.2406, 1.2155, 1.2096, 1.1967, 1.2055, 1.2071, 1.2132, 1.2156, 1.2157, 1.2378, 1.2272, 1.2093, 1.2141, 1.2407, 1.2474, 1.2912, 1.2895, 1.2917, 1.2709, 1.2495, 1.2509, 1.2109, 1.208, 1.1936, 1.192, 1.1945, 1.1831, 1.2135, 1.2012, 1.2108, 1.1618, 1.1711, 1.1616, 1.1736, 1.1699, 1.1748, 1.1982, 1.2498, 1.2582, 1.2574</t>
-  </si>
-  <si>
-    <t>040046</t>
-  </si>
-  <si>
-    <t>华安纳斯达克100指数</t>
-  </si>
-  <si>
-    <t>宽基</t>
-  </si>
-  <si>
-    <t>3.405, 3.331, 3.359, 3.363, 3.334, 3.348, 3.44, 3.4, 3.401, 3.32, 3.291, 3.355, 3.306, 3.35, 3.362, 3.416, 3.469, 3.473, 3.479, 3.508, 3.467, 3.462, 3.401, 3.482, 3.481, 3.475, 3.512, 3.545, 3.512, 3.566, 3.582, 3.609, 3.637, 3.71, 3.687, 3.707, 3.726, 3.776, 3.808, 3.611, 3.57, 3.571, 3.415, 3.513, 3.434, 3.415, 3.472, 3.515, 3.437, 3.379, 3.332, 3.346, 3.419, 3.318, 3.339, 3.421, 3.494, 3.477, 3.502, 3.579, 3.654, 3.662, 3.641, 3.609, 3.592, 3.511, 3.519, 3.509, 3.495, 3.511, 3.456, 3.498, 3.371, 3.437, 3.346, 3.346, 3.401, 3.54, 3.637, 3.609, 3.522, 3.45, 3.539, 3.528, 3.563, 3.573, 3.548, 3.515, 3.536, 3.529, 3.525, 3.581, 3.599, 3.601, 3.631, 3.636, 3.699, 3.681, 3.684, 3.697, 3.709, 3.718, 3.638, 3.658, 3.646, 3.669, 3.712, 3.728, 3.753, 3.746, 3.744, 3.744, 3.736, 3.742, 3.741, 3.773, 3.786, 3.78, 3.788, 3.74</t>
-  </si>
-  <si>
-    <t>2021-01-04</t>
-  </si>
-  <si>
     <t>20191008</t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>国泰中证申万证券行业指数</t>
   </si>
   <si>
-    <t>1.3932, 1.3863, 1.3512, 1.3008, 1.2608, 1.3323, 1.312, 1.3232, 1.3259, 1.2471, 1.2491, 1.2475, 1.2933, 1.2816, 1.3003, 1.3247, 1.3198, 1.3094, 1.3526, 1.3159, 1.3348, 1.2922, 1.2889, 1.2961, 1.3123, 1.3753, 1.3727, 1.3512, 1.3265, 1.345, 1.3382, 1.3302, 1.2985, 1.3053, 1.3413, 1.3329, 1.3429, 1.3389, 1.3311, 1.3187, 1.2807, 1.3054, 1.2806, 1.2584, 1.2604, 1.2616, 1.2634, 1.2614, 1.2504, 1.3072, 1.3051, 1.3061, 1.2958, 1.2828, 1.3026, 1.3017, 1.3022, 1.2873, 1.3035, 1.3473, 1.3304, 1.3158, 1.3152, 1.3191, 1.3043, 1.3028, 1.2971, 1.3069, 1.289, 1.2507, 1.2501, 1.2579, 1.2679, 1.2301, 1.2207, 1.2504, 1.2426, 1.2582, 1.2631, 1.3053, 1.284, 1.2626, 1.2549, 1.2425, 1.2516, 1.253, 1.2588, 1.2571, 1.2583, 1.2818, 1.2726, 1.2547, 1.2581, 1.2838, 1.287, 1.3261, 1.3275, 1.3263, 1.3049, 1.2834, 1.2835, 1.2465, 1.2443, 1.2313, 1.2291, 1.2313, 1.2226, 1.251, 1.2396, 1.2472, 1.1999, 1.2094, 1.199, 1.2108, 1.2035, 1.2086, 1.2271, 1.274, 1.2781, 1.2764</t>
+    <t>1.3863, 1.3512, 1.3008, 1.2608, 1.3323, 1.312, 1.3232, 1.3259, 1.2471, 1.2491, 1.2475, 1.2933, 1.2816, 1.3003, 1.3247, 1.3198, 1.3094, 1.3526, 1.3159, 1.3348, 1.2922, 1.2889, 1.2961, 1.3123, 1.3753, 1.3727, 1.3512, 1.3265, 1.345, 1.3382, 1.3302, 1.2985, 1.3053, 1.3413, 1.3329, 1.3429, 1.3389, 1.3311, 1.3187, 1.2807, 1.3054, 1.2806, 1.2584, 1.2604, 1.2616, 1.2634, 1.2614, 1.2504, 1.3072, 1.3051, 1.3061, 1.2958, 1.2828, 1.3026, 1.3017, 1.3022, 1.2873, 1.3035, 1.3473, 1.3304, 1.3158, 1.3152, 1.3191, 1.3043, 1.3028, 1.2971, 1.3069, 1.289, 1.2507, 1.2501, 1.2579, 1.2679, 1.2301, 1.2207, 1.2504, 1.2426, 1.2582, 1.2631, 1.3053, 1.284, 1.2626, 1.2549, 1.2425, 1.2516, 1.253, 1.2588, 1.2571, 1.2583, 1.2818, 1.2726, 1.2547, 1.2581, 1.2838, 1.287, 1.3261, 1.3275, 1.3263, 1.3049, 1.2834, 1.2835, 1.2465, 1.2443, 1.2313, 1.2291, 1.2313, 1.2226, 1.251, 1.2396, 1.2472, 1.1999, 1.2094, 1.199, 1.2108, 1.2035, 1.2086, 1.2271, 1.274, 1.2781, 1.2764, 1.2732</t>
   </si>
   <si>
     <t>519727</t>
@@ -488,7 +488,7 @@
     <t>交银成长30混合</t>
   </si>
   <si>
-    <t>2.774, 2.718, 2.667, 2.593, 2.618, 2.694, 2.706, 2.737, 2.752, 2.651, 2.652, 2.704, 2.775, 2.758, 2.803, 2.871, 2.811, 2.85, 2.853, 2.83, 2.8, 2.773, 2.738, 2.728, 2.771, 2.825, 2.827, 2.769, 2.726, 2.74, 2.795, 2.789, 2.716, 2.727, 2.76, 2.732, 2.765, 2.773, 2.751, 2.73, 2.659, 2.647, 2.579, 2.566, 2.601, 2.616, 2.632, 2.616, 2.617, 2.662, 2.667, 2.642, 2.642, 2.591, 2.587, 2.581, 2.597, 2.6, 2.661, 2.724, 2.739, 2.735, 2.707, 2.692, 2.688, 2.713, 2.665, 2.651, 2.618, 2.629, 2.644, 2.674, 2.669, 2.634, 2.653, 2.668, 2.707, 2.769, 2.763, 2.814, 2.775, 2.745, 2.759, 2.763, 2.759, 2.75, 2.723, 2.748, 2.771, 2.78, 2.77, 2.729, 2.714, 2.735, 2.732, 2.769, 2.773, 2.755, 2.77, 2.785, 2.803, 2.785, 2.78, 2.74, 2.771, 2.791, 2.782, 2.794, 2.806, 2.897, 2.862, 2.903, 2.927, 2.984, 2.982, 2.942, 3.006, 3.055, 3.155, 3.176</t>
+    <t>2.718, 2.667, 2.593, 2.618, 2.694, 2.706, 2.737, 2.752, 2.651, 2.652, 2.704, 2.775, 2.758, 2.803, 2.871, 2.811, 2.85, 2.853, 2.83, 2.8, 2.773, 2.738, 2.728, 2.771, 2.825, 2.827, 2.769, 2.726, 2.74, 2.795, 2.789, 2.716, 2.727, 2.76, 2.732, 2.765, 2.773, 2.751, 2.73, 2.659, 2.647, 2.579, 2.566, 2.601, 2.616, 2.632, 2.616, 2.617, 2.662, 2.667, 2.642, 2.642, 2.591, 2.587, 2.581, 2.597, 2.6, 2.661, 2.724, 2.739, 2.735, 2.707, 2.692, 2.688, 2.713, 2.665, 2.651, 2.618, 2.629, 2.644, 2.674, 2.669, 2.634, 2.653, 2.668, 2.707, 2.769, 2.763, 2.814, 2.775, 2.745, 2.759, 2.763, 2.759, 2.75, 2.723, 2.748, 2.771, 2.78, 2.77, 2.729, 2.714, 2.735, 2.732, 2.769, 2.773, 2.755, 2.77, 2.785, 2.803, 2.785, 2.78, 2.74, 2.771, 2.791, 2.782, 2.794, 2.806, 2.897, 2.862, 2.903, 2.927, 2.984, 2.982, 2.942, 3.006, 3.055, 3.155, 3.176, 3.187</t>
   </si>
   <si>
     <t>002939</t>
@@ -497,7 +497,7 @@
     <t>广发创新升级混合</t>
   </si>
   <si>
-    <t>3.2184, 3.1986, 3.1605, 2.9742, 2.9733, 3.0262, 3.0943, 3.1224, 3.1902, 3.0196, 3.0357, 3.0348, 3.1546, 3.1944, 3.2371, 3.2986, 3.277, 3.2887, 3.2259, 3.2137, 3.2198, 3.1496, 3.0981, 3.0742, 3.1092, 3.1353, 3.14, 3.028, 2.9893, 3.018, 3.0503, 3.0409, 2.948, 3.0168, 3.0683, 3.0542, 3.0825, 3.0681, 3.0489, 3.0661, 2.9298, 2.9384, 2.8013, 2.7784, 2.8681, 2.8921, 2.9221, 2.8959, 2.9175, 2.9292, 2.8976, 2.8641, 2.9552, 2.8604, 2.859, 2.8572, 2.8977, 2.8963, 3.0211, 3.1177, 3.0995, 3.0461, 3.0098, 2.9879, 2.923, 2.9593, 2.9244, 2.8918, 2.8258, 2.8879, 2.9342, 2.9539, 2.9732, 2.99, 3.0262, 3.0423, 3.024, 3.0881, 3.0541, 3.174, 3.1553, 3.0411, 3.0469, 3.0534, 3.0388, 2.9878, 2.9513, 2.9822, 2.9992, 3.0086, 3.0025, 2.9602, 2.9337, 2.938, 2.9561, 3.0106, 2.9975, 2.9848, 2.9811, 3.0011, 3.0035, 2.9636, 2.9912, 2.9661, 3.0128, 3.0383, 3.0359, 3.0567, 3.0833, 3.1747, 3.1189, 3.1993, 3.208, 3.2759, 3.2684, 3.2196, 3.2922, 3.3229, 3.4457, 3.5062</t>
+    <t>3.1986, 3.1605, 2.9742, 2.9733, 3.0262, 3.0943, 3.1224, 3.1902, 3.0196, 3.0357, 3.0348, 3.1546, 3.1944, 3.2371, 3.2986, 3.277, 3.2887, 3.2259, 3.2137, 3.2198, 3.1496, 3.0981, 3.0742, 3.1092, 3.1353, 3.14, 3.028, 2.9893, 3.018, 3.0503, 3.0409, 2.948, 3.0168, 3.0683, 3.0542, 3.0825, 3.0681, 3.0489, 3.0661, 2.9298, 2.9384, 2.8013, 2.7784, 2.8681, 2.8921, 2.9221, 2.8959, 2.9175, 2.9292, 2.8976, 2.8641, 2.9552, 2.8604, 2.859, 2.8572, 2.8977, 2.8963, 3.0211, 3.1177, 3.0995, 3.0461, 3.0098, 2.9879, 2.923, 2.9593, 2.9244, 2.8918, 2.8258, 2.8879, 2.9342, 2.9539, 2.9732, 2.99, 3.0262, 3.0423, 3.024, 3.0881, 3.0541, 3.174, 3.1553, 3.0411, 3.0469, 3.0534, 3.0388, 2.9878, 2.9513, 2.9822, 2.9992, 3.0086, 3.0025, 2.9602, 2.9337, 2.938, 2.9561, 3.0106, 2.9975, 2.9848, 2.9811, 3.0011, 3.0035, 2.9636, 2.9912, 2.9661, 3.0128, 3.0383, 3.0359, 3.0567, 3.0833, 3.1747, 3.1189, 3.1993, 3.208, 3.2759, 3.2684, 3.2196, 3.2922, 3.3229, 3.4457, 3.5062, 3.5158</t>
   </si>
   <si>
     <t>001410</t>
@@ -506,7 +506,7 @@
     <t>信达澳银新能源产业股票</t>
   </si>
   <si>
-    <t>3.782, 3.72, 3.57, 3.366, 3.385, 3.48, 3.515, 3.549, 3.531, 3.319, 3.327, 3.399, 3.529, 3.51, 3.596, 3.694, 3.659, 3.686, 3.691, 3.645, 3.604, 3.535, 3.534, 3.52, 3.576, 3.647, 3.632, 3.526, 3.504, 3.539, 3.638, 3.616, 3.512, 3.545, 3.591, 3.587, 3.622, 3.65, 3.617, 3.603, 3.508, 3.487, 3.37, 3.319, 3.415, 3.477, 3.487, 3.467, 3.508, 3.547, 3.517, 3.469, 3.499, 3.41, 3.398, 3.373, 3.423, 3.411, 3.564, 3.67, 3.682, 3.623, 3.576, 3.555, 3.528, 3.569, 3.483, 3.481, 3.413, 3.435, 3.457, 3.501, 3.499, 3.467, 3.531, 3.563, 3.581, 3.664, 3.661, 3.797, 3.746, 3.621, 3.651, 3.65, 3.622, 3.571, 3.544, 3.554, 3.563, 3.561, 3.583, 3.542, 3.518, 3.529, 3.534, 3.587, 3.619, 3.593, 3.615, 3.623, 3.643, 3.585, 3.577, 3.521, 3.557, 3.563, 3.529, 3.557, 3.57, 3.672, 3.582, 3.65, 3.625, 3.689, 3.687, 3.615, 3.694, 3.752, 3.889, 3.944</t>
+    <t>3.72, 3.57, 3.366, 3.385, 3.48, 3.515, 3.549, 3.531, 3.319, 3.327, 3.399, 3.529, 3.51, 3.596, 3.694, 3.659, 3.686, 3.691, 3.645, 3.604, 3.535, 3.534, 3.52, 3.576, 3.647, 3.632, 3.526, 3.504, 3.539, 3.638, 3.616, 3.512, 3.545, 3.591, 3.587, 3.622, 3.65, 3.617, 3.603, 3.508, 3.487, 3.37, 3.319, 3.415, 3.477, 3.487, 3.467, 3.508, 3.547, 3.517, 3.469, 3.499, 3.41, 3.398, 3.373, 3.423, 3.411, 3.564, 3.67, 3.682, 3.623, 3.576, 3.555, 3.528, 3.569, 3.483, 3.481, 3.413, 3.435, 3.457, 3.501, 3.499, 3.467, 3.531, 3.563, 3.581, 3.664, 3.661, 3.797, 3.746, 3.621, 3.651, 3.65, 3.622, 3.571, 3.544, 3.554, 3.563, 3.561, 3.583, 3.542, 3.518, 3.529, 3.534, 3.587, 3.619, 3.593, 3.615, 3.623, 3.643, 3.585, 3.577, 3.521, 3.557, 3.563, 3.529, 3.557, 3.57, 3.672, 3.582, 3.65, 3.625, 3.689, 3.687, 3.615, 3.694, 3.752, 3.889, 3.944, 3.897</t>
   </si>
   <si>
     <t>005461</t>
@@ -515,7 +515,7 @@
     <t>南方希元转债</t>
   </si>
   <si>
-    <t>1.4886, 1.4618, 1.4323, 1.3561, 1.3509, 1.3955, 1.4061, 1.4227, 1.4389, 1.3765, 1.3651, 1.3803, 1.4284, 1.4191, 1.4361, 1.4745, 1.4679, 1.4993, 1.507, 1.482, 1.4766, 1.4463, 1.4133, 1.419, 1.4362, 1.4657, 1.4792, 1.4535, 1.4239, 1.428, 1.4398, 1.4355, 1.4046, 1.4189, 1.4416, 1.4503, 1.458, 1.4613, 1.4513, 1.4431, 1.4049, 1.396, 1.3508, 1.3314, 1.3529, 1.3713, 1.3763, 1.3642, 1.3658, 1.3833, 1.3826, 1.3651, 1.3735, 1.3439, 1.3357, 1.3338, 1.3614, 1.3692, 1.4158, 1.4463, 1.4581, 1.4547, 1.4434, 1.4331, 1.4179, 1.4347, 1.4269, 1.4247, 1.402, 1.4134, 1.4347, 1.4487, 1.4568, 1.4367, 1.446, 1.4578, 1.4581, 1.4883, 1.4812, 1.5039, 1.4854, 1.4706, 1.4777, 1.4639, 1.472, 1.4523, 1.444, 1.455, 1.4659, 1.4826, 1.4876, 1.4682, 1.4588, 1.4697, 1.4777, 1.5033, 1.5041, 1.4939, 1.4991, 1.5038, 1.5034, 1.4863, 1.4925, 1.4728, 1.4877, 1.4849, 1.4867, 1.5022, 1.5132, 1.5482, 1.5307, 1.5456, 1.5478, 1.5735, 1.5739, 1.5434, 1.5821, 1.6086, 1.6557, 1.6837</t>
+    <t>1.4618, 1.4323, 1.3561, 1.3509, 1.3955, 1.4061, 1.4227, 1.4389, 1.3765, 1.3651, 1.3803, 1.4284, 1.4191, 1.4361, 1.4745, 1.4679, 1.4993, 1.507, 1.482, 1.4766, 1.4463, 1.4133, 1.419, 1.4362, 1.4657, 1.4792, 1.4535, 1.4239, 1.428, 1.4398, 1.4355, 1.4046, 1.4189, 1.4416, 1.4503, 1.458, 1.4613, 1.4513, 1.4431, 1.4049, 1.396, 1.3508, 1.3314, 1.3529, 1.3713, 1.3763, 1.3642, 1.3658, 1.3833, 1.3826, 1.3651, 1.3735, 1.3439, 1.3357, 1.3338, 1.3614, 1.3692, 1.4158, 1.4463, 1.4581, 1.4547, 1.4434, 1.4331, 1.4179, 1.4347, 1.4269, 1.4247, 1.402, 1.4134, 1.4347, 1.4487, 1.4568, 1.4367, 1.446, 1.4578, 1.4581, 1.4883, 1.4812, 1.5039, 1.4854, 1.4706, 1.4777, 1.4639, 1.472, 1.4523, 1.444, 1.455, 1.4659, 1.4826, 1.4876, 1.4682, 1.4588, 1.4697, 1.4777, 1.5033, 1.5041, 1.4939, 1.4991, 1.5038, 1.5034, 1.4863, 1.4925, 1.4728, 1.4877, 1.4849, 1.4867, 1.5022, 1.5132, 1.5482, 1.5307, 1.5456, 1.5478, 1.5735, 1.5739, 1.5434, 1.5821, 1.6086, 1.6557, 1.6837, 1.6856</t>
   </si>
   <si>
     <t>20200224</t>
@@ -539,7 +539,7 @@
     <t>富国中证新能源汽车指数</t>
   </si>
   <si>
-    <t>1.1, 1.076, 1.061, 1.029, 1.031, 1.044, 1.046, 1.049, 1.049, 1.006, 1, 1.016, 1.032, 1.028, 1.041, 1.057, 1.059, 1.06, 1.062, 1.052, 1.047, 1.041, 1.044, 1.044, 1.051, 1.055, 1.054, 1.04, 1.025, 1.03, 1.041, 1.039, 1.021, 1.033, 1.037, 1.029, 1.053, 1.055, 1.045, 1.038, 1.024, 1.018, 0.994, 0.989, 1.002, 1.016, 1.033, 1.037, 1.053, 1.059, 1.052, 1.04, 1.043, 1.024, 1.028, 1.026, 1.04, 1.046, 1.084, 1.109, 1.114, 1.111, 1.111, 1.093, 1.089, 1.111, 1.095, 1.104, 1.092, 1.107, 1.115, 1.132, 1.133, 1.128, 1.156, 1.155, 1.17, 1.212, 1.208, 1.221, 1.208, 1.181, 1.19, 1.207, 1.203, 1.189, 1.171, 1.169, 1.193, 1.213, 1.222, 1.205, 1.191, 1.188, 1.185, 1.196, 1.189, 1.191, 1.203, 1.212, 1.232, 1.222, 1.219, 1.214, 1.238, 1.248, 1.248, 1.26, 1.283, 1.332, 1.306, 1.318, 1.312, 1.334, 1.334, 1.307, 1.332, 1.343, 1.387, 1.391</t>
+    <t>1.076, 1.061, 1.029, 1.031, 1.044, 1.046, 1.049, 1.049, 1.006, 1, 1.016, 1.032, 1.028, 1.041, 1.057, 1.059, 1.06, 1.062, 1.052, 1.047, 1.041, 1.044, 1.044, 1.051, 1.055, 1.054, 1.04, 1.025, 1.03, 1.041, 1.039, 1.021, 1.033, 1.037, 1.029, 1.053, 1.055, 1.045, 1.038, 1.024, 1.018, 0.994, 0.989, 1.002, 1.016, 1.033, 1.037, 1.053, 1.059, 1.052, 1.04, 1.043, 1.024, 1.028, 1.026, 1.04, 1.046, 1.084, 1.109, 1.114, 1.111, 1.111, 1.093, 1.089, 1.111, 1.095, 1.104, 1.092, 1.107, 1.115, 1.132, 1.133, 1.128, 1.156, 1.155, 1.17, 1.212, 1.208, 1.221, 1.208, 1.181, 1.19, 1.207, 1.203, 1.189, 1.171, 1.169, 1.193, 1.213, 1.222, 1.205, 1.191, 1.188, 1.185, 1.196, 1.189, 1.191, 1.203, 1.212, 1.232, 1.222, 1.219, 1.214, 1.238, 1.248, 1.248, 1.26, 1.283, 1.332, 1.306, 1.318, 1.312, 1.334, 1.334, 1.307, 1.332, 1.343, 1.387, 1.391, 1.381</t>
   </si>
   <si>
     <t>110003</t>
@@ -548,7 +548,7 @@
     <t>易方达上证50指数A</t>
   </si>
   <si>
-    <t>4.0943, 4.0793, 4.0846, 3.9766, 4.0106, 4.0456, 4.0633, 4.0773, 4.0811, 3.9938, 4.0061, 4.0317, 4.0707, 4.0715, 4.0881, 4.1097, 4.1247, 4.1147, 4.0916, 4.0745, 4.0778, 4.0768, 4.056, 4.0406, 4.0693, 4.1122, 4.1233, 4.0888, 4.0563, 4.0716, 4.0891, 4.1102, 4.1075, 4.1165, 4.1869, 4.1808, 4.1818, 4.1829, 4.1774, 4.1533, 4.1135, 4.1304, 4.0916, 4.1056, 4.1204, 4.1327, 4.1553, 4.1331, 4.1102, 4.1589, 4.1331, 4.1151, 4.1256, 4.0846, 4.0929, 4.1098, 4.1048, 4.1095, 4.1507, 4.2206, 4.2281, 4.2184, 4.2181, 4.2208, 4.1988, 4.2161, 4.223, 4.2158, 4.1831, 4.1724, 4.1731, 4.1956, 4.2145, 4.1702, 4.1596, 4.187, 4.2156, 4.2325, 4.2128, 4.243, 4.24, 4.2348, 4.231, 4.1917, 4.2137, 4.2121, 4.2155, 4.2424, 4.2452, 4.2802, 4.2616, 4.2343, 4.2508, 4.2805, 4.2605, 4.3147, 4.3136, 4.3155, 4.3335, 4.3192, 4.3149, 4.2949, 4.2928, 4.2712, 4.3042, 4.3187, 4.3384, 4.3847, 4.3673, 4.3832, 4.3708, 4.3826, 4.3788, 4.4019, 4.4211, 4.4085, 4.4618, 4.5002, 4.5205, 4.5712</t>
+    <t>4.0793, 4.0846, 3.9766, 4.0106, 4.0456, 4.0633, 4.0773, 4.0811, 3.9938, 4.0061, 4.0317, 4.0707, 4.0715, 4.0881, 4.1097, 4.1247, 4.1147, 4.0916, 4.0745, 4.0778, 4.0768, 4.056, 4.0406, 4.0693, 4.1122, 4.1233, 4.0888, 4.0563, 4.0716, 4.0891, 4.1102, 4.1075, 4.1165, 4.1869, 4.1808, 4.1818, 4.1829, 4.1774, 4.1533, 4.1135, 4.1304, 4.0916, 4.1056, 4.1204, 4.1327, 4.1553, 4.1331, 4.1102, 4.1589, 4.1331, 4.1151, 4.1256, 4.0846, 4.0929, 4.1098, 4.1048, 4.1095, 4.1507, 4.2206, 4.2281, 4.2184, 4.2181, 4.2208, 4.1988, 4.2161, 4.223, 4.2158, 4.1831, 4.1724, 4.1731, 4.1956, 4.2145, 4.1702, 4.1596, 4.187, 4.2156, 4.2325, 4.2128, 4.243, 4.24, 4.2348, 4.231, 4.1917, 4.2137, 4.2121, 4.2155, 4.2424, 4.2452, 4.2802, 4.2616, 4.2343, 4.2508, 4.2805, 4.2605, 4.3147, 4.3136, 4.3155, 4.3335, 4.3192, 4.3149, 4.2949, 4.2928, 4.2712, 4.3042, 4.3187, 4.3384, 4.3847, 4.3673, 4.3832, 4.3708, 4.3826, 4.3788, 4.4019, 4.4211, 4.4085, 4.4618, 4.5002, 4.5205, 4.5712, 4.6143</t>
   </si>
   <si>
     <t>270042</t>
@@ -557,7 +557,7 @@
     <t>广发纳斯达克100指数A</t>
   </si>
   <si>
-    <t>3.6098, 3.5416, 3.5673, 3.5706, 3.5421, 3.5548, 3.6444, 3.606, 3.6073, 3.5285, 3.5005, 3.5616, 3.5129, 3.5555, 3.5709, 3.6278, 3.6777, 3.6812, 3.6876, 3.7196, 3.6795, 3.6761, 3.6167, 3.6949, 3.6939, 3.688, 3.7209, 3.754, 3.7239, 3.7763, 3.7936, 3.8209, 3.848, 3.9184, 3.8958, 3.9142, 3.9328, 3.9804, 4.012, 3.8169, 3.773, 3.774, 3.6111, 3.7092, 3.6324, 3.6138, 3.6661, 3.7069, 3.631, 3.5745, 3.5264, 3.5395, 3.6123, 3.5125, 3.5342, 3.6141, 3.686, 3.6693, 3.6935, 3.7689, 3.8463, 3.8513, 3.8307, 3.7992, 3.781, 3.701, 3.7102, 3.7014, 3.6876, 3.7035, 3.6494, 3.6915, 3.5644, 3.6311, 3.5414, 3.54, 3.5921, 3.7314, 3.8286, 3.8007, 3.7183, 3.6483, 3.7329, 3.7212, 3.7555, 3.7651, 3.7396, 3.7069, 3.7265, 3.7172, 3.7116, 3.766, 3.7832, 3.7847, 3.812, 3.8151, 3.8787, 3.8631, 3.864, 3.8754, 3.8866, 3.895, 3.8178, 3.8365, 3.8249, 3.846, 3.8897, 3.9058, 3.9283, 3.919, 3.919, 3.9206, 3.9121, 3.9175, 3.9159, 3.9555, 3.967, 3.9562, 3.9624, 3.9156</t>
+    <t>3.5416, 3.5673, 3.5706, 3.5421, 3.5548, 3.6444, 3.606, 3.6073, 3.5285, 3.5005, 3.5616, 3.5129, 3.5555, 3.5709, 3.6278, 3.6777, 3.6812, 3.6876, 3.7196, 3.6795, 3.6761, 3.6167, 3.6949, 3.6939, 3.688, 3.7209, 3.754, 3.7239, 3.7763, 3.7936, 3.8209, 3.848, 3.9184, 3.8958, 3.9142, 3.9328, 3.9804, 4.012, 3.8169, 3.773, 3.774, 3.6111, 3.7092, 3.6324, 3.6138, 3.6661, 3.7069, 3.631, 3.5745, 3.5264, 3.5395, 3.6123, 3.5125, 3.5342, 3.6141, 3.686, 3.6693, 3.6935, 3.7689, 3.8463, 3.8513, 3.8307, 3.7992, 3.781, 3.701, 3.7102, 3.7014, 3.6876, 3.7035, 3.6494, 3.6915, 3.5644, 3.6311, 3.5414, 3.54, 3.5921, 3.7314, 3.8286, 3.8007, 3.7183, 3.6483, 3.7329, 3.7212, 3.7555, 3.7651, 3.7396, 3.7069, 3.7265, 3.7172, 3.7116, 3.766, 3.7832, 3.7847, 3.812, 3.8151, 3.8787, 3.8631, 3.864, 3.8754, 3.8866, 3.895, 3.8178, 3.8365, 3.8249, 3.846, 3.8897, 3.9058, 3.9283, 3.919, 3.919, 3.9206, 3.9121, 3.9175, 3.9159, 3.9555, 3.967, 3.9562, 3.9624, 3.9156, 3.9105</t>
   </si>
   <si>
     <t>519005</t>
@@ -566,7 +566,7 @@
     <t>海富通股票混合</t>
   </si>
   <si>
-    <t>3.29, 3.264, 3.202, 3.132, 3.124, 3.132, 3.133, 3.151, 3.134, 3.059, 3.059, 3.076, 3.127, 3.109, 3.127, 3.174, 3.14, 3.16, 3.17, 3.169, 3.171, 3.134, 3.098, 3.087, 3.104, 3.124, 3.117, 3.074, 3.055, 3.053, 3.054, 3.021, 2.981, 3.009, 3.019, 3.018, 3.028, 3.025, 3.006, 3.005, 2.986, 2.982, 2.957, 2.923, 2.932, 2.94, 2.951, 2.938, 2.962, 2.984, 3.001, 2.981, 2.992, 2.966, 2.948, 2.943, 2.973, 2.969, 2.989, 3.033, 3.034, 3.014, 2.998, 2.983, 2.973, 2.986, 2.947, 2.938, 2.911, 2.922, 2.933, 2.928, 2.925, 2.915, 2.908, 2.95, 2.962, 2.966, 2.953, 2.986, 2.952, 2.912, 2.913, 2.917, 2.921, 2.908, 2.907, 2.933, 2.94, 2.941, 2.948, 2.912, 2.909, 2.917, 2.924, 2.952, 2.962, 2.963, 2.969, 2.988, 2.986, 2.975, 2.986, 2.966, 2.999, 3.01, 3.004, 3, 2.998, 3.041, 3.021, 3.048, 3.054, 3.076, 3.067, 3.066, 3.086, 3.141, 3.222, 3.224</t>
+    <t>3.264, 3.202, 3.132, 3.124, 3.132, 3.133, 3.151, 3.134, 3.059, 3.059, 3.076, 3.127, 3.109, 3.127, 3.174, 3.14, 3.16, 3.17, 3.169, 3.171, 3.134, 3.098, 3.087, 3.104, 3.124, 3.117, 3.074, 3.055, 3.053, 3.054, 3.021, 2.981, 3.009, 3.019, 3.018, 3.028, 3.025, 3.006, 3.005, 2.986, 2.982, 2.957, 2.923, 2.932, 2.94, 2.951, 2.938, 2.962, 2.984, 3.001, 2.981, 2.992, 2.966, 2.948, 2.943, 2.973, 2.969, 2.989, 3.033, 3.034, 3.014, 2.998, 2.983, 2.973, 2.986, 2.947, 2.938, 2.911, 2.922, 2.933, 2.928, 2.925, 2.915, 2.908, 2.95, 2.962, 2.966, 2.953, 2.986, 2.952, 2.912, 2.913, 2.917, 2.921, 2.908, 2.907, 2.933, 2.94, 2.941, 2.948, 2.912, 2.909, 2.917, 2.924, 2.952, 2.962, 2.963, 2.969, 2.988, 2.986, 2.975, 2.986, 2.966, 2.999, 3.01, 3.004, 3, 2.998, 3.041, 3.021, 3.048, 3.054, 3.076, 3.067, 3.066, 3.086, 3.141, 3.222, 3.224, 3.202</t>
   </si>
   <si>
     <t>162703</t>
@@ -575,7 +575,7 @@
     <t>广发小盘成长混合(LOF)A</t>
   </si>
   <si>
-    <t>5.8524, 5.8111, 5.7647, 5.5709, 5.5563, 5.6328, 5.7035, 5.739, 5.8201, 5.6181, 5.6129, 5.6125, 5.7408, 5.7584, 5.8005, 5.8599, 5.8381, 5.8578, 5.7745, 5.764, 5.7666, 5.6766, 5.6068, 5.5847, 5.6307, 5.6589, 5.6741, 5.5514, 5.5121, 5.5544, 5.5878, 5.5941, 5.5053, 5.5648, 5.6224, 5.607, 5.6416, 5.6249, 5.5966, 5.6182, 5.5129, 5.5178, 5.3687, 5.3331, 5.4395, 5.4683, 5.4992, 5.475, 5.4919, 5.5033, 5.4754, 5.4457, 5.5448, 5.4333, 5.4351, 5.4459, 5.4794, 5.4763, 5.6132, 5.707, 5.6964, 5.649, 5.6082, 5.577, 5.4925, 5.5361, 5.5045, 5.467, 5.3965, 5.4597, 5.5112, 5.5326, 5.549, 5.5516, 5.5791, 5.5986, 5.5864, 5.6588, 5.6001, 5.7301, 5.7067, 5.6063, 5.5942, 5.5983, 5.5953, 5.5151, 5.4721, 5.508, 5.5363, 5.5516, 5.5374, 5.4987, 5.4691, 5.4734, 5.4783, 5.5424, 5.5337, 5.5393, 5.5458, 5.5615, 5.5646, 5.514, 5.544, 5.4924, 5.553, 5.5869, 5.5859, 5.5927, 5.6296, 5.7449, 5.6837, 5.7771, 5.7739, 5.8402, 5.8273, 5.7623, 5.8233, 5.8784, 6.0336, 6.1019</t>
+    <t>5.8111, 5.7647, 5.5709, 5.5563, 5.6328, 5.7035, 5.739, 5.8201, 5.6181, 5.6129, 5.6125, 5.7408, 5.7584, 5.8005, 5.8599, 5.8381, 5.8578, 5.7745, 5.764, 5.7666, 5.6766, 5.6068, 5.5847, 5.6307, 5.6589, 5.6741, 5.5514, 5.5121, 5.5544, 5.5878, 5.5941, 5.5053, 5.5648, 5.6224, 5.607, 5.6416, 5.6249, 5.5966, 5.6182, 5.5129, 5.5178, 5.3687, 5.3331, 5.4395, 5.4683, 5.4992, 5.475, 5.4919, 5.5033, 5.4754, 5.4457, 5.5448, 5.4333, 5.4351, 5.4459, 5.4794, 5.4763, 5.6132, 5.707, 5.6964, 5.649, 5.6082, 5.577, 5.4925, 5.5361, 5.5045, 5.467, 5.3965, 5.4597, 5.5112, 5.5326, 5.549, 5.5516, 5.5791, 5.5986, 5.5864, 5.6588, 5.6001, 5.7301, 5.7067, 5.6063, 5.5942, 5.5983, 5.5953, 5.5151, 5.4721, 5.508, 5.5363, 5.5516, 5.5374, 5.4987, 5.4691, 5.4734, 5.4783, 5.5424, 5.5337, 5.5393, 5.5458, 5.5615, 5.5646, 5.514, 5.544, 5.4924, 5.553, 5.5869, 5.5859, 5.5927, 5.6296, 5.7449, 5.6837, 5.7771, 5.7739, 5.8402, 5.8273, 5.7623, 5.8233, 5.8784, 6.0336, 6.1019, 6.0761</t>
   </si>
   <si>
     <t>007300</t>
@@ -584,7 +584,7 @@
     <t>国联安中证半导体ETF联接A</t>
   </si>
   <si>
-    <t>2.5348, 2.5301, 2.3929, 2.1936, 2.1552, 2.2336, 2.2237, 2.2396, 2.2319, 2.1189, 2.1381, 2.1322, 2.2221, 2.2026, 2.267, 2.3612, 2.3027, 2.3383, 2.3599, 2.3008, 2.2809, 2.2403, 2.235, 2.2188, 2.2428, 2.2764, 2.2717, 2.1915, 2.1649, 2.15, 2.1533, 2.1377, 2.0621, 2.1097, 2.1249, 2.1099, 2.1102, 2.0788, 2.0807, 2.1138, 2.0333, 2.0039, 1.9207, 1.8898, 1.9334, 1.9552, 1.9691, 1.9515, 1.9873, 2.0043, 2.0069, 1.97, 1.9949, 1.9613, 1.9443, 1.9123, 1.9447, 1.9376, 1.9872, 2.0786, 2.0733, 2.0356, 2.0217, 2.014, 2.0015, 2.0171, 1.9601, 1.9616, 1.9273, 1.9234, 1.9329, 1.9402, 1.9287, 1.9722, 2.0098, 2.0375, 2.0238, 2.0483, 2.0947, 2.2584, 2.1942, 2.091, 2.0952, 2.1058, 2.0845, 2.1166, 2.0995, 2.1039, 2.0947, 2.1039, 2.1247, 2.111, 2.0999, 2.1024, 2.1154, 2.1275, 2.1674, 2.1403, 2.1561, 2.1679, 2.1687, 2.1025, 2.1068, 2.0659, 2.0878, 2.0627, 2.0321, 2.0414, 2.0272, 2.0714, 2.0087, 2.0568, 2.0371, 2.003, 1.9721, 2.0034, 2.0153, 2.0492, 2.0925, 2.1639</t>
+    <t>2.5301, 2.3929, 2.1936, 2.1552, 2.2336, 2.2237, 2.2396, 2.2319, 2.1189, 2.1381, 2.1322, 2.2221, 2.2026, 2.267, 2.3612, 2.3027, 2.3383, 2.3599, 2.3008, 2.2809, 2.2403, 2.235, 2.2188, 2.2428, 2.2764, 2.2717, 2.1915, 2.1649, 2.15, 2.1533, 2.1377, 2.0621, 2.1097, 2.1249, 2.1099, 2.1102, 2.0788, 2.0807, 2.1138, 2.0333, 2.0039, 1.9207, 1.8898, 1.9334, 1.9552, 1.9691, 1.9515, 1.9873, 2.0043, 2.0069, 1.97, 1.9949, 1.9613, 1.9443, 1.9123, 1.9447, 1.9376, 1.9872, 2.0786, 2.0733, 2.0356, 2.0217, 2.014, 2.0015, 2.0171, 1.9601, 1.9616, 1.9273, 1.9234, 1.9329, 1.9402, 1.9287, 1.9722, 2.0098, 2.0375, 2.0238, 2.0483, 2.0947, 2.2584, 2.1942, 2.091, 2.0952, 2.1058, 2.0845, 2.1166, 2.0995, 2.1039, 2.0947, 2.1039, 2.1247, 2.111, 2.0999, 2.1024, 2.1154, 2.1275, 2.1674, 2.1403, 2.1561, 2.1679, 2.1687, 2.1025, 2.1068, 2.0659, 2.0878, 2.0627, 2.0321, 2.0414, 2.0272, 2.0714, 2.0087, 2.0568, 2.0371, 2.003, 1.9721, 2.0034, 2.0153, 2.0492, 2.0925, 2.1639, 2.1172</t>
   </si>
   <si>
     <t>161613</t>
@@ -593,7 +593,7 @@
     <t>融通创业板指数A</t>
   </si>
   <si>
-    <t>2.628, 2.614, 2.594, 2.517, 2.525, 2.541, 2.558, 2.574, 2.588, 2.508, 2.509, 2.526, 2.572, 2.561, 2.586, 2.619, 2.602, 2.615, 2.593, 2.564, 2.557, 2.536, 2.512, 2.506, 2.527, 2.539, 2.541, 2.501, 2.49, 2.51, 2.539, 2.546, 2.52, 2.54, 2.571, 2.558, 2.57, 2.578, 2.567, 2.559, 2.516, 2.519, 2.464, 2.448, 2.473, 2.488, 2.499, 2.481, 2.483, 2.501, 2.488, 2.482, 2.502, 2.474, 2.476, 2.469, 2.488, 2.494, 2.54, 2.587, 2.59, 2.581, 2.57, 2.563, 2.546, 2.57, 2.552, 2.539, 2.506, 2.513, 2.529, 2.538, 2.554, 2.534, 2.559, 2.576, 2.579, 2.597, 2.571, 2.61, 2.589, 2.546, 2.556, 2.559, 2.561, 2.535, 2.518, 2.528, 2.538, 2.548, 2.543, 2.515, 2.512, 2.517, 2.523, 2.554, 2.546, 2.56, 2.569, 2.568, 2.578, 2.556, 2.567, 2.554, 2.571, 2.586, 2.587, 2.599, 2.598, 2.646, 2.613, 2.629, 2.62, 2.631, 2.632, 2.617, 2.659, 2.69, 2.742, 2.751</t>
+    <t>2.614, 2.594, 2.517, 2.525, 2.541, 2.558, 2.574, 2.588, 2.508, 2.509, 2.526, 2.572, 2.561, 2.586, 2.619, 2.602, 2.615, 2.593, 2.564, 2.557, 2.536, 2.512, 2.506, 2.527, 2.539, 2.541, 2.501, 2.49, 2.51, 2.539, 2.546, 2.52, 2.54, 2.571, 2.558, 2.57, 2.578, 2.567, 2.559, 2.516, 2.519, 2.464, 2.448, 2.473, 2.488, 2.499, 2.481, 2.483, 2.501, 2.488, 2.482, 2.502, 2.474, 2.476, 2.469, 2.488, 2.494, 2.54, 2.587, 2.59, 2.581, 2.57, 2.563, 2.546, 2.57, 2.552, 2.539, 2.506, 2.513, 2.529, 2.538, 2.554, 2.534, 2.559, 2.576, 2.579, 2.597, 2.571, 2.61, 2.589, 2.546, 2.556, 2.559, 2.561, 2.535, 2.518, 2.528, 2.538, 2.548, 2.543, 2.515, 2.512, 2.517, 2.523, 2.554, 2.546, 2.56, 2.569, 2.568, 2.578, 2.556, 2.567, 2.554, 2.571, 2.586, 2.587, 2.599, 2.598, 2.646, 2.613, 2.629, 2.62, 2.631, 2.632, 2.617, 2.659, 2.69, 2.742, 2.751, 2.76</t>
   </si>
   <si>
     <t>161128</t>
@@ -602,7 +602,7 @@
     <t>易标普信息科技人民币</t>
   </si>
   <si>
-    <t>2.1229, 2.0803, 2.1049, 2.1153, 2.0883, 2.1018, 2.1495, 2.1256, 2.138, 2.091, 2.0677, 2.1019, 2.0731, 2.1047, 2.1135, 2.1619, 2.2172, 2.2159, 2.2216, 2.2423, 2.2094, 2.21, 2.1743, 2.2179, 2.2135, 2.2107, 2.2231, 2.2302, 2.2203, 2.2539, 2.274, 2.2956, 2.3065, 2.3475, 2.3421, 2.3629, 2.3609, 2.3982, 2.4148, 2.2821, 2.2549, 2.2556, 2.1585, 2.2281, 2.1775, 2.1637, 2.205, 2.2215, 2.1764, 2.1543, 2.1182, 2.1336, 2.1752, 2.1125, 2.126, 2.177, 2.2192, 2.2102, 2.2269, 2.2782, 2.3147, 2.3065, 2.3002, 2.2871, 2.2795, 2.2283, 2.2337, 2.2261, 2.2089, 2.2111, 2.1661, 2.1852, 2.1016, 2.1417, 2.0911, 2.0921, 2.1247, 2.1956, 2.2647, 2.2515, 2.2302, 2.1818, 2.2385, 2.2242, 2.2439, 2.2565, 2.235, 2.2067, 2.2204, 2.2085, 2.2054, 2.2375, 2.2403, 2.2413, 2.2513, 2.266, 2.3009, 2.2855, 2.2826, 2.3016, 2.3022, 2.3083, 2.2667, 2.274, 2.2667, 2.2739, 2.3111, 2.3245, 2.3412, 2.3322, 2.3403, 2.3549, 2.3421, 2.3513, 2.3502, 2.3723, 2.3682, 2.3632, 2.3328</t>
+    <t>2.0803, 2.1049, 2.1153, 2.0883, 2.1018, 2.1495, 2.1256, 2.138, 2.091, 2.0677, 2.1019, 2.0731, 2.1047, 2.1135, 2.1619, 2.2172, 2.2159, 2.2216, 2.2423, 2.2094, 2.21, 2.1743, 2.2179, 2.2135, 2.2107, 2.2231, 2.2302, 2.2203, 2.2539, 2.274, 2.2956, 2.3065, 2.3475, 2.3421, 2.3629, 2.3609, 2.3982, 2.4148, 2.2821, 2.2549, 2.2556, 2.1585, 2.2281, 2.1775, 2.1637, 2.205, 2.2215, 2.1764, 2.1543, 2.1182, 2.1336, 2.1752, 2.1125, 2.126, 2.177, 2.2192, 2.2102, 2.2269, 2.2782, 2.3147, 2.3065, 2.3002, 2.2871, 2.2795, 2.2283, 2.2337, 2.2261, 2.2089, 2.2111, 2.1661, 2.1852, 2.1016, 2.1417, 2.0911, 2.0921, 2.1247, 2.1956, 2.2647, 2.2515, 2.2302, 2.1818, 2.2385, 2.2242, 2.2439, 2.2565, 2.235, 2.2067, 2.2204, 2.2085, 2.2054, 2.2375, 2.2403, 2.2413, 2.2513, 2.266, 2.3009, 2.2855, 2.2826, 2.3016, 2.3022, 2.3083, 2.2667, 2.274, 2.2667, 2.2739, 2.3111, 2.3245, 2.3412, 2.3322, 2.3403, 2.3549, 2.3421, 2.3513, 2.3502, 2.3723, 2.3682, 2.3632, 2.3328, 2.325</t>
   </si>
   <si>
     <t>161033</t>
@@ -611,7 +611,7 @@
     <t>富国中证智能汽车(LOF)</t>
   </si>
   <si>
-    <t>1.857, 1.816, 1.746, 1.652, 1.67, 1.71, 1.728, 1.738, 1.72, 1.629, 1.622, 1.645, 1.701, 1.679, 1.71, 1.754, 1.73, 1.74, 1.74, 1.716, 1.71, 1.689, 1.674, 1.678, 1.713, 1.738, 1.736, 1.71, 1.697, 1.712, 1.747, 1.736, 1.702, 1.727, 1.734, 1.722, 1.747, 1.748, 1.722, 1.715, 1.676, 1.663, 1.605, 1.597, 1.633, 1.636, 1.645, 1.639, 1.662, 1.685, 1.673, 1.656, 1.659, 1.621, 1.615, 1.611, 1.623, 1.622, 1.683, 1.72, 1.723, 1.707, 1.693, 1.667, 1.654, 1.674, 1.646, 1.637, 1.612, 1.611, 1.622, 1.632, 1.641, 1.629, 1.659, 1.683, 1.697, 1.751, 1.746, 1.802, 1.768, 1.712, 1.717, 1.724, 1.724, 1.712, 1.7, 1.71, 1.717, 1.718, 1.72, 1.691, 1.673, 1.68, 1.679, 1.699, 1.704, 1.704, 1.714, 1.708, 1.713, 1.682, 1.679, 1.658, 1.665, 1.67, 1.665, 1.664, 1.663, 1.694, 1.654, 1.672, 1.666, 1.66, 1.643, 1.657, 1.678, 1.703, 1.744, 1.785</t>
+    <t>1.816, 1.746, 1.652, 1.67, 1.71, 1.728, 1.738, 1.72, 1.629, 1.622, 1.645, 1.701, 1.679, 1.71, 1.754, 1.73, 1.74, 1.74, 1.716, 1.71, 1.689, 1.674, 1.678, 1.713, 1.738, 1.736, 1.71, 1.697, 1.712, 1.747, 1.736, 1.702, 1.727, 1.734, 1.722, 1.747, 1.748, 1.722, 1.715, 1.676, 1.663, 1.605, 1.597, 1.633, 1.636, 1.645, 1.639, 1.662, 1.685, 1.673, 1.656, 1.659, 1.621, 1.615, 1.611, 1.623, 1.622, 1.683, 1.72, 1.723, 1.707, 1.693, 1.667, 1.654, 1.674, 1.646, 1.637, 1.612, 1.611, 1.622, 1.632, 1.641, 1.629, 1.659, 1.683, 1.697, 1.751, 1.746, 1.802, 1.768, 1.712, 1.717, 1.724, 1.724, 1.712, 1.7, 1.71, 1.717, 1.718, 1.72, 1.691, 1.673, 1.68, 1.679, 1.699, 1.704, 1.704, 1.714, 1.708, 1.713, 1.682, 1.679, 1.658, 1.665, 1.67, 1.665, 1.664, 1.663, 1.694, 1.654, 1.672, 1.666, 1.66, 1.643, 1.657, 1.678, 1.703, 1.744, 1.785, 1.768</t>
   </si>
   <si>
     <t>007301</t>
@@ -620,7 +620,7 @@
     <t>国联安中证半导体ETF联接C</t>
   </si>
   <si>
-    <t>2.522, 2.5173, 2.3809, 2.1825, 2.1443, 2.2223, 2.2124, 2.2283, 2.2206, 2.1081, 2.1272, 2.1213, 2.2107, 2.1913, 2.2554, 2.349, 2.2908, 2.3262, 2.3477, 2.2888, 2.269, 2.2286, 2.2234, 2.2072, 2.231, 2.2644, 2.2598, 2.18, 2.1535, 2.1386, 2.1419, 2.1263, 2.0511, 2.0985, 2.1135, 2.0986, 2.0989, 2.0676, 2.0695, 2.1024, 2.0223, 1.9931, 1.9103, 1.8795, 1.9229, 1.9445, 1.9584, 1.9408, 1.9765, 1.9933, 1.9958, 1.9592, 1.9839, 1.9504, 1.9336, 1.9017, 1.9339, 1.9268, 1.976, 2.0669, 2.0616, 2.0241, 2.0103, 2.0026, 1.9901, 2.0057, 1.949, 1.9504, 1.9163, 1.9124, 1.9218, 1.9291, 1.9176, 1.9609, 1.9982, 2.0257, 2.0121, 2.0364, 2.0826, 2.2452, 2.1814, 2.0788, 2.083, 2.0935, 2.0723, 2.1041, 2.0871, 2.0915, 2.0823, 2.0914, 2.1121, 2.0984, 2.0874, 2.0899, 2.1028, 2.1148, 2.1545, 2.1275, 2.1431, 2.1549, 2.1556, 2.0898, 2.0941, 2.0535, 2.0751, 2.0502, 2.0197, 2.0289, 2.0148, 2.0587, 1.9964, 2.0442, 2.0246, 1.9907, 1.96, 1.9911, 2.0028, 2.0365, 2.0795, 2.1505</t>
+    <t>2.5173, 2.3809, 2.1825, 2.1443, 2.2223, 2.2124, 2.2283, 2.2206, 2.1081, 2.1272, 2.1213, 2.2107, 2.1913, 2.2554, 2.349, 2.2908, 2.3262, 2.3477, 2.2888, 2.269, 2.2286, 2.2234, 2.2072, 2.231, 2.2644, 2.2598, 2.18, 2.1535, 2.1386, 2.1419, 2.1263, 2.0511, 2.0985, 2.1135, 2.0986, 2.0989, 2.0676, 2.0695, 2.1024, 2.0223, 1.9931, 1.9103, 1.8795, 1.9229, 1.9445, 1.9584, 1.9408, 1.9765, 1.9933, 1.9958, 1.9592, 1.9839, 1.9504, 1.9336, 1.9017, 1.9339, 1.9268, 1.976, 2.0669, 2.0616, 2.0241, 2.0103, 2.0026, 1.9901, 2.0057, 1.949, 1.9504, 1.9163, 1.9124, 1.9218, 1.9291, 1.9176, 1.9609, 1.9982, 2.0257, 2.0121, 2.0364, 2.0826, 2.2452, 2.1814, 2.0788, 2.083, 2.0935, 2.0723, 2.1041, 2.0871, 2.0915, 2.0823, 2.0914, 2.1121, 2.0984, 2.0874, 2.0899, 2.1028, 2.1148, 2.1545, 2.1275, 2.1431, 2.1549, 2.1556, 2.0898, 2.0941, 2.0535, 2.0751, 2.0502, 2.0197, 2.0289, 2.0148, 2.0587, 1.9964, 2.0442, 2.0246, 1.9907, 1.96, 1.9911, 2.0028, 2.0365, 2.0795, 2.1505, 2.104</t>
   </si>
   <si>
     <t>006021</t>
@@ -629,7 +629,7 @@
     <t>广发沪深300指数增强C</t>
   </si>
   <si>
-    <t>1.5948, 1.5818, 1.5756, 1.5214, 1.5353, 1.5796, 1.5869, 1.596, 1.5983, 1.5281, 1.5323, 1.5459, 1.5852, 1.5784, 1.5904, 1.6101, 1.615, 1.6162, 1.6131, 1.5985, 1.6054, 1.5923, 1.579, 1.5747, 1.6021, 1.637, 1.6427, 1.6153, 1.5946, 1.6095, 1.6295, 1.6344, 1.6148, 1.6227, 1.667, 1.6565, 1.6685, 1.6683, 1.6598, 1.6453, 1.6071, 1.6165, 1.5781, 1.5822, 1.5987, 1.6075, 1.6216, 1.6111, 1.6056, 1.6424, 1.6271, 1.6094, 1.6176, 1.5854, 1.5879, 1.596, 1.6023, 1.6011, 1.6356, 1.6846, 1.6927, 1.6831, 1.6808, 1.6779, 1.6641, 1.6805, 1.6799, 1.6724, 1.6475, 1.639, 1.6482, 1.6637, 1.6802, 1.6542, 1.6681, 1.6854, 1.7014, 1.7243, 1.7212, 1.7511, 1.742, 1.7235, 1.7278, 1.7076, 1.7245, 1.7211, 1.7198, 1.7382, 1.7451, 1.7659, 1.7528, 1.726, 1.7309, 1.7504, 1.7451, 1.7826, 1.7809, 1.7767, 1.7811, 1.7705, 1.7673, 1.7462, 1.7487, 1.7338, 1.748, 1.7542, 1.7617, 1.7848, 1.7791, 1.7979, 1.7702, 1.7876, 1.7917, 1.8061, 1.8165, 1.8069, 1.8385, 1.8733, 1.8913, 1.9246</t>
+    <t>1.5818, 1.5756, 1.5214, 1.5353, 1.5796, 1.5869, 1.596, 1.5983, 1.5281, 1.5323, 1.5459, 1.5852, 1.5784, 1.5904, 1.6101, 1.615, 1.6162, 1.6131, 1.5985, 1.6054, 1.5923, 1.579, 1.5747, 1.6021, 1.637, 1.6427, 1.6153, 1.5946, 1.6095, 1.6295, 1.6344, 1.6148, 1.6227, 1.667, 1.6565, 1.6685, 1.6683, 1.6598, 1.6453, 1.6071, 1.6165, 1.5781, 1.5822, 1.5987, 1.6075, 1.6216, 1.6111, 1.6056, 1.6424, 1.6271, 1.6094, 1.6176, 1.5854, 1.5879, 1.596, 1.6023, 1.6011, 1.6356, 1.6846, 1.6927, 1.6831, 1.6808, 1.6779, 1.6641, 1.6805, 1.6799, 1.6724, 1.6475, 1.639, 1.6482, 1.6637, 1.6802, 1.6542, 1.6681, 1.6854, 1.7014, 1.7243, 1.7212, 1.7511, 1.742, 1.7235, 1.7278, 1.7076, 1.7245, 1.7211, 1.7198, 1.7382, 1.7451, 1.7659, 1.7528, 1.726, 1.7309, 1.7504, 1.7451, 1.7826, 1.7809, 1.7767, 1.7811, 1.7705, 1.7673, 1.7462, 1.7487, 1.7338, 1.748, 1.7542, 1.7617, 1.7848, 1.7791, 1.7979, 1.7702, 1.7876, 1.7917, 1.8061, 1.8165, 1.8069, 1.8385, 1.8733, 1.8913, 1.9246, 1.9492</t>
   </si>
   <si>
     <t>217016</t>
@@ -638,7 +638,7 @@
     <t>招商深证100指数A</t>
   </si>
   <si>
-    <t>2.0378, 2.0226, 2.0047, 1.9015, 1.9236, 1.9644, 1.9793, 1.9965, 2.0034, 1.9038, 1.9121, 1.9389, 1.9977, 1.9833, 2.0078, 2.0471, 2.0322, 2.0415, 2.0168, 1.9855, 1.9848, 1.9682, 1.9488, 1.9418, 1.9766, 2.0116, 2.0106, 1.9745, 1.9533, 1.9805, 2.0241, 2.0316, 2.0043, 2.0173, 2.071, 2.053, 2.0722, 2.0766, 2.0618, 2.0395, 1.9807, 1.9762, 1.9145, 1.9146, 1.9441, 1.9491, 1.9684, 1.9501, 1.9496, 1.9841, 1.9647, 1.9513, 1.9651, 1.9299, 1.9326, 1.9319, 1.9496, 1.9554, 2.0084, 2.0682, 2.087, 2.0741, 2.0706, 2.0585, 2.0434, 2.0758, 2.0638, 2.0543, 2.0124, 2.0238, 2.0372, 2.0614, 2.0995, 2.0597, 2.0947, 2.1102, 2.1329, 2.1651, 2.1638, 2.203, 2.1809, 2.1383, 2.1547, 2.1433, 2.1548, 2.1415, 2.1294, 2.1513, 2.1589, 2.1738, 2.1591, 2.124, 2.1164, 2.1355, 2.1317, 2.1739, 2.1793, 2.1808, 2.1887, 2.1792, 2.176, 2.1371, 2.1379, 2.1179, 2.1367, 2.1509, 2.1566, 2.1738, 2.1736, 2.2172, 2.1912, 2.2124, 2.2099, 2.2229, 2.239, 2.2251, 2.2684, 2.3099, 2.3689, 2.4354</t>
+    <t>2.0226, 2.0047, 1.9015, 1.9236, 1.9644, 1.9793, 1.9965, 2.0034, 1.9038, 1.9121, 1.9389, 1.9977, 1.9833, 2.0078, 2.0471, 2.0322, 2.0415, 2.0168, 1.9855, 1.9848, 1.9682, 1.9488, 1.9418, 1.9766, 2.0116, 2.0106, 1.9745, 1.9533, 1.9805, 2.0241, 2.0316, 2.0043, 2.0173, 2.071, 2.053, 2.0722, 2.0766, 2.0618, 2.0395, 1.9807, 1.9762, 1.9145, 1.9146, 1.9441, 1.9491, 1.9684, 1.9501, 1.9496, 1.9841, 1.9647, 1.9513, 1.9651, 1.9299, 1.9326, 1.9319, 1.9496, 1.9554, 2.0084, 2.0682, 2.087, 2.0741, 2.0706, 2.0585, 2.0434, 2.0758, 2.0638, 2.0543, 2.0124, 2.0238, 2.0372, 2.0614, 2.0995, 2.0597, 2.0947, 2.1102, 2.1329, 2.1651, 2.1638, 2.203, 2.1809, 2.1383, 2.1547, 2.1433, 2.1548, 2.1415, 2.1294, 2.1513, 2.1589, 2.1738, 2.1591, 2.124, 2.1164, 2.1355, 2.1317, 2.1739, 2.1793, 2.1808, 2.1887, 2.1792, 2.176, 2.1371, 2.1379, 2.1179, 2.1367, 2.1509, 2.1566, 2.1738, 2.1736, 2.2172, 2.1912, 2.2124, 2.2099, 2.2229, 2.239, 2.2251, 2.2684, 2.3099, 2.3689, 2.4354, 2.4516</t>
   </si>
   <si>
     <t>005762</t>
@@ -647,7 +647,7 @@
     <t>招商MSCI中国A股国际ETF联接C</t>
   </si>
   <si>
-    <t>1.4184, 1.4062, 1.3894, 1.3235, 1.3324, 1.3663, 1.3716, 1.38, 1.3805, 1.3204, 1.3263, 1.34, 1.3689, 1.3641, 1.3755, 1.3972, 1.3959, 1.3999, 1.3964, 1.3814, 1.3853, 1.3731, 1.3619, 1.3598, 1.3787, 1.4058, 1.4082, 1.3885, 1.372, 1.3838, 1.3964, 1.3976, 1.382, 1.3918, 1.4211, 1.4138, 1.4226, 1.4232, 1.4157, 1.4017, 1.3693, 1.374, 1.3417, 1.3397, 1.3534, 1.3601, 1.3699, 1.3616, 1.3551, 1.3815, 1.3698, 1.3566, 1.3616, 1.3371, 1.3381, 1.3389, 1.3443, 1.3447, 1.3704, 1.4106, 1.4141, 1.405, 1.4023, 1.3992, 1.3878, 1.3998, 1.3951, 1.3902, 1.3716, 1.3658, 1.3704, 1.3813, 1.3906, 1.3701, 1.3773, 1.3937, 1.401, 1.4213, 1.4162, 1.443, 1.4349, 1.4187, 1.4204, 1.4079, 1.4216, 1.4143, 1.4118, 1.421, 1.4282, 1.4424, 1.4368, 1.4151, 1.4178, 1.4319, 1.4262, 1.4524, 1.4512, 1.4504, 1.4547, 1.4469, 1.4471, 1.4321, 1.4333, 1.4204, 1.4329, 1.4367, 1.4402, 1.4545, 1.4497, 1.4675, 1.4459, 1.456, 1.4513, 1.4637, 1.4677, 1.4605, 1.4837, 1.5109, 1.5322, 1.5579</t>
+    <t>1.4062, 1.3894, 1.3235, 1.3324, 1.3663, 1.3716, 1.38, 1.3805, 1.3204, 1.3263, 1.34, 1.3689, 1.3641, 1.3755, 1.3972, 1.3959, 1.3999, 1.3964, 1.3814, 1.3853, 1.3731, 1.3619, 1.3598, 1.3787, 1.4058, 1.4082, 1.3885, 1.372, 1.3838, 1.3964, 1.3976, 1.382, 1.3918, 1.4211, 1.4138, 1.4226, 1.4232, 1.4157, 1.4017, 1.3693, 1.374, 1.3417, 1.3397, 1.3534, 1.3601, 1.3699, 1.3616, 1.3551, 1.3815, 1.3698, 1.3566, 1.3616, 1.3371, 1.3381, 1.3389, 1.3443, 1.3447, 1.3704, 1.4106, 1.4141, 1.405, 1.4023, 1.3992, 1.3878, 1.3998, 1.3951, 1.3902, 1.3716, 1.3658, 1.3704, 1.3813, 1.3906, 1.3701, 1.3773, 1.3937, 1.401, 1.4213, 1.4162, 1.443, 1.4349, 1.4187, 1.4204, 1.4079, 1.4216, 1.4143, 1.4118, 1.421, 1.4282, 1.4424, 1.4368, 1.4151, 1.4178, 1.4319, 1.4262, 1.4524, 1.4512, 1.4504, 1.4547, 1.4469, 1.4471, 1.4321, 1.4333, 1.4204, 1.4329, 1.4367, 1.4402, 1.4545, 1.4497, 1.4675, 1.4459, 1.456, 1.4513, 1.4637, 1.4677, 1.4605, 1.4837, 1.5109, 1.5322, 1.5579, 1.5697</t>
   </si>
   <si>
     <t>000311</t>
@@ -656,7 +656,7 @@
     <t>景顺长城沪深300指数增强</t>
   </si>
   <si>
-    <t>2.994, 2.981, 2.95, 2.842, 2.869, 2.948, 2.953, 2.963, 2.961, 2.842, 2.854, 2.881, 2.94, 2.926, 2.946, 2.979, 2.989, 2.988, 2.979, 2.948, 2.971, 2.946, 2.923, 2.916, 2.96, 3.019, 3.02, 2.981, 2.955, 2.979, 3.005, 3.011, 2.975, 2.981, 3.043, 3.026, 3.037, 3.033, 3.013, 2.981, 2.921, 2.938, 2.882, 2.881, 2.902, 2.912, 2.929, 2.91, 2.902, 2.958, 2.938, 2.919, 2.926, 2.884, 2.888, 2.885, 2.898, 2.896, 2.945, 3.01, 3.012, 2.999, 2.991, 2.989, 2.964, 2.979, 2.972, 2.956, 2.923, 2.91, 2.91, 2.919, 2.932, 2.883, 2.899, 2.925, 2.939, 2.972, 2.973, 3.011, 2.997, 2.98, 2.985, 2.954, 2.971, 2.962, 2.965, 2.981, 2.994, 3.037, 3.02, 2.979, 2.983, 3.008, 2.991, 3.055, 3.059, 3.052, 3.058, 3.035, 3.025, 2.998, 2.999, 2.971, 2.987, 2.996, 3, 3.041, 3.036, 3.055, 3.006, 3.027, 3.02, 3.047, 3.064, 3.043, 3.089, 3.137, 3.158, 3.188</t>
+    <t>2.981, 2.95, 2.842, 2.869, 2.948, 2.953, 2.963, 2.961, 2.842, 2.854, 2.881, 2.94, 2.926, 2.946, 2.979, 2.989, 2.988, 2.979, 2.948, 2.971, 2.946, 2.923, 2.916, 2.96, 3.019, 3.02, 2.981, 2.955, 2.979, 3.005, 3.011, 2.975, 2.981, 3.043, 3.026, 3.037, 3.033, 3.013, 2.981, 2.921, 2.938, 2.882, 2.881, 2.902, 2.912, 2.929, 2.91, 2.902, 2.958, 2.938, 2.919, 2.926, 2.884, 2.888, 2.885, 2.898, 2.896, 2.945, 3.01, 3.012, 2.999, 2.991, 2.989, 2.964, 2.979, 2.972, 2.956, 2.923, 2.91, 2.91, 2.919, 2.932, 2.883, 2.899, 2.925, 2.939, 2.972, 2.973, 3.011, 2.997, 2.98, 2.985, 2.954, 2.971, 2.962, 2.965, 2.981, 2.994, 3.037, 3.02, 2.979, 2.983, 3.008, 2.991, 3.055, 3.059, 3.052, 3.058, 3.035, 3.025, 2.998, 2.999, 2.971, 2.987, 2.996, 3, 3.041, 3.036, 3.055, 3.006, 3.027, 3.02, 3.047, 3.064, 3.043, 3.089, 3.137, 3.158, 3.188, 3.221</t>
   </si>
   <si>
     <t>007801</t>
@@ -665,7 +665,7 @@
     <t>大成中证红利指数C</t>
   </si>
   <si>
-    <t>1.805, 1.797, 1.769, 1.728, 1.737, 1.809, 1.806, 1.807, 1.787, 1.724, 1.719, 1.735, 1.764, 1.763, 1.779, 1.812, 1.816, 1.815, 1.817, 1.803, 1.825, 1.807, 1.797, 1.804, 1.817, 1.852, 1.856, 1.839, 1.826, 1.825, 1.836, 1.834, 1.805, 1.815, 1.845, 1.835, 1.839, 1.837, 1.835, 1.83, 1.809, 1.818, 1.792, 1.776, 1.784, 1.79, 1.798, 1.798, 1.805, 1.832, 1.821, 1.796, 1.799, 1.768, 1.758, 1.756, 1.763, 1.755, 1.791, 1.833, 1.837, 1.836, 1.831, 1.84, 1.828, 1.83, 1.824, 1.81, 1.797, 1.8, 1.794, 1.794, 1.804, 1.779, 1.795, 1.817, 1.825, 1.855, 1.858, 1.887, 1.881, 1.887, 1.897, 1.886, 1.923, 1.934, 1.941, 1.934, 1.943, 1.968, 1.961, 1.936, 1.928, 1.941, 1.921, 1.945, 1.949, 1.936, 1.933, 1.916, 1.911, 1.889, 1.895, 1.877, 1.864, 1.86, 1.852, 1.87, 1.877, 1.883, 1.843, 1.845, 1.828, 1.84, 1.828, 1.814, 1.823, 1.837, 1.843, 1.847</t>
+    <t>1.797, 1.769, 1.728, 1.737, 1.809, 1.806, 1.807, 1.787, 1.724, 1.719, 1.735, 1.764, 1.763, 1.779, 1.812, 1.816, 1.815, 1.817, 1.803, 1.825, 1.807, 1.797, 1.804, 1.817, 1.852, 1.856, 1.839, 1.826, 1.825, 1.836, 1.834, 1.805, 1.815, 1.845, 1.835, 1.839, 1.837, 1.835, 1.83, 1.809, 1.818, 1.792, 1.776, 1.784, 1.79, 1.798, 1.798, 1.805, 1.832, 1.821, 1.796, 1.799, 1.768, 1.758, 1.756, 1.763, 1.755, 1.791, 1.833, 1.837, 1.836, 1.831, 1.84, 1.828, 1.83, 1.824, 1.81, 1.797, 1.8, 1.794, 1.794, 1.804, 1.779, 1.795, 1.817, 1.825, 1.855, 1.858, 1.887, 1.881, 1.887, 1.897, 1.886, 1.923, 1.934, 1.941, 1.934, 1.943, 1.968, 1.961, 1.936, 1.928, 1.941, 1.921, 1.945, 1.949, 1.936, 1.933, 1.916, 1.911, 1.889, 1.895, 1.877, 1.864, 1.86, 1.852, 1.87, 1.877, 1.883, 1.843, 1.845, 1.828, 1.84, 1.828, 1.814, 1.823, 1.837, 1.843, 1.847, 1.851</t>
   </si>
   <si>
     <t>008086</t>
@@ -674,7 +674,7 @@
     <t>华夏中证5G通信主题ETF联接A</t>
   </si>
   <si>
-    <t>1.4564, 1.4378, 1.3699, 1.2792, 1.294, 1.3223, 1.327, 1.3389, 1.3234, 1.2478, 1.2483, 1.2734, 1.3177, 1.3014, 1.3372, 1.3678, 1.3429, 1.3524, 1.3365, 1.3026, 1.2919, 1.2731, 1.2874, 1.2769, 1.2992, 1.3206, 1.3038, 1.2656, 1.2672, 1.282, 1.3121, 1.3087, 1.2772, 1.2869, 1.2947, 1.2882, 1.2959, 1.3005, 1.2802, 1.2824, 1.2403, 1.2322, 1.191, 1.1731, 1.2064, 1.2189, 1.2164, 1.2039, 1.2122, 1.2303, 1.2235, 1.2161, 1.2218, 1.1914, 1.1876, 1.1873, 1.1954, 1.1959, 1.2435, 1.2683, 1.2641, 1.2379, 1.2316, 1.2183, 1.2187, 1.2329, 1.2076, 1.2028, 1.1848, 1.1933, 1.2017, 1.2188, 1.2054, 1.18, 1.1923, 1.2088, 1.2085, 1.2519, 1.2601, 1.3035, 1.2748, 1.2349, 1.2417, 1.2403, 1.2184, 1.2241, 1.22, 1.2227, 1.2204, 1.2159, 1.2159, 1.2041, 1.1964, 1.2047, 1.2076, 1.2251, 1.2279, 1.2188, 1.2275, 1.2262, 1.2231, 1.209, 1.2031, 1.1781, 1.1739, 1.1774, 1.1706, 1.1747, 1.1626, 1.1745, 1.1517, 1.1722, 1.1601, 1.157, 1.1411, 1.1665, 1.1689, 1.1787, 1.1935, 1.2361</t>
+    <t>1.4378, 1.3699, 1.2792, 1.294, 1.3223, 1.327, 1.3389, 1.3234, 1.2478, 1.2483, 1.2734, 1.3177, 1.3014, 1.3372, 1.3678, 1.3429, 1.3524, 1.3365, 1.3026, 1.2919, 1.2731, 1.2874, 1.2769, 1.2992, 1.3206, 1.3038, 1.2656, 1.2672, 1.282, 1.3121, 1.3087, 1.2772, 1.2869, 1.2947, 1.2882, 1.2959, 1.3005, 1.2802, 1.2824, 1.2403, 1.2322, 1.191, 1.1731, 1.2064, 1.2189, 1.2164, 1.2039, 1.2122, 1.2303, 1.2235, 1.2161, 1.2218, 1.1914, 1.1876, 1.1873, 1.1954, 1.1959, 1.2435, 1.2683, 1.2641, 1.2379, 1.2316, 1.2183, 1.2187, 1.2329, 1.2076, 1.2028, 1.1848, 1.1933, 1.2017, 1.2188, 1.2054, 1.18, 1.1923, 1.2088, 1.2085, 1.2519, 1.2601, 1.3035, 1.2748, 1.2349, 1.2417, 1.2403, 1.2184, 1.2241, 1.22, 1.2227, 1.2204, 1.2159, 1.2159, 1.2041, 1.1964, 1.2047, 1.2076, 1.2251, 1.2279, 1.2188, 1.2275, 1.2262, 1.2231, 1.209, 1.2031, 1.1781, 1.1739, 1.1774, 1.1706, 1.1747, 1.1626, 1.1745, 1.1517, 1.1722, 1.1601, 1.157, 1.1411, 1.1665, 1.1689, 1.1787, 1.1935, 1.2361, 1.2135</t>
   </si>
   <si>
     <t>20200207</t>
@@ -686,19 +686,7 @@
     <t>汇丰晋信低碳先锋股票</t>
   </si>
   <si>
-    <t>2.2965, 2.2426, 2.1971, 2.0734, 2.0755, 2.1348, 2.1734, 2.1758, 2.2234, 2.092, 2.1215, 2.1357, 2.2095, 2.2078, 2.2387, 2.2638, 2.2518, 2.2818, 2.2616, 2.2244, 2.225, 2.1956, 2.2016, 2.1892, 2.205, 2.2138, 2.2181, 2.1749, 2.1209, 2.154, 2.1878, 2.167, 2.0861, 2.1193, 2.1555, 2.1477, 2.2029, 2.1795, 2.1445, 2.1362, 2.0877, 2.0949, 2.0079, 1.9704, 2.0718, 2.1254, 2.1693, 2.2067, 2.2138, 2.2307, 2.2079, 2.1674, 2.1986, 2.1315, 2.124, 2.1197, 2.1596, 2.179, 2.3221, 2.3767, 2.449, 2.4421, 2.4053, 2.3784, 2.3497, 2.3921, 2.3383, 2.34, 2.2989, 2.3281, 2.3712, 2.4095, 2.3889, 2.3404, 2.393, 2.4089, 2.4203, 2.507, 2.4721, 2.532, 2.5125, 2.4715, 2.5048, 2.5268, 2.5539, 2.5114, 2.4698, 2.478, 2.5412, 2.6213, 2.6735, 2.6178, 2.5937, 2.5784, 2.5938, 2.6097, 2.5868, 2.5702, 2.6348, 2.678, 2.7129, 2.7025, 2.7354, 2.7189, 2.7923, 2.838, 2.8463, 2.8857, 2.9675, 3.0917, 3.0286, 3.1201, 3.0892, 3.2443, 3.2327, 3.084, 3.1726, 3.25, 3.4204, 3.4082</t>
-  </si>
-  <si>
-    <t>005223</t>
-  </si>
-  <si>
-    <t>广发中证基建工程指数A</t>
-  </si>
-  <si>
-    <t>0.8009, 0.7964, 0.7751, 0.7571, 0.76, 0.7909, 0.787, 0.785, 0.784, 0.7587, 0.7523, 0.7558, 0.7674, 0.7667, 0.7706, 0.7848, 0.7929, 0.7861, 0.7903, 0.7875, 0.8114, 0.7953, 0.8011, 0.8019, 0.8025, 0.8189, 0.8195, 0.8135, 0.7992, 0.8015, 0.8022, 0.7947, 0.7795, 0.7834, 0.7915, 0.7888, 0.7894, 0.788, 0.7818, 0.7781, 0.7725, 0.7836, 0.7742, 0.7567, 0.7576, 0.7632, 0.7677, 0.7688, 0.7696, 0.7838, 0.7807, 0.7677, 0.7675, 0.7516, 0.7447, 0.7422, 0.7421, 0.7396, 0.7505, 0.766, 0.7621, 0.7557, 0.7514, 0.753, 0.7515, 0.7533, 0.7504, 0.7489, 0.7542, 0.7524, 0.7491, 0.7512, 0.7515, 0.7387, 0.7373, 0.746, 0.7455, 0.7562, 0.7564, 0.7621, 0.7572, 0.7688, 0.7599, 0.7517, 0.7653, 0.7647, 0.7659, 0.7652, 0.766, 0.7761, 0.7766, 0.7636, 0.7627, 0.7663, 0.7685, 0.7746, 0.776, 0.771, 0.7649, 0.7574, 0.7526, 0.7447, 0.7422, 0.7343, 0.7332, 0.7326, 0.7286, 0.7337, 0.7367, 0.7354, 0.7202, 0.7218, 0.7147, 0.7202, 0.7119, 0.713, 0.7107, 0.7175, 0.7182, 0.7185</t>
-  </si>
-  <si>
-    <t>20200114</t>
+    <t>2.2426, 2.1971, 2.0734, 2.0755, 2.1348, 2.1734, 2.1758, 2.2234, 2.092, 2.1215, 2.1357, 2.2095, 2.2078, 2.2387, 2.2638, 2.2518, 2.2818, 2.2616, 2.2244, 2.225, 2.1956, 2.2016, 2.1892, 2.205, 2.2138, 2.2181, 2.1749, 2.1209, 2.154, 2.1878, 2.167, 2.0861, 2.1193, 2.1555, 2.1477, 2.2029, 2.1795, 2.1445, 2.1362, 2.0877, 2.0949, 2.0079, 1.9704, 2.0718, 2.1254, 2.1693, 2.2067, 2.2138, 2.2307, 2.2079, 2.1674, 2.1986, 2.1315, 2.124, 2.1197, 2.1596, 2.179, 2.3221, 2.3767, 2.449, 2.4421, 2.4053, 2.3784, 2.3497, 2.3921, 2.3383, 2.34, 2.2989, 2.3281, 2.3712, 2.4095, 2.3889, 2.3404, 2.393, 2.4089, 2.4203, 2.507, 2.4721, 2.532, 2.5125, 2.4715, 2.5048, 2.5268, 2.5539, 2.5114, 2.4698, 2.478, 2.5412, 2.6213, 2.6735, 2.6178, 2.5937, 2.5784, 2.5938, 2.6097, 2.5868, 2.5702, 2.6348, 2.678, 2.7129, 2.7025, 2.7354, 2.7189, 2.7923, 2.838, 2.8463, 2.8857, 2.9675, 3.0917, 3.0286, 3.1201, 3.0892, 3.2443, 3.2327, 3.084, 3.1726, 3.25, 3.4204, 3.4082, 3.4441</t>
   </si>
   <si>
     <t>007874</t>
@@ -707,7 +695,7 @@
     <t>华宝科技ETF联接C</t>
   </si>
   <si>
-    <t>1.6647, 1.6346, 1.6055, 1.5156, 1.5296, 1.5503, 1.5652, 1.5834, 1.5724, 1.4907, 1.5057, 1.5238, 1.5769, 1.5595, 1.5834, 1.6108, 1.591, 1.6055, 1.5959, 1.562, 1.5512, 1.5318, 1.5252, 1.5163, 1.5386, 1.5632, 1.5603, 1.5148, 1.5122, 1.5201, 1.5483, 1.5467, 1.5196, 1.5305, 1.5591, 1.548, 1.5578, 1.5653, 1.5475, 1.5324, 1.4821, 1.4818, 1.4353, 1.4283, 1.4585, 1.4596, 1.4659, 1.4407, 1.4357, 1.4596, 1.4511, 1.4474, 1.4603, 1.4304, 1.4312, 1.4332, 1.4491, 1.4468, 1.4957, 1.5344, 1.5427, 1.5187, 1.5117, 1.499, 1.4864, 1.5005, 1.4738, 1.4693, 1.442, 1.4577, 1.472, 1.4934, 1.4929, 1.4685, 1.4788, 1.4986, 1.502, 1.5264, 1.5238, 1.5579, 1.5338, 1.4944, 1.5082, 1.5027, 1.4985, 1.4849, 1.4727, 1.4875, 1.4884, 1.4818, 1.4757, 1.4544, 1.4459, 1.4602, 1.4627, 1.4895, 1.4882, 1.4971, 1.5054, 1.4972, 1.4964, 1.479, 1.482, 1.4665, 1.4751, 1.4943, 1.4933, 1.5137, 1.5082, 1.5291, 1.4981, 1.5174, 1.5131, 1.5263, 1.5094, 1.5165, 1.5492, 1.5665, 1.5823, 1.6357</t>
+    <t>1.6346, 1.6055, 1.5156, 1.5296, 1.5503, 1.5652, 1.5834, 1.5724, 1.4907, 1.5057, 1.5238, 1.5769, 1.5595, 1.5834, 1.6108, 1.591, 1.6055, 1.5959, 1.562, 1.5512, 1.5318, 1.5252, 1.5163, 1.5386, 1.5632, 1.5603, 1.5148, 1.5122, 1.5201, 1.5483, 1.5467, 1.5196, 1.5305, 1.5591, 1.548, 1.5578, 1.5653, 1.5475, 1.5324, 1.4821, 1.4818, 1.4353, 1.4283, 1.4585, 1.4596, 1.4659, 1.4407, 1.4357, 1.4596, 1.4511, 1.4474, 1.4603, 1.4304, 1.4312, 1.4332, 1.4491, 1.4468, 1.4957, 1.5344, 1.5427, 1.5187, 1.5117, 1.499, 1.4864, 1.5005, 1.4738, 1.4693, 1.442, 1.4577, 1.472, 1.4934, 1.4929, 1.4685, 1.4788, 1.4986, 1.502, 1.5264, 1.5238, 1.5579, 1.5338, 1.4944, 1.5082, 1.5027, 1.4985, 1.4849, 1.4727, 1.4875, 1.4884, 1.4818, 1.4757, 1.4544, 1.4459, 1.4602, 1.4627, 1.4895, 1.4882, 1.4971, 1.5054, 1.4972, 1.4964, 1.479, 1.482, 1.4665, 1.4751, 1.4943, 1.4933, 1.5137, 1.5082, 1.5291, 1.4981, 1.5174, 1.5131, 1.5263, 1.5094, 1.5165, 1.5492, 1.5665, 1.5823, 1.6357, 1.6379</t>
   </si>
   <si>
     <t>007799</t>
@@ -716,7 +704,13 @@
     <t>申万菱信中小板指数C</t>
   </si>
   <si>
-    <t>1.6745, 1.6533, 1.6171, 1.5357, 1.5538, 1.5892, 1.5954, 1.6115, 1.6064, 1.5205, 1.5299, 1.5532, 1.596, 1.5853, 1.6091, 1.6436, 1.6277, 1.6404, 1.6318, 1.6109, 1.6082, 1.591, 1.5816, 1.5776, 1.5996, 1.6254, 1.6245, 1.5939, 1.5785, 1.6048, 1.6366, 1.6299, 1.6063, 1.6131, 1.6463, 1.627, 1.6468, 1.6515, 1.6333, 1.6204, 1.5745, 1.5679, 1.5207, 1.5178, 1.5447, 1.5509, 1.5691, 1.5566, 1.5581, 1.5824, 1.5678, 1.5542, 1.5651, 1.537, 1.5388, 1.5372, 1.554, 1.5583, 1.6023, 1.6427, 1.6625, 1.648, 1.6415, 1.6279, 1.6185, 1.6403, 1.6213, 1.616, 1.5855, 1.6032, 1.617, 1.6371, 1.6483, 1.6133, 1.6292, 1.642, 1.6525, 1.6824, 1.6751, 1.7031, 1.6823, 1.6445, 1.6508, 1.6435, 1.6445, 1.6307, 1.622, 1.6359, 1.6444, 1.6475, 1.6421, 1.6155, 1.6116, 1.6265, 1.6288, 1.6545, 1.6514, 1.6567, 1.6685, 1.669, 1.6701, 1.647, 1.6428, 1.6133, 1.6227, 1.6342, 1.6293, 1.6361, 1.6385, 1.6717, 1.6523, 1.6723, 1.6694, 1.6816, 1.6736, 1.6676, 1.6867, 1.7167, 1.757, 1.8168</t>
+    <t>1.6533, 1.6171, 1.5357, 1.5538, 1.5892, 1.5954, 1.6115, 1.6064, 1.5205, 1.5299, 1.5532, 1.596, 1.5853, 1.6091, 1.6436, 1.6277, 1.6404, 1.6318, 1.6109, 1.6082, 1.591, 1.5816, 1.5776, 1.5996, 1.6254, 1.6245, 1.5939, 1.5785, 1.6048, 1.6366, 1.6299, 1.6063, 1.6131, 1.6463, 1.627, 1.6468, 1.6515, 1.6333, 1.6204, 1.5745, 1.5679, 1.5207, 1.5178, 1.5447, 1.5509, 1.5691, 1.5566, 1.5581, 1.5824, 1.5678, 1.5542, 1.5651, 1.537, 1.5388, 1.5372, 1.554, 1.5583, 1.6023, 1.6427, 1.6625, 1.648, 1.6415, 1.6279, 1.6185, 1.6403, 1.6213, 1.616, 1.5855, 1.6032, 1.617, 1.6371, 1.6483, 1.6133, 1.6292, 1.642, 1.6525, 1.6824, 1.6751, 1.7031, 1.6823, 1.6445, 1.6508, 1.6435, 1.6445, 1.6307, 1.622, 1.6359, 1.6444, 1.6475, 1.6421, 1.6155, 1.6116, 1.6265, 1.6288, 1.6545, 1.6514, 1.6567, 1.6685, 1.669, 1.6701, 1.647, 1.6428, 1.6133, 1.6227, 1.6342, 1.6293, 1.6361, 1.6385, 1.6717, 1.6523, 1.6723, 1.6694, 1.6816, 1.6736, 1.6676, 1.6867, 1.7167, 1.757, 1.8168, 1.8171</t>
+  </si>
+  <si>
+    <t>20201228</t>
+  </si>
+  <si>
+    <t>20200106</t>
   </si>
   <si>
     <t>001592</t>
@@ -725,7 +719,7 @@
     <t>天弘创业板ETF联接基金A</t>
   </si>
   <si>
-    <t>1.1297, 1.1186, 1.1015, 1.0395, 1.0462, 1.0595, 1.0741, 1.0864, 1.0978, 1.0336, 1.0346, 1.0475, 1.0851, 1.0762, 1.0957, 1.1231, 1.1097, 1.1199, 1.1027, 1.0789, 1.0735, 1.0563, 1.0367, 1.0318, 1.0488, 1.0591, 1.0608, 1.0278, 1.0186, 1.0349, 1.0552, 1.0615, 1.0401, 1.0568, 1.0824, 1.0713, 1.0799, 1.0879, 1.0786, 1.0731, 1.0393, 1.0428, 0.9959, 0.9808, 1.0008, 1.0141, 1.0225, 1.0076, 1.009, 1.0235, 1.0134, 1.0083, 1.0248, 1.0008, 1.0025, 0.9956, 1.0113, 1.0156, 1.0524, 1.0915, 1.0942, 1.0864, 1.0775, 1.0724, 1.0595, 1.0784, 1.0635, 1.0535, 1.0264, 1.0329, 1.0451, 1.0525, 1.0639, 1.0474, 1.0671, 1.0804, 1.0828, 1.0976, 1.0768, 1.107, 1.0916, 1.057, 1.064, 1.0664, 1.0685, 1.0483, 1.0345, 1.0436, 1.0517, 1.059, 1.0546, 1.0324, 1.0301, 1.0337, 1.0385, 1.0633, 1.0574, 1.0686, 1.0755, 1.074, 1.0817, 1.0637, 1.0715, 1.062, 1.0764, 1.0885, 1.0891, 1.0986, 1.0967, 1.1348, 1.1075, 1.1194, 1.1111, 1.1186, 1.1194, 1.1082, 1.1408, 1.1657, 1.2077, 1.2151</t>
+    <t>1.1186, 1.1015, 1.0395, 1.0462, 1.0595, 1.0741, 1.0864, 1.0978, 1.0336, 1.0346, 1.0475, 1.0851, 1.0762, 1.0957, 1.1231, 1.1097, 1.1199, 1.1027, 1.0789, 1.0735, 1.0563, 1.0367, 1.0318, 1.0488, 1.0591, 1.0608, 1.0278, 1.0186, 1.0349, 1.0552, 1.0615, 1.0401, 1.0568, 1.0824, 1.0713, 1.0799, 1.0879, 1.0786, 1.0731, 1.0393, 1.0428, 0.9959, 0.9808, 1.0008, 1.0141, 1.0225, 1.0076, 1.009, 1.0235, 1.0134, 1.0083, 1.0248, 1.0008, 1.0025, 0.9956, 1.0113, 1.0156, 1.0524, 1.0915, 1.0942, 1.0864, 1.0775, 1.0724, 1.0595, 1.0784, 1.0635, 1.0535, 1.0264, 1.0329, 1.0451, 1.0525, 1.0639, 1.0474, 1.0671, 1.0804, 1.0828, 1.0976, 1.0768, 1.107, 1.0916, 1.057, 1.064, 1.0664, 1.0685, 1.0483, 1.0345, 1.0436, 1.0517, 1.059, 1.0546, 1.0324, 1.0301, 1.0337, 1.0385, 1.0633, 1.0574, 1.0686, 1.0755, 1.074, 1.0817, 1.0637, 1.0715, 1.062, 1.0764, 1.0885, 1.0891, 1.0986, 1.0967, 1.1348, 1.1075, 1.1194, 1.1111, 1.1186, 1.1194, 1.1082, 1.1408, 1.1657, 1.2077, 1.2151, 1.2215</t>
   </si>
   <si>
     <t>003834</t>
@@ -734,7 +728,7 @@
     <t>华夏能源革新股票</t>
   </si>
   <si>
-    <t>1.695, 1.645, 1.609, 1.527, 1.522, 1.556, 1.578, 1.587, 1.587, 1.493, 1.49, 1.524, 1.573, 1.569, 1.576, 1.618, 1.612, 1.648, 1.67, 1.674, 1.663, 1.637, 1.615, 1.617, 1.623, 1.626, 1.637, 1.585, 1.551, 1.569, 1.589, 1.568, 1.525, 1.552, 1.574, 1.572, 1.617, 1.623, 1.598, 1.579, 1.551, 1.546, 1.51, 1.485, 1.515, 1.548, 1.585, 1.589, 1.626, 1.639, 1.643, 1.619, 1.622, 1.578, 1.593, 1.596, 1.637, 1.652, 1.763, 1.824, 1.844, 1.859, 1.834, 1.795, 1.789, 1.858, 1.801, 1.8, 1.76, 1.802, 1.848, 1.894, 1.889, 1.858, 1.937, 1.918, 1.932, 2.041, 2.031, 2.07, 2.045, 1.98, 2.006, 2.049, 2.046, 1.989, 1.943, 1.948, 1.986, 2.06, 2.094, 2.035, 2.012, 1.993, 1.991, 2.016, 2, 1.978, 2.027, 2.07, 2.137, 2.121, 2.106, 2.091, 2.186, 2.219, 2.244, 2.28, 2.37, 2.497, 2.44, 2.495, 2.485, 2.633, 2.663, 2.521, 2.623, 2.703, 2.885, 2.942</t>
+    <t>1.645, 1.609, 1.527, 1.522, 1.556, 1.578, 1.587, 1.587, 1.493, 1.49, 1.524, 1.573, 1.569, 1.576, 1.618, 1.612, 1.648, 1.67, 1.674, 1.663, 1.637, 1.615, 1.617, 1.623, 1.626, 1.637, 1.585, 1.551, 1.569, 1.589, 1.568, 1.525, 1.552, 1.574, 1.572, 1.617, 1.623, 1.598, 1.579, 1.551, 1.546, 1.51, 1.485, 1.515, 1.548, 1.585, 1.589, 1.626, 1.639, 1.643, 1.619, 1.622, 1.578, 1.593, 1.596, 1.637, 1.652, 1.763, 1.824, 1.844, 1.859, 1.834, 1.795, 1.789, 1.858, 1.801, 1.8, 1.76, 1.802, 1.848, 1.894, 1.889, 1.858, 1.937, 1.918, 1.932, 2.041, 2.031, 2.07, 2.045, 1.98, 2.006, 2.049, 2.046, 1.989, 1.943, 1.948, 1.986, 2.06, 2.094, 2.035, 2.012, 1.993, 1.991, 2.016, 2, 1.978, 2.027, 2.07, 2.137, 2.121, 2.106, 2.091, 2.186, 2.219, 2.244, 2.28, 2.37, 2.497, 2.44, 2.495, 2.485, 2.633, 2.663, 2.521, 2.623, 2.703, 2.885, 2.942, 2.94</t>
   </si>
   <si>
     <t>004666</t>
@@ -743,7 +737,7 @@
     <t>长城久嘉创新成长混合</t>
   </si>
   <si>
-    <t>1.781, 1.7658, 1.659, 1.539, 1.5232, 1.5756, 1.5759, 1.5916, 1.5843, 1.4727, 1.4649, 1.4679, 1.5558, 1.5566, 1.6122, 1.6563, 1.6181, 1.6459, 1.6332, 1.5633, 1.5748, 1.5352, 1.5442, 1.5294, 1.5455, 1.5647, 1.5535, 1.4948, 1.4892, 1.4836, 1.4915, 1.4737, 1.4125, 1.4405, 1.435, 1.4261, 1.4194, 1.3911, 1.4013, 1.4327, 1.3724, 1.3406, 1.2708, 1.2682, 1.3122, 1.3233, 1.3385, 1.3351, 1.361, 1.378, 1.3623, 1.3366, 1.355, 1.3287, 1.312, 1.2941, 1.3061, 1.3034, 1.3384, 1.4171, 1.4053, 1.3699, 1.3636, 1.3435, 1.3264, 1.3294, 1.2915, 1.2881, 1.2609, 1.2697, 1.2811, 1.2939, 1.2948, 1.3347, 1.3817, 1.408, 1.3857, 1.4047, 1.4286, 1.543, 1.5047, 1.4176, 1.4224, 1.4454, 1.4311, 1.4396, 1.4205, 1.4164, 1.4021, 1.4084, 1.4389, 1.4425, 1.4196, 1.4462, 1.4601, 1.4717, 1.499, 1.477, 1.4661, 1.4815, 1.4877, 1.4453, 1.4788, 1.4779, 1.5164, 1.463, 1.424, 1.4459, 1.4265, 1.4571, 1.4078, 1.4378, 1.4156, 1.3823, 1.3669, 1.388, 1.4087, 1.4296, 1.4458, 1.5174</t>
+    <t>1.7658, 1.659, 1.539, 1.5232, 1.5756, 1.5759, 1.5916, 1.5843, 1.4727, 1.4649, 1.4679, 1.5558, 1.5566, 1.6122, 1.6563, 1.6181, 1.6459, 1.6332, 1.5633, 1.5748, 1.5352, 1.5442, 1.5294, 1.5455, 1.5647, 1.5535, 1.4948, 1.4892, 1.4836, 1.4915, 1.4737, 1.4125, 1.4405, 1.435, 1.4261, 1.4194, 1.3911, 1.4013, 1.4327, 1.3724, 1.3406, 1.2708, 1.2682, 1.3122, 1.3233, 1.3385, 1.3351, 1.361, 1.378, 1.3623, 1.3366, 1.355, 1.3287, 1.312, 1.2941, 1.3061, 1.3034, 1.3384, 1.4171, 1.4053, 1.3699, 1.3636, 1.3435, 1.3264, 1.3294, 1.2915, 1.2881, 1.2609, 1.2697, 1.2811, 1.2939, 1.2948, 1.3347, 1.3817, 1.408, 1.3857, 1.4047, 1.4286, 1.543, 1.5047, 1.4176, 1.4224, 1.4454, 1.4311, 1.4396, 1.4205, 1.4164, 1.4021, 1.4084, 1.4389, 1.4425, 1.4196, 1.4462, 1.4601, 1.4717, 1.499, 1.477, 1.4661, 1.4815, 1.4877, 1.4453, 1.4788, 1.4779, 1.5164, 1.463, 1.424, 1.4459, 1.4265, 1.4571, 1.4078, 1.4378, 1.4156, 1.3823, 1.3669, 1.388, 1.4087, 1.4296, 1.4458, 1.5174, 1.4869</t>
   </si>
   <si>
     <t>001210</t>
@@ -752,7 +746,7 @@
     <t>天弘互联网混合</t>
   </si>
   <si>
-    <t>1.3977, 1.3825, 1.3076, 1.2254, 1.2217, 1.2513, 1.2572, 1.27, 1.2626, 1.189, 1.179, 1.2016, 1.2552, 1.2456, 1.2955, 1.347, 1.3116, 1.3196, 1.3071, 1.2598, 1.2556, 1.2357, 1.2438, 1.2298, 1.25, 1.2655, 1.2553, 1.2146, 1.2143, 1.222, 1.252, 1.2449, 1.208, 1.2227, 1.2261, 1.2147, 1.2185, 1.226, 1.2101, 1.2132, 1.1675, 1.1448, 1.1068, 1.0982, 1.1317, 1.1485, 1.1519, 1.1363, 1.1487, 1.1632, 1.1546, 1.1461, 1.1553, 1.1295, 1.1225, 1.1225, 1.1386, 1.141, 1.1824, 1.2131, 1.209, 1.1845, 1.1774, 1.1594, 1.1656, 1.1719, 1.1446, 1.1437, 1.125, 1.1455, 1.1658, 1.1838, 1.1752, 1.1521, 1.1687, 1.1843, 1.1846, 1.221, 1.2259, 1.2745, 1.2419, 1.1907, 1.1919, 1.1857, 1.1643, 1.1599, 1.1529, 1.1594, 1.1548, 1.144, 1.1415, 1.1348, 1.1289, 1.1419, 1.152, 1.17, 1.1775, 1.1704, 1.1755, 1.1847, 1.1838, 1.1683, 1.1682, 1.1475, 1.1479, 1.1478, 1.1267, 1.1343, 1.1271, 1.1466, 1.1208, 1.1537, 1.1499, 1.1449, 1.1282, 1.1464, 1.1507, 1.1651, 1.1806, 1.2139</t>
+    <t>1.3825, 1.3076, 1.2254, 1.2217, 1.2513, 1.2572, 1.27, 1.2626, 1.189, 1.179, 1.2016, 1.2552, 1.2456, 1.2955, 1.347, 1.3116, 1.3196, 1.3071, 1.2598, 1.2556, 1.2357, 1.2438, 1.2298, 1.25, 1.2655, 1.2553, 1.2146, 1.2143, 1.222, 1.252, 1.2449, 1.208, 1.2227, 1.2261, 1.2147, 1.2185, 1.226, 1.2101, 1.2132, 1.1675, 1.1448, 1.1068, 1.0982, 1.1317, 1.1485, 1.1519, 1.1363, 1.1487, 1.1632, 1.1546, 1.1461, 1.1553, 1.1295, 1.1225, 1.1225, 1.1386, 1.141, 1.1824, 1.2131, 1.209, 1.1845, 1.1774, 1.1594, 1.1656, 1.1719, 1.1446, 1.1437, 1.125, 1.1455, 1.1658, 1.1838, 1.1752, 1.1521, 1.1687, 1.1843, 1.1846, 1.221, 1.2259, 1.2745, 1.2419, 1.1907, 1.1919, 1.1857, 1.1643, 1.1599, 1.1529, 1.1594, 1.1548, 1.144, 1.1415, 1.1348, 1.1289, 1.1419, 1.152, 1.17, 1.1775, 1.1704, 1.1755, 1.1847, 1.1838, 1.1683, 1.1682, 1.1475, 1.1479, 1.1478, 1.1267, 1.1343, 1.1271, 1.1466, 1.1208, 1.1537, 1.1499, 1.1449, 1.1282, 1.1464, 1.1507, 1.1651, 1.1806, 1.2139, 1.1912</t>
   </si>
   <si>
     <t>003511</t>
@@ -761,7 +755,7 @@
     <t>长盛可转债债券C</t>
   </si>
   <si>
-    <t>1.5454, 1.5226, 1.4964, 1.4189, 1.4206, 1.4516, 1.456, 1.4724, 1.4716, 1.4109, 1.4011, 1.419, 1.4577, 1.4512, 1.4766, 1.5026, 1.4922, 1.5085, 1.5058, 1.4876, 1.4811, 1.4537, 1.4457, 1.4429, 1.454, 1.4802, 1.4879, 1.4644, 1.4498, 1.4669, 1.4813, 1.4859, 1.46, 1.4696, 1.4913, 1.4988, 1.5092, 1.5188, 1.5055, 1.494, 1.4533, 1.448, 1.4148, 1.4065, 1.4228, 1.4301, 1.4322, 1.4206, 1.4204, 1.438, 1.4337, 1.4226, 1.4275, 1.3997, 1.3964, 1.3949, 1.4104, 1.4188, 1.4514, 1.4766, 1.4851, 1.4774, 1.4684, 1.4576, 1.4442, 1.4565, 1.4456, 1.4463, 1.4264, 1.4335, 1.452, 1.467, 1.474, 1.4478, 1.4526, 1.4599, 1.4629, 1.4846, 1.4751, 1.4982, 1.4824, 1.4679, 1.4696, 1.4569, 1.457, 1.4403, 1.4352, 1.4428, 1.4459, 1.4535, 1.4512, 1.4394, 1.4297, 1.4399, 1.4369, 1.4563, 1.459, 1.4542, 1.4555, 1.459, 1.4563, 1.4472, 1.4435, 1.4277, 1.4289, 1.4259, 1.4172, 1.4248, 1.4327, 1.4536, 1.442, 1.451, 1.438, 1.4482, 1.4392, 1.4312, 1.4494, 1.474, 1.5064, 1.5305</t>
+    <t>1.5226, 1.4964, 1.4189, 1.4206, 1.4516, 1.456, 1.4724, 1.4716, 1.4109, 1.4011, 1.419, 1.4577, 1.4512, 1.4766, 1.5026, 1.4922, 1.5085, 1.5058, 1.4876, 1.4811, 1.4537, 1.4457, 1.4429, 1.454, 1.4802, 1.4879, 1.4644, 1.4498, 1.4669, 1.4813, 1.4859, 1.46, 1.4696, 1.4913, 1.4988, 1.5092, 1.5188, 1.5055, 1.494, 1.4533, 1.448, 1.4148, 1.4065, 1.4228, 1.4301, 1.4322, 1.4206, 1.4204, 1.438, 1.4337, 1.4226, 1.4275, 1.3997, 1.3964, 1.3949, 1.4104, 1.4188, 1.4514, 1.4766, 1.4851, 1.4774, 1.4684, 1.4576, 1.4442, 1.4565, 1.4456, 1.4463, 1.4264, 1.4335, 1.452, 1.467, 1.474, 1.4478, 1.4526, 1.4599, 1.4629, 1.4846, 1.4751, 1.4982, 1.4824, 1.4679, 1.4696, 1.4569, 1.457, 1.4403, 1.4352, 1.4428, 1.4459, 1.4535, 1.4512, 1.4394, 1.4297, 1.4399, 1.4369, 1.4563, 1.459, 1.4542, 1.4555, 1.459, 1.4563, 1.4472, 1.4435, 1.4277, 1.4289, 1.4259, 1.4172, 1.4248, 1.4327, 1.4536, 1.442, 1.451, 1.438, 1.4482, 1.4392, 1.4312, 1.4494, 1.474, 1.5064, 1.5305, 1.5242</t>
   </si>
   <si>
     <t>005312</t>
@@ -770,7 +764,7 @@
     <t>万家经济新动能混合C</t>
   </si>
   <si>
-    <t>2.537, 2.4764, 2.3931, 2.2171, 2.1621, 2.1934, 2.2018, 2.2235, 2.2024, 2.054, 2.0674, 2.0757, 2.1493, 2.1309, 2.1623, 2.2408, 2.207, 2.2201, 2.1891, 2.1246, 2.1304, 2.0915, 2.069, 2.0746, 2.1039, 2.1136, 2.1139, 2.0481, 2.0251, 2.0414, 2.0721, 2.0598, 1.9982, 2.0444, 2.0597, 2.0405, 2.0617, 2.0612, 2.0622, 2.0501, 1.9815, 1.9686, 1.8805, 1.862, 1.9036, 1.9155, 1.941, 1.9223, 1.9753, 1.9998, 1.9716, 1.9642, 2.0076, 1.9598, 1.9522, 1.9254, 1.9614, 1.9823, 2.0342, 2.1278, 2.1565, 2.1362, 2.1161, 2.0881, 2.057, 2.0737, 2.0433, 2.0357, 1.9841, 1.996, 2.0143, 2.0168, 2.0288, 2.0347, 2.0651, 2.1142, 2.1008, 2.1472, 2.1409, 2.2099, 2.1381, 2.055, 2.0595, 2.0841, 2.0724, 2.091, 2.0675, 2.0903, 2.1006, 2.1042, 2.12, 2.0847, 2.0531, 2.0798, 2.0807, 2.1102, 2.1045, 2.0936, 2.095, 2.1054, 2.1226, 2.0702, 2.0754, 2.0659, 2.0772, 2.0766, 2.074, 2.0847, 2.0758, 2.1109, 2.0616, 2.0642, 2.0185, 2.0059, 2.0277, 2.036, 2.0674, 2.1215, 2.1809, 2.229</t>
+    <t>2.4764, 2.3931, 2.2171, 2.1621, 2.1934, 2.2018, 2.2235, 2.2024, 2.054, 2.0674, 2.0757, 2.1493, 2.1309, 2.1623, 2.2408, 2.207, 2.2201, 2.1891, 2.1246, 2.1304, 2.0915, 2.069, 2.0746, 2.1039, 2.1136, 2.1139, 2.0481, 2.0251, 2.0414, 2.0721, 2.0598, 1.9982, 2.0444, 2.0597, 2.0405, 2.0617, 2.0612, 2.0622, 2.0501, 1.9815, 1.9686, 1.8805, 1.862, 1.9036, 1.9155, 1.941, 1.9223, 1.9753, 1.9998, 1.9716, 1.9642, 2.0076, 1.9598, 1.9522, 1.9254, 1.9614, 1.9823, 2.0342, 2.1278, 2.1565, 2.1362, 2.1161, 2.0881, 2.057, 2.0737, 2.0433, 2.0357, 1.9841, 1.996, 2.0143, 2.0168, 2.0288, 2.0347, 2.0651, 2.1142, 2.1008, 2.1472, 2.1409, 2.2099, 2.1381, 2.055, 2.0595, 2.0841, 2.0724, 2.091, 2.0675, 2.0903, 2.1006, 2.1042, 2.12, 2.0847, 2.0531, 2.0798, 2.0807, 2.1102, 2.1045, 2.0936, 2.095, 2.1054, 2.1226, 2.0702, 2.0754, 2.0659, 2.0772, 2.0766, 2.074, 2.0847, 2.0758, 2.1109, 2.0616, 2.0642, 2.0185, 2.0059, 2.0277, 2.036, 2.0674, 2.1215, 2.1809, 2.229, 2.2067</t>
   </si>
   <si>
     <t>003853</t>
@@ -779,7 +773,7 @@
     <t>金鹰信息产业股票A</t>
   </si>
   <si>
-    <t>2.6995, 2.6175, 2.5587, 2.4656, 2.4757, 2.5377, 2.5594, 2.5724, 2.5674, 2.3925, 2.3469, 2.3979, 2.4768, 2.4601, 2.5199, 2.561, 2.5497, 2.5673, 2.5645, 2.5296, 2.4979, 2.4573, 2.4323, 2.4389, 2.4815, 2.5091, 2.5326, 2.4543, 2.4234, 2.4586, 2.5039, 2.497, 2.4182, 2.4669, 2.4913, 2.4618, 2.5294, 2.5353, 2.5097, 2.4807, 2.4117, 2.394, 2.3136, 2.2745, 2.3332, 2.3962, 2.445, 2.4546, 2.5178, 2.5305, 2.5211, 2.4786, 2.4837, 2.4118, 2.4033, 2.3987, 2.4553, 2.4818, 2.6538, 2.749, 2.7651, 2.7685, 2.7605, 2.6849, 2.6679, 2.7359, 2.662, 2.6641, 2.6157, 2.6568, 2.6977, 2.7535, 2.7353, 2.7018, 2.7827, 2.7814, 2.8282, 2.9908, 2.9456, 2.9763, 2.9444, 2.8457, 2.8647, 2.9073, 2.9087, 2.8418, 2.7787, 2.7835, 2.8272, 2.8838, 2.8976, 2.8314, 2.7829, 2.7955, 2.7876, 2.8193, 2.8205, 2.7989, 2.8379, 2.8931, 2.9909, 2.9515, 2.9436, 2.9368, 3.0152, 3.041, 3.0317, 3.0844, 3.1554, 3.3168, 3.2187, 3.2679, 3.2217, 3.3264, 3.3326, 3.2014, 3.3118, 3.3755, 3.5721, 3.5583</t>
+    <t>2.6175, 2.5587, 2.4656, 2.4757, 2.5377, 2.5594, 2.5724, 2.5674, 2.3925, 2.3469, 2.3979, 2.4768, 2.4601, 2.5199, 2.561, 2.5497, 2.5673, 2.5645, 2.5296, 2.4979, 2.4573, 2.4323, 2.4389, 2.4815, 2.5091, 2.5326, 2.4543, 2.4234, 2.4586, 2.5039, 2.497, 2.4182, 2.4669, 2.4913, 2.4618, 2.5294, 2.5353, 2.5097, 2.4807, 2.4117, 2.394, 2.3136, 2.2745, 2.3332, 2.3962, 2.445, 2.4546, 2.5178, 2.5305, 2.5211, 2.4786, 2.4837, 2.4118, 2.4033, 2.3987, 2.4553, 2.4818, 2.6538, 2.749, 2.7651, 2.7685, 2.7605, 2.6849, 2.6679, 2.7359, 2.662, 2.6641, 2.6157, 2.6568, 2.6977, 2.7535, 2.7353, 2.7018, 2.7827, 2.7814, 2.8282, 2.9908, 2.9456, 2.9763, 2.9444, 2.8457, 2.8647, 2.9073, 2.9087, 2.8418, 2.7787, 2.7835, 2.8272, 2.8838, 2.8976, 2.8314, 2.7829, 2.7955, 2.7876, 2.8193, 2.8205, 2.7989, 2.8379, 2.8931, 2.9909, 2.9515, 2.9436, 2.9368, 3.0152, 3.041, 3.0317, 3.0844, 3.1554, 3.3168, 3.2187, 3.2679, 3.2217, 3.3264, 3.3326, 3.2014, 3.3118, 3.3755, 3.5721, 3.5583, 3.494</t>
   </si>
   <si>
     <t>519670</t>
@@ -788,7 +782,7 @@
     <t>银河行业混合</t>
   </si>
   <si>
-    <t>4.232, 4.213, 4.194, 4.063, 4.075, 4.099, 4.148, 4.158, 4.206, 4.069, 4.074, 4.084, 4.184, 4.191, 4.244, 4.294, 4.27, 4.298, 4.246, 4.201, 4.203, 4.171, 4.142, 4.105, 4.125, 4.135, 4.137, 4.053, 4.043, 4.073, 4.106, 4.097, 4.04, 4.086, 4.129, 4.11, 4.118, 4.109, 4.096, 4.099, 3.976, 3.965, 3.864, 3.866, 3.935, 3.953, 3.984, 3.953, 3.969, 3.99, 3.965, 3.964, 4.04, 3.986, 3.979, 3.969, 4, 4.004, 4.088, 4.17, 4.168, 4.137, 4.127, 4.107, 4.079, 4.099, 4.071, 4.055, 3.994, 4.025, 4.065, 4.123, 4.154, 4.136, 4.138, 4.168, 4.162, 4.191, 4.17, 4.248, 4.197, 4.097, 4.106, 4.099, 4.072, 4.045, 4.007, 4.01, 4.004, 3.989, 3.974, 3.931, 3.905, 3.928, 3.939, 3.974, 3.98, 4.006, 4.014, 4.05, 4.059, 4.05, 4.071, 4.067, 4.09, 4.09, 4.086, 4.123, 4.128, 4.179, 4.133, 4.169, 4.168, 4.176, 4.156, 4.146, 4.181, 4.205, 4.224, 4.27</t>
+    <t>4.213, 4.194, 4.063, 4.075, 4.099, 4.148, 4.158, 4.206, 4.069, 4.074, 4.084, 4.184, 4.191, 4.244, 4.294, 4.27, 4.298, 4.246, 4.201, 4.203, 4.171, 4.142, 4.105, 4.125, 4.135, 4.137, 4.053, 4.043, 4.073, 4.106, 4.097, 4.04, 4.086, 4.129, 4.11, 4.118, 4.109, 4.096, 4.099, 3.976, 3.965, 3.864, 3.866, 3.935, 3.953, 3.984, 3.953, 3.969, 3.99, 3.965, 3.964, 4.04, 3.986, 3.979, 3.969, 4, 4.004, 4.088, 4.17, 4.168, 4.137, 4.127, 4.107, 4.079, 4.099, 4.071, 4.055, 3.994, 4.025, 4.065, 4.123, 4.154, 4.136, 4.138, 4.168, 4.162, 4.191, 4.17, 4.248, 4.197, 4.097, 4.106, 4.099, 4.072, 4.045, 4.007, 4.01, 4.004, 3.989, 3.974, 3.931, 3.905, 3.928, 3.939, 3.974, 3.98, 4.006, 4.014, 4.05, 4.059, 4.05, 4.071, 4.067, 4.09, 4.09, 4.086, 4.123, 4.128, 4.179, 4.133, 4.169, 4.168, 4.176, 4.156, 4.146, 4.181, 4.205, 4.224, 4.27, 4.286</t>
   </si>
   <si>
     <t>161726</t>
@@ -797,7 +791,7 @@
     <t>招商国证生物医药指数</t>
   </si>
   <si>
-    <t>1.365, 1.3676, 1.3665, 1.3322, 1.3421, 1.3372, 1.3658, 1.3778, 1.4064, 1.363, 1.3748, 1.3794, 1.4108, 1.42, 1.4367, 1.4552, 1.445, 1.4581, 1.4293, 1.4227, 1.4261, 1.4164, 1.3862, 1.3678, 1.3757, 1.3841, 1.3907, 1.3576, 1.3503, 1.3549, 1.3496, 1.352, 1.3441, 1.3543, 1.3753, 1.3653, 1.3609, 1.3583, 1.3562, 1.3529, 1.3265, 1.3284, 1.289, 1.2884, 1.2955, 1.2886, 1.3003, 1.2875, 1.2816, 1.2885, 1.2855, 1.2894, 1.3163, 1.3119, 1.3119, 1.298, 1.3025, 1.3107, 1.3296, 1.3498, 1.3555, 1.3529, 1.3475, 1.3502, 1.3352, 1.3395, 1.3398, 1.3213, 1.2914, 1.3, 1.3141, 1.3121, 1.3348, 1.325, 1.3147, 1.3214, 1.3225, 1.3218, 1.2993, 1.3103, 1.2977, 1.2759, 1.281, 1.2798, 1.2856, 1.2665, 1.2567, 1.2611, 1.2624, 1.2637, 1.2572, 1.244, 1.2397, 1.2438, 1.25, 1.2637, 1.2614, 1.2781, 1.2844, 1.275, 1.2738, 1.2637, 1.2643, 1.2601, 1.2659, 1.2742, 1.2801, 1.2916, 1.2935, 1.3029, 1.3025, 1.3017, 1.2996, 1.307, 1.3021, 1.2963, 1.2998, 1.3058, 1.3076, 1.3149</t>
+    <t>1.3676, 1.3665, 1.3322, 1.3421, 1.3372, 1.3658, 1.3778, 1.4064, 1.363, 1.3748, 1.3794, 1.4108, 1.42, 1.4367, 1.4552, 1.445, 1.4581, 1.4293, 1.4227, 1.4261, 1.4164, 1.3862, 1.3678, 1.3757, 1.3841, 1.3907, 1.3576, 1.3503, 1.3549, 1.3496, 1.352, 1.3441, 1.3543, 1.3753, 1.3653, 1.3609, 1.3583, 1.3562, 1.3529, 1.3265, 1.3284, 1.289, 1.2884, 1.2955, 1.2886, 1.3003, 1.2875, 1.2816, 1.2885, 1.2855, 1.2894, 1.3163, 1.3119, 1.3119, 1.298, 1.3025, 1.3107, 1.3296, 1.3498, 1.3555, 1.3529, 1.3475, 1.3502, 1.3352, 1.3395, 1.3398, 1.3213, 1.2914, 1.3, 1.3141, 1.3121, 1.3348, 1.325, 1.3147, 1.3214, 1.3225, 1.3218, 1.2993, 1.3103, 1.2977, 1.2759, 1.281, 1.2798, 1.2856, 1.2665, 1.2567, 1.2611, 1.2624, 1.2637, 1.2572, 1.244, 1.2397, 1.2438, 1.25, 1.2637, 1.2614, 1.2781, 1.2844, 1.275, 1.2738, 1.2637, 1.2643, 1.2601, 1.2659, 1.2742, 1.2801, 1.2916, 1.2935, 1.3029, 1.3025, 1.3017, 1.2996, 1.307, 1.3021, 1.2963, 1.2998, 1.3058, 1.3076, 1.3149, 1.3284</t>
   </si>
   <si>
     <t>20200228</t>
@@ -809,7 +803,7 @@
     <t>南方教育股票</t>
   </si>
   <si>
-    <t>2.2508, 2.2144, 2.1299, 2.009, 1.9933, 2.0424, 2.0809, 2.1089, 2.1221, 1.9899, 1.9623, 1.9899, 2.0855, 2.1054, 2.1932, 2.2506, 2.1673, 2.1888, 2.1525, 2.0978, 2.0951, 2.034, 2.0183, 1.9958, 2.0136, 2.0281, 2.0274, 1.9619, 1.9523, 1.9713, 1.9948, 1.9732, 1.9022, 1.9231, 1.9317, 1.9214, 1.9417, 1.9484, 1.9331, 1.9043, 1.8402, 1.832, 1.775, 1.7269, 1.7641, 1.7981, 1.8036, 1.7918, 1.81, 1.8375, 1.8499, 1.8202, 1.8572, 1.799, 1.7972, 1.8092, 1.8548, 1.847, 1.9203, 1.9643, 1.9732, 1.9681, 1.9336, 1.9159, 1.8837, 1.8985, 1.8702, 1.8497, 1.7882, 1.8213, 1.8535, 1.862, 1.8637, 1.842, 1.8821, 1.912, 1.9195, 1.953, 1.9313, 1.973, 1.9474, 1.895, 1.9172, 1.9353, 1.9694, 1.9312, 1.9183, 1.9325, 1.9643, 1.9689, 1.9632, 1.9188, 1.8981, 1.8901, 1.8811, 1.9101, 1.9002, 1.9008, 1.9092, 1.9334, 1.9375, 1.9078, 1.9285, 1.9223, 1.9777, 1.9834, 1.9806, 1.9919, 2.0078, 2.0764, 2.033, 2.0924, 2.0627, 2.0991, 2.0898, 2.0432, 2.091, 2.149, 2.2567, 2.278</t>
+    <t>2.2144, 2.1299, 2.009, 1.9933, 2.0424, 2.0809, 2.1089, 2.1221, 1.9899, 1.9623, 1.9899, 2.0855, 2.1054, 2.1932, 2.2506, 2.1673, 2.1888, 2.1525, 2.0978, 2.0951, 2.034, 2.0183, 1.9958, 2.0136, 2.0281, 2.0274, 1.9619, 1.9523, 1.9713, 1.9948, 1.9732, 1.9022, 1.9231, 1.9317, 1.9214, 1.9417, 1.9484, 1.9331, 1.9043, 1.8402, 1.832, 1.775, 1.7269, 1.7641, 1.7981, 1.8036, 1.7918, 1.81, 1.8375, 1.8499, 1.8202, 1.8572, 1.799, 1.7972, 1.8092, 1.8548, 1.847, 1.9203, 1.9643, 1.9732, 1.9681, 1.9336, 1.9159, 1.8837, 1.8985, 1.8702, 1.8497, 1.7882, 1.8213, 1.8535, 1.862, 1.8637, 1.842, 1.8821, 1.912, 1.9195, 1.953, 1.9313, 1.973, 1.9474, 1.895, 1.9172, 1.9353, 1.9694, 1.9312, 1.9183, 1.9325, 1.9643, 1.9689, 1.9632, 1.9188, 1.8981, 1.8901, 1.8811, 1.9101, 1.9002, 1.9008, 1.9092, 1.9334, 1.9375, 1.9078, 1.9285, 1.9223, 1.9777, 1.9834, 1.9806, 1.9919, 2.0078, 2.0764, 2.033, 2.0924, 2.0627, 2.0991, 2.0898, 2.0432, 2.091, 2.149, 2.2567, 2.278, 2.2612</t>
   </si>
   <si>
     <t>005939</t>
@@ -818,7 +812,7 @@
     <t>工银新能源汽车混合A</t>
   </si>
   <si>
-    <t>2.0249, 1.9469, 1.9136, 1.8399, 1.854, 1.8783, 1.8927, 1.9066, 1.9067, 1.779, 1.7602, 1.7989, 1.853, 1.8422, 1.8876, 1.9295, 1.9341, 1.9381, 1.9363, 1.9161, 1.8959, 1.8684, 1.8633, 1.862, 1.8833, 1.8873, 1.8879, 1.8345, 1.7977, 1.8095, 1.851, 1.8444, 1.7941, 1.8299, 1.8472, 1.8241, 1.8976, 1.9006, 1.8758, 1.8421, 1.7898, 1.7695, 1.7009, 1.692, 1.7391, 1.7843, 1.8414, 1.854, 1.9061, 1.9189, 1.8944, 1.8637, 1.867, 1.8091, 1.8169, 1.8179, 1.8648, 1.8854, 2.0121, 2.0926, 2.1076, 2.1067, 2.0975, 2.0394, 2.0164, 2.0848, 2.0184, 2.0321, 1.9895, 2.0354, 2.0613, 2.1303, 2.1154, 2.1163, 2.2043, 2.1916, 2.2173, 2.363, 2.3397, 2.3616, 2.3196, 2.2466, 2.2835, 2.3354, 2.3187, 2.2684, 2.2209, 2.2169, 2.3006, 2.3666, 2.3916, 2.3606, 2.3023, 2.3057, 2.2919, 2.3248, 2.3083, 2.296, 2.3148, 2.3413, 2.4324, 2.3909, 2.3784, 2.371, 2.441, 2.4737, 2.4644, 2.5087, 2.5691, 2.7074, 2.6313, 2.6913, 2.6604, 2.7759, 2.7774, 2.617, 2.7179, 2.7757, 2.9983, 3.024</t>
+    <t>1.9469, 1.9136, 1.8399, 1.854, 1.8783, 1.8927, 1.9066, 1.9067, 1.779, 1.7602, 1.7989, 1.853, 1.8422, 1.8876, 1.9295, 1.9341, 1.9381, 1.9363, 1.9161, 1.8959, 1.8684, 1.8633, 1.862, 1.8833, 1.8873, 1.8879, 1.8345, 1.7977, 1.8095, 1.851, 1.8444, 1.7941, 1.8299, 1.8472, 1.8241, 1.8976, 1.9006, 1.8758, 1.8421, 1.7898, 1.7695, 1.7009, 1.692, 1.7391, 1.7843, 1.8414, 1.854, 1.9061, 1.9189, 1.8944, 1.8637, 1.867, 1.8091, 1.8169, 1.8179, 1.8648, 1.8854, 2.0121, 2.0926, 2.1076, 2.1067, 2.0975, 2.0394, 2.0164, 2.0848, 2.0184, 2.0321, 1.9895, 2.0354, 2.0613, 2.1303, 2.1154, 2.1163, 2.2043, 2.1916, 2.2173, 2.363, 2.3397, 2.3616, 2.3196, 2.2466, 2.2835, 2.3354, 2.3187, 2.2684, 2.2209, 2.2169, 2.3006, 2.3666, 2.3916, 2.3606, 2.3023, 2.3057, 2.2919, 2.3248, 2.3083, 2.296, 2.3148, 2.3413, 2.4324, 2.3909, 2.3784, 2.371, 2.441, 2.4737, 2.4644, 2.5087, 2.5691, 2.7074, 2.6313, 2.6913, 2.6604, 2.7759, 2.7774, 2.617, 2.7179, 2.7757, 2.9983, 3.024, 2.9985</t>
   </si>
   <si>
     <t>001156</t>
@@ -827,7 +821,7 @@
     <t>申万菱信新能源汽车混合</t>
   </si>
   <si>
-    <t>1.716, 1.675, 1.655, 1.584, 1.594, 1.645, 1.67, 1.684, 1.711, 1.608, 1.61, 1.628, 1.679, 1.694, 1.719, 1.735, 1.731, 1.733, 1.706, 1.686, 1.682, 1.643, 1.618, 1.618, 1.641, 1.651, 1.651, 1.601, 1.575, 1.614, 1.661, 1.649, 1.59, 1.626, 1.653, 1.651, 1.713, 1.711, 1.682, 1.656, 1.605, 1.599, 1.551, 1.548, 1.613, 1.655, 1.679, 1.685, 1.723, 1.728, 1.712, 1.681, 1.71, 1.642, 1.65, 1.664, 1.7, 1.716, 1.848, 1.904, 1.915, 1.909, 1.877, 1.834, 1.793, 1.853, 1.801, 1.795, 1.758, 1.803, 1.837, 1.893, 1.889, 1.907, 1.952, 1.93, 1.926, 2.048, 2.005, 2.037, 2.036, 1.972, 1.977, 1.99, 1.978, 1.908, 1.864, 1.889, 1.93, 1.972, 1.975, 1.927, 1.907, 1.912, 1.899, 1.925, 1.906, 1.903, 1.915, 1.955, 2.031, 2.019, 2.032, 2.013, 2.079, 2.106, 2.115, 2.118, 2.179, 2.322, 2.262, 2.318, 2.287, 2.382, 2.383, 2.278, 2.36, 2.409, 2.616, 2.645</t>
+    <t>1.675, 1.655, 1.584, 1.594, 1.645, 1.67, 1.684, 1.711, 1.608, 1.61, 1.628, 1.679, 1.694, 1.719, 1.735, 1.731, 1.733, 1.706, 1.686, 1.682, 1.643, 1.618, 1.618, 1.641, 1.651, 1.651, 1.601, 1.575, 1.614, 1.661, 1.649, 1.59, 1.626, 1.653, 1.651, 1.713, 1.711, 1.682, 1.656, 1.605, 1.599, 1.551, 1.548, 1.613, 1.655, 1.679, 1.685, 1.723, 1.728, 1.712, 1.681, 1.71, 1.642, 1.65, 1.664, 1.7, 1.716, 1.848, 1.904, 1.915, 1.909, 1.877, 1.834, 1.793, 1.853, 1.801, 1.795, 1.758, 1.803, 1.837, 1.893, 1.889, 1.907, 1.952, 1.93, 1.926, 2.048, 2.005, 2.037, 2.036, 1.972, 1.977, 1.99, 1.978, 1.908, 1.864, 1.889, 1.93, 1.972, 1.975, 1.927, 1.907, 1.912, 1.899, 1.925, 1.906, 1.903, 1.915, 1.955, 2.031, 2.019, 2.032, 2.013, 2.079, 2.106, 2.115, 2.118, 2.179, 2.322, 2.262, 2.318, 2.287, 2.382, 2.383, 2.278, 2.36, 2.409, 2.616, 2.645, 2.616</t>
   </si>
   <si>
     <t>000220</t>
@@ -836,7 +830,7 @@
     <t>富国医疗保健行业混合A</t>
   </si>
   <si>
-    <t>4.799, 4.775, 4.822, 4.548, 4.649, 4.571, 4.769, 4.849, 4.99, 4.695, 4.754, 4.76, 4.945, 4.955, 5.03, 5.149, 5.047, 5.126, 4.966, 4.906, 4.878, 4.81, 4.649, 4.57, 4.589, 4.637, 4.69, 4.54, 4.526, 4.572, 4.567, 4.6, 4.584, 4.666, 4.825, 4.771, 4.758, 4.741, 4.734, 4.68, 4.492, 4.493, 4.263, 4.272, 4.354, 4.323, 4.387, 4.298, 4.227, 4.269, 4.237, 4.27, 4.422, 4.377, 4.39, 4.328, 4.368, 4.43, 4.537, 4.687, 4.761, 4.762, 4.719, 4.728, 4.622, 4.678, 4.679, 4.61, 4.432, 4.478, 4.629, 4.671, 4.771, 4.696, 4.692, 4.749, 4.778, 4.753, 4.581, 4.685, 4.58, 4.425, 4.472, 4.467, 4.519, 4.37, 4.217, 4.26, 4.289, 4.279, 4.226, 4.103, 4.114, 4.141, 4.164, 4.29, 4.28, 4.372, 4.461, 4.478, 4.501, 4.432, 4.492, 4.456, 4.555, 4.624, 4.677, 4.762, 4.72, 4.807, 4.76, 4.755, 4.776, 4.872, 4.838, 4.81, 4.874, 4.919, 4.879, 4.973</t>
+    <t>4.775, 4.822, 4.548, 4.649, 4.571, 4.769, 4.849, 4.99, 4.695, 4.754, 4.76, 4.945, 4.955, 5.03, 5.149, 5.047, 5.126, 4.966, 4.906, 4.878, 4.81, 4.649, 4.57, 4.589, 4.637, 4.69, 4.54, 4.526, 4.572, 4.567, 4.6, 4.584, 4.666, 4.825, 4.771, 4.758, 4.741, 4.734, 4.68, 4.492, 4.493, 4.263, 4.272, 4.354, 4.323, 4.387, 4.298, 4.227, 4.269, 4.237, 4.27, 4.422, 4.377, 4.39, 4.328, 4.368, 4.43, 4.537, 4.687, 4.761, 4.762, 4.719, 4.728, 4.622, 4.678, 4.679, 4.61, 4.432, 4.478, 4.629, 4.671, 4.771, 4.696, 4.692, 4.749, 4.778, 4.753, 4.581, 4.685, 4.58, 4.425, 4.472, 4.467, 4.519, 4.37, 4.217, 4.26, 4.289, 4.279, 4.226, 4.103, 4.114, 4.141, 4.164, 4.29, 4.28, 4.372, 4.461, 4.478, 4.501, 4.432, 4.492, 4.456, 4.555, 4.624, 4.677, 4.762, 4.72, 4.807, 4.76, 4.755, 4.776, 4.872, 4.838, 4.81, 4.874, 4.919, 4.879, 4.973, 5.085</t>
   </si>
   <si>
     <t>000071</t>
@@ -845,7 +839,7 @@
     <t>华夏恒生ETF联接A</t>
   </si>
   <si>
-    <t>1.4741, 1.4593, 1.4587, 1.4281, 1.4379, 1.433, 1.464, 1.4306, 1.4444, 1.4147, 1.4111, 1.4175, 1.425, 1.4141, 1.4071, 1.4016, 1.4253, 1.4323, 1.4168, 1.3945, 1.3916, 1.4202, 1.4371, 1.4324, 1.4296, 1.4379, 1.4386, 1.4255, 1.4063, 1.421, 1.446, 1.4425, 1.4405, 1.4272, 1.4355, 1.4175, 1.417, 1.4125, 1.403, 1.3872, 1.3822, 1.3831, 1.3766, 1.3666, 1.3779, 1.3843, 1.3877, 1.3807, 1.3579, 1.3626, 1.3358, 1.3283, 1.3318, 1.3096, 1.3068, 1.3218, 1.3104, 1.3188, 1.348, 1.3648, 1.3678, 1.3714, 1.3427, 1.3544, 1.357, 1.3564, 1.3632, 1.362, 1.371, 1.3713, 1.3687, 1.368, 1.3629, 1.3381, 1.3514, 1.3772, 1.3704, 1.4152, 1.404, 1.4171, 1.4278, 1.426, 1.4262, 1.4262, 1.4329, 1.429, 1.4326, 1.421, 1.4318, 1.4324, 1.4396, 1.4423, 1.4508, 1.4545, 1.4268, 1.4405, 1.4325, 1.4422, 1.4456, 1.4251, 1.4143, 1.4245, 1.4226, 1.4258, 1.4192, 1.4116, 1.4233, 1.4341, 1.4238, 1.4177, 1.4055, 1.4202, 1.4189, 1.4182, 1.4127, 1.4297, 1.4574, 1.4591, 1.4748, 1.4698</t>
+    <t>1.4593, 1.4587, 1.4281, 1.4379, 1.433, 1.464, 1.4306, 1.4444, 1.4147, 1.4111, 1.4175, 1.425, 1.4141, 1.4071, 1.4016, 1.4253, 1.4323, 1.4168, 1.3945, 1.3916, 1.4202, 1.4371, 1.4324, 1.4296, 1.4379, 1.4386, 1.4255, 1.4063, 1.421, 1.446, 1.4425, 1.4405, 1.4272, 1.4355, 1.4175, 1.417, 1.4125, 1.403, 1.3872, 1.3822, 1.3831, 1.3766, 1.3666, 1.3779, 1.3843, 1.3877, 1.3807, 1.3579, 1.3626, 1.3358, 1.3283, 1.3318, 1.3096, 1.3068, 1.3218, 1.3104, 1.3188, 1.348, 1.3648, 1.3678, 1.3714, 1.3427, 1.3544, 1.357, 1.3564, 1.3632, 1.362, 1.371, 1.3713, 1.3687, 1.368, 1.3629, 1.3381, 1.3514, 1.3772, 1.3704, 1.4152, 1.404, 1.4171, 1.4278, 1.426, 1.4262, 1.4262, 1.4329, 1.429, 1.4326, 1.421, 1.4318, 1.4324, 1.4396, 1.4423, 1.4508, 1.4545, 1.4268, 1.4405, 1.4325, 1.4422, 1.4456, 1.4251, 1.4143, 1.4245, 1.4226, 1.4258, 1.4192, 1.4116, 1.4233, 1.4341, 1.4238, 1.4177, 1.4055, 1.4202, 1.4189, 1.4182, 1.4127, 1.4297, 1.4574, 1.4591, 1.4748, 1.4698, 1.4689</t>
   </si>
   <si>
     <t>20200306</t>
@@ -857,7 +851,7 @@
     <t>华夏中证5G通信主题ETF联接C</t>
   </si>
   <si>
-    <t>1.454, 1.4353, 1.3675, 1.277, 1.2918, 1.3199, 1.3247, 1.3365, 1.321, 1.2456, 1.246, 1.271, 1.3152, 1.299, 1.3347, 1.3653, 1.3403, 1.3498, 1.334, 1.3001, 1.2894, 1.2707, 1.2848, 1.2744, 1.2966, 1.318, 1.3012, 1.2631, 1.2646, 1.2794, 1.3094, 1.306, 1.2746, 1.2842, 1.292, 1.2855, 1.2931, 1.2977, 1.2775, 1.2797, 1.2377, 1.2296, 1.1884, 1.1705, 1.2038, 1.2162, 1.2137, 1.2013, 1.2094, 1.2275, 1.2207, 1.2133, 1.219, 1.1886, 1.1849, 1.1845, 1.1926, 1.1931, 1.2405, 1.2652, 1.261, 1.2348, 1.2286, 1.2153, 1.2157, 1.2298, 1.2045, 1.1998, 1.1818, 1.1903, 1.1986, 1.2157, 1.2023, 1.1769, 1.1892, 1.2056, 1.2054, 1.2486, 1.2567, 1.3, 1.2714, 1.2315, 1.2384, 1.237, 1.2151, 1.2208, 1.2167, 1.2193, 1.217, 1.2125, 1.2125, 1.2007, 1.193, 1.2013, 1.2041, 1.2216, 1.2244, 1.2153, 1.224, 1.2227, 1.2196, 1.2054, 1.1996, 1.1746, 1.1704, 1.1739, 1.1671, 1.1712, 1.1591, 1.171, 1.1482, 1.1686, 1.1565, 1.1534, 1.1376, 1.1629, 1.1653, 1.175, 1.1897, 1.2323</t>
+    <t>1.4353, 1.3675, 1.277, 1.2918, 1.3199, 1.3247, 1.3365, 1.321, 1.2456, 1.246, 1.271, 1.3152, 1.299, 1.3347, 1.3653, 1.3403, 1.3498, 1.334, 1.3001, 1.2894, 1.2707, 1.2848, 1.2744, 1.2966, 1.318, 1.3012, 1.2631, 1.2646, 1.2794, 1.3094, 1.306, 1.2746, 1.2842, 1.292, 1.2855, 1.2931, 1.2977, 1.2775, 1.2797, 1.2377, 1.2296, 1.1884, 1.1705, 1.2038, 1.2162, 1.2137, 1.2013, 1.2094, 1.2275, 1.2207, 1.2133, 1.219, 1.1886, 1.1849, 1.1845, 1.1926, 1.1931, 1.2405, 1.2652, 1.261, 1.2348, 1.2286, 1.2153, 1.2157, 1.2298, 1.2045, 1.1998, 1.1818, 1.1903, 1.1986, 1.2157, 1.2023, 1.1769, 1.1892, 1.2056, 1.2054, 1.2486, 1.2567, 1.3, 1.2714, 1.2315, 1.2384, 1.237, 1.2151, 1.2208, 1.2167, 1.2193, 1.217, 1.2125, 1.2125, 1.2007, 1.193, 1.2013, 1.2041, 1.2216, 1.2244, 1.2153, 1.224, 1.2227, 1.2196, 1.2054, 1.1996, 1.1746, 1.1704, 1.1739, 1.1671, 1.1712, 1.1591, 1.171, 1.1482, 1.1686, 1.1565, 1.1534, 1.1376, 1.1629, 1.1653, 1.175, 1.1897, 1.2323, 1.2096</t>
   </si>
   <si>
     <t>008282</t>
@@ -866,7 +860,7 @@
     <t>国泰CES半导体芯片行业ETF联接C</t>
   </si>
   <si>
-    <t>1.8403, 1.8257, 1.7365, 1.6002, 1.5712, 1.6318, 1.6262, 1.6401, 1.6393, 1.5525, 1.5653, 1.5643, 1.629, 1.6136, 1.6534, 1.7235, 1.6851, 1.7091, 1.7192, 1.6805, 1.6711, 1.6418, 1.634, 1.6251, 1.645, 1.6711, 1.6652, 1.6088, 1.5875, 1.5807, 1.5915, 1.5747, 1.5142, 1.5525, 1.5663, 1.5539, 1.5556, 1.5374, 1.5376, 1.5602, 1.5135, 1.4887, 1.4285, 1.4102, 1.4531, 1.4702, 1.478, 1.4713, 1.502, 1.5134, 1.5129, 1.4835, 1.5039, 1.4738, 1.4557, 1.4388, 1.4626, 1.4575, 1.4981, 1.5627, 1.5647, 1.536, 1.5271, 1.5139, 1.5013, 1.5138, 1.4715, 1.4687, 1.4375, 1.4407, 1.4498, 1.454, 1.4499, 1.4738, 1.5027, 1.5257, 1.5143, 1.5329, 1.5555, 1.6744, 1.6303, 1.5525, 1.5499, 1.5567, 1.5434, 1.5553, 1.5456, 1.555, 1.5526, 1.5587, 1.5732, 1.5659, 1.5547, 1.5586, 1.5695, 1.5808, 1.6106, 1.5924, 1.6022, 1.6113, 1.6095, 1.5643, 1.577, 1.5554, 1.5757, 1.5593, 1.5405, 1.545, 1.5355, 1.5694, 1.5189, 1.5563, 1.5493, 1.5343, 1.5156, 1.5189, 1.5345, 1.5585, 1.5932, 1.6